--- a/Project/code/intermediate/models/0005_ViT_strong_4/results_0.0000_max_val/individual_clip_results.xlsx
+++ b/Project/code/intermediate/models/0005_ViT_strong_4/results_0.0000_max_val/individual_clip_results.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.05772242695093155, 0.0647868812084198, 0.06625586003065109, 0.06392183154821396, 0.0553242564201355, 0.04861963540315628, 0.052040424197912216, 0.05977654829621315, 0.04698093980550766, 0.04561866074800491, 0.03752634674310684, 0.030617518350481987, 0.04163344204425812, 0.037315502762794495, 0.035798609256744385, 0.04546193778514862, 0.051577128469944, 0.0493413470685482, 0.059777405112981796, 0.05974237620830536, 0.058280277997255325, 0.04780198261141777, 0.038447633385658264, 0.04595845192670822, 0.058793485164642334, 0.06565354019403458, 0.05407894030213356, 0.045400384813547134, 0.0350843220949173, 0.04553046450018883, 0.049893759191036224, 0.0519823394715786, 0.04679127782583237, 0.0404096283018589, 0.037422578781843185, 0.03556264564394951, 0.03855523467063904, 0.04328572005033493, 0.04808160290122032, 0.0501333549618721, 0.05047779530286789, 0.047012463212013245, 0.044310107827186584, 0.04647543281316757, 0.047333184629678726, 0.048497267067432404, 0.04993075132369995, 0.05820854380726814, 0.06504999846220016, 0.05692555382847786, 0.051421619951725006, 0.046313799917697906, 0.0373925156891346, 0.03138476982712746, 0.031960707157850266, 0.03289436548948288, 0.03418945521116257, 0.03649476543068886, 0.033034130930900574, 0.03600025177001953, 0.046683311462402344, 0.05789859592914581, 0.08351874351501465, 0.05863798037171364, 0.04777817055583, 0.0482182539999485, 0.04125147685408592, 0.040179766714572906, 0.045633766800165176, 0.03911769390106201, 0.05191749706864357, 0.04971533268690109, 0.03628997877240181, 0.05325626954436302, 0.058008383959531784, 0.03848133608698845, 0.046894729137420654, 0.04381353780627251, 0.04725375026464462, 0.049014750868082047, 0.053737521171569824, 0.04599085822701454, 0.044776108115911484, 0.036199238151311874, 0.04631897434592247, 0.05806828662753105, 0.047203317284584045, 0.050596967339515686, 0.06610353291034698, 0.0662073940038681, 0.05197795853018761, 0.04972182586789131, 0.04756626486778259, 0.04517704248428345, 0.04805713891983032, 0.05089239776134491, 0.05268455296754837, 0.05239215865731239, 0.04685347154736519, 0.04362332075834274, 0.046508096158504486, 0.049348823726177216, 0.051678065210580826, 0.05400051176548004, 0.05790754035115242, 0.06508287787437439, 0.07323012501001358, 0.07717403024435043, 0.08838696032762527, 0.08824116736650467, 0.0746002197265625, 0.06636571884155273, 0.058002177625894547, 0.04880731552839279, 0.0442131944000721, 0.04603178799152374, 0.044350702315568924, 0.04855909198522568, 0.054294418543577194, 0.046943195164203644, 0.042715784162282944, 0.051303472369909286, 0.0696198120713234, 0.05625217407941818, 0.04769138619303703, 0.03828790783882141, 0.034010905772447586, 0.02635468915104866, 0.026185300201177597, 0.0477931872010231, 0.05487779155373573, 0.04792073741555214, 0.04713637754321098, 0.04356737434864044, 0.03788815066218376, 0.03110523708164692, 0.04348844289779663, 0.04894101992249489, 0.06324203312397003, 0.05523949861526489, 0.06442829966545105, 0.05539481341838837, 0.0428241603076458, 0.04706481471657753, 0.04895395040512085, 0.0425182543694973, 0.042712047696113586, 0.04176905006170273, 0.03593020141124725, 0.03526485711336136, 0.038593802601099014, 0.03384307026863098, 0.037238709628582, 0.0348358154296875, 0.037640128284692764, 0.03655598685145378, 0.040036097168922424, 0.048462897539138794, 0.05087076127529144, 0.049279920756816864, 0.053476668894290924, 0.05803653225302696, 0.06639833003282547, 0.06507859379053116, 0.05670923739671707, 0.051500335335731506, 0.05080476030707359, 0.056397922337055206, 0.050216395407915115, 0.04385953024029732, 0.031033335253596306, 0.031068475916981697, 0.04474491998553276, 0.0523945614695549, 0.0364651083946228, 0.03520253300666809, 0.02956109121441841, 0.02381054498255253, 0.0492793433368206, 0.029660599306225777, 0.031039759516716003, 0.01991165429353714, 0.02371310442686081, 0.019025955349206924, 0.029786279425024986, 0.012941038236021996, 0.01645040512084961, 0.023121090605854988, 0.017995478585362434, 0.02924928069114685, 0.04532570019364357, 0.05581332743167877, 0.0879988744854927, 0.052792008966207504, 0.0552854984998703, 0.0971585065126419, 0.0656137615442276, 0.07831750810146332, 0.09512262046337128, 0.12526284158229828, 0.10458297282457352, 0.19137661159038544, 0.11417564004659653, 0.057529982179403305, 0.04746662825345993, 0.058863308280706406, 0.0766495019197464, 0.06399665027856827, 0.05842631682753563, 0.05557963252067566, 0.054186463356018066, 0.03660165145993233, 0.031627532094717026, 0.0339478999376297]</t>
+          <t>[0.02166271209716797, 0.0217423215508461, 0.021243982017040253, 0.02099098451435566, 0.02105499617755413, 0.019976573064923286, 0.023414306342601776, 0.023293394595384598, 0.018501726910471916, 0.017397888004779816, 0.015415583737194538, 0.013033757917582989, 0.013932822272181511, 0.014244062826037407, 0.012921227142214775, 0.016610203310847282, 0.019626136869192123, 0.02294539473950863, 0.031113900244235992, 0.02553720586001873, 0.02857845276594162, 0.023252340033650398, 0.020057396963238716, 0.025662556290626526, 0.03322794288396835, 0.032497700303792953, 0.023534586653113365, 0.01964109018445015, 0.015424487181007862, 0.019087523221969604, 0.021558839827775955, 0.02263260819017887, 0.019374124705791473, 0.01599247381091118, 0.014097167178988457, 0.0143591845408082, 0.015218805521726608, 0.015340819023549557, 0.015725933015346527, 0.01597052998840809, 0.01705344393849373, 0.017045045271515846, 0.017299236729741096, 0.01799558661878109, 0.017984062433242798, 0.018439868465065956, 0.02075253427028656, 0.026761779561638832, 0.02973191626369953, 0.02680339105427265, 0.024107016623020172, 0.022138215601444244, 0.01973124034702778, 0.01593087799847126, 0.01505519449710846, 0.014934116974473, 0.015602157451212406, 0.016375375911593437, 0.01538433413952589, 0.01768062636256218, 0.021002478897571564, 0.02401280403137207, 0.037029948085546494, 0.023864656686782837, 0.019762886688113213, 0.019842911511659622, 0.019699834287166595, 0.01696295104920864, 0.019887590780854225, 0.018226347863674164, 0.02418738417327404, 0.021628547459840775, 0.017062583938241005, 0.027083881199359894, 0.029206370934844017, 0.019772004336118698, 0.025568485260009766, 0.026034297421574593, 0.026552103459835052, 0.02380777895450592, 0.025274187326431274, 0.020971549674868584, 0.02060004137456417, 0.01826190948486328, 0.018655715510249138, 0.020757798105478287, 0.018311362713575363, 0.021636873483657837, 0.026768825948238373, 0.027265002951025963, 0.02298823744058609, 0.02136816456913948, 0.02206147275865078, 0.021427221596240997, 0.02210795320570469, 0.023617470636963844, 0.024600183591246605, 0.02450629323720932, 0.024378683418035507, 0.02207908220589161, 0.02538304589688778, 0.026298509910702705, 0.026994381099939346, 0.028854528442025185, 0.02920914627611637, 0.030881205573678017, 0.03597602620720863, 0.039069000631570816, 0.04378743842244148, 0.04139390587806702, 0.034832485020160675, 0.031207922846078873, 0.028028298169374466, 0.02143528126180172, 0.020664259791374207, 0.022602787241339684, 0.023226644843816757, 0.022353531792759895, 0.023526951670646667, 0.02073708362877369, 0.018758801743388176, 0.019748058170080185, 0.023060902953147888, 0.019561002030968666, 0.018210960552096367, 0.01781851425766945, 0.018854349851608276, 0.014427972957491875, 0.01410828810185194, 0.01734793186187744, 0.020430738106369972, 0.023102540522813797, 0.025471629574894905, 0.023882709443569183, 0.018084924668073654, 0.015551872551441193, 0.01947215385735035, 0.019674688577651978, 0.025098854675889015, 0.020962662994861603, 0.023351943120360374, 0.025140950456261635, 0.020827343687415123, 0.01808740384876728, 0.020840540528297424, 0.016906844452023506, 0.01590227149426937, 0.016200250014662743, 0.01517101377248764, 0.0171815212816, 0.019656576216220856, 0.01797335222363472, 0.019673943519592285, 0.019305994734168053, 0.020587285980582237, 0.019840335473418236, 0.020844489336013794, 0.024710316210985184, 0.02499930001795292, 0.025505270808935165, 0.02691955678164959, 0.028451906517148018, 0.032214630395174026, 0.02969720959663391, 0.025734154507517815, 0.024549098685383797, 0.02495838701725006, 0.029150081798434258, 0.027196206152439117, 0.02508905529975891, 0.017555981874465942, 0.01753411814570427, 0.02704084850847721, 0.029494542628526688, 0.017390023916959763, 0.022023899480700493, 0.012057316489517689, 0.011664452031254768, 0.034664783626794815, 0.023905014619231224, 0.027535002678632736, 0.012820539064705372, 0.018549541011452675, 0.009429273195564747, 0.01990383490920067, 0.010738657787442207, 0.00887997541576624, 0.01646571047604084, 0.012587888166308403, 0.021188056096434593, 0.03666666895151138, 0.03989739343523979, 0.07925373315811157, 0.06150708347558975, 0.062284402549266815, 0.11050540953874588, 0.08203817903995514, 0.10716982930898666, 0.12940385937690735, 0.18148677051067352, 0.12092214077711105, 0.27334827184677124, 0.15586940944194794, 0.061736099421978, 0.06171885505318642, 0.12424187362194061, 0.11015422642230988, 0.07745981216430664, 0.05718778073787689, 0.05162116140127182, 0.0665338784456253, 0.04606600105762482, 0.03596685081720352, 0.035218801349401474]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1913766115903854</v>
+        <v>0.2733482718467712</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.610533599974588</v>
+        <v>1.782493699996849</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007525857943806484</v>
+        <v>0.008329409813069386</v>
       </c>
     </row>
     <row r="3">
@@ -645,11 +645,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.1515064388513565, 0.15007156133651733, 0.15349426865577698, 0.09930237382650375, 0.1281156688928604, 0.08171356469392776, 0.08624723553657532, 0.08984851837158203, 0.09787523001432419, 0.088291235268116, 0.11292506754398346, 0.08237171173095703, 0.13545316457748413, 0.09596823900938034, 0.10234754532575607, 0.08424954861402512, 0.09015051275491714, 0.07653583586215973, 0.08145507425069809, 0.07233253121376038, 0.07005485892295837, 0.0877365842461586, 0.0839114561676979, 0.09158816933631897, 0.07726652920246124, 0.06290725618600845, 0.06412458419799805, 0.05894814431667328, 0.055061131715774536, 0.055664341896772385, 0.062041934579610825, 0.06035134568810463, 0.045085515826940536, 0.04388868808746338, 0.04843691363930702, 0.04842771589756012, 0.0493987500667572, 0.05751720070838928, 0.06117760390043259, 0.05090198665857315, 0.048650071024894714, 0.0465334914624691, 0.045015305280685425, 0.047231514006853104, 0.05397871136665344, 0.055255498737096786, 0.04777724668383598, 0.05690805986523628, 0.06978578120470047, 0.06707014888525009, 0.05590791255235672, 0.05411015450954437, 0.0559900663793087, 0.06178570166230202, 0.06599795073270798, 0.07015286386013031, 0.07933181524276733, 0.07635791599750519, 0.07094134390354156, 0.07583139091730118, 0.06554025411605835, 0.054928407073020935, 0.06549796462059021, 0.07581326365470886, 0.06388291716575623, 0.07531896233558655, 0.061373088508844376, 0.05467447265982628, 0.06014926731586456, 0.0751507431268692, 0.07003339380025864, 0.05924815684556961, 0.05933871492743492, 0.058575987815856934, 0.08037430047988892, 0.08843332529067993, 0.08181192725896835, 0.08228368312120438, 0.06598430126905441, 0.06181929260492325, 0.09386634081602097, 0.08674146980047226, 0.08345380425453186, 0.0849561095237732, 0.07351461052894592, 0.10184427350759506, 0.07712799310684204, 0.08288915455341339, 0.07424408197402954, 0.10294357687234879, 0.10223932564258575, 0.1195947602391243, 0.0854596272110939, 0.1152028813958168, 0.1649959236383438, 0.11901948601007462, 0.10386822372674942, 0.11261563748121262, 0.14350563287734985, 0.12742672860622406, 0.1916959434747696, 0.183211550116539, 0.19406597316265106, 0.19555751979351044, 0.17331933975219727, 0.18497464060783386, 0.13212554156780243, 0.12017026543617249, 0.15493261814117432, 0.16902010142803192, 0.17703324556350708, 0.16547822952270508, 0.14702191948890686, 0.14430977404117584, 0.14105142652988434, 0.14703568816184998, 0.11981213837862015, 0.12296588718891144, 0.1296308934688568, 0.1422392725944519, 0.13817372918128967, 0.14713910222053528, 0.1419297456741333, 0.12814226746559143, 0.14234140515327454, 0.13973672688007355, 0.1254025548696518, 0.14136962592601776, 0.13703171908855438, 0.14723561704158783, 0.17482061684131622, 0.14305463433265686, 0.1319454312324524, 0.13360969722270966, 0.14988653361797333, 0.15035250782966614, 0.1384078562259674, 0.10338819772005081, 0.09633883833885193, 0.13751956820487976, 0.13204683363437653, 0.13175101578235626, 0.11049418151378632, 0.0950874388217926, 0.12115246802568436, 0.12041784077882767, 0.14171598851680756, 0.11298564821481705, 0.12655939161777496, 0.14506840705871582, 0.1388939470052719, 0.11082927882671356, 0.11609792709350586, 0.12403465807437897, 0.1286422163248062, 0.12008295953273773, 0.14110144972801208, 0.16396580636501312, 0.10259868949651718, 0.09326983243227005, 0.0632568970322609, 0.08030110597610474, 0.08976898342370987, 0.07868920266628265, 0.06641916185617447, 0.08112875372171402, 0.10049270838499069, 0.10304282605648041, 0.08633505553007126, 0.09175650775432587, 0.07627158612012863, 0.077985979616642, 0.07642528414726257, 0.08274685591459274, 0.09827984869480133, 0.08394494652748108, 0.08546636998653412, 0.1108643189072609, 0.1349826455116272, 0.12892350554466248, 0.11472009122371674, 0.08150829374790192, 0.06655856966972351, 0.055529605597257614, 0.08522089570760727, 0.057343509048223495, 0.052083030343055725, 0.09068140387535095, 0.10723770409822464, 0.08215530961751938, 0.06636252254247665, 0.08044004440307617, 0.1097702905535698, 0.09805629402399063, 0.07368158549070358, 0.07129263877868652, 0.0660235807299614, 0.07431185990571976, 0.08465845882892609, 0.07098226249217987, 0.07140383124351501, 0.07244863361120224, 0.08152156323194504, 0.08939530700445175, 0.07778023183345795, 0.09250269085168839, 0.08954274654388428, 0.08961109817028046, 0.12071322649717331, 0.11233511567115784, 0.10828707367181778, 0.1213316023349762, 0.10855871438980103]</t>
+          <t>[0.18334122002124786, 0.19315756857395172, 0.1990547776222229, 0.11219105869531631, 0.12973272800445557, 0.07366138696670532, 0.07069317996501923, 0.07450740039348602, 0.0938074141740799, 0.08547697216272354, 0.11000688374042511, 0.09135459363460541, 0.14880603551864624, 0.13014312088489532, 0.1251201629638672, 0.11095411330461502, 0.11507070064544678, 0.09634770452976227, 0.1033504530787468, 0.09268300235271454, 0.09549857676029205, 0.09437182545661926, 0.08441080898046494, 0.08223038911819458, 0.06640184670686722, 0.04991762340068817, 0.05636512488126755, 0.05532679706811905, 0.05339401215314865, 0.05677611008286476, 0.0624159574508667, 0.05281906947493553, 0.03960007429122925, 0.04009507969021797, 0.04122518375515938, 0.04346185177564621, 0.04560233652591705, 0.05174039304256439, 0.06151735410094261, 0.05746551230549812, 0.05075198784470558, 0.04852814972400665, 0.047675494104623795, 0.046602703630924225, 0.04709702730178833, 0.04858698323369026, 0.04531511291861534, 0.04764441028237343, 0.06670236587524414, 0.06133770942687988, 0.05740839242935181, 0.04971936345100403, 0.05398876965045929, 0.06710377335548401, 0.07391324639320374, 0.07060335576534271, 0.08521812409162521, 0.08081137388944626, 0.07261544466018677, 0.07352875918149948, 0.07305837422609329, 0.06004107743501663, 0.0621095672249794, 0.0690961480140686, 0.05239222198724747, 0.0654325857758522, 0.05208195745944977, 0.0470753088593483, 0.057265158742666245, 0.07642517983913422, 0.07027493417263031, 0.05962269380688667, 0.06833244860172272, 0.06922789663076401, 0.08781733363866806, 0.10258364677429199, 0.11186075955629349, 0.09036535024642944, 0.0718860924243927, 0.074087955057621, 0.09164861589670181, 0.08702894300222397, 0.08264897763729095, 0.08659613877534866, 0.07800596207380295, 0.113803431391716, 0.08710312843322754, 0.08739372342824936, 0.07393783330917358, 0.09371176362037659, 0.09858530014753342, 0.1253173053264618, 0.09900229424238205, 0.15996074676513672, 0.21706712245941162, 0.15311843156814575, 0.15231752395629883, 0.1599937081336975, 0.21387410163879395, 0.20505264401435852, 0.3051118552684784, 0.2859437167644501, 0.29479315876960754, 0.32359036803245544, 0.2576103210449219, 0.284336119890213, 0.2047761082649231, 0.19252748787403107, 0.23079878091812134, 0.2617761790752411, 0.2871425151824951, 0.2925303280353546, 0.25120580196380615, 0.2549592852592468, 0.22855211794376373, 0.24022549390792847, 0.1857660710811615, 0.21923372149467468, 0.23785415291786194, 0.22997687757015228, 0.2203175127506256, 0.2335311621427536, 0.21660253405570984, 0.21046386659145355, 0.24290260672569275, 0.23182708024978638, 0.21474769711494446, 0.21156398952007294, 0.2064388394355774, 0.20170637965202332, 0.26660892367362976, 0.23906965553760529, 0.23403380811214447, 0.22980067133903503, 0.2593105733394623, 0.2567104399204254, 0.2226402312517166, 0.1560683697462082, 0.1400776505470276, 0.23472386598587036, 0.23486442863941193, 0.2247069776058197, 0.18051962554454803, 0.15830735862255096, 0.2142488956451416, 0.20370738208293915, 0.23666396737098694, 0.17248371243476868, 0.2021319568157196, 0.2296665906906128, 0.21233925223350525, 0.17394515872001648, 0.16776993870735168, 0.1809408962726593, 0.2079150676727295, 0.1618364006280899, 0.17821015417575836, 0.2187899798154831, 0.13272936642169952, 0.12053318321704865, 0.08701242506504059, 0.11819227784872055, 0.12800736725330353, 0.10517323762178421, 0.08616378903388977, 0.10522197186946869, 0.1348157823085785, 0.1381247639656067, 0.09333769232034683, 0.10043251514434814, 0.07843898236751556, 0.08916380256414413, 0.09584438055753708, 0.1033194363117218, 0.12178783118724823, 0.11358964443206787, 0.0933583453297615, 0.11409679055213928, 0.13738460838794708, 0.1106424406170845, 0.10339406132698059, 0.07188145071268082, 0.06269918382167816, 0.06261979788541794, 0.09009764343500137, 0.067607581615448, 0.05193339288234711, 0.08194798231124878, 0.09192784130573273, 0.0741790235042572, 0.05762610211968422, 0.06287234276533127, 0.07552117854356766, 0.07545135915279388, 0.057118527591228485, 0.05267713591456413, 0.04140879958868027, 0.044568173587322235, 0.05318303406238556, 0.04873150587081909, 0.05764532461762428, 0.06096161529421806, 0.08211133629083633, 0.09155033528804779, 0.08526642620563507, 0.10452651977539062, 0.11139202117919922, 0.09733422100543976, 0.12908746302127838, 0.10466275364160538, 0.10248791426420212, 0.11154750734567642, 0.08856834471225739]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1955575197935104</v>
+        <v>0.3235903680324554</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.175557600014145</v>
+        <v>1.206265799992252</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005519049765324622</v>
+        <v>0.005663219718273484</v>
       </c>
     </row>
     <row r="4">
@@ -685,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.49028998613357544, 0.6724215745925903, 0.7528716921806335, 0.733915388584137, 0.7274723052978516, 0.6176015138626099, 0.5406097769737244, 0.34610986709594727, 0.40197354555130005, 0.35825809836387634, 0.25967979431152344, 0.1772746741771698, 0.19200091063976288, 0.3811666667461395, 0.5926704406738281, 0.46697190403938293, 0.17008543014526367, 0.15501835942268372, 0.13705752789974213, 0.2627221345901489, 0.3562260568141937, 0.32223647832870483, 0.3494876027107239, 0.4326260983943939, 0.33627620339393616, 0.26870474219322205, 0.21976207196712494, 0.166916623711586, 0.279693603515625, 0.24033644795417786, 0.29857856035232544, 0.3082383871078491, 0.43238914012908936, 0.4761829972267151, 0.5029095411300659, 0.40692368149757385, 0.506068766117096, 0.5737720727920532, 0.532924234867096, 0.5274313688278198, 0.48005786538124084, 0.509337842464447, 0.43094760179519653, 0.4732895493507385, 0.5550349354743958, 0.6784687638282776, 0.7172336578369141, 0.8234131336212158, 0.6597244143486023, 0.6746764183044434, 0.616287887096405, 0.5954731106758118, 0.6208930611610413, 0.6770459413528442, 0.6915771961212158, 0.4690733850002289, 0.3723128139972687, 0.41859447956085205, 0.41492050886154175, 0.4619419276714325, 0.48520296812057495, 0.5674252510070801, 0.6115161776542664, 0.7725096344947815, 0.6797216534614563, 0.5727676749229431, 0.55281001329422, 0.6880329847335815, 0.5846545696258545, 0.6194467544555664, 0.6940018534660339, 0.548252522945404, 0.5072145462036133, 0.4090883731842041, 0.3560197949409485, 0.27702248096466064, 0.2781701385974884, 0.25991949439048767, 0.3852119743824005, 0.6093721985816956, 0.6134499907493591, 0.6598634719848633, 0.5497499704360962, 0.5393007397651672, 0.5837936401367188, 0.4754270613193512, 0.2810003161430359, 0.19029250741004944, 0.29429081082344055, 0.2099117487668991, 0.15579159557819366, 0.144720658659935, 0.14695462584495544, 0.16939957439899445, 0.22925874590873718, 0.16421259939670563, 0.2364097535610199, 0.23785187304019928, 0.29528510570526123, 0.3409498929977417, 0.3882559537887573, 0.44935500621795654, 0.4735614061355591, 0.3940049707889557, 0.3460997939109802, 0.3368465304374695, 0.23729272186756134, 0.23462527990341187, 0.3149324059486389, 0.26339370012283325, 0.2675870954990387, 0.31377023458480835, 0.32836490869522095, 0.28402015566825867, 0.21494469046592712, 0.5371678471565247]</t>
+          <t>[0.6342273354530334, 0.8769218325614929, 0.9092076420783997, 0.8619850873947144, 0.883562445640564, 0.7245314121246338, 0.5973461866378784, 0.38614651560783386, 0.4649033546447754, 0.3581469655036926, 0.3191327154636383, 0.22315199673175812, 0.28993380069732666, 0.46258482336997986, 0.6498407125473022, 0.5866580605506897, 0.25748199224472046, 0.2151014506816864, 0.16538898646831512, 0.39106982946395874, 0.4584762156009674, 0.4495214521884918, 0.39203548431396484, 0.47133907675743103, 0.4212394058704376, 0.29161688685417175, 0.2548190951347351, 0.2276923507452011, 0.3538604974746704, 0.3161374032497406, 0.31850430369377136, 0.3393042981624603, 0.5194675922393799, 0.6389517784118652, 0.7134578824043274, 0.5639293193817139, 0.6379796862602234, 0.6468098163604736, 0.637301504611969, 0.6455841660499573, 0.570587158203125, 0.6073480844497681, 0.5321606397628784, 0.5097841024398804, 0.6025500893592834, 0.733406126499176, 0.745933473110199, 0.8338537812232971, 0.6414269804954529, 0.8049538731575012, 0.8048505783081055, 0.7199307680130005, 0.666607677936554, 0.7248817086219788, 0.7128614187240601, 0.4809962809085846, 0.34312719106674194, 0.3642324209213257, 0.36333268880844116, 0.4753788709640503, 0.5163386464118958, 0.6267936825752258, 0.6012585759162903, 0.7558603882789612, 0.6654170155525208, 0.6274042129516602, 0.6444510817527771, 0.7466713786125183, 0.6253053545951843, 0.607796311378479, 0.6844151616096497, 0.47340476512908936, 0.41392385959625244, 0.2955010235309601, 0.2688312232494354, 0.24834857881069183, 0.2623804211616516, 0.20746850967407227, 0.25310397148132324, 0.5669243335723877, 0.5406677722930908, 0.5822168588638306, 0.4418865442276001, 0.4326780438423157, 0.524364709854126, 0.4315813481807709, 0.23694634437561035, 0.16296806931495667, 0.25259625911712646, 0.16757367551326752, 0.12089347839355469, 0.10500901937484741, 0.10635468363761902, 0.13208672404289246, 0.1775994449853897, 0.11586704850196838, 0.16169171035289764, 0.13069270551204681, 0.16328683495521545, 0.2247857302427292, 0.3035179078578949, 0.33291348814964294, 0.44638824462890625, 0.42661869525909424, 0.26650264859199524, 0.2719009816646576, 0.13886810839176178, 0.11999508738517761, 0.19963482022285461, 0.19650475680828094, 0.19206756353378296, 0.21592414379119873, 0.2512124180793762, 0.19231575727462769, 0.14947469532489777, 0.5187531113624573]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8234131336212158</v>
+        <v>0.9092076420783997</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.6483590999851003</v>
+        <v>0.6575474999990547</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005589302586078451</v>
+        <v>0.005668512931026334</v>
       </c>
     </row>
     <row r="5">
@@ -725,11 +725,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.2843233644962311, 0.2757110893726349, 0.25296440720558167, 0.18600960075855255, 0.15782015025615692, 0.1546907275915146, 0.1879640370607376, 0.16255545616149902, 0.173170268535614, 0.15369853377342224, 0.15587513148784637, 0.1811283975839615, 0.17549243569374084, 0.15201158821582794, 0.14863215386867523, 0.17817899584770203, 0.1698700487613678, 0.14517495036125183, 0.16801717877388, 0.1593753844499588, 0.20949238538742065, 0.14842954277992249, 0.14069022238254547, 0.1410679966211319, 0.16069331765174866, 0.15688937902450562, 0.16969239711761475, 0.17812858521938324, 0.18065145611763, 0.16907018423080444, 0.17520958185195923, 0.15350903570652008, 0.20290756225585938, 0.24576276540756226, 0.19723856449127197, 0.22560618817806244, 0.2556456923484802, 0.1936233937740326, 0.18336699903011322, 0.1438988745212555, 0.1303274929523468, 0.162031352519989, 0.2377634346485138, 0.24184229969978333, 0.27872297167778015, 0.10525143891572952, 0.09819960594177246, 0.09182005375623703, 0.119113989174366, 0.12372840195894241, 0.127345010638237, 0.22827857732772827, 0.1945594847202301, 0.17196489870548248, 0.11250627040863037, 0.10638172924518585, 0.15136276185512543, 0.12431768327951431, 0.11228596419095993, 0.1279091238975525, 0.1812482327222824, 0.14564834535121918, 0.13203009963035583, 0.10562955588102341, 0.1114162728190422, 0.12321056425571442, 0.1682368963956833, 0.1593232899904251, 0.15653513371944427, 0.15058870613574982, 0.17357593774795532, 0.1891910880804062, 0.23572400212287903, 0.1729842573404312, 0.1815965175628662, 0.14882491528987885, 0.12997102737426758, 0.12224738299846649, 0.13554039597511292, 0.1141328513622284, 0.1464887410402298, 0.15521009266376495, 0.13013677299022675, 0.13482192158699036, 0.11125700175762177, 0.09854364395141602, 0.09949927777051926, 0.13003335893154144, 0.11664427071809769, 0.11305422335863113, 0.0749267190694809, 0.07745029032230377, 0.06922546029090881, 0.07531031221151352, 0.07453761994838715, 0.09758080542087555, 0.14034196734428406, 0.13767820596694946, 0.14669299125671387, 0.168769970536232, 0.17602315545082092, 0.21151891350746155, 0.21570482850074768, 0.17560669779777527, 0.1575053334236145, 0.12251856923103333, 0.10685190558433533, 0.10128490626811981, 0.11822091042995453, 0.1308027058839798, 0.14278212189674377, 0.13310110569000244, 0.12346545606851578, 0.10827911645174026, 0.11384300142526627, 0.11639732122421265]</t>
+          <t>[0.3278733491897583, 0.30048757791519165, 0.29080793261528015, 0.2013961225748062, 0.1587102711200714, 0.15321004390716553, 0.16929610073566437, 0.14111328125, 0.15308012068271637, 0.13256490230560303, 0.13495714962482452, 0.17426156997680664, 0.17209695279598236, 0.13874302804470062, 0.13209548592567444, 0.15075187385082245, 0.13913112878799438, 0.12379509955644608, 0.13806505501270294, 0.13524433970451355, 0.16737864911556244, 0.12626656889915466, 0.12101671099662781, 0.12287330627441406, 0.13147664070129395, 0.1442824751138687, 0.15518009662628174, 0.10987356305122375, 0.12175579369068146, 0.11255943775177002, 0.1321268081665039, 0.1126324012875557, 0.14914393424987793, 0.18374381959438324, 0.1334242969751358, 0.15889421105384827, 0.1704992800951004, 0.10919827967882156, 0.11860614269971848, 0.07847322523593903, 0.07942979782819748, 0.11423938721418381, 0.18746648728847504, 0.18505965173244476, 0.23157913982868195, 0.07519403845071793, 0.0672360360622406, 0.06019536778330803, 0.08083045482635498, 0.0871470719575882, 0.09347641468048096, 0.17341066896915436, 0.15550336241722107, 0.14753837883472443, 0.09925691038370132, 0.0905173271894455, 0.12894289195537567, 0.16065557301044464, 0.14975816011428833, 0.18101856112480164, 0.26116040349006653, 0.19741018116474152, 0.20759689807891846, 0.1751207858324051, 0.1941560059785843, 0.18055161833763123, 0.19100965559482574, 0.14234080910682678, 0.132022887468338, 0.13966359198093414, 0.15792565047740936, 0.17905014753341675, 0.19826897978782654, 0.14539605379104614, 0.15223802626132965, 0.14753581583499908, 0.12641708552837372, 0.10812077671289444, 0.09932269155979156, 0.08350835740566254, 0.10824444890022278, 0.11290328949689865, 0.0976736769080162, 0.11585356295108795, 0.07439476251602173, 0.06326251477003098, 0.07078666239976883, 0.09544859081506729, 0.0862274169921875, 0.08311539888381958, 0.057505618780851364, 0.06088559329509735, 0.05122644454240799, 0.06104498729109764, 0.06305498629808426, 0.0820547565817833, 0.12856866419315338, 0.14842969179153442, 0.15821804106235504, 0.18079616129398346, 0.16078443825244904, 0.20583291351795197, 0.2182815968990326, 0.1626911759376526, 0.14001601934432983, 0.10789389163255692, 0.08092283457517624, 0.07384971529245377, 0.09226776659488678, 0.11400868743658066, 0.11688093096017838, 0.09824544936418533, 0.07968360930681229, 0.07780317217111588, 0.0809832438826561, 0.09444912523031235]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2843233644962311</v>
+        <v>0.3278733491897583</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.6440220999938902</v>
+        <v>0.636640400000033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005551914655119743</v>
+        <v>0.005488279310345112</v>
       </c>
     </row>
     <row r="6">
@@ -765,11 +765,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.04413415491580963, 0.03716794773936272, 0.05643993616104126, 0.1204080730676651, 0.04053447023034096, 0.023891322314739227, 0.019413460046052933, 0.025674160569906235, 0.026426661759614944, 0.03843950852751732, 0.06130506470799446, 0.0649951621890068, 0.032296281307935715, 0.030635325238108635, 0.020842580124735832, 0.015428566373884678, 0.0139725711196661, 0.019105704501271248, 0.02142905443906784, 0.025153357535600662, 0.022760597988963127, 0.017742207273840904, 0.018417151644825935, 0.009853312745690346, 0.01565350778400898, 0.014478744007647038, 0.026570701971650124, 0.04565335437655449, 0.06265288591384888, 0.05235683545470238, 0.03165809437632561, 0.036269038915634155, 0.02339083142578602, 0.041606225073337555, 0.03834405168890953, 0.030300714075565338, 0.06269678473472595, 0.11538341641426086, 0.16693131625652313, 0.4505367577075958, 0.3743591010570526, 0.4434763789176941, 0.2714058458805084, 0.10694905370473862, 0.09592340141534805, 0.02869272418320179, 0.017176274210214615, 0.06607459485530853, 0.09229612350463867, 0.11661476641893387, 0.0948474109172821, 0.11164236068725586, 0.055219508707523346, 0.08395219594240189, 0.04467901214957237, 0.03371354565024376, 0.0336400642991066, 0.043855275958776474, 0.07735618203878403, 0.06967100501060486, 0.037047237157821655, 0.028583813458681107, 0.02317948080599308, 0.015169532969594002, 0.01883346401154995, 0.019900165498256683, 0.02999100834131241, 0.021341223269701004, 0.019911235198378563, 0.019357852637767792, 0.016853926703333855, 0.0162665918469429, 0.020615488290786743, 0.01662980392575264, 0.018547240644693375, 0.015904247760772705, 0.02046675607562065, 0.018969818949699402, 0.03042885661125183, 0.039719514548778534, 0.05478019267320633, 0.06484458595514297, 0.06971666216850281, 0.0516255721449852, 0.0794181153178215, 0.06643491983413696, 0.04547172784805298, 0.13781733810901642, 0.11973484605550766, 0.1667979657649994, 0.19212637841701508, 0.2347412258386612, 0.4123743176460266, 0.4119340181350708, 0.12135377526283264, 0.09760402888059616, 0.035994432866573334, 0.043670859187841415, 0.09301310032606125, 0.31267571449279785, 0.2802647352218628, 0.4069140553474426, 0.23467788100242615, 0.12914781272411346, 0.08736118674278259, 0.06313877552747726, 0.0932329073548317, 0.12035694718360901, 0.07123178988695145, 0.030924759805202484, 0.03109617531299591, 0.009198556654155254, 0.009356901980936527, 0.017508769407868385, 0.08816540986299515, 0.03234462812542915]</t>
+          <t>[0.017598437145352364, 0.013999308459460735, 0.018744098022580147, 0.04498334974050522, 0.013865291140973568, 0.008243782445788383, 0.006988172419369221, 0.007120839320123196, 0.008488726802170277, 0.011122113093733788, 0.021167855709791183, 0.030170751735568047, 0.014084410853683949, 0.012957878410816193, 0.008513850159943104, 0.005828938912600279, 0.0042649926617741585, 0.007101742085069418, 0.006954894866794348, 0.008901749737560749, 0.01011282205581665, 0.008248929865658283, 0.008035026490688324, 0.004212222993373871, 0.00595290819182992, 0.005472959019243717, 0.011888621374964714, 0.011645428836345673, 0.012256096117198467, 0.011774119921028614, 0.011718607507646084, 0.012113753706216812, 0.012827601283788681, 0.01764625683426857, 0.012142245657742023, 0.01098646130412817, 0.04844699427485466, 0.13075444102287292, 0.1648586392402649, 0.6303405165672302, 0.5991711020469666, 0.6426756978034973, 0.20449300110340118, 0.031380292028188705, 0.024196140468120575, 0.011241407133638859, 0.007375960238277912, 0.03380544111132622, 0.057521190494298935, 0.07142214477062225, 0.05346602573990822, 0.0767231211066246, 0.033599067479372025, 0.04657985642552376, 0.027677716687321663, 0.017841674387454987, 0.018818948417901993, 0.01843111403286457, 0.027611080557107925, 0.024930376559495926, 0.016384147107601166, 0.01312929391860962, 0.013567413203418255, 0.008549154736101627, 0.009778204374015331, 0.009217771701514721, 0.02311725914478302, 0.015012773685157299, 0.014101754873991013, 0.011307775974273682, 0.009453188627958298, 0.00916540902107954, 0.013262937776744366, 0.010166364721953869, 0.011346058920025826, 0.013330597430467606, 0.013937387615442276, 0.013645214028656483, 0.01605023629963398, 0.02190280333161354, 0.030908675864338875, 0.03278934210538864, 0.025040922686457634, 0.018943514674901962, 0.03931959345936775, 0.02958650514483452, 0.021034372970461845, 0.06486243009567261, 0.06232679635286331, 0.06369630992412567, 0.1413075178861618, 0.1741359382867813, 0.41235002875328064, 0.4757533073425293, 0.11000984907150269, 0.07591929286718369, 0.026061857119202614, 0.032306402921676636, 0.0630636066198349, 0.3746873140335083, 0.2157752513885498, 0.3506041467189789, 0.22394247353076935, 0.07495220005512238, 0.03547322005033493, 0.016882717609405518, 0.04182076454162598, 0.08071988075971603, 0.03022010065615177, 0.009971055202186108, 0.006886092014610767, 0.004748207051306963, 0.0057955957017838955, 0.010658231563866138, 0.07588943839073181, 0.015518211759626865]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4505367577075958</v>
+        <v>0.6426756978034973</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.6555131999775767</v>
+        <v>0.668599800002994</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005650975861875662</v>
+        <v>0.005763791379336155</v>
       </c>
     </row>
     <row r="7">
@@ -805,11 +805,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.1146901398897171, 0.23143687844276428, 0.20840014517307281, 0.10846589505672455, 0.0777575671672821, 0.07996227592229843, 0.11738112568855286, 0.15231181681156158, 0.16328127682209015, 0.1364152878522873, 0.18716299533843994, 0.11457633972167969, 0.07980027049779892, 0.21656543016433716, 0.14961738884449005, 0.19132785499095917, 0.31341391801834106, 0.28757649660110474, 0.36850693821907043, 0.2410016655921936, 0.2553699016571045, 0.1880325973033905, 0.10637392848730087, 0.11722025275230408, 0.10699762403964996, 0.055345021188259125, 0.040621813386678696, 0.05104965716600418, 0.11459852755069733, 0.08166474103927612, 0.085594043135643, 0.05581546574831009, 0.11727310717105865, 0.10013680905103683, 0.09096472710371017, 0.10403518378734589, 0.09538128226995468, 0.4157252013683319, 0.4674754738807678, 0.462635338306427, 0.37564605474472046, 0.32220128178596497, 0.24071063101291656, 0.2996799945831299, 0.385190486907959, 0.4162496328353882, 0.36172613501548767, 0.17266644537448883, 0.14846830070018768, 0.34216248989105225, 0.21100084483623505, 0.25441625714302063, 0.1656886488199234, 0.10087155550718307, 0.09056342393159866, 0.10926132649183273, 0.13157276809215546, 0.15740561485290527, 0.1073107197880745, 0.13090568780899048, 0.13493549823760986, 0.11788856983184814, 0.12319494783878326, 0.08738734573125839, 0.13384191691875458, 0.07890961319208145, 0.15108850598335266, 0.2043846696615219, 0.16596907377243042, 0.12523850798606873, 0.16243840754032135, 0.16564582288265228, 0.21209914982318878, 0.19171789288520813, 0.1674409657716751, 0.2318965047597885, 0.21484163403511047, 0.237380251288414, 0.28623709082603455, 0.07459001243114471, 0.06058369576931, 0.07762390375137329, 0.08406858146190643, 0.11046358942985535, 0.15452560782432556, 0.15118408203125, 0.18028047680854797, 0.1417904645204544, 0.08525001257658005, 0.11709441989660263, 0.10610930621623993, 0.06750106811523438, 0.06735638529062271, 0.09061643481254578, 0.05394291877746582, 0.11396590620279312, 0.11812146753072739, 0.15506181120872498, 0.12368014454841614, 0.20016245543956757, 0.10835722088813782, 0.12210015952587128, 0.13647563755512238, 0.0823325663805008, 0.07168789207935333, 0.04438456520438194, 0.13982509076595306, 0.07968562096357346, 0.08124294877052307, 0.12542778253555298, 0.13566334545612335, 0.1669309437274933, 0.1214851588010788, 0.1273653209209442, 0.139336496591568, 0.10581335425376892]</t>
+          <t>[0.03766544908285141, 0.07235023379325867, 0.06822029501199722, 0.037838373333215714, 0.04458879306912422, 0.039765648543834686, 0.0632769912481308, 0.06333916634321213, 0.06343366950750351, 0.06519836187362671, 0.0612318217754364, 0.025122128427028656, 0.021747061982750893, 0.07149937003850937, 0.04319784790277481, 0.05374695733189583, 0.1377609223127365, 0.09463495761156082, 0.16573023796081543, 0.06979575008153915, 0.07077976316213608, 0.052491042762994766, 0.040034595876932144, 0.04228799045085907, 0.033811215311288834, 0.016687991097569466, 0.012237459421157837, 0.01584421657025814, 0.03656090795993805, 0.020549999549984932, 0.021853772923350334, 0.02852417342364788, 0.06868338584899902, 0.05639396980404854, 0.03513355553150177, 0.04125696420669556, 0.039894867688417435, 0.15676885843276978, 0.16588056087493896, 0.25119203329086304, 0.13548198342323303, 0.09697896242141724, 0.08007555454969406, 0.14979639649391174, 0.13100048899650574, 0.10530620068311691, 0.08304216712713242, 0.05120094493031502, 0.060467321425676346, 0.11742626875638962, 0.08816221356391907, 0.1370212435722351, 0.09795395284891129, 0.04434473067522049, 0.03320498764514923, 0.03889835625886917, 0.048911865800619125, 0.05091750621795654, 0.04335232824087143, 0.04839227721095085, 0.057331860065460205, 0.0650978684425354, 0.053192488849163055, 0.035908229649066925, 0.04422010853886604, 0.028202436864376068, 0.05208674073219299, 0.06115088611841202, 0.06889310479164124, 0.06135397404432297, 0.044042494148015976, 0.054177965968847275, 0.08027248829603195, 0.07130564749240875, 0.04896434023976326, 0.08506746590137482, 0.0774235650897026, 0.07677020877599716, 0.10596431791782379, 0.03614172711968422, 0.025183094665408134, 0.033085260540246964, 0.021381868049502373, 0.018987663090229034, 0.03237529098987579, 0.034750357270240784, 0.03885870799422264, 0.03248637914657593, 0.019832011312246323, 0.022607574239373207, 0.021526940166950226, 0.01952333189547062, 0.02478240244090557, 0.0421549528837204, 0.023601002991199493, 0.03622148185968399, 0.03339076414704323, 0.07766695320606232, 0.05340244993567467, 0.11725157499313354, 0.032433174550533295, 0.034943144768476486, 0.030655954033136368, 0.017929747700691223, 0.015708094462752342, 0.012362422421574593, 0.04730856791138649, 0.023658426478505135, 0.027874235063791275, 0.04899819940328598, 0.03373033553361893, 0.03536103293299675, 0.03936969116330147, 0.03333447873592377, 0.031053777784109116, 0.03339848294854164]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4674754738807678</v>
+        <v>0.251192033290863</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.63843910000287</v>
+        <v>0.6571621000039158</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005503785344852327</v>
+        <v>0.005665190517275136</v>
       </c>
     </row>
     <row r="8">
@@ -845,11 +845,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.5735682845115662, 0.694179117679596, 0.5327965617179871, 0.6105746030807495, 0.38419675827026367, 0.34675464034080505, 0.5436311960220337, 0.8116778135299683, 0.882003128528595, 0.900196373462677, 0.8933800458908081, 0.8760969638824463, 0.9103572368621826, 0.9466139674186707, 0.9499436020851135, 0.9353973865509033, 0.934823215007782, 0.9701417088508606, 0.9606919288635254, 0.9480322003364563, 0.9700315594673157, 0.9788100719451904, 0.9823447465896606, 0.9709590077400208, 0.9619539976119995, 0.9326854348182678, 0.756859302520752, 0.6111231446266174, 0.6308265328407288, 0.7920520901679993, 0.8653544187545776, 0.8241171836853027, 0.4713757336139679, 0.7847009301185608, 0.8322214484214783, 0.8730149865150452, 0.6507708430290222, 0.691150426864624, 0.6100577712059021, 0.4884197413921356, 0.43125849962234497, 0.481920450925827, 0.2970907688140869, 0.45974087715148926, 0.8526194095611572, 0.8698362708091736, 0.9004122614860535, 0.7888070940971375, 0.5549507737159729, 0.6142701506614685, 0.7842442989349365, 0.565304696559906, 0.7006351947784424, 0.7087846398353577, 0.6250447034835815, 0.6810686588287354, 0.9124017357826233, 0.8753197193145752, 0.8608490228652954, 0.8980521559715271, 0.9467140436172485, 0.8420106172561646, 0.9144195914268494, 0.9335250854492188, 0.9242916107177734, 0.958604633808136, 0.9477733969688416, 0.9406748414039612, 0.9014761447906494, 0.9479049444198608, 0.9432668685913086, 0.9009356498718262, 0.778990626335144, 0.7028742432594299, 0.9035513997077942, 0.91693115234375, 0.9053493738174438, 0.6640741229057312, 0.6812433004379272, 0.713213324546814, 0.7185198068618774, 0.47174450755119324, 0.6507965922355652, 0.5538836717605591, 0.5594099760055542, 0.6793593168258667, 0.7326574921607971, 0.6957234740257263, 0.800687313079834, 0.7784706354141235, 0.8877021074295044, 0.8669576048851013, 0.8260083794593811, 0.5616177320480347, 0.43445152044296265, 0.4577591121196747, 0.4438956677913666, 0.34443503618240356, 0.5673995614051819, 0.6821204423904419, 0.6508063673973083, 0.732241690158844, 0.549756646156311, 0.6379135847091675, 0.4094010591506958, 0.29328468441963196, 0.2632547616958618, 0.4847363531589508, 0.48466792702674866, 0.6819614171981812, 0.43637216091156006, 0.2955974340438843, 0.22327953577041626, 0.3907913267612457, 0.3877425491809845, 0.5270887017250061]</t>
+          <t>[0.32515788078308105, 0.39046382904052734, 0.27107325196266174, 0.3500368595123291, 0.09243392944335938, 0.045450422912836075, 0.12269002199172974, 0.5853400230407715, 0.5964881181716919, 0.7103325128555298, 0.7407020330429077, 0.6131008267402649, 0.8026729226112366, 0.9507725238800049, 0.9348497986793518, 0.8979414701461792, 0.7873240113258362, 0.9682562351226807, 0.9395651817321777, 0.9256168007850647, 0.9690240025520325, 0.9856252074241638, 0.9875563979148865, 0.9539734125137329, 0.9468581080436707, 0.9130146503448486, 0.5320367217063904, 0.1808309406042099, 0.20046918094158173, 0.5395034551620483, 0.8222900629043579, 0.7838937044143677, 0.29823431372642517, 0.7119895219802856, 0.6981674432754517, 0.6525999307632446, 0.19477365911006927, 0.24714568257331848, 0.2761441171169281, 0.16938525438308716, 0.1609334796667099, 0.08470569550991058, 0.058528363704681396, 0.2117844969034195, 0.7737674117088318, 0.8450091481208801, 0.7369654774665833, 0.48173972964286804, 0.11224975436925888, 0.07931612432003021, 0.18587009608745575, 0.09770459681749344, 0.15045253932476044, 0.31340959668159485, 0.2326512485742569, 0.32096195220947266, 0.7957947850227356, 0.758629322052002, 0.7544099688529968, 0.8355585932731628, 0.9380409717559814, 0.40210145711898804, 0.6383934020996094, 0.8249685764312744, 0.7734867930412292, 0.8539780974388123, 0.9065800905227661, 0.8245415091514587, 0.8078274130821228, 0.9099810719490051, 0.8419530987739563, 0.7276661396026611, 0.4078964293003082, 0.2510778307914734, 0.6356015801429749, 0.6220856308937073, 0.6595232486724854, 0.11805248260498047, 0.20707742869853973, 0.25616255402565, 0.29223257303237915, 0.18631333112716675, 0.167764350771904, 0.17269830405712128, 0.1897861212491989, 0.2975625693798065, 0.36560022830963135, 0.2502947151660919, 0.279329389333725, 0.31172117590904236, 0.5854274034500122, 0.4737611413002014, 0.29602622985839844, 0.08373430371284485, 0.054978832602500916, 0.10901667922735214, 0.22271452844142914, 0.14405018091201782, 0.06291310489177704, 0.10354024171829224, 0.17601731419563293, 0.42242109775543213, 0.09921186417341232, 0.1521156281232834, 0.06884279102087021, 0.04247507452964783, 0.04183628782629967, 0.06188216060400009, 0.05391671508550644, 0.17413738369941711, 0.06908249109983444, 0.04145858436822891, 0.02926313690841198, 0.051807839423418045, 0.05969906598329544, 0.1002485379576683]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9823447465896606</v>
+        <v>0.9875563979148865</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.6772739999869373</v>
+        <v>0.6633833999949275</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005838568965404632</v>
+        <v>0.005718822413749374</v>
       </c>
     </row>
     <row r="9">
@@ -885,11 +885,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.4700554311275482, 0.38606664538383484, 0.432604044675827, 0.15675364434719086, 0.11492276936769485, 0.12731584906578064, 0.24646323919296265, 0.19321703910827637, 0.3679488003253937, 0.31527718901634216, 0.2453012615442276, 0.51071697473526, 0.45137593150138855, 0.3243732452392578, 0.2287163883447647, 0.11072776466608047, 0.08603908866643906, 0.09446301311254501, 0.17170998454093933, 0.35101234912872314, 0.38543105125427246, 0.5481617450714111, 0.31717970967292786, 0.422179251909256, 0.436094731092453, 0.43563199043273926, 0.2803879678249359, 0.32948485016822815, 0.2746944725513458, 0.5509580373764038, 0.45634105801582336, 0.3659546375274658, 0.699842631816864, 0.6928040981292725, 0.681970477104187, 0.6116155982017517, 0.3366025686264038, 0.2786504328250885, 0.31327900290489197, 0.588965654373169, 0.5475495457649231, 0.5562954545021057, 0.37612175941467285, 0.3128502368927002, 0.5975898504257202, 0.7619156837463379, 0.625190794467926, 0.27825942635536194, 0.45827051997184753, 0.5443353056907654, 0.7963095307350159, 0.7673079967498779, 0.35755106806755066, 0.42686721682548523, 0.5839352607727051, 0.5897063612937927, 0.4061564803123474, 0.5868790745735168, 0.3170139193534851, 0.2723557949066162, 0.28481483459472656, 0.23709078133106232, 0.5519554615020752, 0.6884680986404419, 0.5943171977996826, 0.7642948031425476, 0.879374623298645, 0.853122889995575, 0.8834641575813293, 0.6156349182128906, 0.454774409532547, 0.38561445474624634, 0.4331071376800537, 0.28559213876724243, 0.42319077253341675, 0.3839489221572876, 0.32795450091362, 0.36226707696914673, 0.5725317597389221, 0.5275653600692749, 0.47578510642051697, 0.621946394443512, 0.3601900339126587, 0.4913991391658783, 0.359996497631073, 0.4300041198730469, 0.5190936923027039, 0.4822706878185272, 0.40817078948020935, 0.46826300024986267, 0.7181820273399353, 0.7359341979026794, 0.7603334188461304, 0.7252252101898193, 0.3914831578731537, 0.4469964802265167, 0.8823240995407104, 0.8510734438896179, 0.8673388957977295, 0.6545525193214417, 0.685189962387085, 0.7268131375312805, 0.36631637811660767, 0.22721262276172638, 0.2169417142868042, 0.5863556265830994, 0.5593985915184021, 0.54239422082901, 0.2790622115135193, 0.32399511337280273, 0.4168236255645752, 0.12499367445707321, 0.14611980319023132, 0.14343400299549103, 0.13101084530353546, 0.6550022959709167]</t>
+          <t>[0.3560391664505005, 0.2689671218395233, 0.2816755771636963, 0.0826074406504631, 0.05331575125455856, 0.059462614357471466, 0.0826619416475296, 0.045793116092681885, 0.12055153399705887, 0.07261601090431213, 0.05135180428624153, 0.1820950210094452, 0.08366629481315613, 0.042431291192770004, 0.028033806011080742, 0.021496400237083435, 0.01663104258477688, 0.016888007521629333, 0.018887652084231377, 0.06713972985744476, 0.07538778334856033, 0.24412795901298523, 0.05908823758363724, 0.15594008564949036, 0.05838635563850403, 0.09280812740325928, 0.039337996393442154, 0.07959914952516556, 0.035279251635074615, 0.1556803584098816, 0.19618931412696838, 0.15290094912052155, 0.5264992713928223, 0.5456020832061768, 0.49946582317352295, 0.319157212972641, 0.08923568576574326, 0.042404912412166595, 0.043197643011808395, 0.3509412109851837, 0.2581529915332794, 0.4566521644592285, 0.24679872393608093, 0.15021225810050964, 0.5067166686058044, 0.7237825989723206, 0.3321474492549896, 0.07339100539684296, 0.2105722725391388, 0.4243400990962982, 0.8160457015037537, 0.7623899579048157, 0.1462009847164154, 0.2698737680912018, 0.35588309168815613, 0.3061978816986084, 0.11108817905187607, 0.2343025803565979, 0.05734798312187195, 0.03836394101381302, 0.048202499747276306, 0.0239640474319458, 0.16108612716197968, 0.4658661484718323, 0.19604796171188354, 0.7087173461914062, 0.9320811033248901, 0.8806667327880859, 0.9394950866699219, 0.3856041133403778, 0.20857574045658112, 0.17172163724899292, 0.21741348505020142, 0.05170927196741104, 0.1093900054693222, 0.18869657814502716, 0.18312501907348633, 0.12547056376934052, 0.22629481554031372, 0.16517843306064606, 0.1864410936832428, 0.36032459139823914, 0.1519804149866104, 0.2980354428291321, 0.14002737402915955, 0.18120567500591278, 0.22651690244674683, 0.36163899302482605, 0.3069745898246765, 0.4588679075241089, 0.5772313475608826, 0.5671359896659851, 0.8057428598403931, 0.4242858588695526, 0.1008307933807373, 0.10619135200977325, 0.9201762080192566, 0.8811879754066467, 0.8620889186859131, 0.49335798621177673, 0.47310322523117065, 0.5858713984489441, 0.2755832374095917, 0.1279514729976654, 0.08305257558822632, 0.2868190109729767, 0.22578255832195282, 0.25415533781051636, 0.129661425948143, 0.2792329490184784, 0.27670642733573914, 0.07058081775903702, 0.0829332023859024, 0.08073371648788452, 0.08976682275533676, 0.3223332464694977]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8834641575813293</v>
+        <v>0.9394950866699219</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.6710936999879777</v>
+        <v>0.6580857999942964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005785290517137739</v>
+        <v>0.005673153448226693</v>
       </c>
     </row>
     <row r="10">
@@ -925,11 +925,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.28035134077072144, 0.3721413016319275, 0.6128430366516113, 0.5568284392356873, 0.4236619472503662, 0.35044485330581665, 0.3085244596004486, 0.39933961629867554, 0.5418235659599304, 0.37384119629859924, 0.35478633642196655, 0.28937068581581116, 0.2699071764945984, 0.31690821051597595, 0.3252076804637909, 0.2547147274017334, 0.3263495862483978, 0.5564145445823669, 0.2953847348690033, 0.25298693776130676, 0.19008758664131165, 0.25574809312820435, 0.32809126377105713, 0.5392067432403564, 0.47881457209587097, 0.27617791295051575, 0.865114688873291, 0.7402713298797607, 0.8292847871780396, 0.36018261313438416, 0.2740471661090851, 0.3368903696537018, 0.28312528133392334, 0.45802587270736694, 0.4008103311061859, 0.16848403215408325, 0.1648174524307251, 0.19119390845298767, 0.2510611414909363, 0.21278423070907593, 0.1662125289440155, 0.25773492455482483, 0.19942490756511688, 0.2384718954563141, 0.41128721833229065, 0.5134594440460205, 0.5981009602546692, 0.48421812057495117, 0.477158784866333, 0.48612067103385925, 0.4837123453617096, 0.41057857871055603, 0.36637985706329346, 0.4295908510684967, 0.4085603654384613, 0.34073182940483093, 0.4123404324054718, 0.41784536838531494, 0.5177478194236755, 0.5434610843658447, 0.37318846583366394, 0.3458329439163208, 0.30157551169395447, 0.22329194843769073, 0.3438675105571747, 0.36272016167640686, 0.26218757033348083, 0.2101343870162964, 0.1414298713207245, 0.0934193953871727, 0.11073978990316391, 0.2180168479681015, 0.2518661320209503, 0.24500608444213867, 0.4386327862739563, 0.43579867482185364, 0.5135235786437988, 0.4595532715320587, 0.2588184177875519, 0.1490694284439087, 0.15534229576587677, 0.17074626684188843, 0.15005524456501007, 0.2541295289993286, 0.16002462804317474, 0.21084308624267578, 0.3230118453502655, 0.2044319212436676, 0.2066734880208969, 0.26739344000816345, 0.42370250821113586, 0.6301332712173462, 0.6249014139175415, 0.44619497656822205, 0.3002755641937256, 0.234242781996727, 0.39378756284713745, 0.4344703257083893, 0.19974732398986816, 0.14611151814460754, 0.16101409494876862, 0.3045916259288788, 0.3734179735183716, 0.34346213936805725, 0.15965667366981506, 0.16966857016086578, 0.24744956195354462, 0.28611600399017334, 0.22192174196243286, 0.3070441782474518, 0.3104798495769501, 0.28369995951652527, 0.24027252197265625, 0.3512510061264038, 0.3923276960849762, 0.38320714235305786]</t>
+          <t>[0.07919865101575851, 0.10115238279104233, 0.1533476859331131, 0.1341836154460907, 0.11687619984149933, 0.2659551799297333, 0.16200615465641022, 0.2026960402727127, 0.2200021594762802, 0.1003689244389534, 0.10815004259347916, 0.06392547488212585, 0.04827291890978813, 0.07913732528686523, 0.05166614055633545, 0.03121364675462246, 0.0627829059958458, 0.0749792754650116, 0.030526479706168175, 0.031419310718774796, 0.03005843795835972, 0.04213515296578407, 0.08667014539241791, 0.25126850605010986, 0.25147631764411926, 0.06542299687862396, 0.8706879019737244, 0.44716742634773254, 0.5742866396903992, 0.10075534135103226, 0.04766649380326271, 0.05840349197387695, 0.0735212042927742, 0.271746963262558, 0.30279070138931274, 0.04046950489282608, 0.03772704675793648, 0.03636074811220169, 0.058115459978580475, 0.053571224212646484, 0.04113562032580376, 0.07503190636634827, 0.04858258739113808, 0.06620965152978897, 0.19291599094867706, 0.2767273485660553, 0.3388959467411041, 0.23935431241989136, 0.1612476408481598, 0.18822692334651947, 0.20935435593128204, 0.15348154306411743, 0.11047138273715973, 0.058755189180374146, 0.07968141883611679, 0.06873403489589691, 0.11819154024124146, 0.11354625970125198, 0.1942143440246582, 0.2955971956253052, 0.16494840383529663, 0.14616131782531738, 0.049210455268621445, 0.02602144330739975, 0.048230040818452835, 0.08126664161682129, 0.06036745756864548, 0.05033791437745094, 0.03844466432929039, 0.023469382897019386, 0.025013964623212814, 0.03540169820189476, 0.03941890597343445, 0.04218796268105507, 0.14057140052318573, 0.15235912799835205, 0.24625705182552338, 0.21482883393764496, 0.04694018140435219, 0.029527079313993454, 0.040377721190452576, 0.07565798610448837, 0.027960877865552902, 0.1281452178955078, 0.041802339255809784, 0.06841283291578293, 0.05081275850534439, 0.02373090200126171, 0.02337494120001793, 0.08310823887586594, 0.2902146875858307, 0.6369816064834595, 0.5202438831329346, 0.16506460309028625, 0.0819435641169548, 0.10001254826784134, 0.24996861815452576, 0.30968889594078064, 0.07978995889425278, 0.049838192760944366, 0.045189350843429565, 0.11285970360040665, 0.14105729758739471, 0.13400600850582123, 0.03867809474468231, 0.03590431436896324, 0.06621457636356354, 0.13853202760219574, 0.06956407427787781, 0.1452350616455078, 0.16756780445575714, 0.1223924532532692, 0.051635973155498505, 0.08808241784572601, 0.13291242718696594, 0.12315153330564499]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.865114688873291</v>
+        <v>0.8706879019737244</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6595113000075798</v>
+        <v>0.6614655000012135</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005685442241444654</v>
+        <v>0.005702288793113909</v>
       </c>
     </row>
     <row r="11">
@@ -965,11 +965,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.4474630355834961, 0.6386104226112366, 0.6094417572021484, 0.5755952596664429, 0.4280509352684021, 0.5275975465774536, 0.34982389211654663, 0.38196173310279846, 0.3263320326805115, 0.3538737893104553, 0.24391832947731018, 0.3091264069080353, 0.5360639691352844, 0.5289514064788818, 0.4300954341888428, 0.4947406053543091, 0.6040826439857483, 0.6719300150871277, 0.8430576920509338, 0.8901684880256653, 0.8376948833465576, 0.8884907364845276, 0.7414750456809998, 0.6565977931022644, 0.7302682399749756, 0.6819186806678772, 0.676889181137085, 0.799926221370697, 0.5983836650848389, 0.5912882685661316, 0.6292012333869934, 0.6476577520370483, 0.673794150352478, 0.740024745464325, 0.6986033320426941, 0.743516743183136, 0.7592395544052124, 0.682030200958252, 0.7724931836128235, 0.7710193395614624, 0.6359863877296448, 0.631991982460022, 0.7582935690879822, 0.6978539824485779, 0.6847178339958191, 0.5077489018440247, 0.4384886920452118, 0.6445713043212891, 0.7694076895713806, 0.8186370134353638, 0.7901335954666138, 0.6591107249259949, 0.6369431018829346, 0.7289014458656311, 0.44725361466407776, 0.4814804792404175, 0.585300087928772, 0.6283329725265503, 0.5065685510635376, 0.5623424649238586, 0.6180076003074646, 0.6527568101882935, 0.6771553158760071, 0.499099999666214, 0.37098464369773865, 0.5175542831420898, 0.7542253732681274, 0.7095254063606262, 0.851253092288971, 0.7699579000473022, 0.6728941202163696, 0.763496458530426, 0.8668025135993958, 0.8331923484802246, 0.7702678442001343, 0.6408051252365112, 0.6124576926231384, 0.5377788543701172, 0.3762153685092926, 0.5499371290206909, 0.7723602056503296, 0.9005007743835449, 0.9184583425521851, 0.9344660043716431, 0.8948463201522827, 0.836358904838562, 0.8201796412467957, 0.7594916224479675, 0.5323935151100159, 0.4652922749519348, 0.7342103123664856, 0.8162829875946045, 0.88372403383255, 0.7474303841590881, 0.7411289811134338, 0.9075807332992554, 0.8379509449005127, 0.8319370150566101, 0.7924941182136536, 0.6895322203636169, 0.5987398028373718, 0.6266869306564331, 0.6113767027854919, 0.592128574848175, 0.6374624371528625, 0.6757051944732666, 0.7965946793556213, 0.7711933851242065, 0.6448138952255249, 0.5354128479957581, 0.6288830041885376, 0.7199708819389343, 0.6910082697868347, 0.7630981802940369, 0.5209777355194092, 0.4374322295188904]</t>
+          <t>[0.12892575562000275, 0.1436024010181427, 0.11099681258201599, 0.12630729377269745, 0.0885644257068634, 0.13728664815425873, 0.059562817215919495, 0.05601034313440323, 0.036119185388088226, 0.06286939233541489, 0.04643398895859718, 0.06324520707130432, 0.19942252337932587, 0.1539350301027298, 0.08041857928037643, 0.06230524927377701, 0.1332828402519226, 0.17643366754055023, 0.5633322596549988, 0.6868429780006409, 0.6078493595123291, 0.8349446654319763, 0.6308680176734924, 0.606641411781311, 0.552841067314148, 0.42391589283943176, 0.4913243353366852, 0.566781759262085, 0.2693077623844147, 0.25421950221061707, 0.2653990089893341, 0.30431196093559265, 0.4173339903354645, 0.36683449149131775, 0.2715487778186798, 0.34525275230407715, 0.24029240012168884, 0.2665426433086395, 0.39725497364997864, 0.25713008642196655, 0.1396382600069046, 0.13740845024585724, 0.3412324786186218, 0.2809640169143677, 0.26746904850006104, 0.24004147946834564, 0.17076647281646729, 0.3242959976196289, 0.4497229754924774, 0.5039010047912598, 0.31456953287124634, 0.1947711855173111, 0.16552981734275818, 0.22353224456310272, 0.08387208729982376, 0.11837645620107651, 0.14732888340950012, 0.1754397600889206, 0.09660719335079193, 0.12475600838661194, 0.1826523095369339, 0.26323825120925903, 0.1827324777841568, 0.07738793641328812, 0.05817432329058647, 0.0988221988081932, 0.398746132850647, 0.2551742494106293, 0.4108334481716156, 0.31683826446533203, 0.22788897156715393, 0.30425432324409485, 0.5381614565849304, 0.6037697792053223, 0.43019115924835205, 0.21901445090770721, 0.15669108927249908, 0.15127448737621307, 0.10586782544851303, 0.18903589248657227, 0.4237084686756134, 0.7335720658302307, 0.8651834726333618, 0.889781653881073, 0.7277926802635193, 0.48863792419433594, 0.6323568820953369, 0.5137146711349487, 0.2590608596801758, 0.2057611048221588, 0.74153733253479, 0.8901242017745972, 0.9284670352935791, 0.6773737668991089, 0.5805157423019409, 0.9145044684410095, 0.8512088656425476, 0.7406633496284485, 0.6866819262504578, 0.5562949180603027, 0.39005038142204285, 0.3504098355770111, 0.15552100539207458, 0.15362931787967682, 0.34282615780830383, 0.44711217284202576, 0.7001036405563354, 0.5960624814033508, 0.2625015079975128, 0.21429260075092316, 0.2989501953125, 0.448333740234375, 0.42396706342697144, 0.42249661684036255, 0.08638347685337067, 0.09011863172054291]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9344660043716431</v>
+        <v>0.9284670352935791</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.6538449999934528</v>
+        <v>0.6617068000050494</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005636594827529765</v>
+        <v>0.005704368965560771</v>
       </c>
     </row>
     <row r="12">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.11047019809484482, 0.1031888872385025, 0.1559709757566452, 0.09201320260763168, 0.1290620118379593, 0.10390786081552505, 0.09579908847808838, 0.08342943340539932, 0.07247663289308548, 0.10049422085285187, 0.13562077283859253, 0.11516067385673523, 0.10372861474752426, 0.11666352301836014, 0.15854431688785553, 0.2871829867362976, 0.3960863947868347, 0.30066433548927307, 0.18683107197284698, 0.10966221243143082, 0.12015211582183838, 0.11926700174808502, 0.08574536442756653, 0.10448595881462097, 0.0703883022069931, 0.07237270474433899, 0.0709691122174263, 0.11472044885158539, 0.10284548252820969, 0.13593533635139465, 0.1464008092880249, 0.17344598472118378, 0.1880640834569931, 0.17459474503993988, 0.2685590088367462, 0.3394987881183624, 0.07462963461875916, 0.18077437579631805, 0.15494441986083984, 0.3202691078186035, 0.24961477518081665, 0.21746337413787842, 0.23490333557128906, 0.2583457827568054, 0.28552186489105225, 0.144209623336792, 0.2181285172700882, 0.13474588096141815, 0.10006460547447205, 0.07290038466453552, 0.08968474715948105, 0.11840292811393738, 0.1541757583618164, 0.18338678777217865, 0.054935019463300705, 0.05677148327231407, 0.08173719793558121, 0.16180077195167542, 0.18773774802684784, 0.16293148696422577, 0.14248739182949066, 0.10849929600954056, 0.07085662335157394, 0.08698152005672455, 0.1556844264268875, 0.1382247805595398, 0.175729438662529, 0.21093463897705078, 0.21532391011714935, 0.29106616973876953, 0.16933050751686096, 0.12483441829681396, 0.08825615793466568, 0.12361859530210495, 0.11483976989984512, 0.10507514327764511, 0.08898846060037613, 0.11448170989751816, 0.08023742586374283, 0.1551571935415268, 0.14658473432064056, 0.07232056558132172, 0.07072187215089798, 0.061700403690338135, 0.2211463898420334, 0.24165858328342438, 0.26780325174331665, 0.10355786234140396, 0.049109965562820435, 0.07150869816541672, 0.22919902205467224, 0.29064205288887024, 0.3837485909461975, 0.1985224187374115, 0.3248737156391144, 0.30415990948677063, 0.14989399909973145, 0.08568375557661057, 0.12442232668399811, 0.2635732889175415, 0.3116266131401062, 0.19177153706550598, 0.5013327598571777, 0.5247237682342529, 0.5887669324874878, 0.40802255272865295, 0.200717493891716, 0.23020565509796143, 0.5150851607322693, 0.5422744750976562, 0.34437188506126404, 0.10979386419057846, 0.11513196676969528, 0.07262426614761353, 0.08049600571393967, 0.08835481107234955]</t>
+          <t>[0.021168315783143044, 0.01765347458422184, 0.027855202555656433, 0.011713966727256775, 0.015197353437542915, 0.0160079225897789, 0.017640722915530205, 0.012535957619547844, 0.013432292267680168, 0.01623120717704296, 0.029788410291075706, 0.018960867077112198, 0.01864999532699585, 0.015631889924407005, 0.02385532110929489, 0.05714176222681999, 0.10978461802005768, 0.05836641043424606, 0.07194023579359055, 0.03248954564332962, 0.03226720541715622, 0.03688720613718033, 0.026248060166835785, 0.026326321065425873, 0.021492959931492805, 0.01729387231171131, 0.01738227717578411, 0.03024156391620636, 0.027902299538254738, 0.03695913776755333, 0.08564525097608566, 0.07599733769893646, 0.0684216320514679, 0.11827187240123749, 0.13382664322853088, 0.25324779748916626, 0.02521730586886406, 0.0405874103307724, 0.03492487221956253, 0.08543283492326736, 0.03829430416226387, 0.027147764340043068, 0.03565455973148346, 0.077424556016922, 0.07381387054920197, 0.041286274790763855, 0.029955225065350533, 0.02239612303674221, 0.021813005208969116, 0.017405707389116287, 0.02289184369146824, 0.02204195410013199, 0.0278527420014143, 0.03057076409459114, 0.015730375424027443, 0.020404605194926262, 0.024628771468997, 0.0417492613196373, 0.07282175868749619, 0.051804278045892715, 0.021501444280147552, 0.014754113741219044, 0.00910149235278368, 0.01660306379199028, 0.029845688492059708, 0.03909469395875931, 0.056320518255233765, 0.07007067650556564, 0.07091889530420303, 0.08205191045999527, 0.0402960330247879, 0.0296742245554924, 0.01725531369447708, 0.023690907284617424, 0.02716328389942646, 0.030001569539308548, 0.02153467945754528, 0.031630828976631165, 0.02399439364671707, 0.04816620796918869, 0.03483507037162781, 0.014095550402998924, 0.013093058951199055, 0.010240759700536728, 0.05650271847844124, 0.08105078339576721, 0.10579695552587509, 0.02967289835214615, 0.012767443433403969, 0.01718580722808838, 0.044521477073431015, 0.06425779312849045, 0.07147153466939926, 0.03769747167825699, 0.11019918322563171, 0.14171895384788513, 0.01979214884340763, 0.01352297980338335, 0.020564094185829163, 0.03983495011925697, 0.05877949669957161, 0.0448431670665741, 0.2148762345314026, 0.15899696946144104, 0.15610454976558685, 0.0801563411951065, 0.028165841475129128, 0.0368148498237133, 0.15749071538448334, 0.22644875943660736, 0.09913425147533417, 0.018939509987831116, 0.020005924627184868, 0.014057711698114872, 0.013580451719462872, 0.013391232118010521]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5887669324874878</v>
+        <v>0.2532477974891663</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.6575753999932203</v>
+        <v>0.6694098000007216</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005668753448217417</v>
+        <v>0.005770774137937255</v>
       </c>
     </row>
     <row r="13">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.1179983988404274, 0.07205970585346222, 0.11832625418901443, 0.1036294475197792, 0.1730092465877533, 0.270031213760376, 0.23220111429691315, 0.1684718132019043, 0.14339585602283478, 0.10814864188432693, 0.08972954005002975, 0.11547161638736725, 0.13807347416877747, 0.05295725539326668, 0.055224623531103134, 0.09450623393058777, 0.14201313257217407, 0.3450665771961212, 0.5288734436035156, 0.8298025131225586, 0.44246771931648254, 0.1710004061460495, 0.08399472385644913, 0.15128250420093536, 0.16112005710601807, 0.11014056950807571, 0.07035616040229797, 0.09419627487659454, 0.28459373116493225, 0.21484780311584473, 0.1746155321598053, 0.07008057087659836, 0.05886822193861008, 0.06229168549180031, 0.07811622321605682, 0.08859830349683762, 0.09195563197135925, 0.06076065078377724, 0.05284309759736061, 0.040858592838048935, 0.06098667532205582, 0.06229366362094879, 0.04677656665444374, 0.08408328890800476, 0.08903559297323227, 0.06941390037536621, 0.12634965777397156, 0.09160467237234116, 0.1050664633512497, 0.10793869942426682, 0.14928244054317474, 0.21980807185173035, 0.1684359759092331, 0.1705024391412735, 0.1677442491054535, 0.1048966571688652, 0.11113124340772629, 0.1325993537902832, 0.20832572877407074, 0.13909682631492615, 0.09488002955913544, 0.11150028556585312, 0.10690155625343323, 0.09959526360034943, 0.0817057192325592, 0.08602043986320496, 0.1252342164516449, 0.10533099621534348, 0.25069937109947205, 0.5947256088256836, 0.3702019155025482, 0.23740999400615692, 0.2733682096004486, 0.1492093950510025, 0.15067613124847412, 0.12037273496389389, 0.08503855019807816, 0.08276266604661942, 0.0937066525220871, 0.07400453835725784, 0.07166140526533127, 0.13389761745929718, 0.34353184700012207, 0.560775876045227, 0.5861402153968811, 0.7682813405990601, 0.9155107736587524, 0.9001088738441467, 0.35707375407218933, 0.16435305774211884, 0.10809832066297531, 0.16776657104492188, 0.17651478946208954, 0.24414943158626556, 0.3015822172164917, 0.32481473684310913, 0.20005616545677185, 0.24357394874095917, 0.13017024099826813, 0.2226148396730423, 0.18859247863292694, 0.30060550570487976, 0.3220707178115845, 0.24612194299697876, 0.14782395958900452, 0.17055922746658325, 0.38529932498931885, 0.403386652469635, 0.3310132324695587, 0.21535055339336395, 0.12018049508333206, 0.11696107685565948, 0.051146671175956726, 0.05971679836511612, 0.06757394969463348, 0.20640946924686432]</t>
+          <t>[0.06002085655927658, 0.0194068755954504, 0.030214589089155197, 0.02537010796368122, 0.05177127197384834, 0.09851913899183273, 0.11506623774766922, 0.09357651323080063, 0.06766019761562347, 0.05338972061872482, 0.04560298100113869, 0.05422515049576759, 0.07146629691123962, 0.030525561422109604, 0.03128278627991676, 0.05053986981511116, 0.09151183068752289, 0.24285371601581573, 0.618817925453186, 0.9024462699890137, 0.3284909129142761, 0.07580289244651794, 0.044135380536317825, 0.0990234762430191, 0.09645992517471313, 0.10504689812660217, 0.05103063955903053, 0.07158645987510681, 0.2355998307466507, 0.1761544793844223, 0.13170050084590912, 0.043795883655548096, 0.03960516303777695, 0.050835080444812775, 0.07512515783309937, 0.06779266893863678, 0.0725424662232399, 0.033818162977695465, 0.03312812000513077, 0.020056627690792084, 0.035844773054122925, 0.0356253944337368, 0.03010559268295765, 0.05127691105008125, 0.03919782489538193, 0.02695552073419094, 0.06749415397644043, 0.04878803715109825, 0.062117915600538254, 0.03607053682208061, 0.07034754753112793, 0.10725489258766174, 0.042057134211063385, 0.04881134629249573, 0.04295329004526138, 0.03047645278275013, 0.0241866298019886, 0.03164153918623924, 0.04250770062208176, 0.03535120561718941, 0.024586398154497147, 0.02722533792257309, 0.02259008027613163, 0.021367430686950684, 0.023199135437607765, 0.03282944858074188, 0.06663063913583755, 0.05053405091166496, 0.11938789486885071, 0.42834335565567017, 0.19268915057182312, 0.10517707467079163, 0.15248480439186096, 0.05141499638557434, 0.041693177074193954, 0.029752377420663834, 0.020673921331763268, 0.018788404762744904, 0.01871461793780327, 0.017275646328926086, 0.014249552972614765, 0.04519294202327728, 0.3936713635921478, 0.6417657732963562, 0.7140924334526062, 0.9425966739654541, 0.977607011795044, 0.9723198413848877, 0.3686637580394745, 0.07519499957561493, 0.034307971596717834, 0.06316907703876495, 0.09039047360420227, 0.13452434539794922, 0.12584984302520752, 0.12148556858301163, 0.05848894268274307, 0.10955450683832169, 0.06226387992501259, 0.10575039684772491, 0.11821296066045761, 0.19079965353012085, 0.214226633310318, 0.20693644881248474, 0.1086621880531311, 0.15661346912384033, 0.26962241530418396, 0.29944512248039246, 0.15845292806625366, 0.11698178201913834, 0.046120017766952515, 0.041196733713150024, 0.010905557312071323, 0.013592848554253578, 0.01798326149582863, 0.13060754537582397]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9155107736587524</v>
+        <v>0.9776070117950439</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.7952848999993876</v>
+        <v>0.8077921000076458</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006855904310339548</v>
+        <v>0.006963725000065912</v>
       </c>
     </row>
     <row r="14">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.6158223748207092, 0.49097612500190735, 0.3817595839500427, 0.2041342854499817, 0.20065395534038544, 0.16877660155296326, 0.16824840009212494, 0.26861870288848877, 0.212625652551651, 0.24164579808712006, 0.10568787902593613, 0.13403387367725372, 0.13434480130672455, 0.23726202547550201, 0.3933454155921936, 0.2586807906627655, 0.32614314556121826, 0.4584721028804779, 0.34479349851608276, 0.18470391631126404, 0.15615783631801605, 0.15786109864711761, 0.155938521027565, 0.26585426926612854, 0.24465546011924744, 0.29050323367118835, 0.22701750695705414, 0.2773968279361725, 0.27369511127471924, 0.34567633271217346, 0.46630316972732544, 0.378848671913147, 0.5621538758277893, 0.45628875494003296, 0.19809319078922272, 0.09530340135097504, 0.1457761973142624, 0.14180831611156464, 0.2722361087799072, 0.48073628544807434, 0.31556349992752075, 0.32183387875556946, 0.3265310823917389, 0.3907289206981659, 0.2387673258781433, 0.2596108317375183, 0.305186003446579, 0.5413577556610107, 0.6486525535583496, 0.6724961400032043, 0.3665551543235779, 0.27223193645477295, 0.2122303992509842, 0.17382195591926575, 0.2376348376274109, 0.28249433636665344, 0.40383657813072205, 0.4919082820415497, 0.30294346809387207, 0.15936362743377686, 0.22094418108463287, 0.20188432931900024, 0.1747491955757141, 0.337170273065567, 0.3264968991279602, 0.4070073962211609, 0.3800886571407318, 0.3020702302455902, 0.1387530267238617, 0.1808754950761795, 0.23881593346595764, 0.26128241419792175, 0.15456829965114594, 0.35575827956199646, 0.2818641662597656, 0.3509400486946106, 0.20734788477420807, 0.17546819150447845, 0.21560883522033691, 0.3153904378414154, 0.539741039276123, 0.5355423092842102, 0.5302664637565613, 0.28484031558036804, 0.24704988300800323, 0.18914853036403656, 0.19047079980373383, 0.21583291888237, 0.19421955943107605, 0.36156323552131653, 0.26793035864830017, 0.15135566890239716, 0.18192145228385925, 0.27527543902397156, 0.23846037685871124, 0.33865904808044434, 0.2518640458583832, 0.18940743803977966, 0.20937037467956543, 0.1647443324327469, 0.21866145730018616, 0.264761358499527, 0.3177258372306824, 0.3998437225818634, 0.48527246713638306, 0.29848572611808777, 0.3539260923862457, 0.18505801260471344, 0.3162980377674103, 0.5058478713035583, 0.3125620186328888, 0.29871073365211487, 0.30727171897888184, 0.32936012744903564, 0.2823513448238373, 0.2199610024690628]</t>
+          <t>[0.14038227498531342, 0.07546841353178024, 0.046633608639240265, 0.02557891421020031, 0.019466793164610863, 0.03174515813589096, 0.03610330447554588, 0.04125998914241791, 0.028029123321175575, 0.03264319524168968, 0.013217889703810215, 0.01809418387711048, 0.018016142770648003, 0.04205792024731636, 0.07849270105361938, 0.04700391739606857, 0.05467633903026581, 0.0878206416964531, 0.05643001198768616, 0.02029574103653431, 0.022293074056506157, 0.03535895422101021, 0.037739213556051254, 0.04027848690748215, 0.03266293182969093, 0.03438239544630051, 0.02473945915699005, 0.03205926716327667, 0.036314185708761215, 0.03131041303277016, 0.05105699226260185, 0.030133360996842384, 0.09165117889642715, 0.07033216953277588, 0.02047247253358364, 0.01539970375597477, 0.021834900602698326, 0.022387340664863586, 0.02863791584968567, 0.05135279893875122, 0.023681340739130974, 0.03750774636864662, 0.04379979521036148, 0.058088842779397964, 0.03503025323152542, 0.02616085857152939, 0.03637215122580528, 0.16167597472667694, 0.1575160175561905, 0.1634746640920639, 0.034215688705444336, 0.02869715355336666, 0.027010440826416016, 0.022488730028271675, 0.026661304756999016, 0.026157313957810402, 0.08290942758321762, 0.10051140189170837, 0.05753317102789879, 0.029257047921419144, 0.046586696058511734, 0.037263449281454086, 0.02719857729971409, 0.044878020882606506, 0.05888357385993004, 0.07007530331611633, 0.059104692190885544, 0.04349077492952347, 0.01621932163834572, 0.01594933122396469, 0.023900240659713745, 0.03597424551844597, 0.014288635924458504, 0.04408929497003555, 0.02736266516149044, 0.0351419560611248, 0.016413530334830284, 0.017616624012589455, 0.023860836401581764, 0.04936511069536209, 0.14285540580749512, 0.11764942854642868, 0.09769601374864578, 0.03300578519701958, 0.03143661096692085, 0.018084144219756126, 0.02151867374777794, 0.022876352071762085, 0.02147758938372135, 0.0402221716940403, 0.024365538731217384, 0.013981489464640617, 0.013134571723639965, 0.021363627165555954, 0.013043612241744995, 0.03277383744716644, 0.021459458395838737, 0.015727564692497253, 0.01130406092852354, 0.012812701053917408, 0.01700490526854992, 0.02184208668768406, 0.030489465221762657, 0.04525879770517349, 0.06062084063887596, 0.025308528915047646, 0.03501776605844498, 0.01525852084159851, 0.027690425515174866, 0.06124107539653778, 0.04253145679831505, 0.037225980311632156, 0.028354180976748466, 0.033779531717300415, 0.040220726281404495, 0.039260730147361755]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6724961400032043</v>
+        <v>0.1634746640920639</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.6546066000009887</v>
+        <v>0.6546888000011677</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00564316034483611</v>
+        <v>0.005643868965527308</v>
       </c>
     </row>
     <row r="15">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.11359277367591858, 0.12143358588218689, 0.22420746088027954, 0.1993645280599594, 0.12331525981426239, 0.13044552505016327, 0.19706565141677856, 0.1721656620502472, 0.211190328001976, 0.5441036224365234, 0.6990434527397156, 0.7015475034713745, 0.4697891175746918, 0.5243664979934692, 0.46071985363960266, 0.5989876985549927, 0.6018211245536804, 0.7423954010009766, 0.7888239026069641, 0.7299556732177734, 0.614834725856781, 0.8162588477134705, 0.7112053632736206, 0.7767965197563171, 0.7774276733398438, 0.9126480221748352, 0.8592250347137451, 0.7652321457862854, 0.7470622658729553, 0.7936309576034546, 0.490376740694046, 0.518494188785553, 0.5565094947814941, 0.567665696144104, 0.41152223944664, 0.48727548122406006, 0.45150983333587646, 0.5279266834259033, 0.43473654985427856, 0.20418746769428253, 0.308571457862854, 0.21940135955810547, 0.25566041469573975, 0.18845407664775848, 0.18130949139595032, 0.27319180965423584, 0.38865113258361816, 0.3225557506084442, 0.12677910923957825, 0.18076404929161072, 0.25193533301353455, 0.13871043920516968, 0.19555161893367767, 0.18812128901481628, 0.22926044464111328, 0.22175218164920807, 0.17214322090148926, 0.11990714818239212, 0.17377156019210815, 0.2988099455833435, 0.16656441986560822, 0.24071234464645386, 0.1635662019252777, 0.24000614881515503, 0.1284732073545456, 0.20960749685764313, 0.18656562268733978, 0.2610536515712738, 0.220821812748909, 0.3277246654033661, 0.29573121666908264, 0.47317829728126526, 0.597260057926178, 0.550499439239502, 0.5200271010398865, 0.7001323103904724, 0.6631141901016235, 0.7325047850608826, 0.8064514398574829, 0.7194343209266663, 0.7079429030418396, 0.7638826370239258, 0.8784053921699524, 0.8940503597259521, 0.8888497948646545, 0.766852080821991, 0.8219814896583557, 0.4702622890472412, 0.4640410244464874, 0.3239521384239197, 0.299775093793869, 0.30371788144111633, 0.4614157974720001, 0.425717294216156, 0.5488240122795105, 0.47472837567329407, 0.7665756940841675, 0.5594000816345215, 0.3996470272541046, 0.15469537675380707, 0.1070014089345932, 0.18046516180038452, 0.3161269426345825, 0.23742598295211792, 0.2020745873451233, 0.15615063905715942, 0.06441261619329453, 0.07628527283668518, 0.17593419551849365, 0.1977938562631607, 0.12268618494272232, 0.1580849587917328, 0.1600085198879242, 0.2068575918674469, 0.3142222762107849, 0.3094474673271179]</t>
+          <t>[0.04007872939109802, 0.04385949298739433, 0.13549579679965973, 0.06844192743301392, 0.04039743170142174, 0.05086376145482063, 0.07086578756570816, 0.05472302809357643, 0.05435289442539215, 0.2146797627210617, 0.2999418079853058, 0.42112278938293457, 0.19177652895450592, 0.21372756361961365, 0.1930168867111206, 0.2647140622138977, 0.2088351994752884, 0.3687323331832886, 0.30335867404937744, 0.21433675289154053, 0.17500244081020355, 0.615268886089325, 0.3351333439350128, 0.5057104825973511, 0.5340484976768494, 0.8985170125961304, 0.7642320394515991, 0.5403271317481995, 0.5236007571220398, 0.6972960829734802, 0.3138975501060486, 0.3191414475440979, 0.3391636908054352, 0.33518776297569275, 0.15867958962917328, 0.2007979452610016, 0.1316596120595932, 0.21426334977149963, 0.17133381962776184, 0.07344110310077667, 0.12000755965709686, 0.0721871554851532, 0.16130179166793823, 0.06588834524154663, 0.06812167912721634, 0.14103542268276215, 0.21649576723575592, 0.1844853013753891, 0.03691608086228371, 0.047202304005622864, 0.06890107691287994, 0.04486597329378128, 0.06789344549179077, 0.06577040255069733, 0.059145502746105194, 0.05548606812953949, 0.0450308732688427, 0.026801008731126785, 0.037158239632844925, 0.12332705408334732, 0.06344563513994217, 0.1089073196053505, 0.06407837569713593, 0.060349781066179276, 0.035237692296504974, 0.04865018278360367, 0.05830463021993637, 0.10646364837884903, 0.10440965741872787, 0.15749159455299377, 0.14171205461025238, 0.33358368277549744, 0.3856898844242096, 0.2633534371852875, 0.22815951704978943, 0.4190925359725952, 0.22309264540672302, 0.40628382563591003, 0.5873485803604126, 0.42915019392967224, 0.4170401990413666, 0.5867732763290405, 0.8064551949501038, 0.8230922222137451, 0.8427059650421143, 0.5877746939659119, 0.7149865627288818, 0.2362048625946045, 0.1948200911283493, 0.1426408737897873, 0.1446416825056076, 0.15544843673706055, 0.2664988338947296, 0.163524329662323, 0.3059769868850708, 0.20453685522079468, 0.6345332860946655, 0.29827699065208435, 0.2206263691186905, 0.06737174838781357, 0.05835983157157898, 0.09219586104154587, 0.10272838920354843, 0.06962068378925323, 0.07529870420694351, 0.08586791902780533, 0.03181184455752373, 0.031463272869586945, 0.0913982167840004, 0.08580036461353302, 0.08080320805311203, 0.051299482583999634, 0.06206229701638222, 0.07076293975114822, 0.1355607509613037, 0.17370426654815674]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9126480221748352</v>
+        <v>0.8985170125961304</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.6555245000054128</v>
+        <v>0.6608212999999523</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005651073275908731</v>
+        <v>0.005696735344827175</v>
       </c>
     </row>
     <row r="16">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.02552983909845352, 0.023584801703691483, 0.029782695695757866, 0.029481517150998116, 0.022557871416211128, 0.02277425117790699, 0.023221177980303764, 0.02389569580554962, 0.03194470331072807, 0.03729432821273804, 0.03881338983774185, 0.04014983028173447, 0.028134232386946678, 0.03010770119726658, 0.02641981467604637, 0.02703537791967392, 0.02785422094166279, 0.027085376903414726, 0.02565917745232582, 0.0313265398144722, 0.035537850111722946, 0.033725857734680176, 0.037106309086084366, 0.03534315899014473, 0.03225842863321304, 0.02809239737689495, 0.0297144316136837, 0.0308656245470047, 0.03468421474099159, 0.027211803942918777, 0.02784402295947075, 0.02609662152826786, 0.025454582646489143, 0.023697253316640854, 0.024876991286873817, 0.02651943266391754, 0.02724885381758213, 0.025920553132891655, 0.023407934233546257, 0.021142302080988884, 0.019357098266482353, 0.020198862999677658, 0.022896425798535347, 0.022712109610438347, 0.023779746145009995, 0.024217886850237846, 0.02434704080224037, 0.027977632358670235, 0.02466680482029915, 0.01960032805800438, 0.019390806555747986, 0.01876288279891014, 0.020391182973980904, 0.02344929613173008, 0.02360040321946144, 0.02374974638223648, 0.02324451319873333, 0.026264794170856476, 0.022573236376047134, 0.019910946488380432, 0.017344512045383453, 0.019044440239667892, 0.020154835656285286, 0.018784916028380394, 0.018733154982328415, 0.018346702679991722, 0.018146399408578873, 0.018982859328389168, 0.01925935409963131, 0.024276237934827805, 0.024411192163825035, 0.02409994974732399, 0.019580930471420288, 0.02207919768989086, 0.023163508623838425, 0.021958058699965477, 0.02083653025329113, 0.02150849439203739, 0.024725792929530144, 0.02649042382836342, 0.024957915768027306, 0.025274483487010002, 0.02342655509710312, 0.02192084863781929, 0.022206934168934822, 0.02235657349228859, 0.021811001002788544, 0.02468685619533062, 0.02684713341295719, 0.03168376162648201, 0.030165376141667366, 0.03163463994860649, 0.033800866454839706, 0.02881907857954502, 0.025975381955504417, 0.026135535910725594, 0.024642786011099815, 0.024600693956017494, 0.02992778643965721, 0.025484390556812286, 0.02601427398622036, 0.02443043701350689, 0.024397023022174835, 0.029475383460521698, 0.030162610113620758, 0.02988266944885254, 0.030625514686107635, 0.029955973848700523, 0.02644292637705803, 0.026677904650568962, 0.027828222140669823, 0.029261019080877304, 0.03146318718791008, 0.027567630633711815, 0.02853567898273468, 0.030312255024909973, 0.03229774534702301, 0.027811916545033455]</t>
+          <t>[0.010637836530804634, 0.010188971646130085, 0.013645844534039497, 0.012845862656831741, 0.011357350274920464, 0.01161696296185255, 0.012234272435307503, 0.013572352938354015, 0.017087792977690697, 0.018092526122927666, 0.01815062016248703, 0.019184479489922523, 0.012971149757504463, 0.015451332554221153, 0.013457421213388443, 0.014035860076546669, 0.013592529110610485, 0.012829141691327095, 0.013516290113329887, 0.01698175258934498, 0.020109619945287704, 0.017262747511267662, 0.0232473686337471, 0.02143106982111931, 0.018749097362160683, 0.01770414412021637, 0.020229725167155266, 0.019429439678788185, 0.020214419811964035, 0.01630195789039135, 0.015600340440869331, 0.015116686932742596, 0.015344096347689629, 0.012892814353108406, 0.01161250751465559, 0.013858050107955933, 0.013942384161055088, 0.01572415418922901, 0.012979986146092415, 0.011538784019649029, 0.009965930134057999, 0.009709255769848824, 0.011125502176582813, 0.0116543835029006, 0.012293378822505474, 0.012237004935741425, 0.01216637622565031, 0.012099730782210827, 0.01157250627875328, 0.0100090391933918, 0.010059446096420288, 0.010042550973594189, 0.008634512312710285, 0.010659459047019482, 0.010906251147389412, 0.010963097214698792, 0.010791569016873837, 0.013747608289122581, 0.011967981234192848, 0.010427682660520077, 0.009012521244585514, 0.01019454188644886, 0.00991511158645153, 0.008813278749585152, 0.009009442292153835, 0.008761303499341011, 0.008731750771403313, 0.009386412799358368, 0.011241041123867035, 0.01302080973982811, 0.013253971934318542, 0.012648838572204113, 0.01056022010743618, 0.012662111781537533, 0.013185480609536171, 0.012355927377939224, 0.011080706492066383, 0.010299061425030231, 0.012036268599331379, 0.012991886585950851, 0.012433875352144241, 0.01295375730842352, 0.011007516644895077, 0.009053030051290989, 0.010760800912976265, 0.010770048014819622, 0.010629277676343918, 0.012709137983620167, 0.017496896907687187, 0.01923908106982708, 0.018125128000974655, 0.019452709704637527, 0.019959624856710434, 0.015244076028466225, 0.013754270039498806, 0.013743018731474876, 0.012659447267651558, 0.012683764100074768, 0.014161503873765469, 0.012583705596625805, 0.012804543599486351, 0.01186369825154543, 0.012425546534359455, 0.013574894517660141, 0.014896802604198456, 0.015062622725963593, 0.015375301241874695, 0.016273239627480507, 0.015537455677986145, 0.016728052869439125, 0.018775086849927902, 0.020226577296853065, 0.01813945733010769, 0.016518833115696907, 0.015535841695964336, 0.016533726826310158, 0.0174560546875, 0.015551762655377388]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.04014983028173447</v>
+        <v>0.0232473686337471</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.6322060999809764</v>
+        <v>0.685609200008912</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005357678813398105</v>
+        <v>0.005810247457702644</v>
       </c>
     </row>
     <row r="17">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.36906686425209045, 0.42710402607917786, 0.5379161834716797, 0.43031615018844604, 0.16313904523849487, 0.18700578808784485, 0.15166597068309784, 0.16085927188396454, 0.12957684695720673, 0.15566515922546387, 0.1098274365067482, 0.19993427395820618, 0.27371451258659363, 0.2510013282299042, 0.13760165870189667, 0.15056291222572327, 0.12329458445310593, 0.17855429649353027, 0.19139811396598816, 0.1971770077943802, 0.2665907144546509, 0.27910149097442627, 0.30461665987968445, 0.36447057127952576, 0.36216071248054504, 0.48467111587524414, 0.43458878993988037, 0.261844277381897, 0.18928144872188568, 0.12418442219495773, 0.12335194647312164, 0.10823655873537064, 0.1015060693025589, 0.16564132273197174, 0.14027036726474762, 0.1255941390991211, 0.094341941177845, 0.07298313826322556, 0.037774574011564255, 0.036927562206983566, 0.03600502759218216, 0.03642042726278305, 0.04480366408824921, 0.04874146729707718, 0.05612998083233833, 0.0643584355711937, 0.07376570254564285, 0.07580063492059708, 0.16255752742290497, 0.23143631219863892, 0.21747292578220367, 0.1847911775112152, 0.11055827140808105, 0.11502430588006973, 0.09890087693929672, 0.09920831769704819, 0.09168079495429993, 0.11071500182151794, 0.06747908890247345, 0.0651324987411499, 0.05875205993652344, 0.05419858545064926, 0.10244724899530411, 0.24395975470542908, 0.1982821226119995, 0.2104514241218567, 0.19893772900104523, 0.13431613147258759, 0.09776008129119873, 0.12948694825172424, 0.12323364615440369, 0.11830537021160126, 0.13092680275440216, 0.13805045187473297, 0.1180243119597435, 0.12098771333694458, 0.1326550394296646, 0.1664862334728241, 0.2664338946342468, 0.14418895542621613, 0.12829528748989105, 0.13816213607788086, 0.07821368426084518, 0.05635899677872658, 0.06631457805633545, 0.07149091362953186, 0.07426360249519348, 0.0920034795999527, 0.10396399348974228, 0.049821581691503525, 0.047142475843429565, 0.053017012774944305, 0.05212963744997978, 0.06587531417608261, 0.09445630759000778, 0.08921635150909424, 0.10003320872783661, 0.1108054518699646, 0.06845742464065552, 0.09569419920444489, 0.12279537320137024, 0.16753624379634857, 0.19577966630458832, 0.1878623515367508, 0.1620517075061798, 0.17131780087947845, 0.1918037235736847, 0.19735009968280792, 0.25488850474357605, 0.25234073400497437, 0.2562039792537689, 0.26650765538215637, 0.2095545381307602, 0.24110253155231476, 0.37649112939834595, 0.3629137873649597, 0.2641793191432953, 0.1764211803674698]</t>
+          <t>[0.08638429641723633, 0.08685598522424698, 0.15725257992744446, 0.43995121121406555, 0.050013937056064606, 0.05802193656563759, 0.0438375398516655, 0.034203749150037766, 0.02787908725440502, 0.03664249926805496, 0.0260245893150568, 0.041641805320978165, 0.07134319096803665, 0.052935514599084854, 0.029198603704571724, 0.029990367591381073, 0.02320842817425728, 0.028960000723600388, 0.028323449194431305, 0.036174364387989044, 0.061705030500888824, 0.057366743683815, 0.08257704228162766, 0.20676301419734955, 0.22923170030117035, 0.42927825450897217, 0.3053308129310608, 0.09714673459529877, 0.05677983537316322, 0.03345510736107826, 0.029057489708065987, 0.023856094107031822, 0.02374960668385029, 0.034722357988357544, 0.023811563849449158, 0.028189437463879585, 0.022007979452610016, 0.024552110582590103, 0.013387929648160934, 0.013398312032222748, 0.0131419338285923, 0.01276473980396986, 0.011552398093044758, 0.012657856568694115, 0.011898505501449108, 0.012564759701490402, 0.015036682598292828, 0.016431590542197227, 0.02450128272175789, 0.08540039509534836, 0.07121013849973679, 0.04603799805045128, 0.0230646301060915, 0.03588982671499252, 0.026082539930939674, 0.024742398411035538, 0.023836489766836166, 0.03044886700809002, 0.022520260885357857, 0.01673746481537819, 0.0176750048995018, 0.012183930724859238, 0.021747909486293793, 0.03282324597239494, 0.040652625262737274, 0.03880224749445915, 0.03448806703090668, 0.025772560387849808, 0.028268763795495033, 0.039206791669130325, 0.03214743733406067, 0.045467961579561234, 0.03829158470034599, 0.033346980810165405, 0.02954121120274067, 0.0324624702334404, 0.037055160850286484, 0.051323894411325455, 0.10415177047252655, 0.05050356686115265, 0.0573989599943161, 0.044444818049669266, 0.027325963601469994, 0.019687462598085403, 0.017978008836507797, 0.024052400141954422, 0.024280834943056107, 0.02737748995423317, 0.025102155283093452, 0.0147381741553545, 0.01471720077097416, 0.016639139503240585, 0.01664072275161743, 0.02475949563086033, 0.02628995105624199, 0.023926541209220886, 0.02748296968638897, 0.0228960569947958, 0.011386439204216003, 0.019562864676117897, 0.026155194267630577, 0.04863946512341499, 0.03830341994762421, 0.03365933895111084, 0.02939213439822197, 0.031886398792266846, 0.03786879777908325, 0.037082888185977936, 0.08212341368198395, 0.06694760918617249, 0.07861627638339996, 0.06309299916028976, 0.04227408394217491, 0.05006503686308861, 0.07425486296415329, 0.06709164381027222, 0.043240487575531006, 0.03035888262093067]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5379161834716797</v>
+        <v>0.4399512112140656</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.6555429000000004</v>
+        <v>0.650486099999398</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005555448305084749</v>
+        <v>0.005512594067791509</v>
       </c>
     </row>
     <row r="18">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.07137704640626907, 0.08267492800951004, 0.08541513979434967, 0.10573084652423859, 0.07783413678407669, 0.0493566170334816, 0.04229314625263214, 0.042015500366687775, 0.046482231467962265, 0.034315746277570724, 0.038937702775001526, 0.041274797171354294, 0.026874082162976265, 0.02748839184641838, 0.028573159128427505, 0.031172147020697594, 0.032692912966012955, 0.043760545551776886, 0.0356728620827198, 0.033456094563007355, 0.025749802589416504, 0.033284742385149, 0.032280419021844864, 0.03814646601676941, 0.03639734536409378, 0.053381409496068954, 0.07106032967567444, 0.05140449106693268, 0.03451923653483391, 0.03834274038672447, 0.030816679820418358, 0.03947101905941963, 0.03418394550681114, 0.03569839894771576, 0.03898152336478233, 0.024759860709309578, 0.0228540301322937, 0.024299930781126022, 0.023924732580780983, 0.025149405002593994, 0.02648100256919861, 0.04742969572544098, 0.04592620208859444, 0.04962509498000145, 0.047449126839637756, 0.03351439908146858, 0.04364616423845291, 0.037294432520866394, 0.03290597349405289, 0.038541510701179504, 0.04986485466361046, 0.048984382301568985, 0.049950603395700455, 0.05326920375227928, 0.05629344657063484, 0.0568804070353508, 0.04977846518158913, 0.04944984242320061, 0.047989070415496826, 0.0444783940911293, 0.041018132120370865, 0.0707714706659317, 0.07400944828987122, 0.06622433662414551, 0.06535986810922623, 0.06346310675144196, 0.06233033537864685, 0.0550936795771122, 0.04004000127315521, 0.03737841174006462, 0.05422953888773918, 0.10312716662883759, 0.0555717758834362, 0.04897577688097954, 0.05154193937778473, 0.05414538457989693, 0.05348164960741997, 0.060892652720212936, 0.05653533712029457, 0.051917217671871185, 0.06164690479636192, 0.0614154078066349, 0.048172883689403534, 0.04321115463972092, 0.05358393117785454, 0.060345359146595, 0.05995834991335869, 0.0432603694498539, 0.042914941906929016, 0.042059700936079025, 0.041249390691518784, 0.034688591957092285, 0.024848222732543945, 0.029602136462926865, 0.03441367670893669, 0.043512798845767975, 0.04917597398161888, 0.047414250671863556, 0.04793604463338852, 0.0461832694709301, 0.039782896637916565, 0.050048984587192535, 0.04879080131649971, 0.05001911148428917, 0.049466393887996674, 0.057570651173591614, 0.05899638310074806, 0.07230664044618607, 0.07253465056419373, 0.06594481319189072, 0.052683815360069275, 0.05096181109547615, 0.048824992030858994, 0.03411409258842468, 0.038751889020204544, 0.06006563827395439, 0.040135789662599564]</t>
+          <t>[0.041512880474328995, 0.04252898693084717, 0.03777950257062912, 0.04346997290849686, 0.03262273594737053, 0.018547285348176956, 0.01864626631140709, 0.015744373202323914, 0.01649836078286171, 0.015067307278513908, 0.017208753153681755, 0.016358764842152596, 0.010993256233632565, 0.01117723062634468, 0.011981955729424953, 0.013897563330829144, 0.015200000256299973, 0.01872437447309494, 0.01484511699527502, 0.015478303655982018, 0.009409228339791298, 0.009158612228929996, 0.011378603987395763, 0.012917944230139256, 0.010593414306640625, 0.01687709242105484, 0.03195689991116524, 0.02871965803205967, 0.017282884567975998, 0.022490521892905235, 0.017355680465698242, 0.01830170303583145, 0.014228818006813526, 0.015312342904508114, 0.014095823280513287, 0.011570828035473824, 0.010146567597985268, 0.010327791795134544, 0.010878875851631165, 0.011797646060585976, 0.01291203498840332, 0.021669883280992508, 0.0221885833889246, 0.023602547124028206, 0.022795697674155235, 0.015487841330468655, 0.01595558039844036, 0.017780888825654984, 0.017049113288521767, 0.023001011461019516, 0.02919888310134411, 0.0341368205845356, 0.03148207440972328, 0.030832240357995033, 0.0344475619494915, 0.036136988550424576, 0.03428066894412041, 0.028953181579709053, 0.02691446989774704, 0.024402229115366936, 0.02368982322514057, 0.04335399344563484, 0.05003384128212929, 0.043162230402231216, 0.04193413257598877, 0.034663040190935135, 0.02556745894253254, 0.025279562920331955, 0.021462367847561836, 0.017209423705935478, 0.027633922174572945, 0.04385298863053322, 0.024651076644659042, 0.02218007855117321, 0.026945916935801506, 0.029783902689814568, 0.03222396597266197, 0.03759225085377693, 0.03942573443055153, 0.032858870923519135, 0.0335138738155365, 0.03720827028155327, 0.030768482014536858, 0.025566713884472847, 0.027155574411153793, 0.032611578702926636, 0.03429599106311798, 0.028440624475479126, 0.028649911284446716, 0.029204821214079857, 0.028949972242116928, 0.02250705659389496, 0.01538502611219883, 0.01894892193377018, 0.02215885929763317, 0.03319280222058296, 0.03579887002706528, 0.0353110134601593, 0.034692972898483276, 0.03572413697838783, 0.029892126098275185, 0.040012434124946594, 0.033122312277555466, 0.034490033984184265, 0.03552861139178276, 0.03854060545563698, 0.0357845276594162, 0.049030788242816925, 0.05193139985203743, 0.046017225831747055, 0.029225999489426613, 0.024722425267100334, 0.02032441273331642, 0.016294313594698906, 0.01894044689834118, 0.029727095738053322, 0.022769693285226822]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1057308465242386</v>
+        <v>0.05193139985203743</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.635189900000114</v>
+        <v>0.6315842000039993</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005428973504274478</v>
+        <v>0.005398155555589737</v>
       </c>
     </row>
     <row r="19">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.09173282980918884, 0.07023953646421432, 0.07958215475082397, 0.06441795080900192, 0.05024708807468414, 0.07996199280023575, 0.16016685962677002, 0.1476646214723587, 0.14674609899520874, 0.1783692091703415, 0.09414984285831451, 0.1010911762714386, 0.09714893251657486, 0.08008331805467606, 0.05663050711154938, 0.0695532038807869, 0.06502670049667358, 0.057437025010585785, 0.05146970972418785, 0.07516484707593918, 0.06266879290342331, 0.07327651232481003, 0.07729402929544449, 0.052220750600099564, 0.05628913640975952, 0.07845327258110046, 0.07578281313180923, 0.06976494938135147, 0.13135084509849548, 0.06312763690948486, 0.04939275234937668, 0.057585299015045166, 0.06343148648738861, 0.07390349358320236, 0.07746554166078568, 0.07972287386655807, 0.09766193479299545, 0.08278870582580566, 0.08494484424591064, 0.07957620173692703, 0.06542892754077911, 0.07807754725217819, 0.08211361616849899, 0.10095526278018951, 0.1020781621336937, 0.0686771422624588, 0.0787600725889206, 0.07815314084291458, 0.1042330265045166, 0.07547073066234589, 0.05667965114116669, 0.05538236349821091, 0.05640881136059761, 0.056590672582387924, 0.061489611864089966, 0.08014047145843506, 0.07720499485731125, 0.08499355614185333, 0.08597145229578018, 0.061486050486564636, 0.06890168786048889, 0.067842997610569, 0.07697365432977676, 0.06643850356340408, 0.05317524075508118, 0.05541491508483887, 0.05231329798698425, 0.06160604953765869, 0.062272656708955765, 0.0715838298201561, 0.08281002938747406, 0.08143384009599686, 0.08381849527359009, 0.07018948346376419, 0.07996007800102234, 0.09559377282857895, 0.09136781096458435, 0.09723629802465439, 0.07615141570568085, 0.0415777824819088, 0.08921149373054504, 0.07865579426288605, 0.07724460959434509, 0.08482982963323593, 0.09014932811260223, 0.07823702692985535, 0.08797008544206619, 0.07816250622272491, 0.05558832734823227, 0.06126497685909271, 0.08448486030101776, 0.08559525012969971, 0.07931899279356003, 0.05825452879071236, 0.044258471578359604, 0.06150972843170166, 0.05827722325921059, 0.07117870450019836, 0.05068076401948929, 0.037817150354385376, 0.03313222900032997, 0.031572479754686356, 0.02939230389893055, 0.030207503587007523, 0.043476562947034836, 0.04862367361783981, 0.04606407508254051, 0.04201739281415939, 0.04183555394411087, 0.03655789792537689, 0.03697995841503143, 0.04582832381129265, 0.03835774213075638, 0.04419467970728874, 0.053524043411016464, 0.05464651808142662, 0.05166652798652649, 0.04682379961013794]</t>
+          <t>[0.0995856374502182, 0.06607706844806671, 0.07941961288452148, 0.07597716152667999, 0.058368660509586334, 0.13853031396865845, 0.371864378452301, 0.33699455857276917, 0.44636446237564087, 0.5480003356933594, 0.14226624369621277, 0.1401125192642212, 0.1254878044128418, 0.10609636455774307, 0.05703851208090782, 0.06608649343252182, 0.0638454332947731, 0.05252475664019585, 0.054872412234544754, 0.08257544785737991, 0.07045692205429077, 0.08860014379024506, 0.09501300752162933, 0.055661335587501526, 0.05464489385485649, 0.06447137147188187, 0.06275753676891327, 0.05627359822392464, 0.10943754762411118, 0.04605632647871971, 0.04427487775683403, 0.05449283868074417, 0.06192285940051079, 0.05482766032218933, 0.051594097167253494, 0.06200310215353966, 0.06956256926059723, 0.05612364411354065, 0.05858650803565979, 0.055157896131277084, 0.05195004120469093, 0.059578731656074524, 0.06403527408838272, 0.07614926248788834, 0.07816967368125916, 0.05210588127374649, 0.056872762739658356, 0.05635490268468857, 0.0753178671002388, 0.07245290279388428, 0.05296897888183594, 0.04537912830710411, 0.048738252371549606, 0.04724673554301262, 0.04150739684700966, 0.049895428121089935, 0.0511840358376503, 0.0529748797416687, 0.056987978518009186, 0.040989212691783905, 0.039796844124794006, 0.03955922648310661, 0.046404093503952026, 0.04598027840256691, 0.04798205941915512, 0.05706363543868065, 0.05423383787274361, 0.06381367892026901, 0.04922232776880264, 0.04958178848028183, 0.057799700647592545, 0.05711330100893974, 0.06117060407996178, 0.055350642651319504, 0.0836711898446083, 0.1065344512462616, 0.09827270358800888, 0.1052531749010086, 0.056591618806123734, 0.05154585465788841, 0.2338271588087082, 0.17670105397701263, 0.21431376039981842, 0.23795410990715027, 0.2487194538116455, 0.06581798940896988, 0.07074863463640213, 0.05950351804494858, 0.043747592717409134, 0.04041267931461334, 0.07688512653112411, 0.08485022932291031, 0.07740282267332077, 0.06326975673437119, 0.04797181114554405, 0.060906145721673965, 0.051583435386419296, 0.06707805395126343, 0.044281285256147385, 0.03762302175164223, 0.04160454124212265, 0.040442321449518204, 0.039868950843811035, 0.03972887992858887, 0.057098984718322754, 0.029455842450261116, 0.028175167739391327, 0.02394525147974491, 0.024798020720481873, 0.02440151944756508, 0.02595343440771103, 0.03158196061849594, 0.029455363750457764, 0.03713491931557655, 0.051827266812324524, 0.049522578716278076, 0.04961923882365227, 0.04496411606669426]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1783692091703415</v>
+        <v>0.5480003356933594</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.6456693999934942</v>
+        <v>0.6528776000050129</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005471774576216052</v>
+        <v>0.005532861016991635</v>
       </c>
     </row>
     <row r="20">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.015293962322175503, 0.01558370515704155, 0.015766369178891182, 0.016934877261519432, 0.013555268757045269, 0.015352520160377026, 0.025610489770770073, 0.02616993524134159, 0.027419373393058777, 0.02607445791363716, 0.028707075864076614, 0.014503142796456814, 0.013600517064332962, 0.01574752852320671, 0.018323209136724472, 0.023856477811932564, 0.02049153670668602, 0.02007756009697914, 0.02314206212759018, 0.022021234035491943, 0.017147038131952286, 0.013250593096017838, 0.01531815156340599, 0.014417844824492931, 0.016757875680923462, 0.03793499618768692, 0.021476969122886658, 0.0177356768399477, 0.021291840821504593, 0.03643940016627312, 0.052185047417879105, 0.019061939790844917, 0.013609681278467178, 0.009044279344379902, 0.011829095892608166, 0.020111680030822754, 0.026148982346057892, 0.03158764913678169, 0.03647512570023537, 0.02054307796061039, 0.017035039141774178, 0.018124938011169434, 0.024350253865122795, 0.021382667124271393, 0.02908848598599434, 0.017514726147055626, 0.019112464040517807, 0.022450555115938187, 0.021732017397880554, 0.017797453328967094, 0.04284260421991348, 0.038147591054439545, 0.03612051531672478, 0.02904803864657879, 0.026030952110886574, 0.02602599561214447, 0.02364574559032917, 0.02621297352015972, 0.02209547907114029, 0.010084934532642365, 0.01803590916097164, 0.015199059620499611, 0.01597362570464611, 0.02002037689089775, 0.03126819431781769, 0.03205513209104538, 0.029262755066156387, 0.028009915724396706, 0.027917923405766487, 0.03855708986520767, 0.03409699350595474, 0.035228878259658813, 0.036579232662916183, 0.0378546342253685, 0.03866911306977272, 0.03431597352027893, 0.020066499710083008, 0.020683778449892998, 0.020413991063833237, 0.02925954945385456, 0.03553267940878868, 0.042087748646736145, 0.03302190080285072, 0.03548688814043999, 0.036087602376937866, 0.0366273932158947, 0.034236785024404526, 0.03575404733419418, 0.03571157902479172, 0.038868095725774765, 0.04860611632466316, 0.03498632833361626, 0.036891207098960876, 0.03928287699818611, 0.029289793223142624, 0.024469934403896332, 0.0294480063021183, 0.03036501444876194, 0.028134331107139587, 0.025160133838653564, 0.02533145248889923, 0.021252116188406944, 0.01965510845184326, 0.01892729476094246, 0.022731387987732887, 0.03324437141418457, 0.05043068900704384, 0.050413355231285095, 0.06387347728013992, 0.06767886877059937, 0.06917709112167358, 0.04481011629104614, 0.04114475101232529, 0.03639871999621391, 0.03249293193221092, 0.033714599907398224, 0.03384196013212204]</t>
+          <t>[0.004629393108189106, 0.005029609426856041, 0.005128444172441959, 0.006617022678256035, 0.00747782364487648, 0.008703281171619892, 0.011971713975071907, 0.011013373732566833, 0.01217136811465025, 0.010921013541519642, 0.011325132101774216, 0.007352233864367008, 0.006014184560626745, 0.00740128755569458, 0.00817531906068325, 0.008071866817772388, 0.007472099736332893, 0.006813049782067537, 0.007593164220452309, 0.009523852728307247, 0.007548341061919928, 0.007769008632749319, 0.009295669384300709, 0.009848912246525288, 0.013250499032437801, 0.021524807438254356, 0.015362514182925224, 0.012312454171478748, 0.0142958490177989, 0.023827895522117615, 0.04640820622444153, 0.021013129502534866, 0.018076088279485703, 0.011020278558135033, 0.010081436485052109, 0.017255330458283424, 0.023680198937654495, 0.031733352690935135, 0.036166124045848846, 0.01197800599038601, 0.008385729975998402, 0.010411928407847881, 0.013924184255301952, 0.013904817402362823, 0.013331682421267033, 0.006939558312296867, 0.007297066040337086, 0.009136258624494076, 0.009617909789085388, 0.00948970578610897, 0.024444781243801117, 0.015306972898542881, 0.014713038690388203, 0.012032661586999893, 0.010353469289839268, 0.01215997152030468, 0.015302157029509544, 0.01936710625886917, 0.016423793509602547, 0.009314059279859066, 0.0134494723752141, 0.0127326138317585, 0.013542062602937222, 0.017475269734859467, 0.021469801664352417, 0.017623212188482285, 0.016589490696787834, 0.01677899993956089, 0.016913224011659622, 0.028474515303969383, 0.02521216683089733, 0.02649366855621338, 0.025618312880396843, 0.025618337094783783, 0.03510936722159386, 0.021573277190327644, 0.010700696147978306, 0.010407690890133381, 0.010307717137038708, 0.019986959174275398, 0.04685002565383911, 0.043279506266117096, 0.0348290354013443, 0.03345203399658203, 0.025121280923485756, 0.03387709707021713, 0.024264466017484665, 0.026667963713407516, 0.026509910821914673, 0.02686258591711521, 0.03695381432771683, 0.025265801697969437, 0.026049315929412842, 0.02509297803044319, 0.019259942695498466, 0.012084863148629665, 0.014230478554964066, 0.013872843235731125, 0.0133378179743886, 0.012282845564186573, 0.015252761542797089, 0.011967102997004986, 0.010959654115140438, 0.009188235737383366, 0.009062477387487888, 0.014759320765733719, 0.024456361308693886, 0.03166915848851204, 0.04199442267417908, 0.03849035128951073, 0.037522874772548676, 0.03342575207352638, 0.038803908973932266, 0.03311362490057945, 0.030563734471797943, 0.021781519055366516, 0.015022634528577328]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.06917709112167358</v>
+        <v>0.04685002565383911</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.6296921000175644</v>
+        <v>0.6385404000029666</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005381983760833884</v>
+        <v>0.005457610256435612</v>
       </c>
     </row>
     <row r="21">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.1831667125225067, 0.27547457814216614, 0.20164144039154053, 0.13016153872013092, 0.11431597173213959, 0.15841132402420044, 0.25333237648010254, 0.3911798894405365, 0.3820047974586487, 0.3364109396934509, 0.3301272988319397, 0.19384661316871643, 0.3605978786945343, 0.5033508539199829, 0.5795885920524597, 0.5692051649093628, 0.4843696653842926, 0.2070312649011612, 0.059112679213285446, 0.05286845937371254, 0.040596019476652145, 0.07577525824308395, 0.08010336011648178, 0.20916110277175903, 0.1908775418996811, 0.2202398180961609, 0.1444319784641266, 0.2503335773944855, 0.33432716131210327, 0.29228153824806213, 0.3041691780090332, 0.4244985282421112, 0.25998052954673767, 0.14453856647014618, 0.09904731810092926, 0.08938541263341904, 0.05680382624268532, 0.1857919991016388, 0.3173251152038574, 0.30437248945236206, 0.3022308945655823, 0.2799290120601654, 0.2729873061180115, 0.2754753828048706, 0.2772137224674225, 0.33021804690361023, 0.34065327048301697, 0.2415030151605606, 0.1581278294324875, 0.14199987053871155, 0.16031229496002197, 0.23608146607875824, 0.2376762479543686, 0.17402434349060059, 0.13051827251911163, 0.1704694926738739, 0.15741859376430511, 0.21688053011894226, 0.11000365018844604, 0.09092837572097778, 0.1058717668056488, 0.16318783164024353, 0.21289516985416412, 0.26034271717071533, 0.2907158434391022, 0.2704465091228485, 0.3087635934352875, 0.1355554163455963, 0.09624373912811279, 0.08243407309055328, 0.08984746038913727, 0.051558658480644226, 0.1394306868314743, 0.16614526510238647, 0.14120708405971527, 0.16197015345096588, 0.28203240036964417, 0.22434237599372864, 0.22923392057418823, 0.25418993830680847, 0.26272693276405334, 0.11837315559387207, 0.10174661874771118, 0.04906688258051872, 0.048024773597717285, 0.048954688012599945, 0.13228319585323334, 0.1454954892396927, 0.1980588734149933, 0.27232110500335693, 0.2778671085834503, 0.2659793198108673, 0.12929214537143707, 0.21355263888835907, 0.21115346252918243, 0.19327475130558014, 0.28151172399520874, 0.19377879798412323, 0.07947051525115967, 0.061131782829761505, 0.04208536446094513, 0.056765615940093994, 0.06289113312959671, 0.10712265223264694, 0.11814133077859879, 0.14160966873168945, 0.3352208733558655, 0.220612570643425, 0.19194114208221436, 0.1472650021314621, 0.15485070645809174, 0.20695234835147858, 0.23091380298137665, 0.27087318897247314, 0.3340461254119873, 0.30168938636779785, 0.3705776631832123, 0.2342437505722046]</t>
+          <t>[0.05172858014702797, 0.07794759422540665, 0.04069117456674576, 0.027708901092410088, 0.022172626107931137, 0.0413954071700573, 0.07429109513759613, 0.10927924513816833, 0.09717113524675369, 0.07819569855928421, 0.07120498269796371, 0.05330531299114227, 0.15734344720840454, 0.22444351017475128, 0.2737656831741333, 0.2714877724647522, 0.16220960021018982, 0.04447086527943611, 0.01909029856324196, 0.01677291840314865, 0.012271501123905182, 0.014895598404109478, 0.015744535252451897, 0.03595653548836708, 0.040053337812423706, 0.04238571971654892, 0.03147832304239273, 0.08485525846481323, 0.15777121484279633, 0.13899889588356018, 0.14241690933704376, 0.22017565369606018, 0.05938664451241493, 0.04050552472472191, 0.02373373694717884, 0.025527657940983772, 0.011549954302608967, 0.04140409827232361, 0.0799967348575592, 0.08911088109016418, 0.10299908369779587, 0.1546451896429062, 0.1285090297460556, 0.17049410939216614, 0.17539934813976288, 0.18752801418304443, 0.17476272583007812, 0.13393421471118927, 0.10646454244852066, 0.07750235497951508, 0.09271609038114548, 0.1331605166196823, 0.13760904967784882, 0.08624237775802612, 0.07022364437580109, 0.09043209999799728, 0.10020308941602707, 0.16819719970226288, 0.07280878722667694, 0.05385132133960724, 0.05556405335664749, 0.07195806503295898, 0.11529234796762466, 0.09821698069572449, 0.10751400142908096, 0.11292882263660431, 0.08698995411396027, 0.03952733799815178, 0.029222216457128525, 0.023097965866327286, 0.025601735338568687, 0.018069930374622345, 0.03900054469704628, 0.043631866574287415, 0.03789694607257843, 0.05052151158452034, 0.08027282357215881, 0.05023356154561043, 0.05544310435652733, 0.053263336420059204, 0.054987818002700806, 0.028093231841921806, 0.020903823897242546, 0.013559725135564804, 0.013653265312314034, 0.01451544463634491, 0.05065234750509262, 0.05692166090011597, 0.06415434926748276, 0.0879124104976654, 0.08802872896194458, 0.1139611229300499, 0.03316148743033409, 0.1077423021197319, 0.11694549769163132, 0.11924249678850174, 0.13427327573299408, 0.06394479423761368, 0.022877182811498642, 0.01635163649916649, 0.012418859638273716, 0.015962934121489525, 0.03327244520187378, 0.03626430034637451, 0.05073235183954239, 0.05293434113264084, 0.12208189070224762, 0.059505004435777664, 0.0785483866930008, 0.07290825992822647, 0.09022203832864761, 0.10038666427135468, 0.08919169753789902, 0.09710879623889923, 0.12092091888189316, 0.11043483763933182, 0.09260623157024384, 0.052837200462818146]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5795885920524597</v>
+        <v>0.2737656831741333</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.64494480000576</v>
+        <v>0.6573807000095258</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005465633898353898</v>
+        <v>0.005571022881436659</v>
       </c>
     </row>
     <row r="22">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.027190040796995163, 0.02628500945866108, 0.02359539456665516, 0.026731407269835472, 0.01778588816523552, 0.020165961235761642, 0.019708871841430664, 0.027975870296359062, 0.026553355157375336, 0.025747669860720634, 0.028448840603232384, 0.026176080107688904, 0.02147620916366577, 0.020255645737051964, 0.01996709778904915, 0.018907804042100906, 0.019077999517321587, 0.019238486886024475, 0.019167261198163033, 0.021614063531160355, 0.019913580268621445, 0.021360673010349274, 0.01947958581149578, 0.020732570439577103, 0.018991904333233833, 0.020197974517941475, 0.018152808770537376, 0.02590201050043106, 0.026293903589248657, 0.02577359601855278, 0.025420773774385452, 0.02455385960638523, 0.021245379000902176, 0.01972103677690029, 0.020854013040661812, 0.020330239087343216, 0.02108226716518402, 0.02371915616095066, 0.022999145090579987, 0.027015425264835358, 0.025663193315267563, 0.026141108945012093, 0.02544330060482025, 0.030795332044363022, 0.02533974125981331, 0.026284709572792053, 0.028233030810952187, 0.026342978700995445, 0.024452708661556244, 0.02269195020198822, 0.023400921374559402, 0.023481938987970352, 0.027071047574281693, 0.03557347506284714, 0.02877296321094036, 0.02916131168603897, 0.025897059589624405, 0.02703428827226162, 0.026541361585259438, 0.028275439515709877, 0.027621222659945488, 0.03220728784799576, 0.0344957634806633, 0.03485359996557236, 0.03292997181415558, 0.03372853994369507, 0.035175904631614685, 0.03413338586688042, 0.03791253641247749, 0.03336349502205849, 0.03584340959787369, 0.03520295396447182, 0.031360309571027756, 0.02901088446378708, 0.0279757808893919, 0.028566228225827217, 0.02581281214952469, 0.028040746226906776, 0.032802432775497437, 0.03333868458867073, 0.03560684248805046, 0.035002853721380234, 0.032597918063402176, 0.033906228840351105, 0.035698242485523224, 0.03794290870428085, 0.040654707700014114, 0.04305025562644005, 0.034996312111616135, 0.02612762153148651, 0.028886133804917336, 0.029643544927239418, 0.03334047272801399, 0.023043666034936905, 0.02297276258468628, 0.02398814633488655, 0.024184711277484894, 0.028047336265444756, 0.03652583807706833, 0.030632076784968376, 0.024339469149708748, 0.028335170820355415, 0.02934676595032215, 0.02455194666981697, 0.029298944398760796, 0.026658283546566963, 0.027579646557569504, 0.020505471155047417, 0.020831171423196793, 0.01792730949819088, 0.018370114266872406, 0.016893059015274048, 0.01857048273086548, 0.021844513714313507, 0.01884220354259014, 0.018091833218932152, 0.0181523896753788]</t>
+          <t>[0.0214796494692564, 0.02116807922720909, 0.013540088199079037, 0.01444832794368267, 0.007962767034769058, 0.009996742941439152, 0.010282724164426327, 0.012117594480514526, 0.013400204479694366, 0.012653863057494164, 0.01728999800980091, 0.015887465327978134, 0.016930928453803062, 0.008371565490961075, 0.009130256250500679, 0.008583232760429382, 0.010493135079741478, 0.008974557742476463, 0.009679353795945644, 0.013150608167052269, 0.011131420731544495, 0.01442116592079401, 0.012507492676377296, 0.014145943336188793, 0.012745620682835579, 0.012629985809326172, 0.010557480156421661, 0.018857507035136223, 0.021200602874159813, 0.016421599313616753, 0.01850872114300728, 0.01852143555879593, 0.019440053030848503, 0.015826590359210968, 0.019780302420258522, 0.018755493685603142, 0.0190481785684824, 0.021680735051631927, 0.023261435329914093, 0.02812812477350235, 0.027668839320540428, 0.026362841948866844, 0.029668381437659264, 0.027883145958185196, 0.022359784692525864, 0.02083093300461769, 0.02211078070104122, 0.026159171015024185, 0.02492080256342888, 0.016126500442624092, 0.018224503844976425, 0.021389983594417572, 0.021256543695926666, 0.026725463569164276, 0.025326501578092575, 0.028959019109606743, 0.024828795343637466, 0.030326876789331436, 0.0229007750749588, 0.02263961359858513, 0.021160515025258064, 0.024035299196839333, 0.028636081144213676, 0.02882564067840576, 0.034942466765642166, 0.03343554213643074, 0.03388054668903351, 0.030254414305090904, 0.0383186899125576, 0.025618093088269234, 0.02887122705578804, 0.028463825583457947, 0.02909032814204693, 0.0274567399173975, 0.029585067182779312, 0.029795892536640167, 0.027209559455513954, 0.02287936396896839, 0.031984928995370865, 0.03344084694981575, 0.039069514721632004, 0.03499013930559158, 0.02763819694519043, 0.031179534271359444, 0.03164134547114372, 0.03339815139770508, 0.03348039463162422, 0.03707609698176384, 0.04025299847126007, 0.027897201478481293, 0.03068232350051403, 0.03144865483045578, 0.04152032732963562, 0.0160115584731102, 0.017013302072882652, 0.01751665398478508, 0.01755845732986927, 0.023367736488580704, 0.029671013355255127, 0.02060907520353794, 0.01617514342069626, 0.017852965742349625, 0.01862937957048416, 0.01262486632913351, 0.020133284851908684, 0.017413398250937462, 0.016837941482663155, 0.012841473333537579, 0.01369283813983202, 0.00958759430795908, 0.010163022205233574, 0.008934352546930313, 0.009842269122600555, 0.014483003877103329, 0.012172526679933071, 0.010471991263329983, 0.010913784615695477]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.04305025562644005</v>
+        <v>0.04152032732963562</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.6411550000193529</v>
+        <v>0.6495218000054592</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005479957265122674</v>
+        <v>0.005551468376115036</v>
       </c>
     </row>
     <row r="23">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.035116441547870636, 0.040121566504240036, 0.03636452183127403, 0.034747324883937836, 0.0287559125572443, 0.03345237299799919, 0.04531392082571983, 0.02866332046687603, 0.027195777744054794, 0.035692911595106125, 0.03246978670358658, 0.04631151631474495, 0.049258042126894, 0.05799683928489685, 0.04641897976398468, 0.05429574474692345, 0.06078280135989189, 0.06295444816350937, 0.04860405996441841, 0.04696926102042198, 0.05527697876095772, 0.06948857009410858, 0.08267775177955627, 0.054450180381536484, 0.05841924995183945, 0.048527516424655914, 0.06088961660861969, 0.06491779536008835, 0.11346804350614548, 0.1304214596748352, 0.13829536736011505, 0.09006737917661667, 0.12274934351444244, 0.055958833545446396, 0.0614192858338356, 0.05898963287472725, 0.06532715260982513, 0.07492544502019882, 0.1148485615849495, 0.0785430371761322, 0.06754282861948013, 0.0462900809943676, 0.04879803955554962, 0.03279585763812065, 0.02940334565937519, 0.03366348147392273, 0.054744232445955276, 0.04211054742336273, 0.04160679876804352, 0.0444977730512619, 0.04464508220553398, 0.042690012603998184, 0.04377010464668274, 0.02317381277680397, 0.025335144251585007, 0.02585430257022381, 0.024936925619840622, 0.028742680326104164, 0.02401840314269066, 0.024178465828299522, 0.02439877763390541, 0.0590299554169178, 0.10164788365364075, 0.05952170491218567, 0.06040998920798302, 0.06907162070274353, 0.057492855936288834, 0.035586096346378326, 0.0343979112803936, 0.03297620639204979, 0.03190583735704422, 0.037803106009960175, 0.03841054067015648, 0.041989292949438095, 0.034987471997737885, 0.03894897550344467, 0.03943905979394913, 0.07014168053865433, 0.13603708148002625, 0.11288297176361084, 0.09963958710432053, 0.11567065119743347, 0.05758752301335335, 0.05440253019332886, 0.046132832765579224, 0.049635712057352066, 0.04679356515407562, 0.03507474809885025, 0.026210641488432884, 0.02449970319867134, 0.022556554526090622, 0.030469132587313652, 0.030508484691381454, 0.03106948733329773, 0.0358184389770031, 0.041661232709884644, 0.05836443975567818, 0.036719679832458496, 0.03371308743953705, 0.03576955199241638, 0.03652896732091904, 0.027304161339998245, 0.031928811222314835, 0.030728157609701157, 0.02623382955789566, 0.03395158424973488, 0.04233120009303093, 0.046599723398685455, 0.03349057585000992, 0.032673563808202744, 0.02943633496761322, 0.034366048872470856, 0.03573986142873764, 0.031177420169115067, 0.029740680009126663, 0.028684064745903015, 0.029713524505496025, 0.03150741010904312]</t>
+          <t>[0.033087246119976044, 0.025765249505639076, 0.021735025569796562, 0.023297403007745743, 0.019768690690398216, 0.02499389462172985, 0.03919006884098053, 0.027292491868138313, 0.028784140944480896, 0.03205724433064461, 0.03037872351706028, 0.03107423335313797, 0.031198231503367424, 0.04336802288889885, 0.03940160199999809, 0.04861431568861008, 0.05041053518652916, 0.044519856572151184, 0.02705460786819458, 0.027546808123588562, 0.035925690084695816, 0.061617664992809296, 0.0805579200387001, 0.05297465622425079, 0.043922536075115204, 0.040582019835710526, 0.05528935045003891, 0.05608906224370003, 0.07458794862031937, 0.09216615557670593, 0.10504455864429474, 0.07657583802938461, 0.1437046378850937, 0.0658118799328804, 0.06777439266443253, 0.06405383348464966, 0.07059498876333237, 0.07224160432815552, 0.08304715901613235, 0.05910763517022133, 0.046449244022369385, 0.027343779802322388, 0.027912475168704987, 0.014094271697103977, 0.01657986082136631, 0.018332092091441154, 0.03319263085722923, 0.03394502401351929, 0.027675811201334, 0.02893299050629139, 0.02768242172896862, 0.027110349386930466, 0.022286079823970795, 0.010450005531311035, 0.012087463401257992, 0.012597191147506237, 0.012808497995138168, 0.017288846895098686, 0.01698794588446617, 0.016904465854167938, 0.0186691265553236, 0.04934101179242134, 0.09099747985601425, 0.06153848394751549, 0.06115562096238136, 0.062214046716690063, 0.058528389781713486, 0.042612865567207336, 0.04447292536497116, 0.05307109281420708, 0.05113642290234566, 0.04040437191724777, 0.031128115952014923, 0.030896801501512527, 0.02706790901720524, 0.028374502435326576, 0.025451306253671646, 0.06225674971938133, 0.10613429546356201, 0.09797053039073944, 0.08189839869737625, 0.07716775685548782, 0.032345548272132874, 0.02696377784013748, 0.02448371984064579, 0.02496499940752983, 0.021690979599952698, 0.014580625109374523, 0.011225194670259953, 0.011594782583415508, 0.010968977585434914, 0.016105208545923233, 0.013335765339434147, 0.011121610179543495, 0.012450549751520157, 0.014316701330244541, 0.019292201846837997, 0.017644794657826424, 0.02240111492574215, 0.020014433190226555, 0.020635155960917473, 0.01768888533115387, 0.024248497560620308, 0.029839398339390755, 0.02149461954832077, 0.029467785730957985, 0.03496566042304039, 0.0283369030803442, 0.01723634824156761, 0.019285237416625023, 0.017107104882597923, 0.021518338471651077, 0.029212817549705505, 0.026856448501348495, 0.02748943865299225, 0.02444913424551487, 0.024984076619148254, 0.030115213245153427]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1382953673601151</v>
+        <v>0.1437046378850937</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.6665467999991961</v>
+        <v>0.6731982999917818</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005648701694908441</v>
+        <v>0.005705070338913406</v>
       </c>
     </row>
     <row r="24">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.08917590230703354, 0.07723217457532883, 0.05263172462582588, 0.0554034523665905, 0.06784053891897202, 0.061993151903152466, 0.05946008116006851, 0.04676222801208496, 0.05087912827730179, 0.051199741661548615, 0.04135514795780182, 0.0549132414162159, 0.05223223567008972, 0.04985344782471657, 0.05310578644275665, 0.035926565527915955, 0.04486706852912903, 0.037215203046798706, 0.036291614174842834, 0.04755742847919464, 0.0402861014008522, 0.033884380012750626, 0.03320975601673126, 0.03208930790424347, 0.05020541697740555, 0.06227818876504898, 0.055304136127233505, 0.046405598521232605, 0.03851265832781792, 0.03774319216609001, 0.04348631948232651, 0.04765545576810837, 0.04758088290691376, 0.06228148192167282, 0.06372483819723129, 0.08969153463840485, 0.1711384505033493, 0.07922428101301193, 0.05419434234499931, 0.07065490633249283, 0.13514883816242218, 0.12694957852363586, 0.04164080694317818, 0.03996420279145241, 0.055566493421792984, 0.08537359535694122, 0.06888323277235031, 0.07260175049304962, 0.08711092919111252, 0.09379124641418457, 0.049232807010412216, 0.04868075251579285, 0.0697232186794281, 0.06595810502767563, 0.07045622915029526, 0.07122346758842468, 0.05606698617339134, 0.05063487961888313, 0.04732749983668327, 0.04156601056456566, 0.059265099465847015, 0.07815725356340408, 0.10462477803230286, 0.10733964294195175, 0.13350163400173187, 0.08476298302412033, 0.08259616047143936, 0.1036633551120758, 0.11448826640844345, 0.11451270431280136, 0.13596312701702118, 0.09697055071592331, 0.0745101049542427, 0.08179488033056259, 0.07973654568195343, 0.09180662781000137, 0.14252197742462158, 0.15156404674053192, 0.14439204335212708, 0.14446678757667542, 0.0994243398308754, 0.10532248020172119, 0.10308396816253662, 0.11835454404354095, 0.1075318455696106, 0.1286076009273529, 0.10778278112411499, 0.11585915088653564, 0.1068030446767807, 0.09501610696315765, 0.09602988511323929, 0.08576051890850067, 0.09192658960819244, 0.09065291285514832, 0.09056057035923004, 0.15996000170707703, 0.10177043825387955, 0.09385189414024353, 0.10403622686862946, 0.0931682214140892, 0.09419645369052887, 0.08549632132053375, 0.06793198734521866, 0.08065056055784225, 0.10069629549980164, 0.16713298857212067, 0.16422449052333832, 0.14072848856449127, 0.14574271440505981, 0.16367515921592712, 0.11450513452291489, 0.06216363236308098, 0.05111400783061981, 0.05623418092727661, 0.059742819517850876, 0.07956232875585556, 0.08025924861431122]</t>
+          <t>[0.030480550602078438, 0.029589731246232986, 0.017872828990221024, 0.01812686026096344, 0.024077871814370155, 0.0349898561835289, 0.028277279809117317, 0.024959787726402283, 0.027317898347973824, 0.021346447989344597, 0.01305330265313387, 0.016837650910019875, 0.020099161192774773, 0.017727728933095932, 0.020479561761021614, 0.016467511653900146, 0.021257326006889343, 0.013323580846190453, 0.013015967793762684, 0.017844591289758682, 0.017308026552200317, 0.016258442774415016, 0.02019193395972252, 0.021179605275392532, 0.03907512128353119, 0.034824058413505554, 0.01905209757387638, 0.016783978790044785, 0.01260827574878931, 0.012844162061810493, 0.025289786979556084, 0.03530266880989075, 0.023148126900196075, 0.029663359746336937, 0.026643918827176094, 0.04779950529336929, 0.0597214438021183, 0.04541079327464104, 0.0257770624011755, 0.03865397348999977, 0.05027233064174652, 0.09156867861747742, 0.04014715552330017, 0.03023049235343933, 0.03499408811330795, 0.06205243617296219, 0.05964601784944534, 0.049780361354351044, 0.05477793887257576, 0.08592525124549866, 0.03924974054098129, 0.03033427521586418, 0.035189103335142136, 0.03327580541372299, 0.03851296752691269, 0.04594612494111061, 0.032932184636592865, 0.02907552942633629, 0.027324417605996132, 0.019426444545388222, 0.04633881896734238, 0.06246699392795563, 0.05418558046221733, 0.05363982543349266, 0.06860937178134918, 0.04837098345160484, 0.06390019506216049, 0.07526280730962753, 0.07804957032203674, 0.07228698581457138, 0.08261764049530029, 0.05975262075662613, 0.048753272742033005, 0.057476162910461426, 0.06318102777004242, 0.059908464550971985, 0.044014349579811096, 0.0690215677022934, 0.055622849613428116, 0.07130823284387589, 0.03728365898132324, 0.05971580371260643, 0.04430733621120453, 0.056456662714481354, 0.047511640936136246, 0.06952471286058426, 0.049042005091905594, 0.0781339481472969, 0.07059484720230103, 0.04981442168354988, 0.04961907118558884, 0.039454083889722824, 0.04959973320364952, 0.05084371194243431, 0.05250287055969238, 0.08716217428445816, 0.041054192930459976, 0.03900589048862457, 0.04481906071305275, 0.04336470365524292, 0.043899353593587875, 0.042977962642908096, 0.03312218189239502, 0.03974761813879013, 0.0646134540438652, 0.12454921007156372, 0.12047799676656723, 0.0670565664768219, 0.06929012387990952, 0.08846426010131836, 0.06242222338914871, 0.03016282431781292, 0.023895490914583206, 0.02323211543262005, 0.024728862568736076, 0.0420551635324955, 0.04164999723434448]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1711384505033493</v>
+        <v>0.1245492100715637</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.6498985000071116</v>
+        <v>0.6564558999962173</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005554688034248817</v>
+        <v>0.005610734188001858</v>
       </c>
     </row>
     <row r="25">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.013825745321810246, 0.01272116880863905, 0.012651897966861725, 0.01468402799218893, 0.015410885214805603, 0.01499006524682045, 0.018199454993009567, 0.022387295961380005, 0.035455357283353806, 0.03644172102212906, 0.03879681974649429, 0.037906523793935776, 0.02910357341170311, 0.030932463705539703, 0.026483597233891487, 0.028413118794560432, 0.023396091535687447, 0.02093321830034256, 0.01864735037088394, 0.016779012978076935, 0.017566699534654617, 0.016067903488874435, 0.01589992083609104, 0.016746319830417633, 0.015639273449778557, 0.015767740085721016, 0.01631099171936512, 0.017770474776625633, 0.013559272512793541, 0.011826559901237488, 0.012513364665210247, 0.012170182541012764, 0.014037990011274815, 0.0154541851952672, 0.022853871807456017, 0.023615676909685135, 0.022258561104536057, 0.026415903121232986, 0.028449928387999535, 0.02549353428184986, 0.021735722199082375, 0.02147892862558365, 0.020264070481061935, 0.016612207517027855, 0.01835007034242153, 0.01871570385992527, 0.01905384100973606, 0.023130590096116066, 0.029580531641840935, 0.03227845951914787, 0.03445131331682205, 0.03462633490562439, 0.03299489989876747, 0.042620763182640076, 0.038468632847070694, 0.03552018105983734, 0.032011229544878006, 0.039124347269535065, 0.027986200526356697, 0.026210755109786987, 0.024432800710201263, 0.02667280286550522, 0.025677207857370377, 0.027335571125149727, 0.03202713653445244, 0.03478391841053963, 0.0345885343849659, 0.029775332659482956, 0.03751309961080551, 0.03530777618288994, 0.036531612277030945, 0.038451459258794785, 0.02550588920712471, 0.02299472875893116, 0.028437379747629166, 0.026106365025043488, 0.024133067578077316, 0.03257341682910919, 0.03740717098116875, 0.031566228717565536, 0.03642759472131729, 0.029573243111371994, 0.03157014027237892, 0.032386548817157745, 0.026902202516794205, 0.025548934936523438, 0.02561933733522892, 0.026311758905649185, 0.024274611845612526, 0.018239090219140053, 0.018479784950613976, 0.017792684957385063, 0.020525259897112846, 0.026304176077246666, 0.03026958741247654, 0.0286917332559824, 0.02521844208240509, 0.028558805584907532, 0.03392153978347778, 0.03964410349726677, 0.04557500034570694, 0.040650710463523865, 0.04897274449467659, 0.027708008885383606, 0.02387370727956295, 0.030202118679881096, 0.028759757056832314, 0.027810510247945786, 0.027748115360736847, 0.02584388479590416, 0.023425348103046417, 0.02426624670624733, 0.025809362530708313, 0.031943753361701965, 0.04006662219762802, 0.03983136638998985, 0.041955068707466125, 0.04675505682826042]</t>
+          <t>[0.005062175914645195, 0.004883722867816687, 0.004433794878423214, 0.005921688862144947, 0.005617656745016575, 0.005993721075356007, 0.007701435126364231, 0.007889404892921448, 0.013457844033837318, 0.01301777083426714, 0.014816341921687126, 0.016072871163487434, 0.013299930840730667, 0.013765120878815651, 0.010645889677107334, 0.01191994734108448, 0.009820939972996712, 0.008997810073196888, 0.007573215290904045, 0.00715679582208395, 0.006937107536941767, 0.006687435321509838, 0.007299110759049654, 0.006948685739189386, 0.0055028279311954975, 0.005193318240344524, 0.005069703795015812, 0.0065125818364322186, 0.0042315274477005005, 0.0038539792876690626, 0.0041466765105724335, 0.003343733260408044, 0.004286724142730236, 0.006044739857316017, 0.009507503360509872, 0.009562167339026928, 0.00833185389637947, 0.00904526561498642, 0.00940493680536747, 0.012076013721525669, 0.01017875224351883, 0.00920511968433857, 0.009361482225358486, 0.006288466043770313, 0.006408747751265764, 0.00647926377132535, 0.006696608383208513, 0.006466016639024019, 0.009779451414942741, 0.01332730334252119, 0.013535906560719013, 0.014863432385027409, 0.015010122209787369, 0.020043615251779556, 0.01516248844563961, 0.012664025649428368, 0.010151582770049572, 0.011428521946072578, 0.012069052085280418, 0.010447506792843342, 0.009812388569116592, 0.011360542848706245, 0.010219862684607506, 0.010253512300550938, 0.013354910537600517, 0.014292478561401367, 0.015045158565044403, 0.011820298619568348, 0.016510173678398132, 0.013981858268380165, 0.015432491898536682, 0.015516594983637333, 0.011675054207444191, 0.010754168964922428, 0.012790380045771599, 0.0107423709705472, 0.011524760164320469, 0.0156057458370924, 0.012395980767905712, 0.008573021739721298, 0.009968782775104046, 0.00828692875802517, 0.009543110616505146, 0.012384934350848198, 0.009835311211645603, 0.008277934044599533, 0.0088680824264884, 0.009793799370527267, 0.008766893297433853, 0.006040750537067652, 0.006698330864310265, 0.006713106296956539, 0.009141518734395504, 0.013525771908462048, 0.011453297920525074, 0.011209983378648758, 0.009843193925917149, 0.01022933516651392, 0.015901854261755943, 0.016934780403971672, 0.02115991897881031, 0.01790560968220234, 0.02503831498324871, 0.011994663625955582, 0.009861122816801071, 0.012881573289632797, 0.013173685409128666, 0.010846845805644989, 0.01311707403510809, 0.012994411401450634, 0.009776921011507511, 0.010333763435482979, 0.011366965249180794, 0.013421447016298771, 0.020373312756419182, 0.018639368936419487, 0.020203085616230965, 0.02368808351457119]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.04897274449467659</v>
+        <v>0.02503831498324871</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.6440888999786694</v>
+        <v>0.6732894000015222</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005458380508293808</v>
+        <v>0.005705842372894255</v>
       </c>
     </row>
     <row r="26">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.04148026928305626, 0.042772822082042694, 0.04562325030565262, 0.03449804708361626, 0.03960134834051132, 0.04947909712791443, 0.045892782509326935, 0.05832112208008766, 0.082488514482975, 0.07911001145839691, 0.05826781317591667, 0.0638502761721611, 0.06831368803977966, 0.05422113463282585, 0.12449279427528381, 0.25583210587501526, 0.21565024554729462, 0.12709835171699524, 0.20031309127807617, 0.019080383703112602, 0.015111896209418774, 0.015293597243726254, 0.01751454547047615, 0.02316908724606037, 0.4104369580745697, 0.5133524537086487, 0.53154456615448, 0.6126928925514221, 0.0934976190328598, 0.02958475984632969, 0.030256610363721848, 0.03239952027797699, 0.036571115255355835, 0.017802689224481583, 0.01879551261663437, 0.016368433833122253, 0.014110581018030643, 0.015412630513310432, 0.03949510678648949, 0.059166427701711655, 0.03163904696702957, 0.0193463247269392, 0.02886747196316719, 0.040216971188783646, 0.06785183399915695, 0.10048743337392807, 0.1159181222319603, 0.10155759006738663, 0.08721712976694107, 0.06123652309179306, 0.07878993451595306, 0.07975530624389648, 0.07132266461849213, 0.039176713675260544, 0.029561443254351616, 0.03412576764822006, 0.03448042273521423, 0.03639723360538483, 0.046438686549663544, 0.04555732011795044, 0.03999413922429085, 0.03425351157784462, 0.034272413700819016, 0.02643861249089241, 0.028610005974769592, 0.02613465115427971, 0.024358073249459267, 0.02647573873400688, 0.030496075749397278, 0.02775416150689125, 0.01900598220527172, 0.019588464871048927, 0.01962330751121044, 0.01969260349869728, 0.015397023409605026, 0.02326156012713909, 0.02564023993909359, 0.019925201311707497, 0.02963198348879814, 0.028929896652698517, 0.03840833157300949, 0.04158801957964897, 0.03187540918588638, 0.027247808873653412, 0.026857363060116768, 0.033609788864851, 0.03587767109274864, 0.0373343825340271, 0.03920436650514603, 0.027545908465981483, 0.036036424338817596, 0.037989672273397446, 0.03959440439939499, 0.03894500434398651, 0.025409329682588577, 0.02217145264148712, 0.023542648181319237, 0.022221315652132034, 0.025734221562743187, 0.02908637374639511, 0.029403723776340485, 0.029394378885626793, 0.028035221621394157, 0.029205026105046272, 0.029669564217329025, 0.02720341645181179, 0.028104867786169052, 0.024940678849816322, 0.034024257212877274, 0.047999925911426544, 0.03358578681945801, 0.03689588978886604, 0.04066173732280731, 0.09000197798013687, 0.24132001399993896, 0.031666360795497894, 0.03536836430430412]</t>
+          <t>[0.03370025381445885, 0.0364239327609539, 0.03738008067011833, 0.02277851291000843, 0.026011161506175995, 0.04177794232964516, 0.03726153448224068, 0.041035059839487076, 0.11139050871133804, 0.4278573989868164, 0.31997132301330566, 0.3310857117176056, 0.46859210729599, 0.046377573162317276, 0.22582431137561798, 0.6937819123268127, 0.6311904191970825, 0.42215460538864136, 0.4263491630554199, 0.007153763435781002, 0.005700509995222092, 0.005932179279625416, 0.006518023554235697, 0.014449440874159336, 0.9450143575668335, 0.9220792055130005, 0.9288077354431152, 0.9439523220062256, 0.6154268980026245, 0.013874683529138565, 0.01515601109713316, 0.015363171696662903, 0.02113492600619793, 0.010577717795968056, 0.010702548548579216, 0.008871229365468025, 0.007216531317681074, 0.007848837412893772, 0.02513718605041504, 0.035631585866212845, 0.01681455411016941, 0.010519398376345634, 0.0176999494433403, 0.024229541420936584, 0.04695655032992363, 0.06609556823968887, 0.06619473546743393, 0.055463481694459915, 0.045956362038850784, 0.028227142989635468, 0.05411604791879654, 0.052375126630067825, 0.043755970895290375, 0.017644356936216354, 0.015068154782056808, 0.01988564059138298, 0.021906182169914246, 0.021226081997156143, 0.03231528028845787, 0.022417157888412476, 0.01920456625521183, 0.015610509552061558, 0.015482170507311821, 0.012927408330142498, 0.010469052009284496, 0.009350450709462166, 0.010226641781628132, 0.009952794760465622, 0.014950343407690525, 0.014632022939622402, 0.013220725581049919, 0.014376598410308361, 0.015834776684641838, 0.016558464616537094, 0.015377805568277836, 0.02377520315349102, 0.029344594106078148, 0.017671799287199974, 0.0270308218896389, 0.02009456977248192, 0.017560118809342384, 0.020191671326756477, 0.01640637218952179, 0.014446196146309376, 0.009943992830812931, 0.010828332975506783, 0.013596659526228905, 0.01265793852508068, 0.013503027148544788, 0.00985315814614296, 0.015015769749879837, 0.016276590526103973, 0.018076227977871895, 0.02146133780479431, 0.012614849023520947, 0.008333231322467327, 0.007439321838319302, 0.008009557612240314, 0.012028690427541733, 0.014658480882644653, 0.0174851231276989, 0.017067773267626762, 0.015179664827883244, 0.01624377816915512, 0.01421735342592001, 0.01315659936517477, 0.013911657966673374, 0.011892430484294891, 0.014649827033281326, 0.030238265171647072, 0.02665138617157936, 0.02912938967347145, 0.03139495477080345, 0.562544584274292, 0.917822539806366, 0.03230363503098488, 0.039352819323539734]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6126928925514221</v>
+        <v>0.9450143575668335</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.6411280000174884</v>
+        <v>0.6486437999992631</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005479726495875969</v>
+        <v>0.005543964102557804</v>
       </c>
     </row>
     <row r="27">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.14888860285282135, 0.1536073237657547, 0.9083706140518188, 0.8922813534736633, 0.3023602068424225, 0.17066751420497894, 0.1982431858778, 0.10724609345197678, 0.01158867310732603, 0.012810012325644493, 0.011977813206613064, 0.010247924365103245, 0.010827412828803062, 0.023865781724452972, 0.03241817653179169, 0.026523208245635033, 0.02762364223599434, 0.020222337916493416, 0.018137924373149872, 0.019953088834881783, 0.019676929339766502, 0.021927516907453537, 0.024044688791036606, 0.03309579938650131, 0.03280584141612053, 0.03333631157875061, 0.04577314481139183, 0.042343638837337494, 0.03636555001139641, 0.05426132306456566, 0.053828585892915726, 0.06436192989349365, 0.059065960347652435, 0.04643506556749344, 0.044526588171720505, 0.04694440960884094, 0.051801882684230804, 0.04656000807881355, 0.03217567130923271, 0.028887180611491203, 0.02999487891793251, 0.029342059046030045, 0.022482745349407196, 0.023535825312137604, 0.023019317537546158, 0.02228410914540291, 0.023600701242685318, 0.04878900945186615, 0.06834925711154938, 0.20543105900287628, 0.2067318558692932, 0.1841275990009308, 0.07230307906866074, 0.05568374693393707, 0.10021340101957321, 0.12841880321502686, 0.10902918875217438, 0.04977214336395264, 0.17937949299812317, 0.8483397364616394, 0.8933718204498291, 0.8832808136940002, 0.07933615148067474, 0.051161687821149826, 0.05272441729903221, 0.052668675780296326, 0.043934453278779984, 0.04215792566537857, 0.04066001623868942, 0.036077965050935745, 0.02981371432542801, 0.039469338953495026, 0.09160608798265457, 0.2256479412317276, 0.16454753279685974, 0.15143516659736633, 0.15436607599258423, 0.8644762635231018, 0.953406035900116, 0.9461933970451355, 0.9467329978942871, 0.9478256702423096, 0.40646010637283325, 0.03679732605814934, 0.052502281963825226, 0.08978568017482758, 0.1066131666302681, 0.07932140678167343, 0.949026346206665, 0.9677734375, 0.9729968905448914, 0.9709283113479614, 0.9663726091384888, 0.641218900680542, 0.7284839749336243, 0.739357590675354, 0.7043637633323669, 0.3832509517669678, 0.10410697758197784, 0.08481235802173615, 0.070608951151371, 0.07885003834962845, 0.0756688192486763, 0.06795985251665115, 0.06626380234956741, 0.06757939606904984, 0.07413366436958313, 0.13002713024616241, 0.1456514298915863, 0.1448078155517578, 0.12925070524215698, 0.14359046518802643, 0.09644099324941635, 0.08579275757074356, 0.06898433715105057, 0.06641559302806854, 0.06656347215175629, 0.1548730581998825]</t>
+          <t>[0.5466371178627014, 0.5104008913040161, 0.9591760039329529, 0.9497596621513367, 0.5106585025787354, 0.2702685296535492, 0.3009748160839081, 0.17830100655555725, 0.003208192065358162, 0.005095119588077068, 0.00509331189095974, 0.004190963227301836, 0.004603472538292408, 0.005008922889828682, 0.008008226752281189, 0.006141543388366699, 0.005537188611924648, 0.005648497957736254, 0.00535612553358078, 0.004988133441656828, 0.004638984799385071, 0.004458804614841938, 0.00563021469861269, 0.0073356325738132, 0.007435235194861889, 0.007942434400320053, 0.011221584863960743, 0.00991491973400116, 0.00917070172727108, 0.013929462991654873, 0.014164667576551437, 0.01717483438551426, 0.011978433467447758, 0.008509967476129532, 0.012938353233039379, 0.011725015006959438, 0.013937965035438538, 0.011884162202477455, 0.00628315843641758, 0.007008187472820282, 0.008666520938277245, 0.008010969497263432, 0.0063517652451992035, 0.005212504416704178, 0.005486052483320236, 0.005496450699865818, 0.007557652425020933, 0.014076023362576962, 0.025672338902950287, 0.6535099744796753, 0.6878094673156738, 0.5898842215538025, 0.1863952875137329, 0.022169901058077812, 0.15606321394443512, 0.34120360016822815, 0.2125573605298996, 0.021806692704558372, 0.56341952085495, 0.9663998484611511, 0.9754036664962769, 0.9741315245628357, 0.11045339703559875, 0.012903990224003792, 0.025680357590317726, 0.025793423876166344, 0.025090251117944717, 0.028962433338165283, 0.012685627676546574, 0.010537495836615562, 0.009761606343090534, 0.014382646419107914, 0.02148526720702648, 0.4669766426086426, 0.09391685575246811, 0.08480269461870193, 0.09036613255739212, 0.9734294414520264, 0.978128969669342, 0.9813866019248962, 0.9823567867279053, 0.9820845723152161, 0.9627724289894104, 0.019919339567422867, 0.08910364657640457, 0.4186830520629883, 0.5442637801170349, 0.13142536580562592, 0.9823241233825684, 0.9909620881080627, 0.9932032823562622, 0.9913871884346008, 0.9881048202514648, 0.9532846808433533, 0.9366413950920105, 0.9457693099975586, 0.9226208329200745, 0.851811408996582, 0.07640192657709122, 0.09384050220251083, 0.070559062063694, 0.09713636338710785, 0.019592594355344772, 0.019063003361225128, 0.020963458344340324, 0.03182007372379303, 0.04091867059469223, 0.07796911895275116, 0.05634535849094391, 0.05610821396112442, 0.05039903149008751, 0.06559478491544724, 0.03916718810796738, 0.02709272876381874, 0.013354017399251461, 0.009919989854097366, 0.007847360335290432, 0.4439519941806793]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9729968905448914</v>
+        <v>0.9932032823562622</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.6506004999973811</v>
+        <v>0.6506601000000956</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00551356355929984</v>
+        <v>0.005514068644068606</v>
       </c>
     </row>
     <row r="28">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.05334485322237015, 0.06093969941139221, 0.06874146312475204, 0.10398232191801071, 0.4457780122756958, 0.6311724185943604, 0.5924739837646484, 0.6035578846931458, 0.2027919888496399, 0.07914852350950241, 0.0355994813144207, 0.035585686564445496, 0.04137115925550461, 0.042494338005781174, 0.023294083774089813, 0.022142628207802773, 0.02106444723904133, 0.02227841131389141, 0.02282959595322609, 0.021006865426898003, 0.02576964534819126, 0.022708220407366753, 0.02971169352531433, 0.043743256479501724, 0.05183769762516022, 0.12226701527833939, 0.16000357270240784, 0.20030473172664642, 0.04585147276520729, 0.03435768559575081, 0.024215778335928917, 0.029657023027539253, 0.027600090950727463, 0.23829910159111023, 0.5241299867630005, 0.2276848554611206, 0.23044630885124207, 0.19192413985729218, 0.06567788869142532, 0.034937113523483276, 0.03172900155186653, 0.03572963923215866, 0.03735315054655075, 0.06079065427184105, 0.09060368686914444, 0.06377570331096649, 0.07427452504634857, 0.08069116622209549, 0.1307545304298401, 0.06263641268014908, 0.04935944452881813, 0.0379951074719429, 0.04072088375687599, 0.049438923597335815, 0.06627508252859116, 0.09391374886035919, 0.10431881994009018, 0.13969983160495758, 0.08713412284851074, 0.05170353874564171, 0.0581100694835186, 0.06538669764995575, 0.09242863953113556, 0.08097986876964569, 0.045315515249967575, 0.05330741032958031, 0.04828879237174988, 0.04591258242726326, 0.04579240083694458, 0.052857477217912674, 0.03374484181404114, 0.03184517100453377, 0.028918614611029625, 0.04752570390701294, 0.03290821239352226, 0.02073664963245392, 0.022332066670060158, 0.020048676058650017, 0.021296491846442223, 0.0595686249434948, 0.07035811245441437, 0.060729485005140305, 0.06693587452173233, 0.06274941563606262, 0.026683596894145012, 0.027076356112957, 0.02278072200715542, 0.022977719083428383, 0.020633338019251823, 0.033222395926713943, 0.04779532924294472, 0.039323218166828156, 0.03206409141421318, 0.02940719574689865, 0.022605223581194878, 0.01959720253944397, 0.023818213492631912, 0.026625219732522964, 0.0466940775513649, 0.02892851084470749, 0.012684940360486507, 0.012851939536631107, 0.014086847193539143, 0.01903722435235977, 0.026355965062975883, 0.02720295451581478, 0.03487152233719826, 0.04222797229886055, 0.030039548873901367, 0.023743929341435432, 0.014428677968680859, 0.013720931485295296, 0.014500930905342102, 0.01871572434902191, 0.02237316407263279, 0.025177976116538048, 0.022745229303836823, 0.021720748394727707]</t>
+          <t>[0.014043846167623997, 0.01428120955824852, 0.016627606004476547, 0.06856867671012878, 0.8413644433021545, 0.9302590489387512, 0.8834709525108337, 0.8997868895530701, 0.48132985830307007, 0.15992358326911926, 0.056571539491415024, 0.06391064077615738, 0.06001943722367287, 0.019851790741086006, 0.010080937296152115, 0.010269556194543839, 0.008267069235444069, 0.009966014884412289, 0.010428174398839474, 0.012560978531837463, 0.018896818161010742, 0.015499536879360676, 0.022044554352760315, 0.05130378529429436, 0.1553327441215515, 0.3716318905353546, 0.4574695825576782, 0.5217041969299316, 0.02122807875275612, 0.013051791116595268, 0.009873677976429462, 0.011548908427357674, 0.008494422771036625, 0.24583859741687775, 0.6528229117393494, 0.22689999639987946, 0.25078609585762024, 0.19782066345214844, 0.036153074353933334, 0.011574252508580685, 0.011349450796842575, 0.012954574078321457, 0.0144567359238863, 0.02816765010356903, 0.025742309167981148, 0.01738927513360977, 0.02215132862329483, 0.020664827898144722, 0.03598276898264885, 0.017848612740635872, 0.01750396378338337, 0.01710730418562889, 0.01615862548351288, 0.0247458778321743, 0.026996541768312454, 0.049807146191596985, 0.05664343386888504, 0.0797634869813919, 0.0412060022354126, 0.02208711951971054, 0.0274577047675848, 0.03925385698676109, 0.06448092311620712, 0.04654562100768089, 0.018733970820903778, 0.01731126941740513, 0.016642455011606216, 0.014576159417629242, 0.01644880138337612, 0.015464089810848236, 0.01537205372005701, 0.013924025930464268, 0.014328042976558208, 0.018364932388067245, 0.023088935762643814, 0.014091615565121174, 0.016255715861916542, 0.013396441005170345, 0.01458815112709999, 0.06416580080986023, 0.05213316157460213, 0.04422520473599434, 0.06537314504384995, 0.031023364514112473, 0.00968080386519432, 0.010377314873039722, 0.009429036639630795, 0.010428717359900475, 0.008833860047161579, 0.024701746180653572, 0.048346053808927536, 0.03283701464533806, 0.024058949202299118, 0.0268570389598608, 0.012231276370584965, 0.008323931135237217, 0.010407603345811367, 0.013461587019264698, 0.016088230535387993, 0.009903392754495144, 0.005128782708197832, 0.004274995997548103, 0.005573180038481951, 0.007078913971781731, 0.010249989107251167, 0.008538414724171162, 0.013307266868650913, 0.01613020710647106, 0.016884632408618927, 0.01833091303706169, 0.008821362629532814, 0.007477678824216127, 0.006470937747508287, 0.007238665129989386, 0.011136491782963276, 0.009932304732501507, 0.009471440687775612, 0.008532576262950897]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.6311724185943604</v>
+        <v>0.9302590489387512</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.6645403000002261</v>
+        <v>0.6730666999937966</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005631697457629035</v>
+        <v>0.005703955084693192</v>
       </c>
     </row>
     <row r="29">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.0510178804397583, 0.05076771602034569, 0.05961771681904793, 0.029271800071001053, 0.03144610673189163, 0.03316753730177879, 0.03376419097185135, 0.032657600939273834, 0.041053831577301025, 0.04652853310108185, 0.04992445930838585, 0.05130714178085327, 0.06387832760810852, 0.039283983409404755, 0.036847181618213654, 0.03497439622879028, 0.031077800318598747, 0.03917790576815605, 0.06042717769742012, 0.06665033102035522, 0.06052803620696068, 0.06217952072620392, 0.048000726848840714, 0.0414360873401165, 0.037924960255622864, 0.0395796038210392, 0.040205858647823334, 0.047087837010622025, 0.04879873991012573, 0.06280842423439026, 0.07182549685239792, 0.05899697169661522, 0.06720314919948578, 0.0694800540804863, 0.08316458761692047, 0.07540495693683624, 0.08248008042573929, 0.07963090389966965, 0.052384454756975174, 0.04559599608182907, 0.04114600270986557, 0.0387859009206295, 0.03981950879096985, 0.029643485322594643, 0.02415519393980503, 0.020423544570803642, 0.021159198135137558, 0.021455705165863037, 0.022466149181127548, 0.02766803652048111, 0.02595016174018383, 0.028640463948249817, 0.02514059469103813, 0.027842223644256592, 0.02628268301486969, 0.03155883401632309, 0.03136483579874039, 0.038935333490371704, 0.035311415791511536, 0.029523108154535294, 0.02913685142993927, 0.029349327087402344, 0.03142474591732025, 0.044977348297834396, 0.0445958748459816, 0.054951637983322144, 0.051392413675785065, 0.04885602742433548, 0.0913199931383133, 0.10821159929037094, 0.10141705721616745, 0.08799820393323898, 0.04787971079349518, 0.02167603000998497, 0.01526596024632454, 0.014401674270629883, 0.015361281111836433, 0.026315879076719284, 0.07569705694913864, 0.048783812671899796, 0.03805263340473175, 0.041139159351587296, 0.04473549500107765, 0.05513985455036163, 0.06848947703838348, 0.05595986545085907, 0.060024723410606384, 0.07046863436698914, 0.8432031273841858, 0.7288956642150879, 0.7020623087882996, 0.7407330870628357, 0.7742758393287659, 0.36053699254989624, 0.4983271360397339, 0.5075898766517639, 0.46009647846221924, 0.13697806000709534, 0.02331867255270481, 0.018222248181700706, 0.01731530949473381, 0.19395701587200165, 0.705846905708313, 0.5714060664176941, 0.532974362373352, 0.5423237085342407, 0.542651891708374, 0.06543850898742676, 0.8254592418670654, 0.786436915397644, 0.8268768787384033, 0.7635338306427002, 0.07164314389228821, 0.27304357290267944, 0.09664401412010193, 0.10431009531021118, 0.038140084594488144, 0.01723184809088707]</t>
+          <t>[0.017183883115649223, 0.02063061110675335, 0.0268553514033556, 0.01252403948456049, 0.010552640073001385, 0.010305440984666348, 0.010185693390667439, 0.012581134214997292, 0.015380810014903545, 0.01754715107381344, 0.020637279376387596, 0.02047586254775524, 0.020571185275912285, 0.01614391803741455, 0.01468051690608263, 0.014020557515323162, 0.012700566090643406, 0.01673678308725357, 0.028820740059018135, 0.02308257855474949, 0.02185252495110035, 0.023338409140706062, 0.01890423893928528, 0.013568460009992123, 0.012762053869664669, 0.012459107674658298, 0.013571594841778278, 0.012270362116396427, 0.01264102105051279, 0.01735682785511017, 0.01901921071112156, 0.0168243870139122, 0.017963584512472153, 0.014529774896800518, 0.018735192716121674, 0.01521344855427742, 0.01960557885468006, 0.019601749256253242, 0.01723412424325943, 0.01533965952694416, 0.014226471073925495, 0.015689432621002197, 0.019072819501161575, 0.01499221846461296, 0.007744781672954559, 0.006551010068506002, 0.00623292475938797, 0.006990910042077303, 0.009330904111266136, 0.013052988797426224, 0.012418578378856182, 0.013365262188017368, 0.012457311153411865, 0.012917591258883476, 0.012900554575026035, 0.015856489539146423, 0.0157451331615448, 0.019483113661408424, 0.012234468944370747, 0.008733990602195263, 0.009569115936756134, 0.00963746476918459, 0.011150437407195568, 0.01894443668425083, 0.016348201781511307, 0.020494310185313225, 0.020504053682088852, 0.02217061072587967, 0.03434509038925171, 0.02735336869955063, 0.019046083092689514, 0.01546884048730135, 0.009389879181981087, 0.006083790212869644, 0.005134325474500656, 0.004623503424227238, 0.004172427114099264, 0.0064676678739488125, 0.016326170414686203, 0.013347774744033813, 0.012160264886915684, 0.013013629242777824, 0.013067906722426414, 0.14648576080799103, 0.1973436027765274, 0.13972368836402893, 0.2476676106452942, 0.1974627524614334, 0.9655279517173767, 0.9483940601348877, 0.9540135860443115, 0.9533624053001404, 0.970658004283905, 0.8870903253555298, 0.9408654570579529, 0.9491982460021973, 0.9553689956665039, 0.9069705009460449, 0.19257673621177673, 0.04244013875722885, 0.03429866209626198, 0.9027897119522095, 0.9107013940811157, 0.8757897019386292, 0.8150902390480042, 0.7980296015739441, 0.8353288769721985, 0.244133859872818, 0.9720979928970337, 0.9666053056716919, 0.9707642793655396, 0.9635143280029297, 0.3782402276992798, 0.748845636844635, 0.6238366365432739, 0.6115456223487854, 0.172437846660614, 0.09788737446069717]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8432031273841858</v>
+        <v>0.9720979928970337</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.6457681999891065</v>
+        <v>0.6478139999962877</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005472611864314462</v>
+        <v>0.005489949152510913</v>
       </c>
     </row>
     <row r="30">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.02168687805533409, 0.02181052975356579, 0.023760683834552765, 0.02759338729083538, 0.025778798386454582, 0.016534408554434776, 0.013885189779102802, 0.011484463699162006, 0.015808764845132828, 0.03292396292090416, 0.033326953649520874, 0.03674983233213425, 0.0411241389811039, 0.03161153569817543, 0.043254464864730835, 0.05404578521847725, 0.05735013261437416, 0.0582345575094223, 0.058005545288324356, 0.04041905701160431, 0.04412795603275299, 0.047354184091091156, 0.056233663111925125, 0.05569450557231903, 0.0416501984000206, 0.029643215239048004, 0.03670399636030197, 0.04400316998362541, 0.045085106045007706, 0.04998578503727913, 0.04088398441672325, 0.02769150398671627, 0.030857596546411514, 0.029763689264655113, 0.03444940224289894, 0.03333603963255882, 0.033758822828531265, 0.03712337464094162, 0.03760533034801483, 0.0321989506483078, 0.039207056164741516, 0.05087343230843544, 0.05653323978185654, 0.06030215322971344, 0.05959642678499222, 0.055439554154872894, 0.046783894300460815, 0.04798230901360512, 0.04461643472313881, 0.0404033288359642, 0.037827178835868835, 0.04673687741160393, 0.049008358269929886, 0.050305452197790146, 0.05158039182424545, 0.04540093615651131, 0.0641743615269661, 0.04846328869462013, 0.04095522686839104, 0.033279355615377426, 0.0357375293970108, 0.03010759875178337, 0.03196511045098305, 0.03203830495476723, 0.028448687866330147, 0.03725093603134155, 0.02758057415485382, 0.02406787872314453, 0.025525711476802826, 0.02378280833363533, 0.019738582894206047, 0.024829642847180367, 0.020795952528715134, 0.023713797330856323, 0.027696622535586357, 0.032090697437524796, 0.02826227992773056, 0.030251802876591682, 0.031096825376152992, 0.033425550907850266, 0.031555332243442535, 0.018300846219062805, 0.016860974952578545, 0.018608298152685165, 0.021791111677885056, 0.027977783232927322, 0.02717849798500538, 0.02592925913631916, 0.030779127031564713, 0.03365202620625496, 0.02571539208292961, 0.016658782958984375, 0.015240445733070374, 0.018721166998147964, 0.02085687778890133, 0.0211347583681345, 0.027880175039172173, 0.028384679928421974, 0.030466772615909576, 0.027931155636906624, 0.025068296119570732, 0.0213013868778944, 0.01972205564379692, 0.018832627683877945, 0.022555537521839142, 0.023003682494163513, 0.014462844468653202, 0.0144210709258914, 0.013579831458628178, 0.015314952470362186, 0.015134922228753567, 0.02091551385819912, 0.017272045835852623, 0.016453035175800323, 0.01613088883459568, 0.0142776258289814, 0.017435450106859207]</t>
+          <t>[0.006593703292310238, 0.008575811050832272, 0.011128434911370277, 0.01240416057407856, 0.01685246452689171, 0.009940416552126408, 0.010225266218185425, 0.008085737004876137, 0.010156705975532532, 0.015252761542797089, 0.01751301996409893, 0.018411502242088318, 0.02514788508415222, 0.018347973003983498, 0.019725190475583076, 0.02852458879351616, 0.031203320249915123, 0.030833808705210686, 0.031873587518930435, 0.01792437769472599, 0.016720525920391083, 0.024706672877073288, 0.029230177402496338, 0.026032354682683945, 0.014506708830595016, 0.009303545579314232, 0.01371022593230009, 0.016948718577623367, 0.01849302649497986, 0.02086828462779522, 0.016350900754332542, 0.00987858697772026, 0.010444637387990952, 0.010642575100064278, 0.009779644198715687, 0.015139172784984112, 0.014823938719928265, 0.01765345223248005, 0.016692787408828735, 0.016537148505449295, 0.015613644383847713, 0.015175879932940006, 0.018806444481015205, 0.02010761760175228, 0.023917000740766525, 0.02171316370368004, 0.017953306436538696, 0.018511522561311722, 0.019650638103485107, 0.015857165679335594, 0.013774575665593147, 0.019605645909905434, 0.0209570974111557, 0.021561339497566223, 0.02201239764690399, 0.019574668258428574, 0.01766025647521019, 0.016118096187710762, 0.016688020899891853, 0.011505845002830029, 0.015316925011575222, 0.01535223238170147, 0.01577036641538143, 0.015957199037075043, 0.012906226329505444, 0.017107049003243446, 0.012889089062809944, 0.010995127260684967, 0.010068102739751339, 0.007207075133919716, 0.005706667434424162, 0.006604284048080444, 0.006711268797516823, 0.007368057034909725, 0.011017893441021442, 0.011593803763389587, 0.009042777121067047, 0.009393428452312946, 0.009877524338662624, 0.010905257426202297, 0.010314173996448517, 0.006232777144759893, 0.00603520730510354, 0.007356599438935518, 0.008605985902249813, 0.0140610346570611, 0.010150364600121975, 0.010992680676281452, 0.01252087950706482, 0.013668053783476353, 0.01250155083835125, 0.00794530101120472, 0.007494120858609676, 0.007195251993834972, 0.00973115861415863, 0.011933472007513046, 0.02174264006316662, 0.020794929936528206, 0.022469038143754005, 0.013311388902366161, 0.010459339246153831, 0.009560911916196346, 0.00951281189918518, 0.009000089950859547, 0.014212134294211864, 0.011155543848872185, 0.007624763064086437, 0.008320502005517483, 0.007627927698194981, 0.008187789469957352, 0.010777228511869907, 0.016847865656018257, 0.012521428056061268, 0.013264728710055351, 0.011966058984398842, 0.010883933864533901, 0.012626435607671738]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.06417436152696609</v>
+        <v>0.03187358751893044</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.637163099978352</v>
+        <v>0.6510281999944709</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005445838461353435</v>
+        <v>0.005564343589696333</v>
       </c>
     </row>
     <row r="31">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.022623253986239433, 0.022683145478367805, 0.021101854741573334, 0.018358219414949417, 0.0214907918125391, 0.023114439100027084, 0.020508216693997383, 0.022243782877922058, 0.022547584027051926, 0.023808617144823074, 0.0222607608884573, 0.023399977013468742, 0.020367605611681938, 0.019282246008515358, 0.015958597883582115, 0.01920611411333084, 0.01808444783091545, 0.019759131595492363, 0.024952467530965805, 0.020308319479227066, 0.019383803009986877, 0.019746165722608566, 0.022341344505548477, 0.022946102544665337, 0.02453458309173584, 0.017164446413517, 0.018315492197871208, 0.02087874338030815, 0.02292124181985855, 0.025772325694561005, 0.02536691725254059, 0.02448248490691185, 0.025897692888975143, 0.02166089043021202, 0.02105962671339512, 0.019904524087905884, 0.018722200766205788, 0.019610077142715454, 0.023990076035261154, 0.03320462256669998, 0.02737637422978878, 0.030288230627775192, 0.029138732701539993, 0.02327645570039749, 0.03850049152970314, 0.037381164729595184, 0.03651820495724678, 0.034103114157915115, 0.02916170470416546, 0.030359558761119843, 0.04128970950841904, 0.04609333723783493, 0.044175367802381516, 0.0431394949555397, 0.049409158527851105, 0.03842170163989067, 0.038238558918237686, 0.03757540509104729, 0.03871295228600502, 0.028558416292071342, 0.030758561566472054, 0.05304917320609093, 0.05384457856416702, 0.032914984971284866, 0.03795785829424858, 0.02595011703670025, 0.027265461161732674, 0.028900744393467903, 0.03891896456480026, 0.0436985045671463, 0.04614042863249779, 0.046036507934331894, 0.04202517494559288, 0.0377100333571434, 0.031505286693573, 0.04192245751619339, 0.03807063028216362, 0.04133349284529686, 0.038906801491975784, 0.03138803690671921, 0.02368355169892311, 0.024927102029323578, 0.023027563467621803, 0.023571111261844635, 0.02418747916817665, 0.027519159018993378, 0.02641407586634159, 0.025649219751358032, 0.030244486406445503, 0.03836016729474068, 0.04088187962770462, 0.04725314676761627, 0.05524327978491783, 0.04703414440155029, 0.0561499297618866, 0.04520336166024208, 0.040161892771720886, 0.04262862354516983, 0.049121957272291183, 0.272318035364151, 0.4829857647418976, 0.5541955232620239, 0.39383479952812195, 0.22347790002822876, 0.25040391087532043, 0.06628619879484177, 0.05428590252995491, 0.0446973592042923, 0.04284680634737015, 0.03816532716155052, 0.1488664150238037, 0.27138370275497437, 0.2601877450942993, 0.3014586567878723, 0.15480098128318787, 0.024039262905716896, 0.01874415948987007, 0.02132250927388668]</t>
+          <t>[0.009408744052052498, 0.008221007883548737, 0.0069719641469419, 0.004626579117029905, 0.008052501827478409, 0.00893350038677454, 0.007886942476034164, 0.008577084168791771, 0.007638486567884684, 0.009331407025456429, 0.00953921303153038, 0.009058183059096336, 0.00907233078032732, 0.009044427424669266, 0.007439779583364725, 0.007305679377168417, 0.0070936125703155994, 0.006386172957718372, 0.009125103242695332, 0.006462331861257553, 0.008528150618076324, 0.00853706244379282, 0.0096453707665205, 0.01018708199262619, 0.0148490434512496, 0.008695069700479507, 0.008173053152859211, 0.00855945609509945, 0.007358643691986799, 0.010669686831533909, 0.01116971205919981, 0.011734731495380402, 0.010992840863764286, 0.011049690656363964, 0.00896550714969635, 0.010718823410570621, 0.00976533629000187, 0.01033630408346653, 0.013356373645365238, 0.01828472875058651, 0.014280746690928936, 0.014457069337368011, 0.013451932929456234, 0.011259733699262142, 0.013121617026627064, 0.06169481575489044, 0.06134821102023125, 0.07572363317012787, 0.029623841866850853, 0.011064630001783371, 0.019952602684497833, 0.021452343091368675, 0.020919788628816605, 0.021299023181200027, 0.029733367264270782, 0.021483484655618668, 0.02389291115105152, 0.020074184983968735, 0.02454693429172039, 0.014688189141452312, 0.021798690780997276, 0.5409868955612183, 0.4854002594947815, 0.3228831887245178, 0.1767854243516922, 0.009477786719799042, 0.011589549481868744, 0.010876499116420746, 0.014381950721144676, 0.02105593867599964, 0.02970678173005581, 0.031191037967801094, 0.025834163650870323, 0.023411663249135017, 0.018271278589963913, 0.034425728023052216, 0.03357549011707306, 0.045891422778367996, 0.03585650771856308, 0.021636852994561195, 0.01390277873724699, 0.014016515575349331, 0.013088931329548359, 0.011067838408052921, 0.009454946964979172, 0.014313748106360435, 0.014127102680504322, 0.012682820670306683, 0.015405901707708836, 0.01771782524883747, 0.01984238810837269, 0.020410850644111633, 0.026742059737443924, 0.023049969226121902, 0.028002645820379257, 0.017677415162324905, 0.015713175758719444, 0.017946138978004456, 0.02738569676876068, 0.49506664276123047, 0.6742300391197205, 0.7324159741401672, 0.6636748313903809, 0.3740140497684479, 0.5710324048995972, 0.022629639133810997, 0.015903763473033905, 0.013065237551927567, 0.017672289162874222, 0.05814157798886299, 0.698430597782135, 0.8539551496505737, 0.8448803424835205, 0.8198004364967346, 0.5228435397148132, 0.0341910757124424, 0.019652163609862328, 0.019651150330901146]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5541955232620239</v>
+        <v>0.8539551496505737</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.6402754000155255</v>
+        <v>0.6555002999957651</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005426062711995979</v>
+        <v>0.005555087288099704</v>
       </c>
     </row>
     <row r="32">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.033923279494047165, 0.03210305795073509, 0.02788715437054634, 0.03602851182222366, 0.025685476139187813, 0.021335477009415627, 0.017566371709108353, 0.012712015770375729, 0.011698064394295216, 0.014738562516868114, 0.0200260691344738, 0.02475016936659813, 0.02635628543794155, 0.028652749955654144, 0.021877747029066086, 0.023297764360904694, 0.021627206355333328, 0.021364443004131317, 0.022444192320108414, 0.030640315264463425, 0.03137567266821861, 0.03189893439412117, 0.03158368915319443, 0.026207752525806427, 0.02078443020582199, 0.020446280017495155, 0.02449634298682213, 0.02103838510811329, 0.030056852847337723, 0.0429392047226429, 0.05021130293607712, 0.05891629680991173, 0.05388551577925682, 0.05292223393917084, 0.04834989085793495, 0.047149695456027985, 0.05082949995994568, 0.048106804490089417, 0.05664181336760521, 0.06257636845111847, 0.0650009736418724, 0.06152167171239853, 0.06503908336162567, 0.04309346526861191, 0.03772902861237526, 0.0382806621491909, 0.03368128463625908, 0.03221521154046059, 0.03316396474838257, 0.06299163401126862, 0.07211670279502869, 0.08290132880210876, 0.08398550003767014, 0.08297613263130188, 0.06109197810292244, 0.043497368693351746, 0.04766436293721199, 0.04901142045855522, 0.0433988943696022, 0.06837455183267593, 0.05760939046740532, 0.045050740242004395, 0.044018249958753586, 0.06994831562042236, 0.09202113002538681, 0.06292847543954849, 0.06685726344585419, 0.058267638087272644, 0.02841455489397049, 0.028768209740519524, 0.03300713375210762, 0.031726665794849396, 0.029794732108712196, 0.04858612269163132, 0.041428882628679276, 0.040995530784130096, 0.041802890598773956, 0.03890692815184593, 0.053689222782850266, 0.044565651565790176, 0.036059118807315826, 0.036440182477235794, 0.03195111081004143, 0.03265031799674034, 0.02232741005718708, 0.02323172427713871, 0.022251879796385765, 0.026215558871626854, 0.031292036175727844, 0.04423581808805466, 0.0508156456053257, 0.04877408593893051, 0.03635820373892784, 0.04746178910136223, 0.07807167619466782, 0.06090753152966499, 0.06571964919567108, 0.07732709497213364, 0.10947224497795105, 0.0951518714427948, 0.04927979037165642, 0.06631351262331009, 0.06523407995700836, 0.07670726627111435, 0.07033048570156097, 0.07762907445430756, 0.07860206812620163, 0.09217062592506409, 0.09567436575889587, 0.05940252169966698, 0.05679207295179367, 0.06515006721019745, 0.08130761235952377, 0.07451685518026352, 0.15176525712013245, 0.16065822541713715, 0.14104224741458893]</t>
+          <t>[0.011071836575865746, 0.009350981563329697, 0.008087113499641418, 0.010604330338537693, 0.006920954212546349, 0.007067035883665085, 0.005754760000854731, 0.004483044147491455, 0.0038636333774775267, 0.006983952131122351, 0.008908802643418312, 0.010290228761732578, 0.010928109288215637, 0.011696669273078442, 0.0085902763530612, 0.007944624871015549, 0.007934566587209702, 0.0071218195371329784, 0.0077960980124771595, 0.010050403885543346, 0.011191753670573235, 0.010603969916701317, 0.013608054257929325, 0.008876185864210129, 0.0062387725338339806, 0.006192963570356369, 0.006941904779523611, 0.006330577656626701, 0.008732364512979984, 0.014987924136221409, 0.010623238049447536, 0.0109679801389575, 0.009634561836719513, 0.010399702936410904, 0.012904603965580463, 0.013168677687644958, 0.016279011964797974, 0.013391552492976189, 0.015232191421091557, 0.017853394150733948, 0.02441311627626419, 0.01972944475710392, 0.01955023594200611, 0.010780788026750088, 0.011221004649996758, 0.011505937203764915, 0.010756867937743664, 0.010717715136706829, 0.008865906856954098, 0.01908710226416588, 0.017894620075821877, 0.017991632223129272, 0.018811382353305817, 0.01914891228079796, 0.013444374315440655, 0.011822264641523361, 0.012969898991286755, 0.013241898268461227, 0.009814144112169743, 0.00991892721503973, 0.008204926736652851, 0.006437992677092552, 0.006736688315868378, 0.013129905797541142, 0.025570329278707504, 0.0221046544611454, 0.022388454526662827, 0.02058985084295273, 0.010395723395049572, 0.00833730399608612, 0.0119237769395113, 0.012099036015570164, 0.011530709452927113, 0.019573936238884926, 0.014605489559471607, 0.018187474459409714, 0.018343811854720116, 0.016792258247733116, 0.01849982514977455, 0.012961537577211857, 0.00884938333183527, 0.009408238343894482, 0.009623285382986069, 0.007951989769935608, 0.009151159785687923, 0.010316369123756886, 0.009847084991633892, 0.01133592240512371, 0.010857402347028255, 0.011529665440320969, 0.011667942628264427, 0.012130764313042164, 0.009013044647872448, 0.014702687039971352, 0.03283195570111275, 0.024872882291674614, 0.021636273711919785, 0.023580925539135933, 0.03928748145699501, 0.04045770689845085, 0.02150142937898636, 0.027828510850667953, 0.027471791952848434, 0.021144721657037735, 0.022814234718680382, 0.03307119756937027, 0.031900789588689804, 0.03472309187054634, 0.04608767479658127, 0.02575160190463066, 0.05727062001824379, 0.0746619701385498, 0.11153081059455872, 0.09515625983476639, 0.37234747409820557, 0.3226093053817749, 0.2707344889640808]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1606582254171371</v>
+        <v>0.3723474740982056</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.6381966999906581</v>
+        <v>0.6387453999923309</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005454672649492804</v>
+        <v>0.005459362393096846</v>
       </c>
     </row>
     <row r="33">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.1042201817035675, 0.04991975799202919, 0.06119629740715027, 0.17103853821754456, 0.19064576923847198, 0.17847749590873718, 0.5061217546463013, 0.5283440351486206, 0.7594830393791199, 0.7348390817642212, 0.6947908401489258, 0.659131646156311, 0.07176132500171661, 0.050586555153131485, 0.062088847160339355, 0.052131276577711105, 0.037195347249507904, 0.033000197261571884, 0.03351999819278717, 0.03648743778467178, 0.04093185067176819, 0.3826383352279663, 0.4632059335708618, 0.8570061326026917, 0.8408027291297913, 0.8528710007667542, 0.8603103160858154, 0.7332247495651245, 0.8189765214920044, 0.6590321660041809, 0.5241643190383911, 0.7724436521530151, 0.8183679580688477, 0.8445711731910706, 0.7978347539901733, 0.8252522945404053, 0.5726620554924011, 0.689970076084137, 0.902014434337616, 0.8927173614501953, 0.8304837942123413, 0.38629287481307983, 0.0924949198961258, 0.04763398319482803, 0.06048296391963959, 0.0659891813993454, 0.04897861182689667, 0.04325420781970024, 0.09197165071964264, 0.10039327293634415, 0.08778992295265198, 0.0853758305311203, 0.171165332198143, 0.3216957449913025, 0.2886762022972107, 0.3516639769077301, 0.12217345833778381, 0.050608906894922256, 0.05419095233082771, 0.04910638555884361, 0.04254050552845001, 0.04147246852517128, 0.04659954831004143, 0.0668170303106308, 0.053368061780929565, 0.06314554065465927, 0.2124963253736496, 0.051216453313827515, 0.03654053062200546, 0.03633737936615944, 0.03697511926293373, 0.7871970534324646, 0.861030101776123, 0.8886883854866028, 0.8957998156547546, 0.9025207161903381, 0.875809907913208, 0.7138752937316895, 0.14832258224487305, 0.1160743460059166, 0.1008908599615097, 0.15506413578987122, 0.0929306298494339, 0.11688327044248581, 0.1086774542927742, 0.08467108756303787, 0.04343310743570328, 0.04949793592095375, 0.04474714398384094, 0.04129692167043686, 0.04344649985432625, 0.019291307777166367, 0.04977937787771225, 0.07951010763645172, 0.06910138577222824, 0.0977601557970047, 0.01873563416302204, 0.025133002549409866, 0.01757936365902424, 0.01677727699279785, 0.013440597802400589, 0.017793910577893257, 0.015564951114356518, 0.013183657079935074, 0.013533473946154118, 0.013510562479496002, 0.014893521554768085, 0.015878602862358093, 0.016634825617074966, 0.01735145039856434, 0.021592115983366966, 0.03760514035820961, 0.03767933323979378, 0.033829208463430405, 0.037402424961328506, 0.029240449890494347, 0.030835242941975594, 0.07377941161394119]</t>
+          <t>[0.4867318272590637, 0.1499568521976471, 0.33706340193748474, 0.9516063332557678, 0.9611035585403442, 0.9631523489952087, 0.9766348600387573, 0.9790492057800293, 0.9741267561912537, 0.9750012159347534, 0.9752610921859741, 0.9768460988998413, 0.6674075722694397, 0.03464838117361069, 0.0439678430557251, 0.03444613888859749, 0.021343175321817398, 0.017686499282717705, 0.01839425228536129, 0.023824958130717278, 0.04425927996635437, 0.8604440689086914, 0.5457766056060791, 0.9500144720077515, 0.9500864744186401, 0.9497621655464172, 0.9427735805511475, 0.8706187009811401, 0.9068731069564819, 0.8814985156059265, 0.760233998298645, 0.9155420064926147, 0.9194296002388, 0.9603140354156494, 0.9434429407119751, 0.9553043842315674, 0.8431046605110168, 0.9582134485244751, 0.981754720211029, 0.9799332618713379, 0.9749744534492493, 0.9537624716758728, 0.06513532996177673, 0.012467036955058575, 0.018189743161201477, 0.01925806514918804, 0.024099256843328476, 0.024577923119068146, 0.24482397735118866, 0.2804860472679138, 0.21604028344154358, 0.12350457906723022, 0.8935070633888245, 0.9611000418663025, 0.9566057920455933, 0.9707942605018616, 0.731220543384552, 0.033185966312885284, 0.029314693063497543, 0.026907240971922874, 0.022113783285021782, 0.022678477689623833, 0.1256357580423355, 0.6684622764587402, 0.34616124629974365, 0.584601879119873, 0.9465457201004028, 0.04606986045837402, 0.022818852216005325, 0.025231502950191498, 0.043654754757881165, 0.9650832414627075, 0.9572348594665527, 0.9681431651115417, 0.9685060977935791, 0.9674047231674194, 0.9666705131530762, 0.9533715844154358, 0.7868298888206482, 0.669613242149353, 0.5002290606498718, 0.8366522789001465, 0.16279393434524536, 0.3758664131164551, 0.3915185034275055, 0.2547716200351715, 0.045884162187576294, 0.17223869264125824, 0.22512608766555786, 0.20997506380081177, 0.16911861300468445, 0.019805394113063812, 0.3813505172729492, 0.42427965998649597, 0.4673978090286255, 0.6411990523338318, 0.024135205894708633, 0.01909862458705902, 0.012263650074601173, 0.012668522074818611, 0.010053137317299843, 0.009844871237874031, 0.007595716044306755, 0.005740652792155743, 0.005698556546121836, 0.005813418421894312, 0.006338513456285, 0.0061196195892989635, 0.009476551786065102, 0.010296874679625034, 0.010507726110517979, 0.012180546298623085, 0.014755543321371078, 0.017448000609874725, 0.02508588880300522, 0.01359518337994814, 0.011884006671607494, 0.019110852852463722]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9025207161903381</v>
+        <v>0.9817547202110291</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.6445153999957256</v>
+        <v>0.648723099991912</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005461994915218014</v>
+        <v>0.005497653389761967</v>
       </c>
     </row>
     <row r="34">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.5031373500823975, 0.26859328150749207, 0.386028528213501, 0.5797200202941895, 0.7658885717391968, 0.4541029632091522, 0.3395021855831146, 0.2777271866798401, 0.2052069753408432, 0.32530421018600464, 0.42370983958244324, 0.44271185994148254, 0.4452488422393799, 0.2933773696422577, 0.41667839884757996, 0.5752207040786743, 0.5451887845993042, 0.5046698451042175, 0.46787598729133606, 0.5527236461639404, 0.5208280086517334, 0.6830965280532837, 0.6595651507377625, 0.5157463550567627, 0.5824339985847473, 0.7631718516349792, 0.7857743501663208, 0.5413299202919006, 0.5393182039260864, 0.6475109457969666, 0.7092309594154358, 0.8586654663085938, 0.8748343586921692, 0.8988510370254517, 0.6817172169685364, 0.7792801856994629, 0.8395377993583679, 0.8656745553016663, 0.8215706944465637, 0.738605797290802, 0.5299638509750366, 0.5630035400390625, 0.412992000579834, 0.5573944449424744, 0.5179834961891174, 0.41387397050857544, 0.5775379538536072, 0.46996814012527466, 0.43649566173553467, 0.4859681725502014, 0.5901820659637451, 0.6759547591209412, 0.6973577737808228, 0.616270899772644, 0.4120970368385315, 0.5229199528694153, 0.5566350221633911, 0.6855244040489197, 0.64306640625, 0.3862081468105316, 0.48652660846710205, 0.3124062418937683, 0.29251810908317566, 0.37110090255737305, 0.31471776962280273, 0.3014703691005707, 0.44966691732406616, 0.4678981900215149, 0.4381963908672333, 0.5287434458732605, 0.47744208574295044, 0.3319664001464844, 0.4663463532924652, 0.4297598898410797, 0.423861563205719, 0.41234859824180603, 0.4806067943572998, 0.49977895617485046, 0.39922866225242615, 0.4908258616924286, 0.49097609519958496, 0.5176670551300049, 0.46645811200141907, 0.5460417866706848, 0.5348610281944275, 0.4323703646659851, 0.4881434440612793, 0.41035646200180054, 0.3692874014377594, 0.3867639899253845, 0.2605263292789459, 0.27731451392173767, 0.39441531896591187, 0.6305133700370789, 0.448427677154541, 0.584617555141449, 0.42144086956977844, 0.3465923070907593, 0.5162693858146667, 0.5418037176132202, 0.5833777785301208, 0.7822653651237488, 0.7566149234771729, 0.8988876938819885, 0.7198759317398071, 0.6509674787521362, 0.6389539837837219, 0.8635430932044983, 0.7982580661773682, 0.6632894277572632, 0.5507473349571228, 0.40745216608047485, 0.32877132296562195, 0.35185253620147705, 0.34132930636405945, 0.412529855966568, 0.5502452850341797, 0.6769038438796997, 0.4193567633628845, 0.3392488360404968, 0.4895966947078705, 0.6679917573928833, 0.4682425856590271, 0.5211125612258911, 0.5371730923652649, 0.45845749974250793, 0.42498016357421875, 0.4586702585220337, 0.42544683814048767, 0.415502667427063, 0.4562474489212036, 0.41767987608909607, 0.4702552556991577, 0.5214458703994751, 0.5931388735771179, 0.5436317324638367, 0.6917297840118408, 0.7109315991401672, 0.6211849451065063, 0.622353196144104]</t>
+          <t>[0.4894729256629944, 0.1827990710735321, 0.17761293053627014, 0.29586225748062134, 0.5946283936500549, 0.24491620063781738, 0.18013949692249298, 0.12739500403404236, 0.09276071190834045, 0.2209303230047226, 0.34544116258621216, 0.3562825322151184, 0.3157893419265747, 0.21844364702701569, 0.31035152077674866, 0.502910315990448, 0.449358195066452, 0.3954816460609436, 0.32217293977737427, 0.3708462715148926, 0.40833353996276855, 0.6651221513748169, 0.48797330260276794, 0.34679368138313293, 0.6106621623039246, 0.8082860112190247, 0.8416171669960022, 0.47857698798179626, 0.48976045846939087, 0.6970638036727905, 0.7890169620513916, 0.9636537432670593, 0.938995897769928, 0.9523971080780029, 0.7892726063728333, 0.8572938442230225, 0.9065666198730469, 0.8708223104476929, 0.8505951166152954, 0.6551523208618164, 0.3346240818500519, 0.5608866214752197, 0.358891099691391, 0.384227454662323, 0.32177257537841797, 0.2801532745361328, 0.43254774808883667, 0.3511066734790802, 0.3323719799518585, 0.42934030294418335, 0.4123345911502838, 0.7025733590126038, 0.6990549564361572, 0.4620662033557892, 0.20818720757961273, 0.4381059408187866, 0.503102719783783, 0.6789169311523438, 0.5575392842292786, 0.38431021571159363, 0.49338260293006897, 0.24678078293800354, 0.2347726821899414, 0.34725821018218994, 0.30751147866249084, 0.21525444090366364, 0.29152029752731323, 0.42863985896110535, 0.3901086747646332, 0.5249637365341187, 0.4250304400920868, 0.1608676165342331, 0.2821217477321625, 0.22699709236621857, 0.20718185603618622, 0.25984421372413635, 0.37856525182724, 0.42312395572662354, 0.3298051953315735, 0.3165752589702606, 0.3508705198764801, 0.43902313709259033, 0.34890156984329224, 0.4791560173034668, 0.3651190400123596, 0.3033384382724762, 0.40771305561065674, 0.23482386767864227, 0.23426589369773865, 0.26378342509269714, 0.18033605813980103, 0.17700129747390747, 0.30204689502716064, 0.47890251874923706, 0.2600876986980438, 0.6665895581245422, 0.49310436844825745, 0.3489736318588257, 0.5256273150444031, 0.65370774269104, 0.5555647611618042, 0.9416376352310181, 0.8268134593963623, 0.9722335338592529, 0.8233388066291809, 0.6967647671699524, 0.7618207335472107, 0.9061816930770874, 0.7350121736526489, 0.6543079018592834, 0.47300824522972107, 0.29397717118263245, 0.1899665892124176, 0.24230729043483734, 0.19519078731536865, 0.20626799762248993, 0.43224388360977173, 0.534866988658905, 0.2683850824832916, 0.18699605762958527, 0.28785058856010437, 0.5253772139549255, 0.31811273097991943, 0.44619229435920715, 0.3349076807498932, 0.23485493659973145, 0.22513236105442047, 0.25671881437301636, 0.22200126945972443, 0.19641324877738953, 0.18184898793697357, 0.21078790724277496, 0.2927270531654358, 0.3380518853664398, 0.6191666126251221, 0.6322402358055115, 0.788017749786377, 0.7336735129356384, 0.7248621582984924, 0.7268753051757812]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8988876938819885</v>
+        <v>0.9722335338592529</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.9178927000029944</v>
+        <v>0.9447941000107676</v>
       </c>
       <c r="J34" t="n">
-        <v>0.006556376428592817</v>
+        <v>0.006748529285791197</v>
       </c>
     </row>
     <row r="35">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.49199962615966797, 0.4864923655986786, 0.5438079833984375, 0.5493144989013672, 0.2407284528017044, 0.3738862872123718, 0.3369976580142975, 0.4533344805240631, 0.48238858580589294, 0.2206995040178299, 0.39665690064430237, 0.6073104739189148, 0.13841211795806885, 0.15290579199790955, 0.5629540681838989, 0.4995126724243164, 0.5307285189628601, 0.31464603543281555, 0.4716539680957794, 0.7557563185691833, 0.6558035612106323, 0.8322654366493225, 0.4077431559562683, 0.9042474031448364, 0.922937273979187, 0.9752341508865356, 0.9842016100883484, 0.9959591031074524, 0.997617781162262, 0.9975823163986206, 0.9980785846710205, 0.9982016086578369, 0.9966453909873962, 0.9965241551399231, 0.9967681169509888, 0.9970211386680603, 0.9973651766777039, 0.9947998523712158, 0.9943945407867432, 0.986310601234436, 0.9535003304481506, 0.9811151623725891, 0.9944789409637451, 0.990528404712677, 0.9954310655593872, 0.9952521324157715, 0.9931780099868774, 0.9963306784629822, 0.992470383644104, 0.9915090799331665, 0.9940516352653503, 0.9966789484024048, 0.9959230422973633, 0.9961085915565491, 0.9940677881240845, 0.9840543866157532, 0.9486824870109558, 0.9822806715965271, 0.8618462681770325, 0.9086559414863586, 0.9619073271751404, 0.977121889591217, 0.9908332228660583, 0.9913793802261353, 0.9820188283920288, 0.9581164121627808, 0.9823717474937439, 0.9644754528999329, 0.8441088795661926, 0.785205066204071, 0.8910084962844849, 0.725430965423584, 0.9323019981384277, 0.6776655912399292, 0.6655019521713257, 0.9531151056289673, 0.7462381720542908, 0.7057907581329346, 0.695026159286499, 0.8687469363212585, 0.9345517754554749, 0.922954797744751, 0.8918646574020386, 0.715805172920227, 0.3732796013355255, 0.5201456546783447, 0.8775776028633118, 0.8972030282020569, 0.8966289758682251, 0.9396941065788269, 0.8335107564926147, 0.9376832246780396, 0.8962989449501038, 0.7884796857833862, 0.7495554089546204, 0.8268300294876099, 0.7717058062553406, 0.7613369822502136, 0.7840710878372192, 0.543460488319397, 0.7662615180015564, 0.9185857772827148, 0.9336250424385071, 0.7619189023971558, 0.8448469638824463, 0.7865167856216431, 0.6485574245452881, 0.7638742923736572, 0.8306354880332947, 0.8491438627243042, 0.6326571106910706, 0.7103590965270996, 0.9274080395698547, 0.8328066468238831, 0.8481519818305969, 0.8458245396614075, 0.6984276175498962, 0.9322823882102966, 0.8206047415733337, 0.8490738868713379, 0.829729437828064, 0.6976928114891052, 0.5669081807136536, 0.39004096388816833, 0.5040791630744934, 0.6381834745407104, 0.9170379042625427, 0.5995515584945679, 0.9016368985176086, 0.947986364364624, 0.9516602158546448, 0.9470192790031433, 0.9000962376594543, 0.8857289552688599, 0.868989884853363, 0.864239513874054, 0.909023106098175, 0.9636889696121216, 0.7371438145637512, 0.7373533844947815]</t>
+          <t>[0.2879793345928192, 0.39962801337242126, 0.34979918599128723, 0.25916439294815063, 0.14487190544605255, 0.39656558632850647, 0.42417627573013306, 0.3765175938606262, 0.39635658264160156, 0.1606261283159256, 0.2997871935367584, 0.39579132199287415, 0.10035278648138046, 0.09253310412168503, 0.38861897587776184, 0.39465489983558655, 0.26822835206985474, 0.30087611079216003, 0.4353826344013214, 0.6897395253181458, 0.4241771101951599, 0.6644893288612366, 0.12298770248889923, 0.7517556548118591, 0.8729598522186279, 0.9916832447052002, 0.9966989159584045, 0.9993263483047485, 0.9995965361595154, 0.9995967745780945, 0.999554455280304, 0.9997139573097229, 0.9995156526565552, 0.9993264675140381, 0.9993059635162354, 0.9992757439613342, 0.9993698000907898, 0.9988390803337097, 0.9985771179199219, 0.9963326454162598, 0.9831810593605042, 0.994174063205719, 0.9990696310997009, 0.9973471164703369, 0.9990752935409546, 0.9990251064300537, 0.9986452460289001, 0.9992258548736572, 0.9981474876403809, 0.9982216954231262, 0.9982762336730957, 0.9992276430130005, 0.9991329312324524, 0.998874843120575, 0.9981805086135864, 0.9955556988716125, 0.9769498109817505, 0.9938591122627258, 0.794895589351654, 0.9081091284751892, 0.9805577993392944, 0.9931129813194275, 0.997664213180542, 0.9979140162467957, 0.989162802696228, 0.791840672492981, 0.9607194066047668, 0.8924927711486816, 0.44154149293899536, 0.3836766183376312, 0.6507399678230286, 0.30450475215911865, 0.8906891345977783, 0.36356455087661743, 0.33454370498657227, 0.8590725660324097, 0.4617347717285156, 0.39370009303092957, 0.4483926296234131, 0.692983090877533, 0.9218524098396301, 0.8060915470123291, 0.8341302871704102, 0.5096375942230225, 0.1898701936006546, 0.26963308453559875, 0.6793829202651978, 0.8698108196258545, 0.8378798365592957, 0.8831061720848083, 0.5394122004508972, 0.8125510215759277, 0.7252257466316223, 0.6013626456260681, 0.37073007225990295, 0.5053353309631348, 0.5791988968849182, 0.29907721281051636, 0.3888434171676636, 0.17769160866737366, 0.3810967803001404, 0.7542347311973572, 0.7354547381401062, 0.23061859607696533, 0.4525240957736969, 0.5663663148880005, 0.21760854125022888, 0.45069316029548645, 0.5562911033630371, 0.4176862835884094, 0.23921993374824524, 0.3561718165874481, 0.8815345764160156, 0.6942025423049927, 0.3142049014568329, 0.47528085112571716, 0.2008381485939026, 0.6718840003013611, 0.34586048126220703, 0.3611171841621399, 0.3696005642414093, 0.19762560725212097, 0.13502326607704163, 0.11885693669319153, 0.3056621849536896, 0.2799490690231323, 0.5977193713188171, 0.11897681653499603, 0.4362889230251312, 0.8094857931137085, 0.8545615077018738, 0.8345326781272888, 0.6160712242126465, 0.5646981000900269, 0.5256571769714355, 0.5483381748199463, 0.8829700350761414, 0.9737564325332642, 0.6707719564437866, 0.6705871224403381]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9982016086578369</v>
+        <v>0.9997139573097229</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.7745724999986123</v>
+        <v>0.7823062000097707</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005532660714275803</v>
+        <v>0.005587901428641219</v>
       </c>
     </row>
     <row r="36">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.35231027007102966, 0.4751735031604767, 0.3077780306339264, 0.36016857624053955, 0.35250768065452576, 0.3196755349636078, 0.2229679971933365, 0.28229740262031555, 0.1635841578245163, 0.15050740540027618, 0.153835728764534, 0.2446977198123932, 0.19111455976963043, 0.26767319440841675, 0.14972764253616333, 0.17687126994132996, 0.16980795562267303, 0.246449276804924, 0.16868223249912262, 0.18333274126052856, 0.2410278022289276, 0.32330653071403503, 0.2216285914182663, 0.4161348044872284, 0.32186973094940186, 0.26421016454696655, 0.3315199017524719, 0.357485830783844, 0.725673496723175, 0.5381666421890259, 0.500433087348938, 0.2936481237411499, 0.39965078234672546, 0.42972585558891296, 0.1278054118156433, 0.16009007394313812, 0.23170152306556702, 0.17416204512119293, 0.6553841829299927, 0.3538084030151367, 0.406822144985199, 0.46844884753227234, 0.43733420968055725, 0.6860643625259399, 0.6652600169181824, 0.6751635670661926, 0.8720519542694092, 0.6925647258758545, 0.6099538803100586, 0.23196254670619965, 0.07095426321029663, 0.1893748641014099, 0.07433802634477615, 0.17562779784202576, 0.15911169350147247, 0.10575992614030838, 0.11867359280586243, 0.1265212893486023, 0.13734228909015656, 0.08297578245401382, 0.12142910063266754, 0.25018587708473206, 0.5465096235275269, 0.6430670022964478, 0.901573121547699, 0.9270495176315308, 0.43287912011146545, 0.46377718448638916, 0.49993184208869934, 0.19763365387916565, 0.09415253251791, 0.16863073408603668, 0.19274106621742249, 0.285027414560318, 0.20137271285057068, 0.2891077995300293, 0.215134397149086, 0.23240183293819427, 0.22551101446151733, 0.2195788323879242, 0.1400853395462036, 0.11414427310228348, 0.15217003226280212, 0.11267980188131332, 0.19826601445674896, 0.17129048705101013, 0.10658470541238785, 0.1276283711194992, 0.12370849400758743, 0.10611425340175629, 0.09069332480430603, 0.14154966175556183, 0.13339203596115112, 0.20266857743263245, 0.15021194517612457, 0.3130723834037781, 0.26107558608055115, 0.18582427501678467, 0.275493323802948, 0.1426061987876892, 0.43779268860816956, 0.2871137261390686, 0.1982375830411911, 0.23672722280025482, 0.5484237670898438, 0.4697969853878021, 0.6728047728538513, 0.7153661251068115, 0.9021356105804443, 0.7593947052955627, 0.5756401419639587, 0.7266014218330383, 0.5138077139854431, 0.6762331128120422, 0.4962455630302429, 0.8359667062759399, 0.43264326453208923, 0.6235709190368652, 0.5603839755058289, 0.25679197907447815, 0.2560538649559021, 0.30309194326400757, 0.26537802815437317, 0.5203715562820435, 0.36288711428642273, 0.3130260109901428, 0.5196686387062073, 0.8693122863769531, 0.8620838522911072, 0.7517274618148804, 0.540876567363739, 0.6858084201812744, 0.47268471121788025, 0.644737958908081, 0.27400073409080505, 0.09789519757032394, 0.13797114789485931, 0.19187548756599426, 0.14432762563228607, 0.14531229436397552]</t>
+          <t>[0.25069352984428406, 0.4441968500614166, 0.20401301980018616, 0.3135732114315033, 0.3223356008529663, 0.2765929698944092, 0.22985391318798065, 0.20392584800720215, 0.14795002341270447, 0.08927921950817108, 0.16147789359092712, 0.2561935484409332, 0.18052257597446442, 0.32306474447250366, 0.1697278618812561, 0.17814581096172333, 0.18872885406017303, 0.3620230257511139, 0.17205050587654114, 0.17313872277736664, 0.16404390335083008, 0.2808462381362915, 0.1453116238117218, 0.29042762517929077, 0.32200178503990173, 0.25707030296325684, 0.3549851179122925, 0.4022146165370941, 0.8653934001922607, 0.8191266655921936, 0.6046187877655029, 0.2519282400608063, 0.45599237084388733, 0.46841877698898315, 0.11197611689567566, 0.1600349396467209, 0.22514382004737854, 0.1753685027360916, 0.7333346009254456, 0.41600772738456726, 0.42407187819480896, 0.5621249079704285, 0.6043971180915833, 0.8692494034767151, 0.8582978844642639, 0.9350360035896301, 0.9830108880996704, 0.9546058177947998, 0.8881708979606628, 0.3939515948295593, 0.0611688606441021, 0.09323622286319733, 0.05267577990889549, 0.18802107870578766, 0.19584020972251892, 0.11467226594686508, 0.12909989058971405, 0.1130022257566452, 0.16465485095977783, 0.06174103170633316, 0.08077508956193924, 0.20036213099956512, 0.6086955070495605, 0.6843031644821167, 0.9786683917045593, 0.990845263004303, 0.6090880632400513, 0.559657633304596, 0.5698351263999939, 0.16649673879146576, 0.07380468398332596, 0.13139471411705017, 0.1708071082830429, 0.31977784633636475, 0.19810670614242554, 0.49625590443611145, 0.18394620716571808, 0.23293432593345642, 0.20599277317523956, 0.1564403921365738, 0.06560364365577698, 0.062342673540115356, 0.062410905957221985, 0.03570227324962616, 0.11081250011920929, 0.08287825435400009, 0.043982625007629395, 0.061885371804237366, 0.06790128350257874, 0.0664849728345871, 0.050150997936725616, 0.07211364805698395, 0.10335753113031387, 0.142045259475708, 0.16192078590393066, 0.3576001524925232, 0.32193902134895325, 0.191660076379776, 0.3184836506843567, 0.12747310101985931, 0.5797882676124573, 0.3763549327850342, 0.1937900185585022, 0.3930951952934265, 0.7875984311103821, 0.42456260323524475, 0.771501898765564, 0.700482189655304, 0.951396644115448, 0.8751793503761292, 0.7310082912445068, 0.7819737195968628, 0.4576413333415985, 0.6741083264350891, 0.6747164726257324, 0.9147680997848511, 0.36132845282554626, 0.6178369522094727, 0.48477065563201904, 0.1419113278388977, 0.27335071563720703, 0.3305513858795166, 0.29810377955436707, 0.41503748297691345, 0.30536216497421265, 0.3549479842185974, 0.6253366470336914, 0.923816442489624, 0.8617981672286987, 0.5444676280021667, 0.500738263130188, 0.5334916114807129, 0.4662207365036011, 0.7958314418792725, 0.268253356218338, 0.07597631961107254, 0.10622380673885345, 0.16090044379234314, 0.09753288328647614, 0.09788920730352402]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9270495176315308</v>
+        <v>0.990845263004303</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.785865499987267</v>
+        <v>0.7937557999975979</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00561332499990905</v>
+        <v>0.005669684285697128</v>
       </c>
     </row>
     <row r="37">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.19275780022144318, 0.4795878231525421, 0.45711925625801086, 0.3804393410682678, 0.27939271926879883, 0.12231931835412979, 0.11760473996400833, 0.12680058181285858, 0.27001890540122986, 0.2923773527145386, 0.14563168585300446, 0.2138267457485199, 0.34858760237693787, 0.7117206454277039, 0.5732465386390686, 0.2779141962528229, 0.54067063331604, 0.36093246936798096, 0.35902708768844604, 0.29592856764793396, 0.17707568407058716, 0.2187875211238861, 0.30161532759666443, 0.2788926064968109, 0.38875529170036316, 0.18752196431159973, 0.33174872398376465, 0.25949791073799133, 0.1953798085451126, 0.16185463964939117, 0.13535113632678986, 0.12007357180118561, 0.10841046273708344, 0.11133748292922974, 0.11940126121044159, 0.07481358200311661, 0.08244912326335907, 0.1279425323009491, 0.1032954752445221, 0.11358124762773514, 0.21533159911632538, 0.1455019861459732, 0.12503260374069214, 0.09627209603786469, 0.1234455555677414, 0.11852285265922546, 0.1667110174894333, 0.16312891244888306, 0.17133203148841858, 0.1555773913860321, 0.11240408569574356, 0.08388496935367584, 0.0968053936958313, 0.12804803252220154, 0.09588038176298141, 0.08083350211381912, 0.15879200398921967, 0.127867192029953, 0.1785292774438858, 0.18844442069530487, 0.2568012773990631, 0.3076222538948059, 0.3144106864929199, 0.2788299322128296, 0.34905821084976196, 0.3562158942222595, 0.22208918631076813, 0.2898005247116089, 0.2881842255592346, 0.3787035048007965, 0.2887946367263794, 0.4709051549434662, 0.7500764727592468, 0.6114436388015747, 0.25008490681648254, 0.23109842836856842, 0.2738940715789795, 0.34258291125297546, 0.3241943120956421, 0.2614596486091614, 0.5669860243797302, 0.4042384922504425, 0.7109451293945312, 0.7717722654342651, 0.492470383644104, 0.22350604832172394, 0.13679155707359314, 0.14142382144927979, 0.16783541440963745, 0.2058866173028946, 0.1935805082321167, 0.1868273913860321, 0.30263930559158325, 0.21127521991729736, 0.23045042157173157, 0.3895684778690338, 0.4447963535785675, 0.23157019913196564, 0.23563973605632782, 0.16712579131126404, 0.1829083263874054, 0.2469826340675354, 0.21222420036792755, 0.19623501598834991, 0.09584668278694153, 0.07205468416213989, 0.12218975275754929, 0.17371848225593567, 0.35941216349601746, 0.3948306739330292, 0.28993332386016846, 0.30728083848953247, 0.35300812125205994, 0.31882306933403015, 0.21863462030887604, 0.26122862100601196, 0.36573243141174316, 0.4122230112552643, 0.5806374549865723, 0.3545115888118744, 0.26837706565856934, 0.8100751638412476, 0.9301465749740601, 0.8015344738960266, 0.7433431148529053, 0.5417384505271912, 0.6836104989051819, 0.7616620659828186, 0.6838640570640564, 0.5990945100784302, 0.5434308052062988, 0.610098123550415, 0.5805094838142395, 0.3869185149669647, 0.4480587840080261, 0.4735430181026459, 0.4290406107902527, 0.42261093854904175, 0.42186421155929565, 0.4222029447555542]</t>
+          <t>[0.10621003806591034, 0.30626949667930603, 0.25994324684143066, 0.2391088604927063, 0.10837151110172272, 0.054973844438791275, 0.0432656928896904, 0.05980861186981201, 0.13932138681411743, 0.17683571577072144, 0.07296960800886154, 0.15487177670001984, 0.21646548807621002, 0.7561465501785278, 0.41294416785240173, 0.1839323490858078, 0.38341790437698364, 0.16348624229431152, 0.22213135659694672, 0.23404814302921295, 0.11246418952941895, 0.11390572786331177, 0.14556345343589783, 0.0827089250087738, 0.12981118261814117, 0.0730544850230217, 0.174388125538826, 0.08657880127429962, 0.044936779886484146, 0.04402298107743263, 0.03880474343895912, 0.03300732374191284, 0.02628294564783573, 0.024095728993415833, 0.024890601634979248, 0.018322939053177834, 0.017308268696069717, 0.026731332764029503, 0.017708243802189827, 0.013722029514610767, 0.016232609748840332, 0.016121521592140198, 0.015141710638999939, 0.0123961316421628, 0.019241446629166603, 0.016263701021671295, 0.022547440603375435, 0.027968216687440872, 0.030484870076179504, 0.026890145614743233, 0.01872420310974121, 0.01501208171248436, 0.015548696741461754, 0.022471411153674126, 0.020437153056263924, 0.016813261434435844, 0.03149769455194473, 0.024382824078202248, 0.04255816340446472, 0.0555449016392231, 0.058867406100034714, 0.07878340780735016, 0.16314511001110077, 0.13235235214233398, 0.1651482731103897, 0.18042661249637604, 0.09650889039039612, 0.15282103419303894, 0.16424040496349335, 0.29615291953086853, 0.18489229679107666, 0.3220502734184265, 0.7774214148521423, 0.4474204182624817, 0.1411719173192978, 0.1424243003129959, 0.1149073988199234, 0.11948307603597641, 0.15258857607841492, 0.06680410355329514, 0.2828664481639862, 0.22023612260818481, 0.5822963714599609, 0.5692605972290039, 0.21364541351795197, 0.058142561465501785, 0.02135869488120079, 0.022979725152254105, 0.023055410012602806, 0.029874935746192932, 0.03449228033423424, 0.03729907423257828, 0.04938068240880966, 0.03445473685860634, 0.030136210843920708, 0.060916755348443985, 0.09105414152145386, 0.03413931652903557, 0.029639899730682373, 0.025688428431749344, 0.03792799636721611, 0.0337568037211895, 0.03857254981994629, 0.0409584566950798, 0.03179116174578667, 0.019191427156329155, 0.02704802341759205, 0.032016485929489136, 0.08243100345134735, 0.13846422731876373, 0.08163616806268692, 0.07014864683151245, 0.09207268804311752, 0.09919198602437973, 0.07355969399213791, 0.10832580924034119, 0.16069768369197845, 0.23070679605007172, 0.4383101761341095, 0.19453418254852295, 0.16324874758720398, 0.789644181728363, 0.9663802981376648, 0.8123582005500793, 0.620231568813324, 0.4080204665660858, 0.49303221702575684, 0.7458204030990601, 0.4635377526283264, 0.44172266125679016, 0.4086228907108307, 0.4655054807662964, 0.33966654539108276, 0.30690866708755493, 0.30056270956993103, 0.40260449051856995, 0.21685388684272766, 0.21155497431755066, 0.27668091654777527, 0.27732545137405396]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9301465749740601</v>
+        <v>0.9663802981376648</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.7972921000036877</v>
+        <v>0.8284041000006255</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005694943571454912</v>
+        <v>0.005917172142861611</v>
       </c>
     </row>
     <row r="38">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.22518838942050934, 0.2738777697086334, 0.1940496265888214, 0.15574795007705688, 0.15663224458694458, 0.11223605275154114, 0.1019911840558052, 0.32929301261901855, 0.21202079951763153, 0.15542569756507874, 0.1627308428287506, 0.14174598455429077, 0.2543109953403473, 0.21460825204849243, 0.1083788201212883, 0.13011394441127777, 0.25135257840156555, 0.17773877084255219, 0.19342634081840515, 0.29061752557754517, 0.4832213521003723, 0.5174736380577087, 0.5756097435951233, 0.3419189751148224, 0.7044368982315063, 0.5907363891601562, 0.801210880279541, 0.6153350472450256, 0.6079127192497253, 0.5458667278289795, 0.4874383509159088, 0.7136337757110596, 0.689025342464447, 0.451193630695343, 0.4370947480201721, 0.4634092152118683, 0.3363244831562042, 0.3352825939655304, 0.6577757000923157, 0.23586636781692505, 0.23601864278316498, 0.4038228392601013, 0.27028363943099976, 0.2065894603729248, 0.3094046115875244, 0.2661401927471161, 0.37200847268104553, 0.1480901688337326, 0.11173389106988907, 0.31323567032814026, 0.4214174151420593, 0.412268728017807, 0.5430257320404053, 0.2615128457546234, 0.33051589131355286, 0.20861747860908508, 0.2239571511745453, 0.15804754197597504, 0.13020411133766174, 0.22428900003433228, 0.2883487939834595, 0.2865246832370758, 0.2461305856704712, 0.3391227424144745, 0.32881513237953186, 0.33600568771362305, 0.21411612629890442, 0.25052833557128906, 0.2653891146183014, 0.24321427941322327, 0.3384358286857605, 0.3989330232143402, 0.3327079117298126, 0.4155568480491638, 0.4912344813346863, 0.5964120030403137, 0.6353686451911926, 0.48149093985557556, 0.8024320006370544, 0.8367828130722046, 0.4799078404903412, 0.325393408536911, 0.43330618739128113, 0.4303291440010071, 0.4458005130290985, 0.6534071564674377, 0.5217682719230652, 0.38815537095069885, 0.26585179567337036, 0.26625165343284607, 0.5898727774620056, 0.657533586025238, 0.8480124473571777, 0.609616756439209, 0.49789533019065857, 0.481020987033844, 0.4280678629875183, 0.19062289595603943, 0.22413355112075806, 0.3435509502887726, 0.2493477612733841, 0.1696212887763977, 0.12092982977628708, 0.13260944187641144, 0.2218085378408432, 0.18330922722816467, 0.2653878927230835, 0.3193875253200531, 0.20598919689655304, 0.3155478835105896, 0.15513189136981964, 0.22303524613380432, 0.2285546362400055, 0.30285313725471497, 0.42619258165359497, 0.32098668813705444, 0.21691709756851196, 0.2707878649234772, 0.17332451045513153, 0.12801986932754517, 0.1262306123971939, 0.16557054221630096, 0.2498045563697815, 0.20761547982692719, 0.13794271647930145, 0.1160392165184021, 0.25687751173973083, 0.24600715935230255, 0.2270488440990448, 0.22965483367443085, 0.24639368057250977, 0.30157291889190674, 0.31851857900619507, 0.36000385880470276, 0.3954850137233734, 0.8091573119163513, 0.649935245513916, 0.7961560487747192, 0.8967427611351013, 0.8968178033828735]</t>
+          <t>[0.03485729917883873, 0.05515992268919945, 0.03252612054347992, 0.024693412706255913, 0.028982650488615036, 0.019104886800050735, 0.0179183017462492, 0.08658836036920547, 0.03984592854976654, 0.03492234647274017, 0.06461511552333832, 0.049251239746809006, 0.05518263950943947, 0.04364294186234474, 0.03193734213709831, 0.033897414803504944, 0.06932272762060165, 0.05256322771310806, 0.08667969703674316, 0.108815498650074, 0.22779661417007446, 0.26715242862701416, 0.4499879777431488, 0.17293035984039307, 0.6526025533676147, 0.37616458535194397, 0.7402911186218262, 0.35517358779907227, 0.47557052969932556, 0.4178558588027954, 0.21635375916957855, 0.38547953963279724, 0.4516947865486145, 0.2006145566701889, 0.1669076681137085, 0.4204605519771576, 0.15360282361507416, 0.11379549652338028, 0.5481258034706116, 0.0745071992278099, 0.04260219261050224, 0.09277385473251343, 0.06418970227241516, 0.04370642080903053, 0.16110645234584808, 0.09797371178865433, 0.20003461837768555, 0.03809775039553642, 0.03159473091363907, 0.17340616881847382, 0.28478795289993286, 0.21646736562252045, 0.2891206741333008, 0.10647077113389969, 0.1477261632680893, 0.11256162077188492, 0.11535385996103287, 0.04819755628705025, 0.04810642451047897, 0.13778388500213623, 0.24316108226776123, 0.27871644496917725, 0.19009631872177124, 0.1338231861591339, 0.12055115401744843, 0.11845844984054565, 0.05270460620522499, 0.06663502752780914, 0.0767832025885582, 0.06107348948717117, 0.06455190479755402, 0.08467148244380951, 0.12782230973243713, 0.18002592027187347, 0.21665658056735992, 0.3046596050262451, 0.4175436496734619, 0.21223966777324677, 0.6736817955970764, 0.9004455208778381, 0.17064662277698517, 0.06695828586816788, 0.1251773089170456, 0.09989974647760391, 0.1303117424249649, 0.20150607824325562, 0.11824676394462585, 0.08473525196313858, 0.05404338240623474, 0.04513705521821976, 0.17568455636501312, 0.24018076062202454, 0.703773021697998, 0.3258761763572693, 0.13412128388881683, 0.17894791066646576, 0.26101335883140564, 0.05504592880606651, 0.05882973223924637, 0.12674589455127716, 0.05749369412660599, 0.027081577107310295, 0.02571040950715542, 0.024281999096274376, 0.058053500950336456, 0.03955374285578728, 0.09108395874500275, 0.14101263880729675, 0.06841915845870972, 0.12930776178836823, 0.04401969909667969, 0.09101288765668869, 0.0595054030418396, 0.1074167937040329, 0.20233817398548126, 0.16214300692081451, 0.07736439257860184, 0.08552505820989609, 0.04697895422577858, 0.03879466652870178, 0.025855928659439087, 0.03144371509552002, 0.06840681284666061, 0.08352679759263992, 0.039269138127565384, 0.040042053908109665, 0.10214434564113617, 0.06719114631414413, 0.07256485521793365, 0.08431600779294968, 0.09634743630886078, 0.12747319042682648, 0.12282385677099228, 0.1705886423587799, 0.2602737545967102, 0.7986277937889099, 0.6959086656570435, 0.8528715372085571, 0.9760310053825378, 0.9760337471961975]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.8968178033828735</v>
+        <v>0.9760337471961975</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.837142300006235</v>
+        <v>0.7875248000054853</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005979587857187393</v>
+        <v>0.005625177142896324</v>
       </c>
     </row>
     <row r="39">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.3265523910522461, 0.36570465564727783, 0.16117939352989197, 0.22633682191371918, 0.1401607245206833, 0.25780439376831055, 0.13800600171089172, 0.12478875368833542, 0.3050343096256256, 0.41787025332450867, 0.45036378502845764, 0.22750921547412872, 0.2888350486755371, 0.3217551112174988, 0.19379852712154388, 0.21165955066680908, 0.35209110379219055, 0.9107593297958374, 0.8738725185394287, 0.6289772391319275, 0.550245463848114, 0.738421618938446, 0.3567947745323181, 0.4267279803752899, 0.30871346592903137, 0.5846108794212341, 0.4265640079975128, 0.6526747941970825, 0.30902761220932007, 0.2898537218570709, 0.29641997814178467, 0.29349279403686523, 0.21124650537967682, 0.12276172637939453, 0.28116676211357117, 0.2627111077308655, 0.19559533894062042, 0.1679222285747528, 0.17242321372032166, 0.24919460713863373, 0.24174770712852478, 0.20205439627170563, 0.2317061722278595, 0.2744637131690979, 0.2725105285644531, 0.2523013949394226, 0.20626361668109894, 0.17818598449230194, 0.22756439447402954, 0.43688181042671204, 0.3742431402206421, 0.2698541581630707, 0.5373746752738953, 0.5403264164924622, 0.8599153757095337, 0.46385446190834045, 0.4282878637313843, 0.3925803005695343, 0.43358442187309265, 0.5809558629989624, 0.3661482036113739, 0.5993867516517639, 0.513188362121582, 0.6403214335441589, 0.4927949011325836, 0.38852718472480774, 0.2834344804286957, 0.3638717234134674, 0.43204259872436523, 0.5424842834472656, 0.2843579947948456, 0.42349889874458313, 0.39961856603622437, 0.3641088008880615, 0.35697901248931885, 0.18069089949131012, 0.13976849615573883, 0.20323717594146729, 0.1368330419063568, 0.32836785912513733, 0.13358628749847412, 0.16395753622055054, 0.28996267914772034, 0.3291344940662384, 0.3199114203453064, 0.18982818722724915, 0.33251187205314636, 0.15275722742080688, 0.21921546757221222, 0.4022582471370697, 0.2845424711704254, 0.3268619775772095, 0.37469103932380676, 0.19027748703956604, 0.23586097359657288, 0.15600208938121796, 0.27086666226387024, 0.2648044526576996, 0.33848142623901367, 0.2597120702266693, 0.2778189778327942, 0.2567157745361328, 0.5519441366195679, 0.39725592732429504, 0.5033041834831238, 0.31949350237846375, 0.4564347565174103, 0.185481995344162, 0.36548370122909546, 0.46157094836235046, 0.22044013440608978, 0.24603690207004547, 0.6524080634117126, 0.5709779262542725, 0.33853745460510254, 0.36234745383262634, 0.25170356035232544, 0.30053389072418213, 0.3206384778022766, 0.13164450228214264, 0.25613924860954285, 0.3500969111919403, 0.2437182515859604, 0.463901162147522, 0.5139996409416199, 0.5115503668785095, 0.41387584805488586, 0.4113805592060089, 0.3499962091445923, 0.26966091990470886, 0.32040172815322876, 0.37470659613609314, 0.27582746744155884, 0.22211270034313202, 0.26966196298599243, 0.2602349519729614, 0.37212827801704407, 0.4584510326385498, 0.25001052021980286, 0.2509634494781494]</t>
+          <t>[0.14705286920070648, 0.2549293339252472, 0.11019725352525711, 0.14771370589733124, 0.10217715799808502, 0.22317726910114288, 0.058341123163700104, 0.06339236348867416, 0.1275302767753601, 0.23292817175388336, 0.29809585213661194, 0.13709408044815063, 0.2194317728281021, 0.1724327951669693, 0.12664251029491425, 0.12754714488983154, 0.2350555807352066, 0.9359171986579895, 0.9169039130210876, 0.5549765825271606, 0.26064255833625793, 0.7658047080039978, 0.20989598333835602, 0.2795788049697876, 0.19322974979877472, 0.5417858362197876, 0.24706010520458221, 0.5936508178710938, 0.10517346113920212, 0.12741397321224213, 0.1243290975689888, 0.13064387440681458, 0.07963597774505615, 0.044113870710134506, 0.09079542756080627, 0.16860277950763702, 0.11430674046278, 0.11977879703044891, 0.11951732635498047, 0.17438195645809174, 0.19484998285770416, 0.19186541438102722, 0.272124707698822, 0.25841715931892395, 0.24076662957668304, 0.175059974193573, 0.10360363870859146, 0.08772993832826614, 0.10553647577762604, 0.258819043636322, 0.14815238118171692, 0.12216006964445114, 0.28823065757751465, 0.2606508731842041, 0.8254698514938354, 0.2684616148471832, 0.21100643277168274, 0.2855891287326813, 0.16180257499217987, 0.3543834090232849, 0.12080497294664383, 0.3785778880119324, 0.2765324115753174, 0.5212872624397278, 0.2426765263080597, 0.25325891375541687, 0.17279702425003052, 0.2227582037448883, 0.3097858130931854, 0.3725791871547699, 0.12091200798749924, 0.183089017868042, 0.16012491285800934, 0.14060914516448975, 0.20999398827552795, 0.07823287695646286, 0.07078804820775986, 0.1272897571325302, 0.04093696177005768, 0.07773437350988388, 0.024127192795276642, 0.04553641751408577, 0.13543552160263062, 0.11956150084733963, 0.0892288088798523, 0.07868475466966629, 0.14141102135181427, 0.07928051799535751, 0.08413896709680557, 0.25907331705093384, 0.1266726404428482, 0.13034923374652863, 0.2582089304924011, 0.0955348014831543, 0.18855638802051544, 0.13199639320373535, 0.1421390026807785, 0.0884004458785057, 0.1807985007762909, 0.1325884461402893, 0.1188216581940651, 0.10267677158117294, 0.2611485421657562, 0.17081598937511444, 0.2628943622112274, 0.10366039723157883, 0.2142716646194458, 0.06618465483188629, 0.1669621616601944, 0.32273444533348083, 0.0913255587220192, 0.10089439898729324, 0.42390963435173035, 0.22991988062858582, 0.19298581779003143, 0.26845812797546387, 0.11934312433004379, 0.1627655178308487, 0.10468615591526031, 0.04083263874053955, 0.09881079941987991, 0.14442305266857147, 0.13856187462806702, 0.34811410307884216, 0.25114983320236206, 0.482769638299942, 0.15878096222877502, 0.17498023808002472, 0.14672383666038513, 0.15662722289562225, 0.13156253099441528, 0.17531055212020874, 0.09104876965284348, 0.10564280301332474, 0.14438597857952118, 0.12272537499666214, 0.22216518223285675, 0.3851383924484253, 0.1486649215221405, 0.14923731982707977]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9107593297958374</v>
+        <v>0.9359171986579895</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.8074731999950018</v>
+        <v>0.787980900000548</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005767665714250012</v>
+        <v>0.005628435000003915</v>
       </c>
     </row>
     <row r="40">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.2526600956916809, 0.2686381936073303, 0.14712251722812653, 0.5070012211799622, 0.19359740614891052, 0.3863186836242676, 0.20292437076568604, 0.21814179420471191, 0.2191295623779297, 0.2714183032512665, 0.24906879663467407, 0.17058655619621277, 0.3413430452346802, 0.40383851528167725, 0.7434152364730835, 0.8007441163063049, 0.716244101524353, 0.34402820467948914, 0.2486949861049652, 0.4872172176837921, 0.2577234208583832, 0.4285809397697449, 0.4372362196445465, 0.40874576568603516, 0.30348896980285645, 0.4345395565032959, 0.16216430068016052, 0.22631143033504486, 0.5244564414024353, 0.45175057649612427, 0.144820898771286, 0.2022588700056076, 0.08605334162712097, 0.18923267722129822, 0.11053503304719925, 0.08946684002876282, 0.14085395634174347, 0.1094517856836319, 0.10859014093875885, 0.15030339360237122, 0.3761964738368988, 0.7311343550682068, 0.3985315263271332, 0.14386726915836334, 0.19347083568572998, 0.08654675632715225, 0.13662783801555634, 0.10887027531862259, 0.13912588357925415, 0.05742150917649269, 0.052647825330495834, 0.040492698550224304, 0.03382448852062225, 0.05510327219963074, 0.054552383720874786, 0.1510414183139801, 0.27720627188682556, 0.11567075550556183, 0.12917937338352203, 0.07546503841876984, 0.10692058503627777, 0.054431408643722534, 0.06487791985273361, 0.061057355254888535, 0.06664849072694778, 0.24339452385902405, 0.07955832034349442, 0.060914717614650726, 0.08064205199480057, 0.06565260142087936, 0.07549022138118744, 0.06725657731294632, 0.04472082108259201, 0.05843229219317436, 0.07068200409412384, 0.027074364945292473, 0.051727209240198135, 0.1311640739440918, 0.2587866485118866, 0.22056913375854492, 0.206024631857872, 0.3424986004829407, 0.19719183444976807, 0.1776675581932068, 0.08671239018440247, 0.11108116060495377, 0.1824256181716919, 0.14820806682109833, 0.45332011580467224, 0.22004742920398712, 0.16071313619613647, 0.384812593460083, 0.3205122649669647, 0.2833751440048218, 0.13376572728157043, 0.12106520682573318, 0.18119032680988312, 0.19846473634243011, 0.10823386907577515, 0.13478690385818481, 0.05077308788895607, 0.13435997068881989, 0.09198358654975891, 0.06874234229326248, 0.08869758993387222, 0.13387568295001984, 0.11433711647987366, 0.2462824434041977, 0.15044695138931274, 0.2936224043369293, 0.13462835550308228, 0.2618256211280823, 0.5173139572143555, 0.541512131690979, 0.36219048500061035, 0.38425344228744507, 0.4061017334461212, 0.3183080554008484, 0.11177662760019302, 0.12298362702131271, 0.09450621902942657, 0.10496960580348969, 0.08607325702905655, 0.09833420068025589, 0.2910403907299042, 0.15753692388534546, 0.13300731778144836, 0.09397659450769424, 0.07653263956308365, 0.1381683498620987, 0.1300249546766281, 0.06828997284173965, 0.12508176267147064, 0.12817567586898804, 0.08733344078063965, 0.03800021484494209, 0.039348408579826355, 0.06475020945072174, 0.08343872427940369, 0.08281280845403671]</t>
+          <t>[0.2646752893924713, 0.23899701237678528, 0.07760497182607651, 0.656637966632843, 0.13969869911670685, 0.42482927441596985, 0.22916020452976227, 0.3693561553955078, 0.28322669863700867, 0.36295828223228455, 0.3120560944080353, 0.2196861207485199, 0.38961294293403625, 0.6541423797607422, 0.9853541851043701, 0.979889452457428, 0.9577304720878601, 0.5168672204017639, 0.243203267455101, 0.7155493497848511, 0.29706576466560364, 0.6030997037887573, 0.5019814968109131, 0.4705127775669098, 0.2572445273399353, 0.4328286349773407, 0.08077116310596466, 0.17669515311717987, 0.3961184024810791, 0.32387229800224304, 0.10174129903316498, 0.253006249666214, 0.07905696332454681, 0.09706518799066544, 0.06588508933782578, 0.05882251262664795, 0.10356743633747101, 0.1143186166882515, 0.06630862504243851, 0.17141865193843842, 0.6256682276725769, 0.9849152565002441, 0.778473973274231, 0.1582891345024109, 0.1334066092967987, 0.055034853518009186, 0.1257099211215973, 0.0851181298494339, 0.17507384717464447, 0.053019776940345764, 0.04146640747785568, 0.03491920232772827, 0.015292339026927948, 0.033762358129024506, 0.03235005959868431, 0.13073712587356567, 0.19710202515125275, 0.1379646360874176, 0.09072791785001755, 0.06259945034980774, 0.08960926532745361, 0.060706641525030136, 0.06088005751371384, 0.06145240738987923, 0.0810500979423523, 0.3815199136734009, 0.11135503649711609, 0.06426745653152466, 0.08335549384355545, 0.03667424991726875, 0.04382665827870369, 0.03239904344081879, 0.028901847079396248, 0.028362635523080826, 0.02549886517226696, 0.00811401754617691, 0.013170300982892513, 0.04488123953342438, 0.15709693729877472, 0.15172812342643738, 0.049358248710632324, 0.2175174355506897, 0.1437585949897766, 0.104205422103405, 0.049867890775203705, 0.03860941901803017, 0.11163576692342758, 0.08578300476074219, 0.4703085124492645, 0.17628632485866547, 0.18359355628490448, 0.4360135793685913, 0.21626290678977966, 0.2667686939239502, 0.06965477019548416, 0.07970326393842697, 0.13182887434959412, 0.13700082898139954, 0.05448465421795845, 0.08293857425451279, 0.02830042876303196, 0.06850615888834, 0.036404725164175034, 0.029234811663627625, 0.03401157259941101, 0.04970439523458481, 0.03999438136816025, 0.13799192011356354, 0.08810115605592728, 0.22679568827152252, 0.08911007642745972, 0.20914818346500397, 0.8065574765205383, 0.43657222390174866, 0.39821162819862366, 0.5435483455657959, 0.6247066855430603, 0.29907235503196716, 0.06544003635644913, 0.07473686337471008, 0.05631098523736, 0.05777239054441452, 0.05347621068358421, 0.0526888482272625, 0.264428049325943, 0.12714558839797974, 0.07426614314317703, 0.07195331156253815, 0.039871253073215485, 0.04816087707877159, 0.058758169412612915, 0.035370584577322006, 0.05020904168486595, 0.045563120394945145, 0.03412334993481636, 0.016252320259809494, 0.02241694927215576, 0.03760477527976036, 0.050336454063653946, 0.049366261810064316]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8007441163063049</v>
+        <v>0.9853541851043701</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.8185163000016473</v>
+        <v>0.7833631999965291</v>
       </c>
       <c r="J40" t="n">
-        <v>0.005846545000011766</v>
+        <v>0.005595451428546637</v>
       </c>
     </row>
     <row r="41">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.07850499451160431, 0.06909811496734619, 0.05611522123217583, 0.07376279681921005, 0.11268016695976257, 0.09306461364030838, 0.09299256652593613, 0.4262981712818146, 0.09198275953531265, 0.1848977953195572, 0.08368996530771255, 0.07160219550132751, 0.08287686109542847, 0.0663820207118988, 0.042883627116680145, 0.08902135491371155, 0.910025417804718, 0.6141758561134338, 0.11309491842985153, 0.057520054280757904, 0.07704956084489822, 0.09032142162322998, 0.15835154056549072, 0.20629355311393738, 0.12396415323019028, 0.06358880549669266, 0.0836779847741127, 0.09240390360355377, 0.06544271111488342, 0.10203015804290771, 0.056805793195962906, 0.07356773316860199, 0.12082558870315552, 0.2785172760486603, 0.12898463010787964, 0.08336605876684189, 0.10502602905035019, 0.04944799095392227, 0.05415761470794678, 0.05468232184648514, 0.058690186589956284, 0.05173206701874733, 0.062024232000112534, 0.05947508290410042, 0.07184547930955887, 0.07941633462905884, 0.05045783519744873, 0.12307582050561905, 0.18700376152992249, 0.06471968442201614, 0.04069940373301506, 0.033868491649627686, 0.04051113501191139, 0.10203193873167038, 0.07161357253789902, 0.09924483299255371, 0.24538655579090118, 0.09619659185409546, 0.05516665056347847, 0.07116749882698059, 0.1237039566040039, 0.08248017728328705, 0.11265872418880463, 0.09802161157131195, 0.21535871922969818, 0.1030411645770073, 0.08074566721916199, 0.12233150750398636, 0.10472995042800903, 0.07535415142774582, 0.09289170801639557, 0.1480000764131546, 0.11011029779911041, 0.13924714922904968, 0.0678776204586029, 0.06237351521849632, 0.04266579821705818, 0.021003592759370804, 0.019869038835167885, 0.03230459988117218, 0.017759159207344055, 0.03389878198504448, 0.0380440354347229, 0.04521019011735916, 0.04149019718170166, 0.04391428455710411, 0.02739226445555687, 0.03888528048992157, 0.038574401289224625, 0.03715624660253525, 0.05768531560897827, 0.0548863559961319, 0.05215432867407799, 0.055442605167627335, 0.05385611951351166, 0.04591779410839081, 0.044910043478012085, 0.06965199112892151, 0.08509302884340286, 0.12268238514661789, 0.15561890602111816, 0.0639401450753212, 0.04350651800632477, 0.04913976788520813, 0.041096195578575134, 0.04548829048871994, 0.04534505307674408, 0.07419693470001221, 0.03811027482151985, 0.03923835605382919, 0.03887090086936951, 0.07561171054840088, 0.056805532425642014, 0.05385727062821388, 0.03269040584564209, 0.053716517984867096, 0.03372952714562416, 0.03595433756709099, 0.03571326658129692, 0.037607040256261826, 0.0367470309138298, 0.09943220764398575, 0.07055676728487015, 0.05959368869662285, 0.11667525768280029, 0.07503408193588257, 0.048597052693367004, 0.05094372481107712, 0.05599502846598625, 0.08154548704624176, 0.08970396965742111, 0.09942317008972168, 0.10308288037776947, 0.10721634328365326, 0.05324661359190941, 0.04525243863463402, 0.1069631278514862, 0.08002540469169617, 0.08291547000408173, 0.08246438950300217]</t>
+          <t>[0.05831605941057205, 0.06164276972413063, 0.07021459937095642, 0.06156248226761818, 0.08977630734443665, 0.05980406701564789, 0.09135807305574417, 0.5016818642616272, 0.09585560113191605, 0.4668516516685486, 0.11295027285814285, 0.14617258310317993, 0.1743580847978592, 0.13141527771949768, 0.0643581748008728, 0.3535188138484955, 0.9906965494155884, 0.9619837403297424, 0.1175062358379364, 0.07008974254131317, 0.0851355716586113, 0.08893750607967377, 0.14136677980422974, 0.19633963704109192, 0.09939094632863998, 0.03244725987315178, 0.035051602870225906, 0.0456610769033432, 0.041223861277103424, 0.08745115250349045, 0.0445469506084919, 0.049929141998291016, 0.09832432866096497, 0.2795466482639313, 0.14177915453910828, 0.066378653049469, 0.07955862581729889, 0.05752759054303169, 0.07649356871843338, 0.0506572388112545, 0.04484665393829346, 0.03668883442878723, 0.05181410163640976, 0.08722109347581863, 0.093301922082901, 0.03886498138308525, 0.028379710391163826, 0.08590022474527359, 0.11500003188848495, 0.03769826143980026, 0.025080569088459015, 0.018448786810040474, 0.025473978370428085, 0.0434262678027153, 0.028753841295838356, 0.05963917076587677, 0.27496227622032166, 0.08853819966316223, 0.047204915434122086, 0.04119078069925308, 0.12167313694953918, 0.05352355167269707, 0.08087963610887527, 0.06835436820983887, 0.26200124621391296, 0.16179700195789337, 0.08930350095033646, 0.17801165580749512, 0.07211759686470032, 0.07851395010948181, 0.09261086583137512, 0.11897176504135132, 0.07985352724790573, 0.14712655544281006, 0.08783400803804398, 0.12159273773431778, 0.07798115909099579, 0.012695061042904854, 0.01298984419554472, 0.029440533369779587, 0.009717204608023167, 0.018655333667993546, 0.02112007513642311, 0.020618688315153122, 0.02454552799463272, 0.027357416227459908, 0.014074064791202545, 0.026336003094911575, 0.02085489220917225, 0.02297615073621273, 0.04719952121376991, 0.030642397701740265, 0.0365784652531147, 0.03776223212480545, 0.06404171139001846, 0.03672713413834572, 0.040383923798799515, 0.0613737553358078, 0.07272284477949142, 0.1774427592754364, 0.18933671712875366, 0.05111407861113548, 0.027584392577409744, 0.037371162325143814, 0.026299679651856422, 0.03151846304535866, 0.028975410386919975, 0.04405510425567627, 0.01600274071097374, 0.018465165048837662, 0.02128082513809204, 0.08829262852668762, 0.03701254352927208, 0.03349504619836807, 0.019229263067245483, 0.03282633423805237, 0.027004439383745193, 0.0265410877764225, 0.01995130069553852, 0.026431787759065628, 0.03826482221484184, 0.21921199560165405, 0.07060544192790985, 0.04290410503745079, 0.11807798594236374, 0.06907907128334045, 0.040921036154031754, 0.047299228608608246, 0.0418107695877552, 0.05099989101290703, 0.07658635079860687, 0.055490732192993164, 0.07698241621255875, 0.05763253569602966, 0.02579803206026554, 0.031975485384464264, 0.0364445224404335, 0.024349134415388107, 0.038974303752183914, 0.038500651717185974]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.910025417804718</v>
+        <v>0.9906965494155884</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.8190229999891017</v>
+        <v>0.7858806000003824</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00585016428563644</v>
+        <v>0.005613432857145589</v>
       </c>
     </row>
     <row r="42">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.331621378660202, 0.36597728729248047, 0.5740161538124084, 0.5786136984825134, 0.49648207426071167, 0.5897901058197021, 0.48592665791511536, 0.5432278513908386, 0.4001787006855011, 0.44043222069740295, 0.5857235789299011, 0.5793354511260986, 0.5195921063423157, 0.3465803861618042, 0.22133980691432953, 0.21897630393505096, 0.23452752828598022, 0.12498442083597183, 0.22825486958026886, 0.30459603667259216, 0.4806293845176697, 0.6184089779853821, 0.4389549493789673, 0.15731403231620789, 0.09849022328853607, 0.1468448042869568, 0.1680552214384079, 0.2319323569536209, 0.2500111758708954, 0.17918364703655243, 0.10613551735877991, 0.08351545035839081, 0.141794815659523, 0.10567515343427658, 0.09606453031301498, 0.27492043375968933, 0.24830324947834015, 0.24030978977680206, 0.5033413767814636, 0.5908518433570862, 0.2843611538410187, 0.35985487699508667, 0.540328860282898, 0.2968410551548004, 0.31588149070739746, 0.3086676299571991, 0.10613857209682465, 0.13364611566066742, 0.4322837293148041, 0.2905597686767578, 0.3147437274456024, 0.24658146500587463, 0.4948086738586426, 0.4035901427268982, 0.4184625744819641, 0.3925938010215759, 0.34693923592567444, 0.19859209656715393, 0.33640241622924805, 0.20906175673007965, 0.34518077969551086, 0.39298558235168457, 0.5576720833778381, 0.6448489427566528, 0.47921088337898254, 0.587543249130249, 0.4785112738609314, 0.508320152759552, 0.423861563205719, 0.5475566983222961, 0.6383570432662964, 0.6530872583389282, 0.6520220041275024, 0.6148182153701782, 0.596303403377533, 0.5452110767364502, 0.7032896280288696, 0.7672798037528992, 0.47745293378829956, 0.32062336802482605, 0.3441160023212433, 0.44125738739967346, 0.46826156973838806, 0.7736414074897766, 0.706142783164978, 0.3936149477958679, 0.3765287399291992, 0.6446138024330139, 0.5370973944664001, 0.3114736080169678, 0.39604848623275757, 0.22865962982177734, 0.680233895778656, 0.49022945761680603, 0.47471317648887634, 0.392857164144516, 0.5507354140281677, 0.31151458621025085, 0.1902720183134079, 0.3135058283805847, 0.2590905427932739, 0.2929175794124603, 0.22349268198013306, 0.16958916187286377, 0.1445263773202896, 0.2040267437696457, 0.13761645555496216, 0.1395583599805832, 0.22636272013187408, 0.26818472146987915, 0.16275136172771454, 0.24932721257209778, 0.4995088279247284, 0.3535284101963043, 0.2136436551809311, 0.2298426777124405, 0.38319480419158936, 0.1956620067358017, 0.21088579297065735, 0.2225760668516159, 0.2930520474910736, 0.2242935448884964, 0.45120570063591003, 0.28937122225761414, 0.1665402054786682, 0.14418283104896545, 0.18908867239952087, 0.28104367852211, 0.3622854948043823, 0.44437962770462036, 0.33349186182022095, 0.30289116501808167, 0.1924820840358734, 0.3797711431980133, 0.4921534061431885, 0.4722563922405243, 0.32125958800315857, 0.35287702083587646, 0.31763726472854614, 0.31858617067337036]</t>
+          <t>[0.08636151999235153, 0.09845609217882156, 0.2953486144542694, 0.2653268575668335, 0.2605758309364319, 0.34696412086486816, 0.15370117127895355, 0.2687772810459137, 0.27449315786361694, 0.26042431592941284, 0.5112653374671936, 0.4128153920173645, 0.3602912425994873, 0.1216839998960495, 0.07735589146614075, 0.09086070209741592, 0.11963553726673126, 0.04690041020512581, 0.10640823096036911, 0.1520901620388031, 0.27788233757019043, 0.5147363543510437, 0.2142113894224167, 0.0596885159611702, 0.02493077516555786, 0.04884755238890648, 0.08648861199617386, 0.15526360273361206, 0.20072829723358154, 0.11155136674642563, 0.056864310055971146, 0.06601514667272568, 0.10475333034992218, 0.05807151272892952, 0.03537941351532936, 0.33337879180908203, 0.1347396969795227, 0.08068468421697617, 0.4867502450942993, 0.551731288433075, 0.191890150308609, 0.20592117309570312, 0.5064723491668701, 0.15737202763557434, 0.11973614245653152, 0.08042770624160767, 0.01873362809419632, 0.026436801999807358, 0.13831812143325806, 0.14185038208961487, 0.168267160654068, 0.11703556776046753, 0.35016271471977234, 0.26623421907424927, 0.33071908354759216, 0.2573203146457672, 0.2372369021177292, 0.08867601305246353, 0.1266523152589798, 0.0656130462884903, 0.20101989805698395, 0.1805960237979889, 0.43209898471832275, 0.40425166487693787, 0.3295779526233673, 0.43077847361564636, 0.4290120601654053, 0.4792432188987732, 0.24767178297042847, 0.4939791262149811, 0.6359853744506836, 0.6394892930984497, 0.6106902360916138, 0.5655789375305176, 0.6675940752029419, 0.6163206696510315, 0.8150440454483032, 0.9100658893585205, 0.4540216326713562, 0.3101710379123688, 0.2518587112426758, 0.3890221118927002, 0.39685261249542236, 0.880387544631958, 0.7655438184738159, 0.4384346902370453, 0.33624669909477234, 0.8396376371383667, 0.7220232486724854, 0.3847771883010864, 0.47459957003593445, 0.20700280368328094, 0.8361160159111023, 0.539650559425354, 0.39452603459358215, 0.257703572511673, 0.48509490489959717, 0.11042734980583191, 0.08217070251703262, 0.15826310217380524, 0.08204899728298187, 0.07257303595542908, 0.07582880556583405, 0.061172470450401306, 0.03410514444112778, 0.05828958377242088, 0.042815010994672775, 0.049475621432065964, 0.08507473766803741, 0.12458692491054535, 0.041026510298252106, 0.11010824888944626, 0.4406275749206543, 0.15737347304821014, 0.04713653773069382, 0.06277037411928177, 0.18067334592342377, 0.05814605951309204, 0.06440815329551697, 0.08509763330221176, 0.19509194791316986, 0.05119664967060089, 0.21690881252288818, 0.08111298084259033, 0.03890622407197952, 0.0575723722577095, 0.10426842421293259, 0.15986399352550507, 0.2434854805469513, 0.40163564682006836, 0.24597302079200745, 0.26189371943473816, 0.08512425422668457, 0.35263049602508545, 0.6034395694732666, 0.6854507327079773, 0.39012637734413147, 0.24855275452136993, 0.19895827770233154, 0.19960951805114746]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.7736414074897766</v>
+        <v>0.9100658893585205</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.8073728999879677</v>
+        <v>0.7838387999945553</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005766949285628341</v>
+        <v>0.00559884857138968</v>
       </c>
     </row>
     <row r="43">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.08435802161693573, 0.13389919698238373, 0.1553993970155716, 0.18698251247406006, 0.05550287663936615, 0.0923091396689415, 0.08899006247520447, 0.06874527037143707, 0.06261803954839706, 0.05385635048151016, 0.13591481745243073, 0.14728374779224396, 0.24894733726978302, 0.307373583316803, 0.17579969763755798, 0.11542484909296036, 0.21687406301498413, 0.1812109649181366, 0.08323630690574646, 0.07942942529916763, 0.06808318942785263, 0.12461832910776138, 0.07184866815805435, 0.06547307223081589, 0.040396153926849365, 0.028101850301027298, 0.03425830975174904, 0.04474509879946709, 0.037028711289167404, 0.03306214138865471, 0.02911859005689621, 0.02189280465245247, 0.06845954805612564, 0.04807056114077568, 0.056283384561538696, 0.03705333545804024, 0.03168953210115433, 0.061932556331157684, 0.055122628808021545, 0.03658434376120567, 0.0716935247182846, 0.0937240868806839, 0.07048780471086502, 0.06787024438381195, 0.06725344061851501, 0.06191231310367584, 0.04840404912829399, 0.056330081075429916, 0.03569331020116806, 0.040541648864746094, 0.05137057974934578, 0.06875608116388321, 0.05800211802124977, 0.07167498767375946, 0.0623922236263752, 0.07179930806159973, 0.08844698220491409, 0.0614921934902668, 0.06326612830162048, 0.06720045208930969, 0.062369607388973236, 0.12889748811721802, 0.10855146497488022, 0.0654994398355484, 0.053784001618623734, 0.12494120746850967, 0.15693753957748413, 0.07531947642564774, 0.16879324615001678, 0.12519216537475586, 0.14122046530246735, 0.20328786969184875, 0.08787601441144943, 0.06271996349096298, 0.05716363340616226, 0.1774117797613144, 0.07191304862499237, 0.0896315798163414, 0.08652952313423157, 0.0832415521144867, 0.06142725422978401, 0.03388110175728798, 0.028148172423243523, 0.08568368852138519, 0.10262735933065414, 0.13493499159812927, 0.14695289731025696, 0.14073117077350616, 0.0853986069560051, 0.07688766717910767, 0.05103543400764465, 0.04359991103410721, 0.04799719899892807, 0.12001680582761765, 0.17504267394542694, 0.20885121822357178, 0.05846273899078369, 0.03705320134758949, 0.04705485329031944, 0.06783560663461685, 0.03892725333571434, 0.06489025056362152, 0.05235394835472107, 0.10404897481203079, 0.11063922196626663, 0.09782068431377411, 0.24096116423606873, 0.3129306137561798, 0.253344863653183, 0.22853322327136993, 0.10127374529838562, 0.10568808019161224, 0.11797212809324265, 0.09577625244855881, 0.07304885238409042, 0.11326409876346588, 0.06817793846130371, 0.13597626984119415, 0.12033465504646301, 0.10221085697412491, 0.11269282549619675, 0.07070821523666382, 0.047762636095285416, 0.07019401341676712, 0.20163045823574066, 0.25621676445007324, 0.14776331186294556, 0.10781504958868027, 0.136057510972023, 0.1792324185371399, 0.16973842680454254, 0.2101692408323288, 0.11621685326099396, 0.22702914476394653, 0.21738481521606445, 0.16039429605007172, 0.09241271764039993, 0.1261162906885147, 0.0988570898771286, 0.09822437912225723]</t>
+          <t>[0.033260222524404526, 0.0849408358335495, 0.0970005989074707, 0.07311587780714035, 0.031120676547288895, 0.043179478496313095, 0.082171730697155, 0.047570616006851196, 0.04009975865483284, 0.026867879554629326, 0.055177394300699234, 0.06669564545154572, 0.15720990300178528, 0.17094838619232178, 0.08042474091053009, 0.0541917085647583, 0.06280291825532913, 0.0616036057472229, 0.021936291828751564, 0.016025694087147713, 0.02605915442109108, 0.08464598655700684, 0.02500462345778942, 0.02005533128976822, 0.01341657992452383, 0.009030744433403015, 0.011580031365156174, 0.019093576818704605, 0.01872636377811432, 0.012881185859441757, 0.012093821540474892, 0.009747282601892948, 0.028287531808018684, 0.020138805732131004, 0.034142546355724335, 0.023242617025971413, 0.017254918813705444, 0.02107999473810196, 0.011555175296962261, 0.012812990695238113, 0.023349318653345108, 0.02481539361178875, 0.02624032460153103, 0.03510086238384247, 0.026855219155550003, 0.02373315580189228, 0.020696206018328667, 0.030123669654130936, 0.02081216685473919, 0.02635912224650383, 0.024284224957227707, 0.026810452342033386, 0.018845491111278534, 0.022611958906054497, 0.026569433510303497, 0.031190533190965652, 0.043755609542131424, 0.028656527400016785, 0.028936421498656273, 0.021536484360694885, 0.013191978447139263, 0.04861888289451599, 0.04287487640976906, 0.028009220957756042, 0.030600396916270256, 0.1108778789639473, 0.16156338155269623, 0.048082493245601654, 0.15475565195083618, 0.055727917701005936, 0.08658715337514877, 0.1355726420879364, 0.050623416900634766, 0.0239472147077322, 0.030049502849578857, 0.1325380653142929, 0.04882136359810829, 0.05967129394412041, 0.07559744268655777, 0.0377822183072567, 0.0265792366117239, 0.017376968637108803, 0.014397823251783848, 0.03693893924355507, 0.042619142681360245, 0.05271672457456589, 0.04915732517838478, 0.043260425329208374, 0.03162800520658493, 0.03368833661079407, 0.02010890655219555, 0.018500613048672676, 0.01649813912808895, 0.03972073271870613, 0.06940552592277527, 0.10132835060358047, 0.01842307485640049, 0.020843710750341415, 0.027995510026812553, 0.02522449940443039, 0.015392296016216278, 0.031275391578674316, 0.027617502957582474, 0.036313965916633606, 0.04994812607765198, 0.04119114205241203, 0.17945297062397003, 0.23324424028396606, 0.20338550209999084, 0.21955150365829468, 0.08130668848752975, 0.11594194918870926, 0.11877358704805374, 0.06957796216011047, 0.040946513414382935, 0.1095442920923233, 0.06381353735923767, 0.15277302265167236, 0.0856974720954895, 0.06350106000900269, 0.08058038353919983, 0.052007678896188736, 0.023197412490844727, 0.062423236668109894, 0.12714803218841553, 0.34464189410209656, 0.11147870123386383, 0.06515230238437653, 0.077823705971241, 0.11849548667669296, 0.10196041315793991, 0.10494834184646606, 0.04642833024263382, 0.10615680366754532, 0.10429731011390686, 0.05429060012102127, 0.0173814557492733, 0.0431995689868927, 0.03537867218255997, 0.03472946956753731]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3129306137561798</v>
+        <v>0.3446418941020966</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.7858401999983471</v>
+        <v>0.8091799999965588</v>
       </c>
       <c r="J43" t="n">
-        <v>0.00561314428570248</v>
+        <v>0.005779857142832563</v>
       </c>
     </row>
     <row r="44">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.054810501635074615, 0.03842496499419212, 0.04966515302658081, 0.07198524475097656, 0.09017840027809143, 0.12449979037046432, 0.07612109184265137, 0.08720017224550247, 0.1323225498199463, 0.08355427533388138, 0.05888102576136589, 0.039290107786655426, 0.04135311022400856, 0.0653512179851532, 0.06801502406597137, 0.045122839510440826, 0.09486749768257141, 0.09658192098140717, 0.07893884181976318, 0.0824272558093071, 0.07008904963731766, 0.06909006088972092, 0.06744462251663208, 0.07175632566213608, 0.08635979890823364, 0.05404088273644447, 0.06826017051935196, 0.062164630740880966, 0.04117289558053017, 0.041477542370557785, 0.07298584282398224, 0.04451163485646248, 0.06106178089976311, 0.05829601734876633, 0.06140926480293274, 0.059357669204473495, 0.07500339299440384, 0.044345512986183167, 0.050986047834157944, 0.03681406378746033, 0.03795117512345314, 0.0947878509759903, 0.1410653293132782, 0.09222923219203949, 0.060241080820560455, 0.06422659009695053, 0.04307680204510689, 0.09657638520002365, 0.05779682844877243, 0.046754371374845505, 0.05694882571697235, 0.03895604610443115, 0.06241726502776146, 0.04636380076408386, 0.061599813401699066, 0.047610558569431305, 0.07840346544981003, 0.07499216496944427, 0.07020583003759384, 0.13040407001972198, 0.07338766753673553, 0.052819665521383286, 0.09124636650085449, 0.06201789900660515, 0.09189710021018982, 0.08024387806653976, 0.05051100254058838, 0.040203776210546494, 0.03207667917013168, 0.0438774973154068, 0.05632263422012329, 0.048220690339803696, 0.06233377009630203, 0.05439687892794609, 0.06996958702802658, 0.07793779671192169, 0.10826227068901062, 0.0676257386803627, 0.06024015694856644, 0.07255252450704575, 0.06677661836147308, 0.09039076417684555, 0.05806365981698036, 0.050202369689941406, 0.04618753120303154, 0.07724940776824951, 0.04444873332977295, 0.04794924333691597, 0.05537344887852669, 0.08194576948881149, 0.12607711553573608, 0.10654142498970032, 0.12805978953838348, 0.1542251855134964, 0.14672376215457916, 0.10766442865133286, 0.07953108847141266, 0.03846350312232971, 0.05267365276813507, 0.0809890627861023, 0.06514104455709457, 0.06565961986780167, 0.10037969797849655, 0.10945027321577072, 0.08087388426065445, 0.10374724864959717, 0.07494370639324188, 0.10665617138147354, 0.09156988561153412, 0.07235173135995865, 0.0736214742064476, 0.0476461723446846, 0.10914760828018188, 0.1153118759393692, 0.12296277284622192, 0.10532661527395248, 0.08317385613918304, 0.06581778079271317, 0.07741929590702057, 0.12413811683654785, 0.08781498670578003, 0.06405293941497803, 0.13639816641807556, 0.10123367607593536, 0.16822631657123566, 0.15098929405212402, 0.16109539568424225, 0.1377866268157959, 0.12596815824508667, 0.05872561037540436, 0.08682655543088913, 0.08870736509561539, 0.09684275835752487, 0.10366921871900558, 0.1270177811384201, 0.07752183824777603, 0.09696491807699203, 0.05637820065021515, 0.08893033862113953, 0.12553751468658447, 0.07811227440834045, 0.0818343386054039, 0.08233968913555145, 0.04953358694911003, 0.04540785774588585, 0.05732157826423645, 0.05066303163766861, 0.050567977130413055]</t>
+          <t>[0.0216058362275362, 0.010620832443237305, 0.015338447876274586, 0.03290871903300285, 0.030865008011460304, 0.027751600369811058, 0.018557293340563774, 0.034676216542720795, 0.03357710689306259, 0.02195071056485176, 0.022215010598301888, 0.016901295632123947, 0.017777075991034508, 0.01772199012339115, 0.0170801542699337, 0.00750148668885231, 0.020068243145942688, 0.0263533815741539, 0.017362138256430626, 0.017775170505046844, 0.020237311720848083, 0.02597080171108246, 0.02172345295548439, 0.013797285035252571, 0.01930500753223896, 0.017672834917902946, 0.02206765115261078, 0.01931230165064335, 0.01084219291806221, 0.007919413037598133, 0.01783466525375843, 0.012881367467343807, 0.02149488590657711, 0.017500560730695724, 0.02072044648230076, 0.012813611887395382, 0.021906724199652672, 0.012269490398466587, 0.010177696123719215, 0.00760623998939991, 0.008178729563951492, 0.022826777771115303, 0.025874383747577667, 0.020694637671113014, 0.015212861821055412, 0.014238198287785053, 0.007755397818982601, 0.013310573995113373, 0.008883086033165455, 0.008972300216555595, 0.012985088862478733, 0.009104077704250813, 0.017584066838026047, 0.01447203103452921, 0.014461743645370007, 0.012026043608784676, 0.019744081422686577, 0.01800587587058544, 0.010906416922807693, 0.02264144830405712, 0.013720197603106499, 0.008051111362874508, 0.014988417737185955, 0.00915139727294445, 0.015298450365662575, 0.017349256202578545, 0.011076610535383224, 0.005315419286489487, 0.004871001001447439, 0.007179951295256615, 0.01773657277226448, 0.011652862653136253, 0.011496932245790958, 0.00997147522866726, 0.011726190336048603, 0.021482111886143684, 0.01837049424648285, 0.016891902312636375, 0.016039958223700523, 0.011597754433751106, 0.01114528626203537, 0.027791064232587814, 0.013909924775362015, 0.01284378208220005, 0.012008130550384521, 0.01162160187959671, 0.007425510790199041, 0.008996313437819481, 0.014380024746060371, 0.020033683627843857, 0.013832873664796352, 0.016245735809206963, 0.027442211285233498, 0.031594570726156235, 0.026853425428271294, 0.011556907556951046, 0.011358034797012806, 0.008216549642384052, 0.009021175093948841, 0.014388887211680412, 0.010786393657326698, 0.015407863073050976, 0.030780937522649765, 0.04282696545124054, 0.0174871776252985, 0.01676357164978981, 0.017683451995253563, 0.022142520174384117, 0.016734499484300613, 0.014931592158973217, 0.013253048993647099, 0.010257751680910587, 0.024223722517490387, 0.029192134737968445, 0.03703053295612335, 0.023850789293646812, 0.016248129308223724, 0.015393105335533619, 0.021472640335559845, 0.02091997116804123, 0.01669665426015854, 0.013377592898905277, 0.02165588177740574, 0.02103225514292717, 0.030536849051713943, 0.032344475388526917, 0.04126046597957611, 0.03425664082169533, 0.0329943411052227, 0.01738767698407173, 0.028266845270991325, 0.02042562887072563, 0.020174391567707062, 0.0197051502764225, 0.0265992172062397, 0.016298335045576096, 0.019023483619093895, 0.015887338668107986, 0.017389070242643356, 0.022465743124485016, 0.022278187796473503, 0.020041150972247124, 0.019279178231954575, 0.015016526915133, 0.01223499234765768, 0.01496156957000494, 0.01507289707660675, 0.015095609240233898]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1682263165712357</v>
+        <v>0.04282696545124054</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.8098182999819983</v>
+        <v>0.8177235000039218</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005471745270148637</v>
+        <v>0.005525158783810283</v>
       </c>
     </row>
     <row r="45">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.16270020604133606, 0.10657451301813126, 0.09106595814228058, 0.0709703117609024, 0.10645957291126251, 0.06038516387343407, 0.057054657489061356, 0.03446665406227112, 0.07627449929714203, 0.1308269500732422, 0.12233126908540726, 0.12747091054916382, 0.1345127373933792, 0.20645210146903992, 0.2615860104560852, 0.2120942920446396, 0.23839806020259857, 0.18908515572547913, 0.4307610094547272, 0.2237998992204666, 0.17061194777488708, 0.2542003393173218, 0.19580590724945068, 0.16712698340415955, 0.09769958257675171, 0.07536134868860245, 0.06313270330429077, 0.06773128360509872, 0.07489915937185287, 0.06809482723474503, 0.08839482814073563, 0.043599266558885574, 0.0487259142100811, 0.03560299798846245, 0.0433768555521965, 0.02763335220515728, 0.0332857221364975, 0.04745849594473839, 0.04131922870874405, 0.03426780551671982, 0.03442070633172989, 0.05387122929096222, 0.04062655195593834, 0.03548736125230789, 0.04623069241642952, 0.039452340453863144, 0.04579420015215874, 0.03318551927804947, 0.028028836473822594, 0.045563697814941406, 0.051021479070186615, 0.08856958150863647, 0.046970434486866, 0.08157012611627579, 0.06640537083148956, 0.07478455454111099, 0.0685754045844078, 0.09335862100124359, 0.2171890139579773, 0.29644307494163513, 0.47222083806991577, 0.49921780824661255, 0.3959466218948364, 0.23600231111049652, 0.16426150500774384, 0.3526569902896881, 0.23376427590847015, 0.14385715126991272, 0.2604857087135315, 0.18999694287776947, 0.11781629174947739, 0.11937209963798523, 0.08663419634103775, 0.08062101900577545, 0.049387428909540176, 0.08905794471502304, 0.052207477390766144, 0.06244880333542824, 0.04400388523936272, 0.06577560305595398, 0.07586455345153809, 0.09295286238193512, 0.13885541260242462, 0.09906052052974701, 0.054007891565561295, 0.10830996930599213, 0.07180637866258621, 0.06743406504392624, 0.04939275234937668, 0.04288958013057709, 0.05250011011958122, 0.05927690118551254, 0.04393211007118225, 0.040351755917072296, 0.04751530662178993, 0.04303586855530739, 0.0379771962761879, 0.040565840899944305, 0.045593395829200745, 0.062208980321884155, 0.0700572207570076, 0.07608247548341751, 0.05465381219983101, 0.0728456899523735, 0.06882452964782715, 0.14093753695487976, 0.08533372730016708, 0.08649404346942902, 0.09600543975830078, 0.11627250909805298, 0.08910892903804779, 0.09233905375003815, 0.0634937658905983, 0.06921118497848511, 0.03546930477023125, 0.04194595664739609, 0.03790204972028732, 0.062483642250299454, 0.0641171932220459, 0.06383025646209717, 0.06608955562114716, 0.07037849724292755, 0.08283302932977676, 0.09542930871248245, 0.07086751610040665, 0.06416662782430649, 0.043209485709667206, 0.044949814677238464, 0.04435515031218529, 0.06216111779212952, 0.05824984237551689, 0.055457815527915955, 0.06303470581769943, 0.08395028859376907, 0.08938530087471008, 0.07410391420125961, 0.06457430869340897, 0.06432879716157913, 0.09304766356945038, 0.07911822944879532, 0.07401538640260696, 0.06825362890958786, 0.07047031074762344, 0.0797521322965622, 0.06200949847698212, 0.08974891901016235, 0.13423362374305725, 0.10937883704900742, 0.10901149362325668]</t>
+          <t>[0.017159152776002884, 0.010455983690917492, 0.009749505668878555, 0.008003391325473785, 0.01288655772805214, 0.009955590590834618, 0.010838040150702, 0.006739701610058546, 0.011586959473788738, 0.027168337255716324, 0.02794438600540161, 0.02755785919725895, 0.03852948546409607, 0.033928122371435165, 0.06009399890899658, 0.049932658672332764, 0.06173985078930855, 0.06733179092407227, 0.16118519008159637, 0.05964403599500656, 0.05681225284934044, 0.1692013144493103, 0.0954781174659729, 0.039661552757024765, 0.038211118429899216, 0.023669937625527382, 0.027066200971603394, 0.02520010992884636, 0.025354396551847458, 0.03140099346637726, 0.03023884817957878, 0.018893802538514137, 0.017034519463777542, 0.009531921707093716, 0.01181280892342329, 0.006802942603826523, 0.011304567568004131, 0.01572762243449688, 0.01096721924841404, 0.011103489436209202, 0.011808880604803562, 0.01861829310655594, 0.013087810948491096, 0.014459053054451942, 0.017375264316797256, 0.014677157625555992, 0.017406219616532326, 0.00978809967637062, 0.008522836491465569, 0.01219454687088728, 0.013592783361673355, 0.03390975669026375, 0.020005621016025543, 0.03420189023017883, 0.018864944577217102, 0.019343748688697815, 0.022109318524599075, 0.0279470793902874, 0.21118630468845367, 0.30055397748947144, 0.35259732604026794, 0.4305311441421509, 0.23784612119197845, 0.0983658954501152, 0.11528320610523224, 0.20558206737041473, 0.13321924209594727, 0.10379006713628769, 0.2678900361061096, 0.13820406794548035, 0.05450878292322159, 0.054144877940416336, 0.03567306324839592, 0.03149041160941124, 0.013524175621569157, 0.02763001061975956, 0.021638069301843643, 0.025905178859829903, 0.012351843528449535, 0.019623350352048874, 0.024055205285549164, 0.03543764725327492, 0.07396653294563293, 0.046698905527591705, 0.025148382410407066, 0.043276067823171616, 0.023892126977443695, 0.024560850113630295, 0.01690090075135231, 0.01509000826627016, 0.016438782215118408, 0.01828429475426674, 0.01449925359338522, 0.012938706204295158, 0.01578042097389698, 0.014067172072827816, 0.015490357764065266, 0.02015296369791031, 0.021061573177576065, 0.024978213012218475, 0.017687760293483734, 0.019899500533938408, 0.018279120326042175, 0.02195914462208748, 0.026752129197120667, 0.061365172266960144, 0.038822073489427567, 0.03471401706337929, 0.039318639785051346, 0.047144439071416855, 0.026538198813796043, 0.03465680032968521, 0.035561803728342056, 0.027695875614881516, 0.01292924489825964, 0.016538472846150398, 0.015265312977135181, 0.032733120024204254, 0.018886981531977654, 0.021134063601493835, 0.022044813260436058, 0.024710627272725105, 0.037290897220373154, 0.030465835705399513, 0.02400054596364498, 0.02460545487701893, 0.01719355769455433, 0.017023423686623573, 0.015569475479424, 0.028089607134461403, 0.018532831221818924, 0.01836288906633854, 0.020335743203759193, 0.025891603901982307, 0.034398119896650314, 0.02753945253789425, 0.02227918989956379, 0.023659532889723778, 0.04367596283555031, 0.022264894098043442, 0.024015044793486595, 0.030865538865327835, 0.034299153834581375, 0.03840520977973938, 0.03246811032295227, 0.04802444204688072, 0.15670809149742126, 0.08867304772138596, 0.0883612185716629]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4992178082466125</v>
+        <v>0.4305311441421509</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.8200204999884591</v>
+        <v>0.825641599993105</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005503493288513148</v>
+        <v>0.005541218791900034</v>
       </c>
     </row>
     <row r="46">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.678805947303772, 0.8699777126312256, 0.7393076419830322, 0.5494903326034546, 0.37385573983192444, 0.23374666273593903, 0.11757742613554001, 0.09169582277536392, 0.07552041858434677, 0.12277652323246002, 0.3818877041339874, 0.7073339223861694, 0.3465610146522522, 0.3244101405143738, 0.4084039330482483, 0.7741743326187134, 0.4237310588359833, 0.6048035025596619, 0.6471052765846252, 0.5548905730247498, 0.7528170943260193, 0.3146410882472992, 0.4120323956012726, 0.5821844339370728, 0.705188512802124, 0.8410637378692627, 0.923231840133667, 0.839694619178772, 0.47463682293891907, 0.2969447672367096, 0.3943033814430237, 0.8147445321083069, 0.7567536234855652, 0.4233342707157135, 0.5283343195915222, 0.4529171586036682, 0.43656519055366516, 0.39416050910949707, 0.34711965918540955, 0.3145619332790375, 0.23868373036384583, 0.5221437811851501, 0.45714694261550903, 0.7133004069328308, 0.8502285480499268, 0.7200648188591003, 0.5182206034660339, 0.5803728699684143, 0.796363353729248, 0.7096532583236694, 0.5162290334701538, 0.7855477333068848, 0.8697865605354309, 0.8943936228752136, 0.7267839908599854, 0.6884869933128357, 0.7204496264457703, 0.8536847829818726, 0.6987804770469666, 0.6549453735351562, 0.6231855154037476, 0.8548796772956848, 0.8325645923614502, 0.8041120767593384, 0.7711789011955261, 0.666481614112854, 0.7085390686988831, 0.9176908135414124, 0.8505470752716064, 0.7964656352996826, 0.5876654982566833, 0.2393883913755417, 0.2162976861000061, 0.19612471759319305, 0.1381314992904663, 0.11969096958637238, 0.10861717164516449, 0.11543100327253342, 0.11785203218460083, 0.13031557202339172, 0.08645788580179214, 0.03662676364183426, 0.13833650946617126, 0.11331871896982193, 0.25000321865081787, 0.2932397723197937, 0.435943067073822, 0.2806175947189331, 0.22047987580299377, 0.19765561819076538, 0.26966434717178345, 0.2604195475578308, 0.3057094216346741, 0.2236078828573227, 0.22676825523376465, 0.21496839821338654, 0.26185595989227295, 0.35119545459747314, 0.3396150469779968, 0.26795223355293274, 0.3272436261177063, 0.4539043605327606, 0.8300089836120605, 0.11379393190145493, 0.1927146017551422, 0.1138773113489151, 0.178705096244812, 0.12155923247337341, 0.15854643285274506, 0.43933549523353577, 0.172824427485466, 0.3698776364326477, 0.10181662440299988, 0.06671307981014252, 0.05119229480624199, 0.14548951387405396, 0.05300183594226837, 0.062031518667936325, 0.2206842303276062, 0.13858041167259216, 0.1827671229839325, 0.270551472902298, 0.2790972888469696, 0.1457638144493103, 0.3954024910926819, 0.7139566540718079, 0.7768543362617493, 0.6670821905136108, 0.439473956823349, 0.3162945508956909, 0.5849499106407166, 0.5198239088058472, 0.4914286732673645, 0.5353885889053345, 0.7316626906394958, 0.5042508244514465, 0.34685176610946655, 0.20623579621315002, 0.24907997250556946, 0.24086259305477142, 0.20497296750545502, 0.27580997347831726, 0.507352888584137, 0.5178859233856201, 0.3807603418827057, 0.7276867032051086, 0.6397009491920471, 0.6395303010940552]</t>
+          <t>[0.5303271412849426, 0.797585129737854, 0.45505428314208984, 0.25570252537727356, 0.13386598229408264, 0.11070748418569565, 0.04476812854409218, 0.04934857040643692, 0.027691591531038284, 0.022771494463086128, 0.222271129488945, 0.7688446640968323, 0.2638970911502838, 0.32613882422447205, 0.2964230477809906, 0.7112637162208557, 0.29992005228996277, 0.34396421909332275, 0.5030006170272827, 0.47875961661338806, 0.660163402557373, 0.1944098174571991, 0.26946011185646057, 0.4329724609851837, 0.5570412874221802, 0.8121356964111328, 0.8751484155654907, 0.7161679863929749, 0.2509833872318268, 0.17998798191547394, 0.22776830196380615, 0.7637615203857422, 0.6046234369277954, 0.1402820497751236, 0.4491678476333618, 0.5518882870674133, 0.3365512490272522, 0.16145887970924377, 0.24373993277549744, 0.18764609098434448, 0.14651744067668915, 0.4288255572319031, 0.3389529585838318, 0.5666913390159607, 0.7543979287147522, 0.6810568571090698, 0.412333607673645, 0.5490902662277222, 0.7754570841789246, 0.6772365570068359, 0.5051759481430054, 0.6529051065444946, 0.6644338965415955, 0.7775283455848694, 0.47144439816474915, 0.3925171196460724, 0.36532092094421387, 0.7496678829193115, 0.45093730092048645, 0.41679126024246216, 0.48236703872680664, 0.7526992559432983, 0.611315906047821, 0.661032497882843, 0.5794842839241028, 0.37542229890823364, 0.38472166657447815, 0.840817391872406, 0.8430108428001404, 0.6983745098114014, 0.34699663519859314, 0.2043084353208542, 0.20834460854530334, 0.1506769061088562, 0.09263341873884201, 0.09607206284999847, 0.05954437330365181, 0.07419763505458832, 0.06670428067445755, 0.06805872172117233, 0.023158853873610497, 0.01836715079843998, 0.05801913142204285, 0.04175470396876335, 0.18216948211193085, 0.08186355233192444, 0.1336524486541748, 0.060364075005054474, 0.06653641164302826, 0.04737580195069313, 0.060756463557481766, 0.08470425754785538, 0.1441151648759842, 0.0659160166978836, 0.13363462686538696, 0.1253594607114792, 0.19719141721725464, 0.17348907887935638, 0.14843447506427765, 0.12415654957294464, 0.20570801198482513, 0.24425271153450012, 0.7764180302619934, 0.045944180339574814, 0.08120610564947128, 0.05172329023480415, 0.15943643450737, 0.0692962110042572, 0.11668825149536133, 0.4653031527996063, 0.1877882331609726, 0.4311663806438446, 0.03282201290130615, 0.014255214482545853, 0.014444580301642418, 0.12477706372737885, 0.028055721893906593, 0.03202606365084648, 0.19908864796161652, 0.09907805919647217, 0.19414769113063812, 0.13752929866313934, 0.1038762629032135, 0.04867996275424957, 0.14120818674564362, 0.4050203263759613, 0.5107137560844421, 0.3983688950538635, 0.24919936060905457, 0.23204965889453888, 0.30310767889022827, 0.23859114944934845, 0.2424279898405075, 0.3440207242965698, 0.6092193722724915, 0.15891344845294952, 0.15581749379634857, 0.1327415406703949, 0.1830964982509613, 0.2542763650417328, 0.2760375738143921, 0.454459547996521, 0.6412531137466431, 0.7308854460716248, 0.39367735385894775, 0.8943071365356445, 0.5841386914253235, 0.5837671756744385]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.923231840133667</v>
+        <v>0.8943071365356445</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.8305039999831934</v>
+        <v>0.8369273999996949</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005611513513399955</v>
+        <v>0.005654914864862803</v>
       </c>
     </row>
     <row r="47">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.658403754234314, 0.814006507396698, 0.6161863207817078, 0.547271192073822, 0.4122081696987152, 0.461803674697876, 0.2400795966386795, 0.3394853472709656, 0.41944363713264465, 0.36161869764328003, 0.33260536193847656, 0.423351913690567, 0.4701126515865326, 0.2518715560436249, 0.1809886395931244, 0.19163614511489868, 0.13326165080070496, 0.27265217900276184, 0.23950757086277008, 0.16769106686115265, 0.5217340588569641, 0.24735964834690094, 0.14449542760849, 0.20831099152565002, 0.20763389766216278, 0.21411903202533722, 0.12176229804754257, 0.3158821165561676, 0.4290318191051483, 0.3531773090362549, 0.35354316234588623, 0.5199408531188965, 0.31977012753486633, 0.4552002251148224, 0.5376089811325073, 0.5426821112632751, 0.3170211613178253, 0.4011515974998474, 0.24955692887306213, 0.1671365350484848, 0.16513191163539886, 0.32896891236305237, 0.2090664952993393, 0.1764041632413864, 0.15416201949119568, 0.2520886957645416, 0.3556825816631317, 0.6053493618965149, 0.3723810613155365, 0.19227604568004608, 0.21500711143016815, 0.43219903111457825, 0.210520938038826, 0.22119057178497314, 0.26790785789489746, 0.17808693647384644, 0.15429431200027466, 0.21872185170650482, 0.5964746475219727, 0.5564950704574585, 0.29437923431396484, 0.33949777483940125, 0.3799097239971161, 0.4423697292804718, 0.4085524380207062, 0.33536139130592346, 0.27034541964530945, 0.3397127389907837, 0.3185841143131256, 0.34586918354034424, 0.4678221642971039, 0.3854241669178009, 0.5049301385879517, 0.5426897406578064, 0.5875228643417358, 0.44415128231048584, 0.4252278208732605, 0.39187827706336975, 0.47792303562164307, 0.5443436503410339, 0.6228098273277283, 0.5923060774803162, 0.634178638458252, 0.652367353439331, 0.42889365553855896, 0.35599565505981445, 0.4007700979709625, 0.5769339203834534, 0.2414088249206543, 0.12671178579330444, 0.11516528576612473, 0.12427137792110443, 0.13199713826179504, 0.37111371755599976, 0.47732073068618774, 0.452728271484375, 0.3348623216152191, 0.21762999892234802, 0.24926793575286865, 0.27377358078956604, 0.1832861602306366, 0.3634909689426422, 0.3748408257961273, 0.3344481587409973, 0.3432842195034027, 0.4307408034801483, 0.3563358187675476, 0.4464154541492462, 0.2725174129009247, 0.21143196523189545, 0.2757618725299835, 0.23080408573150635, 0.2910478115081787, 0.22688110172748566, 0.3401302099227905, 0.4721483290195465, 0.3823961019515991, 0.3214055895805359, 0.17719189822673798, 0.2195577472448349, 0.20469601452350616, 0.28550198674201965, 0.3221069872379303, 0.3691771924495697, 0.45246458053588867, 0.4331904351711273, 0.5161386132240295, 0.5649965405464172, 0.46898722648620605, 0.4328671991825104, 0.41689398884773254, 0.4394105076789856, 0.5878577828407288, 0.41570591926574707, 0.5336154699325562, 0.7018653154373169, 0.787699282169342, 0.7813873291015625, 0.6929340362548828, 0.6193329691886902, 0.7419870495796204, 0.7647779583930969, 0.8762609362602234, 0.8639343976974487, 0.6198869943618774, 0.7020027041435242, 0.7486088275909424, 0.6042523384094238, 0.3908643126487732, 0.42886194586753845, 0.4861362874507904, 0.5280284285545349, 0.7906820774078369, 0.6808181405067444, 0.5243430137634277, 0.7927860021591187, 0.6145387887954712, 0.6149970889091492]</t>
+          <t>[0.4627091884613037, 0.5772000551223755, 0.4451530873775482, 0.3603205680847168, 0.3732525408267975, 0.4512750506401062, 0.21599489450454712, 0.23773489892482758, 0.21175572276115417, 0.1696082502603531, 0.2399049550294876, 0.3175196945667267, 0.325937420129776, 0.09817540645599365, 0.07441982626914978, 0.08482953161001205, 0.05090692639350891, 0.203644260764122, 0.1198524758219719, 0.07742548733949661, 0.3180740475654602, 0.11844857037067413, 0.05119505152106285, 0.05468340218067169, 0.050671543926000595, 0.050594449043273926, 0.03576553612947464, 0.1767466515302658, 0.3464661240577698, 0.3092842996120453, 0.3141726851463318, 0.49830225110054016, 0.23713897168636322, 0.4566076993942261, 0.6612504124641418, 0.5800650715827942, 0.26867327094078064, 0.4027044177055359, 0.08831262588500977, 0.052944354712963104, 0.04533876106142998, 0.11980316787958145, 0.05773833021521568, 0.06210301071405411, 0.061292100697755814, 0.11345256119966507, 0.2863195240497589, 0.37309208512306213, 0.09187600761651993, 0.0548863410949707, 0.05699465796351433, 0.1462923139333725, 0.07447123527526855, 0.08488862961530685, 0.08809246867895126, 0.051981743425130844, 0.042996522039175034, 0.09891411662101746, 0.3105921149253845, 0.35914257168769836, 0.247994527220726, 0.3045484125614166, 0.22792549431324005, 0.1822729855775833, 0.15963642299175262, 0.13427598774433136, 0.1282159835100174, 0.1807039976119995, 0.1635577380657196, 0.13409948348999023, 0.20010586082935333, 0.1410420686006546, 0.20606905221939087, 0.2613597512245178, 0.4280969798564911, 0.2528522312641144, 0.19187361001968384, 0.17176608741283417, 0.177244171500206, 0.274257093667984, 0.3566393256187439, 0.34058481454849243, 0.5370010137557983, 0.34521085023880005, 0.17788094282150269, 0.124630868434906, 0.11163925379514694, 0.2621632218360901, 0.058764807879924774, 0.028055613860487938, 0.024265766143798828, 0.027095826342701912, 0.023426750674843788, 0.07819008827209473, 0.15726469457149506, 0.17424152791500092, 0.12089263647794724, 0.05539847910404205, 0.06696077436208725, 0.08122962713241577, 0.03558603301644325, 0.0951036587357521, 0.18122342228889465, 0.1282573640346527, 0.1268412172794342, 0.13138270378112793, 0.06272108107805252, 0.14011988043785095, 0.08462613075971603, 0.05452646687626839, 0.063357412815094, 0.08593682944774628, 0.13372847437858582, 0.08890794962644577, 0.11443784087896347, 0.19237539172172546, 0.23576857149600983, 0.18965674936771393, 0.059235334396362305, 0.09763891249895096, 0.08341757953166962, 0.11611335724592209, 0.1698744148015976, 0.14981169998645782, 0.13203302025794983, 0.14643825590610504, 0.2644672393798828, 0.3066154718399048, 0.299261212348938, 0.2585960924625397, 0.2750893235206604, 0.21872325241565704, 0.28300413489341736, 0.11215167492628098, 0.22683395445346832, 0.5078678131103516, 0.5268176198005676, 0.5323758125305176, 0.35047391057014465, 0.18969514966011047, 0.33239978551864624, 0.45351526141166687, 0.7320539951324463, 0.8578832745552063, 0.4787568747997284, 0.5505236983299255, 0.4367304742336273, 0.1913057118654251, 0.09782127290964127, 0.104665108025074, 0.14233215153217316, 0.2974194884300232, 0.49964195489883423, 0.38939037919044495, 0.2508166432380676, 0.5412846207618713, 0.29438072443008423, 0.2964152693748474]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.8762609362602234</v>
+        <v>0.8578832745552063</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.8841463999997359</v>
+        <v>0.9127762999996776</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005595863291137568</v>
+        <v>0.005777065189871377</v>
       </c>
     </row>
     <row r="48">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0.6737035512924194, 0.669974684715271, 0.6712380051612854, 0.545180082321167, 0.4222217798233032, 0.3567039668560028, 0.5644347071647644, 0.5145880579948425, 0.551763117313385, 0.6083039045333862, 0.7732648849487305, 0.7156407833099365, 0.47591525316238403, 0.47394034266471863, 0.7748832702636719, 0.7136151790618896, 0.6164184212684631, 0.8252542018890381, 0.6873604655265808, 0.6266485452651978, 0.29283714294433594, 0.5759524703025818, 0.7821885347366333, 0.7701147198677063, 0.7871940732002258, 0.70762699842453, 0.5923391580581665, 0.732991099357605, 0.8065796494483948, 0.7103297710418701, 0.7330222129821777, 0.6030353903770447, 0.3714562654495239, 0.4929755926132202, 0.5869123339653015, 0.6154589056968689, 0.6557183861732483, 0.7028720378875732, 0.562160849571228, 0.5867535471916199, 0.36378610134124756, 0.5699055790901184, 0.2867989242076874, 0.21268253028392792, 0.2719504237174988, 0.30658724904060364, 0.2416525036096573, 0.2869183421134949, 0.28074881434440613, 0.24263975024223328, 0.5740811228752136, 0.31690457463264465, 0.6126101613044739, 0.5096827745437622, 0.8919591307640076, 0.548779308795929, 0.5732547044754028, 0.6842067837715149, 0.77181476354599, 0.9052979946136475, 0.8282257914543152, 0.7125715017318726, 0.7912558317184448, 0.7371736764907837, 0.7313455939292908, 0.6412054896354675, 0.583489716053009, 0.25489339232444763, 0.1102885827422142, 0.133098304271698, 0.29489195346832275, 0.3350732624530792, 0.20756904780864716, 0.2443317025899887, 0.1332852989435196, 0.3501701056957245, 0.1489136666059494, 0.3072223663330078, 0.5207454562187195, 0.50861656665802, 0.3152824342250824, 0.362655371427536, 0.4669724106788635, 0.4762117564678192, 0.5885241627693176, 0.25630050897598267, 0.2520142197608948, 0.24784503877162933, 0.21241497993469238, 0.3151116371154785, 0.2135486602783203, 0.13304860889911652, 0.16969509422779083, 0.2873890697956085, 0.2719007134437561, 0.267566055059433, 0.3462255597114563, 0.2715633511543274, 0.4717887341976166, 0.5092734694480896, 0.34264329075813293, 0.2459179162979126, 0.339462548494339, 0.5820870399475098, 0.6812958717346191, 0.48630595207214355, 0.3475833535194397, 0.6237682700157166, 0.46612754464149475, 0.3203134536743164, 0.13870325684547424, 0.12501251697540283, 0.34039726853370667, 0.5300632119178772, 0.43918338418006897, 0.5568138360977173, 0.24528616666793823, 0.5105841159820557, 0.4176461398601532, 0.29576271772384644, 0.21788950264453888, 0.28933608531951904, 0.25768497586250305, 0.33028995990753174, 0.4667433798313141, 0.3748492896556854, 0.204810231924057, 0.18032610416412354, 0.21772268414497375, 0.38137659430503845, 0.5184141993522644, 0.31363576650619507, 0.42276573181152344, 0.40880298614501953, 0.5449704527854919, 0.6274234652519226, 0.46754929423332214, 0.7081519365310669, 0.7422319054603577, 0.7582602500915527, 0.6411324143409729, 0.5737143158912659, 0.6668749451637268, 0.40049782395362854, 0.44863781332969666, 0.6767457723617554, 0.67900151014328, 0.594510018825531, 0.720478355884552, 0.7278411388397217, 0.6066307425498962, 0.5210476517677307, 0.5603394508361816, 0.6225444078445435, 0.3544026017189026, 0.4824230372905731, 0.4720293879508972, 0.47468939423561096]</t>
+          <t>[0.36021265387535095, 0.44020605087280273, 0.3777589499950409, 0.21766440570354462, 0.16728971898555756, 0.14358727633953094, 0.3418617844581604, 0.21886463463306427, 0.36434081196784973, 0.3913779854774475, 0.6328107118606567, 0.4713493287563324, 0.18610121309757233, 0.32646653056144714, 0.7309731245040894, 0.5763665437698364, 0.43242722749710083, 0.6055821180343628, 0.5142954587936401, 0.5644059181213379, 0.1750299632549286, 0.432911217212677, 0.5640652179718018, 0.35671719908714294, 0.4470067322254181, 0.5159485340118408, 0.395358145236969, 0.6006340980529785, 0.7176621556282043, 0.5411182045936584, 0.5813745260238647, 0.4230022728443146, 0.23187817633152008, 0.32836249470710754, 0.6119672060012817, 0.7344982028007507, 0.6266080737113953, 0.6400962471961975, 0.4021824300289154, 0.46064993739128113, 0.14478462934494019, 0.36748576164245605, 0.1425163745880127, 0.10558117926120758, 0.18062183260917664, 0.18806703388690948, 0.09721683710813522, 0.0627017542719841, 0.07561413943767548, 0.07275385409593582, 0.23599131405353546, 0.09728820621967316, 0.37614166736602783, 0.3214458227157593, 0.7934811115264893, 0.2944578528404236, 0.30033954977989197, 0.37563255429267883, 0.35774633288383484, 0.6523104906082153, 0.5426167845726013, 0.33255210518836975, 0.44469860196113586, 0.35682767629623413, 0.4323676526546478, 0.2746172249317169, 0.300387978553772, 0.0746864527463913, 0.03203396126627922, 0.036456070840358734, 0.08402779698371887, 0.1910373419523239, 0.06539198011159897, 0.05840848758816719, 0.03879021108150482, 0.11081095039844513, 0.04716780409216881, 0.16539230942726135, 0.3756626546382904, 0.3872152864933014, 0.2042369246482849, 0.21263886988162994, 0.2707081139087677, 0.21050767600536346, 0.41298264265060425, 0.08568891882896423, 0.06119438633322716, 0.09946116805076599, 0.1490263193845749, 0.21697576344013214, 0.11229050904512405, 0.05938083678483963, 0.051913633942604065, 0.06360147893428802, 0.08342895656824112, 0.08632972091436386, 0.20180343091487885, 0.14237193763256073, 0.2596082091331482, 0.2742024064064026, 0.12161030620336533, 0.12301812320947647, 0.1866593360900879, 0.3936024308204651, 0.6278746724128723, 0.24883542954921722, 0.12682950496673584, 0.5179752111434937, 0.2922710180282593, 0.13174310326576233, 0.05049440264701843, 0.030798044055700302, 0.09920253604650497, 0.3498310446739197, 0.1817854940891266, 0.19490499794483185, 0.05503056198358536, 0.12399184703826904, 0.13223779201507568, 0.07769747823476791, 0.05848647281527519, 0.12946800887584686, 0.07289426028728485, 0.09840823709964752, 0.17345315217971802, 0.058780815452337265, 0.03218557685613632, 0.037366535514593124, 0.0466877818107605, 0.0946236401796341, 0.18094108998775482, 0.05537563934922218, 0.11074645817279816, 0.09197983890771866, 0.15993015468120575, 0.3257247507572174, 0.13351555168628693, 0.27941393852233887, 0.3360409438610077, 0.3477495312690735, 0.2177349328994751, 0.21882401406764984, 0.2385861724615097, 0.07254619151353836, 0.09957624971866608, 0.2894982695579529, 0.21039794385433197, 0.219407856464386, 0.42614635825157166, 0.509808361530304, 0.3577989339828491, 0.31456616520881653, 0.25027576088905334, 0.36554858088493347, 0.09152213484048843, 0.1647309809923172, 0.15314102172851562, 0.1540725976228714]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.9052979946136475</v>
+        <v>0.7934811115264893</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.8985743999946862</v>
+        <v>0.888485400006175</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005687179746801812</v>
+        <v>0.005623325316494779</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.2568121552467346, 0.22731657326221466, 0.55254065990448, 0.6089392304420471, 0.5813588500022888, 0.36269378662109375, 0.2112886756658554, 0.23498393595218658, 0.109664186835289, 0.16066382825374603, 0.15811307728290558, 0.15989728271961212, 0.222610205411911, 0.27458322048187256, 0.4360441267490387, 0.37674322724342346, 0.46585583686828613, 0.2505829632282257, 0.3600608706474304, 0.26250791549682617, 0.2656742334365845, 0.15189912915229797, 0.157256081700325, 0.2431706190109253, 0.30642038583755493, 0.3189464211463928, 0.2833089232444763, 0.45350703597068787, 0.527418315410614, 0.42481112480163574, 0.31689080595970154, 0.28198546171188354, 0.5150308609008789, 0.4797096848487854, 0.431018590927124, 0.28244003653526306, 0.36812493205070496, 0.3115061819553375, 0.4479357600212097, 0.39786607027053833, 0.3564426898956299, 0.3168203830718994, 0.17313198745250702, 0.434141606092453, 0.6303479671478271, 0.6178100109100342, 0.530581533908844, 0.5450732707977295, 0.41892969608306885, 0.36443108320236206, 0.3384149670600891, 0.35103097558021545, 0.4468156099319458, 0.6358644366264343, 0.48690488934516907, 0.420518696308136, 0.3161088824272156, 0.22895416617393494, 0.2295534461736679, 0.1960473656654358, 0.20285789668560028, 0.4765317738056183, 0.4386085867881775, 0.5597508549690247, 0.4560512900352478, 0.30195993185043335, 0.2803650498390198, 0.2241862714290619, 0.292567640542984, 0.35550928115844727, 0.5226572155952454, 0.47434723377227783, 0.5004658699035645, 0.4797590970993042, 0.41379207372665405, 0.34612083435058594, 0.42342036962509155, 0.6082336902618408, 0.668999195098877, 0.49289485812187195, 0.7258853912353516, 0.6071208119392395, 0.6578711867332458, 0.8487706780433655, 0.7284853458404541, 0.8512226939201355, 0.806975245475769, 0.8333005309104919, 0.6608336567878723, 0.7760536670684814, 0.7284899950027466, 0.6903442740440369, 0.8332223296165466, 0.7959951162338257, 0.8287796974182129, 0.7733762264251709, 0.5974283218383789, 0.5468935966491699, 0.8184600472450256, 0.8500356078147888, 0.8785836100578308, 0.590363085269928, 0.5932046175003052, 0.7867357730865479, 0.8288304805755615, 0.7798149585723877, 0.7604126930236816, 0.732256293296814, 0.8076209425926208, 0.6569962501525879, 0.5489667057991028, 0.38270795345306396, 0.4816972613334656, 0.4056677520275116, 0.28809335827827454, 0.2680693566799164, 0.1812625527381897, 0.2747069001197815, 0.2605096697807312, 0.24616651237010956, 0.24297846853733063, 0.4414178133010864, 0.5214495658874512, 0.44138404726982117, 0.6616088151931763, 0.8066563606262207, 0.5276461839675903, 0.46581605076789856, 0.4450916349887848, 0.40365907549858093, 0.38967812061309814, 0.2636738419532776, 0.35010191798210144, 0.401950478553772, 0.24653135240077972, 0.3104456961154938, 0.45462387800216675, 0.6338998675346375, 0.3384596109390259, 0.6878429651260376, 0.7337821125984192, 0.7518141865730286, 0.3862684965133667, 0.2292926162481308, 0.4843311905860901, 0.5466430187225342, 0.3336402475833893, 0.36058589816093445, 0.5028733015060425, 0.40726542472839355, 0.6292139291763306, 0.7840997576713562, 0.6868157386779785, 0.7412734031677246, 0.5461546182632446, 0.4719136655330658, 0.7050139307975769, 0.7057883739471436]</t>
+          <t>[0.23744532465934753, 0.19645439088344574, 0.5940828323364258, 0.6683074831962585, 0.6548539400100708, 0.32932448387145996, 0.19622915983200073, 0.18518266081809998, 0.08028195798397064, 0.13467761874198914, 0.10380160063505173, 0.09662535041570663, 0.16400468349456787, 0.21117381751537323, 0.3793472647666931, 0.34394440054893494, 0.33187800645828247, 0.1820167452096939, 0.25705447793006897, 0.151996910572052, 0.14182788133621216, 0.08078324794769287, 0.12060835212469101, 0.2098117172718048, 0.24874582886695862, 0.3549105226993561, 0.3130325675010681, 0.5227816104888916, 0.5068184733390808, 0.40941911935806274, 0.3930360674858093, 0.26870623230934143, 0.46920937299728394, 0.35394346714019775, 0.29083916544914246, 0.3007195293903351, 0.3616843521595001, 0.26200708746910095, 0.40619024634361267, 0.511941134929657, 0.3472323715686798, 0.2023714929819107, 0.09211315214633942, 0.30242687463760376, 0.6013588905334473, 0.6015065312385559, 0.5599359273910522, 0.6097989678382874, 0.5106852650642395, 0.4881659150123596, 0.3322802484035492, 0.3103788495063782, 0.4199267625808716, 0.6950695514678955, 0.38646402955055237, 0.3758513331413269, 0.21170209348201752, 0.12714776396751404, 0.1709999442100525, 0.11335282027721405, 0.10224074870347977, 0.3248238265514374, 0.4389115869998932, 0.6941601037979126, 0.46615901589393616, 0.30049023032188416, 0.2269153594970703, 0.24180543422698975, 0.36550694704055786, 0.2663343548774719, 0.42538031935691833, 0.47963494062423706, 0.38619258999824524, 0.4834986925125122, 0.42531290650367737, 0.30723321437835693, 0.3488209843635559, 0.5456159114837646, 0.49283236265182495, 0.34669366478919983, 0.7082445621490479, 0.5933170914649963, 0.6984471082687378, 0.9120475053787231, 0.8370126485824585, 0.8809077739715576, 0.8352433443069458, 0.8327513337135315, 0.5506925582885742, 0.8007424473762512, 0.6863090991973877, 0.6614616513252258, 0.8720359206199646, 0.8769291639328003, 0.9410834312438965, 0.8550379276275635, 0.5921330451965332, 0.5304442048072815, 0.8200559616088867, 0.8273316025733948, 0.8931065797805786, 0.37575802206993103, 0.3738454282283783, 0.7171236872673035, 0.8602253794670105, 0.8469650745391846, 0.8535683155059814, 0.6848269104957581, 0.7832757830619812, 0.578444242477417, 0.49973347783088684, 0.40069225430488586, 0.5921656489372253, 0.2580573856830597, 0.19428028166294098, 0.25494709610939026, 0.12009645253419876, 0.1731252372264862, 0.16479277610778809, 0.24543215334415436, 0.19756121933460236, 0.33826860785484314, 0.5120186805725098, 0.3226938545703888, 0.7286809682846069, 0.8665968179702759, 0.4336390495300293, 0.24545753002166748, 0.21873614192008972, 0.14336127042770386, 0.30872249603271484, 0.17671892046928406, 0.28838056325912476, 0.27566128969192505, 0.11259578168392181, 0.21761347353458405, 0.31013426184654236, 0.6035646796226501, 0.13625837862491608, 0.42928245663642883, 0.797274649143219, 0.8908926844596863, 0.2297590672969818, 0.10401253402233124, 0.39467406272888184, 0.37809205055236816, 0.31369853019714355, 0.3185983896255493, 0.48340904712677, 0.27930349111557007, 0.5084614753723145, 0.8127509355545044, 0.6280587911605835, 0.6460105180740356, 0.2896560728549957, 0.21595244109630585, 0.2627605199813843, 0.2638283669948578]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.8785836100578308</v>
+        <v>0.9410834312438965</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.8912161999905948</v>
+        <v>0.9334986000030767</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005640608860699967</v>
+        <v>0.005908218987361245</v>
       </c>
     </row>
     <row r="50">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[0.7441758513450623, 0.7396351099014282, 0.7680525183677673, 0.7920005321502686, 0.745177149772644, 0.7988210916519165, 0.7155119180679321, 0.8974791765213013, 0.8286857008934021, 0.6209891438484192, 0.6093058586120605, 0.6115554571151733, 0.8441065549850464, 0.6801175475120544, 0.8803662657737732, 0.8525335788726807, 0.9334155917167664, 0.7852700352668762, 0.5749651193618774, 0.7004648447036743, 0.5401372313499451, 0.33060309290885925, 0.42953628301620483, 0.5141302347183228, 0.6643922328948975, 0.8381832838058472, 0.7861886620521545, 0.8711062669754028, 0.8867658376693726, 0.9102687239646912, 0.7973908185958862, 0.8140305280685425, 0.8997979760169983, 0.8411492109298706, 0.825350284576416, 0.7726532220840454, 0.8740477561950684, 0.8951966762542725, 0.9669206142425537, 0.9508086442947388, 0.914402425289154, 0.8634167313575745, 0.5863149762153625, 0.8530707359313965, 0.935569703578949, 0.9198198318481445, 0.72821444272995, 0.3979675769805908, 0.3245430886745453, 0.6058526635169983, 0.6100423336029053, 0.9092798829078674, 0.9486560821533203, 0.9593832492828369, 0.9671682119369507, 0.9436901211738586, 0.9260317087173462, 0.9167507886886597, 0.9661929607391357, 0.8485294580459595, 0.8792409300804138, 0.9370993375778198, 0.9168505072593689, 0.9668068885803223, 0.9762064218521118, 0.9533074498176575, 0.8991691470146179, 0.9226329922676086, 0.8061028122901917, 0.896416962146759, 0.8515924215316772, 0.9251782894134521, 0.833436131477356, 0.822952151298523, 0.6740265488624573, 0.634976863861084, 0.5365058183670044, 0.8915361166000366, 0.8778185844421387, 0.9232314825057983, 0.857382595539093, 0.6269230842590332, 0.8350276350975037, 0.8812569975852966, 0.7661310434341431, 0.7932394742965698, 0.9429743885993958, 0.938355028629303, 0.8405967354774475, 0.8905198574066162, 0.8402600288391113, 0.9521965384483337, 0.8452879190444946, 0.890382707118988, 0.9059011340141296, 0.9092985987663269, 0.8675756454467773, 0.9776925444602966, 0.9746140241622925, 0.9288713932037354, 0.9043732285499573, 0.9734179377555847, 0.9677178263664246, 0.9489076137542725, 0.8513379096984863, 0.9613490700721741, 0.9657996296882629, 0.9379837512969971, 0.9635841250419617, 0.978103756904602, 0.9873758554458618, 0.9820965528488159, 0.9752206206321716, 0.9451103806495667, 0.9902073740959167, 0.9742370843887329, 0.9300787448883057, 0.9510711431503296, 0.9607965350151062, 0.9717051386833191, 0.9828618764877319, 0.9625521302223206, 0.9869360327720642, 0.9863183498382568, 0.9253819584846497, 0.935484766960144, 0.8961837887763977, 0.7621574401855469, 0.7977946400642395, 0.6302504539489746, 0.7987711429595947, 0.7765741348266602, 0.7393826842308044, 0.6466839909553528, 0.3263450860977173, 0.23927687108516693, 0.5170559287071228, 0.705146312713623, 0.3755098283290863, 0.20980137586593628, 0.12998098134994507, 0.2025151550769806, 0.2605050206184387, 0.32440078258514404, 0.22074377536773682, 0.32170015573501587, 0.4540155827999115, 0.5691965222358704, 0.6984724402427673, 0.3815159201622009, 0.16291393339633942, 0.24738959968090057, 0.134243905544281, 0.15183645486831665, 0.13609150052070618, 0.3908615708351135, 0.19530561566352844, 0.19649755954742432]</t>
+          <t>[0.6620196104049683, 0.6619980931282043, 0.6657708287239075, 0.6074883341789246, 0.3150225281715393, 0.5064236521720886, 0.3784937858581543, 0.7615845203399658, 0.5640038251876831, 0.41724973917007446, 0.22262327373027802, 0.24834290146827698, 0.8252182006835938, 0.38582831621170044, 0.8021871447563171, 0.7401229739189148, 0.8765239119529724, 0.37730878591537476, 0.14227057993412018, 0.36439552903175354, 0.2411038875579834, 0.10764525830745697, 0.1742294728755951, 0.2176133543252945, 0.4066242575645447, 0.7108376622200012, 0.6744286417961121, 0.8320418000221252, 0.8759111166000366, 0.9226442575454712, 0.7769778370857239, 0.8199704885482788, 0.9217801094055176, 0.7081584930419922, 0.7426704168319702, 0.5477235317230225, 0.8479732871055603, 0.8701320290565491, 0.9758335947990417, 0.9647558331489563, 0.9284294247627258, 0.7536991238594055, 0.3559110164642334, 0.786686360836029, 0.9295161366462708, 0.9519994854927063, 0.694288969039917, 0.19798825681209564, 0.12280344218015671, 0.38386088609695435, 0.5016456842422485, 0.8657304048538208, 0.9628821611404419, 0.9515687823295593, 0.9861301779747009, 0.9267383217811584, 0.8826978802680969, 0.9207902550697327, 0.9844613671302795, 0.8737922310829163, 0.8749392628669739, 0.9573017954826355, 0.8768505454063416, 0.9783293604850769, 0.9803475141525269, 0.9435177445411682, 0.7840540409088135, 0.8218381404876709, 0.47020676732063293, 0.8634756207466125, 0.8278148770332336, 0.9388117790222168, 0.5818272829055786, 0.5343124866485596, 0.2669961452484131, 0.36198893189430237, 0.21839405596256256, 0.8070049285888672, 0.718043863773346, 0.7968790531158447, 0.7270894050598145, 0.4246841073036194, 0.7327547073364258, 0.5984355807304382, 0.47842493653297424, 0.5311011672019958, 0.9704779982566833, 0.8799781203269958, 0.7823151350021362, 0.943614661693573, 0.8800686001777649, 0.9625692367553711, 0.8175713419914246, 0.7497000098228455, 0.8977680206298828, 0.8249490261077881, 0.8184809684753418, 0.9932066202163696, 0.9894575476646423, 0.962242603302002, 0.928500235080719, 0.9852730631828308, 0.9725020527839661, 0.962546706199646, 0.7690699100494385, 0.9695480465888977, 0.9753680229187012, 0.9475853443145752, 0.9557591080665588, 0.9850708246231079, 0.9939942955970764, 0.9858676791191101, 0.9615845680236816, 0.9155780076980591, 0.9943207502365112, 0.9692352414131165, 0.8814442753791809, 0.9589329957962036, 0.9653788208961487, 0.9796121716499329, 0.9900872111320496, 0.9519801139831543, 0.9952785968780518, 0.9907055497169495, 0.9286322593688965, 0.8728742599487305, 0.9131588935852051, 0.2947898209095001, 0.3831545412540436, 0.24542830884456635, 0.6364973783493042, 0.5799082517623901, 0.5145676732063293, 0.3631371259689331, 0.10352051258087158, 0.09554039686918259, 0.5102967619895935, 0.4623577296733856, 0.14925356209278107, 0.05635242164134979, 0.03085358254611492, 0.029782496392726898, 0.15315648913383484, 0.24549786746501923, 0.1413424164056778, 0.21016331017017365, 0.20218871533870697, 0.1588074266910553, 0.36541470885276794, 0.11396278440952301, 0.04384450986981392, 0.06771890074014664, 0.04065016284584999, 0.04961959645152092, 0.033131424337625504, 0.1321842223405838, 0.02587174065411091, 0.026055002585053444]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9902073740959167</v>
+        <v>0.9952785968780518</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.8679624999931548</v>
+        <v>0.8843649999907939</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005493433544260473</v>
+        <v>0.005597246835384771</v>
       </c>
     </row>
     <row r="51">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.2960851192474365, 0.2088024914264679, 0.4248248338699341, 0.5603935122489929, 0.3126930892467499, 0.3775544762611389, 0.7037792205810547, 0.7136250138282776, 0.8136209845542908, 0.6714597940444946, 0.6338960528373718, 0.652662992477417, 0.6871019005775452, 0.6527522802352905, 0.6548858880996704, 0.6387754082679749, 0.5574691295623779, 0.6241929531097412, 0.6100911498069763, 0.7824844121932983, 0.6426833868026733, 0.6840764880180359, 0.6965947151184082, 0.5389707088470459, 0.5019366145133972, 0.5676208138465881, 0.6338308453559875, 0.7176920175552368, 0.5842111706733704, 0.5765234231948853, 0.7176319360733032, 0.6857861876487732, 0.6855827569961548, 0.6920434236526489, 0.5963678956031799, 0.713434100151062, 0.686509370803833, 0.7378440499305725, 0.6057472825050354, 0.4138394594192505, 0.6219704747200012, 0.4732472896575928, 0.4596664309501648, 0.6618913412094116, 0.6940160989761353, 0.7546396851539612, 0.7517536282539368, 0.7464998364448547, 0.6320375204086304, 0.6544581651687622, 0.6151251792907715, 0.6203672289848328, 0.5307143926620483, 0.4793933629989624, 0.5172809958457947, 0.5357736349105835, 0.591964840888977, 0.636773407459259, 0.6409226059913635, 0.43438875675201416, 0.545606791973114, 0.8073391914367676, 0.683711588382721, 0.7749795317649841, 0.7581916451454163, 0.6109758019447327, 0.7289561033248901, 0.6138173937797546, 0.8228030800819397, 0.7120233178138733, 0.7263265252113342, 0.6487204432487488, 0.45056718587875366, 0.4589833617210388, 0.5970180630683899, 0.7428480982780457, 0.7829440832138062, 0.900698721408844, 0.7878802418708801, 0.7384226322174072, 0.8113165497779846, 0.7888185977935791, 0.6644566059112549, 0.579083263874054, 0.5281009078025818, 0.6009162664413452, 0.6032372117042542, 0.7052723169326782, 0.6718409657478333, 0.6862096190452576, 0.5627086162567139, 0.5350252389907837, 0.7427647113800049, 0.8485088348388672, 0.7092945575714111, 0.7475481629371643, 0.8251564502716064, 0.712177038192749, 0.6154570579528809, 0.639616847038269, 0.8040034770965576, 0.7944449782371521, 0.8086625933647156, 0.8748135566711426, 0.8600095510482788, 0.7721359133720398, 0.6770774722099304, 0.6330381631851196, 0.6353588104248047, 0.38136640191078186, 0.4078463315963745, 0.5124282836914062, 0.7127185463905334, 0.6728759407997131, 0.7990859746932983, 0.8685212135314941, 0.6808438897132874, 0.6308897137641907, 0.5435229539871216, 0.6806004047393799, 0.6768502593040466, 0.5021901726722717, 0.4686130881309509, 0.8106905817985535, 0.7987300753593445, 0.7709442973136902, 0.7895861864089966, 0.7700219750404358, 0.791222333908081, 0.6805197596549988, 0.6533740162849426, 0.7378004193305969, 0.6466400027275085, 0.7884521484375, 0.660241961479187, 0.7440205216407776, 0.5333776473999023, 0.37480178475379944, 0.45671457052230835, 0.45587077736854553, 0.6670459508895874, 0.6740118861198425, 0.510385274887085, 0.7363360524177551, 0.6258976459503174, 0.6245017051696777, 0.5688232183456421, 0.7279354929924011, 0.647932767868042, 0.6649252772331238, 0.6036887168884277, 0.4199880063533783, 0.6823161840438843, 0.5588628649711609, 0.7137537598609924, 0.5116849541664124, 0.7898831367492676, 0.7900252342224121]</t>
+          <t>[0.24663913249969482, 0.1479593813419342, 0.373433917760849, 0.43891194462776184, 0.16953960061073303, 0.37710273265838623, 0.7319024801254272, 0.6911187171936035, 0.8778337240219116, 0.7323832511901855, 0.7126867175102234, 0.7197895646095276, 0.745104193687439, 0.6637277603149414, 0.633072555065155, 0.6535137295722961, 0.4429306983947754, 0.5679723024368286, 0.5326858162879944, 0.8678012490272522, 0.7256561517715454, 0.7396339774131775, 0.8374115824699402, 0.5295946002006531, 0.4064668118953705, 0.5234290957450867, 0.6789172887802124, 0.7986102104187012, 0.714033305644989, 0.5629395246505737, 0.7482025623321533, 0.8467568159103394, 0.8192074298858643, 0.7534255385398865, 0.5667957663536072, 0.665860116481781, 0.5798813700675964, 0.682677149772644, 0.496903657913208, 0.2612554430961609, 0.6017071604728699, 0.38004449009895325, 0.2950870096683502, 0.6111472249031067, 0.7036851048469543, 0.7978512644767761, 0.7353168725967407, 0.6813727617263794, 0.4004199206829071, 0.3539436161518097, 0.398280531167984, 0.4827897846698761, 0.320989727973938, 0.4071366488933563, 0.31193917989730835, 0.4710877239704132, 0.5886313915252686, 0.6272655129432678, 0.5954809188842773, 0.30378037691116333, 0.4527578353881836, 0.8736076951026917, 0.5776964426040649, 0.6464518904685974, 0.6203572750091553, 0.595183253288269, 0.7074165940284729, 0.43589702248573303, 0.7476239204406738, 0.4919794201850891, 0.531969428062439, 0.544219434261322, 0.2807735800743103, 0.23854048550128937, 0.5203229188919067, 0.705945611000061, 0.7362625002861023, 0.9409811496734619, 0.7088429927825928, 0.6622681617736816, 0.694465160369873, 0.6032546162605286, 0.3674110770225525, 0.19731512665748596, 0.1694788783788681, 0.3374656140804291, 0.5716577172279358, 0.653471827507019, 0.6478520631790161, 0.6825581192970276, 0.32112520933151245, 0.3755296468734741, 0.7312584519386292, 0.8336816430091858, 0.7260005474090576, 0.799959123134613, 0.7439397573471069, 0.45307135581970215, 0.38659799098968506, 0.4526115655899048, 0.7144430875778198, 0.7950819134712219, 0.7741250991821289, 0.8450443148612976, 0.8246685862541199, 0.7123159766197205, 0.6046018600463867, 0.4090523421764374, 0.3812180757522583, 0.24432875216007233, 0.3823992908000946, 0.6424869298934937, 0.8666399717330933, 0.7249687314033508, 0.8208659291267395, 0.9135273098945618, 0.6614772081375122, 0.6336648464202881, 0.40159448981285095, 0.7300480008125305, 0.7661098837852478, 0.6187794208526611, 0.5550470948219299, 0.9029479026794434, 0.8631253242492676, 0.9189591407775879, 0.9416384696960449, 0.8789517879486084, 0.9274691343307495, 0.8525102734565735, 0.6164664030075073, 0.6590530872344971, 0.6268826723098755, 0.8531191349029541, 0.7216548323631287, 0.8507814407348633, 0.5053834915161133, 0.3017275333404541, 0.37025681138038635, 0.4799826443195343, 0.7226945161819458, 0.7147111892700195, 0.6067255735397339, 0.7704719305038452, 0.6583816409111023, 0.731752872467041, 0.7037873864173889, 0.880667507648468, 0.7934530973434448, 0.7247430682182312, 0.7354389429092407, 0.48759546875953674, 0.741786777973175, 0.7035087943077087, 0.7217742204666138, 0.4953206479549408, 0.8407273888587952, 0.8411142230033875]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.900698721408844</v>
+        <v>0.9416384696960449</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.8743909999902826</v>
+        <v>0.9470163000078173</v>
       </c>
       <c r="J51" t="n">
-        <v>0.005534120253103054</v>
+        <v>0.005993774050682388</v>
       </c>
     </row>
     <row r="52">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.018074043095111847, 0.02222403883934021, 0.029221978038549423, 0.025569619610905647, 0.025041935965418816, 0.022385725751519203, 0.03255283460021019, 0.039246901869773865, 0.03271225839853287, 0.031684257090091705, 0.041018273681402206, 0.03777863085269928, 0.03153408691287041, 0.03995830565690994, 0.03774347901344299, 0.040735941380262375, 0.03380240127444267, 0.0202583447098732, 0.03856390342116356, 0.055300284177064896, 0.046766750514507294, 0.0728163793683052, 0.06003021448850632, 0.047533027827739716, 0.028647415339946747, 0.021229596808552742, 0.014031728729605675, 0.018917584791779518, 0.02057092823088169, 0.019121728837490082, 0.022567354142665863, 0.015127175487577915, 0.016640951856970787, 0.016803529113531113, 0.01601184345781803, 0.0267776008695364, 0.030163303017616272, 0.06997790932655334, 0.05605475977063179, 0.03870449960231781, 0.05512543022632599, 0.04795889928936958, 0.040381647646427155, 0.12733766436576843, 0.08907946199178696, 0.0825369730591774, 0.08277823776006699, 0.06380224972963333, 0.039659857749938965, 0.04087824374437332, 0.04035189375281334, 0.027745777741074562, 0.028302166610956192, 0.015481495298445225, 0.01358965877443552, 0.015686705708503723, 0.01646788977086544, 0.022833824157714844, 0.02227209135890007, 0.034210704267024994, 0.042877089232206345, 0.050721872597932816, 0.0279452595859766, 0.03754381835460663, 0.043508440256118774, 0.05476326867938042, 0.03948826342821121, 0.0421118289232254, 0.11505544930696487, 0.06147248297929764, 0.07993702590465546, 0.07457223534584045, 0.13358023762702942, 0.12736473977565765, 0.07012499123811722, 0.051360826939344406, 0.03588789328932762, 0.031984828412532806, 0.03502722829580307, 0.032531965523958206, 0.02618633396923542, 0.02685779146850109, 0.03478218615055084, 0.026550238952040672, 0.03371775522828102, 0.031673964112997055, 0.03273158520460129, 0.033564552664756775, 0.0440337173640728, 0.04054222255945206, 0.03598291054368019, 0.0443539097905159, 0.037080422043800354, 0.04492758959531784, 0.0430552177131176, 0.058793019503355026, 0.03760181739926338, 0.05422380939126015, 0.04958048462867737, 0.03416449949145317, 0.03766460344195366, 0.050115540623664856, 0.053126152604818344, 0.07945627719163895, 0.06518654525279999, 0.1335923671722412, 0.07803147286176682, 0.10778391361236572, 0.10708801448345184, 0.1909835785627365, 0.17595596611499786, 0.2079128921031952, 0.10092803835868835, 0.0755372941493988, 0.05865434184670448, 0.06516490131616592, 0.0602351650595665, 0.048135414719581604, 0.09794281423091888, 0.0836174264550209, 0.08972245454788208, 0.08157285302877426, 0.11731573194265366, 0.13425399363040924, 0.10629265755414963, 0.06201789900660515, 0.0730154737830162, 0.082115538418293, 0.13624818623065948, 0.07350007444620132, 0.04259448125958443, 0.15641580522060394, 0.14955809712409973, 0.06068317964673042, 0.050124429166316986, 0.09395135194063187, 0.08022002130746841, 0.06647120416164398, 0.03286159783601761, 0.031225409358739853, 0.054096367210149765, 0.05293766036629677, 0.07637767493724823, 0.06621032953262329, 0.03396397829055786, 0.059441979974508286, 0.0659511461853981, 0.10864383727312088, 0.1390158236026764, 0.22091351449489594, 0.31037408113479614, 0.2527620792388916, 0.2644570767879486, 0.26685282588005066, 0.2672326862812042, 0.2374429702758789, 0.2710743248462677, 0.2710743248462677]</t>
+          <t>[0.01491759903728962, 0.0200426634401083, 0.021159421652555466, 0.01936228573322296, 0.015569200739264488, 0.0137922503054142, 0.019890235736966133, 0.03288279473781586, 0.01826987974345684, 0.022674530744552612, 0.027511021122336388, 0.028125597164034843, 0.018533358350396156, 0.023409295827150345, 0.022322040051221848, 0.022130610421299934, 0.018464095890522003, 0.011386689729988575, 0.029721269384026527, 0.023634467273950577, 0.02399187907576561, 0.031404539942741394, 0.04573926329612732, 0.03007538430392742, 0.014549042098224163, 0.012197000905871391, 0.007778497412800789, 0.010734524577856064, 0.012173652648925781, 0.016260679811239243, 0.015994872897863388, 0.007305658422410488, 0.008558642119169235, 0.01072017289698124, 0.011260529048740864, 0.02130253054201603, 0.021946940571069717, 0.03551087528467178, 0.032966598868370056, 0.018826210871338844, 0.02838297002017498, 0.03768131881952286, 0.03791683912277222, 0.13278311491012573, 0.04820142686367035, 0.034587565809488297, 0.044182583689689636, 0.03422826528549194, 0.01880575902760029, 0.017108747735619545, 0.018875624984502792, 0.012517182156443596, 0.011157694272696972, 0.007037419360131025, 0.0069968244060873985, 0.005387827288359404, 0.006538852117955685, 0.013268274255096912, 0.01389447133988142, 0.020899061113595963, 0.050765134394168854, 0.03890905901789665, 0.019947214052081108, 0.03514128178358078, 0.044264618307352066, 0.03919981047511101, 0.030857115983963013, 0.033902689814567566, 0.11941666156053543, 0.04166693985462189, 0.05225144326686859, 0.06087377667427063, 0.05981391668319702, 0.05769160017371178, 0.03647933155298233, 0.02866934984922409, 0.026112325489521027, 0.029647132381796837, 0.026961799710989, 0.032552216202020645, 0.02670932002365589, 0.022148173302412033, 0.03514045104384422, 0.017983246594667435, 0.025152159854769707, 0.029317449778318405, 0.02028137445449829, 0.023610450327396393, 0.025667259469628334, 0.01842840574681759, 0.014960387721657753, 0.01912616565823555, 0.02660815417766571, 0.01963929273188114, 0.02047709748148918, 0.022337695583701134, 0.022055363282561302, 0.0249253511428833, 0.021461540833115578, 0.014114083722233772, 0.013520180247724056, 0.020338041707873344, 0.025017211213707924, 0.028960108757019043, 0.02057979442179203, 0.03540761396288872, 0.019978651776909828, 0.02157478779554367, 0.02824891358613968, 0.047580428421497345, 0.064529187977314, 0.05887376889586449, 0.026928149163722992, 0.019205346703529358, 0.016145825386047363, 0.018320322036743164, 0.01563403196632862, 0.014190278947353363, 0.025216765701770782, 0.021377459168434143, 0.03321847692131996, 0.0284260343760252, 0.034145843237638474, 0.04363758862018585, 0.046898793429136276, 0.029491640627384186, 0.04279534891247749, 0.04311581328511238, 0.06590259820222855, 0.03225228190422058, 0.024462005123496056, 0.08389687538146973, 0.09296949207782745, 0.03826450556516647, 0.018373830243945122, 0.03866322711110115, 0.019905230030417442, 0.023415159434080124, 0.01662665419280529, 0.017224404960870743, 0.042991530150175095, 0.033873703330755234, 0.07263354957103729, 0.040407873690128326, 0.014126776717603207, 0.023864323273301125, 0.039981912821531296, 0.07299095392227173, 0.08885800093412399, 0.12757344543933868, 0.19370292127132416, 0.1518825739622116, 0.1893949806690216, 0.18333700299263, 0.18764129281044006, 0.13554133474826813, 0.1711004078388214, 0.1711004078388214]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.3103740811347961</v>
+        <v>0.1937029212713242</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.8686909999814816</v>
+        <v>0.9452976999891689</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005498044303680263</v>
+        <v>0.005982896835374487</v>
       </c>
     </row>
     <row r="53">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0.25912803411483765, 0.27225780487060547, 0.28250569105148315, 0.39924225211143494, 0.2880769670009613, 0.2900780141353607, 0.4738768935203552, 0.512664258480072, 0.5573003888130188, 0.2560039162635803, 0.1345990002155304, 0.15805327892303467, 0.23464350402355194, 0.6415758728981018, 0.47248387336730957, 0.6779059767723083, 0.5969237089157104, 0.33801230788230896, 0.48523616790771484, 0.34762972593307495, 0.25523683428764343, 0.39505335688591003, 0.394968718290329, 0.6305626034736633, 0.45799246430397034, 0.4454844892024994, 0.6954519748687744, 0.6476222276687622, 0.3991198241710663, 0.3486568033695221, 0.5663667917251587, 0.6081930994987488, 0.7264479994773865, 0.7781805396080017, 0.5470066666603088, 0.5958639979362488, 0.4066276252269745, 0.5668779015541077, 0.5400267243385315, 0.644543468952179, 0.8590637445449829, 0.8086684346199036, 0.750689685344696, 0.611179530620575, 0.6285584568977356, 0.730709433555603, 0.9132425785064697, 0.8649512529373169, 0.8681905269622803, 0.7253264784812927, 0.6526787877082825, 0.5000371336936951, 0.5504475235939026, 0.3461458384990692, 0.4585046172142029, 0.6046478748321533, 0.6196843981742859, 0.5574641823768616, 0.4174700975418091, 0.36838677525520325, 0.48063117265701294, 0.6380202174186707, 0.5269812941551208, 0.6358537673950195, 0.5518264174461365, 0.5237258076667786, 0.5427941083908081, 0.640227735042572, 0.605363130569458, 0.7294915318489075, 0.4880201816558838, 0.5382096767425537, 0.7897368669509888, 0.8814025521278381, 0.43570947647094727, 0.46577879786491394, 0.5642954111099243, 0.582816481590271, 0.48129165172576904, 0.40419456362724304, 0.3749690353870392, 0.4767439663410187, 0.5722312927246094, 0.4502013921737671, 0.5172035694122314, 0.3721068203449249, 0.5207963585853577, 0.38739684224128723, 0.3980409502983093, 0.36934998631477356, 0.4809054434299469, 0.6121674180030823, 0.7524510025978088, 0.8224645853042603, 0.42020300030708313, 0.6132153272628784, 0.4033680260181427, 0.6260073184967041, 0.4864858090877533, 0.35489514470100403, 0.2366604059934616, 0.18424701690673828, 0.15044499933719635, 0.24155893921852112, 0.051675572991371155, 0.042651545256376266, 0.08810552954673767, 0.1772504597902298, 0.27395865321159363, 0.24315999448299408, 0.13725313544273376, 0.08806261420249939, 0.07098593562841415, 0.09393315017223358, 0.0771704688668251, 0.08031924068927765, 0.11720333993434906, 0.12234063446521759, 0.18334221839904785, 0.18133535981178284, 0.13500937819480896, 0.12085024267435074, 0.11421578377485275, 0.12477774173021317, 0.16045720875263214, 0.21252915263175964, 0.17102213203907013, 0.23348559439182281, 0.26413285732269287, 0.24835620820522308, 0.2540678381919861, 0.26837432384490967, 0.470391184091568, 0.4513019025325775, 0.3558104932308197, 0.2658102512359619, 0.18374201655387878, 0.20734770596027374, 0.22861891984939575, 0.19844123721122742, 0.4853849411010742, 0.7715080976486206, 0.7292218208312988, 0.49534034729003906, 0.2508010268211365, 0.18388302624225616, 0.20536300539970398, 0.2815227806568146, 0.14786064624786377, 0.28253892064094543, 0.2944137156009674, 0.29768216609954834, 0.22574709355831146, 0.2897830307483673, 0.39482513070106506, 0.25511518120765686, 0.5388833284378052, 0.5345825552940369]</t>
+          <t>[0.19593751430511475, 0.21304969489574432, 0.2303835153579712, 0.288618266582489, 0.14349158108234406, 0.19795556366443634, 0.43045228719711304, 0.31711119413375854, 0.48101547360420227, 0.20789295434951782, 0.07196248322725296, 0.10337898135185242, 0.1585971862077713, 0.4966433048248291, 0.30581554770469666, 0.5172077417373657, 0.3249370753765106, 0.17348754405975342, 0.22845488786697388, 0.12627339363098145, 0.07095718383789062, 0.15039557218551636, 0.2372710406780243, 0.3193163275718689, 0.3013627529144287, 0.17970871925354004, 0.40158960223197937, 0.3344440460205078, 0.11546146869659424, 0.0955151841044426, 0.1386888474225998, 0.2014770209789276, 0.4013746380805969, 0.35980165004730225, 0.1460299789905548, 0.24446004629135132, 0.13294866681098938, 0.23830538988113403, 0.18640248477458954, 0.2404654622077942, 0.5923272967338562, 0.528222918510437, 0.3749045729637146, 0.17255018651485443, 0.25618359446525574, 0.40709978342056274, 0.6907405853271484, 0.49739599227905273, 0.463148295879364, 0.316780149936676, 0.3056337833404541, 0.1756138801574707, 0.16591189801692963, 0.11759742349386215, 0.1686512529850006, 0.3986096978187561, 0.40585729479789734, 0.3073071539402008, 0.20378626883029938, 0.14920705556869507, 0.40381571650505066, 0.8181600570678711, 0.4205670654773712, 0.49107393622398376, 0.3211868703365326, 0.2726541757583618, 0.3319004774093628, 0.28426963090896606, 0.32146644592285156, 0.5852832794189453, 0.2985648512840271, 0.30307191610336304, 0.5665554404258728, 0.8381344676017761, 0.20350362360477448, 0.20121970772743225, 0.2715715169906616, 0.3607388436794281, 0.2441137582063675, 0.17459148168563843, 0.11155327409505844, 0.19298291206359863, 0.3244229257106781, 0.18342924118041992, 0.24557913839817047, 0.14936304092407227, 0.31839853525161743, 0.17807534337043762, 0.1754670888185501, 0.1362055093050003, 0.1982516050338745, 0.3530324399471283, 0.5880173444747925, 0.5451085567474365, 0.11642851680517197, 0.21082434058189392, 0.12755140662193298, 0.43681108951568604, 0.3547776937484741, 0.21466614305973053, 0.06521601229906082, 0.06293492019176483, 0.04731367900967598, 0.12025119364261627, 0.0061958604492247105, 0.005432373844087124, 0.007675706874579191, 0.056860439479351044, 0.20831800997257233, 0.11496423184871674, 0.06263095140457153, 0.0172172449529171, 0.027715686708688736, 0.04376370087265968, 0.03208937495946884, 0.03915080800652504, 0.053648535162210464, 0.053791195154190063, 0.10610850900411606, 0.09140308201313019, 0.08088325709104538, 0.06045073643326759, 0.0481247678399086, 0.04899381846189499, 0.06198155879974365, 0.09860038012266159, 0.0815512165427208, 0.10190832614898682, 0.21252663433551788, 0.18121236562728882, 0.16842707991600037, 0.32329586148262024, 0.35950350761413574, 0.5627777576446533, 0.29774346947669983, 0.21276551485061646, 0.1490035206079483, 0.11201346665620804, 0.13311392068862915, 0.17898619174957275, 0.4394417703151703, 0.6598066091537476, 0.622874915599823, 0.23790673911571503, 0.10322083532810211, 0.06507894396781921, 0.07301098108291626, 0.12819185853004456, 0.07708590477705002, 0.14549461007118225, 0.14439216256141663, 0.18574365973472595, 0.09386032074689865, 0.1375928521156311, 0.20685511827468872, 0.11806879192590714, 0.40978938341140747, 0.40649428963661194]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9132425785064697</v>
+        <v>0.8381344676017761</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.8854586999805178</v>
+        <v>0.8833838999998989</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005604168987218467</v>
+        <v>0.005591037341771511</v>
       </c>
     </row>
     <row r="54">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.0687161237001419, 0.06157475337386131, 0.07264462113380432, 0.08539199084043503, 0.11031268537044525, 0.07822097092866898, 0.061163678765296936, 0.12397926300764084, 0.12083780020475388, 0.07436969876289368, 0.12018061429262161, 0.15265950560569763, 0.13245195150375366, 0.20877625048160553, 0.1377571076154709, 0.197178915143013, 0.20090536773204803, 0.17429392039775848, 0.1351538896560669, 0.13374628126621246, 0.17729975283145905, 0.16033199429512024, 0.11172480881214142, 0.094537153840065, 0.14879624545574188, 0.16618043184280396, 0.12732574343681335, 0.15607166290283203, 0.08063244074583054, 0.09281525015830994, 0.14093072712421417, 0.11483462899923325, 0.07115009427070618, 0.08498761802911758, 0.1356482356786728, 0.17178109288215637, 0.18008486926555634, 0.15675704181194305, 0.1387098729610443, 0.11621826887130737, 0.08432955294847488, 0.10556810349225998, 0.15671268105506897, 0.2210237830877304, 0.22676585614681244, 0.15419457852840424, 0.1423056274652481, 0.10871866345405579, 0.10222718119621277, 0.14286775887012482, 0.11197179555892944, 0.09482178837060928, 0.07476446777582169, 0.11033769696950912, 0.09307454526424408, 0.12524272501468658, 0.12320856004953384, 0.1215183436870575, 0.14304323494434357, 0.13595889508724213, 0.10485131293535233, 0.07577887922525406, 0.05602560192346573, 0.07310909032821655, 0.10891257971525192, 0.0890960842370987, 0.12994733452796936, 0.18260210752487183, 0.26043900847435, 0.2733151316642761, 0.20044955611228943, 0.2979259192943573, 0.1970813125371933, 0.1499301940202713, 0.09920787811279297, 0.10848677158355713, 0.1002567708492279, 0.1073150634765625, 0.10977716743946075, 0.18880829215049744, 0.19346779584884644, 0.13246770203113556, 0.19551849365234375, 0.16203387081623077, 0.18529769778251648, 0.16560256481170654, 0.10566412657499313, 0.22575591504573822, 0.17290018498897552, 0.18999138474464417, 0.16214534640312195, 0.1776123344898224, 0.15003129839897156, 0.17791397869586945, 0.11143670231103897, 0.17647595703601837, 0.20736753940582275, 0.2480403184890747, 0.27363643050193787, 0.23162133991718292, 0.24897617101669312, 0.1942291408777237, 0.15352992713451385, 0.2050907164812088, 0.2077541947364807, 0.2105369120836258, 0.13509103655815125, 0.08183257281780243, 0.09783949702978134, 0.1180775836110115, 0.17320170998573303, 0.23721866309642792, 0.17906515300273895, 0.19786128401756287, 0.18337078392505646, 0.1956249624490738, 0.21281982958316803, 0.2003205567598343, 0.16004890203475952, 0.172304168343544, 0.17095579206943512, 0.08452551066875458, 0.10260338336229324, 0.1072944849729538, 0.09113334864377975, 0.06770288199186325, 0.12006907910108566, 0.11231554299592972, 0.1268748641014099, 0.2258731871843338, 0.27756959199905396, 0.4111815094947815, 0.34193623065948486, 0.20739790797233582, 0.36425215005874634, 0.36883991956710815, 0.25808799266815186, 0.18339259922504425, 0.22576245665550232, 0.2556847929954529, 0.20458564162254333, 0.12931324541568756, 0.1178094670176506, 0.11879416555166245, 0.12007593363523483, 0.1800927221775055, 0.1914587914943695, 0.1749953031539917, 0.1914938986301422, 0.15188555419445038, 0.16725847125053406, 0.1741214543581009, 0.14131590723991394, 0.14340588450431824, 0.2200745791196823, 0.1348704844713211, 0.1783170998096466, 0.17938481271266937]</t>
+          <t>[0.07611982524394989, 0.06961959600448608, 0.08368377387523651, 0.08311036974191666, 0.09874822199344635, 0.06270356476306915, 0.058806560933589935, 0.14947447180747986, 0.15227773785591125, 0.10459040850400925, 0.18982131779193878, 0.20494547486305237, 0.1833365112543106, 0.3323560059070587, 0.22805830836296082, 0.2770707905292511, 0.2564965784549713, 0.22318553924560547, 0.16598919034004211, 0.18076403439044952, 0.23144875466823578, 0.16230079531669617, 0.11003690212965012, 0.09763436019420624, 0.17664186656475067, 0.18792478740215302, 0.1689801663160324, 0.17256318032741547, 0.10987051576375961, 0.1198662593960762, 0.19691923260688782, 0.14128276705741882, 0.08626675605773926, 0.0964091494679451, 0.1892206072807312, 0.26297101378440857, 0.21506203711032867, 0.23471134901046753, 0.16839814186096191, 0.17243964970111847, 0.09785104542970657, 0.10367267578840256, 0.18881666660308838, 0.3198617696762085, 0.33368730545043945, 0.22389155626296997, 0.19873066246509552, 0.1719810515642166, 0.12944024801254272, 0.13929319381713867, 0.16241517663002014, 0.1573411077260971, 0.11862720549106598, 0.23092971742153168, 0.22132809460163116, 0.2968735992908478, 0.21571218967437744, 0.2701393663883209, 0.28213420510292053, 0.22720541059970856, 0.22991140186786652, 0.17422661185264587, 0.15215620398521423, 0.20535820722579956, 0.19177517294883728, 0.2111540585756302, 0.32087767124176025, 0.5225871801376343, 0.5782424807548523, 0.5062628984451294, 0.3407489061355591, 0.5332021713256836, 0.3880390226840973, 0.21414874494075775, 0.19482403993606567, 0.130040243268013, 0.15291723608970642, 0.20516379177570343, 0.18330910801887512, 0.29414865374565125, 0.27007660269737244, 0.19766782224178314, 0.31777670979499817, 0.3453274667263031, 0.2575821578502655, 0.2934074401855469, 0.1748163402080536, 0.3660942018032074, 0.19614481925964355, 0.2345242202281952, 0.23654888570308685, 0.29761576652526855, 0.3086774945259094, 0.2859039306640625, 0.1486128568649292, 0.19615326821804047, 0.24874217808246613, 0.22759877145290375, 0.2769264876842499, 0.23203042149543762, 0.3421163558959961, 0.24714212119579315, 0.2212560474872589, 0.2902319133281708, 0.28911712765693665, 0.3335488438606262, 0.24836567044258118, 0.2040523737668991, 0.26441672444343567, 0.2803436815738678, 0.42807209491729736, 0.346148282289505, 0.23362977802753448, 0.23953749239444733, 0.30814409255981445, 0.3383901119232178, 0.40870150923728943, 0.3857366740703583, 0.299442857503891, 0.3174342215061188, 0.3207241892814636, 0.1728285700082779, 0.2379639893770218, 0.2381342500448227, 0.1961381584405899, 0.12562468647956848, 0.1921972930431366, 0.15628375113010406, 0.17459210753440857, 0.30644547939300537, 0.40025028586387634, 0.5438311100006104, 0.5552891492843628, 0.3502140939235687, 0.5491278767585754, 0.6324722170829773, 0.44330117106437683, 0.3298044502735138, 0.40354132652282715, 0.4704321026802063, 0.394622266292572, 0.17494018375873566, 0.161714106798172, 0.12667615711688995, 0.15912653505802155, 0.2432464361190796, 0.2884993851184845, 0.33591166138648987, 0.23271088302135468, 0.2312345653772354, 0.21361641585826874, 0.22350452840328217, 0.15412341058254242, 0.17412924766540527, 0.2888413965702057, 0.21330465376377106, 0.24021929502487183, 0.24270915985107422]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.4111815094947815</v>
+        <v>0.6324722170829773</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1.027620000008028</v>
+        <v>1.082568800004083</v>
       </c>
       <c r="J54" t="n">
-        <v>0.006503924050683721</v>
+        <v>0.006851701265848625</v>
       </c>
     </row>
     <row r="55">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.8146832585334778, 0.7546298503875732, 0.7689018845558167, 0.6495505571365356, 0.7313844561576843, 0.6446390748023987, 0.45723721385002136, 0.6102110147476196, 0.56893390417099, 0.5775072574615479, 0.5813351273536682, 0.5328150391578674, 0.5806001424789429, 0.7019227147102356, 0.808228075504303, 0.8274896144866943, 0.7891510725021362, 0.727508544921875, 0.7452641129493713, 0.7176535725593567, 0.6702378392219543, 0.6903386116027832, 0.8034891486167908, 0.8436053395271301, 0.7962717413902283, 0.776018500328064, 0.8158808350563049, 0.8478864431381226, 0.8190727233886719, 0.8412087559700012, 0.7521860003471375, 0.7438865900039673, 0.6954443454742432, 0.7472401261329651, 0.7786839604377747, 0.9044040441513062, 0.8830344080924988, 0.7915651798248291, 0.7632538080215454, 0.6602154970169067, 0.6633007526397705, 0.7212161421775818, 0.7240381836891174, 0.598767876625061, 0.905879020690918, 0.9375516176223755, 0.9323567748069763, 0.8038745522499084, 0.6759619116783142, 0.846458375453949, 0.8786719441413879, 0.8515313267707825, 0.8866634964942932, 0.8477948904037476, 0.7856676578521729, 0.7027890682220459, 0.5534026622772217, 0.587550163269043, 0.9301979541778564, 0.9256138801574707, 0.9020602107048035, 0.8275691270828247, 0.6147749423980713, 0.6814804673194885, 0.5613705515861511, 0.5193254351615906, 0.5899351835250854, 0.6870349049568176, 0.7698676586151123, 0.8705217838287354, 0.7199633121490479, 0.8315199017524719, 0.8499571681022644, 0.8371903300285339, 0.879101574420929, 0.923057496547699, 0.9297687411308289, 0.9348872900009155, 0.9513453245162964, 0.9141642451286316, 0.7916714549064636, 0.799878716468811, 0.6929646730422974, 0.6685190200805664, 0.6893308758735657, 0.6609246730804443, 0.588036835193634, 0.6822490692138672, 0.7485840916633606, 0.5292226076126099, 0.40682071447372437, 0.28004515171051025, 0.3211847245693207, 0.3886006772518158, 0.45385393500328064, 0.5617985725402832, 0.40999794006347656, 0.360599547624588, 0.7727795243263245, 0.7784428000450134, 0.7219462394714355, 0.8404538035392761, 0.7862573266029358, 0.8221747875213623, 0.9010873436927795, 0.6052616238594055, 0.7869284152984619, 0.6452351808547974, 0.807654619216919, 0.83158940076828, 0.8916246294975281, 0.8661902546882629, 0.644668698310852, 0.6592976450920105, 0.6330202221870422, 0.7968409657478333, 0.8058070540428162, 0.8520675301551819, 0.7907087206840515, 0.8438577651977539, 0.8743605613708496, 0.7285128831863403, 0.8695559501647949, 0.7665855884552002, 0.8124250769615173, 0.8498011231422424, 0.6449295878410339, 0.6454957127571106, 0.8528033494949341, 0.7866518497467041, 0.8509752750396729, 0.755630612373352, 0.4494277536869049, 0.5975838303565979, 0.8043631315231323, 0.8313495516777039, 0.8160495758056641, 0.8805310726165771, 0.7848920226097107, 0.880145788192749, 0.9128836393356323, 0.7954613566398621, 0.8190680146217346, 0.9197021722793579, 0.9194034934043884, 0.9074775576591492, 0.8995979428291321, 0.8986847400665283, 0.8511047959327698, 0.8247349262237549, 0.756073534488678, 0.7151744961738586, 0.9699459075927734, 0.916041910648346, 0.6790225505828857, 0.7107876539230347, 0.39068201184272766, 0.0386197529733181, 0.048532210290431976, 0.28620362281799316, 0.31375420093536377, 0.33036336302757263, 0.35578277707099915, 0.37306705117225647, 0.3749329149723053, 0.3721561133861542, 0.36785560846328735, 0.36902686953544617, 0.3695184588432312, 0.3711874186992645, 0.385603129863739, 0.38849249482154846, 0.3895142674446106, 0.388273686170578, 0.38628214597702026, 0.3770477771759033, 0.3735874593257904, 0.3658791780471802, 0.37041154503822327, 0.36893096566200256, 0.3643471896648407, 0.3684356212615967, 0.36379554867744446, 0.36654144525527954, 0.3654671013355255, 0.36423632502555847, 0.36316269636154175, 0.3633016347885132, 0.3605964779853821, 0.3627510666847229, 0.3637242019176483, 0.3633618950843811, 0.3571573495864868, 0.3622918725013733, 0.3637063801288605, 0.35896655917167664, 0.36531874537467957, 0.3719687759876251, 0.3738366961479187, 0.3766360580921173, 0.37245646119117737, 0.3677210509777069, 0.36594313383102417, 0.36284250020980835, 0.3668133020401001, 0.3716541826725006, 0.37739384174346924, 0.373367041349411, 0.3756975531578064, 0.37768322229385376, 0.33099231123924255, 0.20696917176246643, 0.22515052556991577]</t>
+          <t>[0.3116610050201416, 0.23529550433158875, 0.26061904430389404, 0.22719888389110565, 0.38907161355018616, 0.22303445637226105, 0.14503614604473114, 0.22861549258232117, 0.09194639325141907, 0.08961764723062515, 0.10455145686864853, 0.07540726661682129, 0.09024835377931595, 0.16609922051429749, 0.3452296555042267, 0.41170650720596313, 0.3254329562187195, 0.2181902974843979, 0.20469385385513306, 0.1460384577512741, 0.1357383280992508, 0.15614978969097137, 0.33850833773612976, 0.48558923602104187, 0.4451603889465332, 0.3824027478694916, 0.38229337334632874, 0.5092059373855591, 0.4043191373348236, 0.3640676736831665, 0.22777676582336426, 0.19776563346385956, 0.16227059066295624, 0.21753475069999695, 0.2913639545440674, 0.6587768197059631, 0.572597086429596, 0.4185526371002197, 0.3632817566394806, 0.21356239914894104, 0.16616319119930267, 0.2529312074184418, 0.19131311774253845, 0.09565713256597519, 0.6217905282974243, 0.7825058102607727, 0.8656772971153259, 0.44829708337783813, 0.23147732019424438, 0.6339770555496216, 0.6532481908798218, 0.49686720967292786, 0.5882483720779419, 0.47943809628486633, 0.3921782076358795, 0.2686023712158203, 0.12073329091072083, 0.14619269967079163, 0.6347090005874634, 0.7515572309494019, 0.6807749271392822, 0.43392494320869446, 0.27553874254226685, 0.29959824681282043, 0.29320552945137024, 0.35387948155403137, 0.4323914647102356, 0.6498101949691772, 0.6777867078781128, 0.7977731823921204, 0.4477829933166504, 0.37701216340065, 0.3623223304748535, 0.3942456543445587, 0.4398338198661804, 0.5429643392562866, 0.634555995464325, 0.6656688451766968, 0.7436907291412354, 0.6029152870178223, 0.22164210677146912, 0.30354025959968567, 0.17269925773143768, 0.13204559683799744, 0.13571177423000336, 0.20254985988140106, 0.1089383140206337, 0.200923353433609, 0.2651597261428833, 0.07352800667285919, 0.05671846121549606, 0.030783072113990784, 0.03566639497876167, 0.03487686812877655, 0.05048147588968277, 0.08811613917350769, 0.047206319868564606, 0.043526988476514816, 0.3519339859485626, 0.3865422010421753, 0.3280355930328369, 0.5417340993881226, 0.30630314350128174, 0.46962839365005493, 0.778488039970398, 0.24822889268398285, 0.5358374714851379, 0.29009076952934265, 0.4085983335971832, 0.6060569882392883, 0.8147906064987183, 0.680942714214325, 0.17917636036872864, 0.2412395179271698, 0.20962662994861603, 0.3735024929046631, 0.47633594274520874, 0.5228530168533325, 0.43540868163108826, 0.6197485327720642, 0.7540549635887146, 0.35349535942077637, 0.6902757287025452, 0.4245651066303253, 0.4776742160320282, 0.43981435894966125, 0.17595988512039185, 0.16203249990940094, 0.7523346543312073, 0.5715816020965576, 0.686334490776062, 0.4582713544368744, 0.1280161291360855, 0.2101682722568512, 0.548356831073761, 0.6131805777549744, 0.6868792772293091, 0.7648545503616333, 0.4517323076725006, 0.80007004737854, 0.86033695936203, 0.5524280071258545, 0.5982544422149658, 0.877802312374115, 0.8253874182701111, 0.8236274123191833, 0.723991334438324, 0.6881609559059143, 0.6648163795471191, 0.6602727174758911, 0.5395633578300476, 0.28222447633743286, 0.94004887342453, 0.8227582573890686, 0.6634659767150879, 0.654784083366394, 0.37839025259017944, 0.0157061405479908, 0.0327308289706707, 0.13284946978092194, 0.14985130727291107, 0.16602033376693726, 0.1937868446111679, 0.22035391628742218, 0.22330616414546967, 0.22065524756908417, 0.2129966765642166, 0.21039187908172607, 0.21246393024921417, 0.2176099717617035, 0.2287374883890152, 0.23565666377544403, 0.23687708377838135, 0.23512832820415497, 0.2358701527118683, 0.2317306101322174, 0.22344167530536652, 0.2182021141052246, 0.2153850495815277, 0.2140679508447647, 0.21039505302906036, 0.21581046283245087, 0.2073194980621338, 0.2122991532087326, 0.21131610870361328, 0.20878447592258453, 0.20496807992458344, 0.20817223191261292, 0.20597167313098907, 0.20728829503059387, 0.20890381932258606, 0.21160104870796204, 0.1998872458934784, 0.209686279296875, 0.20710378885269165, 0.20136751234531403, 0.21228700876235962, 0.2261011004447937, 0.2256776988506317, 0.23379088938236237, 0.22615143656730652, 0.21621651947498322, 0.20959463715553284, 0.2126964032649994, 0.2123895287513733, 0.2196701020002365, 0.2270233929157257, 0.22544968128204346, 0.2253534495830536, 0.22438570857048035, 0.23389363288879395, 0.274308443069458, 0.30480119585990906]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9699459075927734</v>
+        <v>0.94004887342453</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.17083480002475</v>
+        <v>1.158293400003458</v>
       </c>
       <c r="J55" t="n">
-        <v>0.00549687699542136</v>
+        <v>0.005437997183114828</v>
       </c>
     </row>
     <row r="56">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.7494475841522217, 0.8562716245651245, 0.887809157371521, 0.8852883577346802, 0.803680956363678, 0.6722096800804138, 0.6950482130050659, 0.6472968459129333, 0.6922535300254822, 0.8608508706092834, 0.8519595265388489, 0.8308266401290894, 0.804404616355896, 0.7531266212463379, 0.7887586951255798, 0.7019481658935547, 0.7618915438652039, 0.7890207767486572, 0.840242326259613, 0.8252735733985901, 0.7392119765281677, 0.6216421127319336, 0.5524614453315735, 0.5365415215492249, 0.5296458601951599, 0.6694466471672058, 0.6343784332275391, 0.6698241233825684, 0.661539614200592, 0.43004918098449707, 0.4122723639011383, 0.3222162425518036, 0.32280635833740234, 0.3808509111404419, 0.4361244738101959, 0.5327033400535583, 0.4454739987850189, 0.45298144221305847, 0.6237547397613525, 0.5468680262565613, 0.5758654475212097, 0.5621426701545715, 0.5752226710319519, 0.6397155523300171, 0.7079264521598816, 0.7583324909210205, 0.7997472882270813, 0.8054990172386169, 0.8008848428726196, 0.7920675277709961, 0.64747154712677, 0.5782119631767273, 0.5331990718841553, 0.6287689805030823, 0.7612437605857849, 0.7554419040679932, 0.5378596782684326, 0.5107488632202148, 0.5155485272407532, 0.5161252021789551, 0.5397830009460449, 0.4650898575782776, 0.45443955063819885, 0.5644192695617676, 0.5471518039703369, 0.49914073944091797, 0.4809599816799164, 0.5317362546920776, 0.5273279547691345, 0.4765323996543884, 0.4014130234718323, 0.41204115748405457, 0.40663444995880127, 0.4137642979621887, 0.445354163646698, 0.5210270285606384, 0.5699252486228943, 0.6739364862442017, 0.6784414052963257, 0.6079637408256531, 0.7158792018890381, 0.7403687834739685, 0.7220895886421204, 0.668591320514679, 0.5836897492408752, 0.4678032696247101, 0.4482072591781616, 0.7316697835922241, 0.7075373530387878, 0.7643107175827026, 0.7489348649978638, 0.8053476810455322, 0.7722147107124329, 0.7654274702072144, 0.7667828798294067, 0.7832403182983398, 0.7472600340843201, 0.6436417698860168, 0.6847497820854187, 0.6362327337265015, 0.5190237760543823, 0.3789757490158081, 0.32508695125579834, 0.2563399374485016, 0.25711655616760254, 0.24800235033035278, 0.251752108335495, 0.22886425256729126, 0.2960074543952942, 0.4531041085720062, 0.6051750183105469, 0.678122878074646, 0.5370471477508545, 0.5314686894416809, 0.5569628477096558, 0.6424301862716675, 0.5861862897872925, 0.6804215312004089, 0.6876592040061951, 0.7289255857467651, 0.7066798806190491, 0.6689610481262207, 0.7080317735671997, 0.7944139242172241, 0.7771125435829163, 0.7327259182929993, 0.582546591758728, 0.3976607620716095, 0.2844913899898529, 0.22706802189350128, 0.33643996715545654, 0.3501891493797302, 0.37686651945114136, 0.3254287540912628, 0.32080620527267456, 0.34158197045326233, 0.2803964912891388, 0.3029145896434784, 0.31747934222221375, 0.43933916091918945, 0.4763481914997101, 0.4990934431552887, 0.5351633429527283, 0.551830530166626, 0.5935022234916687, 0.6623101234436035, 0.7657122611999512, 0.7139248847961426, 0.619960367679596, 0.6230782866477966, 0.7081695795059204, 0.7746796607971191, 0.838887631893158, 0.8423958420753479, 0.7717025279998779, 0.7687827944755554, 0.6816898584365845, 0.6829541325569153, 0.7269002199172974, 0.7223448157310486, 0.7093929648399353, 0.6210838556289673, 0.5280331969261169, 0.553598165512085, 0.4314383566379547, 0.3995315730571747, 0.4535045921802521, 0.5623438954353333, 0.6982954144477844, 0.8298382759094238, 0.8009054064750671, 0.639782190322876, 0.5161492824554443, 0.42394664883613586, 0.5425792932510376, 0.6396378874778748, 0.6886564493179321, 0.6518380641937256, 0.7501475214958191, 0.7696108818054199, 0.8447165489196777, 0.8732175230979919, 0.866253674030304, 0.879149854183197, 0.7461792826652527, 0.8765548467636108, 0.9002552628517151, 0.9078295230865479, 0.8801131844520569, 0.8133499026298523, 0.8550578951835632, 0.8179585337638855, 0.6158312559127808, 0.5374970436096191, 0.556371808052063, 0.6324995160102844, 0.5880084037780762, 0.5468626022338867, 0.5049817562103271, 0.5364864468574524, 0.5374982357025146, 0.5124810934066772, 0.6270164847373962, 0.7137713432312012, 0.7228190898895264, 0.7555646300315857, 0.8092638850212097, 0.8113084435462952, 0.7956845164299011, 0.83033686876297, 0.73790043592453, 0.6476360559463501, 0.523766815662384]</t>
+          <t>[0.3431686460971832, 0.5349048376083374, 0.5964856743812561, 0.522338330745697, 0.34108904004096985, 0.20365320146083832, 0.2887090742588043, 0.1806793361902237, 0.2688392996788025, 0.5433312654495239, 0.43783217668533325, 0.42928555607795715, 0.3772677183151245, 0.4156650900840759, 0.4868113398551941, 0.30122700333595276, 0.500374436378479, 0.47970715165138245, 0.6287065744400024, 0.5537699460983276, 0.22360070049762726, 0.15025493502616882, 0.12342872470617294, 0.14558973908424377, 0.1316388100385666, 0.1998833566904068, 0.15581977367401123, 0.18299882113933563, 0.23000475764274597, 0.11646991223096848, 0.13073478639125824, 0.0800711140036583, 0.06649315357208252, 0.08249947428703308, 0.10452350229024887, 0.14655569195747375, 0.12919989228248596, 0.13735930621623993, 0.2321770042181015, 0.22832979261875153, 0.19407978653907776, 0.13305172324180603, 0.11082915216684341, 0.11374024301767349, 0.14180411398410797, 0.25308626890182495, 0.3420847952365875, 0.3671862781047821, 0.36176246404647827, 0.36906060576438904, 0.22700858116149902, 0.2272551953792572, 0.17451868951320648, 0.22419725358486176, 0.3357866704463959, 0.24502339959144592, 0.10119693726301193, 0.09530282020568848, 0.1690155565738678, 0.15213324129581451, 0.1586315780878067, 0.12496960908174515, 0.12372796982526779, 0.17787137627601624, 0.24278846383094788, 0.19864003360271454, 0.19088421761989594, 0.2216680347919464, 0.20769548416137695, 0.15984070301055908, 0.12475723028182983, 0.13187560439109802, 0.1498516947031021, 0.12978947162628174, 0.16408997774124146, 0.2375808209180832, 0.2975538969039917, 0.3872016370296478, 0.24663381278514862, 0.16339707374572754, 0.27670079469680786, 0.3154873251914978, 0.24113063514232635, 0.16896770894527435, 0.10356607288122177, 0.05967852473258972, 0.06207618862390518, 0.1715666949748993, 0.14029887318611145, 0.13641208410263062, 0.1534687727689743, 0.26052555441856384, 0.2302762269973755, 0.25235888361930847, 0.2357342392206192, 0.21661709249019623, 0.22009895741939545, 0.11265546828508377, 0.1185380145907402, 0.08799824863672256, 0.055068936198949814, 0.039691124111413956, 0.038564372807741165, 0.03300623968243599, 0.03680158779025078, 0.03394358605146408, 0.032354943454265594, 0.030148005113005638, 0.04310799017548561, 0.08719759434461594, 0.17995701730251312, 0.23019708693027496, 0.15036317706108093, 0.139504536986351, 0.13475248217582703, 0.16468867659568787, 0.12379433959722519, 0.1382390558719635, 0.11196331679821014, 0.13064998388290405, 0.13004334270954132, 0.10150110721588135, 0.12425795197486877, 0.19710806012153625, 0.217257559299469, 0.21516305208206177, 0.12104900181293488, 0.055770207196474075, 0.03513435274362564, 0.030096137896180153, 0.047048844397068024, 0.048303306102752686, 0.04877809062600136, 0.044699884951114655, 0.04226601868867874, 0.04173136502504349, 0.03889411687850952, 0.05297115072607994, 0.05523774400353432, 0.09010192006826401, 0.11168967932462692, 0.1331901103258133, 0.18259704113006592, 0.20113857090473175, 0.21182593703269958, 0.20664900541305542, 0.24578070640563965, 0.18753524124622345, 0.12807191908359528, 0.145013689994812, 0.21773186326026917, 0.3398812711238861, 0.4834200143814087, 0.5288287401199341, 0.3737100660800934, 0.30746668577194214, 0.20868127048015594, 0.18751391768455505, 0.20317362248897552, 0.2544117569923401, 0.21927723288536072, 0.1570923626422882, 0.19115620851516724, 0.262939989566803, 0.16346681118011475, 0.1055772677063942, 0.08535020053386688, 0.13771122694015503, 0.1966082602739334, 0.31105631589889526, 0.23357945680618286, 0.1446532905101776, 0.07387977838516235, 0.049725160002708435, 0.16208308935165405, 0.20260776579380035, 0.19241446256637573, 0.1742626130580902, 0.24450325965881348, 0.29763174057006836, 0.4582834541797638, 0.45463043451309204, 0.34010663628578186, 0.42921021580696106, 0.2352573424577713, 0.4204385280609131, 0.6266008615493774, 0.6200413107872009, 0.49595382809638977, 0.3224431276321411, 0.46240442991256714, 0.3310098946094513, 0.13933274149894714, 0.10857968032360077, 0.18186739087104797, 0.2514113187789917, 0.18143022060394287, 0.14008961617946625, 0.0945352241396904, 0.0888846218585968, 0.09166546165943146, 0.07816267758607864, 0.11394116282463074, 0.20171603560447693, 0.17185434699058533, 0.1497066468000412, 0.15672734379768372, 0.1885044127702713, 0.2144407331943512, 0.2943968176841736, 0.16817830502986908, 0.11363265663385391, 0.07911091297864914]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9078295230865479</v>
+        <v>0.6287065744400024</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.184489500010386</v>
+        <v>1.182604400004493</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005560983568123878</v>
+        <v>0.005552133333354427</v>
       </c>
     </row>
     <row r="57">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.37091919779777527, 0.20144085586071014, 0.19889919459819794, 0.2362954169511795, 0.21395033597946167, 0.26939940452575684, 0.2512410581111908, 0.40721583366394043, 0.48679497838020325, 0.6252618432044983, 0.43633171916007996, 0.5366730093955994, 0.3940686285495758, 0.4041707515716553, 0.43044185638427734, 0.1693325936794281, 0.10063987225294113, 0.12838146090507507, 0.15639947354793549, 0.15190403163433075, 0.16925550997257233, 0.19747582077980042, 0.2745906710624695, 0.3512316346168518, 0.3309268653392792, 0.33780962228775024, 0.20590882003307343, 0.169424906373024, 0.1534103900194168, 0.2077357918024063, 0.2957121729850769, 0.3956005871295929, 0.512348473072052, 0.34619876742362976, 0.3782370984554291, 0.4165043234825134, 0.5131837725639343, 0.45230886340141296, 0.38583505153656006, 0.35686808824539185, 0.3477509915828705, 0.25155651569366455, 0.2875426113605499, 0.37539049983024597, 0.3278158903121948, 0.2708073556423187, 0.3398049473762512, 0.41688573360443115, 0.43546468019485474, 0.4204008877277374, 0.37442541122436523, 0.3096867501735687, 0.26577335596084595, 0.24828730523586273, 0.20016661286354065, 0.179129958152771, 0.2365063577890396, 0.20847389101982117, 0.21663419902324677, 0.1969427615404129, 0.13972003757953644, 0.1860862672328949, 0.16374219954013824, 0.1753520965576172, 0.18427279591560364, 0.21336770057678223, 0.21868735551834106, 0.17953568696975708, 0.2930319309234619, 0.22684530913829803, 0.1840813010931015, 0.2038613259792328, 0.22423261404037476, 0.20194193720817566, 0.2244979739189148, 0.20788729190826416, 0.1469906121492386, 0.14414921402931213, 0.07082065939903259, 0.06757808476686478, 0.07616172730922699, 0.07208146154880524, 0.06182991340756416, 0.08383825421333313, 0.11562599986791611, 0.14177058637142181, 0.17889465391635895, 0.255035936832428, 0.216434508562088, 0.1665641963481903, 0.13436461985111237, 0.13779345154762268, 0.13585902750492096, 0.14808377623558044, 0.17551277577877045, 0.19751159846782684, 0.22626075148582458, 0.15082098543643951, 0.14555341005325317, 0.13873250782489777, 0.1731717586517334, 0.21005947887897491, 0.2313942015171051, 0.2158506065607071, 0.22436916828155518, 0.25810322165489197, 0.22080405056476593, 0.21440576016902924, 0.2174869030714035, 0.22918209433555603, 0.2390507161617279, 0.20554982125759125, 0.21361540257930756, 0.17688880860805511, 0.16148701310157776, 0.1750512272119522, 0.2885953485965729, 0.46274814009666443, 0.47537121176719666, 0.4395610988140106, 0.2397087812423706, 0.178619384765625, 0.18477332592010498, 0.17563340067863464, 0.1590348333120346, 0.13477490842342377, 0.12341108918190002, 0.11208643764257431, 0.12760049104690552, 0.15236042439937592, 0.14737260341644287, 0.2146133929491043, 0.21521039307117462, 0.16570216417312622, 0.237333282828331, 0.25891974568367004, 0.2439635694026947, 0.21151036024093628, 0.16225896775722504, 0.14832833409309387, 0.1478407233953476, 0.13990706205368042, 0.09223569184541702, 0.08003591001033783, 0.07984252274036407, 0.0716845765709877, 0.118694007396698, 0.09358395636081696, 0.11935165524482727, 0.14606794714927673, 0.15410421788692474, 0.13062702119350433, 0.16873197257518768, 0.18954168260097504, 0.16323642432689667, 0.11240660399198532, 0.09055788815021515, 0.12360308319330215, 0.1444433033466339, 0.15963444113731384, 0.1600010097026825, 0.16656287014484406, 0.13763883709907532, 0.14592847228050232, 0.19593006372451782, 0.24837981164455414, 0.3277106285095215, 0.353110671043396, 0.44989362359046936, 0.5318242907524109, 0.56577467918396, 0.4011039137840271, 0.3525719940662384, 0.2597872018814087, 0.31739863753318787, 0.38224729895591736, 0.40130046010017395, 0.2973138093948364, 0.27712351083755493, 0.27339935302734375, 0.18966883420944214, 0.12862807512283325, 0.1585896611213684, 0.2328496128320694, 0.2629806399345398, 0.15909069776535034, 0.10299473255872726, 0.08965438604354858, 0.10797222703695297, 0.11958685517311096, 0.20190268754959106, 0.2681352496147156, 0.38744786381721497, 0.3258741796016693, 0.16723908483982086, 0.23236720263957977, 0.21187767386436462, 0.21625502407550812, 0.3215375244617462, 0.22302816808223724, 0.3310367465019226, 0.3158877491950989, 0.38228699564933777, 0.3736211359500885, 0.1903439313173294, 0.23959881067276, 0.2037767767906189, 0.26793408393859863, 0.21079866588115692, 0.22989203035831451, 0.3743446171283722, 0.463815301656723, 0.3541778326034546]</t>
+          <t>[0.2565895915031433, 0.11711238324642181, 0.08831792324781418, 0.12337750941514969, 0.06293994933366776, 0.08478730171918869, 0.07795406132936478, 0.2351042628288269, 0.34874460101127625, 0.44519928097724915, 0.3626334071159363, 0.3246711194515228, 0.2632603943347931, 0.2055978924036026, 0.13974222540855408, 0.04125696420669556, 0.02861555479466915, 0.03369428217411041, 0.044388704001903534, 0.0343756303191185, 0.0448451042175293, 0.04607485607266426, 0.07816236466169357, 0.11496146768331528, 0.12454015016555786, 0.12197951227426529, 0.06674127280712128, 0.04803333431482315, 0.04070853069424629, 0.05717199668288231, 0.085915207862854, 0.14952799677848816, 0.2586316168308258, 0.15781523287296295, 0.18878722190856934, 0.33308863639831543, 0.5156279802322388, 0.3128713071346283, 0.19345740973949432, 0.1729590743780136, 0.14034946262836456, 0.09324922412633896, 0.14559870958328247, 0.21605435013771057, 0.15954254567623138, 0.09041348844766617, 0.14727814495563507, 0.18541313707828522, 0.19320730865001678, 0.15420833230018616, 0.12816640734672546, 0.08903254568576813, 0.054412592202425, 0.05251599848270416, 0.045343197882175446, 0.040646184235811234, 0.05614558607339859, 0.04968129098415375, 0.05214489996433258, 0.05664927139878273, 0.036656320095062256, 0.046640634536743164, 0.04251993075013161, 0.041461698710918427, 0.04024919494986534, 0.042833104729652405, 0.04762062802910805, 0.04333651065826416, 0.11796281486749649, 0.10997942835092545, 0.06735683232545853, 0.06438291072845459, 0.07178328931331635, 0.058567337691783905, 0.05683683976531029, 0.04731291905045509, 0.03316169232130051, 0.03265570476651192, 0.01765410415828228, 0.016180075705051422, 0.01962287724018097, 0.016971740871667862, 0.015419114381074905, 0.02101138047873974, 0.030080709606409073, 0.036145057529211044, 0.04864192754030228, 0.05783458426594734, 0.044959183782339096, 0.03651624172925949, 0.03383895009756088, 0.03345412015914917, 0.02876206487417221, 0.03694877028465271, 0.038737982511520386, 0.0371091365814209, 0.0497257262468338, 0.042758017778396606, 0.04659036919474602, 0.04343026503920555, 0.04782826080918312, 0.047809675335884094, 0.04433092102408409, 0.04152606055140495, 0.05143345519900322, 0.06151964142918587, 0.05009082332253456, 0.05288012698292732, 0.058552224189043045, 0.07013663649559021, 0.08311169594526291, 0.06562168151140213, 0.06818120926618576, 0.053218964487314224, 0.04665845260024071, 0.05320928990840912, 0.1515955924987793, 0.2967645525932312, 0.21934249997138977, 0.17337600886821747, 0.06731468439102173, 0.047429680824279785, 0.0522783137857914, 0.049782272428274155, 0.04959345981478691, 0.046216223388910294, 0.04285769909620285, 0.0433734655380249, 0.054548706859350204, 0.06020532175898552, 0.06285863369703293, 0.08902093768119812, 0.09425530582666397, 0.06501475721597672, 0.05977330356836319, 0.06661943346261978, 0.05885946750640869, 0.05330175906419754, 0.04051995649933815, 0.038296911865472794, 0.03899781033396721, 0.037151068449020386, 0.017354127019643784, 0.016156548634171486, 0.017017465084791183, 0.017700184136629105, 0.029854198917746544, 0.023051569238305092, 0.0304565392434597, 0.039211954921483994, 0.037099726498126984, 0.030790606513619423, 0.032958291471004486, 0.03765992075204849, 0.034961774945259094, 0.027223866432905197, 0.02487003803253174, 0.03385583311319351, 0.04194117337465286, 0.05317510664463043, 0.051756516098976135, 0.05543038994073868, 0.04560193046927452, 0.05098268762230873, 0.06593416631221771, 0.08695542067289352, 0.08166543394327164, 0.07373867928981781, 0.09845476597547531, 0.1727987378835678, 0.21929024159908295, 0.11278939247131348, 0.11415300518274307, 0.07373293489217758, 0.12347054481506348, 0.16377907991409302, 0.15298709273338318, 0.09424722194671631, 0.05903840437531471, 0.057863667607307434, 0.041257813572883606, 0.02829658053815365, 0.03641985356807709, 0.06712918728590012, 0.06843231618404388, 0.04044025018811226, 0.02266019396483898, 0.017879517748951912, 0.023477869108319283, 0.029321016743779182, 0.06075819581747055, 0.07809575647115707, 0.1768210381269455, 0.1218642145395279, 0.03823186457157135, 0.05518272519111633, 0.038864076137542725, 0.042790550738573074, 0.09105042368173599, 0.05222097411751747, 0.10572293400764465, 0.09178980439901352, 0.15291373431682587, 0.16253066062927246, 0.06776063144207001, 0.1300039440393448, 0.09451316297054291, 0.1706882119178772, 0.07728049904108047, 0.07942362129688263, 0.14426350593566895, 0.2292201966047287, 0.16136333346366882]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.6252618432044983</v>
+        <v>0.5156279802322388</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.16302330000326</v>
+        <v>1.191585900000064</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005460203286400283</v>
+        <v>0.005594300000000299</v>
       </c>
     </row>
     <row r="58">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0.290105402469635, 0.3087463974952698, 0.22240206599235535, 0.2213214933872223, 0.28394362330436707, 0.3020029067993164, 0.2609536945819855, 0.23440109193325043, 0.22198280692100525, 0.29364994168281555, 0.30964195728302, 0.23631219565868378, 0.24323439598083496, 0.16882124543190002, 0.1383761763572693, 0.1829281747341156, 0.2418229877948761, 0.24743792414665222, 0.2118133157491684, 0.1872468739748001, 0.2649052143096924, 0.3734961152076721, 0.545910656452179, 0.5089802742004395, 0.48654672503471375, 0.4403513967990875, 0.4363516867160797, 0.4244261085987091, 0.2916753888130188, 0.35158979892730713, 0.47183099389076233, 0.5762391090393066, 0.45134416222572327, 0.2949841320514679, 0.3224792778491974, 0.3341749608516693, 0.3227240741252899, 0.23000310361385345, 0.2525659501552582, 0.4802348017692566, 0.5561701059341431, 0.5209675431251526, 0.5304908156394958, 0.4374988377094269, 0.3642948567867279, 0.37851810455322266, 0.522676408290863, 0.47128739953041077, 0.5611478090286255, 0.5447724461555481, 0.42220157384872437, 0.3327484726905823, 0.27243325114250183, 0.29262566566467285, 0.4707241356372833, 0.6032119393348694, 0.670559287071228, 0.4659741222858429, 0.5574232339859009, 0.6235936284065247, 0.6560699939727783, 0.43465152382850647, 0.376995325088501, 0.3935878276824951, 0.4744572937488556, 0.5633096098899841, 0.5961008071899414, 0.7066333293914795, 0.6062145829200745, 0.47683605551719666, 0.5702067017555237, 0.5426498651504517, 0.7257140278816223, 0.5352556109428406, 0.5833773612976074, 0.6610772013664246, 0.5948397517204285, 0.5786713361740112, 0.7016739845275879, 0.7299066781997681, 0.6926424503326416, 0.6256827712059021, 0.5608665943145752, 0.6778666973114014, 0.6680188775062561, 0.7299237847328186, 0.6429051756858826, 0.6694927215576172, 0.5572497248649597, 0.47604867815971375, 0.5492169857025146, 0.4990997612476349, 0.567480742931366, 0.48582375049591064, 0.4779300391674042, 0.5219889283180237, 0.514074981212616, 0.5150025486946106, 0.630335807800293, 0.7208677530288696, 0.725304126739502, 0.8025080561637878, 0.8056186437606812, 0.7053987979888916, 0.5541275143623352, 0.5213614106178284, 0.4112817645072937, 0.6197583675384521, 0.6068013310432434, 0.5910634398460388, 0.6687003970146179, 0.6117464900016785, 0.5209347009658813, 0.42660388350486755, 0.6396319270133972, 0.5990036129951477, 0.490113765001297, 0.3289487659931183, 0.34147724509239197, 0.31941089034080505, 0.485757440328598, 0.6680886149406433, 0.681151807308197, 0.6596294641494751, 0.5374946594238281, 0.4520610570907593, 0.540810763835907, 0.4671543836593628, 0.4365067481994629, 0.5237430334091187, 0.39782366156578064, 0.46355751156806946, 0.5952913165092468, 0.6259996891021729, 0.6575378775596619, 0.6579713225364685, 0.6713220477104187, 0.5562283992767334, 0.6550766825675964, 0.6910578012466431, 0.743614137172699, 0.7644419074058533, 0.722015380859375, 0.6553167104721069, 0.6500372886657715, 0.5498926043510437, 0.5607525706291199, 0.5352250337600708, 0.3940536677837372, 0.2713632583618164, 0.37672609090805054, 0.33487096428871155, 0.4701157510280609, 0.539051353931427, 0.6571474671363831, 0.4699161946773529, 0.3697604238986969, 0.419729083776474, 0.5085999369621277, 0.513698935508728, 0.46754205226898193, 0.4045528769493103, 0.4240962564945221, 0.44446972012519836, 0.34229904413223267, 0.4319624900817871, 0.39708077907562256, 0.4090701937675476, 0.44875678420066833, 0.47528865933418274, 0.45097360014915466, 0.4962310492992401, 0.49075108766555786, 0.48558348417282104, 0.4278375208377838, 0.28943079710006714, 0.2442067712545395, 0.4125532805919647, 0.38547804951667786, 0.26708701252937317, 0.3685877025127411, 0.46927231550216675, 0.5129437446594238, 0.4742448329925537, 0.3725343346595764, 0.5852154493331909, 0.536027729511261, 0.5531297922134399, 0.422409325838089, 0.2895772457122803, 0.43385666608810425, 0.486346572637558, 0.6745554208755493, 0.6315735578536987, 0.5961822271347046, 0.7644727826118469, 0.7783445715904236, 0.7691523432731628, 0.7489154934883118, 0.8527337312698364, 0.7804599404335022, 0.6704413294792175, 0.5531659126281738, 0.599492073059082, 0.5526087880134583, 0.5356059670448303, 0.570011556148529, 0.5637308359146118, 0.5901551842689514, 0.6439138054847717, 0.6954739689826965, 0.6694988012313843, 0.692619800567627]</t>
+          <t>[0.0788303092122078, 0.09925752878189087, 0.0665174052119255, 0.05979792773723602, 0.07780572772026062, 0.08442489802837372, 0.08010119944810867, 0.07959064096212387, 0.0743134468793869, 0.08975290507078171, 0.1106075569987297, 0.08222920447587967, 0.06941524147987366, 0.04744577407836914, 0.0447457917034626, 0.06523539125919342, 0.11319535970687866, 0.11220213025808334, 0.07514820247888565, 0.05605366453528404, 0.07748445123434067, 0.14457346498966217, 0.2637280821800232, 0.24827896058559418, 0.2178216129541397, 0.13587145507335663, 0.11229337006807327, 0.12644559144973755, 0.09855421632528305, 0.11487220227718353, 0.22808018326759338, 0.29550230503082275, 0.18968915939331055, 0.0990343913435936, 0.10923568904399872, 0.10726574063301086, 0.09559833258390427, 0.07488559931516647, 0.07467982172966003, 0.19293369352817535, 0.3527521789073944, 0.34062227606773376, 0.27644672989845276, 0.18257135152816772, 0.11840251833200455, 0.1148093044757843, 0.31390348076820374, 0.255638062953949, 0.35512810945510864, 0.2827579379081726, 0.15563587844371796, 0.11894697695970535, 0.09217951446771622, 0.13118718564510345, 0.4072670042514801, 0.31967875361442566, 0.43285754323005676, 0.16652856767177582, 0.15805231034755707, 0.24202768504619598, 0.3726780116558075, 0.17652617394924164, 0.14729957282543182, 0.1397920548915863, 0.2562035620212555, 0.319928914308548, 0.29404371976852417, 0.43224838376045227, 0.3355886936187744, 0.18844525516033173, 0.30208829045295715, 0.24449440836906433, 0.4154644012451172, 0.2203042060136795, 0.3141481280326843, 0.43972674012184143, 0.3023994266986847, 0.31723758578300476, 0.5056124329566956, 0.5589802861213684, 0.6094335913658142, 0.5478017330169678, 0.3786877691745758, 0.42416858673095703, 0.3499463200569153, 0.3957982659339905, 0.34926140308380127, 0.37961345911026, 0.274445503950119, 0.2343009114265442, 0.23586681485176086, 0.1901501715183258, 0.21664340794086456, 0.15040002763271332, 0.17341481149196625, 0.19039155542850494, 0.17309904098510742, 0.18683595955371857, 0.3087571859359741, 0.39901483058929443, 0.33724966645240784, 0.47482672333717346, 0.5358242392539978, 0.4119715988636017, 0.27856236696243286, 0.25075632333755493, 0.1478378176689148, 0.33028021454811096, 0.3110451102256775, 0.2811259925365448, 0.31132772564888, 0.27044281363487244, 0.20529991388320923, 0.13508810102939606, 0.32011863589286804, 0.28166699409484863, 0.17772693932056427, 0.10417898744344711, 0.1400146335363388, 0.12583833932876587, 0.23526938259601593, 0.43796369433403015, 0.3666783571243286, 0.2947819232940674, 0.22655946016311646, 0.18802644312381744, 0.18887564539909363, 0.16649430990219116, 0.1511685699224472, 0.195704847574234, 0.15640872716903687, 0.18563596904277802, 0.28892865777015686, 0.3033472001552582, 0.2819408178329468, 0.2980721890926361, 0.29691919684410095, 0.23406822979450226, 0.3959888815879822, 0.43129411339759827, 0.44109106063842773, 0.37331077456474304, 0.29615846276283264, 0.26181265711784363, 0.26800113916397095, 0.2093038707971573, 0.2177673727273941, 0.2032991200685501, 0.13487055897712708, 0.07477649301290512, 0.12656554579734802, 0.1032460480928421, 0.17811061441898346, 0.289793461561203, 0.36939725279808044, 0.2326699197292328, 0.12888918817043304, 0.13696543872356415, 0.1486930251121521, 0.15659697353839874, 0.11777467280626297, 0.11170800775289536, 0.14460816979408264, 0.14043402671813965, 0.08432149142026901, 0.12423037737607956, 0.09375359863042831, 0.09177561849355698, 0.11884115636348724, 0.14877362549304962, 0.14107587933540344, 0.17683064937591553, 0.1591237634420395, 0.157410129904747, 0.1597709357738495, 0.0866507813334465, 0.06219090521335602, 0.1367654800415039, 0.11559233069419861, 0.07157723605632782, 0.11620190739631653, 0.1921950876712799, 0.23910827934741974, 0.1935425102710724, 0.09993898868560791, 0.19534514844417572, 0.1720423549413681, 0.15962597727775574, 0.0753447562456131, 0.04323224723339081, 0.07175802439451218, 0.09819025546312332, 0.17518740892410278, 0.20507599413394928, 0.20095255970954895, 0.4915125072002411, 0.4747575521469116, 0.41000986099243164, 0.399858683347702, 0.6319181323051453, 0.5115159749984741, 0.2819119691848755, 0.1828583925962448, 0.19843871891498566, 0.2194351702928543, 0.16599257290363312, 0.19018951058387756, 0.18893693387508392, 0.21544842422008514, 0.2580902874469757, 0.28197047114372253, 0.2743026316165924, 0.29776352643966675]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.8527337312698364</v>
+        <v>0.6319181323051453</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.195136199996341</v>
+        <v>1.203064000001177</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005610968075100193</v>
+        <v>0.005648187793432757</v>
       </c>
     </row>
     <row r="59">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.11652970314025879, 0.12215544283390045, 0.1289060264825821, 0.1807982325553894, 0.2748582065105438, 0.10863649100065231, 0.06038980185985565, 0.0713186115026474, 0.061806436628103256, 0.21160410344600677, 0.24872727692127228, 0.16011999547481537, 0.08383642137050629, 0.06733480095863342, 0.046726763248443604, 0.05649726465344429, 0.08861522376537323, 0.12667731940746307, 0.13260208070278168, 0.1551324874162674, 0.11451291292905807, 0.07492820173501968, 0.060576289892196655, 0.07021799683570862, 0.07366044074296951, 0.10846497863531113, 0.07544837146997452, 0.11745540797710419, 0.15584784746170044, 0.14095185697078705, 0.09417438507080078, 0.0990566685795784, 0.0990811362862587, 0.07702545076608658, 0.07090216130018234, 0.05551636591553688, 0.07448471337556839, 0.07163486629724503, 0.06781386584043503, 0.07096394896507263, 0.07690603286027908, 0.1071033924818039, 0.12886101007461548, 0.10206698626279831, 0.26790115237236023, 0.13594140112400055, 0.0948299840092659, 0.11864941567182541, 0.1227312758564949, 0.36845558881759644, 0.2750972509384155, 0.19928650557994843, 0.20225168764591217, 0.14048424363136292, 0.23146173357963562, 0.23255977034568787, 0.19910405576229095, 0.13142022490501404, 0.3046867847442627, 0.21606571972370148, 0.165005624294281, 0.243274986743927, 0.37788859009742737, 0.5557330250740051, 0.6272946000099182, 0.6283592581748962, 0.6640934944152832, 0.43738025426864624, 0.21310484409332275, 0.19627277553081512, 0.21347986161708832, 0.2884521484375, 0.2523617446422577, 0.2575649917125702, 0.1895250827074051, 0.23417282104492188, 0.41608482599258423, 0.5311675071716309, 0.36284351348876953, 0.4451596140861511, 0.34452584385871887, 0.3849746584892273, 0.391709566116333, 0.4052594304084778, 0.5118481516838074, 0.4538206160068512, 0.601729691028595, 0.7954275608062744, 0.6962624192237854, 0.8035759925842285, 0.756097674369812, 0.6223831176757812, 0.7045470476150513, 0.5969041585922241, 0.5533779859542847, 0.594947099685669, 0.6224185228347778, 0.6763935089111328, 0.5868587493896484, 0.5925584435462952, 0.6851196885108948, 0.6641116142272949, 0.6305555105209351, 0.7845166325569153, 0.8546396493911743, 0.8491357564926147, 0.7606847882270813, 0.6982013583183289, 0.6098473072052002, 0.6609068512916565, 0.5201500654220581, 0.40460342168807983, 0.4970303475856781, 0.2972700595855713, 0.2838452160358429, 0.4289643168449402, 0.40717652440071106, 0.4132523834705353, 0.5054749846458435, 0.45647162199020386, 0.35672566294670105, 0.3021741211414337, 0.31179413199424744, 0.29392585158348083, 0.2178737074136734, 0.306289941072464, 0.40130099654197693, 0.5697815418243408, 0.6216370463371277, 0.543462872505188, 0.44082576036453247, 0.4126560389995575, 0.3839419484138489, 0.2987669110298157, 0.30194708704948425, 0.29554811120033264, 0.3165813684463501, 0.3121621310710907, 0.33122149109840393, 0.38739633560180664, 0.40949001908302307, 0.4629639983177185, 0.4717748463153839, 0.372570276260376, 0.37889334559440613, 0.26768678426742554, 0.20202453434467316, 0.202972412109375, 0.24223358929157257, 0.3608688712120056, 0.4628846347332001, 0.6211130619049072, 0.644959032535553, 0.5075969696044922, 0.4401511251926422, 0.34697726368904114, 0.34217211604118347, 0.3852687180042267, 0.5737947821617126, 0.7323446273803711, 0.7109602093696594, 0.6312366127967834, 0.6216405630111694, 0.4930356442928314, 0.4104045331478119, 0.3241264224052429, 0.26032552123069763, 0.2650960087776184, 0.3363775312900543, 0.41099467873573303, 0.4123876988887787, 0.44542261958122253, 0.4806252419948578, 0.40163785219192505, 0.34350669384002686, 0.35699450969696045, 0.30021393299102783, 0.26943549513816833, 0.25674253702163696, 0.2521677315235138, 0.40419334173202515, 0.5932660698890686, 0.6721410155296326, 0.6954221725463867, 0.694717288017273, 0.6660599112510681, 0.5936487317085266, 0.6084066033363342, 0.5063483715057373, 0.5108134150505066, 0.4691917896270752, 0.4013909101486206, 0.3528074324131012, 0.31831231713294983, 0.41692543029785156, 0.4654618799686432, 0.4024083912372589, 0.340298593044281, 0.28585734963417053, 0.33484387397766113, 0.37433621287345886, 0.3406711518764496, 0.4012572467327118, 0.47723397612571716, 0.5513350963592529, 0.6708810925483704, 0.7482240796089172, 0.7628588080406189, 0.6879059076309204, 0.6379354000091553, 0.602636992931366, 0.42312702536582947, 0.43203169107437134]</t>
+          <t>[0.023036722093820572, 0.031235001981258392, 0.03289269283413887, 0.034346818923950195, 0.04024570807814598, 0.016962435096502304, 0.011997285299003124, 0.01224803552031517, 0.011470522731542587, 0.05626246705651283, 0.07649227231740952, 0.043687671422958374, 0.024025578051805496, 0.02129495143890381, 0.01750534027814865, 0.021327612921595573, 0.02651957795023918, 0.03599604219198227, 0.039234381169080734, 0.04280400276184082, 0.037907738238573074, 0.029872357845306396, 0.02054094709455967, 0.022559989243745804, 0.023383939638733864, 0.04359153285622597, 0.02112037129700184, 0.02934734895825386, 0.03483523055911064, 0.05352805182337761, 0.0471796877682209, 0.04741988331079483, 0.05551721528172493, 0.037411127239465714, 0.02857353538274765, 0.018185896798968315, 0.018651679158210754, 0.014776721596717834, 0.015436534769833088, 0.023380573838949203, 0.018176455050706863, 0.03195517510175705, 0.043414462357759476, 0.03108930215239525, 0.1176605224609375, 0.06012190505862236, 0.030630361288785934, 0.06285542249679565, 0.050701625645160675, 0.2369929850101471, 0.23016567528247833, 0.1815994828939438, 0.17669251561164856, 0.0804205909371376, 0.11520032584667206, 0.11692430824041367, 0.11751684546470642, 0.09562325477600098, 0.16742675006389618, 0.10046304762363434, 0.05238684266805649, 0.05767928063869476, 0.08677200227975845, 0.14405402541160583, 0.23419597744941711, 0.2495076209306717, 0.321594774723053, 0.1141696646809578, 0.05189024284482002, 0.048222657293081284, 0.061433013528585434, 0.06770342588424683, 0.05490361154079437, 0.05330156534910202, 0.0430644229054451, 0.05355091020464897, 0.10145554691553116, 0.20751456916332245, 0.1057908684015274, 0.12093245983123779, 0.06922692060470581, 0.08946702629327774, 0.13576215505599976, 0.1494009643793106, 0.2693500816822052, 0.16728489100933075, 0.3487526774406433, 0.6874669790267944, 0.5152083039283752, 0.6546500325202942, 0.503447413444519, 0.32385724782943726, 0.4646773636341095, 0.3069661855697632, 0.20920781791210175, 0.2293296605348587, 0.27022677659988403, 0.3683270215988159, 0.28728020191192627, 0.24800702929496765, 0.37635335326194763, 0.30516377091407776, 0.26189664006233215, 0.4611220955848694, 0.6357609033584595, 0.5578349828720093, 0.32220709323883057, 0.3506833612918854, 0.2451910525560379, 0.28317132592201233, 0.2406596541404724, 0.211637943983078, 0.25516411662101746, 0.09419895708560944, 0.07102826982736588, 0.0990486890077591, 0.09586015343666077, 0.09267047792673111, 0.15833887457847595, 0.1588761955499649, 0.10072426497936249, 0.07757130265235901, 0.09611999243497849, 0.07874678075313568, 0.04630708321928978, 0.06124305725097656, 0.11238391697406769, 0.182815819978714, 0.22091732919216156, 0.1982131451368332, 0.1298055648803711, 0.13111212849617004, 0.1362963318824768, 0.09139268845319748, 0.0814080610871315, 0.08242111653089523, 0.07865319401025772, 0.08872248232364655, 0.11487732827663422, 0.1415618360042572, 0.15898557007312775, 0.1928161382675171, 0.16367900371551514, 0.12460058927536011, 0.14021877944469452, 0.06999716907739639, 0.0495336689054966, 0.041046157479286194, 0.042516808956861496, 0.06408919394016266, 0.12212426960468292, 0.26840832829475403, 0.315780907869339, 0.19160711765289307, 0.14874371886253357, 0.10684878379106522, 0.10540023446083069, 0.13400545716285706, 0.24747994542121887, 0.4087771773338318, 0.3763442635536194, 0.2523910403251648, 0.25159919261932373, 0.15061691403388977, 0.11971326172351837, 0.09995722025632858, 0.08051402866840363, 0.08266721665859222, 0.11700495332479477, 0.12183092534542084, 0.115784652531147, 0.11193016171455383, 0.12647293508052826, 0.10362965613603592, 0.08017238974571228, 0.07123659551143646, 0.07777393609285355, 0.07876410335302353, 0.08373308926820755, 0.08312010020017624, 0.18483881652355194, 0.49962809681892395, 0.6357007622718811, 0.6167730689048767, 0.5808229446411133, 0.38372325897216797, 0.24522210657596588, 0.23859359323978424, 0.16462475061416626, 0.19663932919502258, 0.19541053473949432, 0.14971476793289185, 0.1105339378118515, 0.11022555083036423, 0.17193835973739624, 0.2608775496482849, 0.17773887515068054, 0.12069915235042572, 0.09159842878580093, 0.11742397397756577, 0.11367647349834442, 0.10852629691362381, 0.12721200287342072, 0.17041784524917603, 0.1952516734600067, 0.28480198979377747, 0.39290040731430054, 0.4051491320133209, 0.2897908389568329, 0.24423450231552124, 0.2213319092988968, 0.13476786017417908, 0.14478705823421478]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.8546396493911743</v>
+        <v>0.6874669790267944</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.177691400022013</v>
+        <v>1.194305099998019</v>
       </c>
       <c r="J59" t="n">
-        <v>0.005529067605737151</v>
+        <v>0.005607066197173796</v>
       </c>
     </row>
     <row r="60">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.7787074446678162, 0.6760534048080444, 0.5899099707603455, 0.9192000031471252, 0.4806847870349884, 0.4346817135810852, 0.7963436245918274, 0.7275856733322144, 0.7569789886474609, 0.5200124979019165, 0.32892975211143494, 0.5747998952865601, 0.5121155381202698, 0.7964242696762085, 0.6425281167030334, 0.6053250432014465, 0.3094189763069153, 0.3302203118801117, 0.524458646774292, 0.3653639554977417, 0.3140791654586792, 0.3600391149520874, 0.5027300119400024, 0.402457594871521, 0.28263166546821594, 0.630092978477478, 0.3190208971500397, 0.3654734194278717, 0.8813814520835876, 0.7303158640861511, 0.34558701515197754, 0.8659255504608154, 0.7044605612754822, 0.7732440829277039, 0.51087886095047, 0.44547510147094727, 0.5668526887893677, 0.3561185598373413, 0.42462143301963806, 0.511803150177002, 0.4861711859703064, 0.770733654499054, 0.8205532431602478, 0.6301044225692749, 0.7113360166549683, 0.34786608815193176, 0.37824565172195435, 0.3839356005191803, 0.6706294417381287, 0.6247600317001343, 0.7164605259895325, 0.3352864682674408, 0.19155557453632355, 0.22251442074775696, 0.19306625425815582, 0.21736061573028564, 0.47971776127815247, 0.22437676787376404, 0.2866520285606384, 0.39547282457351685, 0.551639974117279, 0.20353055000305176, 0.3362475335597992, 0.6731330156326294, 0.45495763421058655, 0.5402774214744568, 0.3779640197753906, 0.376058429479599, 0.8467980027198792, 0.31353774666786194, 0.6644576787948608, 0.24004098773002625, 0.1610579490661621, 0.5513374209403992, 0.4569401443004608, 0.35384875535964966, 0.799606204032898, 0.4522723853588104, 0.36394867300987244, 0.2839263677597046, 0.387670636177063, 0.1385340690612793, 0.13153967261314392, 0.21173973381519318, 0.1764991283416748, 0.3127051591873169, 0.22080405056476593, 0.10046102106571198, 0.19364646077156067, 0.28385600447654724, 0.20877383649349213, 0.34719720482826233, 0.33190226554870605, 0.3072555661201477, 0.69304358959198, 0.7540526390075684, 0.6313493847846985, 0.4641658365726471, 0.5497210025787354, 0.3590974509716034, 0.2871212363243103, 0.2851041853427887]</t>
+          <t>[0.9632286429405212, 0.8769957423210144, 0.6392534971237183, 0.9821041226387024, 0.49975329637527466, 0.44038140773773193, 0.9274687767028809, 0.817720353603363, 0.8780339956283569, 0.5993707776069641, 0.32624074816703796, 0.6209094524383545, 0.3432892858982086, 0.8826560974121094, 0.6198121309280396, 0.716252863407135, 0.11362631618976593, 0.22744718194007874, 0.5334410071372986, 0.3073394298553467, 0.25590991973876953, 0.25554710626602173, 0.43340450525283813, 0.30256637930870056, 0.24218229949474335, 0.805431067943573, 0.17933760583400726, 0.20027461647987366, 0.9129696488380432, 0.7068451642990112, 0.25465288758277893, 0.8475757241249084, 0.6637571454048157, 0.6236816644668579, 0.8372684717178345, 0.27923136949539185, 0.4955942928791046, 0.20956818759441376, 0.30690667033195496, 0.2903800904750824, 0.47440671920776367, 0.7990557551383972, 0.8831676244735718, 0.666878879070282, 0.7957890629768372, 0.2909628450870514, 0.18601731956005096, 0.2526566684246063, 0.8246012926101685, 0.7013341188430786, 0.6075137257575989, 0.2413431853055954, 0.11644572764635086, 0.12103726714849472, 0.08887193351984024, 0.17553852498531342, 0.36950963735580444, 0.15926052629947662, 0.11930705606937408, 0.32936739921569824, 0.677063524723053, 0.13042250275611877, 0.2263902872800827, 0.615836501121521, 0.3495958149433136, 0.44932565093040466, 0.3127819895744324, 0.21625158190727234, 0.8878169655799866, 0.16373424232006073, 0.5989024639129639, 0.11984524130821228, 0.06923139840364456, 0.4436083137989044, 0.40447336435317993, 0.32722437381744385, 0.8892658948898315, 0.5027596950531006, 0.1920211762189865, 0.1948462873697281, 0.37269866466522217, 0.06126366928219795, 0.06199029088020325, 0.14293718338012695, 0.10351572930812836, 0.16507624089717865, 0.10285292565822601, 0.03898725286126137, 0.13360866904258728, 0.2541903555393219, 0.17028839886188507, 0.3000859022140503, 0.24617065489292145, 0.2502720355987549, 0.653469443321228, 0.6647756695747375, 0.4778594672679901, 0.4022001326084137, 0.5917219519615173, 0.1937168687582016, 0.18036146461963654, 0.17924948036670685]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9192000031471252</v>
+        <v>0.9821041226387024</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.5902138999954332</v>
+        <v>0.6246872000047006</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005786410784268952</v>
+        <v>0.006124384313771574</v>
       </c>
     </row>
     <row r="61">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0.17884458601474762, 0.24863918125629425, 0.3230494260787964, 0.2862586975097656, 0.7766402363777161, 0.3620217740535736, 0.5077642798423767, 0.4720180034637451, 0.3468053936958313, 0.38717103004455566, 0.18669073283672333, 0.3125373423099518, 0.2663853168487549, 0.31960535049438477, 0.4977763593196869, 0.2635294795036316, 0.1252933144569397, 0.4297041893005371, 0.16572913527488708, 0.36301448941230774, 0.34206587076187134, 0.34265631437301636, 0.2916809022426605, 0.48758038878440857, 0.3186890780925751, 0.3058830201625824, 0.4086168110370636, 0.19754701852798462, 0.19792667031288147, 0.3149479925632477, 0.2100502997636795, 0.15766242146492004, 0.27162089943885803, 0.29179197549819946, 0.3739869296550751, 0.253311425447464, 0.2669420540332794, 0.1698269248008728, 0.5416700839996338, 0.10600003600120544, 0.21525351703166962, 0.22140276432037354, 0.1599617600440979, 0.4314354360103607, 0.20355655252933502, 0.15090322494506836, 0.13512971997261047, 0.22786274552345276, 0.21588371694087982, 0.49356910586357117, 0.32563409209251404, 0.27994173765182495, 0.18528687953948975, 0.193714439868927, 0.4584204852581024, 0.301479309797287, 0.4058372378349304, 0.15176010131835938, 0.11272584646940231, 0.2839132845401764, 0.1596650332212448, 0.4212227761745453, 0.3297319710254669, 0.3343595266342163, 0.15572327375411987, 0.15458692610263824, 0.11765720695257187, 0.38824206590652466, 0.20637160539627075, 0.22218093276023865, 0.38880017399787903, 0.24194104969501495, 0.3121098279953003, 0.10413968563079834, 0.05749029666185379, 0.07734094560146332, 0.09527923911809921, 0.06636163592338562, 0.1945822536945343, 0.16863107681274414, 0.3149750232696533, 0.2899225652217865, 0.2928319573402405, 0.18751832842826843, 0.12346917390823364, 0.30436021089553833, 0.343222439289093, 0.2534071207046509, 0.17201241850852966, 0.20010095834732056, 0.14341603219509125, 0.35584819316864014, 0.2946663796901703, 0.5986599326133728, 0.6133809089660645, 0.7719289064407349, 0.5380921363830566, 0.7808390259742737, 0.42828884720802307, 0.6114986538887024, 0.3623705208301544, 0.44163769483566284, 0.4417741298675537]</t>
+          <t>[0.06221182644367218, 0.09664401412010193, 0.11287915706634521, 0.13219374418258667, 0.8253412246704102, 0.16254237294197083, 0.4050995111465454, 0.3770250082015991, 0.1513093262910843, 0.14500318467617035, 0.05446446314454079, 0.1379680037498474, 0.12368376553058624, 0.12836121022701263, 0.26347216963768005, 0.11453062295913696, 0.05666393041610718, 0.1732616126537323, 0.07320863753557205, 0.4154309928417206, 0.2563880681991577, 0.43421658873558044, 0.31684088706970215, 0.32897859811782837, 0.2330441027879715, 0.3601769506931305, 0.4264819622039795, 0.09576874226331711, 0.11159694939851761, 0.1078752651810646, 0.05454225093126297, 0.0827675610780716, 0.09698762744665146, 0.10113905370235443, 0.11706555634737015, 0.07114596664905548, 0.10080516338348389, 0.06408768147230148, 0.3217715620994568, 0.04909316822886467, 0.1434093415737152, 0.10151080787181854, 0.04620886966586113, 0.18714050948619843, 0.05973346531391144, 0.036963969469070435, 0.03214660659432411, 0.04576244577765465, 0.07961393892765045, 0.17449580132961273, 0.1177111268043518, 0.07075677067041397, 0.05312255769968033, 0.05899438261985779, 0.2123199999332428, 0.07738036662340164, 0.11813730746507645, 0.03951232135295868, 0.03994224965572357, 0.1401941329240799, 0.045288342982530594, 0.18498095870018005, 0.15307225286960602, 0.12253721803426743, 0.05039343982934952, 0.05186063423752785, 0.05319969728589058, 0.19236820936203003, 0.1029837429523468, 0.08572638034820557, 0.1702004075050354, 0.1245332732796669, 0.17194147408008575, 0.03201376274228096, 0.02679317630827427, 0.049809858202934265, 0.036140311509370804, 0.03238622099161148, 0.0891132578253746, 0.06144580617547035, 0.17158208787441254, 0.16030286252498627, 0.1183595210313797, 0.06566008925437927, 0.033883530646562576, 0.08710493892431259, 0.0841352567076683, 0.06393647938966751, 0.038663484156131744, 0.07297848910093307, 0.08469079434871674, 0.15425609052181244, 0.1638968288898468, 0.37885770201683044, 0.5274130702018738, 0.7825760245323181, 0.4788188636302948, 0.7687008380889893, 0.3254687488079071, 0.34982648491859436, 0.17974981665611267, 0.29675620794296265, 0.297064870595932]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.7808390259742737</v>
+        <v>0.8253412246704102</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.5906968000053894</v>
+        <v>0.5978617000073427</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005734920388401839</v>
+        <v>0.005804482524343134</v>
       </c>
     </row>
     <row r="62">
@@ -3005,11 +3005,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.1371590793132782, 0.16935929656028748, 0.20495429635047913, 0.1499481052160263, 0.15477198362350464, 0.18680931627750397, 0.23873603343963623, 0.1746463030576706, 0.16073253750801086, 0.13807746767997742, 0.2137739211320877, 0.21453654766082764, 0.23669196665287018, 0.2210134118795395, 0.3219829499721527, 0.20003768801689148, 0.2371683418750763, 0.2098640650510788, 0.2685917317867279, 0.23022916913032532, 0.35788974165916443, 0.21735964715480804, 0.2088553011417389, 0.27060508728027344, 0.3138521611690521, 0.4017842411994934, 0.26810330152511597, 0.13870644569396973, 0.18438145518302917, 0.15224343538284302, 0.14137031137943268, 0.1841573566198349, 0.14660418033599854, 0.10708943009376526, 0.1149490475654602, 0.12522244453430176, 0.2515203058719635, 0.1623826026916504, 0.13873890042304993, 0.16695114970207214, 0.17625315487384796, 0.11628503352403641, 0.1400492787361145, 0.1716117262840271, 0.12248129397630692, 0.21828722953796387, 0.11125928908586502, 0.11532344669103622, 0.12676621973514557, 0.1428721696138382, 0.13130493462085724, 0.19244517385959625, 0.19908346235752106, 0.21400314569473267, 0.151597261428833, 0.14128829538822174, 0.17539288103580475, 0.14750875532627106, 0.13611705601215363, 0.11940683424472809, 0.1661175936460495, 0.17229248583316803, 0.1734701246023178, 0.19747164845466614, 0.271408349275589, 0.24178360402584076, 0.22466306388378143, 0.18886572122573853, 0.20569412410259247, 0.1659361571073532, 0.09887959808111191, 0.2112472951412201, 0.15415649116039276, 0.2076757252216339, 0.25372081995010376, 0.1766948401927948, 0.252501517534256, 0.3013806641101837, 0.13582618534564972, 0.1433473378419876, 0.1866537630558014, 0.19242212176322937, 0.12743866443634033, 0.1778947412967682, 0.23617538809776306, 0.24661453068256378, 0.24780835211277008, 0.21133993566036224, 0.1932070106267929, 0.27962619066238403, 0.24936677515506744, 0.17171305418014526, 0.20607030391693115, 0.15810030698776245, 0.18147248029708862, 0.15566231310367584, 0.17526938021183014, 0.1933046281337738, 0.21812516450881958, 0.1706806868314743, 0.1409662514925003, 0.1688872128725052, 0.1688872128725052]</t>
+          <t>[0.05033790320158005, 0.07803792506456375, 0.10259664058685303, 0.08427807688713074, 0.06608567386865616, 0.08375705033540726, 0.1029687225818634, 0.07188545912504196, 0.05353931337594986, 0.05304248258471489, 0.09649208933115005, 0.0795615017414093, 0.10324891656637192, 0.08658887445926666, 0.3006528913974762, 0.09354371577501297, 0.10648893564939499, 0.08546504378318787, 0.1047944575548172, 0.15367461740970612, 0.24067825078964233, 0.10586055368185043, 0.09794797003269196, 0.14890849590301514, 0.17739363014698029, 0.31329473853111267, 0.14262278378009796, 0.07446770370006561, 0.09825709462165833, 0.0672910138964653, 0.05110414698719978, 0.08087805658578873, 0.07631935179233551, 0.04870029166340828, 0.059949565678834915, 0.04760360345244408, 0.15028801560401917, 0.07985473424196243, 0.06473268568515778, 0.10395470261573792, 0.09122692048549652, 0.07617206126451492, 0.0729755163192749, 0.11882209032773972, 0.10289046913385391, 0.17732208967208862, 0.050592195242643356, 0.04675908014178276, 0.051221009343862534, 0.06332582235336304, 0.05564810335636139, 0.11713867634534836, 0.1136283203959465, 0.11878913640975952, 0.0733325183391571, 0.08206091821193695, 0.0906447321176529, 0.07697990536689758, 0.05159560218453407, 0.06485391408205032, 0.08293776959180832, 0.09193192422389984, 0.07938523590564728, 0.12085046619176865, 0.17424145340919495, 0.15634305775165558, 0.1027088612318039, 0.09698698669672012, 0.09680163115262985, 0.06451806426048279, 0.04384415224194527, 0.10662757605314255, 0.06303773075342178, 0.1570807248353958, 0.17226585745811462, 0.10141275078058243, 0.21532824635505676, 0.4108215272426605, 0.07819493114948273, 0.06528431177139282, 0.09902641177177429, 0.11765304207801819, 0.05140753462910652, 0.07753430306911469, 0.177484929561615, 0.19964444637298584, 0.10467204451560974, 0.07975224405527115, 0.09153369814157486, 0.19802311062812805, 0.14915432035923004, 0.10345528274774551, 0.1057320088148117, 0.07321660965681076, 0.07394208759069443, 0.13135148584842682, 0.09851545840501785, 0.09085554629564285, 0.12605588138103485, 0.13311554491519928, 0.07690427452325821, 0.10787984728813171, 0.10787984728813171]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.4017842411994934</v>
+        <v>0.4108215272426605</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.5923034999868833</v>
+        <v>0.5892183999967529</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005750519417348381</v>
+        <v>0.005720566990259736</v>
       </c>
     </row>
     <row r="63">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.15528805553913116, 0.19545333087444305, 0.3222883939743042, 0.22915202379226685, 0.1794954389333725, 0.25073379278182983, 0.210191547870636, 0.25147339701652527, 0.15302948653697968, 0.2537178099155426, 0.14615832269191742, 0.18552044034004211, 0.14146821200847626, 0.14148306846618652, 0.1741000860929489, 0.1440037488937378, 0.25431960821151733, 0.2066638469696045, 0.1910661906003952, 0.1704096645116806, 0.1343996524810791, 0.09138938784599304, 0.12215491384267807, 0.17059695720672607, 0.122231125831604, 0.1857021301984787, 0.15413974225521088, 0.14202973246574402, 0.14451463520526886, 0.10544764250516891, 0.1250140368938446, 0.13910320401191711, 0.13668252527713776, 0.2837691605091095, 0.16460929811000824, 0.10639464110136032, 0.1299857348203659, 0.10798289626836777, 0.09756919741630554, 0.16357815265655518, 0.14549075067043304, 0.18069735169410706, 0.21132208406925201, 0.274587482213974, 0.20558083057403564, 0.2049780637025833, 0.14541037380695343, 0.21369972825050354, 0.1943412721157074, 0.24319815635681152, 0.22684115171432495, 0.260267972946167, 0.25335901975631714, 0.35526031255722046, 0.3312656879425049, 0.3311738669872284, 0.3231872022151947, 0.3795958459377289, 0.25267553329467773, 0.14566394686698914, 0.1965630203485489, 0.33577078580856323, 0.2801022231578827, 0.43529948592185974, 0.13997802138328552, 0.20499460399150848, 0.2294064462184906, 0.24708274006843567, 0.15410102903842926, 0.26627281308174133, 0.2784961462020874, 0.15826894342899323, 0.22855335474014282, 0.24332864582538605, 0.2334371954202652, 0.1631598025560379, 0.1939491182565689, 0.2020629197359085, 0.157839834690094, 0.26672935485839844, 0.15158908069133759, 0.1643698662519455, 0.14119276404380798, 0.14314359426498413, 0.2563204765319824, 0.28599676489830017, 0.5054787993431091, 0.4550325870513916, 0.6406736373901367, 0.4702626168727875, 0.5769228935241699, 0.39755013585090637, 0.3519575595855713, 0.5975711345672607, 0.4958459138870239, 0.5846594572067261, 0.5498191118240356, 0.3874882459640503, 0.40716567635536194, 0.5232107043266296, 0.2670247256755829, 0.26626136898994446]</t>
+          <t>[0.06088070198893547, 0.07907285541296005, 0.14898377656936646, 0.07486581802368164, 0.06668029725551605, 0.0989413782954216, 0.09982073307037354, 0.10319066047668457, 0.056117698550224304, 0.10684744268655777, 0.054384294897317886, 0.0777968317270279, 0.04117884114384651, 0.04716979339718819, 0.10542349517345428, 0.07349123060703278, 0.21877612173557281, 0.08938698470592499, 0.08474639058113098, 0.06688946485519409, 0.10330982506275177, 0.02753811702132225, 0.04101582244038582, 0.061728909611701965, 0.05526042729616165, 0.08539494127035141, 0.11306716501712799, 0.09511703997850418, 0.05338302627205849, 0.07455327361822128, 0.04123988375067711, 0.06386226415634155, 0.04775894060730934, 0.20664933323860168, 0.11531669646501541, 0.03578707203269005, 0.04667086899280548, 0.030292518436908722, 0.03049718588590622, 0.06268255412578583, 0.06409429013729095, 0.07678809016942978, 0.08769644051790237, 0.14627514779567719, 0.08273057639598846, 0.08457401394844055, 0.04926495626568794, 0.12668609619140625, 0.1290770024061203, 0.10803602635860443, 0.1130690798163414, 0.16957147419452667, 0.131377175450325, 0.20640607178211212, 0.20806150138378143, 0.21770569682121277, 0.18997834622859955, 0.24747028946876526, 0.14876364171504974, 0.05200860649347305, 0.09584812819957733, 0.29061123728752136, 0.25126123428344727, 0.3829960227012634, 0.06912811845541, 0.120798759162426, 0.1482362151145935, 0.18566679954528809, 0.08235324174165726, 0.17175164818763733, 0.19761255383491516, 0.06275615096092224, 0.17060938477516174, 0.10859151929616928, 0.10955529659986496, 0.11381182819604874, 0.13328273594379425, 0.11546339839696884, 0.07919857650995255, 0.23035013675689697, 0.0691925659775734, 0.05072208121418953, 0.0644293949007988, 0.06997627764940262, 0.21355222165584564, 0.16581286489963531, 0.5541362166404724, 0.3336237072944641, 0.4625100791454315, 0.3042808473110199, 0.47400766611099243, 0.26834526658058167, 0.2162179946899414, 0.3855210542678833, 0.22681446373462677, 0.347831130027771, 0.4807271659374237, 0.26877233386039734, 0.16269195079803467, 0.20406658947467804, 0.0858682170510292, 0.08525684475898743]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6406736373901367</v>
+        <v>0.5541362166404724</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.5830037999839988</v>
+        <v>0.6097753999929409</v>
       </c>
       <c r="J63" t="n">
-        <v>0.00571572352925489</v>
+        <v>0.005978190196009225</v>
       </c>
     </row>
     <row r="64">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0.1287708282470703, 0.11315073817968369, 0.2338481843471527, 0.18763864040374756, 0.2633270025253296, 0.21445642411708832, 0.23104020953178406, 0.3178445100784302, 0.15998177230358124, 0.12129437923431396, 0.10292820632457733, 0.14803822338581085, 0.19998514652252197, 0.17307794094085693, 0.20038889348506927, 0.16171930730342865, 0.12759602069854736, 0.1779509335756302, 0.1983044147491455, 0.24071362614631653, 0.17980077862739563, 0.28929540514945984, 0.14715272188186646, 0.16208814084529877, 0.19187983870506287, 0.19447092711925507, 0.21548107266426086, 0.29310476779937744, 0.25416141748428345, 0.28711003065109253, 0.18667452037334442, 0.20633670687675476, 0.28501155972480774, 0.2145281732082367, 0.1815079152584076, 0.11146028339862823, 0.16630809009075165, 0.16068081557750702, 0.16160261631011963, 0.20105776190757751, 0.15323767066001892, 0.14304490387439728, 0.16965152323246002, 0.16070625185966492, 0.1569925844669342, 0.15556979179382324, 0.20426563918590546, 0.11798357218503952, 0.16247497498989105, 0.11081323772668839, 0.1646294742822647, 0.12175243347883224, 0.13634057343006134, 0.11320895701646805, 0.17422954738140106, 0.22194069623947144, 0.2872219681739807, 0.1729695051908493, 0.22829566895961761, 0.1859104186296463, 0.18085382878780365, 0.19247718155384064, 0.21513155102729797, 0.1849561333656311, 0.15872709453105927, 0.1350061595439911, 0.16386277973651886, 0.2558402121067047, 0.19328336417675018, 0.19131895899772644, 0.21989373862743378, 0.23075918853282928, 0.23945952951908112, 0.3404936194419861, 0.28485336899757385, 0.24726824462413788, 0.25220787525177, 0.29895439743995667, 0.16223421692848206, 0.2423536330461502, 0.20027177035808563, 0.2276962399482727, 0.22415608167648315, 0.20910437405109406, 0.28172042965888977, 0.20588132739067078, 0.23430919647216797, 0.22311247885227203, 0.1940721571445465, 0.3020322918891907, 0.26681727170944214, 0.29064807295799255, 0.25303301215171814, 0.2786720097064972, 0.26303645968437195, 0.2500123977661133, 0.4050557017326355, 0.28283023834228516, 0.30063626170158386, 0.3138933777809143, 0.2211257517337799, 0.23657973110675812, 0.23655763268470764]</t>
+          <t>[0.021618105471134186, 0.028375323861837387, 0.06905483454465866, 0.08417731523513794, 0.0823768898844719, 0.049107350409030914, 0.05996723473072052, 0.11600399017333984, 0.034160878509283066, 0.023647015914320946, 0.01970694586634636, 0.031183551996946335, 0.043324872851371765, 0.038018375635147095, 0.04086592420935631, 0.03522587940096855, 0.03864455223083496, 0.029889922589063644, 0.04300900176167488, 0.05094470456242561, 0.03472650423645973, 0.05237606540322304, 0.01915685459971428, 0.024201933294534683, 0.04730823636054993, 0.043594833463430405, 0.07290349155664444, 0.07263416796922684, 0.06334580481052399, 0.08450821042060852, 0.05124247819185257, 0.03252270072698593, 0.05257583037018776, 0.05850336328148842, 0.035851575434207916, 0.014753837138414383, 0.01781097799539566, 0.02082492969930172, 0.025590907782316208, 0.04518328607082367, 0.029654521495103836, 0.025129398331046104, 0.03319127485156059, 0.02727767825126648, 0.032671719789505005, 0.03051702119410038, 0.04845749959349632, 0.03457813337445259, 0.044227927923202515, 0.02073104865849018, 0.03133120387792587, 0.03188062831759453, 0.026283837854862213, 0.02532600425183773, 0.03303908556699753, 0.06871380656957626, 0.07395222038030624, 0.04752879589796066, 0.07321397960186005, 0.034205999225378036, 0.02369026094675064, 0.038201164454221725, 0.05650719255208969, 0.03885708004236221, 0.048510197550058365, 0.029767679050564766, 0.030596530064940453, 0.08709947764873505, 0.04940233379602432, 0.053919002413749695, 0.07344874739646912, 0.052698034793138504, 0.041427548974752426, 0.1029650866985321, 0.0875440165400505, 0.10229360312223434, 0.1258259117603302, 0.07484132796525955, 0.030980009585618973, 0.06555642932653427, 0.05768444761633873, 0.07973039150238037, 0.05453403666615486, 0.04561787471175194, 0.06253711134195328, 0.03468269482254982, 0.05146746709942818, 0.051800526678562164, 0.04332105442881584, 0.06876679509878159, 0.08972576260566711, 0.10504608601331711, 0.08768194913864136, 0.06896517425775528, 0.055909644812345505, 0.0987582802772522, 0.2206813097000122, 0.08081956207752228, 0.08140286803245544, 0.11359168589115143, 0.06517304480075836, 0.07729494571685791, 0.07712402939796448]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.4050557017326355</v>
+        <v>0.2206813097000122</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.5925078000000212</v>
+        <v>0.6055807000084314</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005752502912621566</v>
+        <v>0.005879424271926519</v>
       </c>
     </row>
     <row r="65">
@@ -3125,11 +3125,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[0.22365887463092804, 0.21904107928276062, 0.15055634081363678, 0.1821042001247406, 0.17067232728004456, 0.18806417286396027, 0.08659057319164276, 0.12709765136241913, 0.12932227551937103, 0.3952678442001343, 0.33439716696739197, 0.2011742889881134, 0.21496032178401947, 0.26223650574684143, 0.19840335845947266, 0.41233137249946594, 0.3087186813354492, 0.20471112430095673, 0.2746172845363617, 0.1723722368478775, 0.24493654072284698, 0.19521406292915344, 0.29767128825187683, 0.1234394833445549, 0.1944713145494461, 0.4448035657405853, 0.44433560967445374, 0.12264171987771988, 0.20285390317440033, 0.14236800372600555, 0.12861332297325134, 0.3145846128463745, 0.2517661452293396, 0.32065513730049133, 0.4025169610977173, 0.5172010064125061, 0.2665126621723175, 0.5214954018592834, 0.1817411631345749, 0.21476873755455017, 0.3056657612323761, 0.3657853603363037, 0.28515705466270447, 0.515447735786438, 0.498174250125885, 0.5224074125289917, 0.39127394556999207, 0.3322022557258606, 0.27594056725502014, 0.35167843103408813, 0.47786420583724976, 0.22036924958229065, 0.18312887847423553, 0.12373540550470352, 0.06004633754491806, 0.11397788673639297, 0.10124284029006958, 0.1640208661556244, 0.14088308811187744, 0.10336128622293472, 0.10249394923448563, 0.08755991607904434, 0.0684928223490715, 0.29625293612480164, 0.18023861944675446, 0.1160174235701561, 0.1375877559185028, 0.12629328668117523, 0.11365728825330734, 0.07348804920911789, 0.19530338048934937, 0.1283196061849594, 0.18192920088768005, 0.23932576179504395, 0.20455580949783325, 0.11925500631332397, 0.1054612398147583, 0.1606452465057373, 0.17934677004814148, 0.33831787109375, 0.27870798110961914, 0.30333858728408813, 0.21585457026958466, 0.20712999999523163, 0.29630959033966064, 0.1373506635427475, 0.18135541677474976, 0.16013725101947784, 0.29145655035972595, 0.14985370635986328, 0.2155027687549591, 0.17243485152721405, 0.23854219913482666, 0.21751724183559418, 0.29344242811203003, 0.32093966007232666, 0.2383268028497696, 0.20557814836502075, 0.47335687279701233, 0.41496777534484863, 0.21054619550704956, 0.21203605830669403, 0.21130500733852386]</t>
+          <t>[0.12945674359798431, 0.11403627693653107, 0.07036806643009186, 0.11501918733119965, 0.06982199102640152, 0.0831725224852562, 0.034295354038476944, 0.0535639263689518, 0.053317856043577194, 0.2624911367893219, 0.18776088953018188, 0.10099097341299057, 0.07789815962314606, 0.09046116471290588, 0.10000675171613693, 0.15679818391799927, 0.13104526698589325, 0.07479143887758255, 0.0773797407746315, 0.048253029584884644, 0.060221701860427856, 0.04904834181070328, 0.11351830512285233, 0.04912775754928589, 0.08077546954154968, 0.25797951221466064, 0.19738677144050598, 0.0291682668030262, 0.05363944172859192, 0.0286528542637825, 0.02423965372145176, 0.0592774897813797, 0.08106286078691483, 0.09938035905361176, 0.14395835995674133, 0.30172088742256165, 0.1462983340024948, 0.311740517616272, 0.05115581303834915, 0.07961055636405945, 0.15249508619308472, 0.1419968158006668, 0.09904932975769043, 0.1657741814851761, 0.26800474524497986, 0.23329360783100128, 0.09255881607532501, 0.10475438833236694, 0.06190025433897972, 0.11934637278318405, 0.16071917116641998, 0.06927452981472015, 0.059739671647548676, 0.039938729256391525, 0.025545183569192886, 0.04836565628647804, 0.040565360337495804, 0.06483819335699081, 0.05440700799226761, 0.041476793587207794, 0.043075837194919586, 0.031156690791249275, 0.022630741819739342, 0.24706046283245087, 0.06951314955949783, 0.046694330871105194, 0.0529317781329155, 0.061265721917152405, 0.04638596996665001, 0.027252864092588425, 0.12028388679027557, 0.054698146879673004, 0.0628715232014656, 0.0817648321390152, 0.07608532160520554, 0.028201693668961525, 0.02885359898209572, 0.05539721995592117, 0.07118359208106995, 0.15446072816848755, 0.11079809814691544, 0.17038945853710175, 0.07703778147697449, 0.06829523295164108, 0.08904913067817688, 0.032259829342365265, 0.04425026476383209, 0.03520265594124794, 0.0827915146946907, 0.027515554800629616, 0.052593573927879333, 0.035605207085609436, 0.06966663897037506, 0.04948699474334717, 0.07972288131713867, 0.10195976495742798, 0.07461725920438766, 0.06914408504962921, 0.19662992656230927, 0.21119670569896698, 0.08840925991535187, 0.05869384482502937, 0.058358367532491684]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5224074125289917</v>
+        <v>0.311740517616272</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.5919259000220336</v>
+        <v>0.5916872999951011</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005746853398272171</v>
+        <v>0.005744536893156321</v>
       </c>
     </row>
     <row r="66">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[0.1579301953315735, 0.0915377214550972, 0.06116979196667671, 0.07896534353494644, 0.10764572024345398, 0.10397034883499146, 0.10072968900203705, 0.07742581516504288, 0.1342543065547943, 0.1428249180316925, 0.18819411098957062, 0.09747136384248734, 0.07897461950778961, 0.10401038080453873, 0.1047012060880661, 0.07753924280405045, 0.09301673620939255, 0.09860648959875107, 0.08914563059806824, 0.15956051647663116, 0.10974534600973129, 0.1081855297088623, 0.0861404687166214, 0.060423482209444046, 0.07793553173542023, 0.11477383971214294, 0.17090728878974915, 0.2082909196615219, 0.16882286965847015, 0.11892138421535492, 0.125405415892601, 0.18678857386112213, 0.17505598068237305, 0.1250276416540146, 0.13993139564990997, 0.16705875098705292, 0.17579522728919983, 0.11316842585802078, 0.1609427034854889, 0.1944340020418167, 0.10354882478713989, 0.11052408069372177, 0.0841563493013382, 0.18248847126960754, 0.1697039008140564, 0.1060829609632492, 0.12898394465446472, 0.08442346751689911, 0.09798251837491989, 0.09842341393232346, 0.11445225030183792, 0.11066251993179321, 0.23133933544158936, 0.06387894600629807, 0.09671958535909653, 0.09919700771570206, 0.15001234412193298, 0.1448344737291336, 0.14817000925540924, 0.16928860545158386, 0.09610861539840698, 0.1201242208480835, 0.11403871327638626, 0.21523138880729675, 0.27103695273399353, 0.17480477690696716, 0.1507064551115036, 0.2991695702075958, 0.15835252404212952, 0.2832324206829071, 0.24618640542030334, 0.11406399309635162, 0.12776416540145874, 0.34169718623161316, 0.13959407806396484, 0.15055842697620392, 0.16355513036251068, 0.10743555426597595, 0.27783364057540894, 0.2997012138366699, 0.4994318187236786, 0.6334933042526245, 0.13947544991970062, 0.24486839771270752, 0.15728791058063507, 0.2401944398880005, 0.22459307312965393, 0.1935291588306427, 0.435608446598053, 0.268127977848053, 0.3802347779273987, 0.12697261571884155, 0.13073618710041046, 0.08020767569541931, 0.10384757071733475, 0.09810301661491394, 0.07514660060405731, 0.20612214505672455, 0.159737691283226, 0.08406201750040054, 0.16046543419361115, 0.15956051647663116]</t>
+          <t>[0.11655384302139282, 0.06410408020019531, 0.03800516575574875, 0.045795612037181854, 0.05800551921129227, 0.048770081251859665, 0.04556099325418472, 0.04719598963856697, 0.11470106989145279, 0.13290268182754517, 0.1990843564271927, 0.08466754108667374, 0.06249985843896866, 0.0802803635597229, 0.08124728500843048, 0.04973873868584633, 0.06699669361114502, 0.08209411054849625, 0.06436888128519058, 0.12544018030166626, 0.08745219558477402, 0.1485615372657776, 0.07250890880823135, 0.041925325989723206, 0.06069527566432953, 0.08343104273080826, 0.11693671345710754, 0.2744511067867279, 0.15036147832870483, 0.0726366937160492, 0.06999295949935913, 0.11604169011116028, 0.07783050835132599, 0.07835366576910019, 0.11802145838737488, 0.11976857483386993, 0.1165144070982933, 0.06695085763931274, 0.06882035732269287, 0.11635761708021164, 0.04275963827967644, 0.034239161759614944, 0.03784254565834999, 0.14143836498260498, 0.1003422737121582, 0.0493403859436512, 0.06980534642934799, 0.04567365720868111, 0.054052919149398804, 0.057761192321777344, 0.05442384257912636, 0.07493635267019272, 0.6472430229187012, 0.02107963338494301, 0.035868335515260696, 0.04734654352068901, 0.09015927463769913, 0.07928335666656494, 0.09248532354831696, 0.12637515366077423, 0.03646961972117424, 0.0770251452922821, 0.061849504709243774, 0.18392862379550934, 0.15378978848457336, 0.14996196329593658, 0.0974772721529007, 0.22968047857284546, 0.08579174429178238, 0.2909140884876251, 0.15795007348060608, 0.04809900000691414, 0.06932170689105988, 0.44599923491477966, 0.0994771271944046, 0.06451307982206345, 0.09363418817520142, 0.042522285133600235, 0.15655504167079926, 0.25969481468200684, 0.3772716820240021, 0.5341736078262329, 0.06048464775085449, 0.08027451485395432, 0.08071129769086838, 0.10574767738580704, 0.07049528509378433, 0.08826103806495667, 0.20652596652507782, 0.10375689715147018, 0.21813462674617767, 0.039209894835948944, 0.03400816395878792, 0.03025740012526512, 0.03612435236573219, 0.039670269936323166, 0.030385147780179977, 0.22812654078006744, 0.14916284382343292, 0.030727054923772812, 0.09684605151414871, 0.09612680226564407]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6334933042526245</v>
+        <v>0.6472430229187012</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.591909000009764</v>
+        <v>0.5874763000028906</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005803029411860432</v>
+        <v>0.005759571568655791</v>
       </c>
     </row>
     <row r="67">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.2384382039308548, 0.4110662043094635, 0.22262348234653473, 0.34275829792022705, 0.16299597918987274, 0.11574617028236389, 0.3070886731147766, 0.3753863573074341, 0.38982605934143066, 0.45239874720573425, 0.24692237377166748, 0.21369889378547668, 0.2514396011829376, 0.13288189470767975, 0.4302651882171631, 0.53560471534729, 0.22455930709838867, 0.3170597553253174, 0.26929253339767456, 0.300762802362442, 0.2711672782897949, 0.17761975526809692, 0.28008657693862915, 0.22674855589866638, 0.2030436396598816, 0.36000385880470276, 0.2227855622768402, 0.15604554116725922, 0.1606363207101822, 0.24217964708805084, 0.22628025710582733, 0.1477489173412323, 0.25443801283836365, 0.15522657334804535, 0.12164570391178131, 0.1985696405172348, 0.19297587871551514, 0.16872838139533997, 0.12216950953006744, 0.18474344909191132, 0.21665321290493011, 0.24234400689601898, 0.24992592632770538, 0.27727797627449036, 0.2953661382198334, 0.18510878086090088, 0.2093488574028015, 0.18298041820526123, 0.13674503564834595, 0.19060273468494415, 0.22755007445812225, 0.16716904938220978, 0.4073256552219391, 0.13510923087596893, 0.3083499073982239, 0.27916979789733887, 0.23766091465950012, 0.3064751625061035, 0.4111590087413788, 0.42453518509864807, 0.38484519720077515, 0.4454590380191803, 0.5112514495849609, 0.52352374792099, 0.603283703327179, 0.5612779259681702, 0.629464328289032, 0.7891102433204651, 0.8856112360954285, 0.783230721950531, 0.8776517510414124, 0.8207678198814392, 0.423016756772995, 0.494893342256546, 0.4140315353870392, 0.559546709060669, 0.8594376444816589, 0.9350274205207825, 0.6406601667404175, 0.7981957793235779, 0.8746281862258911, 0.8988550901412964, 0.802299976348877, 0.6894817352294922, 0.6225221753120422, 0.45176368951797485, 0.5551497936248779, 0.48486047983169556, 0.6301848292350769, 0.5037927627563477, 0.462939590215683, 0.6535255312919617, 0.5933119058609009, 0.4342861473560333, 0.5435153245925903, 0.6073461771011353, 0.7225050926208496, 0.547413170337677, 0.6429218053817749, 0.663201630115509, 0.7020875215530396, 0.7038639187812805]</t>
+          <t>[0.2426127791404724, 0.4638355076313019, 0.25134503841400146, 0.2814110815525055, 0.13009993731975555, 0.12793409824371338, 0.2265663743019104, 0.36549004912376404, 0.5091198682785034, 0.5093045234680176, 0.2445555031299591, 0.23115229606628418, 0.21203935146331787, 0.09445676952600479, 0.3311063349246979, 0.37058693170547485, 0.16316717863082886, 0.1904451996088028, 0.20707213878631592, 0.2318854182958603, 0.17374414205551147, 0.0853802040219307, 0.1374131143093109, 0.25984063744544983, 0.15306644141674042, 0.2579643428325653, 0.15754839777946472, 0.11406532675027847, 0.10941731184720993, 0.2120305299758911, 0.24808496236801147, 0.13421738147735596, 0.23410436511039734, 0.1323833167552948, 0.13615041971206665, 0.16257326304912567, 0.17531347274780273, 0.17195811867713928, 0.12746715545654297, 0.17811261117458344, 0.20693320035934448, 0.2004701942205429, 0.2934779226779938, 0.2859434187412262, 0.34980976581573486, 0.16400468349456787, 0.2698167860507965, 0.39288365840911865, 0.25269195437431335, 0.18670429289340973, 0.32262253761291504, 0.1564708948135376, 0.7220181822776794, 0.115085668861866, 0.16817209124565125, 0.2706230878829956, 0.26963281631469727, 0.28914010524749756, 0.32433465123176575, 0.38417449593544006, 0.32515400648117065, 0.3593185245990753, 0.3505280315876007, 0.38110682368278503, 0.4756369888782501, 0.4353191554546356, 0.6712996363639832, 0.8021351099014282, 0.9301120638847351, 0.8622799515724182, 0.9420065879821777, 0.7591990828514099, 0.24373041093349457, 0.36930182576179504, 0.23367701470851898, 0.47967728972435, 0.6013497710227966, 0.7848284244537354, 0.4786127805709839, 0.5808345079421997, 0.8311479687690735, 0.88519686460495, 0.7098369598388672, 0.7339321970939636, 0.7254827618598938, 0.34353888034820557, 0.5462914109230042, 0.4019809067249298, 0.4766407012939453, 0.372058242559433, 0.392924427986145, 0.5935943722724915, 0.3607032895088196, 0.2130144089460373, 0.3105856478214264, 0.32986924052238464, 0.36500808596611023, 0.2055746465921402, 0.2749037444591522, 0.43422219157218933, 0.5960310697555542, 0.5978946685791016]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.9350274205207825</v>
+        <v>0.9420065879821777</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.5760251000174321</v>
+        <v>0.594218499987619</v>
       </c>
       <c r="J67" t="n">
-        <v>0.005647304902131688</v>
+        <v>0.005825671568506069</v>
       </c>
     </row>
     <row r="68">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.318832665681839, 0.5703486204147339, 0.476299911737442, 0.1442195475101471, 0.147898867726326, 0.22636869549751282, 0.37262746691703796, 0.184964120388031, 0.20465345680713654, 0.6113116145133972, 0.6421756148338318, 0.48618951439857483, 0.6210074424743652, 0.251861035823822, 0.23909986019134521, 0.12624318897724152, 0.1575656682252884, 0.1498192995786667, 0.15024711191654205, 0.12651687860488892, 0.08390766382217407, 0.13098761439323425, 0.08916433155536652, 0.20049026608467102, 0.15234911441802979, 0.22115954756736755, 0.07365114241838455, 0.04449445754289627, 0.07496093958616257, 0.0846751406788826, 0.10933458060026169, 0.10519245266914368, 0.1411857306957245, 0.12861739099025726, 0.13187699019908905, 0.08327612280845642, 0.26718661189079285, 0.12561145424842834, 0.23891282081604004, 0.5386441349983215, 0.126967653632164, 0.23087041079998016, 0.1257755011320114, 0.17465448379516602, 0.13936860859394073, 0.140313059091568, 0.18330442905426025, 0.24683842062950134, 0.1540095955133438, 0.13268263638019562, 0.06777340173721313, 0.12352998554706573, 0.0786290392279625, 0.12353841215372086, 0.09033799171447754, 0.08254901319742203, 0.08264156430959702, 0.17378471791744232, 0.42665672302246094, 0.29758650064468384, 0.18653665482997894, 0.21019576489925385, 0.26496919989585876, 0.4799291789531708, 0.532354474067688, 0.5901204347610474, 0.14078961312770844, 0.3180500566959381, 0.2219087779521942, 0.4644660949707031, 0.10226145386695862, 0.06788083910942078, 0.3912363052368164, 0.5872840285301208, 0.355611652135849, 0.160171777009964, 0.06470503658056259, 0.1256362944841385, 0.1914084404706955, 0.09476643800735474, 0.16293984651565552, 0.07598873972892761, 0.09996704757213593, 0.10090622305870056, 0.10397624969482422, 0.23911748826503754, 0.17059405148029327, 0.3790225088596344, 0.25393983721733093, 0.26150161027908325, 0.11624786257743835, 0.27071815729141235, 0.22306779026985168, 0.14999635517597198, 0.23985105752944946, 0.3771919012069702, 0.26358330249786377, 0.143916055560112, 0.16546979546546936, 0.23083625733852386, 0.17187641561031342, 0.15592573583126068, 0.08898799866437912, 0.41613152623176575, 0.23553745448589325, 0.26195231080055237, 0.13588525354862213, 0.33144840598106384, 0.1462225615978241, 0.16451618075370789, 0.18237188458442688, 0.1158750057220459, 0.414469838142395, 0.36470288038253784, 0.11565108597278595, 0.3031536340713501, 0.18927453458309174, 0.18893125653266907]</t>
+          <t>[0.2075420767068863, 0.5224981904029846, 0.5355863571166992, 0.07862666994333267, 0.09122848510742188, 0.12559832632541656, 0.23426271975040436, 0.07636339217424393, 0.1464359164237976, 0.8004249334335327, 0.7850344181060791, 0.32252538204193115, 0.546410322189331, 0.1975056678056717, 0.2956751883029938, 0.06357230991125107, 0.07937726378440857, 0.05687034875154495, 0.04277093708515167, 0.0627107173204422, 0.03186657652258873, 0.03810569643974304, 0.034059491008520126, 0.060429926961660385, 0.07668263465166092, 0.0806940346956253, 0.018074341118335724, 0.013153244741261005, 0.0314369760453701, 0.035229019820690155, 0.03662559762597084, 0.0344897136092186, 0.0363631509244442, 0.03464364632964134, 0.028045788407325745, 0.03280353546142578, 0.13610905408859253, 0.056262753903865814, 0.1453978419303894, 0.44282403588294983, 0.04915821924805641, 0.12309031188488007, 0.09355849772691727, 0.17150625586509705, 0.07064338773488998, 0.057066332548856735, 0.10693447291851044, 0.17684002220630646, 0.07069792598485947, 0.0448036789894104, 0.02880338951945305, 0.04900345578789711, 0.04558151215314865, 0.07563163340091705, 0.060345716774463654, 0.03500180318951607, 0.03807177022099495, 0.0893259346485138, 0.33559268712997437, 0.16467705368995667, 0.07634728401899338, 0.0759400874376297, 0.16091959178447723, 0.7039203643798828, 0.7831299901008606, 0.7777566313743591, 0.043260976672172546, 0.22136527299880981, 0.1401814967393875, 0.5842100381851196, 0.03966652229428291, 0.03847289830446243, 0.349630206823349, 0.6974067091941833, 0.38133445382118225, 0.0864136666059494, 0.015610040165483952, 0.03732842206954956, 0.07543576508760452, 0.03108352981507778, 0.16395710408687592, 0.03957432508468628, 0.06461407989263535, 0.03612363338470459, 0.0915021151304245, 0.1506006270647049, 0.08853118866682053, 0.5095413327217102, 0.14988966286182404, 0.18585412204265594, 0.04929884895682335, 0.17277570068836212, 0.1629982590675354, 0.11581495404243469, 0.2018922120332718, 0.42578214406967163, 0.21665027737617493, 0.07067062705755234, 0.09878256916999817, 0.12829391658306122, 0.08708403259515762, 0.06347175687551498, 0.03558154031634331, 0.3950485587120056, 0.20954063534736633, 0.4426650106906891, 0.1272559016942978, 0.31607845425605774, 0.11469411849975586, 0.11879508942365646, 0.0935201570391655, 0.09281447529792786, 0.5627073049545288, 0.5068784952163696, 0.07063986361026764, 0.23109756410121918, 0.07704149186611176, 0.07688622921705246]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.6421756148338318</v>
+        <v>0.8004249334335327</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.6746689999999944</v>
+        <v>0.6874144999892451</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005717533898305037</v>
+        <v>0.005825546610078348</v>
       </c>
     </row>
     <row r="69">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.12177959084510803, 0.392503559589386, 0.2891751825809479, 0.09523079544305801, 0.0989885926246643, 0.09027986973524094, 0.08760011196136475, 0.1238841637969017, 0.05607152730226517, 0.07791952043771744, 0.12991659343242645, 0.06318873912096024, 0.16092856228351593, 0.14036548137664795, 0.1584455966949463, 0.17702656984329224, 0.09360958635807037, 0.112922303378582, 0.0982423797249794, 0.1163279116153717, 0.12908656895160675, 0.08707195520401001, 0.07623971998691559, 0.1688292771577835, 0.1315024197101593, 0.0896267369389534, 0.09742911905050278, 0.09222154319286346, 0.14502136409282684, 0.1492535024881363, 0.10354061424732208, 0.12350928783416748, 0.10553105920553207, 0.21693754196166992, 0.1720077097415924, 0.07428620755672455, 0.14885036647319794, 0.11081750690937042, 0.07213477045297623, 0.07761111855506897, 0.08259598910808563, 0.075236976146698, 0.0634726956486702, 0.06646649539470673, 0.09145254641771317, 0.044096630066633224, 0.08739156275987625, 0.0940186083316803, 0.06942971795797348, 0.3345423638820648, 0.1053103655576706, 0.07870209217071533, 0.13332660496234894, 0.08601924031972885, 0.0867423489689827, 0.061177946627140045, 0.08160426467657089, 0.10579071938991547, 0.11717930436134338, 0.13552120327949524, 0.14434395730495453, 0.13746559619903564, 0.09041859209537506, 0.08210941404104233, 0.06461431086063385, 0.08989688009023666, 0.0659044086933136, 0.11410365998744965, 0.17735221982002258, 0.08814869821071625, 0.11256737262010574, 0.12394073605537415, 0.12413850426673889, 0.09222634136676788, 0.11344181001186371, 0.06001421436667442, 0.12395603954792023, 0.10268525034189224, 0.1338513046503067, 0.11829718202352524, 0.1503894329071045, 0.11585021764039993, 0.0735861212015152, 0.15110744535923004, 0.06425036489963531, 0.06773237884044647, 0.3706027865409851, 0.2809525430202484, 0.15154528617858887, 0.1353904902935028, 0.09175723791122437, 0.1463337242603302, 0.15136362612247467, 0.5038792490959167, 0.24551086127758026, 0.14458322525024414, 0.15786811709403992, 0.10159459710121155, 0.11048522591590881, 0.10003383457660675, 0.09325706213712692, 0.09734349697828293, 0.08644542843103409, 0.12308479845523834, 0.36868980526924133, 0.10942661762237549, 0.07989859580993652, 0.08183740079402924, 0.12621356546878815, 0.10662666708230972, 0.28081247210502625, 0.1563570201396942, 0.27031001448631287, 0.36192870140075684, 0.19112525880336761, 0.2622271478176117, 0.20980112254619598, 0.20874181389808655]</t>
+          <t>[0.026248691603541374, 0.1338563710451126, 0.03940242528915405, 0.023638786748051643, 0.017298102378845215, 0.023386171087622643, 0.020750805735588074, 0.03677617013454437, 0.021014530211687088, 0.0261079054325819, 0.051968593150377274, 0.02084505558013916, 0.053634580224752426, 0.05111813545227051, 0.038854312151670456, 0.10485004633665085, 0.030061062425374985, 0.028500201180577278, 0.031327929347753525, 0.03227440267801285, 0.051887769252061844, 0.022934457287192345, 0.024012768641114235, 0.051230885088443756, 0.043388932943344116, 0.029018042609095573, 0.03437460958957672, 0.02662797085940838, 0.06610839813947678, 0.07103864848613739, 0.03358681499958038, 0.03160214051604271, 0.02388351410627365, 0.09048584848642349, 0.0738774910569191, 0.027437396347522736, 0.0647144764661789, 0.029403144493699074, 0.017509393393993378, 0.023799065500497818, 0.052328646183013916, 0.03416457772254944, 0.01946181431412697, 0.020309219136834145, 0.028518633916974068, 0.014774555340409279, 0.032029375433921814, 0.040506791323423386, 0.025732198730111122, 0.2729404866695404, 0.05381838604807854, 0.027865678071975708, 0.06322603672742844, 0.04620266333222389, 0.034710854291915894, 0.0197322778403759, 0.031417105346918106, 0.03283635154366493, 0.03949539735913277, 0.05371459200978279, 0.03959456458687782, 0.04390353709459305, 0.02578904666006565, 0.02271084487438202, 0.01819433458149433, 0.025225019082427025, 0.019210688769817352, 0.0473976656794548, 0.07453374564647675, 0.03389456495642662, 0.04637564718723297, 0.04726913571357727, 0.05324215441942215, 0.03173040226101875, 0.0387972891330719, 0.024904990568757057, 0.06378777325153351, 0.03423047065734863, 0.07715607434511185, 0.04792887344956398, 0.08514691889286041, 0.03924121335148811, 0.02813773602247238, 0.05603055655956268, 0.03082854487001896, 0.02183975838124752, 0.39333319664001465, 0.14473208785057068, 0.051372770220041275, 0.055466677993535995, 0.03112497180700302, 0.05193562060594559, 0.06384862959384918, 0.3827159106731415, 0.11033542454242706, 0.06519719958305359, 0.06302643567323685, 0.04261050000786781, 0.03139860928058624, 0.02813977561891079, 0.02144937962293625, 0.03148682042956352, 0.03201432526111603, 0.024200210347771645, 0.618244469165802, 0.07093492895364761, 0.038340792059898376, 0.02910875529050827, 0.038493480533361435, 0.028797781094908714, 0.19099947810173035, 0.06410002708435059, 0.18357031047344208, 0.1704108566045761, 0.06405879557132721, 0.06719869375228882, 0.085429847240448, 0.08489708602428436]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.5038792490959167</v>
+        <v>0.618244469165802</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.6677188999892678</v>
+        <v>0.6775798999879044</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005658634745671761</v>
+        <v>0.005742202542270376</v>
       </c>
     </row>
     <row r="70">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.06848707795143127, 0.09344765543937683, 0.11980953067541122, 0.04033489152789116, 0.10136866569519043, 0.059808410704135895, 0.07895029336214066, 0.13292795419692993, 0.2714173197746277, 0.05039946362376213, 0.08081367611885071, 0.08517112582921982, 0.0876326933503151, 0.07621382921934128, 0.13202303647994995, 0.05704912915825844, 0.12685343623161316, 0.07946307957172394, 0.13483871519565582, 0.12799367308616638, 0.14842773973941803, 0.07313521951436996, 0.08102552592754364, 0.12712016701698303, 0.06438623368740082, 0.07254388928413391, 0.04202250763773918, 0.05600689351558685, 0.07377299666404724, 0.15200765430927277, 0.15018542110919952, 0.05403542518615723, 0.07199089229106903, 0.10336346924304962, 0.15455350279808044, 0.07484912872314453, 0.05048804730176926, 0.07223015278577805, 0.09269604086875916, 0.06072989106178284, 0.07281776517629623, 0.040656961500644684, 0.044146835803985596, 0.048763349652290344, 0.046173904091119766, 0.041089389473199844, 0.037867140024900436, 0.059015944600105286, 0.13025081157684326, 0.061432644724845886, 0.08270794153213501, 0.0504303015768528, 0.1330457180738449, 0.14784356951713562, 0.08050760626792908, 0.06673312932252884, 0.043605986982584, 0.05047183483839035, 0.048401907086372375, 0.058680105954408646, 0.0596335306763649, 0.10175365954637527, 0.06660369038581848, 0.04453383386135101, 0.07397951185703278, 0.05284333974123001, 0.05774177983403206, 0.046323392540216446, 0.09277714043855667, 0.1661558449268341, 0.20254266262054443, 0.12178070843219757, 0.08644261211156845, 0.0416242815554142, 0.09061305224895477, 0.11658646166324615, 0.11043474078178406, 0.09096629172563553, 0.12498535960912704, 0.07544764131307602, 0.10283534973859787, 0.07260322570800781, 0.07703270763158798, 0.05972838029265404, 0.09502959996461868, 0.13264340162277222, 0.09810099750757217, 0.17806847393512726, 0.14371857047080994, 0.18443986773490906, 0.1765967309474945, 0.1193290427327156, 0.21845699846744537, 0.11622443795204163, 0.0688437893986702, 0.07787095010280609, 0.1348256915807724, 0.10564716160297394, 0.11145339906215668, 0.09230794757604599, 0.0779794454574585, 0.07450097799301147, 0.14033648371696472, 0.1809498369693756, 0.17206905782222748, 0.19410568475723267, 0.14385433495044708, 0.1467084437608719, 0.16125570237636566, 0.14222107827663422, 0.0811937227845192, 0.10837171226739883, 0.12498226761817932, 0.09394287317991257, 0.09717759490013123, 0.12269715219736099, 0.09604182094335556, 0.09538545459508896]</t>
+          <t>[0.027041688561439514, 0.042086806148290634, 0.07034263014793396, 0.01939026638865471, 0.028205828741192818, 0.0229178536683321, 0.036768123507499695, 0.06203049048781395, 0.1531406044960022, 0.01995289884507656, 0.02666761726140976, 0.027374792844057083, 0.025680894032120705, 0.02417251653969288, 0.053624413907527924, 0.022382168099284172, 0.051470398902893066, 0.025092342868447304, 0.05718762427568436, 0.055480945855379105, 0.16259214282035828, 0.02595701813697815, 0.035790447145700455, 0.036903101950883865, 0.029287656769156456, 0.03751688450574875, 0.011113365180790424, 0.019225282594561577, 0.03341653198003769, 0.1334046721458435, 0.1462775319814682, 0.021293016150593758, 0.04329314082860947, 0.05397753044962883, 0.2682509422302246, 0.06138492375612259, 0.03528774157166481, 0.034947097301483154, 0.056041330099105835, 0.030303051695227623, 0.026097601279616356, 0.013833530247211456, 0.012399828061461449, 0.017372604459524155, 0.01498604379594326, 0.013260791078209877, 0.013007492758333683, 0.01879235915839672, 0.0777871385216713, 0.02945292368531227, 0.04345789924263954, 0.024313928559422493, 0.05689027160406113, 0.06108103320002556, 0.04660568758845329, 0.03648623824119568, 0.017975829541683197, 0.018988387659192085, 0.020934412255883217, 0.024085789918899536, 0.028010156005620956, 0.04399088770151138, 0.022015493363142014, 0.017498314380645752, 0.019004713743925095, 0.01785106211900711, 0.017232922837138176, 0.010368945077061653, 0.022569943219423294, 0.03609112277626991, 0.06371769309043884, 0.0394054651260376, 0.033449701964855194, 0.020510835573077202, 0.06684079021215439, 0.05773104354739189, 0.046852145344018936, 0.026224303990602493, 0.035294752568006516, 0.02312518283724785, 0.025400087237358093, 0.022234024479985237, 0.023164965212345123, 0.021436011418700218, 0.04679863154888153, 0.07712878286838531, 0.02556266263127327, 0.079278863966465, 0.045567359775304794, 0.05917960777878761, 0.07432836294174194, 0.045728202909231186, 0.11348874121904373, 0.06683997809886932, 0.021988272666931152, 0.02580147050321102, 0.0466819666326046, 0.04215124621987343, 0.034731749445199966, 0.016498493030667305, 0.02067449875175953, 0.018365807831287384, 0.08727046102285385, 0.06437009572982788, 0.0635991245508194, 0.03772398829460144, 0.039141945540905, 0.036859773099422455, 0.023458026349544525, 0.026603860780596733, 0.014348112046718597, 0.019918112084269524, 0.02855241857469082, 0.01595243439078331, 0.018916063010692596, 0.020935481414198875, 0.01635158434510231, 0.016217093914747238]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2714173197746277</v>
+        <v>0.2682509422302246</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.6667559999914374</v>
+        <v>0.6724279000045499</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005650474576198623</v>
+        <v>0.005698541525462287</v>
       </c>
     </row>
     <row r="71">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[0.17717702686786652, 0.11639125645160675, 0.08155428618192673, 0.09169857949018478, 0.06829831004142761, 0.12630736827850342, 0.07471171021461487, 0.0774582177400589, 0.07240398973226547, 0.0882989689707756, 0.08246070891618729, 0.08407960832118988, 0.06932059675455093, 0.06710901856422424, 0.06850288063287735, 0.09354880452156067, 0.12826454639434814, 0.30721965432167053, 0.21029113233089447, 0.1424633264541626, 0.193841353058815, 0.09151281416416168, 0.09666633605957031, 0.07471656799316406, 0.060032062232494354, 0.09844812750816345, 0.15205194056034088, 0.10217560827732086, 0.08546362072229385, 0.15761089324951172, 0.11803577840328217, 0.13167200982570648, 0.15503504872322083, 0.27951759099960327, 0.16030383110046387, 0.186293825507164, 0.1613575965166092, 0.10357633978128433, 0.07415836304426193, 0.25879716873168945, 0.202713742852211, 0.2182590812444687, 0.07968521863222122, 0.04354080930352211, 0.061550240963697433, 0.1020774319767952, 0.0719519630074501, 0.1572592556476593, 0.13477906584739685, 0.11678646504878998, 0.06666543334722519, 0.08897001296281815, 0.0815630778670311, 0.04516669362783432, 0.07947038859128952, 0.06836453080177307, 0.04201504588127136, 0.11684690415859222, 0.07936018705368042, 0.05277248099446297, 0.13392101228237152, 0.05195973068475723, 0.0654405802488327, 0.11889787763357162, 0.07607525587081909, 0.09124920517206192, 0.07887639850378036, 0.0808219164609909, 0.07305992394685745, 0.08597897738218307, 0.08444348722696304, 0.08494716137647629, 0.09390722215175629, 0.1273859590291977, 0.3161289095878601, 0.07103081792593002, 0.07756005227565765, 0.12131763249635696, 0.09169615805149078, 0.09563178569078445, 0.05737198144197464, 0.062050897628068924, 0.06079024821519852, 0.1352199763059616, 0.11343459784984589, 0.06254315376281738, 0.1016458198428154, 0.1243123859167099, 0.04378650337457657, 0.11179601401090622, 0.07366807758808136, 0.051345400512218475, 0.06620758771896362, 0.05494164302945137, 0.09102769196033478, 0.17486214637756348, 0.16445977985858917, 0.06183178722858429, 0.08201973140239716, 0.05372495576739311, 0.09804288297891617, 0.05969622731208801, 0.06628075987100601, 0.11079616844654083, 0.08938051760196686, 0.0868598148226738, 0.20250682532787323, 0.1533282846212387, 0.06073649600148201, 0.0653538703918457, 0.05500050634145737, 0.05649365484714508, 0.07264643907546997, 0.05353683978319168, 0.10534092783927917, 0.11964994668960571, 0.11438801139593124, 0.11430186033248901]</t>
+          <t>[0.15697810053825378, 0.05322922766208649, 0.038376037031412125, 0.050783999264240265, 0.025542061775922775, 0.05458281189203262, 0.03288056701421738, 0.02145763300359249, 0.03121318481862545, 0.05810977518558502, 0.042648352682590485, 0.04147705063223839, 0.02703615464270115, 0.012868539430201054, 0.017152318730950356, 0.03119584172964096, 0.04972027614712715, 0.1022014319896698, 0.06505858898162842, 0.0815206840634346, 0.19898857176303864, 0.03487909212708473, 0.04450805112719536, 0.02572025917470455, 0.01991092786192894, 0.02981838956475258, 0.03299283608794212, 0.025382909923791885, 0.02398037724196911, 0.06864646077156067, 0.05756097286939621, 0.043441131711006165, 0.0535905584692955, 0.23348484933376312, 0.08689726144075394, 0.053934887051582336, 0.05704439803957939, 0.02887883596122265, 0.02561192773282528, 0.36663949489593506, 0.2039436250925064, 0.20293690264225006, 0.022979898378252983, 0.00966920331120491, 0.017023328691720963, 0.03310193493962288, 0.03077441267669201, 0.05739810690283775, 0.046007219702005386, 0.033417873084545135, 0.025911293923854828, 0.04243307560682297, 0.0691644549369812, 0.017953895032405853, 0.04296192526817322, 0.038150638341903687, 0.011042533442378044, 0.053824227303266525, 0.038771796971559525, 0.02556256577372551, 0.05727440118789673, 0.013188359327614307, 0.016648879274725914, 0.10778156667947769, 0.05862274393439293, 0.059276822954416275, 0.024632703512907028, 0.02320237085223198, 0.02436402440071106, 0.0370541587471962, 0.02984992414712906, 0.04639911651611328, 0.04115217551589012, 0.1212623193860054, 0.5266693234443665, 0.03243948891758919, 0.03849624842405319, 0.1264616698026657, 0.06514585018157959, 0.0435696616768837, 0.019439825788140297, 0.020608458667993546, 0.022618064656853676, 0.07576455175876617, 0.04921381548047066, 0.024801665917038918, 0.04992512986063957, 0.045470159500837326, 0.02104380913078785, 0.0611390694975853, 0.018885020166635513, 0.012132703326642513, 0.016815947368741035, 0.021705305203795433, 0.03573223575949669, 0.02871384657919407, 0.07595331966876984, 0.02020539529621601, 0.03706111013889313, 0.02317120134830475, 0.038835857063531876, 0.015885302796959877, 0.024266667664051056, 0.04397641122341156, 0.06349392980337143, 0.04481763020157814, 0.058590054512023926, 0.0471440851688385, 0.02096073515713215, 0.02995479851961136, 0.015240003354847431, 0.022743837907910347, 0.029696177691221237, 0.020762236788868904, 0.06778370589017868, 0.07378584891557693, 0.04631413146853447, 0.046370577067136765]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3161289095878601</v>
+        <v>0.5266693234443665</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.6682749000028707</v>
+        <v>0.6750272999925073</v>
       </c>
       <c r="J71" t="n">
-        <v>0.00566334661019382</v>
+        <v>0.005720570338919553</v>
       </c>
     </row>
     <row r="72">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.15017655491828918, 0.23748956620693207, 0.27387934923171997, 0.18684174120426178, 0.14783351123332977, 0.12643474340438843, 0.1954324096441269, 0.18226857483386993, 0.16252486407756805, 0.10058917105197906, 0.11610915511846542, 0.08605658262968063, 0.07093055546283722, 0.24867604672908783, 0.22302094101905823, 0.23580773174762726, 0.1543571949005127, 0.07363076508045197, 0.10378832370042801, 0.0772847831249237, 0.08118753135204315, 0.06105950474739075, 0.11013205349445343, 0.14447824656963348, 0.14623382687568665, 0.15009619295597076, 0.07527737319469452, 0.06023160740733147, 0.061878133565187454, 0.1049041748046875, 0.08048471063375473, 0.04813063517212868, 0.06546928733587265, 0.07657483220100403, 0.11867140233516693, 0.05611545965075493, 0.06485261768102646, 0.1337626725435257, 0.18757890164852142, 0.2103850096464157, 0.1688709855079651, 0.19396014511585236, 0.20093882083892822, 0.1221761628985405, 0.13396090269088745, 0.1401982307434082, 0.1741005927324295, 0.1427992731332779, 0.09008721262216568, 0.1480044424533844, 0.0890243798494339, 0.05075817182660103, 0.08507803082466125, 0.09466613829135895, 0.09523259103298187, 0.16113968193531036, 0.13074855506420135, 0.13167370855808258, 0.1960233747959137, 0.20240217447280884, 0.28172677755355835, 0.23332838714122772, 0.09504333883523941, 0.04659546539187431, 0.060350582003593445, 0.0934358760714531, 0.23870666325092316, 0.27870070934295654, 0.07643012702465057, 0.05923503637313843, 0.07532048970460892, 0.09012974053621292, 0.054957881569862366, 0.04050179943442345, 0.046643879264593124, 0.0776737779378891, 0.05937587097287178, 0.06747987866401672, 0.11643687635660172, 0.09759815037250519, 0.08827254921197891, 0.0954112857580185, 0.0900980532169342, 0.1188567578792572, 0.12461810559034348, 0.0695614293217659, 0.1639697551727295, 0.11330153793096542, 0.1319912225008011, 0.08441976457834244, 0.21366889774799347, 0.1414867490530014, 0.1983882337808609, 0.07695663720369339, 0.05878547206521034, 0.08934090286493301, 0.1381198763847351, 0.06407596170902252, 0.09686638414859772, 0.0679018497467041, 0.17794501781463623, 0.27314868569374084, 0.08119487762451172, 0.12982864677906036, 0.08392085880041122, 0.14526529610157013, 0.31086140871047974, 0.048862431198358536, 0.05336897820234299, 0.13010168075561523, 0.22502006590366364, 0.18406331539154053, 0.11693225055932999, 0.08417094498872757, 0.15182802081108093, 0.0946231260895729, 0.13731032609939575, 0.027830330654978752, 0.030006375163793564, 0.03697972372174263, 0.06405890733003616, 0.23108287155628204, 0.49176156520843506, 0.4130556583404541, 0.5563652515411377, 0.24625210464000702, 0.28466126322746277, 0.41509145498275757, 0.19995568692684174, 0.1452082246541977, 0.31489142775535583, 0.14686636626720428, 0.11333160102367401, 0.07642392069101334, 0.1004037857055664, 0.12908732891082764, 0.29481881856918335, 0.25070852041244507, 0.2787276804447174, 0.16500701010227203, 0.08806979656219482, 0.09843552857637405, 0.1229000985622406, 0.16573868691921234, 0.16627295315265656, 0.11098688840866089, 0.15145345032215118, 0.09875081479549408, 0.10032443702220917, 0.0972229391336441, 0.08603373169898987, 0.07880360633134842, 0.04646829888224602, 0.06153072789311409, 0.09780453890562057, 0.08446591347455978, 0.054201480001211166, 0.09533648192882538, 0.07121554017066956, 0.06274205446243286, 0.05618639662861824, 0.060527101159095764, 0.05406755581498146, 0.07077597081661224, 0.054194942116737366, 0.03828829154372215, 0.06333586573600769, 0.03564714267849922, 0.05913056060671806, 0.09886520355939865, 0.13233451545238495, 0.05669110640883446, 0.0534987598657608, 0.0443447008728981, 0.0519486702978611, 0.045755863189697266, 0.05015724152326584, 0.023410093039274216, 0.02312834933400154, 0.053171608597040176, 0.06832120567560196, 0.0804392397403717, 0.05587366595864296, 0.09808432310819626, 0.0700020045042038, 0.13717807829380035, 0.12983904778957367, 0.071104995906353, 0.04228945076465607, 0.05602938309311867, 0.07575418055057526, 0.09698323160409927, 0.05835854634642601, 0.10080971568822861, 0.08065298944711685, 0.08037512004375458]</t>
+          <t>[0.06761147081851959, 0.08121631294488907, 0.15227149426937103, 0.059277039021253586, 0.09007366001605988, 0.08756028115749359, 0.10465534031391144, 0.09220541268587112, 0.11419906467199326, 0.05442070960998535, 0.0735614076256752, 0.05173268914222717, 0.05622105672955513, 0.2509365677833557, 0.2080656886100769, 0.12120707333087921, 0.08303310722112656, 0.04061431437730789, 0.06871090829372406, 0.053137026727199554, 0.04951152577996254, 0.046712614595890045, 0.08360447734594345, 0.12323803454637527, 0.09788323193788528, 0.1576797217130661, 0.07252033799886703, 0.04114960506558418, 0.037141814827919006, 0.04661988466978073, 0.044357605278491974, 0.024575162678956985, 0.03445984050631523, 0.06288152933120728, 0.09867491573095322, 0.042913466691970825, 0.041063278913497925, 0.07639332115650177, 0.17702093720436096, 0.24894490838050842, 0.07921232283115387, 0.10998018831014633, 0.13034802675247192, 0.062085073441267014, 0.06925304234027863, 0.0850970596075058, 0.12559199333190918, 0.10940966010093689, 0.04097861424088478, 0.06351769715547562, 0.02907038852572441, 0.01626821607351303, 0.029765678569674492, 0.038492586463689804, 0.03375694528222084, 0.1069599837064743, 0.09700732678174973, 0.06831491738557816, 0.19531366229057312, 0.11577792465686798, 0.13082954287528992, 0.17381703853607178, 0.07988487929105759, 0.034515030682086945, 0.07234665006399155, 0.06461751461029053, 0.27220654487609863, 0.28718048334121704, 0.05909651145339012, 0.06231273338198662, 0.07230627536773682, 0.0406179279088974, 0.022486519068479538, 0.014749213121831417, 0.012301667593419552, 0.029682910069823265, 0.022646233439445496, 0.026686422526836395, 0.05801462382078171, 0.04602613300085068, 0.04107242822647095, 0.06358089298009872, 0.05807960778474808, 0.0893997997045517, 0.07826759666204453, 0.04392630606889725, 0.07914774864912033, 0.04529591649770737, 0.05335626378655434, 0.03426453098654747, 0.12601974606513977, 0.07483819127082825, 0.11489496380090714, 0.08045464009046555, 0.04437082260847092, 0.03939236328005791, 0.1161210760474205, 0.04578907787799835, 0.06834118068218231, 0.04628617689013481, 0.08802732825279236, 0.1737816333770752, 0.053761761635541916, 0.08322179317474365, 0.06970709562301636, 0.11302243918180466, 0.19107870757579803, 0.01975085772573948, 0.043840453028678894, 0.07206933200359344, 0.23924794793128967, 0.25375476479530334, 0.09187051653862, 0.0859442874789238, 0.19891858100891113, 0.08612370491027832, 0.0398726612329483, 0.014353103004395962, 0.020603306591510773, 0.01668601855635643, 0.026236403733491898, 0.14741691946983337, 0.3846038281917572, 0.4406926929950714, 0.454958975315094, 0.19093769788742065, 0.199347585439682, 0.2854936718940735, 0.19922544062137604, 0.10669982433319092, 0.24790072441101074, 0.09490977972745895, 0.10634459555149078, 0.039481695741415024, 0.045600228011608124, 0.048122432082891464, 0.19451946020126343, 0.19460539519786835, 0.22642220556735992, 0.12246373295783997, 0.09129064530134201, 0.09837484359741211, 0.10789919644594193, 0.09577734023332596, 0.09475471824407578, 0.08321321755647659, 0.13394668698310852, 0.08915388584136963, 0.09446471184492111, 0.06720159202814102, 0.08538340032100677, 0.0846000611782074, 0.04251885414123535, 0.04824049025774002, 0.04501067101955414, 0.05229697749018669, 0.04391762241721153, 0.08540260791778564, 0.05641550198197365, 0.043665818870067596, 0.06481042504310608, 0.06407956033945084, 0.035782571882009506, 0.036136046051979065, 0.037946004420518875, 0.03627028316259384, 0.05295122042298317, 0.031309694051742554, 0.04963676258921623, 0.10728317499160767, 0.11988916248083115, 0.034811340272426605, 0.04138409346342087, 0.031927529722452164, 0.05543076992034912, 0.05081448704004288, 0.048448596149683, 0.0183423925191164, 0.028276925906538963, 0.06750612705945969, 0.08146649599075317, 0.12111523002386093, 0.05630182847380638, 0.14746196568012238, 0.0859655886888504, 0.21823523938655853, 0.16055099666118622, 0.10247533768415451, 0.047143496572971344, 0.06975342333316803, 0.06805454194545746, 0.09486488997936249, 0.057248059660196304, 0.09533227235078812, 0.05256878584623337, 0.052124567329883575]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.5563652515411377</v>
+        <v>0.454958975315094</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.115912499983096</v>
+        <v>1.107256600007531</v>
       </c>
       <c r="J72" t="n">
-        <v>0.005693431122362737</v>
+        <v>0.005649268367385363</v>
       </c>
     </row>
     <row r="73">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.038954056799411774, 0.057335350662469864, 0.042227815836668015, 0.05890923738479614, 0.1069142073392868, 0.1426965892314911, 0.18114197254180908, 0.12273794412612915, 0.1314987689256668, 0.08188840746879578, 0.11105851829051971, 0.11547967791557312, 0.06602383404970169, 0.056640613824129105, 0.07915196567773819, 0.19241106510162354, 0.20648503303527832, 0.4913007318973541, 0.27178484201431274, 0.1407516896724701, 0.1103031188249588, 0.12470319122076035, 0.14127704501152039, 0.2510056495666504, 0.0868261381983757, 0.0849536657333374, 0.15351463854312897, 0.2468862682580948, 0.12899649143218994, 0.10362022370100021, 0.10985482484102249, 0.11624869704246521, 0.08599207550287247, 0.0685378760099411, 0.10857518017292023, 0.05242006480693817, 0.06363394856452942, 0.0657258853316307, 0.09763403981924057, 0.08942514657974243, 0.06628163158893585, 0.1310383677482605, 0.11266358196735382, 0.11437757313251495, 0.10983174294233322, 0.09123032540082932, 0.08933015912771225, 0.09038326144218445, 0.03665771707892418, 0.030854474753141403, 0.05543559789657593, 0.07783671468496323, 0.052099570631980896, 0.17713001370429993, 0.10369212925434113, 0.11856096982955933, 0.08472467213869095, 0.0716622844338417, 0.07698912173509598, 0.13083364069461823, 0.15166477859020233, 0.07888390123844147, 0.06035778671503067, 0.06322799623012543, 0.06074508652091026, 0.10404506325721741, 0.06841681152582169, 0.07484619319438934, 0.13076719641685486, 0.17019297182559967, 0.25023069977760315, 0.10334336012601852, 0.09431258589029312, 0.11342447996139526, 0.04591258987784386, 0.041653137654066086, 0.03931235522031784, 0.08185373246669769, 0.11311589926481247, 0.1620604544878006, 0.07951778918504715, 0.2181149125099182, 0.15859656035900116, 0.07797731459140778, 0.08209086954593658, 0.06152013689279556, 0.043083351105451584, 0.03780415281653404, 0.04815024137496948, 0.047499023377895355, 0.09062840044498444, 0.1116105243563652, 0.09539908170700073, 0.10245472192764282, 0.06068039685487747, 0.07414819300174713, 0.062071677297353745, 0.06571594625711441, 0.07564900070428848, 0.10030816495418549, 0.07749069482088089, 0.046644940972328186, 0.060552436858415604, 0.06690322607755661, 0.04972424358129501, 0.06358810514211655, 0.06255076825618744, 0.06386774778366089, 0.06327340751886368, 0.039861954748630524, 0.05873913690447807, 0.06516439467668533, 0.04725929722189903, 0.06682615727186203, 0.05228504166007042, 0.1357305347919464, 0.1383751630783081, 0.13511572778224945, 0.10128694027662277, 0.11157946288585663, 0.14585688710212708, 0.13520941138267517, 0.07049181312322617, 0.0845324844121933, 0.07345854490995407, 0.06546355783939362, 0.11954674124717712, 0.15123982727527618, 0.08657658100128174, 0.1179233118891716, 0.13200363516807556, 0.18424808979034424, 0.17484456300735474, 0.24994662404060364, 0.08957689255475998, 0.19878341257572174, 0.10108721256256104, 0.02719106897711754, 0.034789834171533585, 0.038367338478565216, 0.05448151007294655, 0.0747787207365036, 0.06315268576145172, 0.08828333765268326, 0.06712225824594498, 0.07054683566093445, 0.04569784924387932, 0.034045614302158356, 0.057891763746738434, 0.0749315470457077, 0.05131779983639717, 0.045452795922756195, 0.046049684286117554, 0.08764231950044632, 0.0790335163474083, 0.15362392365932465, 0.1253512054681778, 0.05411617085337639, 0.07599658519029617, 0.1590186357498169, 0.06172022596001625, 0.0964616909623146, 0.08151300996541977, 0.2064494788646698, 0.1302335560321808, 0.13157019019126892, 0.19853104650974274, 0.25462186336517334, 0.12546786665916443, 0.2815511226654053, 0.29193150997161865, 0.48623213171958923, 0.3264904320240021, 0.12510618567466736, 0.1304430365562439, 0.17255328595638275, 0.44790953397750854, 0.22391493618488312, 0.18510055541992188, 0.23460422456264496, 0.5554717183113098, 0.3163062036037445, 0.15875151753425598, 0.11278354376554489, 0.07742370665073395, 0.052870940417051315, 0.08059839904308319, 0.08395282924175262, 0.07949540764093399, 0.06734348088502884, 0.1806551218032837, 0.1674366444349289, 0.07173103094100952, 0.06202014163136482, 0.053038015961647034, 0.08423318713903427, 0.08401661366224289]</t>
+          <t>[0.02158649079501629, 0.04163964465260506, 0.019832199439406395, 0.042401961982250214, 0.10869722813367844, 0.1276855766773224, 0.1449279934167862, 0.08502649515867233, 0.12422496825456619, 0.08958563953638077, 0.057762861251831055, 0.06225316599011421, 0.0403938926756382, 0.026072008535265923, 0.03819402679800987, 0.20516899228096008, 0.30485379695892334, 0.6746706366539001, 0.2969091534614563, 0.09104324132204056, 0.062463559210300446, 0.06335154920816422, 0.1106657087802887, 0.19455304741859436, 0.03148835152387619, 0.03891069442033768, 0.10897970199584961, 0.24363179504871368, 0.07635092735290527, 0.042832039296627045, 0.04010279104113579, 0.06198408827185631, 0.026761233806610107, 0.028055155649781227, 0.038898859173059464, 0.024876033887267113, 0.03012188896536827, 0.02212788537144661, 0.0557999461889267, 0.06673593074083328, 0.045095451176166534, 0.10570750385522842, 0.11006753146648407, 0.06319855898618698, 0.063385508954525, 0.045732587575912476, 0.04687318578362465, 0.050461769104003906, 0.02930503338575363, 0.02540111169219017, 0.043714527040719986, 0.04107670485973358, 0.03172441944479942, 0.08061005920171738, 0.047872189432382584, 0.04315471649169922, 0.0487324558198452, 0.03995027765631676, 0.02499350532889366, 0.06310224533081055, 0.15304535627365112, 0.04793257266283035, 0.03534819558262825, 0.03087477758526802, 0.0358828641474247, 0.08293306827545166, 0.034356873482465744, 0.02852652408182621, 0.06739939749240875, 0.09661177545785904, 0.09124244004487991, 0.056211911141872406, 0.05392390117049217, 0.08214746415615082, 0.021857328712940216, 0.01930535025894642, 0.017936820164322853, 0.05303165689110756, 0.07605699449777603, 0.2260206788778305, 0.07911049574613571, 0.3060147762298584, 0.17264199256896973, 0.08209066092967987, 0.0924588143825531, 0.045536864548921585, 0.03617386147379875, 0.03361418470740318, 0.05087563022971153, 0.03559315577149391, 0.043204281479120255, 0.05606117099523544, 0.0636320412158966, 0.08016002178192139, 0.04988176375627518, 0.050562597811222076, 0.05354220047593117, 0.05380808934569359, 0.03813266381621361, 0.0721309557557106, 0.06173599511384964, 0.0320216529071331, 0.044944629073143005, 0.03419557213783264, 0.025936007499694824, 0.038293078541755676, 0.024810675531625748, 0.03582969680428505, 0.03325279802083969, 0.026800649240612984, 0.036892618983983994, 0.033146485686302185, 0.014456098899245262, 0.02318488620221615, 0.0279366597533226, 0.18417179584503174, 0.10674986243247986, 0.14607051014900208, 0.1118151992559433, 0.09256798774003983, 0.22301381826400757, 0.2652864158153534, 0.07450434565544128, 0.11223116517066956, 0.10261598974466324, 0.0703461766242981, 0.11233092099428177, 0.15202020108699799, 0.06906526535749435, 0.11462059617042542, 0.08787620812654495, 0.0747951790690422, 0.1783965826034546, 0.2772461473941803, 0.07802031189203262, 0.21498985588550568, 0.15031085908412933, 0.014746158383786678, 0.020120784640312195, 0.04390489682555199, 0.06871374696493149, 0.1276850700378418, 0.14452742040157318, 0.13105331361293793, 0.08964584022760391, 0.09046684205532074, 0.03142504021525383, 0.023232780396938324, 0.038870010524988174, 0.06790711730718613, 0.04270019009709358, 0.04211941361427307, 0.03335873782634735, 0.07823656499385834, 0.060357898473739624, 0.11837445199489594, 0.10138367116451263, 0.020559538155794144, 0.026666942983865738, 0.09658152610063553, 0.02082560397684574, 0.03606608510017395, 0.02425568178296089, 0.1167232096195221, 0.08983536064624786, 0.12669621407985687, 0.2345643788576126, 0.2812257409095764, 0.13977335393428802, 0.26494085788726807, 0.36773681640625, 0.33483052253723145, 0.3689832091331482, 0.08470308035612106, 0.11930537223815918, 0.2344173938035965, 0.5798018574714661, 0.20761509239673615, 0.12427040934562683, 0.15274854004383087, 0.4755088686943054, 0.2833000719547272, 0.12958280742168427, 0.08588259667158127, 0.04273882508277893, 0.033371854573488235, 0.06169847398996353, 0.05061061680316925, 0.07225608825683594, 0.06012549251317978, 0.1794578582048416, 0.2345806211233139, 0.05277222394943237, 0.03655162826180458, 0.04114006832242012, 0.055481918156147, 0.05522283539175987]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.5554717183113098</v>
+        <v>0.6746706366539001</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.088827100000344</v>
+        <v>1.116140700003598</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005527041116753016</v>
+        <v>0.005665688832505573</v>
       </c>
     </row>
     <row r="74">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.2819998860359192, 0.19543790817260742, 0.09927258640527725, 0.0808834657073021, 0.09472274035215378, 0.09702382981777191, 0.12031756341457367, 0.08332399278879166, 0.14296893775463104, 0.05660422891378403, 0.07517922669649124, 0.15426044166088104, 0.20954439043998718, 0.17895570397377014, 0.10707542300224304, 0.09365467727184296, 0.0964725986123085, 0.13161222636699677, 0.13059203326702118, 0.08201706409454346, 0.11496953666210175, 0.05923623964190483, 0.04397191107273102, 0.07767163217067719, 0.091425321996212, 0.13885901868343353, 0.1180674284696579, 0.15825597941875458, 0.17815187573432922, 0.24945704638957977, 0.24848081171512604, 0.4655510187149048, 0.8626010417938232, 0.9533964395523071, 0.982750654220581, 0.8591580390930176, 0.6798028349876404, 0.6045154929161072, 0.43287014961242676, 0.2876274287700653, 0.635951042175293, 0.735274076461792, 0.43951770663261414, 0.28185975551605225, 0.27302950620651245, 0.27252018451690674, 0.7875633239746094, 0.931352972984314, 0.8842470645904541, 0.7620142698287964, 0.8099895119667053, 0.5094279646873474, 0.5809147953987122, 0.7523729801177979, 0.883309006690979, 0.6760348081588745, 0.28883835673332214, 0.11727048456668854, 0.1056113988161087, 0.0887238010764122, 0.040240660309791565, 0.0730733573436737, 0.11627676337957382, 0.16783633828163147, 0.7983577847480774, 0.7459509372711182, 0.8114804625511169, 0.3984632194042206, 0.19192549586296082, 0.08487962931394577, 0.17111961543560028, 0.06819482147693634, 0.05412493273615837, 0.08191843330860138, 0.1345715969800949, 0.04379000514745712, 0.06599125266075134, 0.11456210166215897, 0.08834035694599152, 0.11209992319345474, 0.22823873162269592, 0.2005687654018402, 0.1481190025806427, 0.12839916348457336, 0.117629773914814, 0.19327284395694733, 0.6325035691261292, 0.9754671454429626, 0.9901358485221863, 0.9815821647644043, 0.9703946113586426, 0.7007847428321838, 0.3761531412601471, 0.45198163390159607, 0.41756555438041687, 0.7138657569885254, 0.528982400894165, 0.8203979134559631, 0.4624079465866089, 0.6319770216941833, 0.8507502675056458, 0.823589563369751, 0.61717689037323, 0.8877939581871033, 0.3927653729915619, 0.39123764634132385, 0.45465022325515747, 0.17786425352096558, 0.11516731232404709, 0.10826990753412247, 0.17316871881484985, 0.19827942550182343, 0.15777361392974854, 0.08046332001686096, 0.11384635418653488, 0.06541503220796585, 0.08746407926082611, 0.05707043409347534, 0.07690057158470154, 0.06273984163999557, 0.05461375042796135, 0.0766727402806282, 0.07459808140993118, 0.0759420394897461, 0.05061604827642441, 0.03609786927700043, 0.04251319542527199, 0.0961332768201828, 0.08816132694482803, 0.10913719981908798, 0.05804619938135147, 0.06520211696624756, 0.13577260076999664, 0.21346363425254822, 0.1282692402601242, 0.1559930443763733, 0.10633747279644012, 0.20414797961711884, 0.32796287536621094, 0.15712416172027588, 0.23181578516960144, 0.2586038410663605, 0.9152422547340393, 0.9205882549285889, 0.9073588848114014, 0.93296879529953, 0.9655585885047913, 0.8827940225601196, 0.6631788611412048, 0.31472206115722656, 0.5235997438430786, 0.4216782748699188, 0.1850195676088333, 0.4582924246788025, 0.6643182039260864, 0.34071213006973267, 0.38143035769462585, 0.46626314520835876, 0.6664217710494995, 0.5946027636528015, 0.4595286250114441, 0.16798117756843567, 0.30726030468940735, 0.2316187173128128, 0.17087949812412262, 0.09359192103147507, 0.06995265930891037, 0.07011245936155319]</t>
+          <t>[0.4493515193462372, 0.15192095935344696, 0.0484980046749115, 0.04195582494139671, 0.041252415627241135, 0.04282009229063988, 0.07306307554244995, 0.042532049119472504, 0.060002561658620834, 0.03574575111269951, 0.04284835234284401, 0.08914007246494293, 0.15752701461315155, 0.08102702349424362, 0.06456834822893143, 0.05046713352203369, 0.066507987678051, 0.08800248056650162, 0.07543574273586273, 0.03659839555621147, 0.0429699569940567, 0.020987916737794876, 0.015217205509543419, 0.03304171562194824, 0.055745307356119156, 0.08001366257667542, 0.035961635410785675, 0.06589003652334213, 0.05793087184429169, 0.2802972197532654, 0.3010687828063965, 0.7157540917396545, 0.9092243909835815, 0.9695687294006348, 0.9949305653572083, 0.9122464656829834, 0.8305816650390625, 0.7206304669380188, 0.44628190994262695, 0.34128689765930176, 0.8038694262504578, 0.9156093001365662, 0.9246187210083008, 0.7286083102226257, 0.4382738769054413, 0.5862973928451538, 0.9521559476852417, 0.9837164878845215, 0.9599851965904236, 0.8258750438690186, 0.8062038421630859, 0.6185442209243774, 0.5170164704322815, 0.8258485794067383, 0.8028132319450378, 0.5235093832015991, 0.17836341261863708, 0.0642840638756752, 0.06367090344429016, 0.07158602774143219, 0.028279853984713554, 0.03717412054538727, 0.06789734214544296, 0.08306488394737244, 0.8374751806259155, 0.8225125670433044, 0.9113397598266602, 0.5364376306533813, 0.19873245060443878, 0.06907592713832855, 0.0812087431550026, 0.043801918625831604, 0.03155231848359108, 0.0503893680870533, 0.08709358423948288, 0.031207645311951637, 0.0519881434738636, 0.08487721532583237, 0.06333272159099579, 0.07567190378904343, 0.10159127414226532, 0.07884044200181961, 0.059338126331567764, 0.05718798190355301, 0.07651551812887192, 0.22134464979171753, 0.7072951793670654, 0.9900179505348206, 0.9958215951919556, 0.9948878884315491, 0.9898557662963867, 0.6469144225120544, 0.23938772082328796, 0.39021387696266174, 0.3168995678424835, 0.851801872253418, 0.7950829267501831, 0.8566402196884155, 0.32851096987724304, 0.7324784398078918, 0.8575599193572998, 0.9677196145057678, 0.770571231842041, 0.9024809002876282, 0.36044222116470337, 0.4692842662334442, 0.536414384841919, 0.12438148260116577, 0.05174168199300766, 0.04138040542602539, 0.0922924354672432, 0.11975514143705368, 0.08867776393890381, 0.05886593461036682, 0.06552191078662872, 0.045820336788892746, 0.06818563491106033, 0.025644095614552498, 0.03531019017100334, 0.03442210704088211, 0.031030837446451187, 0.05453011766076088, 0.04525108262896538, 0.0465695746243, 0.02917131595313549, 0.01925038918852806, 0.02488899976015091, 0.07792171090841293, 0.05943785980343819, 0.07881060242652893, 0.04597918689250946, 0.05875834450125694, 0.07954267412424088, 0.14424116909503937, 0.07290830463171005, 0.10364430397748947, 0.06937405467033386, 0.09840446710586548, 0.11089809238910675, 0.06917078793048859, 0.23060818016529083, 0.4052506387233734, 0.9119884967803955, 0.9629013538360596, 0.9347628951072693, 0.9806258678436279, 0.9906670451164246, 0.9685062170028687, 0.7795685529708862, 0.37127038836479187, 0.6809979677200317, 0.5900474786758423, 0.4808099567890167, 0.6588422656059265, 0.8802335262298584, 0.7640801668167114, 0.5388562679290771, 0.6189687848091125, 0.7707765102386475, 0.6483446955680847, 0.535793662071228, 0.14240168035030365, 0.2937715947628021, 0.45852530002593994, 0.2875407636165619, 0.07070193439722061, 0.030943123623728752, 0.03087661601603031]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.9901358485221863</v>
+        <v>0.9958215951919556</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.9322624000196811</v>
+        <v>0.9304266000108328</v>
       </c>
       <c r="J74" t="n">
-        <v>0.005549180952498102</v>
+        <v>0.005538253571493052</v>
       </c>
     </row>
     <row r="75">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.11339829117059708, 0.06456106156110764, 0.07378711551427841, 0.0752846971154213, 0.06656108051538467, 0.08052751421928406, 0.09799452871084213, 0.05476050823926926, 0.06923439353704453, 0.07328581809997559, 0.044593311846256256, 0.18101361393928528, 0.10987748950719833, 0.11297070980072021, 0.11691305786371231, 0.17015880346298218, 0.1345064789056778, 0.1132020428776741, 0.11490986496210098, 0.07999730855226517, 0.10012640804052353, 0.11035310477018356, 0.1234704852104187, 0.06444667279720306, 0.06845948100090027, 0.12494237720966339, 0.09200965613126755, 0.14599105715751648, 0.15641029179096222, 0.13535113632678986, 0.12434420734643936, 0.10864377021789551, 0.11035376042127609, 0.1256459504365921, 0.0683482214808464, 0.06377825886011124, 0.05281227082014084, 0.06034688279032707, 0.08146940916776657, 0.08994996547698975, 0.12439417839050293, 0.09633784741163254, 0.06527910381555557, 0.05397345498204231, 0.06822527945041656, 0.05048391968011856, 0.056120336055755615, 0.05149763450026512, 0.07685567438602448, 0.06227835640311241, 0.07471895962953568, 0.09818806499242783, 0.05801115185022354, 0.06602811813354492, 0.043753061443567276, 0.10495521128177643, 0.12685951590538025, 0.10046052187681198, 0.08882112056016922, 0.10521729290485382, 0.07657472044229507, 0.10128514468669891, 0.07944382727146149, 0.10672791302204132, 0.09492860734462738, 0.05994807556271553, 0.07551135122776031, 0.09701842814683914, 0.1217578798532486, 0.12499266117811203, 0.05660029128193855, 0.07174196094274521, 0.07620269060134888, 0.052233945578336716, 0.06091557815670967, 0.04506123811006546, 0.05051417648792267, 0.04308469966053963, 0.051229823380708694, 0.0696306899189949, 0.12523140013217926, 0.11479521542787552, 0.12794332206249237, 0.0525469109416008, 0.050254836678504944, 0.04178599268198013, 0.07348225265741348, 0.15994131565093994, 0.09813728928565979, 0.11435943841934204, 0.08741456270217896, 0.05406305938959122, 0.047838110476732254, 0.06130504980683327, 0.07620701193809509, 0.07447286695241928, 0.07401391863822937, 0.06602732092142105, 0.12892696261405945, 0.10104839503765106, 0.05788702890276909, 0.06763067096471786, 0.17592109739780426, 0.24155817925930023, 0.24991203844547272, 0.2889520227909088, 0.21211197972297668, 0.28428640961647034, 0.3363453149795532, 0.18034690618515015, 0.0991957038640976, 0.0910632535815239, 0.08234644681215286, 0.14455221593379974, 0.19118018448352814, 0.12888658046722412, 0.16277191042900085, 0.19078178703784943, 0.24382852017879486, 0.13583485782146454, 0.1442149579524994, 0.15926088392734528, 0.0835602805018425, 0.07209008187055588, 0.08298385888338089, 0.0845813974738121, 0.14766450226306915, 0.14961329102516174, 0.22656668722629547, 0.19261722266674042, 0.09322810173034668, 0.1032790094614029, 0.08296208828687668, 0.11523158848285675, 0.1008523479104042, 0.11390389502048492, 0.19175037741661072, 0.1573992669582367, 0.06263699382543564, 0.05608754605054855, 0.08793563395738602, 0.05899208039045334, 0.06122526898980141, 0.04947672039270401, 0.050504688173532486, 0.041553664952516556, 0.062686987221241, 0.06618861854076385, 0.05670443922281265, 0.056999027729034424, 0.06592720746994019, 0.06005151942372322, 0.08049775660037994, 0.06083538010716438, 0.050933074206113815, 0.09533607214689255, 0.07580108940601349, 0.05925852060317993, 0.05653000250458717, 0.152845561504364, 0.07128561288118362, 0.051672495901584625, 0.08636751025915146, 0.11572269350290298, 0.09397654235363007, 0.15931685268878937, 0.11721160262823105, 0.06870348006486893, 0.06870120763778687]</t>
+          <t>[0.09427640587091446, 0.02842334285378456, 0.03653096407651901, 0.04658503830432892, 0.04367160052061081, 0.06214645132422447, 0.08047399669885635, 0.051693134009838104, 0.05415671318769455, 0.04646308720111847, 0.047833945602178574, 0.14377930760383606, 0.07084930688142776, 0.06865505874156952, 0.06724349409341812, 0.11951977014541626, 0.12791754305362701, 0.09254369884729385, 0.1391167789697647, 0.08967556059360504, 0.08568844199180603, 0.04333661124110222, 0.06284011155366898, 0.026148781180381775, 0.02917979098856449, 0.07634738087654114, 0.06465594470500946, 0.12485309690237045, 0.10222280025482178, 0.11453283578157425, 0.07945095747709274, 0.08507481217384338, 0.08771064132452011, 0.10208910703659058, 0.04977775737643242, 0.06377916783094406, 0.059149958193302155, 0.05550694093108177, 0.07185618579387665, 0.05296659842133522, 0.08047296851873398, 0.06699057668447495, 0.051580075174570084, 0.043988194316625595, 0.0379924476146698, 0.04313717037439346, 0.03191269934177399, 0.03206746652722359, 0.032951436936855316, 0.04179631546139717, 0.060799285769462585, 0.08281417936086655, 0.035133082419633865, 0.05308570712804794, 0.04928528144955635, 0.1373199075460434, 0.185089573264122, 0.14734388887882233, 0.1211625412106514, 0.09413758665323257, 0.06866390258073807, 0.08187384158372879, 0.09490309655666351, 0.12604022026062012, 0.07091917842626572, 0.04522204399108887, 0.07764162868261337, 0.11627127975225449, 0.13369233906269073, 0.14650408923625946, 0.052768539637327194, 0.05778925120830536, 0.0828372910618782, 0.04148460924625397, 0.031477190554142, 0.01561263483017683, 0.02030005492269993, 0.02505076490342617, 0.02483714185655117, 0.039752598851919174, 0.09818446636199951, 0.1385090947151184, 0.15583832561969757, 0.08224448561668396, 0.04747069627046585, 0.04439527913928032, 0.09512147307395935, 0.3772594928741455, 0.1162162721157074, 0.11108926683664322, 0.09650230407714844, 0.030149037018418312, 0.02675570733845234, 0.03643763065338135, 0.04972800239920616, 0.04903533682227135, 0.04449474439024925, 0.03765152394771576, 0.06262191385030746, 0.035608675330877304, 0.02758784033358097, 0.03722847253084183, 0.11260979622602463, 0.25592824816703796, 0.18789267539978027, 0.4850625991821289, 0.4870719909667969, 0.28160274028778076, 0.3084025979042053, 0.08651063591241837, 0.06508897989988327, 0.058762382715940475, 0.06241653859615326, 0.10859725624322891, 0.2079402208328247, 0.11775936186313629, 0.10924012213945389, 0.100107342004776, 0.11663328111171722, 0.08168235421180725, 0.08229167759418488, 0.10439176112413406, 0.08524389564990997, 0.07107480615377426, 0.10604717582464218, 0.07302556186914444, 0.1624663770198822, 0.26645520329475403, 0.347373902797699, 0.2719663381576538, 0.12170585244894028, 0.12255235016345978, 0.09275446832180023, 0.15707047283649445, 0.14917927980422974, 0.1799987554550171, 0.15616369247436523, 0.13865993916988373, 0.07117041200399399, 0.04773804172873497, 0.049373138695955276, 0.03477633744478226, 0.03641243651509285, 0.03788771480321884, 0.047655969858169556, 0.0372469536960125, 0.05145994573831558, 0.05503697320818901, 0.03950416296720505, 0.03537904471158981, 0.042046919465065, 0.03119010664522648, 0.035362608730793, 0.03266231343150139, 0.02154480665922165, 0.0502915233373642, 0.033604297786951065, 0.03870579972863197, 0.03376774862408638, 0.10930541902780533, 0.04675544425845146, 0.03721622750163078, 0.04278883337974548, 0.05423218011856079, 0.04666544869542122, 0.06682911515235901, 0.0648086816072464, 0.03189464658498764, 0.031919244676828384]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.3363453149795532</v>
+        <v>0.4870719909667969</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.9068384999991395</v>
+        <v>0.9303571000054944</v>
       </c>
       <c r="J75" t="n">
-        <v>0.005365908284018577</v>
+        <v>0.005505071597665647</v>
       </c>
     </row>
     <row r="76">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[0.08167654275894165, 0.08955828100442886, 0.11936365813016891, 0.10454662889242172, 0.1195145770907402, 0.06390493363142014, 0.09464360028505325, 0.12417212128639221, 0.11844076216220856, 0.120439812541008, 0.09990957379341125, 0.07878942787647247, 0.06925085186958313, 0.059255193918943405, 0.048651911318302155, 0.05744730308651924, 0.06173345819115639, 0.10111310333013535, 0.20239070057868958, 0.2259301394224167, 0.119640052318573, 0.05727507174015045, 0.05884665995836258, 0.05413506552577019, 0.046911973506212234, 0.039934705942869186, 0.06716829538345337, 0.09506489336490631, 0.06350918114185333, 0.06088490039110184, 0.04773147404193878, 0.047358471900224686, 0.03747868910431862, 0.03968462347984314, 0.047331128269433975, 0.060343269258737564, 0.07778625190258026, 0.10495448857545853, 0.08127258718013763, 0.08379974961280823, 0.14963816106319427, 0.07174977660179138, 0.06405092030763626, 0.057944294065237045, 0.040742117911577225, 0.05318162962794304, 0.07737110555171967, 0.07089059799909592, 0.0707351416349411, 0.11545116454362869, 0.3711014688014984, 0.5858039259910583, 0.23915569484233856, 0.15108272433280945, 0.46271318197250366, 0.3070751428604126, 0.2650768458843231, 0.30751585960388184, 0.6070035696029663, 0.2139510214328766, 0.1624472439289093, 0.16678044199943542, 0.2078295648097992, 0.2977640628814697, 0.20858393609523773, 0.06856116652488708, 0.06613042205572128, 0.3313426971435547, 0.7715811133384705, 0.34450432658195496, 0.11833475530147552, 0.05143195763230324, 0.06962402909994125, 0.03874197229743004, 0.027319729328155518, 0.02130076289176941, 0.016887405887246132, 0.010322299785912037, 0.012593075633049011, 0.015759965404868126, 0.021028583869338036, 0.03492189943790436, 0.023320602253079414, 0.03697987273335457, 0.07699277251958847, 0.038352228701114655, 0.0971536636352539, 0.08828840404748917, 0.06989786028862, 0.04951201751828194, 0.12286808341741562, 0.053490959107875824, 0.06841008365154266, 0.13856330513954163, 0.0868666023015976, 0.13241933286190033, 0.060004573315382004, 0.1301531344652176, 0.11341603100299835, 0.18468701839447021, 0.0879647359251976, 0.1044464111328125, 0.0870254635810852, 0.08159147948026657, 0.07503186911344528, 0.11086837202310562, 0.13156643509864807, 0.37794336676597595, 0.18864697217941284, 0.15643219649791718, 0.11295302212238312, 0.06580332666635513, 0.05319112166762352, 0.11024624854326248, 0.2218855768442154, 0.1510491967201233, 0.10278346389532089, 0.13015609979629517, 0.18549512326717377, 0.05702590569853783, 0.06466332077980042, 0.06158442422747612, 0.046070605516433716, 0.07035282254219055, 0.06051477789878845, 0.09296232461929321, 0.09886101633310318, 0.10588279366493225, 0.05276811122894287, 0.0711279958486557, 0.0898737981915474, 0.08506999909877777, 0.05410030484199524, 0.06147671863436699, 0.053056344389915466, 0.042193587869405746, 0.0637764036655426, 0.051179591566324234, 0.026816919445991516, 0.05673229321837425, 0.047526899725198746, 0.052668794989585876, 0.09804631024599075, 0.07535336166620255, 0.08311819285154343, 0.08149944990873337, 0.08351317048072815, 0.06725724041461945, 0.16812872886657715, 0.39056196808815, 0.24767674505710602, 0.18607035279273987, 0.3046014606952667, 0.5480682253837585, 0.5631294250488281, 0.3827516734600067, 0.11046693474054337, 0.09241505712270737, 0.042214058339595795, 0.058773063123226166, 0.0953155905008316, 0.12051506340503693, 0.14914079010486603, 0.23256956040859222, 0.32841959595680237, 0.317672461271286, 0.14018777012825012, 0.14011137187480927, 0.13817469775676727]</t>
+          <t>[0.05381651595234871, 0.04476494714617729, 0.05915537476539612, 0.045808255672454834, 0.048989247530698776, 0.022694645449519157, 0.02592608518898487, 0.02412756346166134, 0.027588026598095894, 0.035059697926044464, 0.05299372598528862, 0.03100929595530033, 0.028957270085811615, 0.021163394674658775, 0.017642933875322342, 0.017923757433891296, 0.01603500172495842, 0.019867336377501488, 0.040872931480407715, 0.07720385491847992, 0.023306583985686302, 0.010831831954419613, 0.017146402969956398, 0.02073909342288971, 0.017287321388721466, 0.013433979824185371, 0.0204051211476326, 0.03700276091694832, 0.023992421105504036, 0.02176966331899166, 0.019223302602767944, 0.02697177045047283, 0.012881034053862095, 0.011086894199252129, 0.017126597464084625, 0.015746500343084335, 0.03227826952934265, 0.034686263650655746, 0.023977674543857574, 0.02188054285943508, 0.05380561575293541, 0.026727350428700447, 0.02762298844754696, 0.02795426920056343, 0.025965236127376556, 0.039184413850307465, 0.04906333610415459, 0.0492854043841362, 0.04926236346364021, 0.06157837063074112, 0.35453981161117554, 0.6245182752609253, 0.19822752475738525, 0.10974500328302383, 0.5211830139160156, 0.2224254310131073, 0.14568059146404266, 0.2148648202419281, 0.45173168182373047, 0.14165636897087097, 0.06560211628675461, 0.10325919091701508, 0.2095797061920166, 0.19311077892780304, 0.09858818352222443, 0.04956056550145149, 0.05149626359343529, 0.572907567024231, 0.951736569404602, 0.565176248550415, 0.17282845079898834, 0.04669302701950073, 0.055377278476953506, 0.045840177685022354, 0.016259711235761642, 0.013656609691679478, 0.012464002706110477, 0.0076004331931471825, 0.009268262423574924, 0.015371683984994888, 0.017480280250310898, 0.032860785722732544, 0.017281152307987213, 0.030666382983326912, 0.043318070471286774, 0.02590128965675831, 0.05741254612803459, 0.06862246990203857, 0.048792894929647446, 0.03662189096212387, 0.6031845808029175, 0.07441652566194534, 0.09806716442108154, 0.3471636176109314, 0.10986503213644028, 0.2549877464771271, 0.057143986225128174, 0.08083665370941162, 0.10815609246492386, 0.16718778014183044, 0.05824888125061989, 0.07942423969507217, 0.05259716138243675, 0.09103112667798996, 0.06442246586084366, 0.054521266371011734, 0.07822364568710327, 0.3630354106426239, 0.09775146096944809, 0.0899573341012001, 0.06203977391123772, 0.0375504232943058, 0.025695161893963814, 0.07986365258693695, 0.1571020632982254, 0.0878722220659256, 0.051317982375621796, 0.08763712644577026, 0.11776169389486313, 0.04114893823862076, 0.04143998771905899, 0.04580242186784744, 0.026439491659402847, 0.052725691348314285, 0.036253951489925385, 0.07818179577589035, 0.050877172499895096, 0.06372065842151642, 0.02860323153436184, 0.04780163988471031, 0.09370853006839752, 0.10153743624687195, 0.0486152358353138, 0.03594418615102768, 0.03532123193144798, 0.022315453737974167, 0.04413877800107002, 0.05222620069980621, 0.01715601608157158, 0.03879605978727341, 0.029039006680250168, 0.03915558010339737, 0.06610690802335739, 0.03482320159673691, 0.03244085982441902, 0.0558810718357563, 0.0729890763759613, 0.051110588014125824, 0.16043782234191895, 0.40723755955696106, 0.2926742434501648, 0.26529181003570557, 0.4149341583251953, 0.6700071692466736, 0.611887514591217, 0.44062238931655884, 0.12180981785058975, 0.06652989238500595, 0.027551360428333282, 0.04213064908981323, 0.07827167958021164, 0.063314288854599, 0.07472643256187439, 0.14320963621139526, 0.20451317727565765, 0.15190932154655457, 0.06632465869188309, 0.07444286346435547, 0.0732884556055069]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.7715811133384705</v>
+        <v>0.9517365694046021</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.9414383000112139</v>
+        <v>0.9513251000025775</v>
       </c>
       <c r="J76" t="n">
-        <v>0.005570640828468722</v>
+        <v>0.005629142603565548</v>
       </c>
     </row>
     <row r="77">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[0.19963669776916504, 0.12739844620227814, 0.26718398928642273, 0.48252588510513306, 0.43061351776123047, 0.3238762617111206, 0.33806708455085754, 0.28984200954437256, 0.4264912009239197, 0.6506882905960083, 0.5635758638381958, 0.6143141388893127, 0.6570717096328735, 0.9923934936523438, 0.9982529282569885, 0.9977521300315857, 0.9980853796005249, 0.9982353448867798, 0.9975232481956482, 0.9981626868247986, 0.9968335032463074, 0.9973191618919373, 0.9955429434776306, 0.9942278861999512, 0.9887421727180481, 0.9829710125923157, 0.9131972193717957, 0.7764865756034851, 0.8622467517852783, 0.5883600115776062, 0.7413088083267212, 0.6858047246932983, 0.8573084473609924, 0.768021285533905, 0.7048377394676208, 0.5832812786102295, 0.48087096214294434, 0.5024978518486023, 0.4668140411376953, 0.6795775890350342, 0.7719250321388245, 0.8052741289138794, 0.9751030802726746, 0.9968461394309998, 0.9965646862983704, 0.9322078824043274, 0.5217866897583008, 0.38492879271507263, 0.2609787881374359, 0.3633812963962555, 0.4733918607234955, 0.48564085364341736, 0.3744608759880066, 0.21863876283168793, 0.21667852997779846, 0.15597547590732574, 0.19430884718894958, 0.28283512592315674, 0.34524407982826233, 0.3366647958755493, 0.18449591100215912, 0.3610570430755615, 0.3922191858291626, 0.2673032879829407, 0.29168304800987244, 0.43387994170188904, 0.6307973265647888, 0.7094742655754089, 0.6874336004257202, 0.6990919709205627, 0.7396145462989807, 0.8023730516433716, 0.8960874676704407, 0.944372296333313, 0.9682497382164001, 0.9558495283126831, 0.9561430215835571, 0.8563531041145325, 0.6298122406005859, 0.3664620518684387, 0.4050159752368927, 0.32874390482902527, 0.25940749049186707, 0.3934613764286041, 0.5840917825698853, 0.6490011811256409, 0.5117958188056946, 0.7005709409713745, 0.7424628138542175, 0.8123392462730408, 0.6773906350135803, 0.8023771643638611, 0.5334699749946594, 0.5985474586486816, 0.4144431948661804, 0.6798892617225647, 0.6859250664710999, 0.9891604781150818, 0.98995041847229, 0.9936010241508484, 0.9881540536880493, 0.9848427772521973, 0.7361571192741394, 0.4333215057849884, 0.5783569812774658, 0.6578344106674194, 0.49594810605049133, 0.3496149778366089, 0.27347511053085327, 0.355234295129776, 0.25969797372817993, 0.5782099962234497, 0.6191794276237488, 0.2527172565460205, 0.432722270488739, 0.2945590913295746, 0.4259260892868042, 0.64400315284729, 0.637907862663269, 0.5541020631790161, 0.6008380055427551, 0.6410357356071472, 0.5816354751586914, 0.6689475774765015, 0.7419490218162537, 0.6748605370521545, 0.9691595435142517, 0.9880350232124329, 0.9563742280006409, 0.8642601370811462, 0.6946653723716736, 0.3594684302806854, 0.48754191398620605, 0.6669747829437256, 0.5184565782546997, 0.36968475580215454, 0.5477583408355713, 0.49515676498413086, 0.22531768679618835, 0.27496543526649475, 0.3556292951107025, 0.5475021004676819, 0.6291313171386719, 0.649456262588501, 0.6327965259552002, 0.6857218146324158, 0.7928501963615417, 0.9096012115478516, 0.5963906049728394, 0.7521805763244629, 0.7321934700012207, 0.9125683307647705, 0.7871146202087402, 0.8578015565872192, 0.934590220451355, 0.7754145264625549, 0.9916621446609497, 0.9944331049919128, 0.9568358063697815, 0.4238825738430023, 0.2747281491756439, 0.6345124840736389, 0.6297897696495056, 0.6997874975204468, 0.8465140461921692, 0.7213106751441956, 0.474102646112442, 0.6784652471542358, 0.6834549307823181]</t>
+          <t>[0.11369185894727707, 0.08333741128444672, 0.1626991331577301, 0.3860763609409332, 0.25552114844322205, 0.18962959945201874, 0.21904994547367096, 0.307328999042511, 0.39922818541526794, 0.7633054256439209, 0.5553620457649231, 0.629154622554779, 0.5359546542167664, 0.9989761114120483, 0.9998127818107605, 0.9997462630271912, 0.9997798800468445, 0.9997627139091492, 0.9995360374450684, 0.9997304081916809, 0.9996088147163391, 0.9995917677879333, 0.9993348717689514, 0.9990334510803223, 0.9992066025733948, 0.9994122982025146, 0.9967390894889832, 0.9618916511535645, 0.951852023601532, 0.642135739326477, 0.7255443930625916, 0.7592107653617859, 0.9615375995635986, 0.9134513139724731, 0.9100661277770996, 0.8298765420913696, 0.5364883542060852, 0.4712431728839874, 0.17597611248493195, 0.6837138533592224, 0.8473948240280151, 0.8282917141914368, 0.9979138970375061, 0.9995790123939514, 0.9995754361152649, 0.9867200255393982, 0.48710712790489197, 0.2835000157356262, 0.12517692148685455, 0.19569021463394165, 0.26888135075569153, 0.2771681249141693, 0.29619136452674866, 0.18114644289016724, 0.1718197464942932, 0.09286065399646759, 0.14229115843772888, 0.15512526035308838, 0.17871902883052826, 0.2138834297657013, 0.06384892016649246, 0.2341381460428238, 0.24658820033073425, 0.1500527709722519, 0.13090866804122925, 0.26769477128982544, 0.4324035048484802, 0.6951302289962769, 0.7556214928627014, 0.7849972248077393, 0.8302682042121887, 0.8556414842605591, 0.9780408143997192, 0.99601149559021, 0.9967206120491028, 0.9959995746612549, 0.9971082806587219, 0.9805310368537903, 0.8421079516410828, 0.23476679623126984, 0.27474984526634216, 0.2382984757423401, 0.14107395708560944, 0.21550555527210236, 0.5451681017875671, 0.6074170470237732, 0.31050994992256165, 0.6366223096847534, 0.7402015328407288, 0.9340461492538452, 0.8305469155311584, 0.8161025047302246, 0.26457658410072327, 0.3571057617664337, 0.12695878744125366, 0.35487666726112366, 0.5799314975738525, 0.9996017813682556, 0.999421238899231, 0.9988744854927063, 0.9977877140045166, 0.9979487061500549, 0.8733320236206055, 0.5345317721366882, 0.6052214503288269, 0.6763218641281128, 0.48159337043762207, 0.4057057201862335, 0.2667193114757538, 0.42034900188446045, 0.1602686196565628, 0.3830685317516327, 0.40417197346687317, 0.1470462530851364, 0.3761872351169586, 0.40002813935279846, 0.4390870928764343, 0.6785964965820312, 0.6693956255912781, 0.5241758823394775, 0.5981185436248779, 0.6758692264556885, 0.63384610414505, 0.7122260332107544, 0.9314329624176025, 0.7411054968833923, 0.9987836480140686, 0.9990009665489197, 0.9847219586372375, 0.748412549495697, 0.43630844354629517, 0.17650434374809265, 0.3308052718639374, 0.6242491006851196, 0.36004096269607544, 0.2582433819770813, 0.327629953622818, 0.23367595672607422, 0.12539561092853546, 0.1554459035396576, 0.1718793660402298, 0.4428465962409973, 0.5635930299758911, 0.5292055606842041, 0.70229572057724, 0.5868667960166931, 0.9131453633308411, 0.948932409286499, 0.4069778025150299, 0.5071387887001038, 0.516726553440094, 0.9136441349983215, 0.7692135572433472, 0.8661927580833435, 0.9514039158821106, 0.9261640906333923, 0.9994223117828369, 0.9995719790458679, 0.9913365840911865, 0.36191800236701965, 0.15603433549404144, 0.7113971710205078, 0.6074038743972778, 0.5713889598846436, 0.8196550607681274, 0.6927089095115662, 0.4593117833137512, 0.6062225103378296, 0.6160213947296143]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9982529282569885</v>
+        <v>0.9998127818107605</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.9340282999910414</v>
+        <v>0.9678843000001507</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005526794674503204</v>
+        <v>0.005727126035503851</v>
       </c>
     </row>
     <row r="78">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[0.4749259948730469, 0.5026679635047913, 0.35758113861083984, 0.283606618642807, 0.4520135521888733, 0.5812554955482483, 0.7460912466049194, 0.88631272315979, 0.5574536919593811, 0.5859516263008118, 0.4901612102985382, 0.6626901626586914, 0.3445727527141571, 0.5000457167625427, 0.6716638207435608, 0.5433970093727112, 0.5238415598869324, 0.7143540978431702, 0.4790456295013428, 0.39786016941070557, 0.34684622287750244, 0.4719161093235016, 0.5231279730796814, 0.47836172580718994, 0.2927856743335724, 0.3316025137901306, 0.34068185091018677, 0.40198519825935364, 0.4450036585330963, 0.6984846591949463, 0.5238071084022522, 0.453702449798584, 0.6847478151321411, 0.5405775308609009, 0.6304770708084106, 0.3477044105529785, 0.5296732783317566, 0.32296618819236755, 0.4178568422794342, 0.4580213725566864, 0.39155563712120056, 0.5447169542312622, 0.5826256275177002, 0.5867713093757629, 0.5204360485076904, 0.5129665732383728, 0.3605634570121765, 0.48613670468330383, 0.6002177596092224, 0.7478370666503906, 0.454867959022522, 0.7671462297439575, 0.5872534513473511, 0.3082070052623749, 0.3667636513710022, 0.2735327482223511, 0.39612752199172974, 0.3469039499759674, 0.5899561643600464, 0.4534243047237396, 0.44334059953689575, 0.32052209973335266, 0.39702141284942627, 0.4339927136898041, 0.25389254093170166, 0.22683142125606537, 0.16836808621883392, 0.22211900353431702, 0.21893298625946045, 0.2181718945503235, 0.37961405515670776, 0.5192152857780457, 0.7340561151504517, 0.8173867464065552, 0.8889861702919006, 0.9577257633209229, 0.8748118877410889, 0.9113701581954956, 0.9062163233757019, 0.8980683088302612, 0.7190964221954346, 0.770103931427002, 0.46099454164505005, 0.5914042592048645, 0.3263462483882904, 0.48854607343673706, 0.6095534563064575, 0.4602561295032501, 0.4358809292316437, 0.5367201566696167, 0.5299227237701416, 0.5137056112289429, 0.6205068826675415, 0.6937009692192078, 0.33789822459220886, 0.25587886571884155, 0.24203692376613617, 0.6643052101135254, 0.689547061920166, 0.3535594344139099, 0.43990764021873474, 0.5251668691635132, 0.7094149589538574, 0.6109260320663452, 0.48715758323669434, 0.31080693006515503, 0.2795347571372986, 0.3625684976577759, 0.3832003176212311, 0.6264792084693909, 0.6975212693214417, 0.7332391738891602, 0.5621142387390137, 0.5740969777107239, 0.36275824904441833, 0.42116668820381165, 0.5335933566093445, 0.44498223066329956, 0.5085121989250183, 0.26686573028564453, 0.30006924271583557, 0.3591005504131317, 0.3704989552497864, 0.36180615425109863, 0.7428144216537476, 0.667161226272583, 0.7281224727630615, 0.9003100395202637, 0.9203064441680908, 0.7482250332832336, 0.7016175985336304, 0.5495716333389282, 0.5288687944412231, 0.40031397342681885, 0.5616477727890015, 0.5828421711921692, 0.6178506016731262, 0.506320059299469, 0.3582671880722046, 0.49375757575035095, 0.5118696093559265, 0.5199241042137146, 0.613090991973877, 0.4967896342277527, 0.5842462778091431, 0.5315382480621338, 0.7397129535675049, 0.5636354684829712, 0.5287317037582397, 0.44694676995277405, 0.9032276272773743, 0.5327668786048889, 0.4642166793346405, 0.32232582569122314, 0.5740432143211365, 0.7542498111724854, 0.7912668585777283, 0.8100022077560425, 0.6842269897460938, 0.7248794436454773, 0.6901937127113342, 0.6343015432357788, 0.37770169973373413, 0.17653712630271912, 0.2827846109867096, 0.20403671264648438, 0.24650834500789642, 0.1756739616394043, 0.17530789971351624]</t>
+          <t>[0.5037139058113098, 0.45735830068588257, 0.292912095785141, 0.23578481376171112, 0.30835434794425964, 0.7933138608932495, 0.941009521484375, 0.9895477294921875, 0.49459308385849, 0.37361061573028564, 0.3615497648715973, 0.4449414610862732, 0.20030029118061066, 0.4442943036556244, 0.6527908444404602, 0.4997735619544983, 0.5806205868721008, 0.6847618818283081, 0.32910338044166565, 0.43297073245048523, 0.3029699921607971, 0.42934709787368774, 0.452176570892334, 0.3497856855392456, 0.22006462514400482, 0.27971121668815613, 0.2845419943332672, 0.32431066036224365, 0.3413262665271759, 0.7095160484313965, 0.3325096666812897, 0.3678293526172638, 0.5050044655799866, 0.3072640895843506, 0.43847718834877014, 0.1663338840007782, 0.37592613697052, 0.1348665952682495, 0.23922912776470184, 0.2842470705509186, 0.23307979106903076, 0.4326019883155823, 0.41783833503723145, 0.6305844783782959, 0.40890833735466003, 0.48285752534866333, 0.20185360312461853, 0.41216394305229187, 0.6029544472694397, 0.8917044401168823, 0.4967566132545471, 0.7851153612136841, 0.502415657043457, 0.23963725566864014, 0.1633068174123764, 0.1716241091489792, 0.23167581856250763, 0.22261938452720642, 0.51227867603302, 0.38416871428489685, 0.4333622455596924, 0.30561551451683044, 0.30310606956481934, 0.2423715889453888, 0.12248679995536804, 0.08044251799583435, 0.08043196052312851, 0.08738776296377182, 0.09320183843374252, 0.12456292659044266, 0.17173416912555695, 0.3452785611152649, 0.7237629890441895, 0.8810186982154846, 0.895402729511261, 0.9760026335716248, 0.8005242347717285, 0.9333624243736267, 0.9101371169090271, 0.9296067953109741, 0.639677882194519, 0.7186749577522278, 0.3383575677871704, 0.5759779810905457, 0.24999871850013733, 0.4075661897659302, 0.4340497553348541, 0.2675847113132477, 0.2110205590724945, 0.269604355096817, 0.26592883467674255, 0.26070263981819153, 0.34565192461013794, 0.388213187456131, 0.12100730836391449, 0.10345458984375, 0.10214423388242722, 0.418307900428772, 0.7089924216270447, 0.4303586781024933, 0.409650057554245, 0.45017868280410767, 0.6580368876457214, 0.46901512145996094, 0.3535362482070923, 0.2187122404575348, 0.13876062631607056, 0.17369653284549713, 0.2229115217924118, 0.5186142921447754, 0.5633741021156311, 0.5174456834793091, 0.3728711009025574, 0.46999460458755493, 0.2677907943725586, 0.3337860703468323, 0.5525606870651245, 0.38025981187820435, 0.3937990665435791, 0.1874825656414032, 0.16721782088279724, 0.1868503838777542, 0.25069618225097656, 0.3067227602005005, 0.7004425525665283, 0.5709184408187866, 0.651833176612854, 0.9572861790657043, 0.9688207507133484, 0.5526168942451477, 0.7224364876747131, 0.4047323167324066, 0.3412036895751953, 0.22044651210308075, 0.32048431038856506, 0.2541894018650055, 0.30156633257865906, 0.22779420018196106, 0.1261674165725708, 0.2434484362602234, 0.23079228401184082, 0.29927191138267517, 0.5176428556442261, 0.3796939253807068, 0.32345250248908997, 0.3248608112335205, 0.5701221227645874, 0.22190448641777039, 0.4029928743839264, 0.18402795493602753, 0.9463173151016235, 0.35140782594680786, 0.21288089454174042, 0.1097189262509346, 0.18951284885406494, 0.3694869875907898, 0.3828286826610565, 0.5281360149383545, 0.3232516646385193, 0.47229743003845215, 0.3965816795825958, 0.45518001914024353, 0.2128615528345108, 0.11078572273254395, 0.1661398857831955, 0.13012558221817017, 0.16562484204769135, 0.1385629028081894, 0.13807044923305511]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.9577257633209229</v>
+        <v>0.9895477294921875</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1.080601499998011</v>
+        <v>1.055309799994575</v>
       </c>
       <c r="J78" t="n">
-        <v>0.00639409171596456</v>
+        <v>0.006244436686358431</v>
       </c>
     </row>
     <row r="79">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.9970484375953674, 0.9987047910690308, 0.9991338849067688, 0.998670220375061, 0.9984151124954224, 0.9985389709472656, 0.9980844259262085, 0.9987576007843018, 0.9988309741020203, 0.9985079169273376, 0.9987046718597412, 0.9979208111763, 0.9980822801589966, 0.998766303062439, 0.9986370205879211, 0.9987596273422241, 0.9987249970436096, 0.9986967444419861, 0.9984662532806396, 0.9975722432136536, 0.9976638555526733, 0.9963018894195557, 0.9989878535270691, 0.9988858103752136, 0.9944421648979187, 0.9782668352127075, 0.8341513276100159, 0.7946988940238953, 0.7925447821617126, 0.6232407093048096, 0.8322840332984924, 0.9165781140327454, 0.8982522487640381, 0.8776087164878845, 0.9643071293830872, 0.9398114085197449, 0.9893953204154968, 0.9964954257011414, 0.9974721074104309, 0.9982055425643921, 0.9967092275619507, 0.9969813227653503, 0.9976264834403992, 0.9977293610572815, 0.9976420402526855, 0.998596727848053, 0.9962618947029114, 0.9974954128265381, 0.9980800151824951, 0.9983208775520325, 0.9979457259178162, 0.9981908202171326, 0.9970775842666626, 0.9963016510009766, 0.9969056248664856, 0.9915909767150879, 0.997252881526947, 0.9982499480247498, 0.9974825978279114, 0.9978030323982239, 0.9761056303977966, 0.9079436659812927, 0.880389392375946, 0.8915191888809204, 0.9286258816719055, 0.9283266067504883, 0.9347773790359497, 0.9921987652778625, 0.9973481893539429, 0.9946481585502625, 0.9964356422424316, 0.996487021446228, 0.9982195496559143, 0.9979743361473083, 0.9985170960426331, 0.998173713684082, 0.9975801706314087, 0.9976304769515991, 0.9980229139328003, 0.9990270137786865, 0.9987849593162537, 0.9984911680221558, 0.9984057545661926, 0.9982705116271973, 0.9981929659843445, 0.9979384541511536, 0.9977977275848389, 0.9967504739761353, 0.9971088767051697, 0.9973412156105042, 0.9985906481742859, 0.9979642629623413, 0.993605375289917, 0.995644211769104, 0.9954774975776672, 0.996639609336853, 0.9969030022621155, 0.9968971014022827, 0.9982953667640686, 0.9987068176269531, 0.9989117383956909, 0.9987493753433228, 0.9979953765869141, 0.9978411197662354, 0.9889716506004333, 0.9941388368606567, 0.9962803721427917, 0.9953199028968811, 0.996458113193512, 0.9976770281791687, 0.9836418628692627, 0.9590641260147095, 0.9008934497833252, 0.8876453638076782, 0.9606249332427979, 0.9843130111694336, 0.9955509901046753, 0.9966243505477905, 0.9966141581535339]</t>
+          <t>[0.9991567134857178, 0.9996302127838135, 0.9998012185096741, 0.9995993971824646, 0.9994903802871704, 0.9995678067207336, 0.9995587468147278, 0.9997029900550842, 0.9996893405914307, 0.9996894598007202, 0.9996664524078369, 0.9995763897895813, 0.9995960593223572, 0.9997135996818542, 0.9995667338371277, 0.9996169805526733, 0.9996084570884705, 0.9995889067649841, 0.9995957016944885, 0.9993332028388977, 0.9986416697502136, 0.9981940388679504, 0.999722421169281, 0.999616265296936, 0.9982748031616211, 0.9846156239509583, 0.8637916445732117, 0.7223225831985474, 0.8288387060165405, 0.6713532209396362, 0.7998793721199036, 0.9296584129333496, 0.9060767292976379, 0.813591718673706, 0.9429975152015686, 0.9415712356567383, 0.9924001693725586, 0.9987735152244568, 0.9986929297447205, 0.999478280544281, 0.9993630051612854, 0.9995332956314087, 0.9997453093528748, 0.9995771050453186, 0.9995012283325195, 0.9996955394744873, 0.9981504082679749, 0.9981934428215027, 0.9988358616828918, 0.9992720484733582, 0.9992339611053467, 0.9990967512130737, 0.9982336759567261, 0.9981489181518555, 0.9973787069320679, 0.9952076077461243, 0.9983775615692139, 0.9992077946662903, 0.9993823766708374, 0.9992052912712097, 0.9868801832199097, 0.860485851764679, 0.8871985673904419, 0.8590067625045776, 0.9060250520706177, 0.9370328783988953, 0.9481094479560852, 0.9976562261581421, 0.9991632699966431, 0.9983265995979309, 0.9990221261978149, 0.9991200566291809, 0.9994433522224426, 0.9995412826538086, 0.9995930790901184, 0.9994754195213318, 0.9991326928138733, 0.9988435506820679, 0.9990788698196411, 0.9996422529220581, 0.9993269443511963, 0.9992928504943848, 0.9991719722747803, 0.999041736125946, 0.9991589784622192, 0.9988939166069031, 0.9988816380500793, 0.9988118410110474, 0.9986866116523743, 0.9989433884620667, 0.9996398687362671, 0.9993531107902527, 0.9954327344894409, 0.9979754090309143, 0.9977684020996094, 0.9978367686271667, 0.998809814453125, 0.9985596537590027, 0.9992827773094177, 0.9992790818214417, 0.999432384967804, 0.9994882345199585, 0.9991057515144348, 0.9990341663360596, 0.977861225605011, 0.9913170337677002, 0.9979411959648132, 0.9980552196502686, 0.9990731477737427, 0.9993531107902527, 0.9858843684196472, 0.9510557055473328, 0.8876223564147949, 0.8630796074867249, 0.9377209544181824, 0.9879053831100464, 0.9983059167861938, 0.9989804625511169, 0.998978853225708]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.9991338849067688</v>
+        <v>0.9998012185096741</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.6760902999958489</v>
+        <v>0.6796217000082834</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005681431092402092</v>
+        <v>0.005711106722758684</v>
       </c>
     </row>
     <row r="80">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[0.9932544827461243, 0.9933465719223022, 0.9962538480758667, 0.9961452484130859, 0.9910981059074402, 0.9927446842193604, 0.9900250434875488, 0.9943004846572876, 0.995560884475708, 0.99726402759552, 0.9968658089637756, 0.9972641468048096, 0.9963527917861938, 0.9970032572746277, 0.9396042227745056, 0.9683788418769836, 0.9659929275512695, 0.9923464059829712, 0.9913246631622314, 0.9957873225212097, 0.995349109172821, 0.9955611228942871, 0.9940181970596313, 0.9962010979652405, 0.9981381893157959, 0.9982327222824097, 0.9983141422271729, 0.9983041286468506, 0.9972379207611084, 0.9974103569984436, 0.9972962737083435, 0.9938145875930786, 0.9793732166290283, 0.9874470829963684, 0.9884740710258484, 0.9888144135475159, 0.9918796420097351, 0.9971146583557129, 0.994687557220459, 0.992413341999054, 0.9889658093452454, 0.9949154853820801, 0.9975934624671936, 0.9979019165039062, 0.9958622455596924, 0.9923439621925354, 0.9986817240715027, 0.9966210126876831, 0.9970857501029968, 0.9959854483604431, 0.994283139705658, 0.9934212565422058, 0.9776797890663147, 0.9669188857078552, 0.9890106320381165, 0.9923750758171082, 0.9844983220100403, 0.9927213788032532, 0.9915943741798401, 0.996908962726593, 0.9988021850585938, 0.9985206723213196, 0.9991391897201538, 0.9984577894210815, 0.9958065748214722, 0.9966632723808289, 0.9970138072967529, 0.9971380233764648, 0.9959548711776733, 0.9984966516494751, 0.999077320098877, 0.9989520311355591, 0.9992644190788269, 0.9987683892250061, 0.9976274371147156, 0.996504545211792, 0.9908114671707153, 0.9948037266731262, 0.998019814491272, 0.9984954595565796, 0.9982931017875671, 0.9978260397911072, 0.997822642326355, 0.9938303828239441, 0.8339280486106873, 0.6145184636116028, 0.19188463687896729, 0.078468456864357, 0.03774937242269516, 0.06135202944278717, 0.03161313757300377, 0.06267499178647995, 0.06863367557525635, 0.09606651961803436, 0.07631857693195343, 0.11418958753347397, 0.1718926727771759, 0.38547468185424805, 0.5196274518966675, 0.4208999276161194, 0.42364954948425293, 0.5857577919960022, 0.970048189163208, 0.9491778612136841, 0.9902482628822327, 0.9931544065475464, 0.9971779584884644, 0.9987356066703796, 0.9991068243980408, 0.9974067807197571, 0.9950118064880371, 0.9956251978874207, 0.9961812496185303, 0.9969877600669861, 0.9947695136070251, 0.9954479336738586, 0.9973148703575134, 0.9880744814872742, 0.9307371973991394, 0.8741756677627563, 0.17759501934051514, 0.3637455701828003, 0.23148854076862335, 0.17708566784858704, 0.40931233763694763, 0.7961033582687378, 0.6308871507644653, 0.8046973943710327, 0.9924672245979309, 0.9932952523231506, 0.9956339001655579, 0.9912041425704956, 0.9855338335037231, 0.9739367961883545, 0.9838120341300964, 0.9953332543373108, 0.9937412142753601, 0.9527920484542847, 0.9596176743507385, 0.959283173084259]</t>
+          <t>[0.9947022795677185, 0.9949210286140442, 0.9978871941566467, 0.9978796243667603, 0.993733823299408, 0.9943951368331909, 0.9911441802978516, 0.996493399143219, 0.9967381358146667, 0.9989302754402161, 0.9980323910713196, 0.9985414743423462, 0.9987288117408752, 0.9989176988601685, 0.931404709815979, 0.9710921049118042, 0.985018789768219, 0.9982196688652039, 0.9980450868606567, 0.9993048906326294, 0.9990547299385071, 0.9993851184844971, 0.999032735824585, 0.9993370175361633, 0.9996588230133057, 0.9995218515396118, 0.999591052532196, 0.999550998210907, 0.9992653727531433, 0.9992764592170715, 0.9994741082191467, 0.9987806677818298, 0.9953780174255371, 0.9975197911262512, 0.9966213703155518, 0.9969987869262695, 0.9980054497718811, 0.999365508556366, 0.9992389678955078, 0.9950954914093018, 0.9936293959617615, 0.9980823993682861, 0.9986746311187744, 0.9990212917327881, 0.997512936592102, 0.9936070442199707, 0.9997188448905945, 0.9992115497589111, 0.9992675185203552, 0.9986147880554199, 0.9976738095283508, 0.9969173669815063, 0.9938856959342957, 0.9854685664176941, 0.9945127964019775, 0.9933741688728333, 0.9940252900123596, 0.9979515671730042, 0.998261034488678, 0.9994248151779175, 0.9996160268783569, 0.999437153339386, 0.9996511936187744, 0.9995378255844116, 0.9986604452133179, 0.9986737966537476, 0.998878538608551, 0.9989674091339111, 0.9974405765533447, 0.9996980428695679, 0.9997671246528625, 0.9997170567512512, 0.9997760653495789, 0.999618411064148, 0.9990735054016113, 0.9983676075935364, 0.9959304928779602, 0.9988524913787842, 0.999388575553894, 0.9997147917747498, 0.9997146725654602, 0.9995055198669434, 0.9992852807044983, 0.9968023300170898, 0.9269328713417053, 0.6794386506080627, 0.055130138993263245, 0.025813806802034378, 0.024659795686602592, 0.0426175594329834, 0.020387636497616768, 0.03637130931019783, 0.026574840769171715, 0.0415133461356163, 0.0493331104516983, 0.12835471332073212, 0.19557583332061768, 0.571519672870636, 0.8452036380767822, 0.7025619745254517, 0.46129244565963745, 0.5884066224098206, 0.9951075315475464, 0.987851083278656, 0.9976739287376404, 0.9980852603912354, 0.9992601275444031, 0.9997493624687195, 0.9998098015785217, 0.999193012714386, 0.9963950514793396, 0.9984925985336304, 0.9985112547874451, 0.9989959597587585, 0.9966464638710022, 0.9979043006896973, 0.999186098575592, 0.9952534437179565, 0.9823504686355591, 0.9541729688644409, 0.23775485157966614, 0.5142778158187866, 0.35860109329223633, 0.3785621225833893, 0.8425751328468323, 0.9241231679916382, 0.8467248678207397, 0.9781997799873352, 0.9982205033302307, 0.9974263310432434, 0.9973757266998291, 0.9963083863258362, 0.9942652583122253, 0.982322633266449, 0.9936343431472778, 0.998371422290802, 0.997856080532074, 0.9833844900131226, 0.9955790638923645, 0.9954952001571655]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9992644190788269</v>
+        <v>0.9998098015785217</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.7885914999933448</v>
+        <v>0.7975232000026153</v>
       </c>
       <c r="J80" t="n">
-        <v>0.005632796428523892</v>
+        <v>0.005696594285732967</v>
       </c>
     </row>
     <row r="81">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[0.4601609706878662, 0.553364098072052, 0.650041401386261, 0.6465388536453247, 0.25765326619148254, 0.49532824754714966, 0.44548848271369934, 0.4765802025794983, 0.594847559928894, 0.44174924492836, 0.3139660060405731, 0.5440322160720825, 0.4238399863243103, 0.316580593585968, 0.546513020992279, 0.7355440258979797, 0.8676651120185852, 0.8233029842376709, 0.8332881927490234, 0.8169939517974854, 0.7691207528114319, 0.3836681842803955, 0.22112292051315308, 0.36211836338043213, 0.5881597399711609, 0.45192596316337585, 0.48322293162345886, 0.4286978542804718, 0.32330450415611267, 0.36868390440940857, 0.5703642964363098, 0.41892486810684204, 0.3410550653934479, 0.6443377137184143, 0.6352041959762573, 0.6419951915740967, 0.5605114698410034, 0.5730496644973755, 0.6871188282966614, 0.7581491470336914, 0.6519531607627869, 0.6464687585830688, 0.6509045362472534, 0.5910260677337646, 0.596260666847229, 0.7262586355209351, 0.658642590045929, 0.8360159993171692, 0.7851719856262207, 0.8126113414764404, 0.709295392036438, 0.73850417137146, 0.7115196585655212, 0.32215940952301025, 0.5697145462036133, 0.6866995692253113, 0.753995418548584, 0.6279067397117615, 0.5395863652229309, 0.7429822087287903, 0.7376152873039246, 0.7783243060112, 0.5815551280975342, 0.6384736895561218, 0.7392792105674744, 0.503225564956665, 0.8476369976997375, 0.9390804767608643, 0.9455608129501343, 0.9221733808517456, 0.508351743221283, 0.26633933186531067, 0.2295120656490326, 0.402646005153656, 0.3902856409549713, 0.6571696996688843, 0.839618444442749, 0.8267104029655457, 0.8265020251274109, 0.7730629444122314, 0.6494306325912476, 0.7357056140899658, 0.8053401112556458, 0.835824728012085, 0.7842442989349365, 0.7032492160797119, 0.7682204246520996, 0.8275678753852844, 0.8240503072738647, 0.6974076628684998, 0.7298570871353149, 0.893024742603302, 0.8666346073150635, 0.8358624577522278, 0.8621650338172913, 0.7518162727355957, 0.23199760913848877, 0.45613035559654236, 0.7775198221206665, 0.7773270010948181, 0.6024608612060547, 0.6223101615905762, 0.6738558411598206, 0.790617048740387, 0.5866600275039673, 0.7487758994102478, 0.7237548232078552, 0.8871188163757324, 0.8799426555633545, 0.9404380917549133, 0.9608351588249207, 0.9466881155967712, 0.32498887181282043, 0.14831969141960144, 0.26618796586990356, 0.4255220592021942, 0.5567994713783264, 0.5121890902519226, 0.5560385584831238, 0.48642823100090027, 0.7479428052902222, 0.9165207147598267, 0.7192270159721375, 0.7886536121368408, 0.6959775686264038, 0.7492876648902893, 0.7782570719718933, 0.758215069770813, 0.7164021730422974, 0.8775333166122437, 0.8690720796585083, 0.8447265028953552, 0.7930084466934204, 0.8201733827590942, 0.7623186707496643, 0.8785120844841003, 0.8939472436904907, 0.904669463634491, 0.9044903516769409]</t>
+          <t>[0.33144718408584595, 0.5270141363143921, 0.5973403453826904, 0.6166623830795288, 0.1761329472064972, 0.3944280743598938, 0.4420646131038666, 0.36352047324180603, 0.48403120040893555, 0.25692829489707947, 0.14997342228889465, 0.3732536733150482, 0.31207022070884705, 0.28022825717926025, 0.5677922368049622, 0.7502567768096924, 0.8764869570732117, 0.7670155167579651, 0.7932268381118774, 0.7254098057746887, 0.6702320575714111, 0.3711746037006378, 0.20765851438045502, 0.38120073080062866, 0.6555611491203308, 0.42940473556518555, 0.34532734751701355, 0.26575371623039246, 0.3227568566799164, 0.27650633454322815, 0.5093719363212585, 0.38305652141571045, 0.2520093321800232, 0.4635186791419983, 0.49004608392715454, 0.4633401334285736, 0.43336647748947144, 0.37547412514686584, 0.4746246337890625, 0.6260863542556763, 0.4389975070953369, 0.4699695408344269, 0.46074697375297546, 0.3996838629245758, 0.4504823088645935, 0.7141091823577881, 0.6629579067230225, 0.8473251461982727, 0.7449058294296265, 0.8239076733589172, 0.6564548015594482, 0.6510369181632996, 0.6521471738815308, 0.24332797527313232, 0.48952195048332214, 0.6737065315246582, 0.7982603311538696, 0.6160963773727417, 0.5253428220748901, 0.7499535083770752, 0.7603382468223572, 0.8143602609634399, 0.5354446172714233, 0.49523743987083435, 0.6581617593765259, 0.3173702359199524, 0.8440401554107666, 0.9496087431907654, 0.9353609681129456, 0.9612904787063599, 0.5024588108062744, 0.2808349132537842, 0.27150219678878784, 0.4652995467185974, 0.3297109007835388, 0.8113305568695068, 0.9582293629646301, 0.9460265040397644, 0.9178302884101868, 0.8818185925483704, 0.7264330387115479, 0.6799596548080444, 0.8086559772491455, 0.7133837938308716, 0.7618542313575745, 0.7386921644210815, 0.7419515252113342, 0.8722541928291321, 0.8287532329559326, 0.6342052817344666, 0.6642439365386963, 0.8750174045562744, 0.7515884637832642, 0.6709433197975159, 0.7236467599868774, 0.6271191835403442, 0.15277326107025146, 0.626419723033905, 0.8073892593383789, 0.8171728849411011, 0.6981055736541748, 0.6651881337165833, 0.7403212189674377, 0.8021583557128906, 0.33057597279548645, 0.5740147829055786, 0.5742822885513306, 0.8799149990081787, 0.7841218113899231, 0.9234849214553833, 0.9037727117538452, 0.9443461298942566, 0.37196099758148193, 0.11000847071409225, 0.2317005693912506, 0.41449034214019775, 0.6262616515159607, 0.4770565927028656, 0.48140907287597656, 0.6566281914710999, 0.8965654373168945, 0.9587637186050415, 0.7838397026062012, 0.7977437973022461, 0.4762873947620392, 0.5512531399726868, 0.6577526926994324, 0.6025369763374329, 0.6094380021095276, 0.9062432646751404, 0.7968562841415405, 0.8736811876296997, 0.7818068861961365, 0.6632510423660278, 0.6361579895019531, 0.7598549127578735, 0.7263804078102112, 0.8300231099128723, 0.8296186923980713]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.9608351588249207</v>
+        <v>0.9612904787063599</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.7826980000245385</v>
+        <v>0.7906336999876658</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005630920863485888</v>
+        <v>0.005688012230127092</v>
       </c>
     </row>
     <row r="82">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[0.6279922127723694, 0.8166016936302185, 0.5147756338119507, 0.4472407102584839, 0.3923399746417999, 0.3000762462615967, 0.5190250873565674, 0.9243725538253784, 0.8951476812362671, 0.8331094980239868, 0.9070316553115845, 0.9522106051445007, 0.9220809936523438, 0.641136646270752, 0.7249667644500732, 0.6091524362564087, 0.8091471195220947, 0.8944442272186279, 0.6587581634521484, 0.3232184052467346, 0.8491785526275635, 0.7661222219467163, 0.8388973474502563, 0.8784467577934265, 0.6167519688606262, 0.8425812125205994, 0.8644102811813354, 0.920041561126709, 0.9568266272544861, 0.8499244451522827, 0.6630988717079163, 0.6729961633682251, 0.46353980898857117, 0.7916597723960876, 0.23776869475841522, 0.2745228111743927, 0.4539020359516144, 0.363443523645401, 0.48906344175338745, 0.5771799087524414, 0.6192073822021484, 0.2954235076904297, 0.35996636748313904, 0.47272953391075134, 0.5181804299354553, 0.44794294238090515, 0.2971075475215912, 0.41576406359672546, 0.4491463601589203, 0.5515452027320862, 0.4073497951030731, 0.38832491636276245, 0.5139067769050598, 0.32628926634788513, 0.40888574719429016, 0.640103816986084, 0.6598708629608154, 0.35248589515686035, 0.6782113909721375, 0.8151448965072632, 0.6281265616416931, 0.47185152769088745, 0.7900381088256836, 0.7741047143936157, 0.47809407114982605, 0.873941957950592, 0.9570615291595459, 0.2283010631799698, 0.14902079105377197, 0.5325595736503601, 0.859254002571106, 0.7474088668823242, 0.769382119178772, 0.91873699426651, 0.952392578125, 0.946558952331543, 0.9408177733421326, 0.9293555021286011, 0.9256985187530518, 0.9065279364585876, 0.9440714120864868, 0.9568825960159302, 0.958922266960144, 0.9421435594558716, 0.9328393340110779, 0.9471945762634277, 0.8805322647094727, 0.8907085061073303, 0.9087511301040649, 0.8995450139045715, 0.9589657783508301, 0.9543693661689758, 0.8989725708961487, 0.5622873902320862, 0.5085383653640747, 0.8109886646270752, 0.8903762102127075, 0.7067261338233948, 0.44998300075531006, 0.4210973381996155, 0.42653775215148926, 0.6352498531341553, 0.5534021258354187, 0.7282646298408508, 0.9327074885368347, 0.9299022555351257, 0.5903322100639343, 0.40427643060684204, 0.32150378823280334, 0.257219135761261, 0.38421228528022766, 0.4518537223339081, 0.40065476298332214, 0.6493939757347107, 0.7374569177627563, 0.9275633096694946, 0.8799883723258972, 0.7948215007781982, 0.5432329177856445, 0.8432927131652832, 0.7845630049705505, 0.5879954695701599, 0.6068645119667053, 0.8918598294258118, 0.9684629440307617, 0.8803497552871704, 0.8349116444587708, 0.9497500061988831, 0.9476915001869202, 0.9155400991439819, 0.8937606811523438, 0.71676105260849, 0.5953570604324341, 0.6666190028190613, 0.5801434516906738, 0.6272057890892029, 0.5745608806610107, 0.4881599247455597, 0.3157109022140503, 0.3138359785079956]</t>
+          <t>[0.8280863761901855, 0.9154729843139648, 0.3726649582386017, 0.1921263188123703, 0.1853964477777481, 0.20896059274673462, 0.28697916865348816, 0.8617733120918274, 0.9016103744506836, 0.9243144989013672, 0.977573037147522, 0.9807901382446289, 0.8793648481369019, 0.4857999384403229, 0.5413929224014282, 0.491840660572052, 0.8845599293708801, 0.8709643483161926, 0.5300342440605164, 0.2096385657787323, 0.9261645078659058, 0.827910304069519, 0.8876437544822693, 0.8699544668197632, 0.5895957350730896, 0.754905641078949, 0.827349066734314, 0.8683274984359741, 0.9719567894935608, 0.864353597164154, 0.49249330163002014, 0.7456912994384766, 0.5698494911193848, 0.8685706853866577, 0.2741219997406006, 0.2122350037097931, 0.4454473853111267, 0.3413070738315582, 0.313183456659317, 0.48037347197532654, 0.6055198311805725, 0.3152160346508026, 0.4588737487792969, 0.37937745451927185, 0.33844193816185, 0.2313186079263687, 0.2510676980018616, 0.35546135902404785, 0.4111115634441376, 0.4083811938762665, 0.3067997992038727, 0.5421332120895386, 0.6391991376876831, 0.3245737850666046, 0.5056082606315613, 0.875642716884613, 0.8311461806297302, 0.37542179226875305, 0.7462483644485474, 0.9253504276275635, 0.627565324306488, 0.4295524060726166, 0.7364786267280579, 0.6181826591491699, 0.1169290617108345, 0.8065817952156067, 0.9624456763267517, 0.2750603258609772, 0.17836496233940125, 0.7674124240875244, 0.9208778738975525, 0.7629131078720093, 0.7423570156097412, 0.9474998116493225, 0.9625349044799805, 0.9678709506988525, 0.9611721634864807, 0.9566654562950134, 0.9274420142173767, 0.9230052828788757, 0.9712575674057007, 0.9762848019599915, 0.9665032029151917, 0.9500474333763123, 0.9381433129310608, 0.9701871871948242, 0.9299986958503723, 0.8368701934814453, 0.9247666001319885, 0.8620112538337708, 0.9691694974899292, 0.9559956192970276, 0.8931013345718384, 0.5590226650238037, 0.6709200739860535, 0.9644545912742615, 0.9862169027328491, 0.8773061037063599, 0.4469921588897705, 0.4178182780742645, 0.4437488615512848, 0.5584092736244202, 0.45222997665405273, 0.5142748951911926, 0.9540079236030579, 0.9655899405479431, 0.46136707067489624, 0.41292473673820496, 0.3475693464279175, 0.4452345371246338, 0.6186727285385132, 0.3544846177101135, 0.2635369300842285, 0.7034494280815125, 0.7877913117408752, 0.9836077094078064, 0.9697707295417786, 0.9733840227127075, 0.5335067510604858, 0.9317188858985901, 0.9304414391517639, 0.46235060691833496, 0.6903485059738159, 0.961678147315979, 0.9839361906051636, 0.9395354986190796, 0.7519332766532898, 0.9614027142524719, 0.9418513178825378, 0.8480806350708008, 0.8603547811508179, 0.4258573651313782, 0.6154153943061829, 0.7017364501953125, 0.5090299248695374, 0.4852180480957031, 0.37904122471809387, 0.40217098593711853, 0.21531499922275543, 0.21397526562213898]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.9684629440307617</v>
+        <v>0.9862169027328491</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.783690399985062</v>
+        <v>0.7920922999910545</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005597788571321871</v>
+        <v>0.005657802142793246</v>
       </c>
     </row>
     <row r="83">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.18346436321735382, 0.21713171899318695, 0.34263795614242554, 0.3745596408843994, 0.24619783461093903, 0.2694205939769745, 0.3533923923969269, 0.24840597808361053, 0.3026292622089386, 0.35654714703559875, 0.34489521384239197, 0.4430783689022064, 0.2274160385131836, 0.27314382791519165, 0.4074733257293701, 0.390049010515213, 0.2785126864910126, 0.5040917992591858, 0.5484923720359802, 0.4771091938018799, 0.5676767230033875, 0.47247737646102905, 0.4308568835258484, 0.45119568705558777, 0.45688706636428833, 0.4126332700252533, 0.33434775471687317, 0.21501930058002472, 0.18640722334384918, 0.3516615927219391, 0.27485591173171997, 0.2726427912712097, 0.2565115988254547, 0.39079609513282776, 0.2370242178440094, 0.26920583844184875, 0.3639149069786072, 0.2929774522781372, 0.24705427885055542, 0.49812716245651245, 0.6091094017028809, 0.41293027997016907, 0.44846656918525696, 0.43550100922584534, 0.449526309967041, 0.5321210026741028, 0.5367830991744995, 0.36315158009529114, 0.4179363548755646, 0.4558325409889221, 0.30297043919563293, 0.28468823432922363, 0.2627393305301666, 0.20579171180725098, 0.2247268408536911, 0.18466733396053314, 0.45176437497138977, 0.554876983165741, 0.37838637828826904, 0.3531274199485779, 0.38959094882011414, 0.18489953875541687, 0.30651792883872986, 0.1887122392654419, 0.18468068540096283, 0.3048683702945709, 0.25734591484069824, 0.2500368356704712, 0.3813219666481018, 0.3096628189086914, 0.42314809560775757, 0.4265270531177521, 0.28894150257110596, 0.1769309639930725, 0.2885257303714752, 0.2705073058605194, 0.3315916061401367, 0.15030646324157715, 0.21664704382419586, 0.33617740869522095, 0.3006618618965149, 0.205397829413414, 0.3234972059726715, 0.4805358052253723, 0.4920770227909088, 0.2939434051513672, 0.3950510025024414, 0.273628830909729, 0.3028653562068939, 0.37312325835227966, 0.39135757088661194, 0.4212668836116791, 0.4330531060695648, 0.4709734618663788, 0.4163713753223419, 0.3146098852157593, 0.46783870458602905, 0.3814886212348938, 0.23637384176254272, 0.3134310245513916, 0.21281801164150238, 0.15436269342899323, 0.2336544394493103, 0.2619394063949585, 0.2995842695236206, 0.3405623435974121, 0.5472244620323181, 0.45286625623703003, 0.40923401713371277, 0.2469143271446228, 0.3332747220993042, 0.2551548480987549, 0.4565766155719757, 0.5816501379013062, 0.7318869233131409, 0.5875281691551208, 0.4783910810947418, 0.47894227504730225]</t>
+          <t>[0.2746427357196808, 0.20388656854629517, 0.30835196375846863, 0.37059691548347473, 0.23105353116989136, 0.2331513911485672, 0.31154873967170715, 0.2497628778219223, 0.356234073638916, 0.3300076127052307, 0.3202144503593445, 0.3760739266872406, 0.2380213737487793, 0.20097483694553375, 0.382350355386734, 0.4210195243358612, 0.2977304458618164, 0.5282948017120361, 0.6604824066162109, 0.5509276986122131, 0.6168756484985352, 0.5063533782958984, 0.3660759925842285, 0.30267664790153503, 0.3001340627670288, 0.48372092843055725, 0.4208313226699829, 0.25950488448143005, 0.24457788467407227, 0.3439804017543793, 0.3371298313140869, 0.30017274618148804, 0.31429150700569153, 0.5130495429039001, 0.32897359132766724, 0.29235824942588806, 0.3759385943412781, 0.3553307354450226, 0.31952154636383057, 0.5627428293228149, 0.6654117107391357, 0.5025439858436584, 0.6559420228004456, 0.6010315418243408, 0.7154507637023926, 0.684394359588623, 0.5631165504455566, 0.48546987771987915, 0.5157665014266968, 0.5349965691566467, 0.45383980870246887, 0.3301870822906494, 0.33121272921562195, 0.3231029212474823, 0.33814507722854614, 0.31812775135040283, 0.5195947885513306, 0.48057806491851807, 0.4720335304737091, 0.4080352187156677, 0.5073103904724121, 0.2018471211194992, 0.4379914104938507, 0.22153346240520477, 0.1909140795469284, 0.31864190101623535, 0.2590690851211548, 0.29921677708625793, 0.36828961968421936, 0.37978604435920715, 0.34514468908309937, 0.37669235467910767, 0.262437105178833, 0.1607508808374405, 0.22160495817661285, 0.2745087444782257, 0.3270942270755768, 0.1767439991235733, 0.21129310131072998, 0.23439276218414307, 0.28953802585601807, 0.2700631022453308, 0.4406246542930603, 0.5118836164474487, 0.4545476734638214, 0.25747936964035034, 0.3517025411128998, 0.26536762714385986, 0.3816543221473694, 0.372619092464447, 0.46882233023643494, 0.49005115032196045, 0.5061215162277222, 0.4821546673774719, 0.46487364172935486, 0.38601788878440857, 0.47141116857528687, 0.42614006996154785, 0.2616063058376312, 0.35478079319000244, 0.23539331555366516, 0.18611787259578705, 0.22601239383220673, 0.21131005883216858, 0.271669864654541, 0.3598025441169739, 0.5876783728599548, 0.4521723687648773, 0.44598791003227234, 0.2797218859195709, 0.39566901326179504, 0.4573730528354645, 0.5820135474205017, 0.7645646333694458, 0.7789259552955627, 0.6680182814598083, 0.4538918733596802, 0.45412784814834595]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.7318869233131409</v>
+        <v>0.7789259552955627</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.6397435000108089</v>
+        <v>0.6662851000000956</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005421555084837363</v>
+        <v>0.005646483898305895</v>
       </c>
     </row>
     <row r="84">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.06769435852766037, 0.06364963203668594, 0.07264602929353714, 0.08555787801742554, 0.11433494091033936, 0.14523795247077942, 0.15977345407009125, 0.1977822184562683, 0.1185934841632843, 0.18604324758052826, 0.17994029819965363, 0.13251930475234985, 0.09312605857849121, 0.1718658059835434, 0.16974429786205292, 0.18822512030601501, 0.22416464984416962, 0.11518097668886185, 0.13164053857326508, 0.18783651292324066, 0.1390126347541809, 0.17206473648548126, 0.20239414274692535, 0.2917582094669342, 0.14186501502990723, 0.26271918416023254, 0.2095959484577179, 0.10321608185768127, 0.0870186984539032, 0.11769901216030121, 0.13915450870990753, 0.12372390180826187, 0.08406596630811691, 0.2648794949054718, 0.1418195515871048, 0.16527004539966583, 0.18466757237911224, 0.1675845980644226, 0.30710217356681824, 0.40652745962142944, 0.26940539479255676, 0.19076725840568542, 0.08467110246419907, 0.12241476029157639, 0.15405409038066864, 0.0839323028922081, 0.08082427084445953, 0.06879782676696777, 0.10730388760566711, 0.11680950969457626, 0.1262224167585373, 0.057968270033597946, 0.05081185698509216, 0.0677475556731224, 0.10203734040260315, 0.26360467076301575, 0.17775769531726837, 0.21439002454280853, 0.1753804236650467, 0.17423878610134125, 0.153856098651886, 0.15012973546981812, 0.12398127466440201, 0.10268663614988327, 0.08652433007955551, 0.08733297884464264, 0.09307987242937088, 0.07764191925525665, 0.11112849414348602, 0.13591471314430237, 0.08264381438493729, 0.06970071792602539, 0.06500869989395142, 0.06221470609307289, 0.05970760062336922, 0.1550179123878479, 0.12665726244449615, 0.1723366379737854, 0.1490575522184372, 0.07911702245473862, 0.10500375181436539, 0.06424430757761002, 0.12693054974079132, 0.06619035452604294, 0.10188818722963333, 0.08653204888105392, 0.08366931229829788, 0.06183084845542908, 0.06361640244722366, 0.08633521944284439, 0.06727585196495056, 0.05668186768889427, 0.05430588871240616, 0.09717463701963425, 0.10516399890184402, 0.12086673080921173, 0.12207196652889252, 0.2067229449748993, 0.10628101974725723, 0.13504347205162048, 0.1472976803779602, 0.06116119772195816, 0.07930624485015869, 0.09839558601379395, 0.08790574967861176, 0.12162625789642334, 0.14321549236774445, 0.08463715761899948, 0.10829527676105499, 0.07364475727081299, 0.10696116089820862, 0.1463000625371933, 0.1123904287815094, 0.07037004083395004, 0.10536464303731918, 0.10852904617786407, 0.1326877921819687, 0.1333017647266388]</t>
+          <t>[0.049837853759527206, 0.029042044654488564, 0.04575751721858978, 0.05632265657186508, 0.05162541940808296, 0.05982310697436333, 0.08025705069303513, 0.1069958508014679, 0.06488721072673798, 0.08890441060066223, 0.08102720230817795, 0.0604386143386364, 0.038033924996852875, 0.05841625854372978, 0.057821594178676605, 0.06081760302186012, 0.06963110715150833, 0.03747941181063652, 0.04615165665745735, 0.06546276062726974, 0.04469675198197365, 0.06441554427146912, 0.06816370785236359, 0.13303688168525696, 0.06474458426237106, 0.12531094253063202, 0.1071244329214096, 0.05280343443155289, 0.03855782374739647, 0.052591994404792786, 0.06683919578790665, 0.04175974056124687, 0.0416540689766407, 0.12537960708141327, 0.0618462935090065, 0.08190575987100601, 0.08800919353961945, 0.1223084032535553, 0.1611357480287552, 0.16654792428016663, 0.12142234295606613, 0.10500973463058472, 0.037523504346609116, 0.10170150548219681, 0.08858145773410797, 0.0765235647559166, 0.07280762493610382, 0.07135732471942902, 0.07847019284963608, 0.10089529305696487, 0.09808145463466644, 0.048227276653051376, 0.050954896956682205, 0.09066833555698395, 0.08068186789751053, 0.3113139569759369, 0.17837584018707275, 0.20819610357284546, 0.18364018201828003, 0.2086109071969986, 0.17192983627319336, 0.10327145457267761, 0.06784510612487793, 0.08285598456859589, 0.04793292284011841, 0.03824428468942642, 0.041403476148843765, 0.06257602572441101, 0.07449913024902344, 0.08397434651851654, 0.05557209625840187, 0.05114389955997467, 0.0567963644862175, 0.0364597886800766, 0.021735722199082375, 0.05833135172724724, 0.04702679067850113, 0.09834961593151093, 0.10802134871482849, 0.07622920721769333, 0.10574337840080261, 0.05275122821331024, 0.08003813773393631, 0.03393588215112686, 0.07861082255840302, 0.06415681540966034, 0.05579974874854088, 0.036913398653268814, 0.03354116901755333, 0.03470931202173233, 0.0489901602268219, 0.027472231537103653, 0.024362778291106224, 0.06258196383714676, 0.07372059673070908, 0.06459670513868332, 0.06311596930027008, 0.1347765177488327, 0.04568151384592056, 0.06820662319660187, 0.0837017372250557, 0.030067075043916702, 0.03161381557583809, 0.037378571927547455, 0.038962021470069885, 0.06871841102838516, 0.06896401196718216, 0.0570819154381752, 0.07238873094320297, 0.03814825788140297, 0.04792935401201248, 0.10315442085266113, 0.06740795820951462, 0.060391832143068314, 0.10415462404489517, 0.0865999236702919, 0.07950490713119507, 0.08008433878421783]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.4065274596214294</v>
+        <v>0.3113139569759369</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.6382703999988735</v>
+        <v>0.6462780000001658</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005409071186431131</v>
+        <v>0.005476932203391236</v>
       </c>
     </row>
     <row r="85">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.531634509563446, 0.6807880997657776, 0.8082104921340942, 0.7281858921051025, 0.7457944750785828, 0.7666051387786865, 0.8487026691436768, 0.8697014451026917, 0.8990013599395752, 0.7231213450431824, 0.8227716088294983, 0.8635718822479248, 0.8619717359542847, 0.8127817511558533, 0.8205427527427673, 0.7858112454414368, 0.6250191330909729, 0.8054556250572205, 0.9279929399490356, 0.9477078914642334, 0.9182294011116028, 0.8124640583992004, 0.8642998933792114, 0.9121412038803101, 0.8910602927207947, 0.9381945729255676, 0.9516943693161011, 0.9429024457931519, 0.8358091711997986, 0.740015983581543, 0.8481532335281372, 0.8603821992874146, 0.7603671550750732, 0.7712767720222473, 0.6556333899497986, 0.8277798295021057, 0.645877480506897, 0.5552226901054382, 0.40288493037223816, 0.425950288772583, 0.41178184747695923, 0.49033743143081665, 0.3206058144569397, 0.5598235130310059, 0.5459978580474854, 0.5621280074119568, 0.6603335738182068, 0.5820872187614441, 0.550485372543335, 0.4655579626560211, 0.5386607050895691, 0.621484637260437, 0.4839172065258026, 0.531785249710083, 0.3861767053604126, 0.5862268805503845, 0.5462992191314697, 0.6175179481506348, 0.5988611578941345, 0.6476802825927734, 0.536867082118988, 0.6293408274650574, 0.8046426177024841, 0.7806259393692017, 0.5988419651985168, 0.8195816874504089, 0.8298068046569824, 0.7470846176147461, 0.5509398579597473, 0.6661086082458496, 0.8085839152336121, 0.7701414823532104, 0.8210536241531372, 0.7946927547454834, 0.8162915706634521, 0.7893732786178589, 0.715215802192688, 0.670437216758728, 0.8082910776138306, 0.8317872881889343, 0.783356249332428, 0.8717032670974731, 0.6814997792243958, 0.660403847694397, 0.7048455476760864, 0.5714368224143982, 0.6537008285522461, 0.8171716928482056, 0.7671165466308594, 0.834472119808197, 0.8566293716430664, 0.8310850858688354, 0.8244321942329407, 0.80494225025177, 0.9129884243011475, 0.9178678393363953, 0.9217714667320251, 0.9036834836006165, 0.8337432742118835, 0.8478994965553284, 0.6912830471992493, 0.8549232482910156, 0.8054763674736023, 0.7480481863021851, 0.5911118388175964, 0.4826873540878296, 0.5731140375137329, 0.8230770826339722, 0.6559452414512634, 0.638486385345459, 0.7028220295906067, 0.7399348020553589, 0.8126648664474487, 0.7584398984909058, 0.8329046964645386, 0.7912800908088684, 0.7914996147155762, 0.7912809252738953]</t>
+          <t>[0.6352478861808777, 0.8598702549934387, 0.9313580393791199, 0.9020135402679443, 0.8699772953987122, 0.9207897186279297, 0.9574865102767944, 0.9401400089263916, 0.9762219786643982, 0.8849290609359741, 0.9336053133010864, 0.9308975338935852, 0.9513225555419922, 0.9075316190719604, 0.9090374112129211, 0.9173412919044495, 0.8405051827430725, 0.9611023664474487, 0.9887062311172485, 0.9935342073440552, 0.9874098896980286, 0.9459431767463684, 0.9409493803977966, 0.9650527238845825, 0.9611209630966187, 0.9799739122390747, 0.9781002402305603, 0.9781437516212463, 0.9214776158332825, 0.9174850583076477, 0.9471330642700195, 0.9142173528671265, 0.7963789105415344, 0.7399349808692932, 0.5768564939498901, 0.863539457321167, 0.7764273285865784, 0.6865400075912476, 0.5135722756385803, 0.4937388002872467, 0.5154787302017212, 0.603442907333374, 0.414629191160202, 0.6815250515937805, 0.6764554977416992, 0.6412596106529236, 0.7127522826194763, 0.6822634339332581, 0.6854488849639893, 0.5029540657997131, 0.5607713460922241, 0.7193089127540588, 0.6027294993400574, 0.5403404235839844, 0.35842886567115784, 0.6341426968574524, 0.6842365860939026, 0.7338423728942871, 0.7392076253890991, 0.7845790982246399, 0.7081423401832581, 0.8178143501281738, 0.903349757194519, 0.9406228065490723, 0.794887900352478, 0.9389927387237549, 0.955801248550415, 0.8635289669036865, 0.752920389175415, 0.8236904144287109, 0.9431542158126831, 0.8750618696212769, 0.8552375435829163, 0.8849239349365234, 0.8063652515411377, 0.8473852276802063, 0.8442896008491516, 0.8646188974380493, 0.8717144727706909, 0.9157519936561584, 0.8313305974006653, 0.9124958515167236, 0.7814021706581116, 0.7859020233154297, 0.8267456889152527, 0.6946033835411072, 0.8150764107704163, 0.9332631826400757, 0.9237856864929199, 0.9477090835571289, 0.8831186294555664, 0.9015600681304932, 0.9564940929412842, 0.9288923740386963, 0.9823883175849915, 0.9705946445465088, 0.9458927512168884, 0.9663757085800171, 0.9269129037857056, 0.9500569105148315, 0.8439215421676636, 0.9243326187133789, 0.934025764465332, 0.8119398951530457, 0.6119669675827026, 0.5541782975196838, 0.6278525590896606, 0.9401723742485046, 0.8323529362678528, 0.8131408095359802, 0.7989549040794373, 0.8671795129776001, 0.8794257044792175, 0.8937295079231262, 0.9423442482948303, 0.8914116621017456, 0.8609013557434082, 0.8607802391052246]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.9516943693161011</v>
+        <v>0.9935342073440552</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.6469541999977082</v>
+        <v>0.665222099996754</v>
       </c>
       <c r="J85" t="n">
-        <v>0.005482662711844985</v>
+        <v>0.005637475423701305</v>
       </c>
     </row>
     <row r="86">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[0.79226154088974, 0.6923381686210632, 0.6407532095909119, 0.549567699432373, 0.717667818069458, 0.5194156765937805, 0.5179224610328674, 0.6508750319480896, 0.6796742677688599, 0.7447395324707031, 0.8302624225616455, 0.6247050166130066, 0.5761042833328247, 0.72871333360672, 0.6377336978912354, 0.7138059139251709, 0.8462985157966614, 0.8498689532279968, 0.5841667652130127, 0.6163473129272461, 0.6869468688964844, 0.8261814713478088, 0.7321347594261169, 0.4598921537399292, 0.5080834031105042, 0.6904991269111633, 0.7969989776611328, 0.695065438747406, 0.6912263035774231, 0.7732266783714294, 0.6117689609527588, 0.7519911527633667, 0.5818156003952026, 0.8492364287376404, 0.6000266671180725, 0.7054266929626465, 0.6189501881599426, 0.5853317975997925, 0.7497723698616028, 0.7152956128120422, 0.7005917429924011, 0.739203691482544, 0.6522083282470703, 0.44500496983528137, 0.6667643785476685, 0.840461790561676, 0.5416408777236938, 0.7091188430786133, 0.8858780860900879, 0.8895601034164429, 0.7598572373390198, 0.8165917992591858, 0.6317149996757507, 0.6841750741004944, 0.8705790638923645, 0.7675247192382812, 0.5317901372909546, 0.815089762210846, 0.5043690204620361, 0.5116438269615173, 0.5213252902030945, 0.5683134198188782, 0.47151434421539307, 0.5855941772460938, 0.4450819194316864, 0.4867479205131531, 0.6026148796081543, 0.5355207324028015, 0.31600674986839294, 0.27038878202438354, 0.6424717307090759, 0.38246193528175354, 0.32674917578697205, 0.527890682220459, 0.6657150387763977, 0.6130452156066895, 0.7427977323532104, 0.9068431258201599, 0.9373188614845276, 0.9727551937103271, 0.9274161458015442, 0.9674863815307617, 0.7476295232772827, 0.6844022274017334, 0.6862601041793823, 0.5297902822494507, 0.8210262060165405, 0.8530290126800537, 0.8813533186912537, 0.6338675022125244, 0.7178729772567749, 0.6662251949310303, 0.5514851212501526, 0.5857800245285034, 0.43609267473220825, 0.24218852818012238, 0.638031005859375, 0.472819060087204, 0.8091219067573547, 0.4301484227180481, 0.64323490858078, 0.3363555371761322, 0.5189340710639954, 0.5024851560592651, 0.39993011951446533, 0.5507208108901978, 0.3657955229282379, 0.6458697319030762, 0.5739701986312866, 0.4501197040081024, 0.36425068974494934, 0.791872501373291, 0.6442900896072388, 0.5880722403526306, 0.6436558961868286, 0.8260830044746399, 0.7322854995727539, 0.5619929432868958, 0.8565832376480103, 0.8694936633110046, 0.7293177843093872, 0.5721706748008728, 0.6871138215065002, 0.4255336821079254, 0.5406033396720886, 0.5524088144302368, 0.5686743259429932, 0.4305887520313263, 0.446887731552124, 0.8008188605308533, 0.5876553058624268, 0.5875276923179626]</t>
+          <t>[0.9307790398597717, 0.8344935774803162, 0.7204911708831787, 0.615866482257843, 0.7141376733779907, 0.5507798790931702, 0.5522379875183105, 0.634993314743042, 0.7228755354881287, 0.8453134298324585, 0.9612616300582886, 0.6406640410423279, 0.5918453931808472, 0.81353759765625, 0.733915388584137, 0.9188099503517151, 0.9587165713310242, 0.9115508794784546, 0.6900818347930908, 0.6375437378883362, 0.7930843830108643, 0.8678472638130188, 0.8273487091064453, 0.38133352994918823, 0.5921230912208557, 0.7523455619812012, 0.8509933352470398, 0.7706427574157715, 0.7590779662132263, 0.7820466160774231, 0.5810657143592834, 0.7390260696411133, 0.6924198865890503, 0.9165399670600891, 0.6845265626907349, 0.8246042728424072, 0.8780342936515808, 0.7568314671516418, 0.9026285409927368, 0.7970519661903381, 0.6800456643104553, 0.696683406829834, 0.6435499787330627, 0.3221995532512665, 0.5773591995239258, 0.8189651966094971, 0.40120014548301697, 0.6768943071365356, 0.9065228700637817, 0.9562076330184937, 0.836135745048523, 0.7738931179046631, 0.691301703453064, 0.8412232995033264, 0.9069305658340454, 0.8513152599334717, 0.6138497591018677, 0.8794648051261902, 0.4126642942428589, 0.5494502782821655, 0.6268697381019592, 0.6956803798675537, 0.5718113780021667, 0.7097592949867249, 0.41942259669303894, 0.5334056615829468, 0.7544417977333069, 0.7095368504524231, 0.3158062994480133, 0.18693891167640686, 0.7147210240364075, 0.3683755099773407, 0.32801181077957153, 0.5781195163726807, 0.8403993844985962, 0.6857246160507202, 0.9021831154823303, 0.9875013828277588, 0.9838346242904663, 0.9977814555168152, 0.994351863861084, 0.9945912957191467, 0.8312385678291321, 0.7899158000946045, 0.8397132754325867, 0.8802947998046875, 0.9273348450660706, 0.9611894488334656, 0.9466548562049866, 0.7916365265846252, 0.77911776304245, 0.7962432503700256, 0.6071651577949524, 0.8061538338661194, 0.463594913482666, 0.3203490972518921, 0.7304141521453857, 0.571415901184082, 0.8814646005630493, 0.40177643299102783, 0.6383594870567322, 0.3584906756877899, 0.48533669114112854, 0.4536305069923401, 0.38994669914245605, 0.5672298669815063, 0.34212687611579895, 0.5876753926277161, 0.6045665144920349, 0.5392261147499084, 0.507919430732727, 0.843863844871521, 0.7651916146278381, 0.6875182390213013, 0.7146207690238953, 0.9152419567108154, 0.8060339689254761, 0.725213348865509, 0.8992156386375427, 0.9138836860656738, 0.8544613122940063, 0.7548980712890625, 0.8974723815917969, 0.5744401216506958, 0.6030865907669067, 0.6921327114105225, 0.7350953817367554, 0.5160875916481018, 0.6581905484199524, 0.954839825630188, 0.7098773121833801, 0.708994448184967]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9727551937103271</v>
+        <v>0.9977814555168152</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.7162469000031706</v>
+        <v>0.7352026000007754</v>
       </c>
       <c r="J86" t="n">
-        <v>0.005426112878811899</v>
+        <v>0.005569716666672541</v>
       </c>
     </row>
     <row r="87">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.3331625759601593, 0.4708123505115509, 0.6443787813186646, 0.5789902806282043, 0.6246017813682556, 0.4848674237728119, 0.4497624933719635, 0.6355434060096741, 0.5891062021255493, 0.5713164210319519, 0.6152613162994385, 0.6398878693580627, 0.510601282119751, 0.555449903011322, 0.478590726852417, 0.2687350809574127, 0.5268787145614624, 0.5510894060134888, 0.5204080939292908, 0.4783022701740265, 0.7039744853973389, 0.5849940776824951, 0.6442803144454956, 0.43823540210723877, 0.43668678402900696, 0.36576560139656067, 0.4849280118942261, 0.5269031524658203, 0.5225623846054077, 0.37441766262054443, 0.35263898968696594, 0.3980093002319336, 0.5668607354164124, 0.5615466237068176, 0.6411776542663574, 0.7016873955726624, 0.8289465308189392, 0.5635647177696228, 0.39108431339263916, 0.3199586868286133, 0.6303797364234924, 0.48160451650619507, 0.5264908671379089, 0.4784619212150574, 0.4688645005226135, 0.6989923715591431, 0.725419819355011, 0.7161279320716858, 0.67362380027771, 0.4767751693725586, 0.3771218955516815, 0.5667299032211304, 0.5212485194206238, 0.3622538149356842, 0.5462275743484497, 0.43982017040252686, 0.39371076226234436, 0.4146521985530853, 0.453319251537323, 0.47668591141700745, 0.46594929695129395, 0.4012864828109741, 0.40551745891571045, 0.7295053005218506, 0.4960222840309143, 0.40003079175949097, 0.5742773413658142, 0.5654666423797607, 0.6961880922317505, 0.4834350049495697, 0.4623015820980072, 0.5403251051902771, 0.43084079027175903, 0.3321961760520935, 0.38974735140800476, 0.42080923914909363, 0.3126906454563141, 0.3694489300251007, 0.38655343651771545, 0.4744873344898224, 0.5302228927612305, 0.5701956748962402, 0.6308293342590332, 0.6412054896354675, 0.5198317170143127, 0.6879541873931885, 0.48050716519355774, 0.44714564085006714, 0.38773974776268005, 0.31762829422950745, 0.4638493061065674, 0.536562442779541, 0.372405081987381, 0.40506094694137573, 0.45799246430397034, 0.3134942054748535, 0.39030444622039795, 0.37228572368621826, 0.3869400918483734, 0.3378447890281677, 0.37114453315734863, 0.5121791958808899, 0.43583938479423523, 0.3542743921279907, 0.5625669956207275, 0.3598778545856476, 0.40503135323524475, 0.4020960032939911, 0.2434673011302948, 0.38250041007995605, 0.399111270904541, 0.5356569886207581, 0.4008232057094574, 0.47372257709503174, 0.4181255102157593, 0.37640100717544556, 0.3810920715332031, 0.5362890958786011, 0.25249359011650085, 0.32572948932647705, 0.370907187461853, 0.3489387035369873, 0.3291197717189789, 0.26893022656440735, 0.2912220358848572, 0.4168514311313629, 0.47447705268859863, 0.3770161271095276, 0.30421555042266846, 0.3369481861591339, 0.35531437397003174, 0.35666707158088684]</t>
+          <t>[0.32975971698760986, 0.3940972089767456, 0.5456589460372925, 0.5316372513771057, 0.51057368516922, 0.44012823700904846, 0.3833208978176117, 0.5565524697303772, 0.5849227905273438, 0.5741263031959534, 0.60049968957901, 0.6351597309112549, 0.664603054523468, 0.6812437772750854, 0.47996285557746887, 0.32592254877090454, 0.5922218561172485, 0.5463823080062866, 0.41320472955703735, 0.33239248394966125, 0.6285118460655212, 0.5375591516494751, 0.7282083034515381, 0.5311234593391418, 0.5374924540519714, 0.5046473741531372, 0.6234392523765564, 0.6356267333030701, 0.6050506830215454, 0.4349432587623596, 0.38058900833129883, 0.43198850750923157, 0.7660307288169861, 0.5669244527816772, 0.7357463240623474, 0.8401678204536438, 0.871161162853241, 0.6481972932815552, 0.36026710271835327, 0.45287880301475525, 0.864587128162384, 0.7082095742225647, 0.6217524409294128, 0.43607860803604126, 0.7039515972137451, 0.7449036836624146, 0.782782256603241, 0.8261058330535889, 0.8151646256446838, 0.5505458116531372, 0.4533964693546295, 0.6085422039031982, 0.6172182559967041, 0.355014830827713, 0.6228857636451721, 0.5384584069252014, 0.43602609634399414, 0.5094877481460571, 0.5250709652900696, 0.6021106243133545, 0.5899171829223633, 0.4683745801448822, 0.6564724445343018, 0.8845099806785583, 0.6528730392456055, 0.6208943128585815, 0.7965941429138184, 0.7383145689964294, 0.8231886625289917, 0.6646994352340698, 0.6385156512260437, 0.6530117988586426, 0.5481588840484619, 0.43882134556770325, 0.49566328525543213, 0.6156399846076965, 0.4181652367115021, 0.4264885485172272, 0.3978902995586395, 0.5109505653381348, 0.606939971446991, 0.6730780005455017, 0.6857641935348511, 0.6208056211471558, 0.3659028112888336, 0.5673409700393677, 0.2844082713127136, 0.44290462136268616, 0.3499659597873688, 0.3159331679344177, 0.412506103515625, 0.5212410688400269, 0.5384517312049866, 0.4572841227054596, 0.42154136300086975, 0.42286309599876404, 0.39128342270851135, 0.3594486117362976, 0.5148953795433044, 0.36348241567611694, 0.3829822540283203, 0.48219507932662964, 0.3221714496612549, 0.3765566349029541, 0.586685061454773, 0.3112647235393524, 0.4139183759689331, 0.3176029324531555, 0.2531813085079193, 0.2702992260456085, 0.3089279234409332, 0.483744353055954, 0.2841651439666748, 0.46219387650489807, 0.44094422459602356, 0.40349656343460083, 0.3740463852882385, 0.6637520790100098, 0.1947801560163498, 0.26763471961021423, 0.35166484117507935, 0.3449297249317169, 0.4091247618198395, 0.25575241446495056, 0.3161033093929291, 0.4032337963581085, 0.5018343925476074, 0.46984514594078064, 0.4193781912326813, 0.3860684931278229, 0.3954148590564728, 0.39592576026916504]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.8289465308189392</v>
+        <v>0.8845099806785583</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.7332720000122208</v>
+        <v>0.7198954000050435</v>
       </c>
       <c r="J87" t="n">
-        <v>0.005555090909183491</v>
+        <v>0.005453753030341239</v>
       </c>
     </row>
     <row r="88">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.5331311225891113, 0.563505232334137, 0.32666897773742676, 0.2552061676979065, 0.2948504686355591, 0.18772946298122406, 0.24793310463428497, 0.14084702730178833, 0.17524594068527222, 0.3200238347053528, 0.3351387679576874, 0.31823793053627014, 0.30642393231391907, 0.3569585680961609, 0.26982417702674866, 0.2281358689069748, 0.38784128427505493, 0.4890453815460205, 0.4176854193210602, 0.373578280210495, 0.3166884481906891, 0.2737613022327423, 0.3678414523601532, 0.1300770342350006, 0.2299545258283615, 0.3617308437824249, 0.23358136415481567, 0.2304249107837677, 0.1913595199584961, 0.1254301369190216, 0.205596461892128, 0.38301774859428406, 0.23658785223960876, 0.27896881103515625, 0.3081241548061371, 0.33524760603904724, 0.22730514407157898, 0.15565559267997742, 0.10159623622894287, 0.13521221280097961, 0.20125998556613922, 0.10981589555740356, 0.12675458192825317, 0.17617188394069672, 0.32120880484580994, 0.16057045757770538, 0.11622965335845947, 0.2776462137699127, 0.42559531331062317, 0.4907405972480774, 0.48964163661003113, 0.38296714425086975, 0.3370257019996643, 0.24258054792881012, 0.4754352271556854, 0.367943674325943, 0.3492697775363922, 0.2284494936466217, 0.30042630434036255, 0.4833083152770996, 0.47693338990211487, 0.2976360619068146, 0.5411040782928467, 0.47814127802848816, 0.35653743147850037, 0.7313157320022583, 0.6322101354598999, 0.6397120356559753, 0.590511679649353, 0.3900032043457031, 0.2823696434497833, 0.29013100266456604, 0.3796943426132202, 0.4920572340488434, 0.4122316241264343, 0.31558406352996826, 0.5128576755523682, 0.38406533002853394, 0.4928569495677948, 0.42979833483695984, 0.2988378703594208, 0.2254064977169037, 0.40498074889183044, 0.5600429177284241, 0.4315238296985626, 0.2364664226770401, 0.36535871028900146, 0.1584000140428543, 0.30078354477882385, 0.6927252411842346, 0.40722227096557617, 0.40544891357421875, 0.348671555519104, 0.4245445430278778, 0.3106350898742676, 0.5563308000564575, 0.24413178861141205, 0.45887303352355957, 0.4653438329696655, 0.46634072065353394, 0.522590696811676, 0.4431982636451721, 0.5420380234718323, 0.27847594022750854, 0.3380756378173828, 0.332017183303833, 0.3084816336631775, 0.21394258737564087, 0.18741539120674133, 0.29355719685554504, 0.21072827279567719, 0.25128141045570374, 0.24271440505981445, 0.47616511583328247, 0.22964909672737122, 0.222799614071846, 0.3209213316440582, 0.2906636595726013, 0.3378278315067291, 0.2805132567882538, 0.34604334831237793, 0.39832091331481934, 0.27237555384635925, 0.14158928394317627, 0.14454978704452515, 0.2753838002681732, 0.3814444839954376, 0.4103277623653412, 0.33184492588043213, 0.39357972145080566, 0.5005713701248169, 0.49986088275909424]</t>
+          <t>[0.45418280363082886, 0.7288521528244019, 0.31490564346313477, 0.16782009601593018, 0.266137957572937, 0.2087799310684204, 0.14055220782756805, 0.07636436820030212, 0.12642426788806915, 0.25749439001083374, 0.3431689441204071, 0.32343608140945435, 0.2452370524406433, 0.33800509572029114, 0.3110060691833496, 0.2275519222021103, 0.3992338180541992, 0.5211648941040039, 0.43464335799217224, 0.5756189823150635, 0.44090449810028076, 0.35957348346710205, 0.4495106339454651, 0.10896310210227966, 0.16964784264564514, 0.43392327427864075, 0.195087268948555, 0.28464606404304504, 0.16172745823860168, 0.10155321657657623, 0.19286073744297028, 0.3392794132232666, 0.22103139758110046, 0.21496935188770294, 0.28195905685424805, 0.3781247138977051, 0.21874500811100006, 0.10690130293369293, 0.07465759664773941, 0.09118705987930298, 0.1993233561515808, 0.09679900109767914, 0.0775577649474144, 0.09969180822372437, 0.1798218935728073, 0.09203804284334183, 0.053834546357393265, 0.18907195329666138, 0.34974899888038635, 0.42618703842163086, 0.688532829284668, 0.4388788640499115, 0.4487592577934265, 0.3718702793121338, 0.5225946307182312, 0.507254958152771, 0.5917361378669739, 0.2668558955192566, 0.37129920721054077, 0.4899924397468567, 0.39172959327697754, 0.3576647937297821, 0.6056976914405823, 0.44160863757133484, 0.46994778513908386, 0.905521810054779, 0.7396547794342041, 0.6245073080062866, 0.4986763596534729, 0.27796104550361633, 0.20746473968029022, 0.28618377447128296, 0.3037690222263336, 0.5489901304244995, 0.3487180173397064, 0.13729910552501678, 0.3507172167301178, 0.25424909591674805, 0.4642048180103302, 0.4750119745731354, 0.2922687232494354, 0.230900377035141, 0.44231143593788147, 0.572145938873291, 0.4774230718612671, 0.22370368242263794, 0.38795092701911926, 0.05811410769820213, 0.1776713877916336, 0.8316929936408997, 0.48583731055259705, 0.36545810103416443, 0.24444249272346497, 0.4201796352863312, 0.1974274218082428, 0.5806387662887573, 0.24399930238723755, 0.31676024198532104, 0.2894335091114044, 0.31176936626434326, 0.4075126647949219, 0.3474315106868744, 0.43746551871299744, 0.1838832050561905, 0.22219021618366241, 0.19824424386024475, 0.1779792159795761, 0.15882298350334167, 0.09093805402517319, 0.18106138706207275, 0.1034431979060173, 0.1290297508239746, 0.25935250520706177, 0.47263193130493164, 0.16321130096912384, 0.16218869388103485, 0.1475953757762909, 0.12091365456581116, 0.16225102543830872, 0.11976717412471771, 0.16220945119857788, 0.20443639159202576, 0.25138241052627563, 0.08453485369682312, 0.08653081953525543, 0.21258431673049927, 0.37319231033325195, 0.3552760183811188, 0.425674706697464, 0.24411185085773468, 0.45284605026245117, 0.4527355432510376]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.7313157320022583</v>
+        <v>0.9055218100547791</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.7364527999889106</v>
+        <v>0.728287799996906</v>
       </c>
       <c r="J88" t="n">
-        <v>0.005579187878703868</v>
+        <v>0.005517331818158378</v>
       </c>
     </row>
     <row r="89">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[0.7288879752159119, 0.622604489326477, 0.7187669277191162, 0.6048780083656311, 0.5683693885803223, 0.5489696860313416, 0.5079158544540405, 0.38911646604537964, 0.6224226355552673, 0.5886025428771973, 0.4907247722148895, 0.3975270986557007, 0.28802043199539185, 0.35316553711891174, 0.313647598028183, 0.3602340519428253, 0.4192962944507599, 0.4939465820789337, 0.2989553213119507, 0.5558452010154724, 0.5753238797187805, 0.4039759337902069, 0.2932201623916626, 0.4159298241138458, 0.323670893907547, 0.2696780562400818, 0.484110951423645, 0.391695499420166, 0.3985517919063568, 0.3419501781463623, 0.6785558462142944, 0.419034868478775, 0.6183246970176697, 0.28942739963531494, 0.2685700058937073, 0.3773772418498993, 0.4893081784248352, 0.29870277643203735, 0.41663098335266113, 0.4887343645095825, 0.5723390579223633, 0.4909456968307495, 0.5382345914840698, 0.3168056309223175, 0.5708514451980591, 0.36412814259529114, 0.6702123284339905, 0.575837254524231, 0.6535097360610962, 0.487343966960907, 0.316400408744812, 0.39888009428977966, 0.3885556161403656, 0.3455456495285034, 0.3148099482059479, 0.7074453234672546, 0.7755687832832336, 0.6973307728767395, 0.6296809911727905, 0.36445340514183044, 0.5279925465583801, 0.5824640393257141, 0.6235302686691284, 0.7094629406929016, 0.5579435229301453, 0.5260427594184875, 0.5987967848777771, 0.33231303095817566, 0.3363046646118164, 0.2783699631690979, 0.4426915943622589, 0.48041319847106934, 0.32537025213241577, 0.5295794010162354, 0.3139931857585907, 0.31205880641937256, 0.3053145110607147, 0.44362056255340576, 0.5284890532493591, 0.5616052150726318, 0.7198425531387329, 0.7519910931587219, 0.7171741127967834, 0.7116102576255798, 0.6613103747367859, 0.6769910454750061, 0.5581009387969971, 0.37145841121673584, 0.4607355296611786, 0.6061372756958008, 0.434027761220932, 0.49570226669311523, 0.5954993963241577, 0.6676324605941772, 0.5859723687171936, 0.3834132254123688, 0.4719551205635071, 0.4658878445625305, 0.6300124526023865, 0.7097885012626648, 0.6086887121200562, 0.5376671552658081, 0.46386808156967163, 0.37088891863822937, 0.43090805411338806, 0.48704782128334045, 0.3689577579498291, 0.4622962176799774, 0.3170665502548218, 0.33629631996154785, 0.3565506041049957, 0.21166852116584778, 0.10195156186819077, 0.27284836769104004, 0.3413845896720886, 0.22096185386180878, 0.3871779441833496, 0.18471717834472656, 0.2645553946495056, 0.41467493772506714, 0.3660268485546112, 0.3798327147960663, 0.3066348731517792, 0.23049572110176086, 0.5235295295715332, 0.5003550052642822, 0.5176424384117126, 0.4856032133102417, 0.43722790479660034, 0.5222594141960144, 0.5218400955200195]</t>
+          <t>[0.8565285801887512, 0.7557127475738525, 0.8129767775535583, 0.7391034960746765, 0.7251250147819519, 0.6364632844924927, 0.5443727970123291, 0.40501224994659424, 0.6904897689819336, 0.656295657157898, 0.4986323118209839, 0.3974558115005493, 0.40907156467437744, 0.49572548270225525, 0.4710180163383484, 0.4731708765029907, 0.5188164114952087, 0.6453794836997986, 0.2791339159011841, 0.5236458778381348, 0.6660321354866028, 0.48492586612701416, 0.42881709337234497, 0.6124182939529419, 0.435661643743515, 0.446672260761261, 0.6375980973243713, 0.4747939109802246, 0.32762786746025085, 0.3874592185020447, 0.902418315410614, 0.7145763635635376, 0.8990280628204346, 0.31987008452415466, 0.2809464931488037, 0.46633848547935486, 0.5952162742614746, 0.48117247223854065, 0.5411368608474731, 0.6097314357757568, 0.5937318205833435, 0.49193844199180603, 0.6219991445541382, 0.388321191072464, 0.44301602244377136, 0.23243732750415802, 0.6383431553840637, 0.6038898825645447, 0.6886811256408691, 0.5074086785316467, 0.359745055437088, 0.48901090025901794, 0.37817591428756714, 0.36774954199790955, 0.33879685401916504, 0.7796765565872192, 0.8525921106338501, 0.8251499533653259, 0.6429328322410583, 0.34647461771965027, 0.6057242155075073, 0.7985420823097229, 0.8596067428588867, 0.9534500241279602, 0.7887806296348572, 0.6875030994415283, 0.7493122220039368, 0.35438334941864014, 0.36328691244125366, 0.29884395003318787, 0.5891796350479126, 0.7649275064468384, 0.6843639612197876, 0.7231561541557312, 0.5114385485649109, 0.47108447551727295, 0.381632536649704, 0.4951562285423279, 0.6499930620193481, 0.5540887117385864, 0.7948501110076904, 0.7891620397567749, 0.795643150806427, 0.767678439617157, 0.7097064256668091, 0.6961179375648499, 0.5372070670127869, 0.47845298051834106, 0.48747771978378296, 0.7304571866989136, 0.5082447528839111, 0.6269235610961914, 0.7094531655311584, 0.8756526708602905, 0.7479089498519897, 0.4638862907886505, 0.5792052149772644, 0.5037857890129089, 0.6419267654418945, 0.814481258392334, 0.6632996201515198, 0.6936211585998535, 0.490398108959198, 0.38703471422195435, 0.5243169069290161, 0.5878857374191284, 0.3307614028453827, 0.4563876986503601, 0.23902899026870728, 0.2605432868003845, 0.3372030556201935, 0.20648403465747833, 0.07954983413219452, 0.21648621559143066, 0.3520470857620239, 0.27053073048591614, 0.39526644349098206, 0.145101398229599, 0.2993634343147278, 0.547353982925415, 0.5305793285369873, 0.49918946623802185, 0.5062103867530823, 0.37365591526031494, 0.8347675800323486, 0.6478015780448914, 0.6065351963043213, 0.5178966522216797, 0.489479124546051, 0.564225435256958, 0.5633933544158936]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.7755687832832336</v>
+        <v>0.9534500241279602</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.7338501999911387</v>
+        <v>0.7541110000020126</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005601909923596478</v>
+        <v>0.005756572519099333</v>
       </c>
     </row>
     <row r="90">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[0.59758460521698, 0.5668742060661316, 0.34924858808517456, 0.4222303628921509, 0.3682363033294678, 0.34079426527023315, 0.24416323006153107, 0.2588736414909363, 0.4811657667160034, 0.5310783386230469, 0.4859103560447693, 0.7046608924865723, 0.8044797778129578, 0.5369634032249451, 0.6423448920249939, 0.5432686805725098, 0.5673692226409912, 0.6338180303573608, 0.3138885200023651, 0.47019851207733154, 0.6629930138587952, 0.4021053612232208, 0.27603012323379517, 0.2994510233402252, 0.4583704173564911, 0.44915416836738586, 0.34367862343788147, 0.27018478512763977, 0.3630180358886719, 0.2159760743379593, 0.3626468777656555, 0.2556135654449463, 0.5472469925880432, 0.5859177708625793, 0.616370677947998, 0.2449120134115219, 0.40292006731033325, 0.5906693935394287, 0.48910588026046753, 0.48916807770729065, 0.38397055864334106, 0.3315734565258026, 0.3587789833545685, 0.33983954787254333, 0.351980596780777, 0.4225229322910309, 0.20060297846794128, 0.17134533822536469, 0.07752048224210739, 0.11682437360286713, 0.1898040771484375, 0.2339196652173996, 0.1960328072309494, 0.32914647459983826, 0.5256597995758057, 0.3736521899700165, 0.30472782254219055, 0.38337942957878113, 0.4093828499317169, 0.3850231170654297, 0.45279785990715027, 0.5553803443908691, 0.8088129162788391, 0.414993554353714, 0.6332976222038269, 0.38303253054618835, 0.21424463391304016, 0.20762304961681366, 0.34481877088546753, 0.2378523349761963, 0.2189439833164215, 0.25456738471984863, 0.16011257469654083, 0.15647996962070465, 0.36419448256492615, 0.16155171394348145, 0.3802322447299957, 0.2024318128824234, 0.4925442039966583, 0.8181570172309875, 0.9483896493911743, 0.8812981247901917, 0.8370667099952698, 0.6608847975730896, 0.474403440952301, 0.3265119791030884, 0.3138420581817627, 0.21760700643062592, 0.42822831869125366, 0.4725963771343231, 0.48657068610191345, 0.45369455218315125, 0.1801735907793045, 0.27536410093307495, 0.17822609841823578, 0.37793657183647156, 0.2870204746723175, 0.14851845800876617, 0.4042327105998993, 0.5541022419929504, 0.7451653480529785, 0.7433741092681885, 0.8651108741760254, 0.7452630400657654, 0.6424946188926697, 0.9577094912528992, 0.8597536683082581, 0.8194325566291809, 0.703342616558075, 0.34879109263420105, 0.5162950158119202, 0.5909007787704468, 0.42191314697265625, 0.35933491587638855, 0.19417886435985565, 0.1853741854429245, 0.1823311597108841, 0.40574076771736145, 0.23847076296806335, 0.5098203420639038, 0.5632829666137695, 0.4813779890537262, 0.6585561633110046, 0.4522203803062439, 0.3237232565879822, 0.20293909311294556, 0.17932017147541046, 0.11429210752248764, 0.24609439074993134, 0.5995215177536011, 0.43056777119636536, 0.43158236145973206]</t>
+          <t>[0.8325595855712891, 0.7947808504104614, 0.43285757303237915, 0.6034897565841675, 0.5423720479011536, 0.5684890747070312, 0.3458317816257477, 0.3511638045310974, 0.6100767850875854, 0.7147435545921326, 0.618646502494812, 0.9175072312355042, 0.9221855401992798, 0.6957672834396362, 0.8266940116882324, 0.803650438785553, 0.6934189200401306, 0.8538234829902649, 0.5549021363258362, 0.8410292267799377, 0.9042938947677612, 0.5064427852630615, 0.44593024253845215, 0.5704815983772278, 0.606106698513031, 0.4921320676803589, 0.44019022583961487, 0.18357734382152557, 0.2431700974702835, 0.14137427508831024, 0.21668171882629395, 0.18510006368160248, 0.38108107447624207, 0.5248993635177612, 0.6349067091941833, 0.29836514592170715, 0.4565969407558441, 0.7146971821784973, 0.5446497201919556, 0.5731890201568604, 0.42396271228790283, 0.47841233015060425, 0.4510739743709564, 0.5060001015663147, 0.47226086258888245, 0.39252540469169617, 0.29727450013160706, 0.2363053411245346, 0.07948992401361465, 0.20749735832214355, 0.3788898289203644, 0.296764075756073, 0.34537380933761597, 0.39137786626815796, 0.6794725656509399, 0.4576849341392517, 0.31721892952919006, 0.6940636038780212, 0.5461531281471252, 0.5882523655891418, 0.5618269443511963, 0.7440366148948669, 0.9155141711235046, 0.6752286553382874, 0.7833890914916992, 0.6275744438171387, 0.4200694262981415, 0.24892055988311768, 0.37806081771850586, 0.33995288610458374, 0.1790255755186081, 0.27890345454216003, 0.14780139923095703, 0.17830704152584076, 0.603542685508728, 0.24832703173160553, 0.3791680634021759, 0.34531837701797485, 0.9085012078285217, 0.9830799102783203, 0.994988203048706, 0.982991635799408, 0.9396984577178955, 0.8938594460487366, 0.7187376022338867, 0.5533735752105713, 0.6165127754211426, 0.2939610481262207, 0.5379730463027954, 0.5417004823684692, 0.5721780061721802, 0.6255791783332825, 0.35800960659980774, 0.40945369005203247, 0.23134055733680725, 0.5165190696716309, 0.20094984769821167, 0.11322904378175735, 0.46504947543144226, 0.8173184990882874, 0.9138655662536621, 0.9390414953231812, 0.9814735054969788, 0.9541342258453369, 0.9224445223808289, 0.993898868560791, 0.9647882580757141, 0.9017876982688904, 0.8212897777557373, 0.38122329115867615, 0.5408088564872742, 0.6699463725090027, 0.4636441171169281, 0.37260136008262634, 0.15669921040534973, 0.16659116744995117, 0.09854213148355484, 0.27342385053634644, 0.19815850257873535, 0.33526864647865295, 0.41410061717033386, 0.47061654925346375, 0.72705078125, 0.5777015089988708, 0.2652667760848999, 0.24808301031589508, 0.15822581946849823, 0.10396399348974228, 0.3041895031929016, 0.5008277297019958, 0.27466094493865967, 0.27600058913230896]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9577094912528992</v>
+        <v>0.9949882030487061</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.7206090000108816</v>
+        <v>0.7244196999963606</v>
       </c>
       <c r="J90" t="n">
-        <v>0.005459159090991527</v>
+        <v>0.005488028030275459</v>
       </c>
     </row>
     <row r="91">
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[0.3358503580093384, 0.36809611320495605, 0.24743862450122833, 0.25286510586738586, 0.24210982024669647, 0.25825807452201843, 0.25615939497947693, 0.3419609069824219, 0.4171566069126129, 0.41547420620918274, 0.38278305530548096, 0.3502618074417114, 0.32823607325553894, 0.35702604055404663, 0.26284658908843994, 0.2707970440387726, 0.32847264409065247, 0.46134281158447266, 0.3502366244792938, 0.41013821959495544, 0.4968574047088623, 0.3701811134815216, 0.3543816804885864, 0.36612507700920105, 0.35385310649871826, 0.2711964249610901, 0.31454598903656006, 0.26737919449806213, 0.2798522710800171, 0.3617761433124542, 0.36412012577056885, 0.38714173436164856, 0.2846578359603882, 0.20215055346488953, 0.2475903183221817, 0.16986475884914398, 0.13457918167114258, 0.1912066787481308, 0.23221135139465332, 0.29976409673690796, 0.3121606111526489, 0.26947227120399475, 0.26407498121261597, 0.28701961040496826, 0.3940849304199219, 0.30286523699760437, 0.3852497637271881, 0.3294687271118164, 0.2617129385471344, 0.35525375604629517, 0.41884520649909973, 0.3253955841064453, 0.2528648376464844, 0.33756589889526367, 0.2942514717578888, 0.35110175609588623, 0.3533420264720917, 0.28983497619628906, 0.2338779717683792, 0.3020603358745575, 0.34449073672294617, 0.5029107928276062, 0.3196304738521576, 0.27108997106552124, 0.30028071999549866, 0.371865838766098, 0.33672311902046204, 0.4187288284301758, 0.47110408544540405, 0.39316508173942566, 0.3961154520511627, 0.40102604031562805, 0.36429712176322937, 0.3966282904148102, 0.4345361292362213, 0.46503308415412903, 0.4472026228904724, 0.6732527017593384, 0.6697239875793457, 0.6148450970649719, 0.6398235559463501, 0.5270711183547974, 0.5671010613441467, 0.42374998331069946, 0.24561823904514313, 0.25866615772247314, 0.3981660306453705, 0.3709506392478943, 0.32619690895080566, 0.4621249735355377, 0.44288814067840576, 0.4642947316169739, 0.4763612151145935, 0.40909120440483093, 0.43382829427719116, 0.39967435598373413, 0.3951396942138672, 0.39190641045570374, 0.3425874412059784, 0.30289098620414734, 0.33723369240760803, 0.3738720118999481, 0.3617649972438812, 0.33952146768569946, 0.29229140281677246, 0.2959486246109009, 0.31025052070617676, 0.29039323329925537, 0.28593605756759644, 0.31589439511299133, 0.21332821249961853, 0.2110186517238617, 0.19174638390541077, 0.18074539303779602, 0.1669055074453354, 0.15720659494400024, 0.21603885293006897, 0.2751823961734772, 0.28636351227760315, 0.3040402829647064, 0.22571343183517456, 0.2539880573749542, 0.3968859314918518, 0.4146372675895691, 0.3572304844856262, 0.5303996205329895, 0.4901573956012726, 0.4158061742782593, 0.3268756866455078, 0.34731200337409973, 0.4278187155723572, 0.46980324387550354, 0.44326281547546387, 0.47018012404441833, 0.458877295255661, 0.38234421610832214, 0.36425188183784485, 0.468683123588562, 0.46461203694343567, 0.4150172173976898, 0.37420397996902466, 0.31377044320106506, 0.29218801856040955, 0.4351899027824402, 0.3763487637042999, 0.4329276978969574, 0.5112301111221313, 0.5177440643310547, 0.4596468210220337, 0.4221527874469757, 0.40431180596351624, 0.45441582798957825, 0.41024795174598694, 0.3993532359600067, 0.3874109387397766, 0.5397341251373291, 0.5395854711532593]</t>
+          <t>[0.23808087408542633, 0.32158881425857544, 0.24597902595996857, 0.22798693180084229, 0.2062264084815979, 0.18492241203784943, 0.18897022306919098, 0.32453152537345886, 0.5157762169837952, 0.5813139081001282, 0.4988047182559967, 0.29813525080680847, 0.2982563078403473, 0.3149915635585785, 0.2548951208591461, 0.24538882076740265, 0.279107004404068, 0.3920663297176361, 0.2909095287322998, 0.3996160626411438, 0.5566046237945557, 0.42818740010261536, 0.4052088260650635, 0.46979427337646484, 0.4045324921607971, 0.2962273359298706, 0.387357234954834, 0.27105894684791565, 0.2630467116832733, 0.3781420588493347, 0.420459508895874, 0.43630579113960266, 0.2857656180858612, 0.20123037695884705, 0.24495987594127655, 0.22616037726402283, 0.18384650349617004, 0.2294396609067917, 0.26294320821762085, 0.3721751272678375, 0.3500848710536957, 0.3453543186187744, 0.34215566515922546, 0.3850579559803009, 0.49859997630119324, 0.3474351763725281, 0.40733668208122253, 0.3485400378704071, 0.24142706394195557, 0.3186076581478119, 0.5352969169616699, 0.4100823700428009, 0.2779958248138428, 0.42923951148986816, 0.3486083745956421, 0.4191143810749054, 0.37421801686286926, 0.2528292238712311, 0.1986544281244278, 0.3671165108680725, 0.426483690738678, 0.6656692028045654, 0.42093029618263245, 0.33528533577919006, 0.36415520310401917, 0.43873131275177, 0.34272274374961853, 0.5149443745613098, 0.543983519077301, 0.35476210713386536, 0.367384135723114, 0.4142041802406311, 0.36739352345466614, 0.372740775346756, 0.5557381510734558, 0.5559720993041992, 0.5696031451225281, 0.7814549803733826, 0.7871822118759155, 0.716792643070221, 0.7856258749961853, 0.6807087063789368, 0.7636998295783997, 0.4779367744922638, 0.32587355375289917, 0.34390193223953247, 0.5143691897392273, 0.470620334148407, 0.4405752718448639, 0.6594929695129395, 0.6195142865180969, 0.6804512739181519, 0.5906211137771606, 0.4705776274204254, 0.5306715369224548, 0.46476179361343384, 0.5053328275680542, 0.5861537456512451, 0.37136390805244446, 0.3197804093360901, 0.38579684495925903, 0.4278199374675751, 0.39517009258270264, 0.37108325958251953, 0.3212689459323883, 0.32649123668670654, 0.32240375876426697, 0.28662118315696716, 0.344599187374115, 0.3705154061317444, 0.2607705295085907, 0.2061663269996643, 0.1898825615644455, 0.2032371461391449, 0.22156016528606415, 0.17188113927841187, 0.19307532906532288, 0.26427313685417175, 0.33072566986083984, 0.4086763262748718, 0.3057946264743805, 0.33653247356414795, 0.47759586572647095, 0.4693656861782074, 0.38599178194999695, 0.642818033695221, 0.5764241814613342, 0.5935133099555969, 0.42034217715263367, 0.4729367196559906, 0.5881595611572266, 0.6393887400627136, 0.44983524084091187, 0.4599827527999878, 0.5890017151832581, 0.4589633643627167, 0.426740825176239, 0.48199331760406494, 0.48537904024124146, 0.44112375378608704, 0.3570658564567566, 0.2969732880592346, 0.3023410141468048, 0.43216651678085327, 0.3875330984592438, 0.4692552983760834, 0.6024161577224731, 0.5588918328285217, 0.4943775236606598, 0.507698118686676, 0.4606724679470062, 0.5749331712722778, 0.4790762960910797, 0.4540782570838928, 0.41271525621414185, 0.658255934715271, 0.6569273471832275]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.6732527017593384</v>
+        <v>0.7871822118759155</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.8855676999955904</v>
+        <v>0.9233584999892628</v>
       </c>
       <c r="J91" t="n">
-        <v>0.005640558598698028</v>
+        <v>0.005881264331141801</v>
       </c>
     </row>
     <row r="92">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0.0278438962996006, 0.02122468687593937, 0.03217940405011177, 0.04177942872047424, 0.08527395874261856, 0.06140751764178276, 0.034419335424900055, 0.03481389954686165, 0.03788764774799347, 0.03958271071314812, 0.039834074676036835, 0.04252892732620239, 0.06558747589588165, 0.059870246797800064, 0.0625632107257843, 0.0948447734117508, 0.1124335303902626, 0.11602648347616196, 0.0607815682888031, 0.023100925609469414, 0.02096007764339447, 0.046750184148550034, 0.05040595307946205, 0.07122242450714111, 0.07583850622177124, 0.09759882092475891, 0.09790412336587906, 0.07647038251161575, 0.08344109356403351, 0.10808227211236954, 0.09725251793861389, 0.03709312528371811, 0.05020539462566376, 0.05645254626870155, 0.04121202975511551, 0.044595908373594284, 0.047813523560762405, 0.0987819954752922, 0.13984914124011993, 0.09030792117118835, 0.1342954933643341, 0.10952650755643845, 0.08868288993835449, 0.07276180386543274, 0.06348022073507309, 0.06750516593456268, 0.06911873072385788, 0.06770194321870804, 0.06617781519889832, 0.06623506546020508, 0.05640551447868347, 0.05760812386870384, 0.14691093564033508, 0.08435613662004471, 0.08028282970190048, 0.09072908014059067, 0.06470087170600891, 0.06234261766076088, 0.06586926430463791, 0.06696633249521255, 0.04515143856406212, 0.055356498807668686, 0.041614387184381485, 0.04063551127910614, 0.04901821166276932, 0.053063273429870605, 0.060245074331760406, 0.06612486392259598, 0.058204710483551025, 0.051998320966959, 0.045489903539419174, 0.03860357031226158, 0.034961819648742676, 0.033048197627067566, 0.03428930416703224, 0.026921210810542107, 0.03375650942325592, 0.029054339975118637, 0.027735980227589607, 0.026879526674747467, 0.028148740530014038, 0.030354974791407585, 0.06046643853187561, 0.05286875739693642, 0.049371976405382156, 0.033598825335502625, 0.02921377494931221, 0.03176898881793022, 0.033745598047971725, 0.02667304500937462, 0.03054008074104786, 0.03845450282096863, 0.039332374930381775, 0.03930513560771942, 0.023884980008006096, 0.024628546088933945, 0.027473492547869682, 0.037537284195423126, 0.034848377108573914, 0.03688850253820419, 0.03817034885287285, 0.044603366404771805, 0.04166607931256294, 0.05693529173731804, 0.03948090225458145, 0.04111205041408539, 0.0802173987030983, 0.06788799911737442, 0.06273038685321808, 0.05549546703696251, 0.04885617271065712, 0.056810930371284485, 0.054975081235170364, 0.05703064799308777, 0.0666283369064331, 0.046603213995695114, 0.06035985052585602, 0.050262026488780975, 0.04590651020407677, 0.05499739572405815, 0.06855500489473343, 0.056367967277765274, 0.04838152602314949, 0.031022315844893456, 0.03407665714621544, 0.024763528257608414, 0.02367554046213627, 0.03747135400772095, 0.03937193378806114, 0.0550943985581398, 0.035773590207099915, 0.03235873579978943, 0.03909200429916382, 0.045682501047849655, 0.05938545614480972, 0.05949532985687256, 0.05735889449715614, 0.04902339354157448, 0.0471198745071888, 0.05786874145269394, 0.04009482264518738, 0.034190237522125244, 0.0466245599091053, 0.05368641018867493, 0.059898439794778824, 0.05332161486148834, 0.050333619117736816, 0.05244018882513046, 0.04833561182022095, 0.042314328253269196, 0.050254642963409424, 0.06273061037063599, 0.07665687054395676, 0.06798417121171951, 0.08591920882463455, 0.10332105308771133, 0.10406854003667831]</t>
+          <t>[0.022201690822839737, 0.013884171843528748, 0.02031494490802288, 0.028293084353208542, 0.0863419622182846, 0.06063881143927574, 0.030825691297650337, 0.030652470886707306, 0.023315779864788055, 0.03483949974179268, 0.04333221912384033, 0.05558622628450394, 0.08212827146053314, 0.07885411381721497, 0.07438220828771591, 0.13502347469329834, 0.20124657452106476, 0.1520322859287262, 0.056307353079319, 0.028207959607243538, 0.031694505363702774, 0.07436785101890564, 0.055400967597961426, 0.0712512731552124, 0.0818147286772728, 0.11970695108175278, 0.12484696507453918, 0.08741234987974167, 0.15237532556056976, 0.28259360790252686, 0.21111664175987244, 0.051041245460510254, 0.06890292465686798, 0.06529394537210464, 0.03897600620985031, 0.03429688513278961, 0.03752851486206055, 0.1220003217458725, 0.20541556179523468, 0.1518600732088089, 0.1679302155971527, 0.1412152647972107, 0.12044637650251389, 0.05740562826395035, 0.05084016174077988, 0.06492375582456589, 0.06826615333557129, 0.06319115310907364, 0.05764218792319298, 0.053480930626392365, 0.05295168235898018, 0.047287870198488235, 0.1379873901605606, 0.07022304087877274, 0.06742767244577408, 0.09007028490304947, 0.06355626881122589, 0.06757248938083649, 0.08195221424102783, 0.0784626230597496, 0.059568896889686584, 0.057880982756614685, 0.032322268933057785, 0.030816633254289627, 0.04604645073413849, 0.05310786888003349, 0.057553865015506744, 0.0656372457742691, 0.0663011446595192, 0.05125989392399788, 0.05278705060482025, 0.03803591430187225, 0.028605753555893898, 0.031017035245895386, 0.0348881334066391, 0.023089848458766937, 0.025883343070745468, 0.020539047196507454, 0.018653180450201035, 0.018556009978055954, 0.01747458055615425, 0.021893005818128586, 0.0620768666267395, 0.04864845052361488, 0.050171852111816406, 0.022021109238266945, 0.019252805039286613, 0.022840265184640884, 0.02215678244829178, 0.013965720310807228, 0.020312320441007614, 0.030729150399565697, 0.028291674330830574, 0.029550477862358093, 0.014717028476297855, 0.01371609978377819, 0.016116628423333168, 0.029700810089707375, 0.028047779574990273, 0.02786729298532009, 0.028080597519874573, 0.03407668322324753, 0.030526386573910713, 0.05439409241080284, 0.030949963256716728, 0.03127005696296692, 0.08179432153701782, 0.08234009146690369, 0.09235847741365433, 0.08664669841527939, 0.05720178410410881, 0.06412962824106216, 0.0776696428656578, 0.075681671500206, 0.0675949826836586, 0.031361911445856094, 0.037689853459596634, 0.031428948044776917, 0.03556055575609207, 0.044613052159547806, 0.06438248604536057, 0.04437246173620224, 0.04716423898935318, 0.02643858641386032, 0.02912714332342148, 0.015809454023838043, 0.0172763429582119, 0.03172648325562477, 0.03530832752585411, 0.060726821422576904, 0.029563918709754944, 0.021634509786963463, 0.03427538648247719, 0.04923313483595848, 0.0706087276339531, 0.0728856697678566, 0.06209699437022209, 0.06341586261987686, 0.05886686593294144, 0.06771449744701385, 0.03537554293870926, 0.02673899382352829, 0.03322945535182953, 0.04256288707256317, 0.05511191487312317, 0.03163689374923706, 0.028149578720331192, 0.030435210093855858, 0.03607488423585892, 0.031172771006822586, 0.0470157116651535, 0.06505205482244492, 0.0829746276140213, 0.06676536798477173, 0.06433773040771484, 0.08520273864269257, 0.08554977923631668]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.1469109356403351</v>
+        <v>0.2825936079025269</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.897738700004993</v>
+        <v>0.8985931999923196</v>
       </c>
       <c r="J92" t="n">
-        <v>0.005718080891751548</v>
+        <v>0.005723523566830061</v>
       </c>
     </row>
     <row r="93">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.4945342540740967, 0.46728959679603577, 0.35535377264022827, 0.31156593561172485, 0.3792826235294342, 0.7814227342605591, 0.6048705577850342, 0.6931334733963013, 0.6665641665458679, 0.5279484987258911, 0.4106979966163635, 0.2980370819568634, 0.23017627000808716, 0.2761061191558838, 0.211014524102211, 0.15002785623073578, 0.18477752804756165, 0.28298938274383545, 0.25056660175323486, 0.20454618334770203, 0.17288362979888916, 0.1556100994348526, 0.19856947660446167, 0.21288849413394928, 0.1777692586183548, 0.2521265149116516, 0.29550987482070923, 0.2868066430091858, 0.2842469811439514, 0.21599747240543365, 0.14416177570819855, 0.12762294709682465, 0.12648819386959076, 0.14267593622207642, 0.16075779497623444, 0.18177920579910278, 0.17328959703445435, 0.16553540527820587, 0.13847282528877258, 0.1549285501241684, 0.16861510276794434, 0.17218901216983795, 0.1539517343044281, 0.17343449592590332, 0.18686775863170624, 0.14609305560588837, 0.12858745455741882, 0.1347373127937317, 0.10379805415868759, 0.1046098992228508, 0.1422874480485916, 0.14837729930877686, 0.2057550698518753, 0.3070572018623352, 0.3258897364139557, 0.41236457228660583, 0.3053293824195862, 0.19131724536418915, 0.19899673759937286, 0.2802976071834564, 0.2870264947414398, 0.23660089075565338, 0.30688250064849854, 0.2391621172428131, 0.29576611518859863, 0.5022600889205933, 0.5356836915016174, 0.30856141448020935, 0.23286297917366028, 0.21889367699623108, 0.2090327888727188, 0.5121340155601501, 0.4891158640384674, 0.5807896256446838, 0.9184562563896179, 0.9617202877998352, 0.9629177451133728, 0.8691014647483826, 0.7107161283493042, 0.7653586864471436, 0.5696528553962708, 0.4469716250896454, 0.38552311062812805, 0.3365173637866974, 0.22306030988693237, 0.30175891518592834, 0.2384386956691742, 0.24582256376743317, 0.21702228486537933, 0.22140605747699738, 0.306403249502182, 0.3034743070602417, 0.40775763988494873, 0.31465062499046326, 0.3433587849140167, 0.2979373037815094, 0.33681878447532654, 0.37447673082351685, 0.4241958558559418, 0.3458932340145111, 0.27835777401924133, 0.19840112328529358, 0.22041523456573486, 0.23097234964370728, 0.2773621380329132, 0.2611747086048126, 0.22710607945919037, 0.21345561742782593, 0.198532834649086, 0.19616955518722534, 0.2281910479068756, 0.2479265183210373, 0.24782761931419373, 0.36016836762428284, 0.3076414167881012, 0.40161797404289246, 0.2781769335269928, 0.23625338077545166, 0.2543722093105316, 0.26471206545829773, 0.24791209399700165, 0.2685852348804474, 0.25178974866867065, 0.22129367291927338, 0.18148618936538696, 0.23171459138393402, 0.2190159410238266, 0.20723165571689606, 0.25918546319007874, 0.23123599588871002, 0.22373010218143463, 0.3205631673336029, 0.3130773603916168, 0.32049643993377686, 0.33441776037216187, 0.30954664945602417, 0.27297478914260864, 0.22617173194885254, 0.18836113810539246, 0.1852702647447586, 0.2624832093715668, 0.1479826420545578, 0.20878495275974274, 0.21864718198776245, 0.24415840208530426, 0.21303488314151764, 0.23174817860126495, 0.2909892201423645, 0.42863553762435913, 0.22290322184562683, 0.22681231796741486, 0.29235145449638367, 0.46574246883392334, 0.43561968207359314, 0.6913418769836426, 0.7075009942054749, 0.7099701166152954]</t>
+          <t>[0.48807650804519653, 0.5291932821273804, 0.5427370071411133, 0.521924614906311, 0.6411635279655457, 0.9078741073608398, 0.8086811304092407, 0.8506952524185181, 0.8877367377281189, 0.807566225528717, 0.6549264192581177, 0.5249645113945007, 0.42476367950439453, 0.5320554971694946, 0.28849300742149353, 0.15696237981319427, 0.19636790454387665, 0.35793745517730713, 0.2975538372993469, 0.23431308567523956, 0.19956301152706146, 0.18318594992160797, 0.23632925748825073, 0.20905748009681702, 0.17483484745025635, 0.2742662727832794, 0.33927640318870544, 0.2839753329753876, 0.27581626176834106, 0.2680809497833252, 0.17876781523227692, 0.14620473980903625, 0.12689684331417084, 0.15102891623973846, 0.16623781621456146, 0.16170147061347961, 0.1296822428703308, 0.12067597359418869, 0.12161264568567276, 0.11775828897953033, 0.12581244111061096, 0.14396482706069946, 0.14083276689052582, 0.1613939255475998, 0.24790051579475403, 0.20718145370483398, 0.13844749331474304, 0.16831651329994202, 0.11405082046985626, 0.11283072829246521, 0.1367368996143341, 0.15625505149364471, 0.2707187831401825, 0.34191036224365234, 0.3231927752494812, 0.47627994418144226, 0.25517258048057556, 0.15335166454315186, 0.15194718539714813, 0.2864021360874176, 0.2637723684310913, 0.25062447786331177, 0.33782753348350525, 0.29478079080581665, 0.4216718077659607, 0.6058255434036255, 0.6003917455673218, 0.31857308745384216, 0.3231137990951538, 0.3015596866607666, 0.28535518050193787, 0.6544720530509949, 0.627813994884491, 0.6776103973388672, 0.9843655824661255, 0.9934770464897156, 0.9932464361190796, 0.9774819016456604, 0.9476824998855591, 0.9636149406433105, 0.7733238935470581, 0.5058842301368713, 0.3713216483592987, 0.2884659767150879, 0.18436914682388306, 0.26979881525039673, 0.22211360931396484, 0.200330451130867, 0.2000456154346466, 0.27075034379959106, 0.395439475774765, 0.3971829116344452, 0.3550015687942505, 0.2588622272014618, 0.31760236620903015, 0.31868937611579895, 0.4112021028995514, 0.5147945880889893, 0.396112322807312, 0.31124669313430786, 0.2546684145927429, 0.22756031155586243, 0.22832228243350983, 0.2153444141149521, 0.29501330852508545, 0.293719619512558, 0.3306735157966614, 0.2634046673774719, 0.32969820499420166, 0.35461151599884033, 0.350299209356308, 0.3748807907104492, 0.38764309883117676, 0.5696943402290344, 0.4660511016845703, 0.6219300627708435, 0.462379515171051, 0.37760496139526367, 0.4225654602050781, 0.5329436659812927, 0.45626989006996155, 0.4511331021785736, 0.3565264046192169, 0.2742532193660736, 0.2210896909236908, 0.2783498466014862, 0.26689568161964417, 0.2915530502796173, 0.3404709994792938, 0.38310497999191284, 0.30578485131263733, 0.309696227312088, 0.3045346438884735, 0.3220295310020447, 0.3872409164905548, 0.33428552746772766, 0.283072829246521, 0.27719372510910034, 0.19936153292655945, 0.1856384426355362, 0.32381299138069153, 0.21289192140102386, 0.33045080304145813, 0.2548474669456482, 0.2821902930736542, 0.2821178138256073, 0.26582515239715576, 0.3119804561138153, 0.4674578905105591, 0.28926852345466614, 0.32538822293281555, 0.45302844047546387, 0.6921846270561218, 0.6612941026687622, 0.9140466451644897, 0.9332929849624634, 0.9339860677719116]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.9629177451133728</v>
+        <v>0.9934770464897156</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.8699401000048965</v>
+        <v>0.8838971000077436</v>
       </c>
       <c r="J93" t="n">
-        <v>0.005541019745254118</v>
+        <v>0.005629917834444226</v>
       </c>
     </row>
     <row r="94">
@@ -4285,11 +4285,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[0.3978326916694641, 0.37301260232925415, 0.3356049954891205, 0.3645022213459015, 0.41813915967941284, 0.7600984573364258, 0.8950201869010925, 0.9087257385253906, 0.8175564408302307, 0.8061511516571045, 0.6947099566459656, 0.8242688775062561, 0.48089033365249634, 0.7031718492507935, 0.9124912023544312, 0.9823073148727417, 0.9847783446311951, 0.9883778691291809, 0.9861426949501038, 0.9854007363319397, 0.9633577466011047, 0.9511905908584595, 0.8985558152198792, 0.9080561399459839, 0.9008779525756836, 0.7087586522102356, 0.43531501293182373, 0.3655977249145508, 0.34595951437950134, 0.41619744896888733, 0.47063562273979187, 0.45116573572158813, 0.2951711118221283, 0.3024248480796814, 0.3121512830257416, 0.49431324005126953, 0.4299398362636566, 0.45251452922821045, 0.45702043175697327, 0.5026642680168152, 0.5046852827072144, 0.6110007762908936, 0.6858320832252502, 0.7227535247802734, 0.5905299186706543, 0.48440802097320557, 0.573565661907196, 0.6310132145881653, 0.7884262800216675, 0.7837156057357788, 0.7968235015869141, 0.8209666609764099, 0.8696805238723755, 0.8986666202545166, 0.9375706911087036, 0.9374105930328369, 0.9611559510231018, 0.9421376585960388, 0.9386281371116638, 0.8922378420829773, 0.8266680836677551, 0.8333131670951843, 0.9110544919967651, 0.8398315906524658, 0.8556796908378601, 0.7583761811256409, 0.8133111000061035, 0.8147737383842468, 0.7738827466964722, 0.6993362307548523, 0.7701132297515869, 0.8409278988838196, 0.8561413288116455, 0.8866821527481079, 0.9145790934562683, 0.8978241682052612, 0.8975656032562256, 0.6633169651031494, 0.5561608076095581, 0.4647814929485321, 0.5204460620880127, 0.5183128118515015]</t>
+          <t>[0.1699550300836563, 0.14742663502693176, 0.09021709859371185, 0.0872078388929367, 0.15625576674938202, 0.7153101563453674, 0.9593908190727234, 0.9532418251037598, 0.8180571794509888, 0.7574135661125183, 0.42605525255203247, 0.5432490110397339, 0.12926846742630005, 0.36079058051109314, 0.9541685581207275, 0.9956281185150146, 0.99554044008255, 0.997686505317688, 0.996297299861908, 0.9944540858268738, 0.9602491855621338, 0.947777509689331, 0.8584677577018738, 0.9360644221305847, 0.9345480799674988, 0.6412982940673828, 0.15744462609291077, 0.10223720967769623, 0.09986341744661331, 0.1049499437212944, 0.1176089346408844, 0.16202543675899506, 0.07126195728778839, 0.07195203751325607, 0.07080838829278946, 0.17043744027614594, 0.1393393874168396, 0.1489717960357666, 0.18982304632663727, 0.25461339950561523, 0.22252149879932404, 0.3766235113143921, 0.5245549082756042, 0.6901819705963135, 0.3518761992454529, 0.18807430565357208, 0.2571691870689392, 0.3558591306209564, 0.6157742142677307, 0.5577704310417175, 0.746435284614563, 0.8145442008972168, 0.8808109164237976, 0.9499854445457458, 0.9812564253807068, 0.9883641004562378, 0.9920384883880615, 0.9813750982284546, 0.9747481942176819, 0.915545642375946, 0.8382522463798523, 0.8664747476577759, 0.9527677893638611, 0.9017389416694641, 0.850172758102417, 0.7928513288497925, 0.8394740223884583, 0.8276364207267761, 0.8100899457931519, 0.6561220288276672, 0.7494146227836609, 0.8473214507102966, 0.8355683088302612, 0.8846955299377441, 0.9326450824737549, 0.9004941582679749, 0.907665491104126, 0.3991791009902954, 0.23021981120109558, 0.14715366065502167, 0.1724826991558075, 0.17253731191158295]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.9883778691291809</v>
+        <v>0.997686505317688</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.4802743999753147</v>
+        <v>0.4737807999918004</v>
       </c>
       <c r="J94" t="n">
-        <v>0.005857004877747741</v>
+        <v>0.005777814634046347</v>
       </c>
     </row>
     <row r="95">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[0.8529617786407471, 0.8136727213859558, 0.9054454565048218, 0.8873683214187622, 0.8183832168579102, 0.5715007185935974, 0.3057914972305298, 0.26993998885154724, 0.21437135338783264, 0.19726665318012238, 0.15400636196136475, 0.2766658067703247, 0.5467727780342102, 0.6292392015457153, 0.8054064512252808, 0.8215896487236023, 0.7515546679496765, 0.8197619318962097, 0.8473770022392273, 0.8611560463905334, 0.8424665331840515, 0.8557159304618835, 0.8446930646896362, 0.8322799801826477, 0.8670064210891724, 0.8628101944923401, 0.8448848128318787, 0.8134617805480957, 0.7954018712043762, 0.8440980315208435, 0.8463234305381775, 0.731336772441864, 0.7374987602233887, 0.7567136883735657, 0.6890292167663574, 0.7119892239570618, 0.7651762962341309, 0.8130512833595276, 0.8461574912071228, 0.8856478929519653, 0.885468602180481]</t>
+          <t>[0.8883926868438721, 0.8511900901794434, 0.9597792625427246, 0.9622438549995422, 0.8582445383071899, 0.4074104428291321, 0.09856454282999039, 0.07411376386880875, 0.049323782324790955, 0.059847380965948105, 0.06592531502246857, 0.22348403930664062, 0.4405551254749298, 0.5112008452415466, 0.7585924863815308, 0.778037965297699, 0.6907152533531189, 0.6636757254600525, 0.6633575558662415, 0.6390931010246277, 0.6445138454437256, 0.7160505056381226, 0.7011348009109497, 0.734940230846405, 0.8296350836753845, 0.8210753798484802, 0.8041654229164124, 0.7559174299240112, 0.7509522438049316, 0.8435021042823792, 0.8258617520332336, 0.6694852709770203, 0.7319375872612, 0.7309570908546448, 0.609251081943512, 0.5590901970863342, 0.6352368593215942, 0.7523914575576782, 0.8228747844696045, 0.8783708810806274, 0.8784414529800415]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9054454565048218</v>
+        <v>0.9622438549995422</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.2588902999996208</v>
+        <v>0.2539690999983577</v>
       </c>
       <c r="J95" t="n">
-        <v>0.00631439756096636</v>
+        <v>0.00619436829264287</v>
       </c>
     </row>
     <row r="96">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[0.4521845877170563, 0.5077872276306152, 0.5855098366737366, 0.310647577047348, 0.4052536189556122, 0.6203242540359497, 0.9137887358665466, 0.9291748404502869, 0.9612776041030884, 0.949924647808075, 0.9279426336288452, 0.8749746680259705, 0.9734434485435486, 0.9029296040534973, 0.6317357420921326, 0.8444612622261047, 0.9641833305358887, 0.9537461996078491, 0.9737038016319275, 0.9793221354484558, 0.9754915833473206, 0.9872174859046936, 0.988304853439331, 0.9848548769950867, 0.46472135186195374, 0.439555823802948, 0.5330978035926819, 0.7876707315444946, 0.859117865562439, 0.9306654334068298, 0.8577605485916138, 0.862238347530365, 0.7656055688858032, 0.8103841543197632, 0.8841357231140137, 0.9072754383087158, 0.9232438802719116, 0.9379956722259521, 0.956017255783081, 0.8848246932029724, 0.8492013812065125, 0.790908932685852, 0.8735783100128174, 0.8988990783691406, 0.9272345900535583, 0.5844672918319702, 0.5197075605392456, 0.5457277894020081, 0.5285627245903015, 0.43490779399871826, 0.5539510250091553, 0.4246019423007965, 0.4158518314361572, 0.39137229323387146, 0.13379202783107758, 0.1362452208995819, 0.30502849817276, 0.7901335954666138, 0.8718594312667847, 0.764286458492279, 0.15940168499946594, 0.24726025760173798, 0.47922325134277344, 0.9196479916572571, 0.9163719415664673, 0.9684699773788452, 0.9922978281974792, 0.991296648979187, 0.9895989894866943, 0.9910372495651245, 0.9857661724090576, 0.9866812229156494, 0.9912130236625671, 0.9897283315658569, 0.9881148338317871, 0.9900830984115601, 0.9925701022148132, 0.9934929013252258, 0.9935007691383362, 0.9939697980880737, 0.9914924502372742, 0.9866905212402344, 0.9896994233131409, 0.9801896214485168, 0.982466995716095, 0.9818442463874817, 0.9789078831672668, 0.9596214890480042, 0.9344682097434998, 0.9199027419090271, 0.7927666306495667, 0.8532670140266418, 0.7777488231658936, 0.8794553279876709, 0.8421157598495483, 0.8759514093399048, 0.8829145431518555, 0.8837438821792603, 0.8833197951316833, 0.910519003868103, 0.8603177070617676, 0.844315230846405, 0.8476188778877258, 0.8405927419662476, 0.8559104800224304, 0.89947509765625, 0.8716901540756226, 0.8795884847640991, 0.9349505305290222, 0.9244176745414734, 0.9246874451637268]</t>
+          <t>[0.42989784479141235, 0.5760167241096497, 0.7731472849845886, 0.321362167596817, 0.4655115306377411, 0.816709041595459, 0.9792113304138184, 0.9774876236915588, 0.9962924122810364, 0.9934908151626587, 0.9945037364959717, 0.9833959937095642, 0.9980408549308777, 0.9822393655776978, 0.7485694289207458, 0.9873255491256714, 0.9980506896972656, 0.997414231300354, 0.9977521300315857, 0.9982377290725708, 0.9979301691055298, 0.999009370803833, 0.9988148212432861, 0.9989150762557983, 0.6384016275405884, 0.4291711151599884, 0.564380943775177, 0.8770164251327515, 0.9113427996635437, 0.969977080821991, 0.917972981929779, 0.8807653188705444, 0.7200971841812134, 0.7614800930023193, 0.886197030544281, 0.9238453507423401, 0.919041097164154, 0.9366085529327393, 0.9686235189437866, 0.9016833305358887, 0.8020114302635193, 0.6615184545516968, 0.8104559183120728, 0.8639329075813293, 0.9284767508506775, 0.4139939546585083, 0.26030758023262024, 0.36795473098754883, 0.3724852204322815, 0.2558213770389557, 0.4550846517086029, 0.26321882009506226, 0.21435706317424774, 0.20124998688697815, 0.05168689414858818, 0.08217615634202957, 0.23808495700359344, 0.8280061483383179, 0.9272798895835876, 0.8901748657226562, 0.22895412147045135, 0.5321803689002991, 0.7425777316093445, 0.9794338345527649, 0.9609312415122986, 0.9932039976119995, 0.9983441829681396, 0.9981946349143982, 0.9976629018783569, 0.9981977343559265, 0.9968317151069641, 0.9976587295532227, 0.9967526197433472, 0.9960810542106628, 0.9953804016113281, 0.9969186782836914, 0.997788667678833, 0.9979992508888245, 0.9977679252624512, 0.9975022673606873, 0.9966844916343689, 0.9947340488433838, 0.996638298034668, 0.9931610822677612, 0.9919881820678711, 0.9888296723365784, 0.9895205497741699, 0.9781345129013062, 0.9412208199501038, 0.9481393694877625, 0.7714513540267944, 0.8430132865905762, 0.6866855025291443, 0.8731831908226013, 0.8579329252243042, 0.9108190536499023, 0.8834042549133301, 0.8853147029876709, 0.8414628505706787, 0.9336997866630554, 0.8622538447380066, 0.8689528107643127, 0.8605512380599976, 0.8436099886894226, 0.8776755332946777, 0.953544020652771, 0.9258156418800354, 0.9512193202972412, 0.9853004813194275, 0.9757804870605469, 0.9759262204170227]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.9939697980880737</v>
+        <v>0.999009370803833</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.6409534999984317</v>
+        <v>0.6380212000076426</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005774355855841727</v>
+        <v>0.005747938738807591</v>
       </c>
     </row>
     <row r="97">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.3169703483581543, 0.28461015224456787, 0.2500053644180298, 0.2609784007072449, 0.2346208244562149, 0.26008254289627075, 0.29273107647895813, 0.22804947197437286, 0.25889620184898376, 0.2866922914981842, 0.2388315349817276, 0.3782097399234772, 0.3508732318878174, 0.3634452521800995, 0.3966093361377716, 0.37618696689605713, 0.34992557764053345, 0.4516065716743469, 0.4494056701660156, 0.5259937047958374, 0.4321211874485016, 0.39341574907302856, 0.33732515573501587, 0.29268625378608704, 0.2964053153991699, 0.30419033765792847, 0.2879416346549988, 0.2537660002708435, 0.26616260409355164, 0.1159457415342331, 0.09134099632501602, 0.0906125083565712, 0.060899414122104645, 0.11152029782533646, 0.078536756336689, 0.10554937273263931, 0.10094360262155533, 0.12404557317495346, 0.27139368653297424, 0.32638800144195557, 0.26133546233177185, 0.2179001420736313, 0.24915961921215057, 0.21813492476940155, 0.11890639364719391, 0.11148987710475922, 0.12965275347232819, 0.18159744143486023, 0.24674788117408752, 0.2860483229160309, 0.3836153447628021, 0.4436873495578766, 0.3861878216266632, 0.2845485210418701, 0.2705162763595581, 0.1564590185880661, 0.10858968645334244, 0.14344583451747894, 0.19830730557441711, 0.17461282014846802, 0.1371147632598877, 0.11611593514680862, 0.23630709946155548, 0.22402910888195038, 0.2143331915140152, 0.23113225400447845, 0.1519077569246292, 0.12357845157384872, 0.15566092729568481, 0.1215500459074974, 0.09446868300437927, 0.09913179278373718, 0.13604532182216644, 0.14265578985214233, 0.14611893892288208, 0.10199058055877686, 0.12515248358249664, 0.11312516778707504, 0.1645784229040146, 0.16849705576896667, 0.253776878118515, 0.2241271734237671, 0.2735375463962555, 0.2503927946090698, 0.25400012731552124, 0.1897103190422058, 0.20936033129692078, 0.24906784296035767, 0.21478064358234406, 0.14865463972091675, 0.12912224233150482, 0.1070181205868721, 0.1514960527420044, 0.1865473985671997, 0.1815057396888733, 0.090754434466362, 0.10668382793664932, 0.1353529542684555, 0.11172941327095032, 0.1072922870516777, 0.10865886509418488, 0.10204356908798218, 0.07395163178443909, 0.07792788743972778, 0.10997752100229263, 0.1368989646434784, 0.12766435742378235, 0.13883598148822784, 0.13517548143863678, 0.1999496966600418, 0.19895470142364502]</t>
+          <t>[0.17265170812606812, 0.15258149802684784, 0.15276628732681274, 0.14919079840183258, 0.10510282963514328, 0.10852301120758057, 0.12455839663743973, 0.09397442638874054, 0.1309354603290558, 0.13938099145889282, 0.08054372668266296, 0.13925141096115112, 0.12252838164567947, 0.1403188705444336, 0.13833819329738617, 0.1302957832813263, 0.11888585239648819, 0.2358984798192978, 0.22199857234954834, 0.25808849930763245, 0.19350911676883698, 0.18387556076049805, 0.1620032638311386, 0.11524540185928345, 0.1805606633424759, 0.16466552019119263, 0.11123370379209518, 0.13661129772663116, 0.15724068880081177, 0.07423683255910873, 0.04837418347597122, 0.03703264519572258, 0.020300155505537987, 0.03977079316973686, 0.028391379863023758, 0.04014456644654274, 0.03414614126086235, 0.045746199786663055, 0.1418164223432541, 0.18371181190013885, 0.13568489253520966, 0.11490291357040405, 0.12260974943637848, 0.12391921132802963, 0.08755388110876083, 0.08012684434652328, 0.10682263225317001, 0.12739501893520355, 0.19111643731594086, 0.1795717179775238, 0.40472716093063354, 0.48735377192497253, 0.3732006847858429, 0.2357393503189087, 0.21279677748680115, 0.10041457414627075, 0.06950093805789948, 0.06451340019702911, 0.09886450320482254, 0.10782767832279205, 0.08895375579595566, 0.06067807599902153, 0.14638537168502808, 0.15849603712558746, 0.13298481702804565, 0.20036426186561584, 0.11538844555616379, 0.08571340888738632, 0.08607253432273865, 0.07565082609653473, 0.055917538702487946, 0.06293972581624985, 0.08752883970737457, 0.10073315352201462, 0.17639422416687012, 0.09436773508787155, 0.12429533898830414, 0.103261798620224, 0.14280754327774048, 0.1779380440711975, 0.273903489112854, 0.24427485466003418, 0.25036996603012085, 0.27829641103744507, 0.33077988028526306, 0.23529691994190216, 0.20424364507198334, 0.3019527494907379, 0.2566286325454712, 0.1421068161725998, 0.15946584939956665, 0.10875337570905685, 0.15691442787647247, 0.340148001909256, 0.2073143869638443, 0.0614934004843235, 0.0647161677479744, 0.10016266256570816, 0.09240321815013885, 0.09349679201841354, 0.07771053165197372, 0.0923534408211708, 0.060082897543907166, 0.04806254059076309, 0.0568392314016819, 0.07853744924068451, 0.09631150960922241, 0.09814314544200897, 0.10927195847034454, 0.15507401525974274, 0.15430952608585358]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.5259937047958374</v>
+        <v>0.4873537719249725</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.6347644999914337</v>
+        <v>0.6375263999943854</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005718599099021925</v>
+        <v>0.005743481081030499</v>
       </c>
     </row>
     <row r="98">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[0.04708981141448021, 0.055644843727350235, 0.04444022849202156, 0.03807566687464714, 0.03351093828678131, 0.03202236443758011, 0.04053604602813721, 0.059746697545051575, 0.05524193495512009, 0.059826210141181946, 0.06629971414804459, 0.05495235696434975, 0.036907490342855453, 0.030310995876789093, 0.025488128885626793, 0.04335799440741539, 0.03453228995203972, 0.03124816343188286, 0.04058530554175377, 0.03663860261440277, 0.033727627247571945, 0.03399357944726944, 0.0448610819876194, 0.04643603786826134, 0.06412667036056519, 0.06232115998864174, 0.06823529303073883, 0.05354417860507965, 0.04724018648266792, 0.05585676431655884, 0.08288554102182388, 0.11698965728282928, 0.12416565418243408, 0.16502544283866882, 0.16252392530441284, 0.14849869906902313, 0.13120582699775696, 0.11935445666313171, 0.11112768948078156, 0.1406058967113495, 0.1488196849822998, 0.15863879024982452, 0.09855042397975922, 0.09517458826303482, 0.07947677373886108, 0.10013210028409958, 0.09440311789512634, 0.09082967042922974, 0.0993201807141304, 0.12523320317268372, 0.10552018880844116, 0.09677870571613312, 0.0949171707034111, 0.07841840386390686, 0.07889782637357712, 0.08966722339391708, 0.1002044826745987, 0.09005536139011383, 0.10484009236097336, 0.09151384979486465, 0.08488117158412933, 0.09054921567440033, 0.0938103124499321, 0.10271821916103363, 0.0905170887708664, 0.09028075635433197, 0.06773384660482407, 0.07468021661043167, 0.072891004383564, 0.059584107249975204, 0.058908991515636444, 0.05566982924938202, 0.10901449620723724, 0.10730094462633133, 0.08757172524929047, 0.08354844897985458, 0.09871786832809448, 0.10060660541057587, 0.06716497242450714, 0.06463301926851273, 0.06495491415262222, 0.0632970854640007, 0.05166635289788246, 0.05648567155003548, 0.06745541840791702, 0.06362991034984589, 0.06753026694059372, 0.06802361458539963, 0.06452126055955887, 0.04993097856640816, 0.0602991096675396, 0.07019725441932678, 0.08350769430398941, 0.0567825585603714, 0.06309859454631805, 0.06417158246040344, 0.06357628852128983, 0.05668574571609497, 0.06189515441656113, 0.07611166685819626, 0.08018751442432404, 0.07956566661596298, 0.051319003105163574, 0.049663446843624115, 0.05086153745651245, 0.056800518184900284, 0.05153593793511391, 0.05024075135588646, 0.034937579184770584, 0.03240760788321495, 0.03273040056228638]</t>
+          <t>[0.028161941096186638, 0.03653211519122124, 0.02899411879479885, 0.023014578968286514, 0.02226947993040085, 0.02295839414000511, 0.03180963546037674, 0.042544566094875336, 0.03462144359946251, 0.04450415074825287, 0.05316668376326561, 0.04105532541871071, 0.02513263002038002, 0.019147804006934166, 0.014863287098705769, 0.02355656400322914, 0.016629787161946297, 0.012792711146175861, 0.02427179552614689, 0.020867256447672844, 0.021716827526688576, 0.027806797996163368, 0.03616226464509964, 0.035664018243551254, 0.03881276771426201, 0.03915226459503174, 0.043818674981594086, 0.0408550389111042, 0.03594620153307915, 0.04185489937663078, 0.0600711852312088, 0.08652256429195404, 0.09817427396774292, 0.13375921547412872, 0.13124552369117737, 0.12976385653018951, 0.12653444707393646, 0.10801158845424652, 0.0874050036072731, 0.12078820168972015, 0.11811225116252899, 0.13789720833301544, 0.08034706860780716, 0.08002328127622604, 0.07164838910102844, 0.1401638239622116, 0.12569408118724823, 0.0962485671043396, 0.07164859771728516, 0.09143684804439545, 0.08907466381788254, 0.06574677675962448, 0.05055784806609154, 0.0457335039973259, 0.05995438992977142, 0.0628940537571907, 0.0710386335849762, 0.061798617243766785, 0.07230131328105927, 0.06360878795385361, 0.05665416270494461, 0.05589941516518593, 0.0662165954709053, 0.0609452947974205, 0.04800001159310341, 0.03628477826714516, 0.039966825395822525, 0.04638248682022095, 0.04511978104710579, 0.0320621095597744, 0.03636607900261879, 0.0404726043343544, 0.0948178842663765, 0.09166430681943893, 0.07524867355823517, 0.06271346658468246, 0.07475937902927399, 0.07050295174121857, 0.03290989622473717, 0.028721945360302925, 0.02924601174890995, 0.03224853053689003, 0.02794935554265976, 0.036292266100645065, 0.049344468861818314, 0.0424191951751709, 0.039179638028144836, 0.03316501900553703, 0.033149901777505875, 0.026946401223540306, 0.03414395451545715, 0.04000158980488777, 0.04337011277675629, 0.030486753210425377, 0.03269282355904579, 0.03141571953892708, 0.028352102264761925, 0.02528896927833557, 0.029594194144010544, 0.04780764877796173, 0.04720880463719368, 0.050894662737846375, 0.03244395554065704, 0.03315982222557068, 0.0406217947602272, 0.03590671345591545, 0.04066931828856468, 0.03409422188997269, 0.02270440012216568, 0.02450377307832241, 0.024658875539898872]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.1650254428386688</v>
+        <v>0.1401638239622116</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.6376675999781583</v>
+        <v>0.6513932999951066</v>
       </c>
       <c r="J98" t="n">
-        <v>0.00574475315295638</v>
+        <v>0.005868408108064024</v>
       </c>
     </row>
     <row r="99">
@@ -4485,11 +4485,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[0.26169028878211975, 0.495920866727829, 0.5300883650779724, 0.29583489894866943, 0.21105530858039856, 0.2401144802570343, 0.33377495408058167, 0.3915584981441498, 0.5142650604248047, 0.6792035102844238, 0.5857900381088257, 0.5730347633361816, 0.6549407839775085, 0.7202393412590027, 0.6053788065910339, 0.6041874885559082, 0.16676586866378784, 0.14647002518177032, 0.14820940792560577, 0.2624991536140442, 0.4428790211677551, 0.7805010080337524, 0.8392747044563293, 0.7965313196182251, 0.8043240308761597, 0.8745314478874207, 0.9011594653129578, 0.7338970899581909, 0.6191081404685974, 0.7086136341094971, 0.4475114941596985, 0.546263575553894, 0.7340545654296875, 0.5104011297225952, 0.16432376205921173, 0.13723346590995789, 0.20102062821388245, 0.651410698890686, 0.9622394442558289, 0.955962598323822, 0.2839927673339844, 0.38116130232810974, 0.24205023050308228, 0.2447076141834259, 0.25284188985824585, 0.20977447926998138, 0.17711639404296875, 0.24173223972320557, 0.3311249017715454, 0.08412625640630722, 0.08668220043182373, 0.09247942268848419, 0.07472483813762665, 0.08688941597938538, 0.08584031462669373, 0.05974253639578819, 0.04993586242198944, 0.03791716322302818, 0.03928527608513832, 0.02745881862938404, 0.050217706710100174, 0.2846442759037018, 0.3785310387611389, 0.5026679039001465, 0.7217357754707336, 0.7085347771644592, 0.40236419439315796, 0.38071826100349426, 0.606469452381134, 0.7094509601593018, 0.0877162367105484, 0.05819055065512657, 0.06599770486354828, 0.11481919139623642, 0.1819530427455902, 0.20682862401008606, 0.1550239622592926, 0.13754767179489136, 0.28393855690956116, 0.35773196816444397, 0.3007282018661499, 0.42287176847457886, 0.7397685050964355, 0.6930268406867981, 0.6020294427871704, 0.8434615731239319, 0.6749610900878906, 0.6918702721595764, 0.1592606157064438, 0.07533544301986694, 0.06034214422106743, 0.05103423073887825, 0.054447636008262634, 0.04495086148381233, 0.06157722324132919, 0.09535709768533707, 0.09154073148965836, 0.21059876680374146, 0.18476618826389313, 0.27504757046699524, 0.5737373232841492, 0.6195881962776184, 0.3887603282928467, 0.4891168177127838, 0.5039634704589844, 0.5639927387237549, 0.6348130702972412, 0.7474753856658936, 0.6546136140823364, 0.7667304873466492, 0.7650418877601624]</t>
+          <t>[0.07083497196435928, 0.1299768090248108, 0.19167165458202362, 0.0805947557091713, 0.10565440356731415, 0.2357647567987442, 0.276418536901474, 0.32718393206596375, 0.3861706852912903, 0.6105828881263733, 0.46657252311706543, 0.3437555730342865, 0.486575722694397, 0.6253261566162109, 0.5239258408546448, 0.5793530344963074, 0.08994480967521667, 0.0561918206512928, 0.047193463891744614, 0.1442383974790573, 0.3787945806980133, 0.8588637113571167, 0.8111354112625122, 0.6841699481010437, 0.6397151947021484, 0.8738763332366943, 0.9228441119194031, 0.7498824000358582, 0.6818269491195679, 0.6660060882568359, 0.4051867723464966, 0.4143027365207672, 0.7646251916885376, 0.4874245226383209, 0.06839996576309204, 0.0424019955098629, 0.06615431606769562, 0.7724982500076294, 0.9896402955055237, 0.9916878342628479, 0.13121578097343445, 0.26302260160446167, 0.14519967138767242, 0.1579451560974121, 0.14365701377391815, 0.12480367720127106, 0.11355416476726532, 0.1629052311182022, 0.23175959289073944, 0.025951890274882317, 0.03571994975209236, 0.05289424583315849, 0.052343837916851044, 0.05321389436721802, 0.05074802786111832, 0.03341073915362358, 0.024048471823334694, 0.015893349424004555, 0.014252306893467903, 0.011853847652673721, 0.027080809697508812, 0.22204981744289398, 0.24590864777565002, 0.5200912952423096, 0.7186540961265564, 0.7289231419563293, 0.251424103975296, 0.37917137145996094, 0.7360116243362427, 0.8913332223892212, 0.0441272146999836, 0.03463345766067505, 0.03530255705118179, 0.04596690461039543, 0.05828310176730156, 0.05726036801934242, 0.0970931351184845, 0.07236013561487198, 0.23430988192558289, 0.17352765798568726, 0.17140653729438782, 0.22271515429019928, 0.5549558401107788, 0.5037773847579956, 0.3164108097553253, 0.8748594522476196, 0.7695367932319641, 0.8616832494735718, 0.058001451194286346, 0.027863727882504463, 0.024398935958743095, 0.019914325326681137, 0.02585924044251442, 0.022652842104434967, 0.03298686817288399, 0.04382850602269173, 0.04705556109547615, 0.06245756521821022, 0.051750898361206055, 0.07052823901176453, 0.6419735550880432, 0.6841825842857361, 0.35730496048927307, 0.13024426996707916, 0.15981675684452057, 0.22235620021820068, 0.2334781140089035, 0.3989110589027405, 0.264242023229599, 0.47003912925720215, 0.4660692512989044]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9622394442558289</v>
+        <v>0.9916878342628479</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.636742000002414</v>
+        <v>0.6410533000016585</v>
       </c>
       <c r="J99" t="n">
-        <v>0.005736414414436162</v>
+        <v>0.005775254954969896</v>
       </c>
     </row>
     <row r="100">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[0.3007708489894867, 0.4410519599914551, 0.5037013292312622, 0.6412410736083984, 0.59726482629776, 0.5394665002822876, 0.5495957732200623, 0.39492934942245483, 0.37004294991493225, 0.5515624284744263, 0.6803447008132935, 0.6554466485977173, 0.7537726759910583, 0.7726712226867676, 0.6477518081665039, 0.5709201097488403, 0.7193419337272644, 0.8173732757568359, 0.8004683256149292, 0.6507723927497864, 0.5460023283958435, 0.5186200141906738, 0.7506467700004578, 0.7978150248527527, 0.783819854259491, 0.7608746290206909, 0.7485065460205078, 0.8315631747245789, 0.774872899055481, 0.3999939560890198, 0.23623928427696228, 0.12127960473299026, 0.1472514271736145, 0.1631261110305786, 0.3226688802242279, 0.2731110155582428, 0.24972344934940338, 0.14116446673870087, 0.17764662206172943, 0.18609976768493652, 0.16150638461112976, 0.1436067819595337, 0.19588465988636017, 0.22789673507213593, 0.1680355668067932, 0.15851245820522308, 0.2746703624725342, 0.367359459400177, 0.3879220485687256, 0.2401265799999237, 0.23985089361667633, 0.40797004103660583, 0.5993081331253052, 0.6205154657363892, 0.6258261203765869, 0.647236704826355, 0.6301209926605225, 0.7475885152816772, 0.732542872428894, 0.4800601303577423, 0.42816510796546936, 0.572729229927063, 0.5545903444290161, 0.63372802734375, 0.6778556704521179, 0.6155418753623962, 0.6563308835029602, 0.647488534450531, 0.7218751907348633, 0.8472546935081482, 0.7480799555778503, 0.6961703300476074, 0.6595312356948853, 0.679416835308075, 0.7569839954376221, 0.8032494783401489, 0.6190780401229858, 0.5469337105751038, 0.5186771154403687, 0.3873080313205719, 0.317402720451355, 0.376152366399765, 0.22545313835144043, 0.2270391583442688, 0.43224838376045227, 0.5021045207977295, 0.49495917558670044, 0.5554302334785461, 0.6032557487487793, 0.6167044043540955, 0.6530590057373047, 0.43527424335479736, 0.31637144088745117, 0.36146360635757446, 0.26378414034843445, 0.2106958031654358, 0.19511491060256958, 0.15709912776947021, 0.1707015484571457, 0.24002031981945038, 0.3634706735610962, 0.454386442899704, 0.5087978839874268, 0.4301406443119049, 0.45472246408462524, 0.4210602641105652, 0.5456885695457458, 0.7600904107093811, 0.7459601163864136, 0.6326586604118347, 0.6351013779640198]</t>
+          <t>[0.08711327612400055, 0.19690553843975067, 0.2222518026828766, 0.29312941431999207, 0.32864293456077576, 0.2690798342227936, 0.33938902616500854, 0.15482810139656067, 0.1579616218805313, 0.3485424220561981, 0.6749860644340515, 0.6000003218650818, 0.7998281717300415, 0.7105622291564941, 0.47743839025497437, 0.4269956350326538, 0.6490140557289124, 0.6851569414138794, 0.6867193579673767, 0.5573787093162537, 0.454189270734787, 0.38789162039756775, 0.6681756377220154, 0.7312721014022827, 0.6732580065727234, 0.7043298482894897, 0.6484866142272949, 0.7846905589103699, 0.7690689563751221, 0.2607622444629669, 0.10947354882955551, 0.04946016147732735, 0.04364956170320511, 0.05310562252998352, 0.12540698051452637, 0.1103203073143959, 0.10384701937437057, 0.07038746774196625, 0.10112320631742477, 0.12179622054100037, 0.09889107942581177, 0.05590815097093582, 0.08459244668483734, 0.14106816053390503, 0.09994591027498245, 0.0913894847035408, 0.20608538389205933, 0.2908904254436493, 0.27215713262557983, 0.14189743995666504, 0.12593181431293488, 0.34055468440055847, 0.7384039163589478, 0.6310757994651794, 0.7272504568099976, 0.4855057895183563, 0.3464065492153168, 0.5029911398887634, 0.605141282081604, 0.24341818690299988, 0.1961487978696823, 0.4731404185295105, 0.4221735894680023, 0.5691406726837158, 0.5594648122787476, 0.515441358089447, 0.6182505488395691, 0.6392574310302734, 0.7425872087478638, 0.8895377516746521, 0.6522203087806702, 0.5028558373451233, 0.49042031168937683, 0.483763724565506, 0.5919764637947083, 0.5997715592384338, 0.3302181661128998, 0.2597898542881012, 0.29414433240890503, 0.23645557463169098, 0.12404410541057587, 0.13537085056304932, 0.0911605954170227, 0.08331169188022614, 0.21338576078414917, 0.3335108757019043, 0.37270641326904297, 0.5250638723373413, 0.5321597456932068, 0.5607175230979919, 0.6123062372207642, 0.341518759727478, 0.1787634938955307, 0.166383296251297, 0.12192234396934509, 0.10321129113435745, 0.1326880156993866, 0.08444536477327347, 0.09613829851150513, 0.11397921293973923, 0.19511669874191284, 0.26544955372810364, 0.35885384678840637, 0.2351861298084259, 0.2523307204246521, 0.23928961157798767, 0.37196534872055054, 0.6496686935424805, 0.650363564491272, 0.4573993682861328, 0.45956018567085266]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.8472546935081482</v>
+        <v>0.8895377516746521</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.6357014999957755</v>
+        <v>0.6358926999964751</v>
       </c>
       <c r="J100" t="n">
-        <v>0.005727040540502482</v>
+        <v>0.005728763063031307</v>
       </c>
     </row>
     <row r="101">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[0.32056376338005066, 0.33634135127067566, 0.40012359619140625, 0.3678393065929413, 0.46912863850593567, 0.4542020857334137, 0.19217853248119354, 0.14320752024650574, 0.1395256668329239, 0.1957203894853592, 0.2660824954509735, 0.22991959750652313, 0.32033124566078186, 0.32163459062576294, 0.3587883710861206, 0.2877978980541229, 0.3352746367454529, 0.4092041552066803, 0.3310675323009491, 0.32822325825691223, 0.29572799801826477, 0.2953285276889801, 0.3962870240211487, 0.39324456453323364, 0.6914451718330383, 0.6470193862915039, 0.6559619903564453, 0.5016653537750244, 0.5069074034690857, 0.3897251486778259, 0.19151942431926727, 0.12724743783473969, 0.12835584580898285, 0.27764198184013367, 0.3643394708633423, 0.4689216613769531, 0.2889364957809448, 0.329030841588974, 0.17086374759674072, 0.15782567858695984, 0.21131674945354462, 0.27330970764160156, 0.41461995244026184, 0.4323957562446594, 0.5039299130439758, 0.3852998614311218, 0.42221635580062866, 0.5054113864898682, 0.5273641347885132, 0.38580888509750366, 0.31785762310028076, 0.2476920485496521, 0.2337014228105545, 0.3040500581264496, 0.43441876769065857, 0.5241491198539734, 0.45926234126091003, 0.5823163390159607, 0.4685565233230591, 0.3746216595172882, 0.2507956624031067, 0.29585912823677063, 0.3467501699924469, 0.41097527742385864, 0.39442309737205505, 0.4260096549987793, 0.6670805811882019, 0.6193330883979797, 0.5793094635009766, 0.3496549129486084, 0.4162665903568268, 0.42824772000312805, 0.5201229453086853, 0.5153387188911438, 0.36246368288993835, 0.6551263332366943, 0.6891276240348816, 0.6369931697845459, 0.38833361864089966, 0.29128479957580566, 0.2202531099319458, 0.226018488407135, 0.3701556324958801, 0.34915468096733093, 0.28900468349456787, 0.344039648771286, 0.3449278473854065, 0.3838258385658264, 0.3887067139148712, 0.3898010551929474, 0.2998219430446625, 0.3171313405036926, 0.3892408311367035, 0.39486247301101685, 0.43016862869262695, 0.4226413071155548, 0.23507288098335266, 0.19756975769996643, 0.16477155685424805, 0.1691409945487976, 0.2621762752532959, 0.3488060235977173, 0.5056848526000977, 0.6204121708869934, 0.6763489246368408, 0.5511569976806641, 0.6127046346664429, 0.7769439816474915, 0.4576391577720642, 0.5136945843696594, 0.5172495245933533]</t>
+          <t>[0.28900498151779175, 0.25503435730934143, 0.40985187888145447, 0.403235524892807, 0.5189773440361023, 0.4489319920539856, 0.1348218023777008, 0.08257065713405609, 0.08264553546905518, 0.10302073508501053, 0.1695030778646469, 0.10396569222211838, 0.25044041872024536, 0.31503504514694214, 0.33783045411109924, 0.17883577942848206, 0.26317086815834045, 0.30365777015686035, 0.2134271115064621, 0.2252383530139923, 0.17550167441368103, 0.23364728689193726, 0.31973206996917725, 0.306265264749527, 0.6417995691299438, 0.5833942294120789, 0.6221809983253479, 0.4160941541194916, 0.38382184505462646, 0.3032206594944, 0.1473434567451477, 0.09362073987722397, 0.09268561750650406, 0.16283616423606873, 0.2845290005207062, 0.33375781774520874, 0.3104842007160187, 0.3806877136230469, 0.14564023911952972, 0.09495615214109421, 0.09503888338804245, 0.14071685075759888, 0.35429590940475464, 0.24338872730731964, 0.32264360785484314, 0.2660391330718994, 0.2779344618320465, 0.32024434208869934, 0.3088017404079437, 0.18109802901744843, 0.1388050764799118, 0.09708625078201294, 0.08118443936109543, 0.14715790748596191, 0.4666142761707306, 0.5414946675300598, 0.4307509660720825, 0.5390120148658752, 0.3062709867954254, 0.23394235968589783, 0.11147318035364151, 0.1031143069267273, 0.17572477459907532, 0.24026206135749817, 0.20949453115463257, 0.2429904043674469, 0.5142519474029541, 0.4290755093097687, 0.3118426203727722, 0.12352754920721054, 0.20533625781536102, 0.18009278178215027, 0.24975334107875824, 0.42490506172180176, 0.24844834208488464, 0.634320855140686, 0.6693210005760193, 0.4811713993549347, 0.22174358367919922, 0.16257326304912567, 0.07615654915571213, 0.08938930183649063, 0.28741925954818726, 0.19724571704864502, 0.13084247708320618, 0.17868071794509888, 0.20709119737148285, 0.2571962773799896, 0.29900574684143066, 0.2562394440174103, 0.13675934076309204, 0.12986092269420624, 0.20439401268959045, 0.21258807182312012, 0.2661021947860718, 0.23945829272270203, 0.09763339906930923, 0.07746230065822601, 0.05758627876639366, 0.05536648631095886, 0.095000259578228, 0.18137416243553162, 0.4269934594631195, 0.5580690503120422, 0.5927825570106506, 0.3328789174556732, 0.30315279960632324, 0.693720817565918, 0.18885205686092377, 0.28501591086387634, 0.2884501814842224]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.7769439816474915</v>
+        <v>0.693720817565918</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.7986927999882028</v>
+        <v>0.749727400005213</v>
       </c>
       <c r="J101" t="n">
-        <v>0.007195430630524349</v>
+        <v>0.006754300900947864</v>
       </c>
     </row>
     <row r="102">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[0.13007453083992004, 0.11553936451673508, 0.11897753924131393, 0.1189654991030693, 0.3089636266231537, 0.33680349588394165, 0.2991431951522827, 0.1603906899690628, 0.12402524799108505, 0.11666882783174515, 0.12068292498588562, 0.12873828411102295, 0.09909109026193619, 0.16016213595867157, 0.18837319314479828, 0.3012629747390747, 0.09920702129602432, 0.16454488039016724, 0.17085322737693787, 0.1758137196302414, 0.22115196287631989, 0.20098957419395447, 0.1864081174135208, 0.17798618972301483, 0.12948782742023468, 0.41607269644737244, 0.6635615229606628, 0.7287933230400085, 0.5031501650810242, 0.6379404664039612, 0.5841223001480103, 0.688921332359314, 0.780742347240448, 0.7564313411712646, 0.9224436283111572, 0.913823664188385, 0.9105859994888306, 0.8975991606712341, 0.874427318572998, 0.8410178422927856, 0.8802209496498108, 0.8410821557044983, 0.8711296319961548, 0.76732337474823, 0.7000633478164673, 0.682797908782959, 0.8698768615722656, 0.8405023217201233, 0.8510637879371643, 0.8325877785682678, 0.8072940111160278, 0.8395857810974121, 0.8791333436965942, 0.8271399140357971, 0.7416585683822632, 0.7227604389190674, 0.7077011466026306, 0.553420901298523, 0.7182739973068237, 0.7056782245635986, 0.7086464762687683, 0.5693432688713074, 0.7724303007125854, 0.760532796382904, 0.9311954379081726, 0.9082778692245483, 0.9250930547714233, 0.9276632070541382, 0.9276812672615051, 0.9433115124702454, 0.9633097052574158, 0.9609465599060059, 0.9528128504753113, 0.9397737979888916, 0.9417583346366882, 0.958642840385437, 0.9561368227005005, 0.9583410024642944, 0.9562845230102539, 0.9486300945281982, 0.9449485540390015, 0.934557318687439, 0.9476278424263, 0.9405091404914856, 0.9240046143531799, 0.958315908908844, 0.9449427127838135, 0.9464264512062073, 0.8997962474822998, 0.9461117386817932, 0.9416161775588989, 0.8319851160049438, 0.7752923369407654, 0.5997359752655029, 0.23490701615810394, 0.25566408038139343, 0.18735089898109436, 0.24318824708461761, 0.25753241777420044, 0.2705657482147217, 0.23707792162895203, 0.34117329120635986, 0.3765724003314972, 0.41266506910324097, 0.38086971640586853, 0.4213721454143524, 0.231775164604187, 0.2720332741737366, 0.1865566521883011, 0.18668578565120697]</t>
+          <t>[0.08408421277999878, 0.049534913152456284, 0.06555767357349396, 0.06760125607252121, 0.4581992030143738, 0.6057263016700745, 0.5253878831863403, 0.13573326170444489, 0.08515489101409912, 0.06769146025180817, 0.09747414290904999, 0.11434522271156311, 0.05582235008478165, 0.1200503557920456, 0.10597636550664902, 0.22313301265239716, 0.03893784061074257, 0.04176047071814537, 0.051246609538793564, 0.0878836140036583, 0.11068379878997803, 0.13143694400787354, 0.15221737325191498, 0.18868237733840942, 0.09919589757919312, 0.46927130222320557, 0.7901101112365723, 0.8650112152099609, 0.6868801712989807, 0.8165104389190674, 0.7439367771148682, 0.7775388956069946, 0.9072589874267578, 0.8620657920837402, 0.967452883720398, 0.9747539758682251, 0.972719132900238, 0.9549233317375183, 0.9576613903045654, 0.9333422183990479, 0.9643754363059998, 0.9546316266059875, 0.9678551554679871, 0.898451566696167, 0.8287113904953003, 0.8295982480049133, 0.9548547267913818, 0.9473281502723694, 0.95305997133255, 0.9548327922821045, 0.9495707750320435, 0.9613953232765198, 0.9744117856025696, 0.954321026802063, 0.9017941355705261, 0.9216668605804443, 0.9274978637695312, 0.8512500524520874, 0.8650736808776855, 0.8633120656013489, 0.8413443565368652, 0.6985136270523071, 0.9048347473144531, 0.8907107710838318, 0.9833598136901855, 0.9726190567016602, 0.9806762933731079, 0.9841662645339966, 0.9807146191596985, 0.9864405989646912, 0.984900712966919, 0.9827961325645447, 0.9766480922698975, 0.9697590470314026, 0.9661606550216675, 0.9777417778968811, 0.9865104556083679, 0.9884875416755676, 0.986933708190918, 0.9856007695198059, 0.9816463589668274, 0.9817855954170227, 0.981115460395813, 0.9791907668113708, 0.9761254191398621, 0.9868717193603516, 0.9833068251609802, 0.9832526445388794, 0.9482148885726929, 0.9815422892570496, 0.9833889603614807, 0.9274951815605164, 0.9036768674850464, 0.8424968719482422, 0.37430158257484436, 0.3360421657562256, 0.22719767689704895, 0.44964805245399475, 0.4673388600349426, 0.4566991925239563, 0.32534685730934143, 0.40995773673057556, 0.4032498896121979, 0.5984672904014587, 0.5624558925628662, 0.6650189757347107, 0.31216689944267273, 0.39451852440834045, 0.1885337382555008, 0.18868303298950195]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9633097052574158</v>
+        <v>0.9884875416755676</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.6269434000132605</v>
+        <v>0.6568847999878926</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005699485454666005</v>
+        <v>0.005971679999889933</v>
       </c>
     </row>
     <row r="103">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.7225033640861511, 0.7911072969436646, 0.8385177850723267, 0.849059522151947, 0.8061750531196594, 0.8893612027168274, 0.756523847579956, 0.7714337110519409, 0.7515440583229065, 0.6044968962669373, 0.6472010016441345, 0.8910391330718994, 0.747397243976593, 0.7550152540206909, 0.8260175585746765, 0.7659940123558044, 0.5408926606178284, 0.5600446462631226, 0.6681036353111267, 0.6834323406219482, 0.6628895998001099, 0.5976073145866394, 0.63573157787323, 0.5381449460983276, 0.470630943775177, 0.5836693644523621, 0.8369347453117371, 0.7849485874176025, 0.8582698702812195, 0.9004287123680115, 0.7811561822891235, 0.663923978805542, 0.8853066563606262, 0.7186011672019958, 0.7216406464576721, 0.7185620069503784, 0.7275559902191162, 0.6432855129241943, 0.864908754825592, 0.8772198557853699, 0.9012648463249207, 0.8632850050926208, 0.854805052280426, 0.8892760872840881, 0.9436807036399841, 0.9511955976486206, 0.9712305665016174, 0.9682715535163879, 0.9753239154815674, 0.9564074873924255, 0.9695526361465454, 0.9720153212547302, 0.9631283283233643, 0.9554968476295471, 0.8678992390632629, 0.8666167259216309, 0.9638540744781494, 0.9529646039009094, 0.9641909599304199, 0.9362936615943909, 0.9270536303520203, 0.9227654933929443, 0.9204108715057373, 0.8949232697486877, 0.9423381090164185, 0.9099506139755249, 0.8542472720146179, 0.8667242527008057, 0.9235721230506897, 0.9203694462776184, 0.8959667682647705, 0.9123333692550659, 0.9133549332618713, 0.907164990901947, 0.9171527028083801, 0.9314672946929932, 0.8774929642677307, 0.8560948371887207, 0.7902604341506958, 0.825000524520874, 0.7668547034263611, 0.7167404890060425, 0.744699239730835, 0.7997116446495056, 0.797804057598114, 0.7904541492462158, 0.8437162041664124, 0.9080391526222229, 0.9042482376098633, 0.9681769013404846, 0.9735952615737915, 0.9706112742424011, 0.9704581499099731, 0.9747733473777771, 0.9724830985069275, 0.9617810249328613, 0.957521915435791, 0.9574213624000549, 0.9835573434829712, 0.9809534549713135, 0.9786908626556396, 0.9480351805686951, 0.8538081049919128, 0.8620736002922058, 0.9193219542503357, 0.9069687128067017, 0.8509854078292847, 0.8897298574447632, 0.8780988454818726, 0.9198257923126221, 0.919610321521759]</t>
+          <t>[0.8264331221580505, 0.8718891143798828, 0.888349711894989, 0.8968257904052734, 0.8492861390113831, 0.8868997097015381, 0.6098854541778564, 0.7141301035881042, 0.769065797328949, 0.7649819254875183, 0.8681584596633911, 0.9812213778495789, 0.9616312980651855, 0.9719537496566772, 0.9800506234169006, 0.9652587175369263, 0.8380140662193298, 0.8151941895484924, 0.8395690321922302, 0.8254091739654541, 0.9029115438461304, 0.8618168234825134, 0.9052795171737671, 0.8284193873405457, 0.7312179207801819, 0.8021565079689026, 0.9134536981582642, 0.9028597474098206, 0.9589357376098633, 0.9843171834945679, 0.9567099809646606, 0.7981401085853577, 0.97409987449646, 0.9090078473091125, 0.8461849689483643, 0.8266368508338928, 0.8888772130012512, 0.803022027015686, 0.9617881178855896, 0.9716625809669495, 0.9794542193412781, 0.9603749513626099, 0.9444522857666016, 0.9595751762390137, 0.984319269657135, 0.9884356260299683, 0.992999792098999, 0.9914954900741577, 0.994337260723114, 0.9873799085617065, 0.9939490556716919, 0.9936386942863464, 0.9916794896125793, 0.9908854365348816, 0.9513760209083557, 0.9463329911231995, 0.9923655390739441, 0.991609513759613, 0.9935861229896545, 0.9841337203979492, 0.9793907403945923, 0.9827744364738464, 0.9888460040092468, 0.9857388734817505, 0.9908918738365173, 0.9882898330688477, 0.9830885529518127, 0.9817700982093811, 0.9818128347396851, 0.9835466146469116, 0.9788282513618469, 0.9830678105354309, 0.9837313890457153, 0.982793927192688, 0.9861845374107361, 0.9865301847457886, 0.9832217693328857, 0.9800107479095459, 0.9704949259757996, 0.9582688808441162, 0.8219048976898193, 0.7892469167709351, 0.7210463881492615, 0.8479418158531189, 0.8457476496696472, 0.8699339628219604, 0.8973297476768494, 0.9657734632492065, 0.9753895998001099, 0.9928376078605652, 0.9934203028678894, 0.9940912127494812, 0.9951444268226624, 0.9946267008781433, 0.9930530190467834, 0.9905934929847717, 0.989382803440094, 0.9901522994041443, 0.9961966276168823, 0.9965751767158508, 0.9965749382972717, 0.9910851120948792, 0.9730748534202576, 0.9711138010025024, 0.9696746468544006, 0.9696463942527771, 0.9484268426895142, 0.9516624808311462, 0.9363508224487305, 0.9683535099029541, 0.9682889580726624]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9835573434829712</v>
+        <v>0.9965751767158508</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.6287987999967299</v>
+        <v>0.64655330000096</v>
       </c>
       <c r="J103" t="n">
-        <v>0.005664854054024594</v>
+        <v>0.005824804504513153</v>
       </c>
     </row>
     <row r="104">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.4191354811191559, 0.37976914644241333, 0.3485206067562103, 0.28296175599098206, 0.28853628039360046, 0.22131645679473877, 0.23403331637382507, 0.20255160331726074, 0.2423097938299179, 0.3267212510108948, 0.2899777293205261, 0.19452999532222748, 0.2669883668422699, 0.21634507179260254, 0.2486841082572937, 0.17110580205917358, 0.13877710700035095, 0.12523359060287476, 0.2754214107990265, 0.2547755539417267, 0.2720496356487274, 0.1813410371541977, 0.19976693391799927, 0.17636755108833313, 0.21583066880702972, 0.19255836308002472, 0.2175208181142807, 0.22428929805755615, 0.1556929647922516, 0.20470279455184937, 0.15723568201065063, 0.19625996053218842, 0.201137974858284, 0.13038094341754913, 0.14612877368927002, 0.1964513063430786, 0.15116609632968903, 0.1733928769826889, 0.16167190670967102, 0.1299121230840683, 0.15058286488056183, 0.20400340855121613, 0.15506801009178162, 0.10228370875120163, 0.11490131914615631, 0.14318419992923737, 0.07638677209615707, 0.1012473851442337, 0.1669400930404663, 0.12754124402999878, 0.15201155841350555, 0.19595980644226074, 0.17505678534507751, 0.18507170677185059, 0.13972888886928558, 0.15998105704784393, 0.22719456255435944, 0.3722732663154602, 0.37121468782424927, 0.353718638420105, 0.20932672917842865, 0.16872969269752502, 0.2804450988769531, 0.24218222498893738, 0.24189433455467224, 0.22462721168994904, 0.41786208748817444, 0.3231540024280548, 0.26643797755241394, 0.19059033691883087, 0.16855788230895996, 0.18016070127487183, 0.1300501972436905, 0.18341051042079926, 0.23229847848415375, 0.17372921109199524, 0.2013820856809616, 0.21887840330600739, 0.1995629072189331, 0.17063985764980316, 0.17779143154621124, 0.3185281455516815, 0.2950431704521179, 0.28057175874710083, 0.2871532738208771, 0.24463824927806854, 0.2489958256483078, 0.27831733226776123, 0.25906902551651, 0.16207493841648102, 0.40743616223335266, 0.2067403346300125, 0.2993810772895813, 0.2654561400413513, 0.19023318588733673, 0.15855444967746735, 0.16509859263896942, 0.16381296515464783, 0.12360396981239319, 0.12081467360258102, 0.10186303406953812, 0.1278543919324875, 0.17308932542800903, 0.1538570076227188, 0.20127534866333008, 0.2043335735797882, 0.22958670556545258, 0.18968001008033752, 0.13943277299404144, 0.09778255224227905, 0.09739875793457031]</t>
+          <t>[0.6578271389007568, 0.4872300624847412, 0.44938287138938904, 0.31619036197662354, 0.295421838760376, 0.19319051504135132, 0.2672729194164276, 0.22823873162269592, 0.26426374912261963, 0.44472864270210266, 0.4335101544857025, 0.19852890074253082, 0.27310702204704285, 0.16884934902191162, 0.2274332344532013, 0.14946065843105316, 0.15348513424396515, 0.15549887716770172, 0.3769376575946808, 0.31558874249458313, 0.2599794566631317, 0.18426983058452606, 0.27477601170539856, 0.28125402331352234, 0.3159320056438446, 0.24269787967205048, 0.24172112345695496, 0.2475871443748474, 0.16871631145477295, 0.21112045645713806, 0.13034884631633759, 0.2603369355201721, 0.23766694962978363, 0.1369217336177826, 0.1429900825023651, 0.19015976786613464, 0.1431022435426712, 0.1755913645029068, 0.14778953790664673, 0.10049787908792496, 0.13120993971824646, 0.18753211200237274, 0.10911805927753448, 0.0935085117816925, 0.08837107568979263, 0.11877822875976562, 0.06332410126924515, 0.09446485340595245, 0.12316763401031494, 0.09432701766490936, 0.11109967529773712, 0.11010178178548813, 0.12325114756822586, 0.16695909202098846, 0.12957704067230225, 0.18486137688159943, 0.2209368646144867, 0.34614524245262146, 0.3954416513442993, 0.33550581336021423, 0.2164546251296997, 0.15246257185935974, 0.2678268253803253, 0.25843945145606995, 0.27911698818206787, 0.2490876168012619, 0.3988313674926758, 0.3395519256591797, 0.2241733968257904, 0.1678999960422516, 0.15780200064182281, 0.14884816110134125, 0.1451021134853363, 0.2576366066932678, 0.2705537676811218, 0.20236238837242126, 0.24702228605747223, 0.2628254294395447, 0.21206045150756836, 0.18934178352355957, 0.2042393982410431, 0.3821796774864197, 0.36730706691741943, 0.31024953722953796, 0.2919105589389801, 0.2556966543197632, 0.23888421058654785, 0.3223136365413666, 0.33128222823143005, 0.17222067713737488, 0.5144632458686829, 0.2842484712600708, 0.3889065086841583, 0.38137760758399963, 0.18478119373321533, 0.1464882642030716, 0.17022904753684998, 0.1486421823501587, 0.10703597962856293, 0.13375608623027802, 0.0990631952881813, 0.11181429028511047, 0.18115220963954926, 0.1652022749185562, 0.2296319305896759, 0.23354372382164001, 0.2552932798862457, 0.2170095443725586, 0.14099560678005219, 0.0907217487692833, 0.09051349759101868]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.4191354811191559</v>
+        <v>0.6578271389007568</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.621997599984752</v>
+        <v>0.6636558000027435</v>
       </c>
       <c r="J104" t="n">
-        <v>0.005603581981844612</v>
+        <v>0.005978881081105798</v>
       </c>
     </row>
     <row r="105">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[0.4274580180644989, 0.5444086194038391, 0.5631185173988342, 0.5400589108467102, 0.7311979532241821, 0.6780412793159485, 0.7722039222717285, 0.779792308807373, 0.5935038924217224, 0.5982603430747986, 0.8769307136535645, 0.8629084825515747, 0.8755401372909546, 0.9317575693130493, 0.9142833352088928, 0.9059045314788818, 0.5634167194366455, 0.579049825668335, 0.39935585856437683, 0.5349611043930054, 0.5464251637458801, 0.704317033290863, 0.7731658816337585, 0.8495191931724548, 0.8205402493476868, 0.9009379744529724, 0.8475518226623535, 0.8469599485397339, 0.8475056886672974, 0.7946662306785583, 0.8034387826919556, 0.8972571492195129, 0.8683401942253113, 0.8805108070373535, 0.9473866820335388, 0.8950179219245911, 0.7966205477714539, 0.9119200110435486, 0.9116138815879822, 0.9024026989936829, 0.9130575656890869, 0.8904443383216858, 0.8945420384407043, 0.9446909427642822, 0.9411989450454712, 0.9311882853507996, 0.8770604729652405, 0.8101835250854492, 0.8186308741569519, 0.8537933230400085, 0.8576030135154724, 0.8617839217185974, 0.8436542749404907, 0.7960140705108643, 0.6893638372421265, 0.8841570615768433, 0.8786816000938416, 0.8913560509681702, 0.8619066476821899, 0.909996509552002, 0.937106192111969, 0.9618762135505676, 0.9712166786193848, 0.9607932567596436, 0.9395855069160461, 0.9551243782043457, 0.9359320998191833, 0.9703398942947388, 0.9616032242774963, 0.9724606275558472, 0.9188430309295654, 0.8652766346931458, 0.8598619699478149, 0.7348248958587646, 0.7726317644119263, 0.7358673810958862, 0.9382082223892212, 0.932579517364502, 0.9506551623344421, 0.9026204943656921, 0.8745519518852234, 0.9201520681381226, 0.9172084927558899, 0.9014708399772644, 0.9246639609336853, 0.9626772403717041, 0.9561536908149719, 0.9549503922462463, 0.9258052110671997, 0.9285522699356079, 0.9111759066581726, 0.9265946745872498, 0.9473281502723694, 0.9513525366783142, 0.9622302651405334, 0.9544849991798401, 0.9396314024925232, 0.9047816395759583, 0.9164554476737976, 0.9051839113235474, 0.9399207830429077, 0.9467598795890808, 0.956481397151947, 0.9237964749336243, 0.9221664667129517, 0.9197906851768494, 0.8759633898735046, 0.8539267778396606, 0.786718487739563, 0.8845087289810181, 0.8847432136535645]</t>
+          <t>[0.5940217971801758, 0.7287331819534302, 0.7279214859008789, 0.7410695552825928, 0.8858439326286316, 0.860926628112793, 0.8943877816200256, 0.897514820098877, 0.8548386096954346, 0.8774169683456421, 0.9869539141654968, 0.9874275922775269, 0.987123966217041, 0.9912142753601074, 0.9816960096359253, 0.9857672452926636, 0.8213072419166565, 0.8184162974357605, 0.5803971886634827, 0.7984530329704285, 0.7837332487106323, 0.8876882791519165, 0.8562564253807068, 0.8203319907188416, 0.7376857399940491, 0.9533518552780151, 0.9232317209243774, 0.9152568578720093, 0.9127423763275146, 0.8569215536117554, 0.8474106788635254, 0.9610235095024109, 0.9350140690803528, 0.946222722530365, 0.9911537766456604, 0.9750094413757324, 0.9189156293869019, 0.9373174905776978, 0.9045435190200806, 0.8828375935554504, 0.9440834522247314, 0.8857746124267578, 0.9270201325416565, 0.9853128790855408, 0.986664891242981, 0.9843570590019226, 0.9451444745063782, 0.8892803192138672, 0.910314679145813, 0.9206003546714783, 0.9292786121368408, 0.9406803250312805, 0.9398844838142395, 0.8839263916015625, 0.8410859107971191, 0.9520503282546997, 0.9462364912033081, 0.9535302519798279, 0.9609737396240234, 0.9802405834197998, 0.9881666302680969, 0.9947806000709534, 0.9967620372772217, 0.9943722486495972, 0.980103075504303, 0.9894715547561646, 0.9825031757354736, 0.9930115342140198, 0.9880181550979614, 0.9935237169265747, 0.9760242104530334, 0.9612751603126526, 0.9465693235397339, 0.919876217842102, 0.9307172894477844, 0.9208003282546997, 0.9788897037506104, 0.9608170390129089, 0.9553818702697754, 0.9344061613082886, 0.883036732673645, 0.9589588642120361, 0.9376482367515564, 0.9414570331573486, 0.9764442443847656, 0.9944685697555542, 0.9921430349349976, 0.9882693290710449, 0.9655360579490662, 0.9658344984054565, 0.9441823363304138, 0.9272276163101196, 0.9570071697235107, 0.9580280780792236, 0.9856956601142883, 0.9812437891960144, 0.9633392691612244, 0.9392176866531372, 0.9684154391288757, 0.9615843296051025, 0.9851614236831665, 0.9881333708763123, 0.9892358183860779, 0.9519028663635254, 0.9736478328704834, 0.9772834181785583, 0.9706780910491943, 0.9705049395561218, 0.9367213845252991, 0.9613664746284485, 0.9615008234977722]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9724606275558472</v>
+        <v>0.9967620372772217</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.6389095000049565</v>
+        <v>0.6753247999877203</v>
       </c>
       <c r="J105" t="n">
-        <v>0.005755941441486095</v>
+        <v>0.006084007207096579</v>
       </c>
     </row>
     <row r="106">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.5643596053123474, 0.47395920753479004, 0.6210642457008362, 0.8303272724151611, 0.8673014640808105, 0.7905307412147522, 0.8186140060424805, 0.6876787543296814, 0.5508508086204529, 0.6696862578392029, 0.5619052052497864, 0.4641996920108795, 0.6597593426704407, 0.5823106169700623, 0.517370343208313, 0.4447941482067108, 0.46871984004974365, 0.585722029209137, 0.4976896047592163, 0.46559441089630127, 0.46300700306892395, 0.5545065402984619, 0.5721145272254944, 0.5251650214195251, 0.5727496147155762, 0.6761860847473145, 0.7874513864517212, 0.6378493309020996, 0.7415648698806763, 0.7004463076591492, 0.6661776900291443, 0.6408793330192566, 0.6711414456367493, 0.6814855337142944, 0.5469308495521545, 0.632871150970459, 0.5963447690010071, 0.7545604705810547, 0.6944124102592468, 0.6961367130279541, 0.6029080152511597, 0.7298797965049744, 0.5365120768547058, 0.5266213417053223, 0.5219510197639465, 0.5694526433944702, 0.7103011608123779, 0.689490020275116, 0.5088594555854797, 0.6156135201454163, 0.6728236675262451, 0.6960911750793457, 0.6737250089645386, 0.7466727495193481, 0.7409586310386658, 0.9550260901451111, 0.9947385191917419, 0.9977362155914307, 0.9960227012634277, 0.9973902106285095, 0.9974638223648071, 0.9959968328475952, 0.9938594698905945, 0.9859505295753479, 0.9710978269577026, 0.7110897898674011, 0.8042563199996948, 0.9275660514831543, 0.9789895415306091, 0.9937228560447693, 0.9962969422340393, 0.9968541264533997, 0.9959713816642761, 0.9917467832565308, 0.9943886399269104, 0.9934147596359253, 0.9921453595161438, 0.985535740852356, 0.96588134765625, 0.9011312127113342, 0.8049868941307068, 0.8873177766799927, 0.9423527121543884, 0.9101682901382446, 0.8824077248573303, 0.8565149307250977, 0.9185037016868591, 0.8455029129981995, 0.8072504997253418, 0.6709414124488831, 0.7481303811073303, 0.8032037615776062, 0.6126444935798645, 0.4771830439567566, 0.6654527187347412, 0.6528744697570801, 0.7389585971832275, 0.8097642064094543, 0.8823140859603882, 0.8954402804374695, 0.8944883346557617, 0.768740713596344, 0.7470934987068176, 0.8867198824882507, 0.9701334238052368, 0.950922966003418, 0.7618120312690735, 0.8709333539009094, 0.6450561881065369, 0.6840101480484009, 0.7102819681167603, 0.6174761056900024, 0.6882759928703308, 0.5775862336158752, 0.4923562705516815, 0.5214290618896484, 0.5685068368911743, 0.6169838905334473, 0.5630465149879456, 0.5825797915458679, 0.72630375623703, 0.7201311588287354, 0.6345505118370056, 0.6515852808952332, 0.8362681865692139, 0.9450134038925171, 0.9627571702003479, 0.9899047017097473, 0.9949674010276794, 0.991094172000885, 0.9883855581283569, 0.9874657988548279, 0.9863569736480713, 0.973219633102417, 0.9635329246520996, 0.9729934930801392, 0.9900684952735901, 0.9879540205001831, 0.9898959398269653, 0.9704477787017822, 0.9781938791275024, 0.9569951295852661, 0.9729074835777283, 0.9704114198684692, 0.975064218044281, 0.9537203907966614, 0.8702005743980408, 0.8536246418952942, 0.9283590912818909, 0.9718589186668396, 0.9901471734046936, 0.9850279092788696, 0.967737078666687, 0.9649161696434021, 0.9489794373512268, 0.9296410083770752, 0.8939905166625977, 0.8940010070800781]</t>
+          <t>[0.49081817269325256, 0.3709697723388672, 0.522152304649353, 0.7740269303321838, 0.8152050375938416, 0.6163983941078186, 0.7468028664588928, 0.47665461897850037, 0.42202040553092957, 0.5582166910171509, 0.458941251039505, 0.3091143071651459, 0.525680661201477, 0.36849504709243774, 0.32997533679008484, 0.3031439781188965, 0.22578215599060059, 0.34812211990356445, 0.34828391671180725, 0.373220831155777, 0.38020825386047363, 0.4538111984729767, 0.5035097599029541, 0.43734827637672424, 0.38877570629119873, 0.5901451706886292, 0.7890661954879761, 0.55386883020401, 0.6112771034240723, 0.5385162830352783, 0.5038985013961792, 0.5011166930198669, 0.5510647296905518, 0.5468787550926208, 0.4268395006656647, 0.502568244934082, 0.42710959911346436, 0.7303023934364319, 0.5998305678367615, 0.5888769030570984, 0.5455701351165771, 0.7377979755401611, 0.4872567057609558, 0.4137663245201111, 0.4784572422504425, 0.4996717572212219, 0.5864530205726624, 0.5050919055938721, 0.2870919108390808, 0.35175466537475586, 0.4359310269355774, 0.49653467535972595, 0.5199720859527588, 0.5240097045898438, 0.5564682483673096, 0.9474318623542786, 0.9983242154121399, 0.9994001388549805, 0.9973458647727966, 0.9991132616996765, 0.9992419481277466, 0.9980687499046326, 0.9946740865707397, 0.9787639379501343, 0.9337040185928345, 0.5357922911643982, 0.6944367289543152, 0.8753271102905273, 0.9691940546035767, 0.9954142570495605, 0.9978680610656738, 0.9988932013511658, 0.9982417821884155, 0.9944596290588379, 0.9956186413764954, 0.9940302968025208, 0.9902017712593079, 0.9875344038009644, 0.9584854245185852, 0.898934543132782, 0.8029642701148987, 0.8752549290657043, 0.9608221650123596, 0.9239055514335632, 0.8738130331039429, 0.8473885655403137, 0.951951265335083, 0.8438717126846313, 0.7852059006690979, 0.5991067886352539, 0.6711130142211914, 0.6831936240196228, 0.40592917799949646, 0.24388158321380615, 0.4323490858078003, 0.4432760775089264, 0.5873754620552063, 0.8189946413040161, 0.8953834176063538, 0.879472553730011, 0.839770495891571, 0.696090579032898, 0.6263812780380249, 0.8833889961242676, 0.9864750504493713, 0.9718649983406067, 0.7111434936523438, 0.8906335830688477, 0.5765612721443176, 0.6247230768203735, 0.6681877374649048, 0.5422282814979553, 0.403555691242218, 0.2789982557296753, 0.20968757569789886, 0.26413536071777344, 0.3886147439479828, 0.4331056773662567, 0.37835487723350525, 0.37150564789772034, 0.5781874060630798, 0.4781063497066498, 0.3140646517276764, 0.37158092856407166, 0.647794246673584, 0.9307540655136108, 0.9761137962341309, 0.9966604709625244, 0.9983249306678772, 0.9961525797843933, 0.9966712594032288, 0.9969525337219238, 0.9961493015289307, 0.9934332370758057, 0.9878843426704407, 0.9904823303222656, 0.9956814050674438, 0.9964283108711243, 0.9977008700370789, 0.990073561668396, 0.992580235004425, 0.9833073616027832, 0.9932397603988647, 0.9787980914115906, 0.9832490682601929, 0.9699353575706482, 0.9347836971282959, 0.8877348899841309, 0.9660734534263611, 0.9922932386398315, 0.9970064759254456, 0.9957208037376404, 0.9921293258666992, 0.9942366480827332, 0.9945573806762695, 0.9870859980583191, 0.9883595705032349, 0.9883970618247986]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9977362155914307</v>
+        <v>0.9994001388549805</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.8675395000027493</v>
+        <v>0.9639210000023013</v>
       </c>
       <c r="J106" t="n">
-        <v>0.005490756329131324</v>
+        <v>0.006100765822799376</v>
       </c>
     </row>
     <row r="107">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[0.3229941725730896, 0.258193701505661, 0.28038403391838074, 0.3529330790042877, 0.34583115577697754, 0.4278440773487091, 0.40687331557273865, 0.20638471841812134, 0.15008923411369324, 0.18999242782592773, 0.24910283088684082, 0.2597622871398926, 0.192839577794075, 0.335270494222641, 0.42234817147254944, 0.22579661011695862, 0.1588607132434845, 0.11510541290044785, 0.11941288411617279, 0.1421857625246048, 0.09975148737430573, 0.11648692935705185, 0.1837129145860672, 0.1662524789571762, 0.17660613358020782, 0.17926988005638123, 0.1735757738351822, 0.16544963419437408, 0.169210746884346, 0.23516404628753662, 0.20952963829040527, 0.14703162014484406, 0.38837260007858276, 0.4191334545612335, 0.4788663983345032, 0.259408563375473, 0.35652127861976624, 0.278099924325943, 0.39521098136901855, 0.4375934600830078, 0.273844838142395, 0.25226113200187683, 0.4835435450077057, 0.3077632188796997, 0.25442641973495483, 0.23966720700263977, 0.19640947878360748, 0.2233641892671585, 0.1916944831609726, 0.21596001088619232, 0.21774090826511383, 0.2762226462364197, 0.3016813397407532, 0.2755725681781769, 0.16205346584320068, 0.17525535821914673, 0.17481154203414917, 0.1823624223470688, 0.2368973344564438, 0.2322050929069519, 0.1945600062608719, 0.3427145183086395, 0.35721465945243835, 0.34087520837783813, 0.331688791513443, 0.42285865545272827, 0.4105193018913269, 0.32866421341896057, 0.24088358879089355, 0.33850571513175964, 0.34388357400894165, 0.4452076852321625, 0.4856167733669281, 0.3613366186618805, 0.28458866477012634, 0.3021700084209442, 0.15283086895942688, 0.2163463979959488, 0.1759238988161087, 0.23159316182136536, 0.18013669550418854, 0.21185462176799774, 0.23509658873081207, 0.25914809107780457, 0.2619800865650177, 0.18709568679332733, 0.1464969366788864, 0.27038267254829407, 0.22287237644195557, 0.39598548412323, 0.5857208371162415, 0.5037708878517151, 0.5261207818984985, 0.4179922938346863, 0.39212971925735474, 0.3969215452671051, 0.3071017563343048, 0.274183452129364, 0.15687093138694763, 0.15346558392047882, 0.1565295159816742, 0.14456436038017273, 0.1899724006652832, 0.2031537890434265, 0.146793395280838, 0.12038905918598175, 0.17907148599624634, 0.18402327597141266, 0.15857648849487305, 0.2065461277961731, 0.19401635229587555, 0.1979367434978485, 0.19065067172050476, 0.31475090980529785, 0.27684465050697327, 0.25644052028656006, 0.29056742787361145, 0.25049149990081787, 0.22621910274028778, 0.21469280123710632, 0.2799704968929291, 0.3544856607913971, 0.25969335436820984, 0.24660742282867432, 0.2255563884973526, 0.1664203703403473, 0.1814059317111969, 0.2167368084192276, 0.31706252694129944, 0.2405594140291214, 0.31849217414855957, 0.18948043882846832, 0.19953244924545288, 0.4048331379890442, 0.3682821989059448, 0.2598452866077423, 0.10652527958154678, 0.17069976031780243, 0.14573688805103302, 0.11512916535139084, 0.09873920679092407, 0.10848219692707062, 0.11964225769042969, 0.15127772092819214, 0.10961547493934631, 0.1026148647069931, 0.06142731383442879, 0.08656279742717743, 0.19721397757530212, 0.2955135107040405, 0.36365848779678345, 0.1900281310081482, 0.13867387175559998, 0.20034296810626984, 0.11269772052764893, 0.11079184710979462, 0.2081993669271469, 0.18624719977378845, 0.1492338627576828, 0.09440279006958008, 0.12243735790252686, 0.14059080183506012, 0.17049458622932434, 0.26748090982437134, 0.2666628062725067, 0.08091286569833755, 0.07658277451992035, 0.12683957815170288, 0.14951489865779877, 0.15064699947834015, 0.1952080875635147, 0.15710881352424622, 0.260812371969223, 0.4461325705051422, 0.46590858697891235, 0.2477809488773346, 0.19061468541622162, 0.13585683703422546, 0.116543248295784, 0.1326928287744522, 0.14512629806995392, 0.1454295665025711]</t>
+          <t>[0.22847120463848114, 0.16459505259990692, 0.185172438621521, 0.21144919097423553, 0.23529326915740967, 0.3603284955024719, 0.28084492683410645, 0.12466073781251907, 0.08621473610401154, 0.10946628451347351, 0.14515268802642822, 0.16085883975028992, 0.12506645917892456, 0.20101380348205566, 0.3337554931640625, 0.18749330937862396, 0.11834447085857391, 0.06900092959403992, 0.06280308216810226, 0.07975717633962631, 0.0607411228120327, 0.09118617326021194, 0.14620456099510193, 0.1579241007566452, 0.14098459482192993, 0.12515930831432343, 0.11368165165185928, 0.10640060901641846, 0.10378120094537735, 0.24072006344795227, 0.15343958139419556, 0.09596213698387146, 0.2645529508590698, 0.29004967212677, 0.4103970229625702, 0.3750004172325134, 0.3371908664703369, 0.2638748288154602, 0.4672003388404846, 0.2952556014060974, 0.1283026784658432, 0.15504920482635498, 0.3458373248577118, 0.19929620623588562, 0.1812262088060379, 0.12067706882953644, 0.1360069215297699, 0.15435369312763214, 0.11909481883049011, 0.12848025560379028, 0.11720886826515198, 0.21348144114017487, 0.22397567331790924, 0.23905639350414276, 0.10265851765871048, 0.15177704393863678, 0.14735104143619537, 0.19372448325157166, 0.21919146180152893, 0.20405758917331696, 0.14778165519237518, 0.34956327080726624, 0.39305970072746277, 0.42597696185112, 0.3452426791191101, 0.5395691990852356, 0.36582356691360474, 0.2777075469493866, 0.20218798518180847, 0.3067226707935333, 0.3532687723636627, 0.47137585282325745, 0.5648400783538818, 0.3998063802719116, 0.22398000955581665, 0.296726793050766, 0.10999546945095062, 0.18965555727481842, 0.14594915509223938, 0.12507879734039307, 0.0697852373123169, 0.08695051074028015, 0.08647909760475159, 0.10847248136997223, 0.1291200816631317, 0.08661474287509918, 0.06506095081567764, 0.15008139610290527, 0.13097767531871796, 0.4213675856590271, 0.8061084747314453, 0.6538217663764954, 0.6320664882659912, 0.4186677038669586, 0.3365476131439209, 0.3381305932998657, 0.18301649391651154, 0.21472865343093872, 0.09705381840467453, 0.10899204015731812, 0.10650141537189484, 0.10289372503757477, 0.131373792886734, 0.1871076077222824, 0.07373841851949692, 0.06899566203355789, 0.11425277590751648, 0.12566164135932922, 0.07816929370164871, 0.12238052487373352, 0.11726405471563339, 0.12099863588809967, 0.11153038591146469, 0.17794208228588104, 0.1834256798028946, 0.1702292561531067, 0.14858397841453552, 0.15596835315227509, 0.15733987092971802, 0.19786326587200165, 0.2721148431301117, 0.34502771496772766, 0.21253575384616852, 0.1468866765499115, 0.12173549830913544, 0.08544865995645523, 0.08181237429380417, 0.07726824283599854, 0.1399109661579132, 0.13413137197494507, 0.21592004597187042, 0.0732952207326889, 0.08970008045434952, 0.2916223406791687, 0.2594640254974365, 0.2292659431695938, 0.0821702852845192, 0.10825745761394501, 0.12899616360664368, 0.12146241217851639, 0.0627341940999031, 0.06008576229214668, 0.09214754402637482, 0.11616750806570053, 0.07926273345947266, 0.06926371902227402, 0.041333701461553574, 0.07525554299354553, 0.1243085190653801, 0.17801155149936676, 0.24281595647335052, 0.17104572057724, 0.07495445013046265, 0.12232593446969986, 0.08415026217699051, 0.080506831407547, 0.1420728862285614, 0.1501707136631012, 0.08946087211370468, 0.053477056324481964, 0.08773565292358398, 0.08819480240345001, 0.10791436582803726, 0.2212194949388504, 0.3135772943496704, 0.059074971824884415, 0.05006881430745125, 0.055749472230672836, 0.05348248407244682, 0.07251084595918655, 0.09840868413448334, 0.06541823595762253, 0.11115109920501709, 0.224619060754776, 0.21645067632198334, 0.09695595502853394, 0.06795227527618408, 0.050715383142232895, 0.0512998066842556, 0.05792118236422539, 0.0428471714258194, 0.04315830022096634]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.5857208371162415</v>
+        <v>0.8061084747314453</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.9784419999923557</v>
+        <v>0.9908011000079568</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005376054945012944</v>
+        <v>0.005443962087955807</v>
       </c>
     </row>
     <row r="108">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[0.18349593877792358, 0.23896923661231995, 0.23369359970092773, 0.3138726055622101, 0.33838310837745667, 0.22530561685562134, 0.18662670254707336, 0.22085638344287872, 0.28825095295906067, 0.22929538786411285, 0.18861445784568787, 0.15433542430400848, 0.11963293701410294, 0.15452049672603607, 0.1038578674197197, 0.15776604413986206, 0.1384233683347702, 0.09696140140295029, 0.13498486578464508, 0.12759284675121307, 0.18391847610473633, 0.14843054115772247, 0.23535366356372833, 0.32403257489204407, 0.2888571321964264, 0.29672208428382874, 0.2342207133769989, 0.17872552573680878, 0.17331057786941528, 0.198100745677948, 0.23708564043045044, 0.21467188000679016, 0.2571878433227539, 0.41746440529823303, 0.3570326566696167, 0.3851199150085449, 0.34624773263931274, 0.3794832229614258, 0.15952275693416595, 0.1781070977449417, 0.23245200514793396, 0.2229621261358261, 0.20347490906715393, 0.20791040360927582, 0.2219226062297821, 0.26774361729621887, 0.2838030159473419, 0.40054401755332947, 0.2917264699935913, 0.3570505678653717, 0.29133883118629456, 0.3170824944972992, 0.24228797852993011, 0.17759592831134796, 0.21058408915996552, 0.226542130112648, 0.18931828439235687, 0.19988101720809937, 0.16345186531543732, 0.12523332238197327, 0.14872175455093384, 0.13708797097206116, 0.12629897892475128, 0.13434353470802307, 0.2410287857055664, 0.22159193456172943, 0.16624541580677032, 0.1075587123632431, 0.08794011175632477, 0.07961951941251755, 0.11040554195642471, 0.10248950868844986, 0.12029636651277542, 0.13984966278076172, 0.11106967180967331, 0.12225622683763504, 0.1209147721529007, 0.14299052953720093, 0.11910920590162277, 0.10629789531230927, 0.12697958946228027, 0.11718694120645523, 0.1321669965982437, 0.11295183002948761, 0.10104268044233322, 0.07929721474647522, 0.10538746416568756, 0.1745985895395279, 0.1509174108505249, 0.12817643582820892, 0.13862764835357666, 0.13156971335411072, 0.11011943966150284, 0.12893204391002655, 0.14526650309562683, 0.18003971874713898, 0.21042074263095856, 0.23361322283744812, 0.2679399847984314, 0.3078628182411194, 0.32254043221473694, 0.27246591448783875, 0.2943216860294342, 0.2089877426624298, 0.33425408601760864, 0.2522639334201813, 0.2970912456512451, 0.3551802337169647, 0.5664739012718201, 0.5560950636863708, 0.4693359136581421, 0.2718222141265869, 0.17413429915905, 0.295149564743042, 0.45810163021087646, 0.349281907081604, 0.2575373351573944, 0.24832621216773987, 0.4163634181022644, 0.4136260151863098, 0.25062063336372375, 0.396914541721344, 0.4718853235244751, 0.4457845389842987, 0.4484025835990906, 0.632591187953949, 0.31363436579704285, 0.5018682479858398, 0.3661596179008484, 0.3865467607975006, 0.3905857801437378, 0.4554544687271118, 0.5090619325637817, 0.4293483793735504, 0.5205363035202026, 0.3834722340106964, 0.3434722423553467, 0.2814074158668518, 0.30813851952552795, 0.1826086938381195, 0.18166537582874298, 0.24583056569099426, 0.3350536525249481, 0.2596011161804199, 0.32412275671958923, 0.2224394977092743, 0.18207265436649323, 0.2805432677268982, 0.24093754589557648, 0.14816784858703613, 0.08144018054008484, 0.09367047250270844, 0.1366184651851654, 0.1645367592573166, 0.13876548409461975, 0.41054531931877136, 0.40037164092063904, 0.31457608938217163, 0.3579549193382263, 0.4327678680419922, 0.4141030013561249, 0.49158725142478943, 0.6208578944206238, 0.5930253267288208, 0.6626174449920654, 0.8085496425628662, 0.5082272291183472, 0.3071107268333435, 0.3220408856868744, 0.29404589533805847, 0.34714075922966003, 0.2814624309539795, 0.29234111309051514, 0.5584098696708679, 0.3994726836681366, 0.38416266441345215, 0.43553876876831055, 0.3837343454360962, 0.33551275730133057, 0.3589666485786438, 0.3595227599143982]</t>
+          <t>[0.08675593882799149, 0.07981313019990921, 0.08680969476699829, 0.13763369619846344, 0.17093580961227417, 0.0959133580327034, 0.0704648420214653, 0.0842067301273346, 0.13333944976329803, 0.09662728756666183, 0.07675454020500183, 0.0673765167593956, 0.05217885598540306, 0.06067574769258499, 0.034305427223443985, 0.053544193506240845, 0.08211524039506912, 0.05106973648071289, 0.05664627254009247, 0.06260193139314651, 0.08269470185041428, 0.06911774724721909, 0.12129688262939453, 0.1839931160211563, 0.12921682000160217, 0.16276583075523376, 0.08996789902448654, 0.0823158249258995, 0.07136092334985733, 0.07138404250144958, 0.08207253366708755, 0.10397408157587051, 0.10977359861135483, 0.2580585479736328, 0.14911483228206635, 0.15240052342414856, 0.12975497543811798, 0.16080252826213837, 0.05884217098355293, 0.06055401638150215, 0.08856480568647385, 0.07106334716081619, 0.06325846165418625, 0.08689796924591064, 0.07520516961812973, 0.08321128040552139, 0.10684335231781006, 0.20204852521419525, 0.15966559946537018, 0.22097349166870117, 0.1492590457201004, 0.19816532731056213, 0.14696061611175537, 0.11079888045787811, 0.08985372632741928, 0.1029386892914772, 0.09260093420743942, 0.08301568031311035, 0.07184042036533356, 0.05737881734967232, 0.062259748578071594, 0.06972591578960419, 0.062362734228372574, 0.045521900057792664, 0.09408845007419586, 0.09753118455410004, 0.07338381558656693, 0.04255986213684082, 0.03619135543704033, 0.028469247743487358, 0.03849309682846069, 0.03993769735097885, 0.046352557837963104, 0.051390890032052994, 0.040660109370946884, 0.04507889598608017, 0.05851217359304428, 0.07661233097314835, 0.057118166238069534, 0.04995952546596527, 0.04910781607031822, 0.05917118862271309, 0.10200551152229309, 0.06116991862654686, 0.050067950040102005, 0.03868679329752922, 0.06027103587985039, 0.07884738594293594, 0.07662993669509888, 0.07552395761013031, 0.0730009451508522, 0.06919533014297485, 0.05237794294953346, 0.07051552832126617, 0.07169181853532791, 0.09160594642162323, 0.12430340051651001, 0.12533818185329437, 0.15523558855056763, 0.2091272920370102, 0.22885732352733612, 0.13723988831043243, 0.12698903679847717, 0.05943501740694046, 0.11891590058803558, 0.11698480695486069, 0.1845201998949051, 0.23671585321426392, 0.4813210964202881, 0.4668993353843689, 0.3706649839878082, 0.12067148089408875, 0.08793118596076965, 0.22761815786361694, 0.38345077633857727, 0.28092095255851746, 0.1865798383951187, 0.17848633229732513, 0.3292660117149353, 0.39916545152664185, 0.22096580266952515, 0.4858850836753845, 0.541132390499115, 0.650901734828949, 0.46938928961753845, 0.6930139660835266, 0.3096417188644409, 0.5653801560401917, 0.3617789149284363, 0.4586522579193115, 0.38025134801864624, 0.39173805713653564, 0.4611877501010895, 0.42064329981803894, 0.6007742881774902, 0.44339704513549805, 0.3316032290458679, 0.22148561477661133, 0.27733683586120605, 0.12899306416511536, 0.10913962870836258, 0.1308557391166687, 0.2295505851507187, 0.1355561763048172, 0.16753844916820526, 0.13735628128051758, 0.1098056361079216, 0.1602977216243744, 0.1378631442785263, 0.08046279102563858, 0.04789411276578903, 0.05684167519211769, 0.07334928959608078, 0.09825067222118378, 0.09487732499837875, 0.342835009098053, 0.356067031621933, 0.32990455627441406, 0.30480828881263733, 0.44610708951950073, 0.30691853165626526, 0.3198978006839752, 0.40999656915664673, 0.49827101826667786, 0.609569787979126, 0.7565513253211975, 0.554325520992279, 0.43177613615989685, 0.40506279468536377, 0.37968116998672485, 0.34657013416290283, 0.24709515273571014, 0.32401028275489807, 0.6207172870635986, 0.28254440426826477, 0.40499401092529297, 0.44385141134262085, 0.3266361951828003, 0.35461190342903137, 0.29550400376319885, 0.2955246567726135]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.8085496425628662</v>
+        <v>0.7565513253211975</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.9791407999873627</v>
+        <v>1.035309099999722</v>
       </c>
       <c r="J108" t="n">
-        <v>0.005409617679488192</v>
+        <v>0.005719939779003989</v>
       </c>
     </row>
     <row r="109">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.6632423996925354, 0.4173594117164612, 0.5749660730361938, 0.5171407461166382, 0.42210713028907776, 0.4441429376602173, 0.7070529460906982, 0.629910409450531, 0.39722058176994324, 0.3410685956478119, 0.28711625933647156, 0.3406669497489929, 0.3404305577278137, 0.2739843428134918, 0.2770715355873108, 0.22684325277805328, 0.22076086699962616, 0.30758902430534363, 0.34830841422080994, 0.36311906576156616, 0.2747189998626709, 0.28271645307540894, 0.3058777451515198, 0.334383487701416, 0.2803247570991516, 0.20425035059452057, 0.3101697266101837, 0.22520308196544647, 0.12614309787750244, 0.15021654963493347, 0.23519180715084076, 0.5412024259567261, 0.5441569089889526, 0.5090828537940979, 0.5333628058433533, 0.6346443891525269, 0.8316903710365295, 0.6935046315193176, 0.5877052545547485, 0.47266215085983276, 0.4602286219596863, 0.36929625272750854, 0.27910321950912476, 0.3013956844806671, 0.411141574382782, 0.3956194818019867, 0.47121548652648926, 0.521166205406189, 0.5274835228919983, 0.5677261352539062, 0.5294855833053589, 0.4992029666900635, 0.5133043527603149, 0.3761374056339264, 0.2768813669681549, 0.3276800215244293, 0.5911741852760315, 0.4648624658584595, 0.45104414224624634, 0.40280550718307495, 0.3531074523925781, 0.38512587547302246, 0.4032273590564728, 0.45756977796554565, 0.5409060120582581, 0.44265249371528625, 0.4527784585952759, 0.5472264885902405, 0.4278222918510437, 0.4557593762874603, 0.5032951235771179, 0.48807695508003235, 0.3474053740501404, 0.2920958399772644, 0.471930593252182, 0.5179620385169983, 0.6788389682769775, 0.6807681918144226, 0.6462948322296143, 0.6315759420394897, 0.5144346952438354, 0.42075589299201965, 0.36932826042175293, 0.38350000977516174, 0.3918190598487854, 0.6737116575241089, 0.625795841217041, 0.721312403678894, 0.7356254458427429, 0.6162521839141846, 0.5078803896903992, 0.42357149720191956, 0.37601304054260254, 0.3512718677520752, 0.2917499840259552, 0.192180335521698, 0.22704756259918213, 0.31603121757507324, 0.3181132376194, 0.482052743434906, 0.529038667678833, 0.41545867919921875, 0.7073736190795898, 0.8286089301109314, 0.8246034979820251, 0.8091460466384888, 0.6915355920791626, 0.6542771458625793, 0.8514612913131714, 0.8589853048324585, 0.9055153131484985, 0.8287652730941772, 0.8451864123344421, 0.6948827505111694, 0.5935153961181641, 0.7381429672241211, 0.8172976970672607, 0.8975874185562134, 0.8154775500297546, 0.7569472193717957, 0.9023103713989258, 0.8587989211082458, 0.7169411182403564, 0.5433734655380249, 0.5240319967269897, 0.4144569933414459, 0.6477824449539185, 0.588363528251648, 0.5904691815376282, 0.6048480868339539, 0.58891361951828, 0.4934718608856201, 0.5934532284736633, 0.7206569314002991, 0.6637316346168518, 0.7366189956665039, 0.8406791687011719, 0.8227245211601257, 0.9010611176490784, 0.8868772387504578, 0.8635353446006775, 0.8149518966674805, 0.7587361335754395, 0.7293767929077148, 0.8597499132156372, 0.804645836353302, 0.8122590184211731, 0.720370888710022, 0.7496037483215332, 0.7452340126037598, 0.8712096810340881, 0.7970817685127258, 0.7625285387039185, 0.715064287185669, 0.6019579172134399, 0.6948024034500122, 0.6704314351081848, 0.6313042640686035, 0.6939841508865356, 0.8390153646469116, 0.6954853534698486, 0.6978726983070374, 0.6779369711875916, 0.6802613139152527, 0.5653788447380066, 0.6305575966835022, 0.5357879400253296, 0.6538382172584534, 0.5956910848617554, 0.650606632232666, 0.6022294163703918, 0.6097729802131653, 0.7065653800964355, 0.8174642324447632, 0.9707174301147461, 0.9312856793403625, 0.8431904315948486, 0.8315935134887695, 0.7577819228172302, 0.8813723921775818, 0.8796061873435974]</t>
+          <t>[0.657371997833252, 0.3971981108188629, 0.5386990904808044, 0.32095667719841003, 0.25120624899864197, 0.22868594527244568, 0.6280412673950195, 0.46638214588165283, 0.20735926926136017, 0.15010254085063934, 0.12214827537536621, 0.1559908539056778, 0.14580950140953064, 0.12205182015895844, 0.12345610558986664, 0.10033781826496124, 0.10444658994674683, 0.1729339361190796, 0.2919902503490448, 0.22948063910007477, 0.09545972943305969, 0.09472726285457611, 0.15076300501823425, 0.17375017702579498, 0.1217663511633873, 0.09055375307798386, 0.19534894824028015, 0.16865700483322144, 0.06751782447099686, 0.07885736972093582, 0.08898933231830597, 0.2816237211227417, 0.4634052813053131, 0.45217031240463257, 0.5402613878250122, 0.4956780970096588, 0.7187814712524414, 0.5636035203933716, 0.40357550978660583, 0.3233712613582611, 0.3320828974246979, 0.23749671876430511, 0.20384210348129272, 0.22725291550159454, 0.26491260528564453, 0.21443329751491547, 0.3204897940158844, 0.3673798739910126, 0.4379585087299347, 0.5080438852310181, 0.46130698919296265, 0.4823531210422516, 0.41830992698669434, 0.25034284591674805, 0.1570410132408142, 0.2566125988960266, 0.5011717081069946, 0.348012775182724, 0.32924923300743103, 0.29265445470809937, 0.22008419036865234, 0.18510702252388, 0.2303580790758133, 0.31608569622039795, 0.3351723849773407, 0.24082833528518677, 0.2755502164363861, 0.3457624316215515, 0.2852259874343872, 0.3220323622226715, 0.24779103696346283, 0.1793214976787567, 0.09198258072137833, 0.09394166618585587, 0.1579652726650238, 0.20302027463912964, 0.3517700731754303, 0.36575087904930115, 0.38162514567375183, 0.33048439025878906, 0.2542662024497986, 0.16894184052944183, 0.12072764337062836, 0.16298580169677734, 0.16162680089473724, 0.5002790689468384, 0.45196980237960815, 0.5398889780044556, 0.4694429636001587, 0.2664896845817566, 0.17528007924556732, 0.11761057376861572, 0.0951312854886055, 0.10315490514039993, 0.08016899973154068, 0.0594526007771492, 0.0650433897972107, 0.07915986329317093, 0.10280592739582062, 0.2788347601890564, 0.3993739187717438, 0.2500508725643158, 0.6968223452568054, 0.8247291445732117, 0.7392967343330383, 0.8026826977729797, 0.5529581308364868, 0.4611230194568634, 0.7686297297477722, 0.7626786828041077, 0.9196473360061646, 0.860170841217041, 0.8234285712242126, 0.6514454483985901, 0.5332555770874023, 0.6782642602920532, 0.7038496732711792, 0.84017014503479, 0.6624268293380737, 0.6381266713142395, 0.8803030848503113, 0.8340286016464233, 0.7029299139976501, 0.44507497549057007, 0.3363465666770935, 0.2826727628707886, 0.4904417097568512, 0.40793585777282715, 0.4748031198978424, 0.48262882232666016, 0.501078724861145, 0.3966423571109772, 0.37306469678878784, 0.522927463054657, 0.4677325189113617, 0.6203226447105408, 0.7927400469779968, 0.8091071248054504, 0.9402410984039307, 0.9370704889297485, 0.8772827982902527, 0.7157168388366699, 0.46543264389038086, 0.4742357134819031, 0.6895129680633545, 0.5353936553001404, 0.5787171125411987, 0.4340222477912903, 0.49330130219459534, 0.455730676651001, 0.7371536493301392, 0.5817777514457703, 0.6121650338172913, 0.5265299677848816, 0.30593806505203247, 0.29724812507629395, 0.25955626368522644, 0.2478232979774475, 0.43598079681396484, 0.616595983505249, 0.3938845694065094, 0.3706928789615631, 0.3120347261428833, 0.2841128706932068, 0.16756729781627655, 0.3369508385658264, 0.23335735499858856, 0.30830875039100647, 0.310955286026001, 0.2858180105686188, 0.2634706199169159, 0.32491418719291687, 0.6273630261421204, 0.7934099435806274, 0.9868947267532349, 0.9344390630722046, 0.8946677446365356, 0.8590397238731384, 0.6984010338783264, 0.8347424268722534, 0.8325612545013428]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9707174301147461</v>
+        <v>0.9868947267532349</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.9837729000137188</v>
+        <v>0.9834980000014184</v>
       </c>
       <c r="J109" t="n">
-        <v>0.005435209392340988</v>
+        <v>0.005433690607742643</v>
       </c>
     </row>
     <row r="110">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.9953721165657043, 0.9949014186859131, 0.9946995973587036, 0.9905825853347778, 0.9922667145729065, 0.9932458996772766, 0.9913535714149475, 0.9947734475135803, 0.988314151763916, 0.9899091720581055, 0.9949310421943665, 0.9957510232925415, 0.9947642087936401, 0.9950016140937805, 0.9952048063278198, 0.9969733953475952, 0.9977983236312866, 0.9977306723594666, 0.9968865513801575, 0.998322069644928, 0.9971401691436768, 0.9979838132858276, 0.9984531402587891, 0.997566819190979, 0.9972078204154968, 0.9973892569541931, 0.9961755275726318, 0.9958588480949402, 0.9946111440658569, 0.9956867098808289, 0.9942523837089539, 0.996467113494873, 0.9964963793754578, 0.9976122379302979, 0.9981945157051086, 0.9971565008163452, 0.9952630996704102, 0.9957138299942017, 0.9960125684738159, 0.9960632920265198, 0.9945104122161865, 0.9953500032424927, 0.9949540495872498, 0.9962642788887024, 0.9928991794586182, 0.9959081411361694, 0.9942508935928345, 0.993536651134491, 0.9923530220985413, 0.9949907660484314, 0.9938207268714905, 0.9959976673126221, 0.995412290096283, 0.9938716888427734, 0.9762473106384277, 0.9915805459022522, 0.9932581186294556, 0.9956052899360657, 0.9949163198471069, 0.996303915977478, 0.9972966313362122, 0.9981535077095032, 0.9975517392158508, 0.9969027638435364, 0.997273862361908, 0.9982150793075562, 0.9976937174797058, 0.9979006052017212, 0.9982230067253113, 0.9976110458374023, 0.9963184595108032, 0.9942501783370972, 0.9893113970756531, 0.9889770150184631, 0.9845133423805237, 0.99086993932724, 0.9933504462242126, 0.9937524199485779, 0.9928656816482544, 0.9939992427825928, 0.9924927353858948, 0.9965233206748962, 0.9956719875335693, 0.9970576763153076, 0.9965927004814148, 0.9971827268600464, 0.9953330159187317, 0.9970420002937317, 0.9952647686004639, 0.9942739605903625, 0.9967939257621765, 0.9970408082008362, 0.9947801828384399, 0.9972943663597107, 0.9968095421791077, 0.9968011379241943, 0.9960875511169434, 0.9967978596687317, 0.9961586594581604, 0.9964146614074707, 0.995654821395874, 0.9964454770088196, 0.9959827661514282, 0.9960203766822815, 0.9949878454208374, 0.994560182094574, 0.9924501180648804, 0.9930229187011719, 0.9945843815803528, 0.9966804385185242, 0.9958692193031311, 0.994796097278595, 0.9958446621894836, 0.9967457056045532, 0.9954889416694641, 0.994486391544342, 0.9901717305183411, 0.9868193864822388, 0.9914780259132385, 0.9913384914398193, 0.9949935078620911, 0.9930223822593689, 0.992759108543396, 0.9946640729904175, 0.9923749566078186, 0.9930295348167419, 0.9917311072349548, 0.9923364520072937, 0.9901123642921448, 0.9870545864105225, 0.9885127544403076, 0.9809278845787048, 0.9833014011383057, 0.9908447861671448, 0.9803817272186279, 0.9729975461959839, 0.9712979793548584, 0.9852645993232727, 0.987509548664093, 0.9946563243865967, 0.9864450097084045, 0.913496196269989, 0.9361696243286133, 0.9554618000984192, 0.9869001507759094, 0.9754515290260315, 0.9963406920433044, 0.9960564374923706, 0.9922486543655396, 0.9957404136657715, 0.9946520328521729, 0.9937833547592163, 0.9923394918441772, 0.9862954020500183, 0.9935311675071716, 0.9914304614067078, 0.9971535205841064, 0.9939866065979004, 0.9896907806396484, 0.9785733819007874, 0.9830560684204102, 0.9646221399307251, 0.9784460067749023, 0.9805325269699097, 0.9903281331062317, 0.9768853187561035, 0.9904780387878418, 0.9925549626350403, 0.9847811460494995, 0.9773737192153931, 0.9640254378318787, 0.9848515391349792, 0.99378901720047, 0.9941487312316895, 0.9856093525886536, 0.9906111359596252, 0.9874841570854187, 0.99327152967453, 0.99534010887146, 0.9962859153747559, 0.9894198179244995, 0.9894692897796631]</t>
+          <t>[0.9989402890205383, 0.9984061121940613, 0.9979446530342102, 0.9956588745117188, 0.9965678453445435, 0.9975874423980713, 0.9968595504760742, 0.9980158805847168, 0.992455005645752, 0.9918374419212341, 0.9965117573738098, 0.9981387853622437, 0.9974391460418701, 0.997040331363678, 0.9976511597633362, 0.9985277652740479, 0.9989822506904602, 0.9989818930625916, 0.9982898831367493, 0.9992952346801758, 0.9985118508338928, 0.9994176626205444, 0.9995179176330566, 0.999305009841919, 0.9994263648986816, 0.9992796778678894, 0.9983170032501221, 0.9978444576263428, 0.9970790147781372, 0.9985582232475281, 0.9977710247039795, 0.9987934827804565, 0.9983463287353516, 0.9994082450866699, 0.9995088577270508, 0.9988229870796204, 0.9979403614997864, 0.9981303811073303, 0.9982106685638428, 0.9985300302505493, 0.9970977306365967, 0.9980081915855408, 0.9969460368156433, 0.9971580505371094, 0.9945268034934998, 0.9978986978530884, 0.9970958232879639, 0.9957889914512634, 0.9942470788955688, 0.9966344237327576, 0.9966024160385132, 0.9978681802749634, 0.9970952272415161, 0.996279776096344, 0.9783077239990234, 0.9943273663520813, 0.9961051940917969, 0.9974328875541687, 0.9973644614219666, 0.9983174800872803, 0.9987019300460815, 0.9992152452468872, 0.9986288547515869, 0.9979768395423889, 0.9983959794044495, 0.9992982149124146, 0.9989994168281555, 0.9992905855178833, 0.9993199110031128, 0.9988381266593933, 0.9979516863822937, 0.9970198273658752, 0.9942811727523804, 0.9941591024398804, 0.9893864393234253, 0.9923830628395081, 0.9949718713760376, 0.9949992895126343, 0.9950522780418396, 0.9964839220046997, 0.9956066012382507, 0.9982548356056213, 0.9982321858406067, 0.9982866644859314, 0.9985051155090332, 0.9981959462165833, 0.9980949759483337, 0.9988020658493042, 0.9984886646270752, 0.997520387172699, 0.9989767074584961, 0.99908447265625, 0.9980539083480835, 0.9992153644561768, 0.9990447163581848, 0.9990849494934082, 0.9986914992332458, 0.9990853071212769, 0.9986357092857361, 0.9991726279258728, 0.9984785914421082, 0.9982738494873047, 0.9983386993408203, 0.9990357160568237, 0.9985733032226562, 0.9978922009468079, 0.9969373941421509, 0.9962331652641296, 0.9980484247207642, 0.9990676045417786, 0.9990448355674744, 0.9979269504547119, 0.9984830021858215, 0.9990370273590088, 0.998458981513977, 0.9968619346618652, 0.9948244094848633, 0.9929734468460083, 0.9967028498649597, 0.9967064261436462, 0.9966114163398743, 0.9947867393493652, 0.9967940449714661, 0.9976397752761841, 0.997359573841095, 0.9981180429458618, 0.9969645142555237, 0.9960803389549255, 0.9915931224822998, 0.9851574897766113, 0.9929827451705933, 0.9851677417755127, 0.9863293766975403, 0.9935775399208069, 0.9865925908088684, 0.9842751622200012, 0.9832921624183655, 0.9903952479362488, 0.9946271777153015, 0.9979954957962036, 0.9933640956878662, 0.8654717803001404, 0.9527617692947388, 0.970791220664978, 0.9970123767852783, 0.9947245717048645, 0.9990573525428772, 0.9985879063606262, 0.996508777141571, 0.9978564381599426, 0.9982825517654419, 0.9980455636978149, 0.9979994893074036, 0.9959000945091248, 0.9972420930862427, 0.9952918291091919, 0.9982916712760925, 0.9965135455131531, 0.9906485676765442, 0.9767168760299683, 0.9817314743995667, 0.9608929753303528, 0.9806561470031738, 0.9870360493659973, 0.9955337047576904, 0.9910821914672852, 0.9968510270118713, 0.9962350726127625, 0.989852249622345, 0.9830545783042908, 0.9790376424789429, 0.9946696162223816, 0.998197615146637, 0.998201847076416, 0.9963874816894531, 0.9981052875518799, 0.9965092539787292, 0.9971967935562134, 0.9983280301094055, 0.9990419745445251, 0.9968777894973755, 0.996893048286438]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9984531402587891</v>
+        <v>0.9995179176330566</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.002233699982753</v>
+        <v>0.9962794000020949</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005506778571333808</v>
+        <v>0.005474062637374148</v>
       </c>
     </row>
     <row r="111">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[0.900802493095398, 0.8476166725158691, 0.8020831942558289, 0.7766821384429932, 0.6966233253479004, 0.9341612458229065, 0.9875428676605225, 0.994929850101471, 0.9914776682853699, 0.9733492732048035, 0.9268781542778015, 0.8753689527511597, 0.8964013457298279, 0.9577136635780334, 0.9545392394065857, 0.9228388667106628, 0.9013729095458984, 0.9431031346321106, 0.9345711469650269, 0.9719066619873047, 0.9676764607429504, 0.9898307919502258, 0.9928305745124817, 0.9879204034805298, 0.9898275136947632, 0.9917222857475281, 0.9867189526557922, 0.9857679009437561, 0.9875556826591492, 0.9839484095573425, 0.9481936097145081, 0.9299023151397705, 0.9012828469276428, 0.9458571076393127, 0.9277933239936829, 0.8416582942008972, 0.849297821521759, 0.801386296749115, 0.9065477252006531, 0.9276419878005981, 0.9578494429588318, 0.9685218334197998, 0.9909377098083496, 0.9975183010101318, 0.9969135522842407, 0.9950768351554871, 0.987196683883667, 0.9929400682449341, 0.9885697960853577, 0.9945247173309326, 0.9867222309112549, 0.9878507256507874, 0.9687886238098145, 0.9681673049926758, 0.9796373248100281, 0.9874489307403564, 0.9922102689743042, 0.9929556846618652, 0.9863418936729431, 0.9849298596382141, 0.9862738251686096, 0.9653593897819519, 0.9696048498153687, 0.9856747984886169, 0.9831277132034302, 0.9752722382545471, 0.9562344551086426, 0.8304225206375122, 0.8819620013237, 0.46017953753471375, 0.8868746757507324, 0.9690234065055847, 0.9245107173919678, 0.9657087922096252, 0.9487611055374146, 0.9079246520996094, 0.8881585597991943, 0.8864505887031555, 0.8301212787628174, 0.7903256416320801, 0.8356201648712158, 0.8767935037612915, 0.902009129524231, 0.9273908138275146, 0.9869372248649597, 0.9875482320785522, 0.9915642738342285, 0.9921592473983765, 0.9856587052345276, 0.9889987111091614, 0.9758402705192566, 0.9637964963912964, 0.9812151789665222, 0.9879777431488037, 0.9915637969970703, 0.9952659606933594, 0.9923230409622192, 0.9942854046821594, 0.9940311312675476, 0.9947724938392639, 0.9942479133605957, 0.9963162541389465, 0.9978256821632385, 0.9952884912490845, 0.9979779124259949, 0.9976710677146912, 0.9964438080787659, 0.9910036325454712, 0.9899396300315857, 0.9926292896270752, 0.993911862373352, 0.988436222076416, 0.9939707517623901, 0.9931079149246216, 0.9921886920928955, 0.9978166818618774, 0.9978882670402527, 0.9977439641952515, 0.9971627593040466, 0.9965546131134033, 0.9974332451820374, 0.9946731925010681, 0.9920440912246704, 0.9956561326980591, 0.9968023300170898, 0.9921482801437378, 0.9671328067779541, 0.920720100402832, 0.8764306902885437, 0.9581178426742554, 0.9291889071464539, 0.9739378094673157, 0.9661430716514587, 0.9611903429031372, 0.9695918560028076, 0.9746706485748291, 0.941918671131134, 0.9790043830871582, 0.9430119395256042, 0.7370403409004211, 0.575166642665863, 0.6788541078567505, 0.740064263343811, 0.8429121971130371, 0.9724118709564209, 0.9782900214195251, 0.9829913973808289, 0.9892985820770264, 0.9789753556251526, 0.9764658212661743, 0.9870621562004089, 0.9690342545509338, 0.9571625590324402, 0.9675511121749878, 0.9617388248443604, 0.9683957099914551, 0.9554081559181213, 0.9869770407676697, 0.9841275811195374, 0.9864923357963562, 0.9288214445114136, 0.9426376819610596, 0.9798346161842346, 0.9787090420722961, 0.9884399175643921, 0.9724624752998352, 0.9286738634109497, 0.8999775648117065, 0.9721622467041016, 0.9920430779457092, 0.9885179996490479, 0.9854164719581604, 0.968107283115387, 0.9603486657142639, 0.9000288248062134, 0.975741982460022, 0.9537516236305237, 0.9682114124298096, 0.9070077538490295, 0.9168798327445984, 0.978331983089447, 0.9781766533851624]</t>
+          <t>[0.9086474776268005, 0.8119027018547058, 0.7643302083015442, 0.7816000580787659, 0.7500708103179932, 0.9538695216178894, 0.990574300289154, 0.9970033764839172, 0.998228132724762, 0.9915984869003296, 0.9314356446266174, 0.8480579853057861, 0.8578779697418213, 0.9744689464569092, 0.9898215532302856, 0.9819003939628601, 0.8968822956085205, 0.9481814503669739, 0.9577640295028687, 0.9806400537490845, 0.9729610085487366, 0.99693763256073, 0.998547375202179, 0.9975726008415222, 0.9964566826820374, 0.9987537860870361, 0.9966183304786682, 0.9908742904663086, 0.9959762692451477, 0.9959940910339355, 0.9853329062461853, 0.9749919176101685, 0.9816892147064209, 0.9803550243377686, 0.9588426947593689, 0.9283934831619263, 0.9066473841667175, 0.8781774044036865, 0.9577063322067261, 0.9852635860443115, 0.9888895750045776, 0.993923008441925, 0.998813271522522, 0.9996256828308105, 0.9995473027229309, 0.9991563558578491, 0.9952630996704102, 0.998330295085907, 0.996256947517395, 0.9985382556915283, 0.9923717975616455, 0.9951783418655396, 0.9816538095474243, 0.9929499626159668, 0.9966937303543091, 0.9921798706054688, 0.9979300498962402, 0.9980035424232483, 0.990644097328186, 0.9974119067192078, 0.9952397346496582, 0.9858896732330322, 0.9916553497314453, 0.9964101910591125, 0.9952465891838074, 0.976639449596405, 0.9426230192184448, 0.8971304893493652, 0.9618067145347595, 0.3606053292751312, 0.9198694825172424, 0.9979469180107117, 0.9821889996528625, 0.9950457811355591, 0.9636468887329102, 0.8403126001358032, 0.830724835395813, 0.7563756108283997, 0.6130911111831665, 0.6333951950073242, 0.7233797311782837, 0.7856865525245667, 0.8965247273445129, 0.9040055274963379, 0.9915434122085571, 0.992172360420227, 0.9941562414169312, 0.9970646500587463, 0.9976075887680054, 0.9963208436965942, 0.991177499294281, 0.9922032356262207, 0.9931633472442627, 0.990568995475769, 0.9963681697845459, 0.9992958307266235, 0.9980337023735046, 0.9984208345413208, 0.9986122846603394, 0.9987132549285889, 0.9970940351486206, 0.9978042244911194, 0.999144434928894, 0.9971342086791992, 0.9991235136985779, 0.9994340538978577, 0.9991676807403564, 0.9961931705474854, 0.9910867810249329, 0.9908419847488403, 0.9942246079444885, 0.9925414323806763, 0.9987658262252808, 0.9970167875289917, 0.9963674545288086, 0.9996039271354675, 0.9995926022529602, 0.9996997117996216, 0.9995611310005188, 0.99895179271698, 0.9995958209037781, 0.9995100498199463, 0.9979565143585205, 0.998562753200531, 0.9991745352745056, 0.9974785447120667, 0.9791466593742371, 0.9210742115974426, 0.8800991773605347, 0.9749667644500732, 0.9338840842247009, 0.9717079401016235, 0.9327169060707092, 0.9592788815498352, 0.9691307544708252, 0.98240065574646, 0.8760378956794739, 0.9731998443603516, 0.9462350010871887, 0.6610210537910461, 0.37310537695884705, 0.6627323627471924, 0.4792308807373047, 0.7652555108070374, 0.9795011878013611, 0.9800329804420471, 0.9870672821998596, 0.9962844848632812, 0.9913068413734436, 0.9683718085289001, 0.9881857633590698, 0.9784805774688721, 0.9419615864753723, 0.9623017907142639, 0.9598894119262695, 0.9637392163276672, 0.9701416492462158, 0.9952808022499084, 0.9946495890617371, 0.993697464466095, 0.8705568909645081, 0.9272112250328064, 0.9804269075393677, 0.9688780307769775, 0.9883710145950317, 0.9702091813087463, 0.9095886945724487, 0.7259662747383118, 0.9602512717247009, 0.9951902627944946, 0.9910799860954285, 0.9943563342094421, 0.9873002171516418, 0.9758860468864441, 0.8455407619476318, 0.9916783571243286, 0.9651362299919128, 0.9678851366043091, 0.9025683999061584, 0.9407640695571899, 0.9940363168716431, 0.9940584897994995]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.9979779124259949</v>
+        <v>0.9996997117996216</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1.010852499981411</v>
+        <v>1.022739799998817</v>
       </c>
       <c r="J111" t="n">
-        <v>0.005554134615282477</v>
+        <v>0.00561944945054295</v>
       </c>
     </row>
     <row r="112">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[0.33441266417503357, 0.5861884355545044, 0.6772801876068115, 0.5351349115371704, 0.5833825469017029, 0.5827916860580444, 0.3039942979812622, 0.7121415138244629, 0.8378915190696716, 0.8792480826377869, 0.7702087163925171, 0.5325879454612732, 0.3190716505050659, 0.1449287384748459, 0.30862635374069214, 0.399471253156662, 0.39001819491386414, 0.26764214038848877, 0.4581737220287323, 0.7353258728981018, 0.7224310636520386, 0.2457496076822281, 0.5333465337753296, 0.28069639205932617, 0.3117264211177826, 0.24342502653598785, 0.44093772768974304, 0.38321566581726074, 0.2433244287967682, 0.4456386864185333, 0.6133667230606079, 0.6908557415008545, 0.5229383707046509, 0.5217540264129639, 0.42313164472579956, 0.45850178599357605, 0.47978246212005615, 0.4832296073436737, 0.7361882925033569, 0.7187676429748535, 0.6489790081977844, 0.8289107084274292, 0.7243943214416504, 0.8588897585868835, 0.7369217276573181, 0.7109793424606323, 0.7528666853904724, 0.6179077625274658, 0.36426013708114624, 0.41936227679252625, 0.33182331919670105, 0.3987635374069214, 0.49380049109458923, 0.38917627930641174, 0.1633809357881546, 0.23405301570892334, 0.43855172395706177, 0.4870221018791199, 0.32136401534080505, 0.5971251726150513, 0.589085578918457, 0.6743794083595276, 0.7907469272613525, 0.7437973022460938, 0.7757543921470642, 0.8410078287124634, 0.6913923621177673, 0.453842431306839, 0.7029296159744263, 0.5913354754447937, 0.5894691348075867, 0.5565976500511169, 0.5439150929450989, 0.626096248626709, 0.5271720886230469, 0.48301324248313904, 0.41320058703422546, 0.5369869470596313, 0.662742018699646, 0.6666667461395264, 0.5295297503471375, 0.5088880062103271, 0.48960748314857483, 0.4197324514389038, 0.4838913679122925, 0.3483591675758362, 0.39838847517967224, 0.514001190662384, 0.43974655866622925, 0.5906962156295776, 0.6139907836914062, 0.453667551279068, 0.420339435338974, 0.46832823753356934, 0.5743213295936584, 0.8948588371276855, 0.9328386783599854, 0.9241703152656555, 0.8886803984642029, 0.9425101280212402, 0.908450186252594, 0.9013498425483704, 0.7441350817680359, 0.7504044771194458, 0.6420595049858093, 0.5420739650726318, 0.45825809240341187, 0.5149800181388855, 0.4677139222621918, 0.5196161270141602, 0.39693504571914673, 0.4591422379016876, 0.6312966346740723, 0.6212821006774902, 0.8189321160316467, 0.9103702902793884, 0.8129369616508484, 0.7737795114517212, 0.6802579164505005, 0.7346892952919006, 0.6390272378921509, 0.6313185691833496, 0.6858534216880798, 0.6613815426826477, 0.5646920800209045, 0.5680854916572571, 0.7812123894691467, 0.7096904516220093, 0.712968647480011, 0.821607232093811, 0.7824078798294067, 0.6243155598640442, 0.9355648756027222, 0.9304497838020325, 0.8075118064880371, 0.789176881313324, 0.8184855580329895, 0.9354878067970276, 0.8852210640907288, 0.8634191155433655, 0.6655492186546326, 0.5796866416931152, 0.559113085269928, 0.4505016803741455, 0.5991755723953247, 0.42923876643180847, 0.31321626901626587, 0.40568047761917114, 0.5791181325912476, 0.5090287327766418, 0.5206871032714844, 0.5302009582519531, 0.4898636043071747, 0.5771399736404419, 0.7293320298194885, 0.6633079051971436, 0.6943030953407288, 0.44616463780403137, 0.3815450966358185, 0.4737275242805481, 0.486436665058136, 0.34843096137046814, 0.5381530523300171, 0.7474126815795898, 0.8149699568748474, 0.9491060376167297, 0.9576411247253418, 0.9727841019630432, 0.8554538488388062, 0.7129362225532532, 0.6505515575408936, 0.7114764451980591, 0.8594902753829956, 0.8283534646034241, 0.7471837997436523, 0.7010992169380188, 0.9271600842475891, 0.8831607699394226, 0.8679187297821045, 0.6952507495880127, 0.6969634294509888]</t>
+          <t>[0.23554015159606934, 0.527150571346283, 0.7339140176773071, 0.5924381613731384, 0.48304542899131775, 0.4972139298915863, 0.33509135246276855, 0.5372856855392456, 0.8214534521102905, 0.7771963477134705, 0.6470949649810791, 0.3596949279308319, 0.24033068120479584, 0.10019697993993759, 0.16145382821559906, 0.32296741008758545, 0.3052871823310852, 0.19637537002563477, 0.3208208382129669, 0.5029636025428772, 0.39626479148864746, 0.13823746144771576, 0.33800292015075684, 0.23654691874980927, 0.3591705560684204, 0.20363691449165344, 0.3955334424972534, 0.31478795409202576, 0.23139840364456177, 0.5814461708068848, 0.7180559039115906, 0.5576930642127991, 0.3760175108909607, 0.48128241300582886, 0.41843461990356445, 0.49995553493499756, 0.4610435962677002, 0.4422350525856018, 0.7071937322616577, 0.7126590013504028, 0.6094057559967041, 0.6530823111534119, 0.6428846120834351, 0.7118901014328003, 0.47016799449920654, 0.4886598587036133, 0.7086589336395264, 0.632182776927948, 0.24463185667991638, 0.29003608226776123, 0.22830718755722046, 0.3762388229370117, 0.5589591264724731, 0.3351280689239502, 0.16188520193099976, 0.21427446603775024, 0.3479067087173462, 0.43118736147880554, 0.4213489890098572, 0.6503703594207764, 0.6046913266181946, 0.6896911859512329, 0.8066240549087524, 0.8489934802055359, 0.8945762515068054, 0.9501346945762634, 0.8627438545227051, 0.6149990558624268, 0.734584629535675, 0.522323489189148, 0.5382803082466125, 0.5313220620155334, 0.48501214385032654, 0.631586492061615, 0.44401344656944275, 0.34446972608566284, 0.23214977979660034, 0.37514233589172363, 0.5075694918632507, 0.4985343813896179, 0.33584100008010864, 0.30481624603271484, 0.2771052122116089, 0.26283612847328186, 0.3773791790008545, 0.3356068432331085, 0.3446119725704193, 0.4136226773262024, 0.33258798718452454, 0.5434733629226685, 0.5681954622268677, 0.39039385318756104, 0.36423563957214355, 0.38376539945602417, 0.4903061091899872, 0.9586530327796936, 0.9723090529441833, 0.9535393714904785, 0.8891096115112305, 0.9780882596969604, 0.9418439865112305, 0.9115354418754578, 0.6543031334877014, 0.6878733038902283, 0.5704532265663147, 0.27660831809043884, 0.19038806855678558, 0.2900781035423279, 0.3382478356361389, 0.3448586165904999, 0.22760288417339325, 0.3132537305355072, 0.3875887393951416, 0.4178299307823181, 0.6806384325027466, 0.8456759452819824, 0.7892137169837952, 0.6835880279541016, 0.37618565559387207, 0.6082737445831299, 0.6141486763954163, 0.6676619648933411, 0.7218930125236511, 0.7074896693229675, 0.4326189458370209, 0.4525732100009918, 0.7992415428161621, 0.6976646184921265, 0.5265958309173584, 0.8011446595191956, 0.7129882574081421, 0.3532901108264923, 0.9570508599281311, 0.968525230884552, 0.8321226239204407, 0.7685463428497314, 0.8716517090797424, 0.9590423107147217, 0.8842359185218811, 0.8974562287330627, 0.6474521160125732, 0.4613195061683655, 0.49418994784355164, 0.27619341015815735, 0.507747232913971, 0.3329150974750519, 0.2024756371974945, 0.2456132471561432, 0.37874218821525574, 0.28065261244773865, 0.28876131772994995, 0.34177637100219727, 0.3576391637325287, 0.5095915794372559, 0.6995271444320679, 0.6362950801849365, 0.5918282270431519, 0.3526252210140228, 0.34775906801223755, 0.4040345251560211, 0.4198042154312134, 0.3102383017539978, 0.49293893575668335, 0.715664803981781, 0.886210024356842, 0.9892327785491943, 0.9913273453712463, 0.9893686175346375, 0.9161365628242493, 0.5249897241592407, 0.4659356474876404, 0.5254252552986145, 0.7742102742195129, 0.7663838863372803, 0.622517466545105, 0.5826804637908936, 0.9080930948257446, 0.8611533045768738, 0.8931221961975098, 0.6071475148200989, 0.6072139739990234]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9727841019630432</v>
+        <v>0.9913273453712463</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.9699925000022631</v>
+        <v>1.011163900009706</v>
       </c>
       <c r="J112" t="n">
-        <v>0.005359074585647863</v>
+        <v>0.005586540884031523</v>
       </c>
     </row>
     <row r="113">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[0.3760068714618683, 0.4321121573448181, 0.2945038974285126, 0.6338284611701965, 0.5896269679069519, 0.2697257995605469, 0.3835675120353699, 0.3583979606628418, 0.6041292548179626, 0.7595798373222351, 0.8780468106269836, 0.8779730200767517, 0.9637927412986755, 0.9867048859596252, 0.9797863960266113, 0.9724888205528259, 0.9449086785316467, 0.7991229891777039, 0.8831605911254883, 0.9063456654548645, 0.8518310189247131, 0.8882673978805542, 0.6763864159584045, 0.7945073246955872, 0.848129391670227, 0.7258471250534058, 0.8483079075813293, 0.8434445858001709, 0.8519213795661926, 0.88857102394104, 0.7692772150039673, 0.8949873447418213, 0.8339874148368835, 0.8094381093978882, 0.654017448425293, 0.702248752117157, 0.6465734243392944, 0.5015437006950378, 0.3759610652923584, 0.3805631697177887, 0.6061556935310364, 0.6318108439445496, 0.6530427932739258, 0.6011694669723511, 0.7197776436805725, 0.7545519471168518, 0.7007206678390503, 0.6567684412002563, 0.6156102418899536, 0.792578935623169, 0.8003876209259033, 0.8739302158355713, 0.5224015712738037, 0.28923192620277405, 0.38313978910446167, 0.32617464661598206, 0.291558176279068, 0.48146286606788635, 0.28050634264945984, 0.33821335434913635, 0.3375556170940399, 0.39917927980422974, 0.5403510928153992, 0.5509468913078308, 0.8082315921783447, 0.4581223428249359, 0.3740316927433014, 0.5097666382789612, 0.6328050494194031, 0.2430473268032074, 0.24937576055526733, 0.7742673754692078, 0.7969891428947449, 0.8851446509361267, 0.9664484262466431, 0.9770220518112183, 0.9469221234321594, 0.943726658821106, 0.9619969725608826, 0.9080173969268799, 0.9525055885314941, 0.9149256944656372, 0.9423184990882874, 0.9722069501876831, 0.9808454513549805, 0.9878722429275513, 0.9395151138305664, 0.7981571555137634, 0.7794607281684875, 0.49863487482070923, 0.6441544890403748, 0.6370093822479248, 0.7933453321456909, 0.7809841632843018, 0.44713661074638367, 0.5342739820480347, 0.5180338621139526, 0.6659778356552124, 0.41749876737594604, 0.4643222689628601, 0.46287789940834045, 0.8757679462432861, 0.97110915184021, 0.875283420085907, 0.5453882813453674, 0.6296136975288391, 0.6946492195129395, 0.5420389175415039, 0.536827027797699, 0.46948954463005066, 0.2057546079158783, 0.18596462905406952, 0.21787503361701965, 0.24720554053783417, 0.3411552608013153, 0.27346935868263245, 0.4842563569545746, 0.34235313534736633, 0.20588691532611847, 0.1668243408203125, 0.2618294656276703, 0.6352459192276001, 0.6898265480995178, 0.7404812574386597, 0.5244780778884888, 0.39892545342445374, 0.6269380450248718, 0.13423873484134674, 0.16235588490962982, 0.2641408443450928, 0.8426999449729919, 0.9553600549697876, 0.9932942390441895, 0.9930558800697327, 0.9881949424743652, 0.9719175696372986, 0.9873886108398438, 0.9588988423347473, 0.9678223729133606, 0.9613081812858582, 0.8617889285087585, 0.9336420893669128, 0.9651305675506592, 0.7456019520759583, 0.86639803647995, 0.924663782119751, 0.9196066856384277, 0.9607437252998352, 0.899926483631134, 0.8157973885536194, 0.6837469935417175, 0.8237736225128174, 0.9068639874458313, 0.9590501189231873, 0.77287358045578, 0.7319862842559814, 0.8452433347702026, 0.9030827879905701, 0.963817834854126, 0.9759922027587891, 0.9872287511825562, 0.991431713104248, 0.9898923635482788, 0.9920964241027832, 0.97633296251297, 0.9798620939254761, 0.9764545559883118, 0.9713976383209229, 0.9769789576530457, 0.9696484208106995, 0.890017032623291, 0.9139226078987122, 0.9727381467819214, 0.9815630912780762, 0.9588932394981384, 0.9019567370414734, 0.8371567726135254, 0.875546395778656, 0.9865332841873169, 0.9942535758018494, 0.9942423701286316]</t>
+          <t>[0.41814178228378296, 0.3877861797809601, 0.20507271587848663, 0.5813488364219666, 0.43280279636383057, 0.10575889050960541, 0.2749025821685791, 0.2873660624027252, 0.6324978470802307, 0.8622798919677734, 0.9695017337799072, 0.9263221025466919, 0.9738856554031372, 0.9965648055076599, 0.9933773875236511, 0.9926730990409851, 0.9489169716835022, 0.6364527940750122, 0.8360172510147095, 0.9043073058128357, 0.8478096127510071, 0.8826473355293274, 0.579886257648468, 0.7426350116729736, 0.7727264165878296, 0.6861000657081604, 0.7322693467140198, 0.7013364434242249, 0.7790932655334473, 0.8934885859489441, 0.6786091923713684, 0.8954639434814453, 0.7340320944786072, 0.774962306022644, 0.5588717460632324, 0.7305365204811096, 0.5421333909034729, 0.32487252354621887, 0.22925737500190735, 0.19956852495670319, 0.4948905408382416, 0.5386041402816772, 0.5964343547821045, 0.44900864362716675, 0.6467902064323425, 0.7804888486862183, 0.7400791049003601, 0.5918945074081421, 0.5058431029319763, 0.8630154728889465, 0.8539331555366516, 0.9599581956863403, 0.5666378140449524, 0.3438259959220886, 0.49939826130867004, 0.2603355646133423, 0.1402365118265152, 0.3226979970932007, 0.2659408152103424, 0.3156902492046356, 0.23316696286201477, 0.39829719066619873, 0.656444251537323, 0.6861103773117065, 0.9628467559814453, 0.6667325496673584, 0.6242115497589111, 0.8775457143783569, 0.9034751057624817, 0.3742181062698364, 0.39869341254234314, 0.912962019443512, 0.8129873871803284, 0.8616211414337158, 0.9912044405937195, 0.9937301874160767, 0.991224467754364, 0.9820130467414856, 0.9823530316352844, 0.9472754597663879, 0.9802425503730774, 0.9144927263259888, 0.9562824368476868, 0.9917484521865845, 0.9919776916503906, 0.9977210164070129, 0.985858142375946, 0.9306965470314026, 0.901158332824707, 0.5841131806373596, 0.684109091758728, 0.5423303842544556, 0.799201250076294, 0.6387284994125366, 0.17145048081874847, 0.3029896318912506, 0.31544777750968933, 0.647397518157959, 0.3915563225746155, 0.4027274250984192, 0.48879924416542053, 0.9714372158050537, 0.9936292767524719, 0.8867660164833069, 0.5451423525810242, 0.7527226805686951, 0.8905148506164551, 0.7818973660469055, 0.8200027346611023, 0.5707471966743469, 0.22930577397346497, 0.1827811747789383, 0.17264094948768616, 0.2033846229314804, 0.2797849476337433, 0.15985888242721558, 0.430948942899704, 0.18343591690063477, 0.10108927637338638, 0.08279785513877869, 0.14711473882198334, 0.7621164321899414, 0.835342526435852, 0.7432919144630432, 0.5406133532524109, 0.6274091005325317, 0.7158503532409668, 0.1837179958820343, 0.3737342953681946, 0.4441806375980377, 0.970547616481781, 0.991919994354248, 0.9992228746414185, 0.9987145662307739, 0.9957433342933655, 0.9880995154380798, 0.9978038668632507, 0.9945476055145264, 0.9944158792495728, 0.9970510005950928, 0.9704492688179016, 0.9940211176872253, 0.9959923624992371, 0.9076664447784424, 0.9557380080223083, 0.9789844155311584, 0.9837105870246887, 0.9872954487800598, 0.97490394115448, 0.9809209108352661, 0.9528571963310242, 0.9758785367012024, 0.9895890951156616, 0.9950785636901855, 0.9718483090400696, 0.9283152222633362, 0.9893949627876282, 0.9778079986572266, 0.992965817451477, 0.9947499632835388, 0.9947633743286133, 0.9972724318504333, 0.9949656128883362, 0.998166024684906, 0.9947835803031921, 0.9960541725158691, 0.9962803721427917, 0.9950150847434998, 0.9959562420845032, 0.9948360919952393, 0.9746090173721313, 0.9819530844688416, 0.9966856837272644, 0.9973195195198059, 0.9951171875, 0.9803007245063782, 0.9353922605514526, 0.9603124856948853, 0.9975215792655945, 0.9992076754570007, 0.9992074370384216]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9942535758018494</v>
+        <v>0.9992228746414185</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1.002312700002221</v>
+        <v>1.009253899988835</v>
       </c>
       <c r="J113" t="n">
-        <v>0.00553763922653161</v>
+        <v>0.005575988397728369</v>
       </c>
     </row>
     <row r="114">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0.34766921401023865, 0.495834082365036, 0.5069808959960938, 0.5042279362678528, 0.7071552872657776, 0.6012598276138306, 0.3364100754261017, 0.4090024530887604, 0.3991928696632385, 0.5570753812789917, 0.5559977889060974, 0.7801030278205872, 0.8465186357498169, 0.8095073103904724, 0.9157724976539612, 0.8980068564414978, 0.5672808885574341, 0.5447438359260559, 0.6669578552246094, 0.7136335372924805, 0.5758333206176758, 0.5020225644111633, 0.4742562472820282, 0.6232775449752808, 0.6970688700675964, 0.7882789969444275, 0.797453761100769, 0.6917458176612854, 0.6954100131988525, 0.5465037226676941, 0.5232757329940796, 0.4048798680305481, 0.22311465442180634, 0.1431298851966858, 0.1730375438928604, 0.0963454619050026, 0.10647480934858322, 0.11954297870397568, 0.36214783787727356, 0.9077191948890686, 0.7769667506217957, 0.487544447183609, 0.11595015972852707, 0.11271397769451141, 0.10638503730297089, 0.12400180846452713, 0.1560158133506775, 0.45361143350601196, 0.8386132121086121, 0.8474926948547363, 0.7271945476531982, 0.7562496066093445, 0.7326823472976685, 0.7199757695198059, 0.44549742341041565, 0.7977433800697327, 0.808888852596283, 0.948248565196991, 0.39424362778663635, 0.3677511215209961, 0.23875238001346588, 0.34219416975975037, 0.3426837623119354, 0.13003845512866974, 0.3194444179534912, 0.39708906412124634, 0.5065584778785706, 0.8391405940055847, 0.9359691739082336, 0.9427051544189453, 0.9466084241867065, 0.9537618160247803, 0.9798862338066101, 0.9864405989646912, 0.9866579174995422, 0.9896043539047241, 0.9921086430549622, 0.9905537962913513, 0.98964524269104, 0.9827447533607483, 0.9715458750724792, 0.8889113068580627, 0.8791928291320801, 0.9767762422561646, 0.9543150663375854, 0.9726510047912598, 0.989544153213501, 0.987586498260498, 0.9821083545684814, 0.9848583936691284, 0.980168342590332, 0.9888096451759338, 0.995042085647583, 0.9890356659889221, 0.969025194644928, 0.9766819477081299, 0.9873528480529785, 0.9813763499259949, 0.9927638173103333, 0.990037202835083, 0.9929272532463074, 0.9885309934616089, 0.985750675201416, 0.9916954636573792, 0.9920623302459717, 0.9891728162765503, 0.9859397411346436, 0.9716662168502808, 0.9830167889595032, 0.98208087682724, 0.9760310053825378, 0.9812914133071899, 0.9231665730476379, 0.5752289891242981, 0.6895148158073425, 0.5311837792396545, 0.7015678286552429, 0.33600857853889465, 0.2628464698791504, 0.3216533064842224, 0.3693179488182068, 0.6222331523895264, 0.34461572766304016, 0.3416159451007843, 0.32814928889274597, 0.3715279996395111, 0.5200476050376892, 0.6713513731956482, 0.2911229133605957, 0.25287649035453796, 0.43585190176963806, 0.2410939782857895, 0.2122415155172348, 0.22709329426288605, 0.34268784523010254, 0.4481101632118225, 0.5251365303993225, 0.6643722057342529, 0.4930650591850281, 0.43498221039772034, 0.4248914122581482, 0.3466722071170807, 0.45937979221343994, 0.5683937668800354, 0.5642170310020447, 0.5137883424758911, 0.5073392987251282, 0.46280384063720703, 0.48700886964797974, 0.43335849046707153, 0.7788475155830383, 0.8051655292510986, 0.8060950636863708, 0.7758913040161133, 0.7989953756332397, 0.6389381885528564, 0.7161604166030884, 0.8888536691665649, 0.9615911841392517, 0.9736433029174805, 0.9805706143379211, 0.9607862234115601, 0.9756051301956177, 0.9687319993972778, 0.985691487789154, 0.9836191534996033, 0.9788199067115784, 0.8759182095527649, 0.8967761397361755, 0.7895023822784424, 0.8219821453094482, 0.8215661644935608, 0.5025547742843628, 0.8540258407592773, 0.7854446172714233, 0.7131024599075317, 0.35749590396881104, 0.6277920007705688, 0.6043975949287415, 0.6837316751480103, 0.6005776524543762, 0.5976551175117493]</t>
+          <t>[0.3241877853870392, 0.5699478387832642, 0.5706487894058228, 0.45755910873413086, 0.6669251322746277, 0.5959091186523438, 0.2720915675163269, 0.22509266436100006, 0.2507495880126953, 0.42241382598876953, 0.49905309081077576, 0.8063365817070007, 0.862887978553772, 0.875945508480072, 0.9184759259223938, 0.9426562190055847, 0.7034168839454651, 0.7989833950996399, 0.8463042378425598, 0.8747766017913818, 0.741001546382904, 0.5560915470123291, 0.6119238138198853, 0.7810006737709045, 0.8023161292076111, 0.9257749319076538, 0.9355078339576721, 0.8695708513259888, 0.8760027885437012, 0.6561044454574585, 0.7155824899673462, 0.5474190711975098, 0.21362678706645966, 0.12545675039291382, 0.10039516538381577, 0.04939427226781845, 0.06066964566707611, 0.048426151275634766, 0.25186389684677124, 0.9849042892456055, 0.9834414720535278, 0.8114563822746277, 0.12286590784788132, 0.06831852346658707, 0.11318358778953552, 0.13764704763889313, 0.21825233101844788, 0.5963335633277893, 0.9452978372573853, 0.8630265593528748, 0.7136748433113098, 0.7805312275886536, 0.8364486694335938, 0.8295997381210327, 0.5787851214408875, 0.874704897403717, 0.8997670412063599, 0.982302188873291, 0.3989071547985077, 0.5242825746536255, 0.26437047123908997, 0.44165441393852234, 0.43971341848373413, 0.22260262072086334, 0.369364470243454, 0.4976428151130676, 0.5760524272918701, 0.9567990899085999, 0.9902160167694092, 0.988474428653717, 0.993174135684967, 0.9904085397720337, 0.9968665242195129, 0.9967787861824036, 0.993803858757019, 0.9970157146453857, 0.9987425208091736, 0.9976081848144531, 0.9981299042701721, 0.997361958026886, 0.9969538450241089, 0.9700292348861694, 0.9351148009300232, 0.9972963929176331, 0.9919267892837524, 0.9969407320022583, 0.9979366064071655, 0.9979740977287292, 0.9979433417320251, 0.9971981048583984, 0.9956744313240051, 0.997291624546051, 0.9991065859794617, 0.9980801343917847, 0.9887895584106445, 0.9923717975616455, 0.9973748922348022, 0.9958806037902832, 0.9988890290260315, 0.9979290962219238, 0.9990457892417908, 0.997698962688446, 0.9965918064117432, 0.9987257122993469, 0.998816728591919, 0.9981877207756042, 0.9956310987472534, 0.9941548705101013, 0.9984951019287109, 0.9972000122070312, 0.9931265115737915, 0.9972611665725708, 0.9921532273292542, 0.9254702925682068, 0.8716270923614502, 0.7637428641319275, 0.769009530544281, 0.36644798517227173, 0.43808385729789734, 0.4095412492752075, 0.6069357395172119, 0.8012861609458923, 0.3728000521659851, 0.2766745388507843, 0.47446209192276, 0.6465730667114258, 0.6849061846733093, 0.9610157012939453, 0.5476494431495667, 0.6251704692840576, 0.7607376575469971, 0.44812095165252686, 0.22882315516471863, 0.3399685323238373, 0.5059192180633545, 0.4376254975795746, 0.6194032430648804, 0.7369945645332336, 0.5241141319274902, 0.6163906455039978, 0.6322054862976074, 0.4678148031234741, 0.6072705388069153, 0.6500465869903564, 0.5593352913856506, 0.5868210792541504, 0.6287798285484314, 0.5151098370552063, 0.5908706188201904, 0.5686187744140625, 0.8814192414283752, 0.8796148300170898, 0.8755978345870972, 0.9107893109321594, 0.9223406314849854, 0.7992900013923645, 0.9232157468795776, 0.9656800031661987, 0.9880852699279785, 0.9897621273994446, 0.9930517673492432, 0.9908030033111572, 0.9955665469169617, 0.9948685169219971, 0.9986261129379272, 0.998555600643158, 0.9971237778663635, 0.9808787107467651, 0.9635363221168518, 0.8409540057182312, 0.8616424798965454, 0.8286463022232056, 0.5412144064903259, 0.9703209400177002, 0.9309782981872559, 0.8334425091743469, 0.6455656886100769, 0.7693224549293518, 0.7109777331352234, 0.7775855660438538, 0.7214839458465576, 0.7189583778381348]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.995042085647583</v>
+        <v>0.9991065859794617</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1.020898699993268</v>
+        <v>1.0392559000029</v>
       </c>
       <c r="J114" t="n">
-        <v>0.005609333516446526</v>
+        <v>0.005710197252763185</v>
       </c>
     </row>
     <row r="115">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[0.14151881635189056, 0.15060952305793762, 0.0794854387640953, 0.0696122795343399, 0.07659795135259628, 0.10436363518238068, 0.17915259301662445, 0.14491622149944305, 0.14333654940128326, 0.14282719790935516, 0.25358155369758606, 0.17094220221042633, 0.13231894373893738, 0.1465272605419159, 0.1635541319847107, 0.11826514452695847, 0.21918930113315582, 0.1556682288646698, 0.2559981644153595, 0.14183788001537323, 0.0958087369799614, 0.06890270859003067, 0.32148411870002747, 0.5533315539360046, 0.618497908115387, 0.1416475772857666, 0.1491568684577942, 0.09670406579971313, 0.09621073305606842, 0.20373758673667908, 0.11468902975320816, 0.08102523535490036, 0.10858945548534393, 0.0904615968465805, 0.16348133981227875, 0.14264518022537231, 0.11989830434322357, 0.11551843583583832, 0.12707097828388214, 0.1267385184764862, 0.1179882362484932, 0.09464264661073685, 0.1105877161026001, 0.30586814880371094, 0.555182695388794, 0.316488653421402, 0.6068440079689026, 0.4911862015724182, 0.3856131136417389, 0.14680300652980804, 0.12351474165916443, 0.1020500585436821, 0.14148743450641632, 0.3147931694984436, 0.31990399956703186, 0.9135668873786926, 0.9241217374801636, 0.9037703275680542, 0.9106883406639099, 0.9329848885536194, 0.2541011571884155, 0.7803730368614197, 0.8606939315795898, 0.8807030916213989, 0.9006138443946838, 0.7909474968910217, 0.8675898313522339, 0.9303476810455322, 0.9054563641548157, 0.9329449534416199, 0.7019659876823425, 0.3809832036495209, 0.3108237683773041, 0.16192398965358734, 0.17171312868595123, 0.6976207494735718, 0.9475915431976318, 0.7754712700843811, 0.6242517828941345, 0.9627248048782349, 0.9024119973182678, 0.6260454058647156, 0.8813462853431702, 0.9519258737564087, 0.8913592100143433, 0.45178261399269104, 0.20581085979938507, 0.29031577706336975, 0.2766367197036743, 0.31127381324768066, 0.5619630217552185, 0.158339262008667, 0.09239254146814346, 0.08787734061479568, 0.16919180750846863, 0.12004102021455765, 0.1305782049894333, 0.08301510661840439, 0.11773065477609634, 0.08786415308713913, 0.03304031863808632, 0.044293977320194244, 0.05167967826128006, 0.05388859286904335, 0.04669887572526932, 0.04198085516691208, 0.0534365139901638, 0.247489795088768, 0.23579902946949005, 0.6279780864715576, 0.5436484813690186, 0.4013957381248474, 0.11148803681135178, 0.06737706810235977, 0.09898404031991959, 0.05613140016794205, 0.02720857597887516, 0.027125803753733635]</t>
+          <t>[0.0408223532140255, 0.04879940301179886, 0.028290756046772003, 0.01874515414237976, 0.017463836818933487, 0.032737936824560165, 0.051658663898706436, 0.043269358575344086, 0.04887498915195465, 0.053469981998205185, 0.11393824964761734, 0.036868833005428314, 0.03625613451004028, 0.03547070920467377, 0.04883396252989769, 0.028489092364907265, 0.1308581680059433, 0.04120241850614548, 0.6074491739273071, 0.25226444005966187, 0.07497663050889969, 0.03545776382088661, 0.3674411177635193, 0.8517231941223145, 0.8756411671638489, 0.058022234588861465, 0.06637336313724518, 0.04118737205862999, 0.05879100039601326, 0.12473078817129135, 0.04108820855617523, 0.046181123703718185, 0.05010320618748665, 0.05318084731698036, 0.11753830313682556, 0.08264076709747314, 0.07317914068698883, 0.041659459471702576, 0.03382173925638199, 0.036076802760362625, 0.038669403642416, 0.03616855666041374, 0.03027944266796112, 0.21310323476791382, 0.77836674451828, 0.45925983786582947, 0.783881425857544, 0.6578869819641113, 0.5018094182014465, 0.061936259269714355, 0.07478861510753632, 0.04736052826046944, 0.06464143097400665, 0.28638455271720886, 0.4015098214149475, 0.9658786654472351, 0.979706346988678, 0.9796655774116516, 0.9777306318283081, 0.9828143119812012, 0.5033867359161377, 0.9400893449783325, 0.9716162085533142, 0.9669203162193298, 0.9805746078491211, 0.921502411365509, 0.9660816788673401, 0.9814692735671997, 0.9736647009849548, 0.9796537756919861, 0.9695539474487305, 0.6570074558258057, 0.4966427683830261, 0.07685717940330505, 0.0911533385515213, 0.9443994164466858, 0.9903112649917603, 0.9311990737915039, 0.7655828595161438, 0.9893398880958557, 0.9864311814308167, 0.6782978773117065, 0.9573268294334412, 0.9890567660331726, 0.9530802369117737, 0.5621322393417358, 0.11016327142715454, 0.17546115815639496, 0.44868460297584534, 0.40107235312461853, 0.8971744179725647, 0.08946321904659271, 0.036898329854011536, 0.05494418367743492, 0.09624446928501129, 0.05633878707885742, 0.05367494747042656, 0.03018352761864662, 0.05165790021419525, 0.032074734568595886, 0.012497937306761742, 0.011812953278422356, 0.017574530094861984, 0.018194876611232758, 0.019354743883013725, 0.018914636224508286, 0.023138338699936867, 0.5279443860054016, 0.14532329142093658, 0.6381577849388123, 0.6286165118217468, 0.6513288617134094, 0.03257318213582039, 0.017596663907170296, 0.1635902225971222, 0.019066255539655685, 0.013572978787124157, 0.01349673978984356]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9627248048782349</v>
+        <v>0.9903112649917603</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.6582494000031147</v>
+        <v>0.6808140000066487</v>
       </c>
       <c r="J115" t="n">
-        <v>0.005578384745789108</v>
+        <v>0.00576961016954787</v>
       </c>
     </row>
     <row r="116">
@@ -5165,11 +5165,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[0.08504658937454224, 0.09481152147054672, 0.06349392235279083, 0.07439278811216354, 0.0799039676785469, 0.07503071427345276, 0.08107566088438034, 0.07211484760046005, 0.10689354687929153, 0.06753964722156525, 0.10178128629922867, 0.08360068500041962, 0.06532903760671616, 0.06556420028209686, 0.058229394257068634, 0.07743250578641891, 0.06263444572687149, 0.06091208755970001, 0.08062584698200226, 0.05192364752292633, 0.10577467828989029, 0.16622036695480347, 0.19487367570400238, 0.1580771803855896, 0.31009721755981445, 0.6638879179954529, 0.8526300191879272, 0.9632507562637329, 0.8756086826324463, 0.5250920653343201, 0.48620274662971497, 0.12279663980007172, 0.05437442660331726, 0.0597611702978611, 0.12515074014663696, 0.1245492473244667, 0.1573503166437149, 0.1800454556941986, 0.1669510006904602, 0.13759930431842804, 0.15688197314739227, 0.21325284242630005, 0.08607356995344162, 0.09492964297533035, 0.08686237037181854, 0.11413152515888214, 0.07992015779018402, 0.13229353725910187, 0.24877461791038513, 0.1511225551366806, 0.10973508656024933, 0.055252280086278915, 0.0930938720703125, 0.08064147084951401, 0.08165858685970306, 0.08497872948646545, 0.08148547261953354, 0.2150711715221405, 0.25501495599746704, 0.17678044736385345, 0.14131644368171692, 0.16791577637195587, 0.1719779670238495, 0.2892391085624695, 0.20519554615020752, 0.23911002278327942, 0.2035304754972458, 0.3080863356590271, 0.21910154819488525, 0.14138488471508026, 0.14104263484477997, 0.1144070252776146, 0.13365451991558075, 0.11242878437042236, 0.09025073051452637, 0.13128334283828735, 0.08595835417509079, 0.11279559880495071, 0.0896616205573082, 0.06943612545728683, 0.1206556186079979, 0.10635477304458618, 0.11129025369882584, 0.0899747759103775, 0.07615763694047928, 0.08124129474163055, 0.10001041740179062, 0.1032303050160408, 0.11852796375751495, 0.10486191511154175, 0.14090634882450104, 0.1262543946504593, 0.12178103625774384, 0.12138988822698593, 0.12861986458301544, 0.12833715975284576, 0.06368100643157959, 0.08910324424505234, 0.09429746121168137, 0.09700248390436172, 0.11663611233234406, 0.12356328964233398, 0.137807235121727, 0.12749861180782318, 0.12387663125991821, 0.1220555454492569, 0.16969600319862366, 0.14240288734436035, 0.09577701985836029, 0.09458516538143158, 0.09550517052412033, 0.09155666083097458, 0.08775945752859116, 0.08598669618368149, 0.07447133213281631, 0.10123126953840256, 0.07694312185049057, 0.07699757814407349]</t>
+          <t>[0.04495754465460777, 0.07502774894237518, 0.024997003376483917, 0.017320211976766586, 0.01684490777552128, 0.02252786234021187, 0.019899792969226837, 0.013201909139752388, 0.02352195605635643, 0.013729510828852654, 0.02575288526713848, 0.027624083682894707, 0.01334052812308073, 0.012168600223958492, 0.011479229666292667, 0.013552890159189701, 0.011372904293239117, 0.012266254052519798, 0.011484923772513866, 0.007795651443302631, 0.02756030671298504, 0.04095560684800148, 0.08028573542833328, 0.07551463693380356, 0.25731727480888367, 0.7195322513580322, 0.9700105786323547, 0.9824205636978149, 0.972494900226593, 0.5463804602622986, 0.7347916960716248, 0.0528511181473732, 0.01610715687274933, 0.021152257919311523, 0.04401683434844017, 0.043225888162851334, 0.05305151268839836, 0.06289475411176682, 0.05852271988987923, 0.04028607904911041, 0.048424288630485535, 0.080487921833992, 0.029170222580432892, 0.026629501953721046, 0.023354941979050636, 0.04769672080874443, 0.02502560429275036, 0.0540231317281723, 0.13988566398620605, 0.06694433093070984, 0.04378774017095566, 0.01729186810553074, 0.041781678795814514, 0.03032826818525791, 0.033580947667360306, 0.024776160717010498, 0.02812347374856472, 0.10373423248529434, 0.1290220320224762, 0.06156264618039131, 0.08576137572526932, 0.09335506707429886, 0.059854328632354736, 0.17836983501911163, 0.1584170162677765, 0.20271018147468567, 0.12703286111354828, 0.28953659534454346, 0.13404038548469543, 0.06530243903398514, 0.08248378336429596, 0.03942406177520752, 0.0408625490963459, 0.05184569209814072, 0.02614705264568329, 0.05206684395670891, 0.04169059544801712, 0.05573371797800064, 0.04258749634027481, 0.023328758776187897, 0.040448255836963654, 0.03947378322482109, 0.03817622736096382, 0.03074592724442482, 0.02319236472249031, 0.01651867665350437, 0.03089999593794346, 0.03894621133804321, 0.048151664435863495, 0.05010448396205902, 0.05292738974094391, 0.035936713218688965, 0.034794051200151443, 0.055376019328832626, 0.051447268575429916, 0.05909077078104019, 0.018306296318769455, 0.02685835398733616, 0.03908134996891022, 0.03204590827226639, 0.05516752228140831, 0.050025079399347305, 0.03761625662446022, 0.031994614750146866, 0.04572360962629318, 0.049078285694122314, 0.07020783424377441, 0.036307573318481445, 0.03619162738323212, 0.03184489160776138, 0.021504424512386322, 0.024704590439796448, 0.0282260961830616, 0.02222653292119503, 0.023445598781108856, 0.031389012932777405, 0.02750571258366108, 0.02765638567507267]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9632507562637329</v>
+        <v>0.9824205636978149</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.6547318000230007</v>
+        <v>0.6493843999924138</v>
       </c>
       <c r="J116" t="n">
-        <v>0.005548574576466107</v>
+        <v>0.005503257627054355</v>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[0.06771157681941986, 0.13317807018756866, 0.16359949111938477, 0.20852023363113403, 0.14055538177490234, 0.18018606305122375, 0.16036920249462128, 0.22299206256866455, 0.23246954381465912, 0.1785391867160797, 0.14454831182956696, 0.15195120871067047, 0.14341479539871216, 0.1067679300904274, 0.12941284477710724, 0.12013577669858932, 0.14024825394153595, 0.14605437219142914, 0.14987120032310486, 0.18883657455444336, 0.19421067833900452, 0.22337470948696136, 0.37905725836753845, 0.3425423502922058, 0.3294503390789032, 0.3209402561187744, 0.3879244923591614, 0.42798465490341187, 0.4391390085220337, 0.7975572943687439, 0.8728699088096619, 0.8574950098991394, 0.7762161493301392, 0.7826274037361145, 0.7385964393615723, 0.6709093451499939, 0.7121714949607849, 0.7913711071014404, 0.48336392641067505, 0.23412808775901794, 0.2460455596446991, 0.26879173517227173, 0.27621638774871826, 0.3303309381008148, 0.20801331102848053, 0.19645120203495026, 0.1503106951713562, 0.21826574206352234, 0.24092188477516174, 0.23880328238010406, 0.2286146879196167, 0.2786822021007538, 0.28022870421409607, 0.3269868791103363, 0.3206588923931122, 0.2822408080101013, 0.28692626953125, 0.32076212763786316, 0.26516762375831604, 0.29915672540664673, 0.3193080425262451, 0.2591022253036499, 0.157429501414299, 0.22314751148223877, 0.7281204462051392, 0.9336568713188171, 0.8394368886947632, 0.8832212686538696, 0.7739768624305725, 0.30971813201904297, 0.34367895126342773, 0.24572080373764038, 0.31943973898887634, 0.5485364198684692, 0.8663074374198914, 0.6944957375526428, 0.9245009422302246, 0.9858989715576172, 0.9665176868438721, 0.4899272620677948, 0.3856307864189148, 0.2266288846731186, 0.1580435037612915, 0.14935290813446045, 0.11640506237745285, 0.1409836709499359, 0.12585808336734772, 0.09949305653572083, 0.18573904037475586, 0.6113564372062683, 0.8453936576843262, 0.29200565814971924, 0.17698919773101807, 0.15259449183940887, 0.1559409350156784, 0.2446170300245285, 0.2113758623600006, 0.2233792245388031, 0.21975722908973694, 0.23003721237182617, 0.2720641791820526, 0.22728535532951355, 0.2486773282289505, 0.3182695508003235, 0.2068052738904953, 0.19706888496875763, 0.22904707491397858, 0.3474968671798706, 0.48790544271469116, 0.9422426223754883, 0.7159498929977417, 0.30057990550994873, 0.28220584988594055, 0.19528630375862122, 0.17829552292823792, 0.1706044226884842, 0.19204668700695038, 0.19535864889621735]</t>
+          <t>[0.04310908913612366, 0.1556723266839981, 0.07479506731033325, 0.1010272428393364, 0.05994163453578949, 0.11767156422138214, 0.12354569882154465, 0.1138683408498764, 0.13974691927433014, 0.11653576791286469, 0.07555079460144043, 0.07091335952281952, 0.06445799022912979, 0.05153905227780342, 0.058739081025123596, 0.04012557119131088, 0.06723474711179733, 0.08201467990875244, 0.0783507451415062, 0.13689303398132324, 0.12573117017745972, 0.15938739478588104, 0.4289737641811371, 0.2168033868074417, 0.3193192183971405, 0.24720335006713867, 0.5147418975830078, 0.5911295413970947, 0.6290053129196167, 0.9832028150558472, 0.9848552346229553, 0.9855441451072693, 0.9806362986564636, 0.9670901894569397, 0.9559840559959412, 0.9362658858299255, 0.9551560282707214, 0.9374089241027832, 0.8718515038490295, 0.4064269959926605, 0.20607660710811615, 0.1976565718650818, 0.21387065947055817, 0.27530160546302795, 0.13946092128753662, 0.10216677188873291, 0.060303155332803726, 0.11285144090652466, 0.2398996502161026, 0.16746044158935547, 0.1962711662054062, 0.19652971625328064, 0.15043781697750092, 0.25668594241142273, 0.2999045252799988, 0.21295306086540222, 0.34060531854629517, 0.25380003452301025, 0.19098305702209473, 0.2248138189315796, 0.21535654366016388, 0.2793511748313904, 0.15456433594226837, 0.16536076366901398, 0.9306091666221619, 0.9869840145111084, 0.9275434017181396, 0.9801550507545471, 0.9767504334449768, 0.272011399269104, 0.2402830272912979, 0.12124153226613998, 0.18509627878665924, 0.6903619766235352, 0.9854711294174194, 0.8598722219467163, 0.9916201829910278, 0.997542142868042, 0.9966273903846741, 0.7593705058097839, 0.2607623338699341, 0.14507779479026794, 0.06910469383001328, 0.07383551448583603, 0.09164559841156006, 0.12698586285114288, 0.11360148340463638, 0.0677243247628212, 0.18878135085105896, 0.9498175382614136, 0.9491289854049683, 0.6229514479637146, 0.16014893352985382, 0.1269787698984146, 0.10146891325712204, 0.1440684050321579, 0.15593066811561584, 0.13309109210968018, 0.106001116335392, 0.15732185542583466, 0.17505444586277008, 0.1626359522342682, 0.1677352488040924, 0.2559535801410675, 0.13164463639259338, 0.10338123142719269, 0.11638028919696808, 0.6289803981781006, 0.636815071105957, 0.9902383089065552, 0.9455128312110901, 0.1888280063867569, 0.22239121794700623, 0.1310674101114273, 0.08144702762365341, 0.06870992481708527, 0.12142632901668549, 0.1226334199309349]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9858989715576172</v>
+        <v>0.997542142868042</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.6572830000077374</v>
+        <v>0.669417600001907</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005570194915319808</v>
+        <v>0.005673030508490737</v>
       </c>
     </row>
     <row r="118">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[0.735660970211029, 0.3795771300792694, 0.4607231616973877, 0.3126157820224762, 0.25715234875679016, 0.6269505023956299, 0.9551085829734802, 0.8915243148803711, 0.9521023035049438, 0.8015995025634766, 0.44843006134033203, 0.24104808270931244, 0.1989419162273407, 0.44452959299087524, 0.4277425706386566, 0.2957579791545868, 0.2800057530403137, 0.2722254991531372, 0.19785471260547638, 0.41904228925704956, 0.733413815498352, 0.4770715832710266, 0.9444236755371094, 0.844351589679718, 0.6713261008262634, 0.5056880116462708, 0.3639070987701416, 0.3461400270462036, 0.3299033045768738, 0.4959133565425873, 0.4724370539188385, 0.43143489956855774, 0.3631817698478699, 0.3295217454433441, 0.3253958821296692, 0.33830714225769043, 0.9530560970306396, 0.9341002702713013, 0.8327509760856628, 0.7341514229774475, 0.4457121789455414, 0.2050030529499054, 0.2903743386268616, 0.17965751886367798, 0.613299548625946, 0.9051039218902588, 0.9108316898345947, 0.774913489818573, 0.3421626389026642, 0.3915691673755646, 0.45300954580307007, 0.5053648948669434, 0.5575939416885376, 0.9714598059654236, 0.9746595025062561, 0.9145104885101318, 0.7999212741851807, 0.7142428755760193, 0.3397976756095886, 0.4000203311443329, 0.496978759765625, 0.4840030074119568, 0.6985651850700378, 0.7093631625175476, 0.6262958645820618, 0.7719577550888062, 0.7183411121368408, 0.38983985781669617, 0.33524268865585327, 0.33016112446784973, 0.6671521067619324, 0.8740609884262085, 0.6204754114151001, 0.960934042930603, 0.8292451500892639, 0.6882237792015076, 0.38405051827430725, 0.27170825004577637, 0.9426014423370361, 0.9530249834060669, 0.753730297088623, 0.4850577116012573, 0.501481294631958, 0.4853459596633911, 0.319283127784729, 0.5291464924812317, 0.6517794132232666, 0.7415183782577515, 0.9053724408149719, 0.7485636472702026, 0.9135541915893555, 0.9756990671157837, 0.9655817151069641, 0.8202491998672485, 0.619193971157074, 0.2071598619222641, 0.2522450089454651, 0.2713324725627899, 0.7375409603118896, 0.5426874160766602, 0.9414445757865906, 0.8606565594673157, 0.8684697151184082, 0.8239029049873352, 0.6138107776641846, 0.22373609244823456, 0.3492410182952881, 0.36842456459999084, 0.8426950573921204, 0.8755243420600891, 0.6963210105895996, 0.5493311882019043, 0.3940524160861969, 0.2031366378068924, 0.23775917291641235, 0.4537748098373413, 0.4410496950149536, 0.4403728246688843]</t>
+          <t>[0.928433358669281, 0.24600118398666382, 0.2107185274362564, 0.1598324328660965, 0.1424569934606552, 0.9602431058883667, 0.9972702860832214, 0.9913610816001892, 0.9922133088111877, 0.8827013373374939, 0.38928326964378357, 0.16360250115394592, 0.08622419834136963, 0.500940203666687, 0.2824450731277466, 0.19153839349746704, 0.13892611861228943, 0.18953168392181396, 0.07624009251594543, 0.24770350754261017, 0.7672821283340454, 0.39169809222221375, 0.9909159541130066, 0.9865694642066956, 0.906581461429596, 0.6601628661155701, 0.4897083044052124, 0.21383650600910187, 0.16376379132270813, 0.4294464886188507, 0.48916977643966675, 0.37687039375305176, 0.1681532859802246, 0.15976789593696594, 0.2044222354888916, 0.18431906402111053, 0.9962911605834961, 0.9919214248657227, 0.9796361923217773, 0.8653462529182434, 0.28381380438804626, 0.11708815395832062, 0.18399982154369354, 0.10278259217739105, 0.8941530585289001, 0.996146559715271, 0.9929810762405396, 0.9591920375823975, 0.40204110741615295, 0.31990036368370056, 0.38955822587013245, 0.17841799557209015, 0.2686793804168701, 0.9969018697738647, 0.997664213180542, 0.9927547574043274, 0.9192365407943726, 0.894912838935852, 0.2001117616891861, 0.12477779388427734, 0.8443188071250916, 0.6865202784538269, 0.8628541231155396, 0.9561545848846436, 0.8032271265983582, 0.9514685273170471, 0.9153345227241516, 0.28388217091560364, 0.15717904269695282, 0.1505386084318161, 0.9469675421714783, 0.9931160807609558, 0.6346364617347717, 0.9942528605461121, 0.9684866070747375, 0.7870852947235107, 0.36442074179649353, 0.11470331251621246, 0.9980757236480713, 0.9963296055793762, 0.9010927081108093, 0.36031123995780945, 0.3152843713760376, 0.3829759657382965, 0.11394868791103363, 0.33603841066360474, 0.5649085640907288, 0.5957392454147339, 0.9699079990386963, 0.8457290530204773, 0.9940324425697327, 0.998143196105957, 0.9965279698371887, 0.9650117754936218, 0.7752040028572083, 0.08348662406206131, 0.12623882293701172, 0.10513469576835632, 0.9678022265434265, 0.8894087672233582, 0.9968059062957764, 0.9940372705459595, 0.9955156445503235, 0.9869844913482666, 0.6901237964630127, 0.11037864536046982, 0.22205989062786102, 0.33594387769699097, 0.9823628067970276, 0.9735144972801208, 0.8395944237709045, 0.39013317227363586, 0.21060480177402496, 0.06540794670581818, 0.07636843621730804, 0.2871592044830322, 0.3518432080745697, 0.357585608959198]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9756990671157837</v>
+        <v>0.998143196105957</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.6740093000116758</v>
+        <v>0.6754513999912888</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005711943220437931</v>
+        <v>0.005724164406705837</v>
       </c>
     </row>
     <row r="119">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.06533730030059814, 0.08485175669193268, 0.14885877072811127, 0.09793441742658615, 0.23742689192295074, 0.3474613130092621, 0.2099221646785736, 0.13694815337657928, 0.1444261074066162, 0.36069369316101074, 0.35315537452697754, 0.23175247013568878, 0.2722306549549103, 0.2951391935348511, 0.5792120695114136, 0.7532469630241394, 0.8838464617729187, 0.7701629400253296, 0.33864402770996094, 0.1776868849992752, 0.13838247954845428, 0.10966207087039948, 0.11278471350669861, 0.24685434997081757, 0.16653084754943848, 0.3321901857852936, 0.2700410783290863, 0.32784509658813477, 0.3142743408679962, 0.24773044884204865, 0.12089458107948303, 0.17796951532363892, 0.18149147927761078, 0.2020563930273056, 0.10181810706853867, 0.17050118744373322, 0.08393926918506622, 0.047280117869377136, 0.3910958766937256, 0.47664928436279297, 0.13106393814086914, 0.12541159987449646, 0.09685768187046051, 0.14167015254497528, 0.09170769900083542, 0.05714597553014755, 0.08556064963340759, 0.06267684698104858, 0.05579866096377373, 0.08447060734033585, 0.06877584755420685, 0.06495992094278336, 0.09199937433004379, 0.10609711706638336, 0.10506498068571091, 0.11007243394851685, 0.11805407702922821, 0.162778839468956, 0.20315401256084442, 0.22600708901882172, 0.3293711245059967, 0.17042388021945953, 0.11991770565509796, 0.10978066176176071, 0.14338424801826477, 0.08988815546035767, 0.08949178457260132, 0.06323857605457306, 0.0521506704390049, 0.057620804756879807, 0.0779043436050415, 0.10090074688196182, 0.13697603344917297, 0.1274217665195465, 0.06222519651055336, 0.0903727114200592, 0.15839990973472595, 0.20306913554668427, 0.30432063341140747, 0.29343628883361816, 0.16241715848445892, 0.24526914954185486, 0.11438094079494476, 0.09427414834499359, 0.14845110476016998, 0.10391679406166077, 0.1178174838423729, 0.42697715759277344, 0.17650184035301208, 0.30946800112724304, 0.5228527188301086, 0.3526933789253235, 0.3265874981880188, 0.1708429902791977, 0.1647980511188507, 0.2219642996788025, 0.22879165410995483, 0.1395726352930069, 0.28096193075180054, 0.1820271611213684, 0.21064694225788116, 0.16070599853992462, 0.09540650248527527, 0.150137260556221, 0.1393793225288391, 0.18709692358970642, 0.18331603705883026, 0.15048250555992126, 0.13266046345233917, 0.18383844196796417, 0.13378630578517914, 0.18629279732704163, 0.16195206344127655, 0.21799331903457642, 0.2907485365867615, 0.3232436776161194, 0.2940177321434021, 0.24435006082057953, 0.2447856366634369]</t>
+          <t>[0.023657934740185738, 0.014431891962885857, 0.03077504225075245, 0.021339217200875282, 0.12536706030368805, 0.1811225563287735, 0.06662917882204056, 0.047095101326704025, 0.028099795803427696, 0.3097216486930847, 0.20865020155906677, 0.11875734478235245, 0.15108290314674377, 0.19248223304748535, 0.606451153755188, 0.897911787033081, 0.9770132303237915, 0.9494649171829224, 0.5009743571281433, 0.1026880145072937, 0.09121186286211014, 0.06871706992387772, 0.05857747048139572, 0.28763216733932495, 0.07631784677505493, 0.21784144639968872, 0.19129058718681335, 0.25322407484054565, 0.23051343858242035, 0.16629180312156677, 0.07862883806228638, 0.08087804168462753, 0.07182222604751587, 0.1045546606183052, 0.018110143020749092, 0.064231738448143, 0.02363196387887001, 0.008974871598184109, 0.4346427023410797, 0.6213571429252625, 0.03542396426200867, 0.03656722232699394, 0.034828491508960724, 0.0316096730530262, 0.022594064474105835, 0.007547687739133835, 0.023682013154029846, 0.010495596565306187, 0.011681503616273403, 0.012679406441748142, 0.009218268096446991, 0.009235041216015816, 0.014547591097652912, 0.023147528991103172, 0.018386386334896088, 0.018732327967882156, 0.018474802374839783, 0.018217425793409348, 0.023541804403066635, 0.032560862600803375, 0.08157628774642944, 0.02661621943116188, 0.022645816206932068, 0.02657935954630375, 0.047419968992471695, 0.023248180747032166, 0.020867008715867996, 0.02165067195892334, 0.01611989736557007, 0.01743179000914097, 0.02492617443203926, 0.021034952253103256, 0.033965542912483215, 0.03365562483668327, 0.014189304783940315, 0.028740014880895615, 0.03949717804789543, 0.06753493845462799, 0.3201944828033447, 0.25721481442451477, 0.03461482375860214, 0.08560758829116821, 0.035336460918188095, 0.03031911328434944, 0.04026934877038002, 0.029006002470850945, 0.04276322200894356, 0.4984705448150635, 0.0673382356762886, 0.2029726654291153, 0.8570007681846619, 0.3228849768638611, 0.3275969326496124, 0.043796323239803314, 0.03807033598423004, 0.0651853159070015, 0.08342009782791138, 0.05293737351894379, 0.14331857860088348, 0.06783513724803925, 0.06490883231163025, 0.046538520604372025, 0.029877832159399986, 0.04863199591636658, 0.042682044208049774, 0.05328119918704033, 0.05925198271870613, 0.04902639985084534, 0.04365170747041702, 0.052660804241895676, 0.03672873601317406, 0.06008884310722351, 0.04969734698534012, 0.050789862871170044, 0.06827016919851303, 0.0745987743139267, 0.07994625717401505, 0.07519111782312393, 0.07546211034059525]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.8838464617729187</v>
+        <v>0.9770132303237915</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.6641014000051655</v>
+        <v>0.6572835999977542</v>
       </c>
       <c r="J119" t="n">
-        <v>0.005580684033656853</v>
+        <v>0.005523391596619783</v>
       </c>
     </row>
     <row r="120">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.4916784167289734, 0.544310450553894, 0.5493541955947876, 0.30272603034973145, 0.21570320427417755, 0.2813459634780884, 0.2774207890033722, 0.21977856755256653, 0.1928580403327942, 0.28350844979286194, 0.19462747871875763, 0.3967801630496979, 0.2789112329483032, 0.49891841411590576, 0.4797194302082062, 0.46976813673973083, 0.520628809928894, 0.2682555913925171, 0.4614497423171997, 0.5743163824081421, 0.8556178212165833, 0.7539733648300171, 0.6159629821777344, 0.45668086409568787, 0.4864625036716461, 0.6142424941062927, 0.2070186883211136, 0.18287891149520874, 0.7264255285263062, 0.8746483325958252, 0.6070747971534729, 0.8603506088256836, 0.5488272905349731, 0.5900360345840454, 0.3667815625667572, 0.24627520143985748, 0.20588533580303192, 0.304762065410614, 0.06534251570701599, 0.10026969760656357, 0.1595161110162735, 0.6997153162956238, 0.7898067831993103, 0.8468641638755798, 0.808306872844696, 0.7569983601570129, 0.6894381642341614, 0.6349862813949585, 0.6481165289878845, 0.5467681884765625, 0.5590262413024902, 0.7451817393302917, 0.5999022126197815, 0.5710815191268921, 0.7018715739250183, 0.8635587692260742, 0.9028332233428955, 0.7959800958633423, 0.8578775525093079, 0.7430632710456848, 0.3204360902309418, 0.2860648036003113, 0.5043097138404846, 0.5486966967582703, 0.2501113712787628, 0.19508621096611023, 0.2867961823940277, 0.21812328696250916, 0.12139145284891129, 0.20953847467899323, 0.3343784809112549, 0.31932005286216736, 0.15182209014892578, 0.21957705914974213, 0.32240453362464905, 0.5630344748497009, 0.9467073082923889, 0.7921733260154724, 0.7379465103149414, 0.6901190280914307, 0.796393871307373, 0.7925238609313965, 0.8965309858322144, 0.9324331879615784, 0.9207779169082642, 0.9073007702827454, 0.9497430324554443, 0.9251831769943237, 0.9346316456794739, 0.9448269009590149, 0.9075335264205933, 0.9125983119010925, 0.950480580329895, 0.9620487093925476, 0.8539820313453674, 0.9549300670623779, 0.8910125494003296, 0.8738186955451965, 0.7249215245246887, 0.37601354718208313, 0.5277246236801147, 0.3372165560722351, 0.3210097551345825, 0.338712602853775, 0.2286287546157837, 0.44385552406311035, 0.33238741755485535, 0.3386273980140686, 0.32851022481918335, 0.22234201431274414, 0.4945865273475647, 0.4207443594932556, 0.38290920853614807, 0.8394940495491028, 0.8923352360725403, 0.9105222821235657, 0.9500105977058411, 0.9500970244407654]</t>
+          <t>[0.2702459990978241, 0.4110787510871887, 0.40705767273902893, 0.23229674994945526, 0.12514281272888184, 0.1932511180639267, 0.15686708688735962, 0.14487828314304352, 0.08883097767829895, 0.19715119898319244, 0.1325376331806183, 0.17917898297309875, 0.13318513333797455, 0.2853196859359741, 0.3019319474697113, 0.2976270616054535, 0.22603562474250793, 0.14465117454528809, 0.24443872272968292, 0.26050689816474915, 0.7290728688240051, 0.7295026183128357, 0.5203385949134827, 0.30848830938339233, 0.19277790188789368, 0.29130876064300537, 0.071027472615242, 0.21944409608840942, 0.934120774269104, 0.9671664834022522, 0.7331326603889465, 0.9294099807739258, 0.3912862241268158, 0.48147645592689514, 0.2592744529247284, 0.2470533549785614, 0.16512957215309143, 0.6976091861724854, 0.07220571488142014, 0.09552627056837082, 0.20311233401298523, 0.8588952422142029, 0.8803220987319946, 0.9513994455337524, 0.952555239200592, 0.8697054386138916, 0.8917123079299927, 0.7478979229927063, 0.7238559722900391, 0.4329094886779785, 0.42332199215888977, 0.7931816577911377, 0.6133975982666016, 0.48565730452537537, 0.7134208083152771, 0.9114258885383606, 0.9377661347389221, 0.6302471160888672, 0.809967577457428, 0.41661542654037476, 0.15794937312602997, 0.14903588593006134, 0.5725734829902649, 0.6915905475616455, 0.10537488013505936, 0.0709928646683693, 0.10010922700166702, 0.08995843678712845, 0.06157316267490387, 0.0983206108212471, 0.2096865028142929, 0.23281700909137726, 0.08937641233205795, 0.1496419906616211, 0.29479897022247314, 0.4996456205844879, 0.975425660610199, 0.8333929777145386, 0.8108794689178467, 0.7474967241287231, 0.829630970954895, 0.8412832021713257, 0.9296267628669739, 0.9583561420440674, 0.9560158848762512, 0.9732224345207214, 0.9911767244338989, 0.9779859781265259, 0.9854682087898254, 0.986011803150177, 0.9589329361915588, 0.9774815440177917, 0.9852259755134583, 0.9897108674049377, 0.9456037878990173, 0.977715015411377, 0.9390248656272888, 0.8967733383178711, 0.6526662707328796, 0.28778737783432007, 0.3648940622806549, 0.20543377101421356, 0.35532790422439575, 0.3016936182975769, 0.15084029734134674, 0.4436247646808624, 0.24391014873981476, 0.19578620791435242, 0.2761501669883728, 0.14211158454418182, 0.30764439702033997, 0.2805878221988678, 0.2471722513437271, 0.8497775793075562, 0.9167581796646118, 0.9351383447647095, 0.9843457341194153, 0.9844409227371216]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9620487093925476</v>
+        <v>0.9911767244338989</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.6633476999995764</v>
+        <v>0.6689569000009215</v>
       </c>
       <c r="J120" t="n">
-        <v>0.005621590677962512</v>
+        <v>0.005669126271194249</v>
       </c>
     </row>
     <row r="121">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[0.06929545849561691, 0.09058322012424469, 0.08477018028497696, 0.10655349493026733, 0.12326997518539429, 0.2006179839372635, 0.21865014731884003, 0.18907378613948822, 0.14568068087100983, 0.1329157054424286, 0.28240519762039185, 0.5666577219963074, 0.28771188855171204, 0.5810773372650146, 0.7072641253471375, 0.6395439505577087, 0.2598816156387329, 0.5622686743736267, 0.08149523288011551, 0.08401107043027878, 0.08674383908510208, 0.14377297461032867, 0.20990018546581268, 0.4043498933315277, 0.3528730273246765, 0.714590847492218, 0.12367754429578781, 0.34527522325515747, 0.21549396216869354, 0.10741729289293289, 0.11490511894226074, 0.11778602004051208, 0.20248548686504364, 0.12401479482650757, 0.18448500335216522, 0.2187522053718567, 0.2178981751203537, 0.2997141182422638, 0.2236572504043579, 0.2835290729999542, 0.27474474906921387, 0.2955623269081116, 0.20529422163963318, 0.25779029726982117, 0.1973874717950821, 0.2676107585430145, 0.3245290517807007, 0.34219491481781006, 0.44976529479026794, 0.29946818947792053, 0.23944760859012604, 0.27738702297210693, 0.3906705975532532, 0.3120891749858856, 0.32333746552467346, 0.26732945442199707, 0.23818126320838928, 0.17866909503936768, 0.15214800834655762, 0.17991884052753448, 0.1735052466392517, 0.23418758809566498, 0.21882006525993347, 0.1767323762178421, 0.15569733083248138, 0.16659612953662872, 0.1813492327928543, 0.17006929218769073, 0.2685862183570862, 0.3277731239795685, 0.16160203516483307, 0.20093950629234314, 0.2148108333349228, 0.1952027976512909, 0.2666689455509186, 0.19503240287303925, 0.21053487062454224, 0.25610437989234924, 0.2730628252029419, 0.1573799103498459, 0.20665515959262848, 0.17692556977272034, 0.381855309009552, 0.5921058654785156, 0.6188879609107971, 0.27884072065353394, 0.16740086674690247, 0.16605296730995178, 0.22981373965740204, 0.2422933280467987, 0.1551113724708557, 0.20158037543296814, 0.2611643373966217, 0.11595992743968964, 0.12815803289413452, 0.2439732402563095, 0.23819957673549652, 0.19088412821292877, 0.9244008660316467, 0.8333831429481506, 0.9108148813247681, 0.9050900340080261, 0.9136279821395874, 0.9112840294837952, 0.6703534722328186, 0.1911565661430359, 0.178866446018219, 0.12436527013778687, 0.22130286693572998, 0.15548557043075562, 0.29470908641815186, 0.2781658172607422, 0.17682859301567078, 0.19733156263828278, 0.20451058447360992, 0.27602097392082214, 0.4469148516654968, 0.44657623767852783]</t>
+          <t>[0.025005528703331947, 0.026918737217783928, 0.040476035326719284, 0.04363538697361946, 0.05372625216841698, 0.10282868146896362, 0.12170977890491486, 0.11730584502220154, 0.06879927217960358, 0.0667160227894783, 0.664752185344696, 0.972265899181366, 0.8040891885757446, 0.9719823598861694, 0.9815399050712585, 0.9683564901351929, 0.7826311588287354, 0.9561154246330261, 0.0568988099694252, 0.12067598849534988, 0.04893675073981285, 0.09192539751529694, 0.15710464119911194, 0.9051487445831299, 0.9079254865646362, 0.9764297008514404, 0.11552700400352478, 0.6993967294692993, 0.4508010447025299, 0.21940138936042786, 0.0495428703725338, 0.08506936579942703, 0.1677202582359314, 0.10158897191286087, 0.12753938138484955, 0.15638870000839233, 0.10746084898710251, 0.22945643961429596, 0.12371950596570969, 0.290085107088089, 0.20552490651607513, 0.13941320776939392, 0.07978671789169312, 0.11597894877195358, 0.07175929844379425, 0.20833678543567657, 0.19368261098861694, 0.13664518296718597, 0.49651145935058594, 0.24767614901065826, 0.22368699312210083, 0.14871178567409515, 0.3157162666320801, 0.19866281747817993, 0.2321188598871231, 0.16426824033260345, 0.13081301748752594, 0.11853829771280289, 0.08628278970718384, 0.10503123700618744, 0.1171078309416771, 0.16036804020404816, 0.1655309647321701, 0.0779104232788086, 0.0919215977191925, 0.14297142624855042, 0.12678639590740204, 0.1237667128443718, 0.19185101985931396, 0.23577021062374115, 0.07402541488409042, 0.1426420509815216, 0.19822581112384796, 0.12867842614650726, 0.22278815507888794, 0.09897875785827637, 0.13705866038799286, 0.18974271416664124, 0.4102962613105774, 0.15658430755138397, 0.21944649517536163, 0.21846862137317657, 0.673248291015625, 0.9474501609802246, 0.908379316329956, 0.3404087722301483, 0.06679468601942062, 0.07375258207321167, 0.1238366961479187, 0.13406701385974884, 0.0575312040746212, 0.09813748300075531, 0.14552843570709229, 0.05050695687532425, 0.052888303995132446, 0.15162765979766846, 0.1180766299366951, 0.1303495317697525, 0.9960353970527649, 0.9743822813034058, 0.9835404753684998, 0.9884824156761169, 0.9865650534629822, 0.9890453815460205, 0.9764002561569214, 0.10803859680891037, 0.08482769876718521, 0.0414067804813385, 0.09486053884029388, 0.06554806977510452, 0.13595622777938843, 0.10897233337163925, 0.08141667395830154, 0.11639481037855148, 0.12568309903144836, 0.20562393963336945, 0.6502059102058411, 0.6496505737304688]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9244008660316467</v>
+        <v>0.9960353970527649</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.6580537999980152</v>
+        <v>0.6703290000004927</v>
       </c>
       <c r="J121" t="n">
-        <v>0.005576727118627247</v>
+        <v>0.00568075423729231</v>
       </c>
     </row>
     <row r="122">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[0.9894880056381226, 0.98395174741745, 0.9896261692047119, 0.9899265766143799, 0.9507690668106079, 0.9157175421714783, 0.9242638945579529, 0.8323097825050354, 0.8758407235145569, 0.8681420087814331, 0.6785976886749268, 0.8619063496589661, 0.9499078989028931, 0.9548274874687195, 0.9171814918518066, 0.8070502877235413, 0.46149399876594543, 0.4104577898979187, 0.3418235182762146, 0.36293765902519226, 0.5489286780357361, 0.8577708601951599, 0.8229843378067017, 0.9103474617004395, 0.9211136698722839, 0.7960288524627686, 0.8072174191474915, 0.7763310670852661, 0.8811067938804626, 0.7297045588493347, 0.9236949682235718, 0.9710236191749573, 0.9663677215576172, 0.971648097038269, 0.9803445339202881, 0.9793261289596558, 0.9520055055618286, 0.9644214510917664, 0.9861810803413391, 0.9843825697898865, 0.9644378423690796, 0.9580812454223633, 0.9618906378746033, 0.9532654285430908, 0.9294378757476807, 0.8800355792045593, 0.8569294810295105, 0.9261100888252258, 0.8538163900375366, 0.9199749827384949, 0.9514697194099426, 0.8705129027366638, 0.9168635010719299, 0.9565938711166382, 0.9105092287063599, 0.930593729019165, 0.9471527338027954, 0.9435964226722717, 0.8903018832206726, 0.9038247466087341, 0.8255734443664551, 0.891546368598938, 0.942499041557312, 0.8740489482879639, 0.7016912698745728, 0.6786651015281677, 0.7278886437416077, 0.9418730735778809, 0.9591802954673767, 0.9378445744514465, 0.965785026550293, 0.9476800560951233, 0.8767150640487671, 0.9325408935546875, 0.963386595249176, 0.9369190335273743, 0.9696729779243469, 0.9655739665031433, 0.9211347103118896, 0.9658563137054443, 0.9615174531936646, 0.9491541385650635, 0.9721766710281372, 0.9717355370521545, 0.8892979621887207, 0.9322231411933899, 0.8263558745384216, 0.8409987092018127, 0.8240394592285156, 0.5368471145629883, 0.5005659461021423, 0.4719620943069458, 0.36820510029792786, 0.4230968952178955, 0.4520271122455597, 0.5634549856185913, 0.7177269458770752, 0.6847761273384094, 0.3463876247406006, 0.4735330641269684, 0.6875724792480469, 0.41344738006591797, 0.6588897705078125, 0.3675632178783417, 0.4819962978363037, 0.7720620632171631, 0.737960159778595, 0.6901218295097351, 0.6299918293952942, 0.7865200042724609, 0.8752332925796509, 0.9227324724197388, 0.8238899111747742, 0.750030517578125, 0.8394842147827148, 0.860791027545929, 0.9539519548416138, 0.9548560380935669]</t>
+          <t>[0.9979709982872009, 0.99715256690979, 0.9984378218650818, 0.9987413287162781, 0.9838269948959351, 0.9692849516868591, 0.9888001680374146, 0.8627020716667175, 0.9396238923072815, 0.9489753246307373, 0.802829384803772, 0.9611183404922485, 0.9888328313827515, 0.9900728464126587, 0.9788262844085693, 0.9707409143447876, 0.6287295818328857, 0.45570772886276245, 0.33568117022514343, 0.49914300441741943, 0.6727504134178162, 0.9882405996322632, 0.9259229302406311, 0.9739049077033997, 0.9798762798309326, 0.9275553822517395, 0.9513943791389465, 0.8526208996772766, 0.9462864398956299, 0.8683422207832336, 0.9668303728103638, 0.9893173575401306, 0.9837608933448792, 0.9870144128799438, 0.9943358302116394, 0.9946290850639343, 0.9825953245162964, 0.9932871460914612, 0.9978755712509155, 0.9963254332542419, 0.9935294985771179, 0.9928836822509766, 0.9901166558265686, 0.9861095547676086, 0.971758246421814, 0.9291418790817261, 0.9481835961341858, 0.9746072292327881, 0.963839590549469, 0.9872168898582458, 0.9914265871047974, 0.97735595703125, 0.9693000912666321, 0.9865887761116028, 0.9677688479423523, 0.9796677827835083, 0.9881429076194763, 0.9851630330085754, 0.9810301065444946, 0.9806323051452637, 0.9295880198478699, 0.9747742414474487, 0.9891436696052551, 0.9609562754631042, 0.6575343012809753, 0.6200510263442993, 0.7943532466888428, 0.9869679808616638, 0.9873162508010864, 0.9538978338241577, 0.9944052696228027, 0.9903854131698608, 0.9645158052444458, 0.9789016842842102, 0.9909511804580688, 0.9676265120506287, 0.9894658327102661, 0.9941904544830322, 0.9793035984039307, 0.9916370511054993, 0.9819958209991455, 0.9798058867454529, 0.9928218722343445, 0.9913365840911865, 0.9628802537918091, 0.9603602886199951, 0.8266704082489014, 0.8914359211921692, 0.9570368528366089, 0.5833239555358887, 0.45529496669769287, 0.5368037223815918, 0.32714152336120605, 0.4798941910266876, 0.36867988109588623, 0.47599875926971436, 0.700020432472229, 0.6414431929588318, 0.37652236223220825, 0.5674653649330139, 0.7702359557151794, 0.4528232216835022, 0.8091003894805908, 0.32222044467926025, 0.45202958583831787, 0.9284881353378296, 0.9026262760162354, 0.803255558013916, 0.8716228604316711, 0.969302773475647, 0.9700167775154114, 0.9903788566589355, 0.856640636920929, 0.798308789730072, 0.9380285143852234, 0.9463829398155212, 0.993733823299408, 0.9938918352127075]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9899265766143799</v>
+        <v>0.9987413287162781</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.6893630000122357</v>
+        <v>0.6802103999943938</v>
       </c>
       <c r="J122" t="n">
-        <v>0.005842059322137591</v>
+        <v>0.005764494915206727</v>
       </c>
     </row>
     <row r="123">
@@ -5445,11 +5445,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[0.9744200706481934, 0.9648712277412415, 0.98062664270401, 0.9549546241760254, 0.9516261219978333, 0.9709343910217285, 0.9591078758239746, 0.957983672618866, 0.8605405688285828, 0.8721660375595093, 0.9442649483680725, 0.9768853187561035, 0.973370373249054, 0.9614478945732117, 0.9456063508987427, 0.8995348811149597, 0.7822889685630798, 0.6121999621391296, 0.8350601196289062, 0.8455820083618164, 0.5636438131332397, 0.7651638984680176, 0.7182784080505371, 0.28503769636154175, 0.19722965359687805, 0.3762466013431549, 0.330471932888031, 0.3040991425514221, 0.4172596335411072, 0.4873966872692108, 0.3485250174999237, 0.2058359980583191, 0.39544677734375, 0.32452234625816345, 0.3890725076198578, 0.40530502796173096, 0.4052327871322632, 0.4133133590221405, 0.2750840485095978, 0.2676031291484833, 0.29419371485710144, 0.49705809354782104, 0.6744279265403748, 0.7608741521835327, 0.36935096979141235, 0.18752460181713104, 0.17246656119823456, 0.31612810492515564, 0.3266737163066864, 0.3277618885040283, 0.5186014175415039, 0.4744565188884735, 0.5677880048751831, 0.44433942437171936, 0.4263066351413727, 0.3204570710659027, 0.9164922833442688, 0.9527230262756348, 0.8584200739860535, 0.5712805986404419, 0.44431984424591064, 0.4926212430000305, 0.6416482329368591, 0.5984489917755127, 0.5408226847648621, 0.885567843914032, 0.8990199565887451, 0.8816026449203491, 0.7941752672195435, 0.7960070371627808, 0.8039645552635193, 0.7470020055770874, 0.6068309545516968, 0.5134626626968384, 0.6511040925979614, 0.5973329544067383, 0.5559595823287964, 0.4404102563858032, 0.4682697355747223, 0.5279959440231323, 0.6369421482086182, 0.47554752230644226, 0.491363525390625, 0.4687941372394562, 0.43714672327041626, 0.4637710452079773, 0.6319636702537537, 0.46472468972206116, 0.416858047246933, 0.5747776627540588, 0.5661914944648743, 0.5043649673461914, 0.5602503418922424, 0.4667700231075287, 0.47349146008491516, 0.4866756498813629, 0.4361027181148529, 0.35811588168144226, 0.5125911235809326, 0.4223730266094208, 0.3212582767009735, 0.44108709692955017, 0.34454286098480225, 0.33318138122558594, 0.3000777065753937, 0.23973558843135834, 0.27763840556144714, 0.404080331325531, 0.408680260181427, 0.31384336948394775, 0.283798485994339, 0.33427894115448, 0.35833320021629333, 0.33919429779052734, 0.3227682411670685, 0.37112516164779663, 0.5008690357208252, 0.5326347947120667, 0.5237196087837219, 0.5656214952468872, 0.6171790957450867, 0.538330078125, 0.565058171749115, 0.509829580783844, 0.4257667660713196, 0.373948872089386, 0.4446195363998413, 0.40379342436790466, 0.4169413149356842, 0.37424612045288086, 0.37068212032318115, 0.5260972380638123, 0.4628642797470093, 0.49168661236763, 0.6000089049339294, 0.5431079268455505, 0.5949748158454895, 0.61668461561203, 0.701950192451477, 0.6161494255065918, 0.7144954204559326, 0.7007952332496643, 0.639775812625885, 0.5354257822036743, 0.4607391953468323, 0.4184768497943878, 0.5127915740013123, 0.6155154705047607, 0.5815526247024536, 0.692270815372467, 0.7279135584831238, 0.8488532304763794, 0.9013286232948303, 0.748718798160553, 0.6143454909324646, 0.4984267055988312, 0.5309410691261292, 0.4920751452445984, 0.700998067855835, 0.6839320659637451, 0.5717520713806152, 0.3512059450149536, 0.259268194437027, 0.29317420721054077, 0.4339603781700134, 0.5460972189903259, 0.5346547961235046, 0.6647495627403259, 0.6692149639129639, 0.6246296167373657, 0.521966814994812, 0.3913120627403259, 0.41316086053848267, 0.3559078276157379, 0.30553871393203735, 0.25863778591156006, 0.29861894249916077, 0.29980114102363586, 0.3479556441307068, 0.3359663188457489, 0.31561052799224854, 0.36078208684921265, 0.5923962593078613, 0.4923364222049713, 0.37329232692718506, 0.40306776762008667, 0.35080477595329285, 0.36328500509262085, 0.5085363388061523, 0.5119326710700989, 0.4350031018257141, 0.4266343116760254, 0.38760724663734436, 0.3748072683811188, 0.3323673903942108, 0.33500975370407104]</t>
+          <t>[0.997753918170929, 0.9975458979606628, 0.9978747367858887, 0.9960187077522278, 0.9918713569641113, 0.9948187470436096, 0.9917145371437073, 0.9920682907104492, 0.9710239768028259, 0.9776895046234131, 0.9951122403144836, 0.9969421029090881, 0.9975599050521851, 0.9959296584129333, 0.9971338510513306, 0.9897806644439697, 0.9836967587471008, 0.8568843603134155, 0.9822378754615784, 0.986391544342041, 0.8698415756225586, 0.9411135315895081, 0.8227914571762085, 0.336500883102417, 0.23400475084781647, 0.5021465420722961, 0.2476140260696411, 0.23572291433811188, 0.3742051422595978, 0.39620447158813477, 0.3010888397693634, 0.19257555902004242, 0.39088159799575806, 0.33967554569244385, 0.3750709593296051, 0.28494274616241455, 0.314198762178421, 0.26221707463264465, 0.19379553198814392, 0.21464690566062927, 0.2626475989818573, 0.5579333901405334, 0.7943122982978821, 0.8313233852386475, 0.29868605732917786, 0.15176808834075928, 0.15431268513202667, 0.2202475368976593, 0.25104594230651855, 0.3184816539287567, 0.5045706629753113, 0.4731539189815521, 0.5187423229217529, 0.6288521885871887, 0.47036466002464294, 0.3376782238483429, 0.9832960963249207, 0.9964800477027893, 0.9712597131729126, 0.6194641590118408, 0.47459831833839417, 0.5359258055686951, 0.9153507947921753, 0.9312551617622375, 0.9344039559364319, 0.9757512807846069, 0.9475853443145752, 0.9483960866928101, 0.9497660398483276, 0.921488344669342, 0.9018051028251648, 0.870175302028656, 0.6196191310882568, 0.4953511357307434, 0.7198280692100525, 0.6864840388298035, 0.719459056854248, 0.3596770167350769, 0.39154329895973206, 0.5723218321800232, 0.65431147813797, 0.3737594187259674, 0.36777159571647644, 0.5082520246505737, 0.49284571409225464, 0.5450344681739807, 0.6639916896820068, 0.43509846925735474, 0.49880412220954895, 0.8583101034164429, 0.8299076557159424, 0.6601548790931702, 0.7910066843032837, 0.43926188349723816, 0.39598095417022705, 0.3732301592826843, 0.36290621757507324, 0.31279903650283813, 0.518059253692627, 0.4664248824119568, 0.3905573785305023, 0.46656396985054016, 0.336945503950119, 0.3246714174747467, 0.31068864464759827, 0.23988841474056244, 0.261558473110199, 0.4243009686470032, 0.4224027693271637, 0.35133880376815796, 0.33508479595184326, 0.37477919459342957, 0.4089429974555969, 0.39815354347229004, 0.3950537145137787, 0.48994094133377075, 0.6068399548530579, 0.5916920900344849, 0.5839554667472839, 0.5873502492904663, 0.6442196369171143, 0.5043905973434448, 0.5448052287101746, 0.5453677773475647, 0.4021531045436859, 0.3329116702079773, 0.40795233845710754, 0.36078208684921265, 0.37349772453308105, 0.2733011543750763, 0.2822977304458618, 0.4402415156364441, 0.32626572251319885, 0.34293097257614136, 0.5359576344490051, 0.5062747001647949, 0.5839918255805969, 0.6090452075004578, 0.8743301033973694, 0.7486096620559692, 0.7411985993385315, 0.7028444409370422, 0.5871037840843201, 0.49815768003463745, 0.4506474733352661, 0.4147672951221466, 0.6882644295692444, 0.8641523122787476, 0.749845564365387, 0.716495931148529, 0.7629274129867554, 0.9492846131324768, 0.9727298021316528, 0.8526949286460876, 0.7044362425804138, 0.380531370639801, 0.4994661211967468, 0.423562616109848, 0.7672205567359924, 0.7977280020713806, 0.6380213499069214, 0.21372422575950623, 0.15075811743736267, 0.16904564201831818, 0.2679756283760071, 0.42048266530036926, 0.43120479583740234, 0.5557752847671509, 0.529460608959198, 0.43526172637939453, 0.33068397641181946, 0.3099310100078583, 0.3109968304634094, 0.2929547429084778, 0.2516319453716278, 0.20092858374118805, 0.26938316226005554, 0.23619960248470306, 0.25452765822410583, 0.2837400734424591, 0.31743428111076355, 0.3173831105232239, 0.49085327982902527, 0.38037729263305664, 0.31866443157196045, 0.28621238470077515, 0.22406166791915894, 0.24759110808372498, 0.38468945026397705, 0.35308972001075745, 0.291103720664978, 0.28821003437042236, 0.2648937702178955, 0.277609258890152, 0.2588501572608948, 0.26316124200820923]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.98062664270401</v>
+        <v>0.9978747367858887</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1.234497600002214</v>
+        <v>1.248670699991635</v>
       </c>
       <c r="J123" t="n">
-        <v>0.006298457142868441</v>
+        <v>0.006370768877508342</v>
       </c>
     </row>
     <row r="124">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.711696207523346, 0.5077964067459106, 0.41352614760398865, 0.41596975922584534, 0.338403582572937, 0.4186004400253296, 0.3574439585208893, 0.45810335874557495, 0.558227002620697, 0.49024537205696106, 0.5905182361602783, 0.7391162514686584, 0.6794894337654114, 0.7920465469360352, 0.5273744463920593, 0.6795098781585693, 0.7253656983375549, 0.4779767096042633, 0.3859917223453522, 0.4582570493221283, 0.6418348550796509, 0.4798831045627594, 0.3922608494758606, 0.4301821291446686, 0.39044123888015747, 0.36903682351112366, 0.4145162105560303, 0.3493524491786957, 0.4815700352191925, 0.6779504418373108, 0.6787427663803101, 0.5966867208480835, 0.4545661509037018, 0.35885247588157654, 0.31571945548057556, 0.5999236702919006, 0.5179772973060608, 0.5672571063041687, 0.509712278842926, 0.4213583171367645, 0.32504701614379883, 0.36612293124198914, 0.3268836736679077, 0.4532455503940582, 0.5870888233184814, 0.6153604388237, 0.6549338102340698, 0.478618860244751, 0.31256747245788574, 0.3027648627758026, 0.37034130096435547, 0.24878612160682678, 0.2289065420627594, 0.37453633546829224, 0.6215397119522095, 0.5246565937995911, 0.4214978516101837, 0.3502451181411743, 0.35727599263191223, 0.29147228598594666, 0.2768235504627228, 0.324192076921463, 0.23162955045700073, 0.20461317896842957, 0.19983141124248505, 0.324393093585968, 0.27879592776298523, 0.33265262842178345, 0.27395281195640564, 0.4080703854560852, 0.4252012073993683, 0.5678326487541199, 0.6264186501502991, 0.6522011160850525, 0.41787177324295044, 0.4049823582172394, 0.5099678039550781, 0.6181424260139465, 0.5846570730209351, 0.6003932356834412, 0.40994179248809814, 0.4239773452281952, 0.43741753697395325, 0.6319484710693359, 0.5961776971817017, 0.620964527130127, 0.723721981048584, 0.768606960773468, 0.8297646045684814, 0.6234902739524841, 0.7168349623680115, 0.5644607543945312, 0.5762871503829956, 0.611890971660614, 0.5257233381271362, 0.6755400896072388, 0.700494647026062, 0.6950864791870117, 0.7716023325920105, 0.6735121607780457, 0.6426953673362732, 0.6037223935127258, 0.5150547027587891, 0.5171937942504883, 0.6600141525268555, 0.5334742665290833, 0.4394834041595459, 0.5431240797042847, 0.5889933109283447, 0.6884667873382568, 0.6622254252433777, 0.6448497772216797, 0.5223667025566101, 0.7472257614135742, 0.6697041988372803, 0.7282188534736633, 0.7482311129570007, 0.746635377407074, 0.8084900379180908, 0.712748110294342, 0.699508786201477, 0.5990528464317322, 0.678297221660614, 0.6826813817024231, 0.6859945058822632, 0.5143774151802063, 0.6272422075271606, 0.6322633028030396, 0.5503592491149902, 0.4160144031047821, 0.4103308320045471, 0.5186285376548767, 0.5058798789978027, 0.5624135136604309, 0.7520914673805237, 0.7808910608291626, 0.8097657561302185, 0.37879642844200134, 0.32569193840026855, 0.3721010982990265, 0.3341960906982422, 0.39062052965164185, 0.3470284938812256, 0.3777053952217102, 0.36003345251083374, 0.35349392890930176, 0.6039801836013794, 0.6319778561592102, 0.6927066445350647, 0.569983720779419, 0.5656306743621826, 0.44151702523231506, 0.6423041820526123, 0.5663876533508301, 0.5416337847709656, 0.45892035961151123, 0.37751951813697815, 0.3220004141330719, 0.3416503369808197, 0.3018837869167328, 0.3362489342689514, 0.4660945236682892, 0.5111573934555054, 0.50799560546875, 0.4301634430885315, 0.46506646275520325, 0.4952678084373474, 0.49866926670074463, 0.39061155915260315, 0.3497033715248108, 0.42901885509490967, 0.41245847940444946, 0.42374464869499207, 0.40192556381225586, 0.3826628625392914, 0.4748271703720093, 0.8558634519577026, 0.8003920316696167, 0.713648796081543, 0.7148781418800354, 0.6910044550895691, 0.4937644600868225, 0.6109226942062378, 0.5542234778404236, 0.5386621356010437, 0.5396711826324463, 0.5792205333709717, 0.5677614212036133, 0.5547136068344116, 0.5683280229568481, 0.548584520816803, 0.4887177050113678, 0.5720203518867493, 0.599052369594574, 0.5244801640510559, 0.5231927633285522]</t>
+          <t>[0.8300484418869019, 0.6539998054504395, 0.6188022494316101, 0.5462332963943481, 0.3654223680496216, 0.4406730830669403, 0.4943094551563263, 0.6247155666351318, 0.6666420102119446, 0.5787231922149658, 0.607979416847229, 0.7423847317695618, 0.7069242000579834, 0.8385591506958008, 0.6737697124481201, 0.795183002948761, 0.8270487189292908, 0.552483320236206, 0.49286848306655884, 0.5424304604530334, 0.6618291735649109, 0.4447462856769562, 0.3887978792190552, 0.4190724194049835, 0.36029601097106934, 0.32753482460975647, 0.2748374044895172, 0.2790597975254059, 0.5057536363601685, 0.6612935662269592, 0.7511681318283081, 0.6374809741973877, 0.39552128314971924, 0.33462584018707275, 0.3477328419685364, 0.6996245384216309, 0.6045591831207275, 0.7078686952590942, 0.6217778921127319, 0.4803870618343353, 0.4163922071456909, 0.3688165545463562, 0.3489997982978821, 0.49261000752449036, 0.7531688213348389, 0.8199730515480042, 0.7642037272453308, 0.5665163993835449, 0.41771742701530457, 0.49360859394073486, 0.4692226052284241, 0.3676937222480774, 0.3079216480255127, 0.41942065954208374, 0.8124991059303284, 0.8424960970878601, 0.4516831338405609, 0.4110095202922821, 0.4931173026561737, 0.4242374300956726, 0.3808762729167938, 0.343328595161438, 0.19314131140708923, 0.20358382165431976, 0.2126188576221466, 0.39258667826652527, 0.3229888379573822, 0.40558239817619324, 0.261738121509552, 0.3464333713054657, 0.33798661828041077, 0.5002870559692383, 0.5156499147415161, 0.5686638951301575, 0.4525732100009918, 0.45449674129486084, 0.615208089351654, 0.526403546333313, 0.45720288157463074, 0.45111843943595886, 0.32041075825691223, 0.337580144405365, 0.39559367299079895, 0.6139320731163025, 0.4885515570640564, 0.5101101994514465, 0.6320465803146362, 0.7190454006195068, 0.9174486994743347, 0.7332817912101746, 0.8236684203147888, 0.5976154804229736, 0.6081145405769348, 0.6463720202445984, 0.5826638340950012, 0.7383795976638794, 0.7488598227500916, 0.7129439115524292, 0.7054940462112427, 0.5340893864631653, 0.5118246078491211, 0.5568128824234009, 0.4582275450229645, 0.47793224453926086, 0.7349668145179749, 0.6094813942909241, 0.388735830783844, 0.5408530235290527, 0.5617439150810242, 0.7686440944671631, 0.7870649695396423, 0.7678391337394714, 0.5541722774505615, 0.8535377383232117, 0.7118331789970398, 0.8329684734344482, 0.7517826557159424, 0.8192001581192017, 0.8687708377838135, 0.6290717124938965, 0.6309619545936584, 0.5147368907928467, 0.6387962102890015, 0.6621419191360474, 0.7232440710067749, 0.48390302062034607, 0.6405127048492432, 0.7207850217819214, 0.6253405809402466, 0.4822162687778473, 0.5111919045448303, 0.7095983624458313, 0.6711952686309814, 0.7305772304534912, 0.9752095341682434, 0.9778407216072083, 0.98384028673172, 0.5579447150230408, 0.30975833535194397, 0.3561455309391022, 0.3138066232204437, 0.3832261562347412, 0.33021658658981323, 0.4284753203392029, 0.4474571645259857, 0.44955089688301086, 0.7673285007476807, 0.712829053401947, 0.7937853932380676, 0.75501948595047, 0.7472094297409058, 0.573956310749054, 0.7845517992973328, 0.741860568523407, 0.7018793225288391, 0.5193260312080383, 0.3714502453804016, 0.30518800020217896, 0.31042781472206116, 0.31760460138320923, 0.43206384778022766, 0.6666801571846008, 0.6192419528961182, 0.6031269431114197, 0.49772024154663086, 0.4861908555030823, 0.5140500664710999, 0.6272194385528564, 0.43016505241394043, 0.34886303544044495, 0.4548010230064392, 0.47064390778541565, 0.498163640499115, 0.4915952682495117, 0.48744264245033264, 0.5932450294494629, 0.9504715204238892, 0.8984653353691101, 0.8194937705993652, 0.8260475397109985, 0.7843224406242371, 0.5144096612930298, 0.5684131383895874, 0.40427127480506897, 0.4070761501789093, 0.5961227416992188, 0.6339816451072693, 0.5473361611366272, 0.38140133023262024, 0.4139710068702698, 0.4492614269256592, 0.34272924065589905, 0.4038781225681305, 0.5032631158828735, 0.37853527069091797, 0.37658315896987915]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.8558634519577026</v>
+        <v>0.98384028673172</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1.076752599998144</v>
+        <v>1.094374699998298</v>
       </c>
       <c r="J124" t="n">
-        <v>0.005493635714276247</v>
+        <v>0.005583544387746417</v>
       </c>
     </row>
     <row r="125">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0.18398664891719818, 0.13886627554893494, 0.1625780612230301, 0.14278577268123627, 0.12026895582675934, 0.1051025390625, 0.08528749644756317, 0.16215382516384125, 0.14274616539478302, 0.14796984195709229, 0.2318871021270752, 0.24349620938301086, 0.22685517370700836, 0.12272021174430847, 0.11594656854867935, 0.1497749388217926, 0.2580523192882538, 0.2561509907245636, 0.24943633377552032, 0.18430283665657043, 0.19988267123699188, 0.14560917019844055, 0.12062369287014008, 0.10664144903421402, 0.1097656860947609, 0.05876222997903824, 0.05118829011917114, 0.07321476191282272, 0.07738102227449417, 0.08140235394239426, 0.09785635024309158, 0.13450028002262115, 0.09506144374608994, 0.10718979686498642, 0.13464805483818054, 0.12959061563014984, 0.11767511814832687, 0.08490035682916641, 0.09460471570491791, 0.13607443869113922, 0.14012129604816437, 0.10941250622272491, 0.09962233155965805, 0.10763155668973923, 0.1069716215133667, 0.11629294604063034, 0.10371697694063187, 0.09762679040431976, 0.10928066074848175, 0.12059573829174042, 0.13676761090755463, 0.12642258405685425, 0.09716226160526276, 0.09718590974807739, 0.13134723901748657, 0.19903093576431274, 0.2349652349948883, 0.24764113128185272, 0.15581709146499634, 0.16077390313148499, 0.1668851375579834, 0.24864612519741058, 0.1939769983291626, 0.179834246635437, 0.12121278047561646, 0.14431308209896088, 0.12132655829191208, 0.14059510827064514, 0.14303641021251678, 0.143402099609375, 0.11224198341369629, 0.11661609262228012, 0.09760621190071106, 0.10363806784152985, 0.06868402659893036, 0.08030883967876434, 0.0716184601187706, 0.08682505041360855, 0.09325849264860153, 0.10032419860363007, 0.12919874489307404, 0.13169622421264648, 0.10027346760034561, 0.09263256937265396, 0.09101898223161697, 0.07715284824371338, 0.06982846558094025, 0.06939620524644852, 0.09758376330137253, 0.13100753724575043, 0.15012812614440918, 0.10225899517536163, 0.08561304956674576, 0.1120324656367302, 0.15956568717956543, 0.16267532110214233, 0.15085169672966003, 0.1477549970149994, 0.12418251484632492, 0.12931382656097412, 0.15034063160419464, 0.13538707792758942, 0.12596474587917328, 0.17548833787441254, 0.17029447853565216, 0.14665918052196503, 0.1252768337726593, 0.1419893056154251, 0.13148660957813263, 0.11959845572710037, 0.11149131506681442, 0.10221213102340698, 0.1095694825053215, 0.08502888679504395, 0.1009633019566536, 0.09481397271156311, 0.08329904079437256, 0.07137720286846161, 0.05356309190392494, 0.06935562193393707, 0.07040519267320633, 0.07372333854436874, 0.07110670208930969, 0.08959252387285233, 0.12041641771793365, 0.11983964592218399, 0.1447822004556656, 0.19490613043308258, 0.15249423682689667, 0.1595776528120041, 0.19756947457790375, 0.17669829726219177, 0.17793163657188416, 0.18022754788398743, 0.2058052122592926, 0.19205518066883087, 0.16837655007839203, 0.13920557498931885, 0.1470748484134674, 0.14849118888378143, 0.18760907649993896, 0.19852225482463837, 0.11088123172521591, 0.06900909543037415, 0.06318173557519913, 0.09052114933729172, 0.10172104090452194, 0.16673694550991058, 0.11951224505901337, 0.10878974944353104, 0.1191473975777626, 0.12893924117088318, 0.12381746619939804, 0.12297440320253372, 0.09792318940162659, 0.08948268741369247, 0.09199832379817963, 0.11020992696285248, 0.11189056187868118, 0.09754153341054916, 0.14436465501785278, 0.1506960242986679, 0.13380086421966553, 0.16251054406166077, 0.1739111989736557, 0.18450039625167847, 0.23512990772724152, 0.2733214497566223, 0.27342939376831055, 0.2964940071105957, 0.3256424069404602, 0.276185005903244, 0.2599129378795624, 0.2981773316860199, 0.33694976568222046, 0.4246273636817932, 0.3037257194519043, 0.2601783275604248, 0.18566982448101044, 0.18109130859375, 0.26010480523109436, 0.9481358528137207, 0.9536928534507751, 0.9503740668296814, 0.4717998504638672, 0.4254891872406006, 0.2938523590564728, 0.6610313057899475, 0.7263496518135071, 0.7455600500106812, 0.7209957838058472, 0.6392238736152649, 0.5457816123962402, 0.4185706079006195, 0.3251989483833313, 0.32478591799736023]</t>
+          <t>[0.14529208838939667, 0.09010612964630127, 0.11590563505887985, 0.10025111585855484, 0.09610588103532791, 0.12030866742134094, 0.1074802577495575, 0.18100734055042267, 0.1456604152917862, 0.1576576828956604, 0.2609909176826477, 0.2786451280117035, 0.2752876877784729, 0.13980363309383392, 0.12406452000141144, 0.14882640540599823, 0.2622586488723755, 0.2654832601547241, 0.23322677612304688, 0.18214933574199677, 0.13900186121463776, 0.07188310474157333, 0.09649571031332016, 0.11455653607845306, 0.10309901088476181, 0.056945186108350754, 0.06001048535108566, 0.08833801746368408, 0.16779395937919617, 0.22978617250919342, 0.2687171399593353, 0.1809394210577011, 0.11432334780693054, 0.13308805227279663, 0.12991979718208313, 0.15591096878051758, 0.16195519268512726, 0.1698068380355835, 0.18336409330368042, 0.23818212747573853, 0.19462475180625916, 0.14667637646198273, 0.13349971175193787, 0.18826481699943542, 0.2072771191596985, 0.24751150608062744, 0.198777437210083, 0.19609004259109497, 0.17690299451351166, 0.15506424009799957, 0.16337093710899353, 0.162913516163826, 0.1781945675611496, 0.1657552868127823, 0.22309190034866333, 0.22912831604480743, 0.28521427512168884, 0.2802094519138336, 0.14669281244277954, 0.19548138976097107, 0.17866480350494385, 0.22814063727855682, 0.17026272416114807, 0.1410982310771942, 0.10180050879716873, 0.13091981410980225, 0.09866566210985184, 0.1156097799539566, 0.143666610121727, 0.18234440684318542, 0.19034628570079803, 0.22337006032466888, 0.13573284447193146, 0.16391517221927643, 0.08308783918619156, 0.08507164567708969, 0.089530348777771, 0.09785592555999756, 0.11910820007324219, 0.07687430083751678, 0.1070980504155159, 0.10481400787830353, 0.11669579893350601, 0.09942033886909485, 0.09445096552371979, 0.07022280991077423, 0.05782293900847435, 0.060744501650333405, 0.11727748811244965, 0.17868027091026306, 0.19210191071033478, 0.11979681253433228, 0.10860061645507812, 0.12323890626430511, 0.18656204640865326, 0.2170865833759308, 0.20208217203617096, 0.1978110671043396, 0.19279715418815613, 0.19462285935878754, 0.24327364563941956, 0.21792854368686676, 0.18422731757164001, 0.22679677605628967, 0.24018500745296478, 0.17730499804019928, 0.1946428418159485, 0.25951799750328064, 0.20977218449115753, 0.18136930465698242, 0.16245420277118683, 0.1433430314064026, 0.16615234315395355, 0.13538740575313568, 0.1615697294473648, 0.2008669525384903, 0.14921040832996368, 0.11780992895364761, 0.09916015714406967, 0.12299612164497375, 0.1257564127445221, 0.13367408514022827, 0.12254425883293152, 0.1412447988986969, 0.17187745869159698, 0.14090482890605927, 0.1708969920873642, 0.2235652059316635, 0.18026936054229736, 0.1906021386384964, 0.20009981095790863, 0.1587139219045639, 0.1523970514535904, 0.1706128716468811, 0.18119721114635468, 0.16277235746383667, 0.24204781651496887, 0.22655083239078522, 0.21231631934642792, 0.16746753454208374, 0.18270565569400787, 0.2175235152244568, 0.1244342029094696, 0.09807061403989792, 0.09002074599266052, 0.15677689015865326, 0.15037603676319122, 0.21475183963775635, 0.15234291553497314, 0.14731642603874207, 0.15300226211547852, 0.17835161089897156, 0.17355844378471375, 0.16264672577381134, 0.1282205730676651, 0.10125243663787842, 0.08425921946763992, 0.12230372428894043, 0.12710478901863098, 0.11829053610563278, 0.2668093740940094, 0.23236222565174103, 0.2006329894065857, 0.30608171224594116, 0.33382269740104675, 0.3223731815814972, 0.37586846947669983, 0.41679686307907104, 0.43194329738616943, 0.42561233043670654, 0.5065171718597412, 0.4305921196937561, 0.5427665710449219, 0.5590506196022034, 0.6061540842056274, 0.6484797596931458, 0.45318180322647095, 0.3819354176521301, 0.22040383517742157, 0.2159474492073059, 0.43543222546577454, 0.9963711500167847, 0.9957042336463928, 0.9957603812217712, 0.7470767498016357, 0.7921153903007507, 0.6934040188789368, 0.8070745468139648, 0.8104747533798218, 0.8865465521812439, 0.8586200475692749, 0.8066237568855286, 0.6842225790023804, 0.5146977305412292, 0.3187333941459656, 0.3182116746902466]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9536928534507751</v>
+        <v>0.9963711500167847</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1.08912269998109</v>
+        <v>1.092780199993285</v>
       </c>
       <c r="J125" t="n">
-        <v>0.005556748469291274</v>
+        <v>0.005575409183639211</v>
       </c>
     </row>
     <row r="126">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.2587997317314148, 0.4598742425441742, 0.4250118136405945, 0.30735868215560913, 0.14345473051071167, 0.1530788689851761, 0.16071060299873352, 0.1845589429140091, 0.2508651614189148, 0.3259049355983734, 0.28145164251327515, 0.2968505024909973, 0.2252553552389145, 0.19107593595981598, 0.17515449225902557, 0.24553713202476501, 0.20893195271492004, 0.16496075689792633, 0.24256806075572968, 0.3544034957885742, 0.2752405107021332, 0.290759414434433, 0.1975858211517334, 0.18516719341278076, 0.2502313554286957, 0.25512489676475525, 0.30415216088294983, 0.3505263924598694, 0.1787342131137848, 0.21006831526756287, 0.35199272632598877, 0.6465508341789246, 0.6734355092048645, 0.7796688079833984, 0.5954287648200989, 0.21058152616024017, 0.13237960636615753, 0.1340360939502716, 0.24936996400356293, 0.25859877467155457, 0.19384321570396423, 0.18615269660949707, 0.18487097322940826, 0.11213823407888412, 0.12093581259250641, 0.12166093289852142, 0.08116886019706726, 0.07823619246482849, 0.06491943448781967, 0.1197441890835762, 0.12373422086238861, 0.13649632036685944, 0.2017897069454193, 0.24032191932201385, 0.2105383425951004, 0.1939704269170761, 0.16189870238304138, 0.12525230646133423, 0.1385081261396408, 0.185067817568779, 0.16209948062896729, 0.23091965913772583, 0.32247230410575867, 0.2591378688812256, 0.1337481290102005, 0.12821178138256073, 0.14508607983589172, 0.15344251692295074, 0.3468213677406311, 0.36484089493751526, 0.2583935558795929, 0.14254331588745117, 0.1680147796869278, 0.2729364037513733, 0.30949005484580994, 0.24279087781906128, 0.24260614812374115, 0.24515487253665924, 0.25883612036705017, 0.24198152124881744, 0.2304634153842926, 0.26783719658851624, 0.2857891619205475, 0.21792177855968475, 0.2602207362651825, 0.23116330802440643, 0.1383599042892456, 0.14872656762599945, 0.15811225771903992, 0.16103973984718323, 0.15480279922485352, 0.1446206271648407, 0.16148227453231812, 0.12045059353113174, 0.10085126757621765, 0.13117240369319916, 0.19941173493862152, 0.17576144635677338, 0.16273289918899536, 0.15638215839862823, 0.19375920295715332, 0.2391955554485321, 0.22300143539905548, 0.3100888431072235, 0.24914783239364624, 0.23987199366092682, 0.1972704976797104, 0.15057684481143951, 0.1616625040769577, 0.20681247115135193, 0.20870718359947205, 0.2008771002292633, 0.1891135275363922, 0.17063772678375244, 0.14325539767742157, 0.15246938169002533, 0.18641279637813568, 0.20224714279174805, 0.1683947592973709, 0.1241154596209526, 0.11847991496324539, 0.15207363665103912, 0.17211578786373138, 0.15833121538162231, 0.15662330389022827, 0.1676653027534485, 0.17135114967823029, 0.13600926101207733, 0.15789161622524261, 0.17199791967868805, 0.135174959897995, 0.13264931738376617, 0.16374020278453827, 0.2195112258195877, 0.1925913542509079, 0.205781951546669, 0.1969931721687317, 0.22716563940048218, 0.17710083723068237, 0.16325296461582184, 0.1203778088092804, 0.10818097740411758, 0.3484116196632385, 0.6444840431213379, 0.803544819355011, 0.6695437431335449, 0.73036128282547, 0.585757315158844, 0.1336430162191391, 0.1424558162689209, 0.12077757716178894, 0.17770156264305115, 0.17979344725608826, 0.16403613984584808, 0.12603826820850372, 0.12202601134777069, 0.12812773883342743, 0.10630740225315094, 0.1198912188410759, 0.12160991132259369, 0.13035720586776733, 0.18142667412757874, 0.1364966481924057, 0.14866861701011658, 0.15397104620933533, 0.20542998611927032, 0.2033243477344513, 0.22395765781402588, 0.23467399179935455, 0.19530072808265686, 0.16990898549556732, 0.17547835409641266, 0.26419201493263245, 0.3284328281879425, 0.2893184721469879, 0.16892442107200623, 0.16110095381736755, 0.15278267860412598, 0.18535885214805603, 0.1507047861814499, 0.1612902134656906, 0.15993548929691315, 0.13811464607715607, 0.16531367599964142, 0.19572573900222778, 0.2733672857284546, 0.2460564821958542, 0.14800982177257538, 0.18763506412506104, 0.17955806851387024, 0.16246697306632996, 0.15548750758171082, 0.1474842131137848, 0.1442294716835022, 0.10678517818450928, 0.10787953436374664]</t>
+          <t>[0.4444820284843445, 0.5941130518913269, 0.5359588265419006, 0.34751009941101074, 0.23886781930923462, 0.22430852055549622, 0.22971311211585999, 0.22080619633197784, 0.27180758118629456, 0.41260993480682373, 0.45776668190956116, 0.47431066632270813, 0.36465778946876526, 0.34454256296157837, 0.31393319368362427, 0.48415741324424744, 0.3308188021183014, 0.2677759826183319, 0.342334508895874, 0.5387768149375916, 0.4709218144416809, 0.44204217195510864, 0.47755780816078186, 0.4503670930862427, 0.472412109375, 0.4751850664615631, 0.53846275806427, 0.5618596076965332, 0.2266503870487213, 0.3007236123085022, 0.5441292524337769, 0.9689837694168091, 0.9680348634719849, 0.984240710735321, 0.9767360687255859, 0.36997225880622864, 0.2226451188325882, 0.23801255226135254, 0.42015811800956726, 0.44486892223358154, 0.36118078231811523, 0.332680881023407, 0.338619589805603, 0.21766820549964905, 0.25312352180480957, 0.2404182255268097, 0.1627150923013687, 0.12955372035503387, 0.10234758257865906, 0.20126457512378693, 0.22131489217281342, 0.2634131610393524, 0.2576255202293396, 0.2776033580303192, 0.3084905445575714, 0.30228015780448914, 0.27252888679504395, 0.21949493885040283, 0.25927454233169556, 0.27886584401130676, 0.2525167763233185, 0.5585765838623047, 0.7458708882331848, 0.5873627662658691, 0.21304988861083984, 0.1976504921913147, 0.2667706608772278, 0.2684524655342102, 0.6582645773887634, 0.6213957071304321, 0.6204650402069092, 0.3037094175815582, 0.28608888387680054, 0.44518205523490906, 0.45195403695106506, 0.30199694633483887, 0.4572703242301941, 0.36465105414390564, 0.3630547523498535, 0.3386620581150055, 0.35046201944351196, 0.4132869243621826, 0.5419040322303772, 0.39412209391593933, 0.48881983757019043, 0.4587744474411011, 0.23613184690475464, 0.2186930626630783, 0.21323564648628235, 0.1992741972208023, 0.1858254075050354, 0.20994600653648376, 0.2349373996257782, 0.16381296515464783, 0.19301405549049377, 0.27314862608909607, 0.4312894940376282, 0.26737329363822937, 0.24016675353050232, 0.26033011078834534, 0.44880199432373047, 0.556267499923706, 0.5405341386795044, 0.571162223815918, 0.4243447184562683, 0.4245345890522003, 0.27282533049583435, 0.23762206733226776, 0.27329912781715393, 0.5118607878684998, 0.39352163672447205, 0.38995033502578735, 0.3461928963661194, 0.29730334877967834, 0.2527809143066406, 0.2568931579589844, 0.3081457018852234, 0.2823973298072815, 0.21510222554206848, 0.16162467002868652, 0.15613335371017456, 0.2556400001049042, 0.28516900539398193, 0.24220086634159088, 0.2765873670578003, 0.25343644618988037, 0.25900575518608093, 0.23965896666049957, 0.2991122305393219, 0.29803353548049927, 0.30017560720443726, 0.27548545598983765, 0.35111379623413086, 0.4456338584423065, 0.39896488189697266, 0.4617563486099243, 0.3754032850265503, 0.4273218810558319, 0.2922013998031616, 0.29095250368118286, 0.1964760273694992, 0.19278742372989655, 0.7671776413917542, 0.8871240019798279, 0.9348740577697754, 0.9262981414794922, 0.9505913853645325, 0.8651494979858398, 0.2801630198955536, 0.28861984610557556, 0.22063982486724854, 0.2632155418395996, 0.2910720109939575, 0.29334861040115356, 0.19622822105884552, 0.16352321207523346, 0.19830213487148285, 0.27022916078567505, 0.3076712191104889, 0.2879026532173157, 0.2647620737552643, 0.3142947256565094, 0.22638975083827972, 0.2064550369977951, 0.21789778769016266, 0.32321807742118835, 0.3362415134906769, 0.3949066698551178, 0.3791726529598236, 0.3411625027656555, 0.249808669090271, 0.29542869329452515, 0.4921855330467224, 0.6708933711051941, 0.5810378789901733, 0.32775983214378357, 0.25866830348968506, 0.2505488097667694, 0.27032747864723206, 0.21231681108474731, 0.23055404424667358, 0.2097446173429489, 0.1672506034374237, 0.2015133500099182, 0.2713504433631897, 0.3865247070789337, 0.2843719720840454, 0.15497815608978271, 0.20821912586688995, 0.2152005285024643, 0.19902431964874268, 0.18666179478168488, 0.18640144169330597, 0.176893949508667, 0.13543358445167542, 0.13673076033592224]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.803544819355011</v>
+        <v>0.984240710735321</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1.091963100014254</v>
+        <v>1.108364200001233</v>
       </c>
       <c r="J126" t="n">
-        <v>0.005571240306195176</v>
+        <v>0.005654919387761394</v>
       </c>
     </row>
     <row r="127">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[0.10074013471603394, 0.09817471355199814, 0.0930137038230896, 0.11162119358778, 0.10896671563386917, 0.08883023262023926, 0.08694898337125778, 0.09729140996932983, 0.09191831201314926, 0.10266228765249252, 0.12434245645999908, 0.11669357866048813, 0.10361046344041824, 0.1570785641670227, 0.14576885104179382, 0.16083474457263947, 0.160486102104187, 0.15819627046585083, 0.12429007887840271, 0.09498230367898941, 0.10099375993013382, 0.08220753073692322, 0.08001546561717987, 0.0953180268406868, 0.10720255970954895, 0.14080645143985748, 0.1430491805076599, 0.13663648068904877, 0.11430583149194717, 0.11133497208356857, 0.07884335517883301, 0.09221743047237396, 0.08685947209596634, 0.08649919182062149, 0.11187081784009933, 0.12623150646686554, 0.11705271154642105, 0.193418949842453, 0.15644216537475586, 0.1834726631641388, 0.1413220465183258, 0.14967375993728638, 0.17313328385353088, 0.1442192643880844, 0.10798623412847519, 0.09407587349414825, 0.1580829918384552, 0.15222668647766113, 0.14895042777061462, 0.14182429015636444, 0.1773831695318222, 0.16433264315128326, 0.15514205396175385, 0.1636156141757965, 0.1463852971792221, 0.12332845479249954, 0.14511314034461975, 0.1247587576508522, 0.14216910302639008, 0.11253022402524948, 0.1487349271774292, 0.17811614274978638, 0.17189888656139374, 0.12354466319084167, 0.2471197098493576, 0.24259555339813232, 0.16885700821876526, 0.15012520551681519, 0.12783752381801605, 0.15662193298339844, 0.21924860775470734, 0.30321836471557617, 0.25148501992225647, 0.3635571300983429, 0.47193485498428345, 0.4853096008300781, 0.49490851163864136, 0.4092494249343872, 0.2966955602169037, 0.26925018429756165, 0.3461538851261139, 0.5713129043579102, 0.23768633604049683, 0.5530277490615845, 0.4997349977493286, 0.15091799199581146, 0.16882088780403137, 0.23523494601249695, 0.1740187704563141, 0.10593945533037186, 0.1137123554944992, 0.2732729911804199, 0.3157828748226166, 0.22076983749866486, 0.14310310781002045, 0.09609047323465347, 0.13190653920173645, 0.1228499710559845, 0.13348641991615295, 0.13716115057468414, 0.20154038071632385, 0.19966062903404236, 0.14703761041164398, 0.11314024776220322, 0.08832656592130661, 0.09628631919622421, 0.09386815130710602, 0.06300410628318787, 0.061774153262376785, 0.10819196701049805, 0.11869145184755325, 0.1604369431734085, 0.08045880496501923, 0.09002913534641266, 0.0839356929063797, 0.0872131884098053, 0.08300696313381195, 0.07664824277162552, 0.06696175783872604, 0.08154473453760147, 0.12162204086780548, 0.08323543518781662, 0.06394460052251816, 0.06345795840024948, 0.0758809968829155, 0.08442043513059616, 0.07091627269983292, 0.07623139023780823, 0.09208918362855911, 0.06482715904712677, 0.12276318669319153, 0.12393612414598465, 0.10591357946395874, 0.0556667223572731, 0.03810248523950577, 0.03885963186621666, 0.05790816247463226, 0.07465088367462158, 0.07330182194709778, 0.08444909006357193, 0.0948442742228508, 0.11491511017084122, 0.06445970386266708, 0.07667587697505951, 0.07334684580564499, 0.06475180387496948, 0.07072953134775162, 0.06356994807720184, 0.03749076649546623, 0.04173697158694267, 0.03792594000697136, 0.08607811480760574, 0.10312553495168686, 0.10566244274377823, 0.07853052020072937, 0.07877655327320099, 0.07988382130861282]</t>
+          <t>[0.06267933547496796, 0.052397970110177994, 0.0533783957362175, 0.06510014832019806, 0.08084609359502792, 0.05287124216556549, 0.050944190472364426, 0.047291263937950134, 0.04212811589241028, 0.04180339723825455, 0.045159876346588135, 0.051189977675676346, 0.044161245226860046, 0.06933021545410156, 0.06609412282705307, 0.08211836218833923, 0.0805329903960228, 0.07573844492435455, 0.051304347813129425, 0.029404208064079285, 0.03679884597659111, 0.028872959315776825, 0.027933573350310326, 0.037234026938676834, 0.045995138585567474, 0.07531267404556274, 0.08384047448635101, 0.06693200021982193, 0.050375279039144516, 0.049374841153621674, 0.03319370001554489, 0.03715584799647331, 0.03867722675204277, 0.03617740049958229, 0.05334596335887909, 0.052299614995718, 0.04692808538675308, 0.10639595985412598, 0.08176230639219284, 0.10550037771463394, 0.09442578256130219, 0.07935471832752228, 0.08850164711475372, 0.06607189774513245, 0.04927009344100952, 0.047086358070373535, 0.07127054780721664, 0.06393135339021683, 0.0683627650141716, 0.0653294026851654, 0.11097181588411331, 0.09132193773984909, 0.07549325376749039, 0.07800333946943283, 0.06306367367506027, 0.05211923271417618, 0.07385662198066711, 0.07041957974433899, 0.07248765230178833, 0.04512806981801987, 0.06220994517207146, 0.06650310009717941, 0.05646388977766037, 0.034829314798116684, 0.08748648315668106, 0.08848446607589722, 0.045251164585351944, 0.04517598822712898, 0.05699098855257034, 0.05142660811543465, 0.06588027626276016, 0.09429159760475159, 0.1602797508239746, 0.199399933218956, 0.3530609905719757, 0.3436294198036194, 0.29252275824546814, 0.24381974339485168, 0.16593009233474731, 0.07563891261816025, 0.22271624207496643, 0.35580161213874817, 0.03906635195016861, 0.325885534286499, 0.23524953424930573, 0.02951539121568203, 0.04129572957754135, 0.060750048607587814, 0.0458049401640892, 0.023589881137013435, 0.02685665525496006, 0.1865624338388443, 0.2561775743961334, 0.1690051108598709, 0.05576501041650772, 0.043523017317056656, 0.06005528196692467, 0.09766727685928345, 0.09618785977363586, 0.1071261316537857, 0.16653293371200562, 0.17171107232570648, 0.11806303262710571, 0.09654200077056885, 0.08184053748846054, 0.09594116359949112, 0.07457474619150162, 0.041800469160079956, 0.03988289088010788, 0.055912528187036514, 0.06334828585386276, 0.10543487966060638, 0.06109074503183365, 0.08473724871873856, 0.07903509587049484, 0.07601804286241531, 0.08424191176891327, 0.07862726598978043, 0.04595599323511124, 0.057442836463451385, 0.08869167417287827, 0.0602455735206604, 0.03889733925461769, 0.037808820605278015, 0.0459916777908802, 0.047134172171354294, 0.04182075336575508, 0.040085721760988235, 0.048269122838974, 0.02982304058969021, 0.10211562365293503, 0.09700548648834229, 0.07399310916662216, 0.028441591188311577, 0.01783449947834015, 0.017374221235513687, 0.03014766424894333, 0.039323728531599045, 0.042337097227573395, 0.03746090084314346, 0.04562461003661156, 0.048103541135787964, 0.028349241241812706, 0.03402234613895416, 0.035040728747844696, 0.03697286173701286, 0.037676095962524414, 0.03173958882689476, 0.0163376834243536, 0.020921003073453903, 0.020607126876711845, 0.04402117058634758, 0.04313623905181885, 0.04645119607448578, 0.03879443183541298, 0.04217391461133957, 0.04211878776550293]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.5713129043579102</v>
+        <v>0.3558016121387482</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.8789234999858309</v>
+        <v>0.8793008999928134</v>
       </c>
       <c r="J127" t="n">
-        <v>0.005598238853412935</v>
+        <v>0.005600642675113461</v>
       </c>
     </row>
     <row r="128">
@@ -5645,11 +5645,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0.6501021385192871, 0.6413307189941406, 0.5389392375946045, 0.5067270994186401, 0.48964056372642517, 0.5180542469024658, 0.499516099691391, 0.5436049699783325, 0.5289037823677063, 0.5518859624862671, 0.5752561092376709, 0.45747309923171997, 0.49177443981170654, 0.5418086647987366, 0.48797526955604553, 0.4192555248737335, 0.3674205243587494, 0.38320082426071167, 0.3884431719779968, 0.43447208404541016, 0.29837316274642944, 0.3509044945240021, 0.3745485544204712, 0.5389686822891235, 0.5714998245239258, 0.5664721727371216, 0.39226534962654114, 0.42104241251945496, 0.4012047350406647, 0.4592096507549286, 0.5355356335639954, 0.5488759279251099, 0.7418106198310852, 0.7805253267288208, 0.725261926651001, 0.6772726774215698, 0.544464111328125, 0.5275214314460754, 0.6013263463973999, 0.48524439334869385, 0.6719186902046204, 0.8673824071884155, 0.8770778775215149, 0.7915615439414978, 0.824364423751831, 0.7936037182807922, 0.8789574503898621, 0.6901317238807678, 0.657086968421936, 0.6763763427734375, 0.6478116512298584, 0.5709163546562195, 0.5760321617126465, 0.7424319386482239, 0.8515825867652893, 0.8405107259750366, 0.7329509258270264, 0.7084510922431946, 0.747977077960968, 0.5760353803634644, 0.6125894784927368, 0.6500365138053894, 0.6578923463821411, 0.7164869904518127, 0.6895114779472351, 0.43820905685424805, 0.4037904441356659, 0.4576219320297241, 0.41480350494384766, 0.3515230119228363, 0.48690417408943176, 0.5815403461456299, 0.6347411274909973, 0.7652819752693176, 0.6073179841041565, 0.41983234882354736, 0.41183900833129883, 0.7715814709663391, 0.7961967587471008, 0.7712559103965759, 0.6258314847946167, 0.559183657169342, 0.6022469997406006, 0.6885589957237244, 0.6823641657829285, 0.617557942867279, 0.7717710733413696, 0.8472082614898682, 0.9007081985473633, 0.9007800817489624, 0.8183435201644897, 0.8334116339683533, 0.6426617503166199, 0.42963409423828125, 0.39704012870788574, 0.66743004322052, 0.7116788029670715, 0.6150524616241455, 0.7610903382301331, 0.8031414151191711, 0.7375281453132629, 0.611068844795227, 0.5805260539054871, 0.6381011605262756, 0.8028162121772766, 0.7230880260467529, 0.6710129380226135, 0.5816881656646729, 0.6008498072624207, 0.6044878363609314, 0.8981292247772217, 0.8258588314056396, 0.7085724472999573, 0.5761770606040955, 0.5845892429351807, 0.6118694543838501, 0.780729353427887, 0.6876616477966309, 0.6853612661361694, 0.5220634937286377, 0.5430493950843811, 0.41319113969802856, 0.4178721010684967, 0.3703092038631439, 0.43337371945381165, 0.5193633437156677, 0.7043427228927612, 0.78816157579422, 0.7715526819229126, 0.8121045827865601, 0.7876847386360168, 0.7403873801231384, 0.6478965282440186, 0.5980764627456665, 0.5326544046401978, 0.4716956317424774, 0.4583674669265747, 0.7245467901229858, 0.6438932418823242, 0.719114363193512, 0.746346116065979, 0.6826872825622559, 0.7050338387489319, 0.6850838661193848, 0.6278639435768127, 0.7050545811653137, 0.7954229116439819, 0.7963396310806274, 0.6868973970413208, 0.7378251552581787, 0.7349666953086853, 0.7388941645622253, 0.7076607942581177, 0.6826779842376709, 0.7421841621398926, 0.7251585125923157, 0.7243975400924683]</t>
+          <t>[0.7242943644523621, 0.7634785771369934, 0.600926399230957, 0.578732967376709, 0.5166679620742798, 0.5261066555976868, 0.47360295057296753, 0.5420369505882263, 0.4858641028404236, 0.5375787019729614, 0.5532878041267395, 0.47787368297576904, 0.45030614733695984, 0.5283682346343994, 0.5720878839492798, 0.5006166100502014, 0.40920233726501465, 0.4449112117290497, 0.4437505602836609, 0.49749335646629333, 0.31598126888275146, 0.3664552867412567, 0.3953648805618286, 0.642217218875885, 0.7011378407478333, 0.6450507044792175, 0.4845854640007019, 0.48692214488983154, 0.5426791906356812, 0.6232574582099915, 0.6549989581108093, 0.701649010181427, 0.9177145957946777, 0.9440720677375793, 0.9041271209716797, 0.8137099742889404, 0.7204371094703674, 0.7364470362663269, 0.7280281782150269, 0.6153731346130371, 0.8401392102241516, 0.9659713506698608, 0.9627978205680847, 0.9372856616973877, 0.9120041728019714, 0.8962681889533997, 0.9684777855873108, 0.7836557030677795, 0.7816134691238403, 0.807223916053772, 0.8332837820053101, 0.7331427335739136, 0.7127704620361328, 0.840728759765625, 0.9214891791343689, 0.9221711158752441, 0.8308508396148682, 0.8517452478408813, 0.8408383131027222, 0.6950510144233704, 0.6931840777397156, 0.6951264142990112, 0.7173527479171753, 0.8575266599655151, 0.7875315546989441, 0.4849523603916168, 0.3406868577003479, 0.3688916563987732, 0.28094246983528137, 0.2609372138977051, 0.4924459755420685, 0.701174259185791, 0.8202327489852905, 0.8945091962814331, 0.7022438049316406, 0.43164220452308655, 0.40094906091690063, 0.8070952892303467, 0.8005444407463074, 0.7756932377815247, 0.5887025594711304, 0.4573437571525574, 0.4705768823623657, 0.6900761723518372, 0.6532251238822937, 0.5167461633682251, 0.6538906097412109, 0.7607221007347107, 0.8721672892570496, 0.8315771818161011, 0.6071796417236328, 0.6368421912193298, 0.4766083359718323, 0.24976572394371033, 0.20630879700183868, 0.423120379447937, 0.5723047852516174, 0.3774355947971344, 0.5653802752494812, 0.6423940062522888, 0.6257928013801575, 0.4716232419013977, 0.39998355507850647, 0.475698858499527, 0.6256728768348694, 0.5099989175796509, 0.46519410610198975, 0.33671674132347107, 0.336460679769516, 0.30233532190322876, 0.759589672088623, 0.5822437405586243, 0.4713733494281769, 0.3899639844894409, 0.38149744272232056, 0.42011722922325134, 0.5951182842254639, 0.41411057114601135, 0.42652928829193115, 0.27247506380081177, 0.2614783048629761, 0.191691592335701, 0.30357661843299866, 0.29698696732521057, 0.2933672070503235, 0.3403926193714142, 0.5637419819831848, 0.6963037252426147, 0.6276422142982483, 0.7600651383399963, 0.6833334565162659, 0.5567346811294556, 0.400021493434906, 0.4263102412223816, 0.4799414873123169, 0.3710496127605438, 0.3258267045021057, 0.5328219532966614, 0.4588288366794586, 0.49108177423477173, 0.4518372416496277, 0.3384750485420227, 0.339611291885376, 0.2873716950416565, 0.3185821771621704, 0.3834332227706909, 0.5567373037338257, 0.5574484467506409, 0.41558703780174255, 0.49040651321411133, 0.44433480501174927, 0.497004896402359, 0.47823619842529297, 0.36584901809692383, 0.5014515519142151, 0.34328463673591614, 0.34352728724479675]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9007800817489624</v>
+        <v>0.9684777855873108</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.8646675999916624</v>
+        <v>0.8726700999977766</v>
       </c>
       <c r="J128" t="n">
-        <v>0.005507436942622053</v>
+        <v>0.005558408280240615</v>
       </c>
     </row>
     <row r="129">
@@ -5685,11 +5685,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.3768824338912964, 0.3173661530017853, 0.36833497881889343, 0.4844619333744049, 0.4810694754123688, 0.39093586802482605, 0.34225964546203613, 0.33557116985321045, 0.341656893491745, 0.3200981318950653, 0.3040412366390228, 0.34499308466911316, 0.3226363956928253, 0.43576580286026, 0.35350969433784485, 0.46723034977912903, 0.4299766421318054, 0.39026764035224915, 0.3571202754974365, 0.3558448255062103, 0.28965824842453003, 0.30839988589286804, 0.31947630643844604, 0.19332236051559448, 0.16795559227466583, 0.2541322410106659, 0.3114234209060669, 0.3231053948402405, 0.2757139801979065, 0.2899571657180786, 0.28894150257110596, 0.25416338443756104, 0.21755625307559967, 0.29255425930023193, 0.2450941652059555, 0.17324931919574738, 0.18824699521064758, 0.3622261583805084, 0.4017757773399353, 0.3673415184020996, 0.30307522416114807, 0.3096201717853546, 0.29015833139419556, 0.25987371802330017, 0.3285713493824005, 0.4911368489265442, 0.38981571793556213, 0.3721417486667633, 0.37375718355178833, 0.48119881749153137, 0.4819679260253906, 0.43632951378822327, 0.40177616477012634, 0.4011949300765991, 0.36452919244766235, 0.44858452677726746, 0.3211074471473694, 0.378206729888916, 0.3386743664741516, 0.32205596566200256, 0.38437145948410034, 0.4108315110206604, 0.34041827917099, 0.23144342005252838, 0.24324755370616913, 0.2308194637298584, 0.17418822646141052, 0.20792002975940704, 0.2462005466222763, 0.2665902376174927, 0.28977319598197937, 0.32143789529800415, 0.3643666207790375, 0.17794884741306305, 0.15282607078552246, 0.18379239737987518, 0.2096928060054779, 0.14513932168483734, 0.15220899879932404, 0.1037566140294075, 0.10581465810537338, 0.1546376496553421, 0.12889133393764496, 0.18139025568962097, 0.14008168876171112, 0.20326845347881317, 0.20879358053207397, 0.2121669352054596, 0.19799689948558807, 0.200520321726799, 0.19699108600616455, 0.1833697408437729, 0.24904602766036987, 0.2387726902961731, 0.33458462357521057, 0.30587977170944214, 0.22779302299022675, 0.3101347088813782, 0.258780837059021, 0.254688024520874, 0.20582795143127441, 0.25063565373420715, 0.3534378409385681, 0.3755653500556946, 0.43333497643470764, 0.6420316696166992, 0.7235137224197388, 0.8386707305908203, 0.7573542594909668, 0.4676150679588318, 0.41632524132728577, 0.5155348181724548, 0.42165252566337585, 0.5160118937492371, 0.39646458625793457, 0.5792098641395569, 0.549694299697876, 0.5330165028572083, 0.34360089898109436, 0.5638366341590881, 0.7265421748161316, 0.5838965177536011, 0.6583844423294067, 0.646314263343811, 0.7178328037261963, 0.47616299986839294, 0.4120582342147827, 0.28942951560020447, 0.31965532898902893, 0.34406840801239014, 0.45792660117149353, 0.48967739939689636, 0.5185638070106506, 0.5732638239860535, 0.46653226017951965, 0.501808762550354, 0.5312495827674866, 0.5496541261672974, 0.6926912069320679, 0.8141590356826782, 0.7431103587150574, 0.6586352586746216, 0.4673052132129669, 0.41094544529914856, 0.408253937959671, 0.41772761940956116, 0.4574829041957855, 0.4284486770629883, 0.48875972628593445, 0.43190187215805054, 0.5285566449165344, 0.35837551951408386, 0.30214229226112366, 0.2882266640663147, 0.30234310030937195, 0.33888301253318787, 0.3361950218677521]</t>
+          <t>[0.2270054966211319, 0.15686741471290588, 0.15770560503005981, 0.23644733428955078, 0.2934536933898926, 0.2925175726413727, 0.25379639863967896, 0.2650994658470154, 0.20588159561157227, 0.17551791667938232, 0.18900646269321442, 0.25146448612213135, 0.28963685035705566, 0.29113253951072693, 0.15569408237934113, 0.2315969467163086, 0.21334633231163025, 0.2034378945827484, 0.2246834933757782, 0.1564803123474121, 0.12231867760419846, 0.11930617690086365, 0.14717961847782135, 0.08990328013896942, 0.08077295869588852, 0.15856394171714783, 0.20069549977779388, 0.2019180804491043, 0.1080639511346817, 0.10725594311952591, 0.09824957698583603, 0.10535038262605667, 0.07733667641878128, 0.12480680644512177, 0.1074649840593338, 0.06950307637453079, 0.07108395546674728, 0.1660093069076538, 0.25163185596466064, 0.19073078036308289, 0.14798128604888916, 0.18190725147724152, 0.16742867231369019, 0.13111017644405365, 0.1491285264492035, 0.2594905197620392, 0.19587373733520508, 0.17097650468349457, 0.16358034312725067, 0.4379747807979584, 0.5373243093490601, 0.47060346603393555, 0.2959693968296051, 0.2447109967470169, 0.16540776193141937, 0.22309494018554688, 0.18286220729351044, 0.3016752302646637, 0.2470320612192154, 0.18437466025352478, 0.1750319004058838, 0.288178026676178, 0.17772123217582703, 0.12646181881427765, 0.15141063928604126, 0.11098526418209076, 0.0746212974190712, 0.08084537088871002, 0.10992980003356934, 0.14291007816791534, 0.26167821884155273, 0.33743536472320557, 0.4821765422821045, 0.08798981457948685, 0.0802314281463623, 0.1639314442873001, 0.13518249988555908, 0.07407071441411972, 0.05706346035003662, 0.03820092976093292, 0.037125274538993835, 0.06714659184217453, 0.058171167969703674, 0.10092934221029282, 0.055513884872198105, 0.0695890486240387, 0.06856169551610947, 0.08878389000892639, 0.08448142558336258, 0.10368244349956512, 0.10061506181955338, 0.0867423266172409, 0.15327304601669312, 0.14177322387695312, 0.19856007397174835, 0.2040759176015854, 0.13482294976711273, 0.19049066305160522, 0.12675978243350983, 0.09630811214447021, 0.07429179549217224, 0.09372684359550476, 0.21274566650390625, 0.29759481549263, 0.27231621742248535, 0.26180076599121094, 0.6831763386726379, 0.803261935710907, 0.8031783699989319, 0.6603390574455261, 0.48537468910217285, 0.7156453132629395, 0.36544227600097656, 0.41223010420799255, 0.32093024253845215, 0.625596821308136, 0.6311993598937988, 0.612970769405365, 0.20253540575504303, 0.41099461913108826, 0.634727418422699, 0.6288467645645142, 0.613427460193634, 0.6164072751998901, 0.8019267916679382, 0.677338719367981, 0.6301704049110413, 0.37734952569007874, 0.5253527164459229, 0.45703548192977905, 0.8046095967292786, 0.7474774122238159, 0.7015658020973206, 0.7833322286605835, 0.5837852954864502, 0.6811811327934265, 0.477668821811676, 0.4874010682106018, 0.6927034258842468, 0.8033378720283508, 0.6671233773231506, 0.6396558880805969, 0.6137931942939758, 0.5077934265136719, 0.4937118887901306, 0.4392554461956024, 0.5049822330474854, 0.42004433274269104, 0.35494866967201233, 0.3321512043476105, 0.4764261245727539, 0.364915668964386, 0.2624318599700928, 0.19852368533611298, 0.26247960329055786, 0.36597269773483276, 0.3643670678138733]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.8386707305908203</v>
+        <v>0.8046095967292786</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.8713232000009157</v>
+        <v>0.8766608000005363</v>
       </c>
       <c r="J129" t="n">
-        <v>0.00554982929936889</v>
+        <v>0.005583826751595773</v>
       </c>
     </row>
     <row r="130">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[0.0823768898844719, 0.07965601235628128, 0.0791827142238617, 0.05846788361668587, 0.052111923694610596, 0.06652037054300308, 0.08359234780073166, 0.10105444490909576, 0.09187786281108856, 0.07735571265220642, 0.0928884893655777, 0.09237877279520035, 0.09525293856859207, 0.09227456897497177, 0.11558280885219574, 0.057905182242393494, 0.05237553268671036, 0.04547782242298126, 0.056604303419589996, 0.044386450201272964, 0.0426817461848259, 0.04409265145659447, 0.048122942447662354, 0.04904419183731079, 0.05072687566280365, 0.06046295166015625, 0.058030083775520325, 0.055293112993240356, 0.0523313470184803, 0.057734280824661255, 0.044687554240226746, 0.039785757660865784, 0.048861920833587646, 0.036117225885391235, 0.03248951584100723, 0.024898789823055267, 0.024583706632256508, 0.02481795661151409, 0.028540734201669693, 0.05117850378155708, 0.03977746143937111, 0.05886682868003845, 0.0662773996591568, 0.0643129050731659, 0.05663852393627167, 0.06545644253492355, 0.057768795639276505, 0.06925870478153229, 0.07413872331380844, 0.06697189062833786, 0.07505859434604645, 0.08698731660842896, 0.06736689805984497, 0.05643368884921074, 0.06433559954166412, 0.04413623362779617, 0.042306844145059586, 0.031189998611807823, 0.026447471231222153, 0.02489914372563362, 0.0378507561981678, 0.04680706560611725, 0.04416614770889282, 0.0425780788064003, 0.039018724113702774, 0.041091978549957275, 0.053888387978076935, 0.05085190758109093, 0.0473606251180172, 0.038208577781915665, 0.044995345175266266, 0.051581766456365585, 0.14034835994243622, 0.13553251326084137, 0.0981966108083725, 0.14245495200157166, 0.09727296233177185, 0.07986748963594437, 0.06949015706777573, 0.06468528509140015, 0.09033358842134476, 0.1229611337184906, 0.11373138427734375, 0.09656763076782227, 0.07363367825746536, 0.09219472110271454, 0.10117152333259583, 0.09674683958292007, 0.07601289451122284, 0.08781685680150986, 0.068107970058918, 0.05862890183925629, 0.07040438055992126, 0.05013524740934372, 0.0416075773537159, 0.043570756912231445, 0.08435709774494171, 0.06406623125076294, 0.08703649044036865, 0.1222013309597969, 0.12220647186040878, 0.09641404449939728, 0.07008462399244308, 0.0649753212928772, 0.059081610292196274, 0.07018227130174637, 0.07967361807823181, 0.10023119300603867, 0.08182043582201004, 0.07334218174219131, 0.10572689771652222, 0.14652788639068604, 0.09386678785085678, 0.09062199294567108, 0.11704801023006439, 0.08829189836978912, 0.1046532690525055, 0.06224607303738594, 0.07512422651052475, 0.08103175461292267, 0.06445501744747162, 0.06760464608669281, 0.0819481909275055, 0.10838259011507034, 0.07968831807374954, 0.07388629764318466, 0.0745728462934494, 0.07705773413181305, 0.0973418727517128, 0.18563112616539001, 0.16281872987747192, 0.13444803655147552, 0.09895253926515579, 0.07532262802124023, 0.08263660967350006, 0.06585345417261124, 0.05740371719002724, 0.057207755744457245, 0.04831022769212723, 0.050747741013765335, 0.07257857173681259, 0.10217811167240143, 0.07301808893680573, 0.05848056823015213, 0.07552420347929001, 0.07354987412691116, 0.06051276996731758, 0.0756353810429573, 0.08595256507396698, 0.09180205315351486, 0.10603503882884979, 0.07267937064170837, 0.0778176560997963, 0.08731264621019363, 0.0648033395409584, 0.06309835612773895, 0.06280741840600967]</t>
+          <t>[0.2201712429523468, 0.153590127825737, 0.1607874035835266, 0.1238020807504654, 0.12414582073688507, 0.17643463611602783, 0.21962672472000122, 0.2950165569782257, 0.27552875876426697, 0.3518446385860443, 0.360080361366272, 0.3695369362831116, 0.307569682598114, 0.2441512644290924, 0.2633664608001709, 0.12583912909030914, 0.11114268004894257, 0.09533802419900894, 0.1296188235282898, 0.0758478045463562, 0.07393836230039597, 0.11293041706085205, 0.12091457098722458, 0.13035710155963898, 0.12106077373027802, 0.15200968086719513, 0.1271461397409439, 0.1085711345076561, 0.10871163755655289, 0.11723259091377258, 0.08280215412378311, 0.07977567613124847, 0.10166158527135849, 0.08603159338235855, 0.06547797471284866, 0.044646006077528, 0.044663816690444946, 0.04207706078886986, 0.05755987763404846, 0.1038651168346405, 0.07079923897981644, 0.09398540109395981, 0.11380162090063095, 0.12567777931690216, 0.131463885307312, 0.13600675761699677, 0.138986736536026, 0.21454623341560364, 0.24965882301330566, 0.24020494520664215, 0.2841963768005371, 0.23622453212738037, 0.18282875418663025, 0.15790940821170807, 0.15636490285396576, 0.099086232483387, 0.09182348847389221, 0.04932431876659393, 0.03945016860961914, 0.03253381326794624, 0.05533519759774208, 0.07437850534915924, 0.06809843331575394, 0.07054032385349274, 0.06444166600704193, 0.06610648334026337, 0.09562775492668152, 0.09824010729789734, 0.08260239660739899, 0.0677892193198204, 0.07399865239858627, 0.10812235623598099, 0.5118849277496338, 0.552118718624115, 0.38553935289382935, 0.4363360106945038, 0.314228892326355, 0.23832398653030396, 0.13829611241817474, 0.12256132811307907, 0.19203148782253265, 0.25972437858581543, 0.23169256746768951, 0.1521187424659729, 0.13314780592918396, 0.1820252388715744, 0.23492887616157532, 0.21067170798778534, 0.1581113338470459, 0.16096478700637817, 0.11488904058933258, 0.08491259813308716, 0.10624594241380692, 0.09421393275260925, 0.05721462145447731, 0.05610504373908043, 0.17145675420761108, 0.12134023010730743, 0.14941370487213135, 0.2988033592700958, 0.2962643802165985, 0.20977024734020233, 0.1379963457584381, 0.1167801022529602, 0.10172722488641739, 0.12707436084747314, 0.12232654541730881, 0.17502176761627197, 0.14261145889759064, 0.12978911399841309, 0.2058209329843521, 0.3283180296421051, 0.19196270406246185, 0.18085120618343353, 0.39902809262275696, 0.2831663489341736, 0.3099564015865326, 0.10739738494157791, 0.16091695427894592, 0.15098069608211517, 0.10963346809148788, 0.11509840190410614, 0.1559293121099472, 0.21356914937496185, 0.12273470312356949, 0.10257048904895782, 0.09223747253417969, 0.10638651251792908, 0.16274821758270264, 0.5148710608482361, 0.43406662344932556, 0.341141939163208, 0.15471245348453522, 0.1092338114976883, 0.12918736040592194, 0.08773882687091827, 0.0736745074391365, 0.08365513384342194, 0.08043442666530609, 0.07743674516677856, 0.13753780722618103, 0.22858132421970367, 0.12112834304571152, 0.08643762022256851, 0.1241907998919487, 0.12717555463314056, 0.10017166286706924, 0.11229489743709564, 0.14159059524536133, 0.1883307844400406, 0.2100445032119751, 0.13074739277362823, 0.13704350590705872, 0.14116863906383514, 0.09671570360660553, 0.11075299233198166, 0.10971356928348541]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.18563112616539</v>
+        <v>0.552118718624115</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.8635575999796856</v>
+        <v>0.8673858999973163</v>
       </c>
       <c r="J130" t="n">
-        <v>0.005500366878851501</v>
+        <v>0.005524750955396919</v>
       </c>
     </row>
     <row r="131">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.08789076656103134, 0.12948916852474213, 0.0929570123553276, 0.09718441963195801, 0.060334909707307816, 0.07945454865694046, 0.07718678563833237, 0.07024569809436798, 0.06356079131364822, 0.08123830705881119, 0.11580409109592438, 0.08555328100919724, 0.07766582071781158, 0.07675465941429138, 0.07842148840427399, 0.09576382488012314, 0.1793120801448822, 0.1487707495689392, 0.12643375992774963, 0.09860136359930038, 0.07906468212604523, 0.08619924634695053, 0.06029743701219559, 0.0543614961206913, 0.05447478964924812, 0.053433455526828766, 0.051247838884592056, 0.06614843010902405, 0.09823590517044067, 0.08062225580215454, 0.062065888196229935, 0.08038188517093658, 0.07649096101522446, 0.06553378701210022, 0.07818085700273514, 0.09004180133342743, 0.09358517080545425, 0.10081765800714493, 0.07165054976940155, 0.08032191544771194, 0.0798899382352829, 0.06708727777004242, 0.06318975239992142, 0.04151379317045212, 0.03580503165721893, 0.04097045585513115, 0.053499508649110794, 0.04904907941818237, 0.058011773973703384, 0.06823217868804932, 0.0636594370007515, 0.06582912802696228, 0.06545894593000412, 0.060277100652456284, 0.05901067331433296, 0.06785959750413895, 0.06613519042730331, 0.06862790137529373, 0.08770154416561127, 0.07656102627515793, 0.09722365438938141, 0.09042749553918839, 0.04485127702355385, 0.07699035853147507, 0.07163800299167633, 0.08025634288787842, 0.06710486859083176, 0.0674009695649147, 0.048727087676525116, 0.039376478642225266, 0.04330994188785553, 0.04357054457068443, 0.046781133860349655, 0.1227828711271286, 0.09788718819618225, 0.07034718245267868, 0.03789297491312027, 0.04727872088551521, 0.04313390329480171, 0.025690196081995964, 0.024373803287744522, 0.027128396555781364, 0.07669919729232788, 0.09390359371900558, 0.08745946735143661, 0.06187953054904938, 0.04943889006972313, 0.046463433653116226, 0.03940407931804657, 0.03991447389125824, 0.04290483891963959, 0.055452585220336914, 0.061466511338949203, 0.05538266524672508, 0.025854039937257767, 0.023793138563632965, 0.027771512046456337, 0.042491570115089417, 0.045793525874614716, 0.038927435874938965, 0.06423471868038177, 0.05495286360383034, 0.05291648581624031, 0.07527820765972137, 0.05587603151798248, 0.04858671501278877, 0.03691115230321884, 0.03932846710085869, 0.03354194760322571, 0.061702609062194824, 0.05793042108416557, 0.053350262343883514, 0.05380801856517792, 0.04940001666545868, 0.04653244838118553, 0.05904301628470421, 0.05371329188346863, 0.053253479301929474, 0.06128251552581787, 0.03931539133191109, 0.03862461447715759, 0.0307629331946373, 0.03305232897400856, 0.04169955849647522, 0.026947135105729103, 0.026860734447836876, 0.03445201367139816, 0.06706345081329346, 0.07646604627370834, 0.07784382998943329]</t>
+          <t>[0.1675896942615509, 0.4252431392669678, 0.2996377646923065, 0.2896558940410614, 0.1104992926120758, 0.17798633873462677, 0.1474568396806717, 0.12096930295228958, 0.10804963111877441, 0.15442216396331787, 0.22907866537570953, 0.13905276358127594, 0.11481070518493652, 0.10003781318664551, 0.10792161524295807, 0.1547934114933014, 0.5047521591186523, 0.4061969220638275, 0.30714476108551025, 0.16416946053504944, 0.12012475728988647, 0.13489310443401337, 0.07284476608037949, 0.06652487814426422, 0.06845896691083908, 0.08973981440067291, 0.08326374739408493, 0.12123148143291473, 0.20372135937213898, 0.13599693775177002, 0.09387239813804626, 0.12352269887924194, 0.1254880428314209, 0.10520811378955841, 0.11859612911939621, 0.15397122502326965, 0.18570256233215332, 0.1941768378019333, 0.12686218321323395, 0.14405255019664764, 0.1343064159154892, 0.10016568750143051, 0.11102264374494553, 0.07084755599498749, 0.05392269417643547, 0.062249984592199326, 0.10758563131093979, 0.08302180469036102, 0.09240259230136871, 0.09379348903894424, 0.07933053374290466, 0.07651718705892563, 0.08628185093402863, 0.0885930210351944, 0.08291648328304291, 0.10008831322193146, 0.09030618518590927, 0.1125049814581871, 0.24603211879730225, 0.19934378564357758, 0.3323765993118286, 0.29417380690574646, 0.05586237087845802, 0.08412505686283112, 0.0774090364575386, 0.07228261232376099, 0.036257486790418625, 0.02230071648955345, 0.03190623223781586, 0.022796250879764557, 0.018801014870405197, 0.02687462978065014, 0.025707270950078964, 0.04549820348620415, 0.04196483641862869, 0.031974419951438904, 0.01587621122598648, 0.027367373928427696, 0.018137525767087936, 0.013924071565270424, 0.016779063269495964, 0.01654273085296154, 0.04290248081088066, 0.049445927143096924, 0.041671235114336014, 0.04332326352596283, 0.03586049750447273, 0.036009084433317184, 0.0267326720058918, 0.023209098726511, 0.023507865145802498, 0.04408358782529831, 0.054285500198602676, 0.05746561288833618, 0.027186524122953415, 0.02602950669825077, 0.041077181696891785, 0.04899774491786957, 0.04868650063872337, 0.04210241883993149, 0.07235357910394669, 0.057015303522348404, 0.0626426711678505, 0.07645756006240845, 0.05168069526553154, 0.058878690004348755, 0.03387562558054924, 0.02905292436480522, 0.024732211604714394, 0.05429260805249214, 0.03919284790754318, 0.036673955619335175, 0.0403684638440609, 0.04117000475525856, 0.035951949656009674, 0.04331313818693161, 0.031094782054424286, 0.030558649450540543, 0.05132238566875458, 0.026009688153862953, 0.02562825195491314, 0.01978299580514431, 0.023086536675691605, 0.029177766293287277, 0.019380701705813408, 0.01739419437944889, 0.026039937511086464, 0.08064134418964386, 0.07109476625919342, 0.0732414498925209]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.1793120801448822</v>
+        <v>0.5047521591186523</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.7216916000179481</v>
+        <v>0.7258019000000786</v>
       </c>
       <c r="J131" t="n">
-        <v>0.005551473846291908</v>
+        <v>0.005583091538462143</v>
       </c>
     </row>
     <row r="132">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[0.08789076656103134, 0.12948916852474213, 0.0929570123553276, 0.09718441963195801, 0.060334909707307816, 0.07945454865694046, 0.07718678563833237, 0.07024800032377243, 0.06356079131364822, 0.08123830705881119, 0.11580409109592438, 0.08555328100919724, 0.07766582071781158, 0.07675465941429138, 0.07842148840427399, 0.09576382488012314, 0.1793120801448822, 0.1487707495689392, 0.12643375992774963, 0.09860136359930038, 0.07906468212604523, 0.08619924634695053, 0.06029743701219559, 0.0543614961206913, 0.05447478964924812, 0.053433455526828766, 0.051247838884592056, 0.06614843010902405, 0.09823590517044067, 0.08062225580215454, 0.062065888196229935, 0.08038188517093658, 0.07649096101522446, 0.06553378701210022, 0.07818085700273514, 0.09004180133342743, 0.09358517080545425, 0.10081765800714493, 0.07165054976940155, 0.08032191544771194, 0.0798899382352829, 0.06708727777004242, 0.06318975239992142, 0.04151379317045212, 0.03580503165721893, 0.04097045585513115, 0.053499508649110794, 0.04904907941818237, 0.058011773973703384, 0.06823217868804932, 0.0636594370007515, 0.06582912802696228, 0.06545894593000412, 0.060277100652456284, 0.05901067331433296, 0.06785959750413895, 0.06613519042730331, 0.06862790137529373, 0.08770154416561127, 0.07656102627515793, 0.09722365438938141, 0.09042749553918839, 0.04485127702355385, 0.07699035853147507, 0.07163800299167633, 0.08025634288787842, 0.06710486859083176, 0.0674009695649147, 0.048727087676525116, 0.039376478642225266, 0.04330994188785553, 0.04357054457068443, 0.046781133860349655, 0.1227828711271286, 0.09788718819618225, 0.07034718245267868, 0.03789297491312027, 0.04727872088551521, 0.04313390329480171, 0.025690196081995964, 0.024373803287744522, 0.027128396555781364, 0.07669919729232788, 0.09390359371900558, 0.08745946735143661, 0.06187953054904938, 0.04943889006972313, 0.046463433653116226, 0.03940407931804657, 0.03991447389125824, 0.04290483891963959, 0.055452585220336914, 0.061466511338949203, 0.05538266524672508, 0.025854039937257767, 0.023793138563632965, 0.027771512046456337, 0.042491570115089417, 0.045793525874614716, 0.038927435874938965, 0.06423471868038177, 0.05495286360383034, 0.05291648581624031, 0.07527820765972137, 0.05587603151798248, 0.04858671501278877, 0.03691115230321884, 0.03932846710085869, 0.03354194760322571, 0.061702609062194824, 0.05793042108416557, 0.053350262343883514, 0.05380801856517792, 0.04940001666545868, 0.04653244838118553, 0.05904301628470421, 0.05371329188346863, 0.053253479301929474, 0.06128251552581787, 0.03931539133191109, 0.03862461447715759, 0.0307629331946373, 0.03305232897400856, 0.04169955849647522, 0.026947135105729103, 0.026860734447836876, 0.03445201367139816, 0.06706345081329346, 0.07646604627370834, 0.07784382998943329]</t>
+          <t>[0.1675896942615509, 0.4252431392669678, 0.2996377646923065, 0.2896558940410614, 0.1104992926120758, 0.17798633873462677, 0.1474568396806717, 0.12097565084695816, 0.10804963111877441, 0.15442216396331787, 0.22907866537570953, 0.13905276358127594, 0.11481070518493652, 0.10003781318664551, 0.10792161524295807, 0.1547934114933014, 0.5047521591186523, 0.4061969220638275, 0.30714476108551025, 0.16416946053504944, 0.12012475728988647, 0.13489310443401337, 0.07284476608037949, 0.06652487814426422, 0.06845896691083908, 0.08973981440067291, 0.08326374739408493, 0.12123148143291473, 0.20372135937213898, 0.13599693775177002, 0.09387239813804626, 0.12352269887924194, 0.1254880428314209, 0.10520811378955841, 0.11859612911939621, 0.15397122502326965, 0.18570256233215332, 0.1941768378019333, 0.12686218321323395, 0.14405255019664764, 0.1343064159154892, 0.10016568750143051, 0.11102264374494553, 0.07084755599498749, 0.05392269417643547, 0.062249984592199326, 0.10758563131093979, 0.08302180469036102, 0.09240259230136871, 0.09379348903894424, 0.07933053374290466, 0.07651718705892563, 0.08628185093402863, 0.0885930210351944, 0.08291648328304291, 0.10008831322193146, 0.09030618518590927, 0.1125049814581871, 0.24603211879730225, 0.19934378564357758, 0.3323765993118286, 0.29417380690574646, 0.05586237087845802, 0.08412505686283112, 0.0774090364575386, 0.07228261232376099, 0.036257486790418625, 0.02230071648955345, 0.03190623223781586, 0.022796250879764557, 0.018801014870405197, 0.02687462978065014, 0.025707270950078964, 0.04549820348620415, 0.04196483641862869, 0.031974419951438904, 0.01587621122598648, 0.027367373928427696, 0.018137525767087936, 0.013924071565270424, 0.016779063269495964, 0.01654273085296154, 0.04290248081088066, 0.049445927143096924, 0.041671235114336014, 0.04332326352596283, 0.03586049750447273, 0.036009084433317184, 0.0267326720058918, 0.023209098726511, 0.023507865145802498, 0.04408358782529831, 0.054285500198602676, 0.05746561288833618, 0.027186524122953415, 0.02602950669825077, 0.041077181696891785, 0.04899774491786957, 0.04868650063872337, 0.04210241883993149, 0.07235357910394669, 0.057015303522348404, 0.0626426711678505, 0.07645756006240845, 0.05168069526553154, 0.058878690004348755, 0.03387562558054924, 0.02905292436480522, 0.024732211604714394, 0.05429260805249214, 0.03919284790754318, 0.036673955619335175, 0.0403684638440609, 0.04117000475525856, 0.035951949656009674, 0.04331313818693161, 0.031094782054424286, 0.030558649450540543, 0.05132238566875458, 0.026009688153862953, 0.02562825195491314, 0.01978299580514431, 0.023086536675691605, 0.029177766293287277, 0.019380701705813408, 0.01739419437944889, 0.026039937511086464, 0.08064134418964386, 0.07109476625919342, 0.0732414498925209]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.1793120801448822</v>
+        <v>0.5047521591186523</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.7103953000041656</v>
+        <v>0.7251152000098955</v>
       </c>
       <c r="J132" t="n">
-        <v>0.005464579230801274</v>
+        <v>0.00557780923084535</v>
       </c>
     </row>
     <row r="133">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[0.2095862627029419, 0.25206610560417175, 0.1669260710477829, 0.14286425709724426, 0.06340944766998291, 0.05302538350224495, 0.05764535814523697, 0.049854930490255356, 0.04608219116926193, 0.034932512789964676, 0.034080296754837036, 0.03408846631646156, 0.0401008203625679, 0.055915359407663345, 0.057577427476644516, 0.07215148955583572, 0.06240931153297424, 0.0640401542186737, 0.05919694900512695, 0.05085281655192375, 0.038544513285160065, 0.04175079986453056, 0.05706439167261124, 0.06203486770391464, 0.07700163871049881, 0.03975280001759529, 0.03505011647939682, 0.04593133181333542, 0.04903525114059448, 0.03113563172519207, 0.03912113606929779, 0.055011145770549774, 0.0356510654091835, 0.024438971653580666, 0.02975417487323284, 0.03704036399722099, 0.05749538913369179, 0.03687608614563942, 0.02617133967578411, 0.025259731337428093, 0.02791329100728035, 0.027265219017863274, 0.026338374242186546, 0.03155675530433655, 0.026837149634957314, 0.03260088711977005, 0.028992293402552605, 0.02424498461186886, 0.020687412470579147, 0.030962659046053886, 0.05326378718018532, 0.07588525861501694, 0.1356230080127716, 0.16212087869644165, 0.10541378706693649, 0.06338334828615189, 0.04891510307788849, 0.04473408684134483, 0.028798585757613182, 0.030714474618434906, 0.029658973217010498, 0.05342427268624306, 0.04580123350024223, 0.04494202136993408, 0.046325914561748505, 0.05158385634422302, 0.04040215164422989, 0.05770993232727051, 0.04625841602683067, 0.04647906497120857, 0.04813744127750397, 0.040006306022405624, 0.042947810143232346, 0.04528066888451576, 0.048998214304447174, 0.04676893353462219, 0.03369259089231491, 0.028509147465229034, 0.029416736215353012, 0.04257204756140709, 0.03910357505083084, 0.03575583174824715, 0.03449150547385216, 0.03932919353246689, 0.04478641599416733, 0.0574740432202816, 0.05599344149231911, 0.05343339964747429, 0.04413571208715439, 0.034807633608579636, 0.04245194047689438, 0.047260772436857224, 0.03617054224014282, 0.03197865933179855, 0.052120134234428406, 0.04667888209223747, 0.04636770486831665, 0.04835490882396698, 0.04401880130171776, 0.044513337314128876, 0.03860696405172348, 0.03471924737095833, 0.03228576481342316, 0.04721497371792793, 0.04272177070379257, 0.03868160396814346, 0.030460702255368233, 0.03114164248108864, 0.03482101485133171, 0.04031747952103615, 0.04423924908041954, 0.04562817141413689, 0.040961019694805145, 0.03211265802383423, 0.03396564722061157, 0.042429182678461075, 0.04429634287953377, 0.050301361829042435, 0.038975685834884644, 0.03825511038303375, 0.03979960456490517, 0.03903506323695183, 0.032003503292798996, 0.03554277867078781, 0.04345919191837311, 0.04535786435008049, 0.04497392475605011, 0.03486042469739914, 0.029434558004140854, 0.02930772677063942, 0.040832117199897766, 0.03811649605631828, 0.040692396461963654, 0.047106292098760605, 0.050937850028276443, 0.049705132842063904, 0.043846674263477325, 0.04405759647488594, 0.0437278114259243, 0.04183723032474518, 0.04178635776042938, 0.04247928783297539, 0.050063490867614746, 0.05586487427353859, 0.05966835096478462, 0.05540585517883301, 0.03847866132855415, 0.03904431313276291, 0.03898033872246742, 0.036000385880470276, 0.03918539360165596, 0.036405593156814575, 0.031121838837862015, 0.0291819479316473, 0.026961354538798332, 0.02471347711980343, 0.0248414296656847]</t>
+          <t>[0.063744455575943, 0.13749806582927704, 0.17367634177207947, 0.13503186404705048, 0.05532412976026535, 0.05884028971195221, 0.056983832269907, 0.044083818793296814, 0.039827171713113785, 0.02960716374218464, 0.024100501090288162, 0.028492547571659088, 0.03403863310813904, 0.05133285000920296, 0.06581484526395798, 0.09116102010011673, 0.11626226454973221, 0.10944794863462448, 0.07324157655239105, 0.044379815459251404, 0.03555987402796745, 0.039490703493356705, 0.05186857283115387, 0.07121773064136505, 0.08891498297452927, 0.0573415607213974, 0.04883092641830444, 0.07098910957574844, 0.055798474699258804, 0.03539631888270378, 0.04458524286746979, 0.07548536360263824, 0.05764811486005783, 0.0350363552570343, 0.04165743291378021, 0.042064715176820755, 0.06466920673847198, 0.03489077836275101, 0.02618326246738434, 0.025713952258229256, 0.028112467378377914, 0.029583165422081947, 0.028717655688524246, 0.039891794323921204, 0.029166435822844505, 0.0386623777449131, 0.032449573278427124, 0.028629673644900322, 0.029111653566360474, 0.045838113874197006, 0.05329521372914314, 0.06974299252033234, 0.13629114627838135, 0.14548571407794952, 0.11062832176685333, 0.08776669204235077, 0.06016242504119873, 0.05026049166917801, 0.0266418419778347, 0.022509988397359848, 0.019103778526186943, 0.05826142057776451, 0.05040586367249489, 0.04434889554977417, 0.05471803620457649, 0.062101151794195175, 0.04558875784277916, 0.0678199976682663, 0.05051998421549797, 0.05882643163204193, 0.06477464735507965, 0.057961199432611465, 0.058840468525886536, 0.0508941113948822, 0.041459716856479645, 0.03967271000146866, 0.031043730676174164, 0.030751178041100502, 0.031002946197986603, 0.042903460562229156, 0.036447521299123764, 0.03408326953649521, 0.03440765663981438, 0.04021890088915825, 0.04943408817052841, 0.07037006318569183, 0.0723811537027359, 0.07029443979263306, 0.0535249263048172, 0.04106835648417473, 0.05389460548758507, 0.0702887699007988, 0.04052775725722313, 0.03430949151515961, 0.07805554568767548, 0.06909836083650589, 0.06000620871782303, 0.06181997060775757, 0.05526691675186157, 0.05384223535656929, 0.04411814361810684, 0.03110295906662941, 0.029206659644842148, 0.0688399076461792, 0.058251313865184784, 0.04110732302069664, 0.025748038664460182, 0.02463807351887226, 0.0339990109205246, 0.028978725895285606, 0.030202023684978485, 0.03745013102889061, 0.04220061004161835, 0.03029250167310238, 0.036774616688489914, 0.040549732744693756, 0.04066238924860954, 0.045431945472955704, 0.04162469133734703, 0.0415569506585598, 0.04426056891679764, 0.04517596215009689, 0.03190305829048157, 0.035309743136167526, 0.04624960571527481, 0.056325189769268036, 0.04991554841399193, 0.03105265088379383, 0.021853122860193253, 0.023275284096598625, 0.04137008637189865, 0.04017655551433563, 0.039380837231874466, 0.04445764049887657, 0.045460838824510574, 0.045408252626657486, 0.039282578974962234, 0.041498515754938126, 0.04273080825805664, 0.049841612577438354, 0.06404735893011093, 0.06035879626870155, 0.0519513338804245, 0.04955277219414711, 0.05755101144313812, 0.05380953848361969, 0.03233608230948448, 0.030938616022467613, 0.03160133957862854, 0.029746975749731064, 0.034652408212423325, 0.03415851667523384, 0.0251117255538702, 0.021879859268665314, 0.02439364790916443, 0.022877590730786324, 0.023061281070113182]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.2520661056041718</v>
+        <v>0.1736763417720795</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.8550762000086252</v>
+        <v>0.8610865000082413</v>
       </c>
       <c r="J133" t="n">
-        <v>0.005446345222984874</v>
+        <v>0.005484627388587524</v>
       </c>
     </row>
     <row r="134">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[0.07110079377889633, 0.047606460750103, 0.044088348746299744, 0.03994470089673996, 0.04907076805830002, 0.045705780386924744, 0.039919618517160416, 0.04327784851193428, 0.0481887124478817, 0.047796718776226044, 0.07257846742868423, 0.07154980301856995, 0.06292707473039627, 0.09002356231212616, 0.07139087468385696, 0.07966350764036179, 0.06224449723958969, 0.04751967638731003, 0.0524432472884655, 0.0907500833272934, 0.06377333402633667, 0.07782718539237976, 0.07016929239034653, 0.07786329835653305, 0.09059899300336838, 0.07790985703468323, 0.0716150552034378, 0.07064637541770935, 0.08735603839159012, 0.07349840551614761, 0.06331568956375122, 0.0602668896317482, 0.04825812205672264, 0.052136506885290146, 0.06523073464632034, 0.08335404098033905, 0.0712568461894989, 0.06631153076887131, 0.05396820977330208, 0.059387363493442535, 0.07465510070323944, 0.06661821156740189, 0.08231168240308762, 0.09743503481149673, 0.09464003890752792, 0.11626700311899185, 0.08290912210941315, 0.08400501310825348, 0.08502256125211716, 0.17798760533332825, 0.13059015572071075, 0.13938751816749573, 0.08808895200490952, 0.08833558857440948, 0.08826388418674469, 0.09740808606147766, 0.10552588105201721, 0.12254194915294647, 0.0830036923289299, 0.08283297717571259, 0.08788023889064789, 0.09204959869384766, 0.09007632732391357, 0.09570913761854172, 0.11865346133708954, 0.10360965877771378, 0.1255275160074234, 0.11012754589319229, 0.0841950848698616, 0.07076825946569443, 0.039205826818943024, 0.033696774393320084, 0.050702404230833054, 0.0434880331158638, 0.04586987569928169, 0.039859455078840256, 0.02840040624141693, 0.03547549620270729, 0.04701881483197212, 0.05495447665452957, 0.0538448803126812, 0.04786553233861923, 0.047795671969652176, 0.05338068678975105, 0.04984033852815628, 0.048779938369989395, 0.0457729697227478, 0.05575805902481079, 0.08575943857431412, 0.07658785581588745, 0.07843230664730072, 0.0608452707529068, 0.061926521360874176, 0.06541755050420761, 0.04592738300561905, 0.03961579129099846, 0.04504339024424553, 0.049351271241903305, 0.055161669850349426, 0.06512998044490814, 0.1264987289905548, 0.12856395542621613, 0.13920781016349792, 0.19836591184139252, 0.14178836345672607, 0.15773510932922363, 0.1023964211344719, 0.10820841044187546, 0.09009494632482529, 0.0947091355919838, 0.07624834775924683, 0.081000916659832, 0.07941373437643051, 0.0672355368733406, 0.07542391121387482, 0.11872852593660355, 0.11750110238790512, 0.1527223438024521, 0.19246408343315125, 0.14663510024547577, 0.13994614779949188, 0.06625910103321075, 0.05209490656852722, 0.037976473569869995, 0.0593041256070137, 0.07443875074386597, 0.08384981006383896, 0.05738629773259163, 0.06357654929161072, 0.05701166018843651, 0.05672536790370941, 0.0528082400560379, 0.059797078371047974, 0.06206873431801796, 0.06524789333343506, 0.06049958989024162, 0.05081385374069214, 0.04302586615085602, 0.046581633388996124, 0.038994695991277695, 0.040254853665828705, 0.044266410171985626, 0.03843394294381142, 0.042520832270383835, 0.04939757287502289, 0.07961015403270721, 0.0665459930896759, 0.06615490466356277, 0.07182074338197708, 0.05409698188304901, 0.042988166213035583, 0.04259064793586731, 0.043186530470848083, 0.050713926553726196, 0.1691465526819229, 0.1781379133462906, 0.17298008501529694]</t>
+          <t>[0.05915820971131325, 0.028795959427952766, 0.023753216490149498, 0.023873345926404, 0.03827888146042824, 0.03721567988395691, 0.034032851457595825, 0.026068171486258507, 0.02481839992105961, 0.02627652697265148, 0.04417463392019272, 0.03538103029131889, 0.03462013602256775, 0.10986384004354477, 0.07341158390045166, 0.08640876412391663, 0.049518123269081116, 0.026535384356975555, 0.031045492738485336, 0.09538272023200989, 0.05944909155368805, 0.06618131697177887, 0.057295944541692734, 0.05346500501036644, 0.05250547081232071, 0.09072137624025345, 0.059766802936792374, 0.06154030188918114, 0.08895997703075409, 0.07230771332979202, 0.06640908867120743, 0.05793897062540054, 0.04983453452587128, 0.05693352594971657, 0.07219329476356506, 0.08923913538455963, 0.0676003023982048, 0.09118793159723282, 0.06937486678361893, 0.08265697211027145, 0.10365550965070724, 0.0769919753074646, 0.10264566540718079, 0.12321082502603531, 0.10441717505455017, 0.1290159672498703, 0.078334741294384, 0.08247905969619751, 0.09093163162469864, 0.30708444118499756, 0.1734379380941391, 0.15556129813194275, 0.07332426309585571, 0.06818327307701111, 0.06532271206378937, 0.09631391614675522, 0.11124549806118011, 0.11627281457185745, 0.0629773661494255, 0.062383268028497696, 0.06565509736537933, 0.09388513118028641, 0.07088489085435867, 0.09285272657871246, 0.10836601257324219, 0.08595369011163712, 0.0667906105518341, 0.08774005621671677, 0.05944080278277397, 0.05381275340914726, 0.03666442260146141, 0.04286466911435127, 0.06229332834482193, 0.06450776755809784, 0.08030933886766434, 0.06994537264108658, 0.04682717099785805, 0.05262842774391174, 0.07015744596719742, 0.09393378347158432, 0.07023666799068451, 0.06362517178058624, 0.05403384938836098, 0.05860726162791252, 0.06406886875629425, 0.06951962411403656, 0.05203738808631897, 0.059595879167318344, 0.07836452126502991, 0.06453847140073776, 0.06378879398107529, 0.05313487723469734, 0.052234478294849396, 0.0705685093998909, 0.05387762933969498, 0.05313074588775635, 0.04933729022741318, 0.040270354598760605, 0.04387711361050606, 0.06111050024628639, 0.1311531662940979, 0.1502583622932434, 0.18801294267177582, 0.2538110911846161, 0.14793798327445984, 0.198894664645195, 0.09477484971284866, 0.0881597250699997, 0.07468511164188385, 0.08898936212062836, 0.06088218837976456, 0.05044291168451309, 0.034983549267053604, 0.03108094446361065, 0.03365276753902435, 0.08874202519655228, 0.10005616396665573, 0.12334296107292175, 0.13428789377212524, 0.10927310585975647, 0.11322721838951111, 0.061949461698532104, 0.05320045351982117, 0.03904057294130325, 0.06252781301736832, 0.07443029433488846, 0.08977718651294708, 0.0380948930978775, 0.050414618104696274, 0.058695871382951736, 0.05504370480775833, 0.05596257373690605, 0.06201105937361717, 0.08337151259183884, 0.09182923287153244, 0.10195127129554749, 0.05419928953051567, 0.04481551796197891, 0.05097759887576103, 0.048058316111564636, 0.05102386325597763, 0.06693807989358902, 0.04764345660805702, 0.05527593940496445, 0.07502245157957077, 0.09695927798748016, 0.12085646390914917, 0.09969563037157059, 0.05584655702114105, 0.03717629238963127, 0.026161203160881996, 0.03381357342004776, 0.037907347083091736, 0.037160757929086685, 0.06803029775619507, 0.10709836333990097, 0.10450772196054459]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.1983659118413925</v>
+        <v>0.3070844411849976</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.8617215999984182</v>
+        <v>0.8669492999906652</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005488672611454894</v>
+        <v>0.00552197006363481</v>
       </c>
     </row>
     <row r="135">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[0.05033639818429947, 0.044556472450494766, 0.03780290484428406, 0.07703202962875366, 0.05114053934812546, 0.05124388262629509, 0.05053942650556564, 0.0664740800857544, 0.16732679307460785, 0.08487832546234131, 0.09233677387237549, 0.07624012231826782, 0.06741359829902649, 0.06421753764152527, 0.06283475458621979, 0.1466963291168213, 0.2094443142414093, 0.14957265555858612, 0.1473744809627533, 0.1676836609840393, 0.15811192989349365, 0.3680335283279419, 0.13786417245864868, 0.2213914543390274, 0.24514316022396088, 0.21289430558681488, 0.15479744970798492, 0.34193557500839233, 0.26429787278175354, 0.19000045955181122, 0.20651228725910187, 0.14354488253593445, 0.15399371087551117, 0.256073921918869, 0.4589526951313019, 0.470365434885025, 0.4606366455554962, 0.34336259961128235, 0.24898022413253784, 0.3517810106277466, 0.3519013822078705, 0.3543502688407898, 0.10363645851612091, 0.08849488943815231, 0.1261691451072693, 0.05856360122561455, 0.04080750048160553, 0.03774639219045639, 0.041660066694021225, 0.03620278090238571, 0.024868173524737358, 0.03520636633038521, 0.040030740201473236, 0.051820073276758194, 0.07974270731210709, 0.0731651559472084, 0.06096425652503967, 0.04341665655374527, 0.0355028361082077, 0.026837848126888275, 0.03272677958011627, 0.04007430374622345, 0.07229918986558914, 0.07872829586267471, 0.10525576770305634, 0.12312205880880356, 0.17871689796447754, 0.09633830189704895, 0.18376748263835907, 0.13272161781787872, 0.08986516296863556, 0.13566869497299194, 0.5586591362953186, 0.5042839050292969, 0.2478085607290268, 0.2508980333805084, 0.22351552546024323, 0.3248557448387146, 0.2656412124633789, 0.16077522933483124, 0.09595891088247299, 0.14065606892108917, 0.15273402631282806, 0.08924843370914459, 0.06438056379556656, 0.04398425295948982, 0.04545194283127785, 0.07538482546806335, 0.050419412553310394, 0.07401734590530396, 0.04457203671336174, 0.043199922889471054, 0.053250350058078766, 0.04712080582976341, 0.03309542313218117, 0.041535910218954086, 0.06477884948253632, 0.06144919991493225, 0.1094934269785881, 0.1607610434293747, 0.12025455385446548, 0.13152512907981873, 0.06915386766195297, 0.05181945487856865, 0.04810504987835884, 0.12006392329931259, 0.09333985298871994, 0.10324779152870178, 0.07150301337242126, 0.05922907218337059, 0.06560494005680084, 0.08998417109251022, 0.06283695995807648, 0.06076829880475998, 0.02536589466035366, 0.022318651899695396, 0.02937817946076393, 0.07182614505290985, 0.10777868330478668, 0.08937198668718338, 0.0903528705239296, 0.09137295186519623, 0.07213878631591797, 0.07301169633865356, 0.0680905133485794, 0.0710541233420372, 0.1415235698223114, 0.12934917211532593, 0.08847400546073914, 0.06722169369459152, 0.03873587027192116, 0.034604761749506, 0.05631893128156662, 0.05808378756046295, 0.05289340391755104, 0.12036135047674179, 0.09573231637477875, 0.07594570517539978, 0.11556857079267502, 0.05685479938983917, 0.04676799476146698, 0.06583574414253235, 0.04767835512757301, 0.03755825757980347, 0.023860130459070206, 0.02288837917149067, 0.025935256853699684, 0.04277818277478218, 0.03622903302311897, 0.041223324835300446, 0.047128550708293915, 0.05159313976764679, 0.07133881002664566, 0.053139783442020416, 0.06451980769634247, 0.06889240443706512, 0.06995819509029388]</t>
+          <t>[0.007237349171191454, 0.006479054689407349, 0.004808787722140551, 0.009735303930938244, 0.005864398553967476, 0.005888128653168678, 0.007683549076318741, 0.01181267574429512, 0.026366006582975388, 0.010652153752744198, 0.011272471398115158, 0.010637113824486732, 0.01131235621869564, 0.014400293119251728, 0.011792008765041828, 0.029435422271490097, 0.03759295865893364, 0.027684131637215614, 0.029022064059972763, 0.03051232546567917, 0.025922134518623352, 0.08020735532045364, 0.0404813215136528, 0.057660266757011414, 0.03193091228604317, 0.026068639010190964, 0.023491129279136658, 0.029138296842575073, 0.02378424070775509, 0.016302088275551796, 0.023181630298495293, 0.018609771504998207, 0.03448893502354622, 0.13783246278762817, 0.1735810786485672, 0.0839347094297409, 0.05587449297308922, 0.039594538509845734, 0.028530418872833252, 0.04336905479431152, 0.046871814876794815, 0.08324765413999557, 0.023106936365365982, 0.023799462243914604, 0.02738281711935997, 0.021772857755422592, 0.009343903511762619, 0.007318263407796621, 0.007210821844637394, 0.005683844909071922, 0.0038834360893815756, 0.0061669605784118176, 0.007274328265339136, 0.009398489259183407, 0.016846193000674248, 0.019429711624979973, 0.015840187668800354, 0.008683182299137115, 0.006711286958307028, 0.005799069534987211, 0.008959861472249031, 0.01135450229048729, 0.02693101018667221, 0.03888138756155968, 0.04951115697622299, 0.055676113814115524, 0.14904825389385223, 0.08895409852266312, 0.22694848477840424, 0.10473918169736862, 0.03613495081663132, 0.057695452123880386, 0.6207194924354553, 0.6403705477714539, 0.2072957307100296, 0.37396571040153503, 0.29006755352020264, 0.37241679430007935, 0.18472765386104584, 0.0874781608581543, 0.03761124238371849, 0.05859597027301788, 0.08936532586812973, 0.022942563518881798, 0.014455323107540607, 0.011141177266836166, 0.013509850949048996, 0.014394710771739483, 0.008557992056012154, 0.012141688726842403, 0.005705603864043951, 0.005054431967437267, 0.0076827420853078365, 0.006754026748239994, 0.0048369187861680984, 0.007202299311757088, 0.006326043047010899, 0.006847803480923176, 0.015291047282516956, 0.04530758038163185, 0.04182712733745575, 0.04430627077817917, 0.023258768022060394, 0.01542289461940527, 0.012047036550939083, 0.03654637560248375, 0.027569012716412544, 0.039174292236566544, 0.03688599541783333, 0.021990220993757248, 0.030141737312078476, 0.05273618921637535, 0.01879986748099327, 0.022746877744793892, 0.005626438185572624, 0.003879124065861106, 0.005354247987270355, 0.045047517865896225, 0.06379426270723343, 0.038294438272714615, 0.01433183066546917, 0.012312529608607292, 0.014599286951124668, 0.021797779947519302, 0.018893934786319733, 0.01469434704631567, 0.03058581054210663, 0.023125816136598587, 0.01877027563750744, 0.008620046079158783, 0.005787564907222986, 0.005092250648885965, 0.00509612588211894, 0.0048715281300246716, 0.004835899919271469, 0.011258077807724476, 0.00841844454407692, 0.007236952893435955, 0.01595567725598812, 0.008743945509195328, 0.008772936649620533, 0.011879130266606808, 0.008804494515061378, 0.009064382873475552, 0.008971551433205605, 0.004851458594202995, 0.005597542505711317, 0.0076247453689575195, 0.007068184670060873, 0.011448579840362072, 0.010664070956408978, 0.012505501508712769, 0.027521399781107903, 0.04084308072924614, 0.03638662025332451, 0.03601369634270668, 0.036849915981292725]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.5586591362953186</v>
+        <v>0.6403705477714539</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.862087799992878</v>
+        <v>0.8672282999905292</v>
       </c>
       <c r="J135" t="n">
-        <v>0.005491005095496038</v>
+        <v>0.005523747133697638</v>
       </c>
     </row>
     <row r="136">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[0.9718501567840576, 0.8399551510810852, 0.8065992593765259, 0.9766033887863159, 0.9554943442344666, 0.8185461163520813, 0.6678035855293274, 0.799980640411377, 0.950145423412323, 0.9779285192489624, 0.9700333476066589, 0.8726165890693665, 0.6804054379463196, 0.6026079654693604, 0.5561529994010925, 0.68025803565979, 0.6989872455596924, 0.8507565855979919, 0.8168028593063354, 0.7587763071060181, 0.681265115737915, 0.6790566444396973, 0.6866006851196289, 0.6415314078330994, 0.5804321765899658, 0.7054821848869324, 0.7091461420059204, 0.7684807777404785, 0.8530327677726746, 0.8463475704193115, 0.6842193007469177, 0.7585108876228333, 0.7899520397186279, 0.6099086403846741, 0.5656546950340271, 0.7224134206771851, 0.7968103885650635, 0.7585485577583313, 0.7908191680908203, 0.7208032608032227, 0.6631056070327759, 0.8098546266555786, 0.448314368724823, 0.6966943144798279, 0.5854421854019165, 0.7759167551994324, 0.7656683921813965, 0.7223066687583923, 0.5900058150291443, 0.5656597018241882, 0.6748213171958923, 0.7804116606712341, 0.7518776059150696, 0.6545878052711487, 0.5615243911743164, 0.6355687975883484, 0.5789247751235962, 0.6174651980400085, 0.5368666052818298, 0.5475853681564331, 0.8226704001426697, 0.7922220826148987, 0.9590014219284058, 0.9856277704238892, 0.9708841443061829, 0.9936723709106445, 0.9933759570121765, 0.9821855425834656, 0.9062774181365967, 0.7620401382446289, 0.6299925446510315, 0.5593156218528748, 0.749238133430481, 0.6833056807518005, 0.869988739490509, 0.7017437219619751, 0.6323855519294739, 0.5296627283096313, 0.543819010257721, 0.8239459991455078, 0.6151454448699951, 0.5547019243240356, 0.48101648688316345, 0.42751652002334595, 0.5892172455787659, 0.29117289185523987, 0.4137563109397888, 0.5027114748954773, 0.8880026936531067, 0.8590373396873474, 0.8487573266029358, 0.5263336896896362, 0.6421737670898438, 0.4758490324020386, 0.6552383303642273, 0.4627014100551605, 0.6263890862464905, 0.8319109082221985, 0.7986665368080139, 0.7878516316413879, 0.8046345710754395, 0.9245089888572693, 0.9828993082046509, 0.9121503233909607, 0.5920378565788269, 0.5000220537185669, 0.4093998670578003, 0.5164560675621033, 0.5935124754905701, 0.6564381122589111, 0.4255196750164032, 0.6334844827651978, 0.4489317238330841, 0.584021270275116, 0.6044489741325378, 0.46661508083343506, 0.46707287430763245, 0.46727466583251953]</t>
+          <t>[0.9954793453216553, 0.9470140933990479, 0.9210480451583862, 0.9929733276367188, 0.9872222542762756, 0.84705650806427, 0.6912184953689575, 0.8925012946128845, 0.9864988327026367, 0.9966093301773071, 0.9955946803092957, 0.9473103284835815, 0.7151536345481873, 0.5418957471847534, 0.5106017589569092, 0.747702956199646, 0.6776860356330872, 0.8559067845344543, 0.8561321496963501, 0.6762194037437439, 0.6573876738548279, 0.6146255731582642, 0.6334471702575684, 0.6608173251152039, 0.6224822402000427, 0.7438843250274658, 0.8018477559089661, 0.8978739976882935, 0.9683486819267273, 0.9562779664993286, 0.7654885053634644, 0.7551001906394958, 0.9511628746986389, 0.6665703058242798, 0.47705078125, 0.8346747159957886, 0.901297390460968, 0.9469783902168274, 0.9534935355186462, 0.7693679928779602, 0.7082951068878174, 0.9392868876457214, 0.32712820172309875, 0.7508031129837036, 0.6273702383041382, 0.912390410900116, 0.8434910774230957, 0.679617702960968, 0.5846667289733887, 0.44055482745170593, 0.6716834902763367, 0.821864128112793, 0.7539894580841064, 0.7791836857795715, 0.6387853622436523, 0.7090674042701721, 0.5560286641120911, 0.5498443841934204, 0.5260632634162903, 0.5526455044746399, 0.9636176824569702, 0.9399561882019043, 0.9875368475914001, 0.9967214465141296, 0.9976235032081604, 0.9993465542793274, 0.9991232752799988, 0.995936393737793, 0.9813305735588074, 0.8075738549232483, 0.5474743843078613, 0.47598016262054443, 0.9627938270568848, 0.810320258140564, 0.8967859745025635, 0.6415519714355469, 0.5292217135429382, 0.38831743597984314, 0.568149209022522, 0.9772689342498779, 0.7467329502105713, 0.7336379289627075, 0.3750549852848053, 0.30054208636283875, 0.45052284002304077, 0.21569977700710297, 0.3760033845901489, 0.5316997170448303, 0.9455877542495728, 0.9010027050971985, 0.9188963770866394, 0.4884175956249237, 0.49256470799446106, 0.3564947843551636, 0.7037041783332825, 0.32955873012542725, 0.7246846556663513, 0.9360718727111816, 0.9036492705345154, 0.9409835934638977, 0.9195080995559692, 0.9760770201683044, 0.997588038444519, 0.9786016941070557, 0.49019190669059753, 0.26624345779418945, 0.28715789318084717, 0.37759435176849365, 0.6517794132232666, 0.8121359944343567, 0.36357882618904114, 0.541286051273346, 0.3012009859085083, 0.44571197032928467, 0.42223337292671204, 0.23928231000900269, 0.3253026008605957, 0.32521116733551025]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.9936723709106445</v>
+        <v>0.9993465542793274</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.6731669000000693</v>
+        <v>0.6984393000020646</v>
       </c>
       <c r="J136" t="n">
-        <v>0.005704804237288722</v>
+        <v>0.005918977118661564</v>
       </c>
     </row>
     <row r="137">
@@ -6005,11 +6005,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.9735397100448608, 0.9831316471099854, 0.978733241558075, 0.9893807172775269, 0.9909071922302246, 0.9888019561767578, 0.9900977611541748, 0.9925375580787659, 0.9902828931808472, 0.976952075958252, 0.9838691353797913, 0.9504780769348145, 0.959235668182373, 0.9240859150886536, 0.9221715331077576, 0.9656510949134827, 0.8898303508758545, 0.9097349643707275, 0.8030547499656677, 0.6151859760284424, 0.3224542737007141, 0.44642961025238037, 0.5586958527565002, 0.7884926795959473, 0.7888106107711792, 0.886374294757843, 0.9452477693557739, 0.9708263874053955, 0.9774762392044067, 0.9623973965644836, 0.9762815237045288, 0.96221524477005, 0.9530736207962036, 0.9477006196975708, 0.9715566635131836, 0.9325693845748901, 0.9468526840209961, 0.9587156176567078, 0.9802871346473694, 0.9807104468345642, 0.9602974057197571, 0.9616217017173767, 0.963948130607605, 0.9554589986801147, 0.938243567943573, 0.9341883659362793, 0.9757118821144104, 0.9311144948005676, 0.9836206436157227, 0.992860734462738, 0.985724687576294, 0.9910910129547119, 0.9929385781288147, 0.9857144951820374, 0.9805763363838196, 0.9660497307777405, 0.9692850708961487, 0.9894617199897766, 0.9885983467102051, 0.9744575619697571, 0.972812831401825, 0.9155402183532715, 0.9542807936668396, 0.9700669050216675, 0.9858607053756714, 0.9921033978462219, 0.9909707307815552, 0.9784462451934814, 0.9884729981422424, 0.9951971173286438, 0.9933506846427917, 0.9868350625038147, 0.9899994730949402, 0.9700919389724731, 0.9754459857940674, 0.9766039252281189, 0.9510515928268433, 0.9860169291496277, 0.9812069535255432, 0.9377014636993408, 0.9610218405723572, 0.9752639532089233, 0.9788683652877808, 0.9805799126625061, 0.9797371029853821, 0.9726584553718567, 0.9822268486022949, 0.9832773804664612, 0.9782091379165649, 0.9759195446968079, 0.9716919660568237, 0.9618594646453857, 0.9828723073005676, 0.9812337160110474, 0.9312804341316223, 0.9449202418327332, 0.9421742558479309, 0.9751178026199341, 0.9905852675437927, 0.9847179055213928, 0.9912654757499695, 0.9920125603675842, 0.9889485836029053, 0.9892413020133972, 0.9866873621940613, 0.9912179112434387, 0.9842901825904846, 0.9867167472839355, 0.9883977770805359, 0.9882843494415283, 0.9871429800987244, 0.9788646697998047, 0.9830425977706909, 0.9712094664573669, 0.9426543116569519, 0.9793832898139954, 0.9813087582588196, 0.9813036918640137]</t>
+          <t>[0.9956389665603638, 0.9968609809875488, 0.9969854950904846, 0.9988707900047302, 0.9991604089736938, 0.997972309589386, 0.9977326393127441, 0.9987781643867493, 0.9980769157409668, 0.9952791929244995, 0.9953027963638306, 0.9692507982254028, 0.9743866920471191, 0.9366340637207031, 0.9294554591178894, 0.9882280230522156, 0.9399133324623108, 0.9852662682533264, 0.9582505822181702, 0.8114350438117981, 0.5986001491546631, 0.8172177672386169, 0.7689686417579651, 0.9686103463172913, 0.9498546123504639, 0.9623988270759583, 0.9923050999641418, 0.9953658580780029, 0.9968206882476807, 0.9943523406982422, 0.9970610737800598, 0.9963022470474243, 0.9961334466934204, 0.9925398230552673, 0.9952337145805359, 0.984098494052887, 0.9927030801773071, 0.9933650493621826, 0.9968871474266052, 0.9957259893417358, 0.9882728457450867, 0.9890344142913818, 0.9922502636909485, 0.9912062287330627, 0.9879200458526611, 0.9670507311820984, 0.993206262588501, 0.9261899590492249, 0.9940605759620667, 0.9982454776763916, 0.9933783411979675, 0.9969447255134583, 0.9977622032165527, 0.9961620569229126, 0.9935193657875061, 0.9689986705780029, 0.9646673202514648, 0.9962433576583862, 0.9974696636199951, 0.9881404638290405, 0.9756582379341125, 0.9438937306404114, 0.9912592768669128, 0.9947381615638733, 0.9975087642669678, 0.9988893866539001, 0.9988391995429993, 0.9964255690574646, 0.9980593323707581, 0.9992913007736206, 0.9986706972122192, 0.9965484738349915, 0.9960797429084778, 0.9814004898071289, 0.9904313683509827, 0.9893247485160828, 0.9546800255775452, 0.9948737025260925, 0.9904358983039856, 0.9536887407302856, 0.9740374088287354, 0.9880587458610535, 0.990465521812439, 0.9871877431869507, 0.9914364218711853, 0.9894531965255737, 0.992501974105835, 0.9953274726867676, 0.9883558750152588, 0.9878032803535461, 0.9912663102149963, 0.9821972846984863, 0.9958969354629517, 0.9945428371429443, 0.9795160889625549, 0.9708275198936462, 0.9840721487998962, 0.9911399483680725, 0.9977008700370789, 0.996601939201355, 0.9984190464019775, 0.9988137483596802, 0.9954001307487488, 0.9962136149406433, 0.9910536408424377, 0.9953051805496216, 0.9850870370864868, 0.9930374026298523, 0.9944738745689392, 0.9924312829971313, 0.9898284673690796, 0.9528152942657471, 0.9837994575500488, 0.9619688391685486, 0.8882052898406982, 0.9867193102836609, 0.9911985993385315, 0.991306722164154]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.9951971173286438</v>
+        <v>0.9992913007736206</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.6681451000040397</v>
+        <v>0.6761067000043113</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005662246610203726</v>
+        <v>0.005729717796646706</v>
       </c>
     </row>
     <row r="138">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[0.7350389957427979, 0.6711452603340149, 0.7466744780540466, 0.6524921655654907, 0.7780745029449463, 0.7292709350585938, 0.8145625591278076, 0.8341367244720459, 0.8652456998825073, 0.7823292016983032, 0.6774483323097229, 0.7749148011207581, 0.7616256475448608, 0.6694554090499878, 0.709236204624176, 0.6820023059844971, 0.7037183046340942, 0.6409673690795898, 0.6814379096031189, 0.5754554271697998, 0.6127119660377502, 0.734857439994812, 0.7629702687263489, 0.6545711159706116, 0.7421388626098633, 0.6969389319419861, 0.742249608039856, 0.6823692321777344, 0.8619245886802673, 0.8148741722106934, 0.6424490809440613, 0.7958245277404785, 0.6544631719589233, 0.6939078569412231, 0.8057113885879517, 0.6543996930122375, 0.8472362160682678, 0.7412033081054688, 0.7933356165885925, 0.7551312446594238, 0.6982952952384949, 0.8211656808853149, 0.9373555183410645, 0.9608372449874878, 0.979354739189148, 0.9806073904037476, 0.8802784085273743, 0.7573204636573792, 0.7048016786575317, 0.706752359867096, 0.8616134524345398, 0.8407858610153198, 0.8322873711585999, 0.7915860414505005, 0.6794825196266174, 0.78011155128479, 0.7496264576911926, 0.758316695690155, 0.808474600315094, 0.7607660889625549, 0.8318654894828796, 0.8334170579910278, 0.7962673306465149, 0.7656431198120117, 0.8878238201141357, 0.9489725232124329, 0.8992734551429749, 0.8882284760475159, 0.7020325064659119, 0.6882248520851135, 0.6064989566802979, 0.6129274368286133, 0.6462379693984985, 0.6740128397941589, 0.7206662893295288, 0.6329717636108398, 0.7968458533287048, 0.8695619106292725, 0.6299725770950317, 0.6365610361099243, 0.8848116993904114, 0.9831960201263428, 0.938620388507843, 0.8547204732894897, 0.7262688279151917, 0.7320931553840637, 0.7167733311653137, 0.7083638906478882, 0.8113738298416138, 0.7397686243057251, 0.6693235039710999, 0.638198971748352, 0.57000333070755, 0.7096088528633118, 0.5771591663360596, 0.6514664888381958, 0.6824269890785217, 0.6972517371177673, 0.7605693936347961, 0.755781352519989, 0.5525717735290527, 0.5520402193069458, 0.586816668510437, 0.49442848563194275, 0.6509912014007568, 0.5499597191810608, 0.5867008566856384, 0.6404641270637512, 0.5501475930213928, 0.5732982158660889, 0.5962437391281128, 0.622881293296814, 0.582929790019989, 0.6163178086280823, 0.6109098792076111, 0.5675012469291687, 0.6641627550125122, 0.6643182039260864]</t>
+          <t>[0.7215332984924316, 0.6293315291404724, 0.7240481972694397, 0.6290533542633057, 0.7931339144706726, 0.8085982203483582, 0.8753591775894165, 0.8942155838012695, 0.9055733680725098, 0.8109055757522583, 0.6407271027565002, 0.7783216834068298, 0.7994242906570435, 0.7407839894294739, 0.7004505395889282, 0.706994354724884, 0.7142523527145386, 0.6260408163070679, 0.771904706954956, 0.7053062915802002, 0.6702696681022644, 0.7660975456237793, 0.8483298420906067, 0.8048546314239502, 0.9126757383346558, 0.8499338030815125, 0.9041070342063904, 0.7368767857551575, 0.9098504185676575, 0.9165460467338562, 0.6631536483764648, 0.8955281972885132, 0.8426325917243958, 0.8216137886047363, 0.9132719039916992, 0.8168250918388367, 0.9069305658340454, 0.8038333058357239, 0.8960860371589661, 0.8553589582443237, 0.7608181834220886, 0.8560777902603149, 0.9856733083724976, 0.9883082509040833, 0.9982845187187195, 0.9982545971870422, 0.9329836368560791, 0.7975640296936035, 0.7182504534721375, 0.7000526189804077, 0.8906275629997253, 0.8624389171600342, 0.7996370792388916, 0.7882201671600342, 0.5970913767814636, 0.6869738101959229, 0.7171295285224915, 0.7975204586982727, 0.7911028861999512, 0.8408724069595337, 0.9038336873054504, 0.93555748462677, 0.8794695138931274, 0.7939832806587219, 0.9334241151809692, 0.9941481351852417, 0.9678871035575867, 0.9255596399307251, 0.7476849555969238, 0.6660764217376709, 0.6584372520446777, 0.5711257457733154, 0.6499547958374023, 0.6468641757965088, 0.6976866126060486, 0.6391142010688782, 0.9507526755332947, 0.9587115049362183, 0.6997510194778442, 0.5804495215415955, 0.9873610734939575, 0.9992695450782776, 0.9936815500259399, 0.9497243165969849, 0.7223306894302368, 0.6812660098075867, 0.7828927636146545, 0.6890909075737, 0.8340381979942322, 0.7015622854232788, 0.6516446471214294, 0.5199654698371887, 0.47232475876808167, 0.7234619855880737, 0.4970659911632538, 0.5059887170791626, 0.5628958344459534, 0.5347275733947754, 0.7362264394760132, 0.8056274056434631, 0.5298284888267517, 0.4709048569202423, 0.5282719135284424, 0.4375690817832947, 0.6922905445098877, 0.5687150955200195, 0.5336452126502991, 0.5896180272102356, 0.5148062109947205, 0.5163251161575317, 0.6348099708557129, 0.5499615669250488, 0.5017988681793213, 0.6272579431533813, 0.6087034344673157, 0.5461706519126892, 0.5930280089378357, 0.5937511920928955]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9831960201263428</v>
+        <v>0.9992695450782776</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.6693200999870896</v>
+        <v>0.6781915000028675</v>
       </c>
       <c r="J138" t="n">
-        <v>0.005672204237178726</v>
+        <v>0.00574738559324464</v>
       </c>
     </row>
     <row r="139">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.280016154050827, 0.1200559064745903, 0.11482453346252441, 0.08378447592258453, 0.1255573034286499, 0.1217062845826149, 0.1584429293870926, 0.1009114533662796, 0.10591033101081848, 0.44594839215278625, 0.32518118619918823, 0.4285389184951782, 0.31234079599380493, 0.3540676236152649, 0.2730490267276764, 0.2579265832901001, 0.13874109089374542, 0.22916854918003082, 0.2372220754623413, 0.30005761981010437, 0.2796381711959839, 0.2954188883304596, 0.21312208473682404, 0.2810869812965393, 0.09963317215442657, 0.1221630647778511, 0.1356063187122345, 0.0931558832526207, 0.07140012085437775, 0.29968389868736267, 0.3078007102012634, 0.17342889308929443, 0.2585815489292145, 0.08510337769985199, 0.11106926947832108, 0.14357289671897888, 0.19070789217948914, 0.13293294608592987, 0.4675551652908325, 0.495863676071167, 0.4195343554019928, 0.35150235891342163, 0.1790972501039505, 0.21949253976345062, 0.45036500692367554, 0.3035120666027069, 0.6607460975646973, 0.5267502069473267, 0.6764279007911682, 0.9327095746994019, 0.8848673701286316, 0.9329143166542053, 0.9638185501098633, 0.8039059042930603, 0.9048175811767578, 0.8787110447883606, 0.9541462659835815, 0.9537110924720764, 0.9642397165298462, 0.9656153917312622, 0.9807295203208923, 0.930752694606781, 0.8799338936805725, 0.5053388476371765, 0.6826980113983154, 0.7679104804992676, 0.6273996233940125, 0.3996543288230896, 0.41450926661491394, 0.3230281174182892, 0.31137099862098694, 0.555539071559906, 0.9198538661003113, 0.9596468210220337, 0.9765755534172058, 0.9756497144699097, 0.9781794548034668, 0.9184970855712891, 0.4673269987106323, 0.6307934522628784, 0.6979972720146179, 0.8072154521942139, 0.8721116185188293, 0.8531379103660583, 0.7092214822769165, 0.9018104076385498, 0.8763383030891418, 0.8515447974205017, 0.8751366138458252, 0.8449832201004028, 0.9013659358024597, 0.8931294679641724, 0.9790241718292236, 0.9763779640197754, 0.9827910661697388, 0.9796397089958191, 0.8271945714950562, 0.7676986455917358, 0.7907217144966125, 0.8778141736984253, 0.8646735548973083, 0.5738232135772705, 0.6222045421600342, 0.7605095505714417, 0.7454164624214172, 0.7809232473373413, 0.6402586102485657, 0.7001765966415405, 0.9483327269554138, 0.8574891686439514, 0.37414079904556274, 0.9500342607498169, 0.9255568981170654, 0.9536100029945374, 0.89808589220047, 0.7862427830696106, 0.5694860219955444, 0.5681040287017822]</t>
+          <t>[0.37272870540618896, 0.08061183243989944, 0.08094274252653122, 0.05436352640390396, 0.09854467958211899, 0.056556493043899536, 0.10028089582920074, 0.045456402003765106, 0.07503001391887665, 0.423157662153244, 0.31275129318237305, 0.396758496761322, 0.12257501482963562, 0.29199859499931335, 0.23392081260681152, 0.28448379039764404, 0.08702122420072556, 0.13996003568172455, 0.13438695669174194, 0.36570632457733154, 0.18752604722976685, 0.2627227008342743, 0.1590973287820816, 0.2613736391067505, 0.06515498459339142, 0.06759677082300186, 0.09880580753087997, 0.057288240641355515, 0.04686052352190018, 0.3183319568634033, 0.29234248399734497, 0.2314455360174179, 0.4023309350013733, 0.07414689660072327, 0.07809071242809296, 0.14889001846313477, 0.31831854581832886, 0.12272162735462189, 0.5316299200057983, 0.5116046667098999, 0.4735681414604187, 0.35481899976730347, 0.17474563419818878, 0.19269564747810364, 0.5649601817131042, 0.4103979170322418, 0.7083904147148132, 0.5478782057762146, 0.706195592880249, 0.976249098777771, 0.9665101170539856, 0.9740800857543945, 0.992519736289978, 0.8968793749809265, 0.9716559648513794, 0.9654701352119446, 0.9911417961120605, 0.9906458854675293, 0.994564414024353, 0.988654375076294, 0.9959943294525146, 0.9660350680351257, 0.8696841597557068, 0.5017552971839905, 0.7954160571098328, 0.8221883773803711, 0.6488078236579895, 0.3761117160320282, 0.3536600172519684, 0.44159629940986633, 0.42830678820610046, 0.726804792881012, 0.9591838121414185, 0.9962062835693359, 0.9981561303138733, 0.9949186444282532, 0.9946186542510986, 0.9746972322463989, 0.6576626300811768, 0.653923511505127, 0.5662513375282288, 0.7326948046684265, 0.8424051403999329, 0.8366852402687073, 0.6155416965484619, 0.9319056868553162, 0.8698410391807556, 0.8631017208099365, 0.927720844745636, 0.8882701992988586, 0.9653136134147644, 0.9895349144935608, 0.9971166849136353, 0.9962579011917114, 0.9967404007911682, 0.9956915974617004, 0.9225949645042419, 0.6970303654670715, 0.8361911177635193, 0.8974673748016357, 0.9158853888511658, 0.6752963662147522, 0.7748156785964966, 0.8972221612930298, 0.8789220452308655, 0.8050367832183838, 0.7641816735267639, 0.8597419261932373, 0.9960482716560364, 0.9684985876083374, 0.40397119522094727, 0.9883158206939697, 0.9424923658370972, 0.9826885461807251, 0.9303461313247681, 0.7757450342178345, 0.5302884578704834, 0.5309103727340698]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.9827910661697388</v>
+        <v>0.9981561303138733</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.6759397000132594</v>
+        <v>0.6836459999904037</v>
       </c>
       <c r="J139" t="n">
-        <v>0.00572830254248525</v>
+        <v>0.005793610169410201</v>
       </c>
     </row>
     <row r="140">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.7421582341194153, 0.6603236198425293, 0.6161761283874512, 0.7127188444137573, 0.6536006927490234, 0.7096593379974365, 0.610127329826355, 0.46537551283836365, 0.5916012525558472, 0.6346327662467957, 0.4616120457649231, 0.3887750804424286, 0.9021048545837402, 0.9766789078712463, 0.986070454120636, 0.9268763065338135, 0.8751369714736938, 0.9678584337234497, 0.9343252778053284, 0.945101797580719, 0.9495971202850342, 0.9799240231513977, 0.8611278533935547, 0.5484625697135925, 0.4274442493915558, 0.25762131810188293, 0.3416384160518646, 0.3279256820678711, 0.3648028075695038, 0.2989853322505951, 0.42612162232398987, 0.2839418947696686, 0.5363526344299316, 0.46550995111465454, 0.3823380470275879, 0.4959045946598053, 0.4377692937850952, 0.36336052417755127, 0.3259446322917938, 0.294942170381546, 0.2211698442697525, 0.36715471744537354, 0.5128964781761169, 0.47592926025390625, 0.37562933564186096, 0.7085070013999939, 0.7296251058578491, 0.7023867964744568, 0.7329397201538086, 0.5425277948379517, 0.3737589120864868, 0.32251206040382385, 0.6468302011489868, 0.7495402097702026, 0.46794798970222473, 0.47342169284820557, 0.7059856057167053, 0.5655896067619324, 0.6228621602058411, 0.40063831210136414, 0.5754529237747192, 0.8213595151901245, 0.5721662640571594, 0.6655888557434082, 0.7217122912406921, 0.7125886678695679, 0.8144902586936951, 0.6295071244239807, 0.6077167987823486, 0.6622609496116638, 0.861375629901886, 0.5288658142089844, 0.7025197148323059, 0.7620565891265869, 0.6475553512573242, 0.5741408467292786, 0.6289229989051819, 0.6829131841659546, 0.38166967034339905, 0.41088154911994934, 0.4104486405849457, 0.4683036506175995, 0.40699464082717896, 0.48055222630500793, 0.5392686724662781, 0.5701303482055664, 0.5586416125297546, 0.7024627923965454, 0.4024714529514313, 0.4353655278682709, 0.5998677611351013, 0.5162169337272644, 0.5639186501502991, 0.5577149391174316, 0.7736581563949585, 0.6767463684082031, 0.8422698974609375, 0.45006564259529114, 0.5342663526535034, 0.5667579770088196, 0.4407513439655304, 0.5662125945091248, 0.448750764131546, 0.6321362257003784, 0.4573909044265747, 0.8261569738388062, 0.734138548374176, 0.4945923984050751, 0.5299089550971985, 0.9619346857070923, 0.542593240737915, 0.9146493673324585, 0.4095299243927002, 0.4676985740661621, 0.4677242934703827, 0.7354328632354736, 0.5310803651809692, 0.5318054556846619]</t>
+          <t>[0.6789507865905762, 0.7470402717590332, 0.5480948686599731, 0.7017494440078735, 0.6375986933708191, 0.6505063772201538, 0.5499317049980164, 0.5257934331893921, 0.7050835490226746, 0.7995456457138062, 0.5221691727638245, 0.4074857234954834, 0.9873414635658264, 0.9970699548721313, 0.9984530210494995, 0.9831809401512146, 0.9700651168823242, 0.9959332346916199, 0.9841845035552979, 0.9905645847320557, 0.9948644042015076, 0.9972123503684998, 0.9917346239089966, 0.6130783557891846, 0.2880540192127228, 0.12531861662864685, 0.22576415538787842, 0.1846238374710083, 0.2767786383628845, 0.13189835846424103, 0.20634248852729797, 0.1962771862745285, 0.5640425682067871, 0.461715430021286, 0.2777414619922638, 0.4424206614494324, 0.5071725845336914, 0.4344814419746399, 0.31673118472099304, 0.22242064774036407, 0.16829553246498108, 0.3683708608150482, 0.41666731238365173, 0.4388760030269623, 0.40327516198158264, 0.9404345750808716, 0.8893666863441467, 0.8767253160476685, 0.9268544912338257, 0.5141910314559937, 0.24511049687862396, 0.25164902210235596, 0.8419352769851685, 0.8875128626823425, 0.44700008630752563, 0.5707261562347412, 0.882464587688446, 0.6529548764228821, 0.6253264546394348, 0.339368999004364, 0.496872216463089, 0.9510912895202637, 0.4889966547489166, 0.5996084809303284, 0.7958080768585205, 0.7767366170883179, 0.8974276185035706, 0.7419371008872986, 0.6133751273155212, 0.7693142294883728, 0.9427047371864319, 0.4145148992538452, 0.7938873767852783, 0.7556065320968628, 0.7642764449119568, 0.560480535030365, 0.7419611811637878, 0.7419225573539734, 0.35800328850746155, 0.32990822196006775, 0.2844274938106537, 0.5236459970474243, 0.4213424324989319, 0.48858532309532166, 0.5610980987548828, 0.6729834079742432, 0.5181733965873718, 0.6391912698745728, 0.2592983543872833, 0.19096052646636963, 0.3057098984718323, 0.313389390707016, 0.39859509468078613, 0.36060357093811035, 0.7674548029899597, 0.6200254559516907, 0.9031656384468079, 0.3200862407684326, 0.39618411660194397, 0.3967570662498474, 0.309805303812027, 0.4069259762763977, 0.2845267951488495, 0.46797966957092285, 0.25931233167648315, 0.7552163004875183, 0.7952802181243896, 0.5616987347602844, 0.7175244092941284, 0.9968966245651245, 0.3720596432685852, 0.9829311966896057, 0.1638087034225464, 0.22518420219421387, 0.21935288608074188, 0.6766482591629028, 0.41817787289619446, 0.41713497042655945]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.986070454120636</v>
+        <v>0.9984530210494995</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.6595025999995414</v>
+        <v>0.66968469999847</v>
       </c>
       <c r="J140" t="n">
-        <v>0.005589005084741876</v>
+        <v>0.005675294067783644</v>
       </c>
     </row>
     <row r="141">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[0.9634491205215454, 0.9754121899604797, 0.9723414182662964, 0.9114469885826111, 0.9242755770683289, 0.9047918915748596, 0.9670735597610474, 0.9773779511451721, 0.9620546102523804, 0.9624761343002319, 0.9596512317657471, 0.8676822781562805, 0.9126004576683044, 0.9505085945129395, 0.9214587211608887, 0.9530986547470093, 0.9505870938301086, 0.9489314556121826, 0.9550430178642273, 0.9665205478668213, 0.9733336567878723, 0.9599363207817078, 0.9694513082504272, 0.9807124137878418, 0.987399697303772, 0.9875473976135254, 0.9872329235076904, 0.9922709465026855, 0.9830821752548218, 0.9821799993515015, 0.9728249311447144, 0.9800142049789429, 0.9843388795852661, 0.9509329199790955, 0.9755512475967407, 0.9808792471885681, 0.9802108407020569, 0.9655958414077759, 0.9738852977752686, 0.9753309488296509, 0.9726341962814331, 0.9636722803115845, 0.9229035377502441, 0.9662282466888428, 0.9698315262794495, 0.9357242584228516, 0.9795376658439636, 0.9653624892234802, 0.9450280666351318, 0.9495894908905029, 0.9373119473457336, 0.9619709849357605, 0.9263355731964111, 0.9526644945144653, 0.9770466685295105, 0.9730930328369141, 0.9803511500358582, 0.9904166460037231, 0.9860152006149292, 0.986609160900116, 0.9721524119377136, 0.9760087728500366, 0.9711995720863342, 0.9644428491592407, 0.9590462446212769, 0.9728031754493713, 0.9867013096809387, 0.9696165919303894, 0.9736655950546265, 0.9882285594940186, 0.9826851487159729, 0.981873631477356, 0.9540798664093018, 0.9381843209266663, 0.9626355171203613, 0.9528558254241943, 0.9058927893638611, 0.9622883200645447, 0.9732118248939514, 0.9683106541633606, 0.9660474061965942, 0.958142101764679, 0.9711426496505737, 0.9872567653656006, 0.9888957738876343, 0.9953482747077942, 0.9931727051734924, 0.9894980192184448, 0.9800494909286499, 0.96571946144104, 0.9508548378944397, 0.9834686517715454, 0.9774700403213501, 0.9892916083335876, 0.9803671836853027, 0.9835303425788879, 0.9803386926651001, 0.9915745854377747, 0.9864957928657532, 0.9816890954971313, 0.9912087917327881, 0.9893056154251099, 0.9851276278495789, 0.9899577498435974, 0.9914591312408447, 0.9948807954788208, 0.990968644618988, 0.9748884439468384, 0.9772374033927917, 0.9854509830474854, 0.977012038230896, 0.9724887013435364, 0.9500208497047424, 0.9718800783157349, 0.9237188696861267, 0.9577417373657227, 0.965852677822113, 0.9658684730529785]</t>
+          <t>[0.9877979159355164, 0.9913745522499084, 0.9930744171142578, 0.961804986000061, 0.9570232033729553, 0.9413192868232727, 0.9818028807640076, 0.9880028963088989, 0.9619926810264587, 0.9236740469932556, 0.9613503813743591, 0.7884881496429443, 0.9124069213867188, 0.9601649641990662, 0.9152070879936218, 0.963185727596283, 0.9712949395179749, 0.9556112885475159, 0.950959324836731, 0.9699713587760925, 0.9851529598236084, 0.9648618102073669, 0.9879274964332581, 0.9915286302566528, 0.9941124320030212, 0.9920098781585693, 0.9957435727119446, 0.9967418313026428, 0.9888437986373901, 0.9892565011978149, 0.9854972958564758, 0.989793062210083, 0.9902106523513794, 0.9741140007972717, 0.9915135502815247, 0.9917516112327576, 0.9923725128173828, 0.9815862774848938, 0.9924678206443787, 0.989994466304779, 0.9892009496688843, 0.9850476980209351, 0.9475966691970825, 0.9854296445846558, 0.9832842350006104, 0.9383805394172668, 0.9809159636497498, 0.9760308265686035, 0.9625431895256042, 0.9525185227394104, 0.9447412490844727, 0.9659974575042725, 0.926996648311615, 0.9560468196868896, 0.9877744317054749, 0.9755674600601196, 0.9712998867034912, 0.9937217831611633, 0.991298496723175, 0.9909092783927917, 0.9708749651908875, 0.9811804294586182, 0.975165069103241, 0.9685038328170776, 0.9410607218742371, 0.9759767651557922, 0.9950621724128723, 0.9809525609016418, 0.9859570264816284, 0.9941283464431763, 0.9870187044143677, 0.9828938841819763, 0.9542860984802246, 0.929199755191803, 0.9708184003829956, 0.9811142086982727, 0.9241024851799011, 0.9727411270141602, 0.9784011840820312, 0.9657098650932312, 0.9728058576583862, 0.9704657793045044, 0.9836650490760803, 0.996330201625824, 0.9977933168411255, 0.9992756247520447, 0.9980620741844177, 0.9954811334609985, 0.9874425530433655, 0.9705734252929688, 0.950713574886322, 0.9918025135993958, 0.982823371887207, 0.993619978427887, 0.9878342151641846, 0.9908418655395508, 0.9880609512329102, 0.9973422884941101, 0.9935280680656433, 0.9918236136436462, 0.9972348809242249, 0.9965859651565552, 0.992660403251648, 0.9968392848968506, 0.9980073571205139, 0.9989398121833801, 0.9980092644691467, 0.9951270818710327, 0.994768500328064, 0.997220516204834, 0.992026150226593, 0.9917022585868835, 0.9708214402198792, 0.9851735830307007, 0.9299193620681763, 0.9869203567504883, 0.9786888957023621, 0.9786061644554138]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9953482747077942</v>
+        <v>0.9992756247520447</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.6680231000063941</v>
+        <v>0.6711995000077877</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005661212711918594</v>
+        <v>0.005688131355998201</v>
       </c>
     </row>
     <row r="142">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.18345659971237183, 0.10551498085260391, 0.13266734778881073, 0.09184128791093826, 0.14200961589813232, 0.15509170293807983, 0.26658570766448975, 0.21498917043209076, 0.1515253782272339, 0.20857280492782593, 0.2750687599182129, 0.3633187711238861, 0.3496414124965668, 0.6998107433319092, 0.44149062037467957, 0.2038908749818802, 0.34890979528427124, 0.3977988064289093, 0.45804673433303833, 0.5381211042404175, 0.6115808486938477, 0.5424647331237793, 0.31489816308021545, 0.33523276448249817, 0.1296122670173645, 0.20643536746501923, 0.1831032782793045, 0.06075112149119377, 0.07250802218914032, 0.11906246095895767, 0.1156671866774559, 0.16825111210346222, 0.18252606689929962, 0.3714767098426819, 0.32157567143440247, 0.5399035811424255, 0.2585931122303009, 0.13532744348049164, 0.3216090202331543, 0.313199907541275, 0.16711561381816864, 0.1379205584526062, 0.449403315782547, 0.4078602194786072, 0.4533287584781647, 0.5951921343803406, 0.5949283838272095, 0.590889036655426, 0.6214520931243896, 0.6031767129898071, 0.5210316181182861, 0.3841611444950104, 0.37298935651779175, 0.5764802694320679, 0.3090379536151886, 0.38114604353904724, 0.17066270112991333, 0.44350066781044006, 0.4026414155960083, 0.49163153767585754, 0.3402233421802521, 0.4915867745876312, 0.4518148601055145, 0.36110106110572815, 0.2358863204717636, 0.385104775428772, 0.45150312781333923, 0.4960080087184906, 0.5506262183189392, 0.4594624638557434, 0.7900978326797485, 0.7093438506126404, 0.7147386074066162, 0.35650375485420227, 0.47113490104675293, 0.37137800455093384, 0.2656734883785248, 0.31489330530166626, 0.6009820103645325, 0.5169488787651062, 0.6314887404441833, 0.7187204957008362, 0.5972409844398499, 0.43576425313949585, 0.5781475901603699, 0.6416323781013489, 0.5383526086807251, 0.35981279611587524, 0.09838171303272247, 0.24443593621253967, 0.3524390161037445, 0.2847616374492645, 0.6588229537010193, 0.8224636912345886, 0.6340828537940979, 0.6609998941421509, 0.8063294887542725, 0.8649042844772339, 0.8168948888778687, 0.6818286180496216, 0.5834637880325317, 0.6771195530891418, 0.6194071173667908, 0.4652204215526581, 0.28869515657424927, 0.5402904152870178, 0.2705882489681244, 0.3540550172328949, 0.4420650601387024, 0.7364479303359985, 0.6586704254150391, 0.577919602394104, 0.5798601508140564, 0.6052437424659729, 0.6373222470283508, 0.5757479667663574, 0.7217236757278442, 0.7224350571632385]</t>
+          <t>[0.155779629945755, 0.05854912847280502, 0.11030049622058868, 0.0890423133969307, 0.10812939703464508, 0.1070520281791687, 0.2541508078575134, 0.11255200952291489, 0.11791618913412094, 0.2022555023431778, 0.22084002196788788, 0.3341737389564514, 0.32124385237693787, 0.8665270209312439, 0.4001278281211853, 0.18282550573349, 0.41393160820007324, 0.38773855566978455, 0.4810297191143036, 0.6547351479530334, 0.6900721192359924, 0.6346179246902466, 0.3876192271709442, 0.3935326933860779, 0.10830507427453995, 0.1911689192056656, 0.09949174523353577, 0.03387392312288284, 0.03733956441283226, 0.08283154666423798, 0.12694521248340607, 0.1190691664814949, 0.1869286447763443, 0.30982840061187744, 0.28696802258491516, 0.6122782230377197, 0.2367984652519226, 0.1154574304819107, 0.26567330956459045, 0.2083887755870819, 0.061525799334049225, 0.07559865713119507, 0.32265719771385193, 0.28901228308677673, 0.26466628909111023, 0.49630776047706604, 0.4876103401184082, 0.5052839517593384, 0.6081389784812927, 0.5246514678001404, 0.4328734874725342, 0.2111525535583496, 0.21117089688777924, 0.5889794230461121, 0.2920014262199402, 0.29478320479393005, 0.12206345796585083, 0.5347934365272522, 0.3144803047180176, 0.4844275712966919, 0.22874584794044495, 0.5463547706604004, 0.3642005920410156, 0.1462646871805191, 0.10755348950624466, 0.2631329894065857, 0.3789442777633667, 0.5179961919784546, 0.4509272277355194, 0.4048422873020172, 0.7944327592849731, 0.6933350563049316, 0.7554664015769958, 0.2856152355670929, 0.49708253145217896, 0.34107282757759094, 0.17469318211078644, 0.2766278088092804, 0.5578116178512573, 0.5937249660491943, 0.7731248736381531, 0.7640362977981567, 0.6293678879737854, 0.5449860095977783, 0.6947322487831116, 0.7450478076934814, 0.436229407787323, 0.359870046377182, 0.09445519000291824, 0.3155229985713959, 0.46860188245773315, 0.28780511021614075, 0.7155488133430481, 0.8555464148521423, 0.6637550592422485, 0.7721334099769592, 0.9128308892250061, 0.9547278881072998, 0.9084577560424805, 0.8080195188522339, 0.6434990167617798, 0.5626479983329773, 0.6113261580467224, 0.31829866766929626, 0.17812933027744293, 0.41558632254600525, 0.1777283251285553, 0.3123354911804199, 0.3538473844528198, 0.7556979656219482, 0.6975730657577515, 0.5687247514724731, 0.34989988803863525, 0.5497456192970276, 0.6537957191467285, 0.5862948298454285, 0.5482928156852722, 0.5488426685333252]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.8649042844772339</v>
+        <v>0.9547278881072998</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.6725839999853633</v>
+        <v>0.6853640000044834</v>
       </c>
       <c r="J142" t="n">
-        <v>0.005699864406655621</v>
+        <v>0.005808169491563419</v>
       </c>
     </row>
     <row r="143">
@@ -6245,11 +6245,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.3433704376220703, 0.2732661962509155, 0.27365222573280334, 0.3740646243095398, 0.35140809416770935, 0.4052773118019104, 0.39891910552978516, 0.44034090638160706, 0.4747980535030365, 0.27742430567741394, 0.21764908730983734, 0.20502246916294098, 0.5317931175231934, 0.34625229239463806, 0.25346747040748596, 0.2978304326534271, 0.5465769171714783, 0.49407491087913513, 0.6307299733161926, 0.6033511161804199, 0.6000639796257019, 0.3856770098209381, 0.4831326901912689, 0.4813491106033325]</t>
+          <t>[0.2600400745868683, 0.19087615609169006, 0.17215991020202637, 0.24752867221832275, 0.16465015709400177, 0.2415892332792282, 0.2183055877685547, 0.35775694251060486, 0.37740597128868103, 0.21075589954853058, 0.14075450599193573, 0.11051906645298004, 0.4568939507007599, 0.19887587428092957, 0.09600038826465607, 0.09754373133182526, 0.22049017250537872, 0.19683682918548584, 0.28306716680526733, 0.18091832101345062, 0.19015492498874664, 0.16836406290531158, 0.3658372461795807, 0.3623826503753662]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.6307299733161926</v>
+        <v>0.4568939507007599</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.1596145999792498</v>
+        <v>0.1628211999923224</v>
       </c>
       <c r="J143" t="n">
-        <v>0.00665060833246874</v>
+        <v>0.006784216666346765</v>
       </c>
     </row>
     <row r="144">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[0.20683327317237854, 0.1956976056098938, 0.22594225406646729, 0.1974964439868927, 0.13656914234161377, 0.15688003599643707, 0.2686379551887512, 0.31605878472328186, 0.3186647891998291, 0.6013482809066772, 0.8510255217552185, 0.8441100120544434, 0.9280965328216553, 0.4889315962791443, 0.21405653655529022, 0.20338881015777588, 0.25440722703933716, 0.19739682972431183, 0.17620041966438293, 0.18344035744667053, 0.21282102167606354, 0.1270657628774643, 0.15728366374969482, 0.22772160172462463, 0.21304817497730255, 0.2619202136993408, 0.37730541825294495, 0.5052680969238281, 0.5349401235580444, 0.616203248500824, 0.49363973736763, 0.5977010726928711, 0.4597710967063904, 0.40788963437080383, 0.3591141402721405, 0.4101356565952301, 0.19760653376579285, 0.18017973005771637, 0.46534889936447144, 0.3301694989204407, 0.32066047191619873, 0.3594679832458496, 0.32477760314941406, 0.26108670234680176, 0.29522398114204407, 0.35041385889053345, 0.35061419010162354, 0.2984025776386261, 0.5158822536468506, 0.5368015766143799, 0.5830477476119995, 0.39491140842437744, 0.49072492122650146, 0.36495503783226013, 0.4038521647453308, 0.36154621839523315, 0.1976376622915268, 0.179188072681427, 0.20814260840415955, 0.1607247143983841, 0.2518796920776367, 0.3227995038032532, 0.5218150615692139, 0.6370417475700378, 0.5228207111358643, 0.6472154259681702, 0.9875438213348389, 0.8855220675468445, 0.48623770475387573, 0.6489665508270264, 0.6706526279449463, 0.862190842628479, 0.7558976411819458, 0.503323495388031, 0.6934441924095154, 0.7428343296051025, 0.4027147889137268, 0.22439567744731903, 0.37233948707580566, 0.437181293964386, 0.24746999144554138, 0.48643359541893005, 0.560664713382721, 0.6885279417037964, 0.929485023021698, 0.9002812504768372, 0.6741504669189453, 0.516177773475647, 0.44090378284454346, 0.42190513014793396, 0.3091728687286377, 0.2806842625141144, 0.29363125562667847, 0.3495424687862396, 0.3887353539466858, 0.4745037257671356, 0.6612991690635681, 0.6766640543937683, 0.8378583788871765, 0.7746248841285706, 0.28265461325645447, 0.40705177187919617, 0.46297597885131836, 0.3682299256324768, 0.4232816994190216, 0.2934156656265259, 0.32042258977890015, 0.26977819204330444, 0.2355097532272339, 0.2785537838935852, 0.3387760818004608, 0.5121424198150635, 0.6402121186256409, 0.39755532145500183, 0.3269021511077881, 0.5569294691085815, 0.6129820346832275, 0.6147468686103821]</t>
+          <t>[0.12568481266498566, 0.0903557613492012, 0.08782123774290085, 0.1750059425830841, 0.10092934221029282, 0.13007479906082153, 0.18869279325008392, 0.3270542025566101, 0.27051064372062683, 0.2567134499549866, 0.9437901377677917, 0.9278373122215271, 0.9761448502540588, 0.15479741990566254, 0.05339301750063896, 0.05728153884410858, 0.08265014737844467, 0.04968768358230591, 0.03762543201446533, 0.046399910002946854, 0.055823441594839096, 0.03714994341135025, 0.04750055819749832, 0.11546840518712997, 0.08009041100740433, 0.09948582202196121, 0.3178615868091583, 0.49757951498031616, 0.3247126340866089, 0.416229784488678, 0.2191934436559677, 0.36281418800354004, 0.4471721947193146, 0.40384766459465027, 0.44855955243110657, 0.3422520160675049, 0.11488036811351776, 0.07839468866586685, 0.2313552349805832, 0.19466513395309448, 0.13783158361911774, 0.27113598585128784, 0.25854432582855225, 0.13795216381549835, 0.14689768850803375, 0.15907971560955048, 0.15783804655075073, 0.189539834856987, 0.5402642488479614, 0.5749927163124084, 0.7633680105209351, 0.29044970870018005, 0.1985512524843216, 0.15075381100177765, 0.20674939453601837, 0.16790343821048737, 0.08371234685182571, 0.09988557547330856, 0.12418217957019806, 0.07665926218032837, 0.08533692359924316, 0.1350923776626587, 0.2924727201461792, 0.46505168080329895, 0.2688962519168854, 0.5778735280036926, 0.9989209175109863, 0.9842773675918579, 0.4121997654438019, 0.5059004426002502, 0.527825117111206, 0.9124034643173218, 0.6715130805969238, 0.1974349468946457, 0.6600755453109741, 0.561133861541748, 0.10940803587436676, 0.08643703907728195, 0.18817590177059174, 0.21551188826560974, 0.08646892756223679, 0.6578190326690674, 0.5557554364204407, 0.7113657593727112, 0.9720056653022766, 0.9674023389816284, 0.9030845761299133, 0.5382683873176575, 0.40383079648017883, 0.3647880554199219, 0.2932938039302826, 0.24529266357421875, 0.24531343579292297, 0.26240745186805725, 0.32990196347236633, 0.3163857161998749, 0.7609333992004395, 0.830845057964325, 0.8260815143585205, 0.6847897171974182, 0.20093096792697906, 0.3976721167564392, 0.23322880268096924, 0.1190737783908844, 0.21128402650356293, 0.1012638509273529, 0.1148281991481781, 0.08777312189340591, 0.06512255221605301, 0.14830918610095978, 0.22565270960330963, 0.5378292202949524, 0.5700100064277649, 0.13107603788375854, 0.13081562519073486, 0.49708303809165955, 0.5211865305900574, 0.5241864323616028]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9875438213348389</v>
+        <v>0.9989209175109863</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.835782600013772</v>
+        <v>0.8457112000032794</v>
       </c>
       <c r="J144" t="n">
-        <v>0.007082903389947221</v>
+        <v>0.007167044067824401</v>
       </c>
     </row>
     <row r="145">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[0.24769490957260132, 0.2626810669898987, 0.33643287420272827, 0.27257511019706726, 0.19342607259750366, 0.25476324558258057, 0.30848386883735657, 0.47718435525894165, 0.32829105854034424, 0.24035076797008514, 0.13845378160476685, 0.48487797379493713, 0.4848673641681671, 0.38741979002952576, 0.5252360105514526, 0.3970104455947876, 0.44117239117622375, 0.7361835241317749, 0.5253590941429138, 0.5318920612335205, 0.5491865277290344, 0.6442806720733643, 0.6371064782142639, 0.6245771646499634, 0.7455765008926392, 0.7465640306472778, 0.6306446194648743, 0.39180612564086914, 0.3480207622051239, 0.41211581230163574, 0.3928895890712738, 0.5892902612686157, 0.8377547264099121, 0.7453706860542297, 0.7478781938552856, 0.7717231512069702, 0.6020285487174988, 0.47334024310112, 0.3329811096191406, 0.46009278297424316, 0.38863661885261536, 0.5422583222389221, 0.5472986698150635, 0.5212540626525879, 0.5920292139053345, 0.29367172718048096, 0.31593722105026245, 0.4835202395915985, 0.3132355213165283, 0.19000016152858734, 0.20893144607543945, 0.3459033668041229, 0.7128223180770874, 0.4046443998813629, 0.21728764474391937, 0.19873647391796112, 0.19817236065864563, 0.2075636386871338, 0.7515403628349304, 0.7508081793785095, 0.5968924164772034, 0.5851211547851562, 0.28178641200065613, 0.3290627896785736, 0.32210952043533325, 0.35684701800346375, 0.37553274631500244, 0.10704254359006882, 0.11634746938943863, 0.16674761474132538, 0.1730833202600479, 0.2042178511619568, 0.32945674657821655, 0.558066725730896, 0.5323419570922852, 0.41851726174354553, 0.3608607053756714, 0.3712705373764038, 0.3719812333583832, 0.2889191806316376, 0.36047226190567017, 0.4166933298110962, 0.2676292359828949, 0.182791605591774, 0.10983021557331085, 0.13085167109966278, 0.2320941537618637, 0.18865421414375305, 0.13319262862205505, 0.18686893582344055, 0.35987013578414917, 0.34923097491264343, 0.2847142219543457, 0.37935972213745117, 0.36771947145462036, 0.3311925530433655, 0.24233080446720123, 0.526057779788971, 0.2685306966304779, 0.12902429699897766, 0.2274004966020584, 0.25295349955558777, 0.2204449474811554, 0.3164452612400055, 0.45789459347724915, 0.5268496870994568, 0.5280348658561707]</t>
+          <t>[0.3054775595664978, 0.3121516704559326, 0.44557178020477295, 0.4755197763442993, 0.3403652310371399, 0.49035030603408813, 0.5023768544197083, 0.6997112035751343, 0.5422576069831848, 0.4282897114753723, 0.30203482508659363, 0.7216402292251587, 0.5914676189422607, 0.4886475205421448, 0.6746484637260437, 0.45459824800491333, 0.6901880502700806, 0.9324699640274048, 0.8728768229484558, 0.718859076499939, 0.7414700984954834, 0.8342694640159607, 0.7271880507469177, 0.6933825016021729, 0.9241579174995422, 0.8875159025192261, 0.8917641639709473, 0.6702436208724976, 0.4912834167480469, 0.46528351306915283, 0.4660961627960205, 0.7165634036064148, 0.9303889274597168, 0.8709022402763367, 0.8962220549583435, 0.9243562817573547, 0.7499576807022095, 0.5522592663764954, 0.37959519028663635, 0.5421256422996521, 0.46561411023139954, 0.6768138408660889, 0.760545551776886, 0.7651782631874084, 0.7065925002098083, 0.2519802749156952, 0.350175678730011, 0.6343792080879211, 0.31040164828300476, 0.19456282258033752, 0.12838037312030792, 0.172074556350708, 0.6074954271316528, 0.5152473449707031, 0.4690351188182831, 0.3309641480445862, 0.22003363072872162, 0.1621846705675125, 0.9192830920219421, 0.8033109307289124, 0.7350066900253296, 0.5585020780563354, 0.45771199464797974, 0.5956634283065796, 0.6205796599388123, 0.61185622215271, 0.531391441822052, 0.17175781726837158, 0.11353679746389389, 0.18679307401180267, 0.22684961557388306, 0.25516173243522644, 0.3275333642959595, 0.6993063688278198, 0.5264369249343872, 0.4241856038570404, 0.5384708642959595, 0.5634769201278687, 0.5307961106300354, 0.2958349883556366, 0.3950638175010681, 0.4802302122116089, 0.32244813442230225, 0.4314422905445099, 0.21784040331840515, 0.20252037048339844, 0.321129709482193, 0.22257797420024872, 0.20402027666568756, 0.20586496591567993, 0.36146309971809387, 0.40594664216041565, 0.3033812642097473, 0.480080783367157, 0.46570268273353577, 0.38438063859939575, 0.29468536376953125, 0.5981053709983826, 0.30288201570510864, 0.16366848349571228, 0.31117570400238037, 0.3323391079902649, 0.2180328071117401, 0.4451797902584076, 0.5956737399101257, 0.6666874885559082, 0.6663997173309326]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.8377547264099121</v>
+        <v>0.9324699640274048</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.5957924000103958</v>
+        <v>0.6111766999965766</v>
       </c>
       <c r="J145" t="n">
-        <v>0.005568153271125195</v>
+        <v>0.00571193177566894</v>
       </c>
     </row>
     <row r="146">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[0.7101362347602844, 0.8294758796691895, 0.5226032733917236, 0.4363754987716675, 0.46063175797462463, 0.3369576036930084, 0.3484140932559967, 0.46120619773864746, 0.43693485856056213, 0.4173092246055603, 0.33974185585975647, 0.3299475908279419, 0.3070337176322937, 0.23131290078163147, 0.44819265604019165, 0.5882806777954102, 0.4201066493988037, 0.3427860140800476, 0.2680867612361908, 0.2833106517791748, 0.33324989676475525, 0.48088622093200684, 0.3501030504703522, 0.28264594078063965, 0.37082913517951965, 0.2634802460670471, 0.17256329953670502, 0.4663105010986328, 0.4123607873916626, 0.43934786319732666, 0.5472604632377625, 0.49702218174934387, 0.7002149224281311, 0.7369880080223083, 0.8643820285797119, 0.7204993367195129, 0.8509067296981812, 0.5621217489242554, 0.3690616488456726, 0.477091521024704, 0.2628587484359741, 0.2797076404094696, 0.323186993598938, 0.22406601905822754, 0.13659130036830902, 0.2245389074087143, 0.4850892424583435, 0.2525641620159149, 0.13833209872245789, 0.1620708405971527, 0.20790459215641022, 0.38876792788505554, 0.3030029833316803, 0.31196990609169006, 0.24258634448051453, 0.32225194573402405, 0.19626112282276154, 0.21800817549228668, 0.30174148082733154, 0.20902593433856964, 0.3140506148338318, 0.2729845643043518, 0.18137310445308685, 0.15138952434062958, 0.29898741841316223, 0.2817186713218689, 0.44545161724090576, 0.42004522681236267, 0.4441678822040558, 0.3812245726585388, 0.5184054970741272, 0.4421357810497284, 0.5000878572463989, 0.4741491675376892, 0.39834141731262207, 0.5566282868385315, 0.4220955967903137, 0.5425611734390259, 0.5223722457885742, 0.7432268857955933, 0.6443672180175781, 0.5758519172668457, 0.3311728835105896, 0.41914042830467224, 0.6511197090148926, 0.6360263824462891, 0.286927729845047, 0.41176310181617737, 0.4633387625217438, 0.16378626227378845, 0.19965891540050507, 0.22020640969276428, 0.3996295630931854, 0.28280875086784363, 0.1987745612859726, 0.123235784471035, 0.14328119158744812, 0.1789502501487732, 0.33451902866363525, 0.3970630466938019, 0.4612152576446533, 0.45722532272338867, 0.5571563243865967, 0.18794187903404236, 0.14711637794971466, 0.29880237579345703, 0.422039270401001, 0.2859027683734894, 0.3116634488105774, 0.11523091048002243, 0.08328868448734283, 0.22668421268463135, 0.2833000719547272, 0.29051220417022705, 0.48726949095726013, 0.26756352186203003, 0.42456212639808655, 0.24304623901844025, 0.31218644976615906, 0.19967259466648102, 0.16821180284023285, 0.13683994114398956, 0.15642276406288147, 0.15455202758312225, 0.08005360513925552, 0.05935465916991234, 0.0503636971116066, 0.056979842483997345, 0.08909103274345398, 0.19864332675933838, 0.1001020148396492, 0.09799835085868835, 0.16426031291484833, 0.17710456252098083, 0.23288901150226593, 0.2687329053878784, 0.45483750104904175, 0.17445404827594757, 0.15959317982196808, 0.27701911330223083, 0.5510501861572266, 0.4952899217605591, 0.29294922947883606, 0.5469468832015991, 0.5867788195610046, 0.3057374954223633, 0.23058070242404938, 0.22982367873191833]</t>
+          <t>[0.9247995615005493, 0.9267501831054688, 0.7531402707099915, 0.5957192182540894, 0.4656316637992859, 0.3638536334037781, 0.35304927825927734, 0.4756549000740051, 0.5422953963279724, 0.7370337247848511, 0.5498663187026978, 0.329197496175766, 0.37318313121795654, 0.32554081082344055, 0.5690984725952148, 0.8644025921821594, 0.7050694227218628, 0.38799425959587097, 0.3685745298862457, 0.36788660287857056, 0.3827332556247711, 0.4303915798664093, 0.43993082642555237, 0.31326186656951904, 0.40340542793273926, 0.4577324092388153, 0.27004334330558777, 0.683393120765686, 0.7032336592674255, 0.6360210180282593, 0.6984487175941467, 0.5375357866287231, 0.7752001881599426, 0.8387495875358582, 0.8609892725944519, 0.68424391746521, 0.958150327205658, 0.7196386456489563, 0.5367403030395508, 0.7670918703079224, 0.4858373701572418, 0.5078471302986145, 0.48277658224105835, 0.30326324701309204, 0.22061794996261597, 0.28788796067237854, 0.5435803532600403, 0.27583566308021545, 0.17133894562721252, 0.176151841878891, 0.24352258443832397, 0.5774590373039246, 0.43947985768318176, 0.3583574891090393, 0.22976405918598175, 0.3162952661514282, 0.28293827176094055, 0.30733513832092285, 0.3935528099536896, 0.3451831340789795, 0.4341322183609009, 0.3906887471675873, 0.2251022607088089, 0.14475972950458527, 0.2815057337284088, 0.2566702961921692, 0.4491320252418518, 0.389448344707489, 0.44977688789367676, 0.49176180362701416, 0.6638998985290527, 0.689067542552948, 0.6539371013641357, 0.6903613209724426, 0.5559000968933105, 0.7937856912612915, 0.6584134697914124, 0.7510919570922852, 0.8098188042640686, 0.9717519879341125, 0.9384913444519043, 0.9242834448814392, 0.547031044960022, 0.6405141949653625, 0.8929581046104431, 0.8762049078941345, 0.6030963063240051, 0.7712533473968506, 0.7403553128242493, 0.37241432070732117, 0.312901109457016, 0.29496660828590393, 0.4523386061191559, 0.33521074056625366, 0.230184867978096, 0.12664492428302765, 0.16486044228076935, 0.24030260741710663, 0.5090876221656799, 0.5509157776832581, 0.6316940784454346, 0.6600867509841919, 0.7389407753944397, 0.2686255872249603, 0.1829005628824234, 0.3310594856739044, 0.5137226581573486, 0.45661240816116333, 0.36433088779449463, 0.19213435053825378, 0.14209362864494324, 0.3006916046142578, 0.4038839340209961, 0.4905926585197449, 0.630460262298584, 0.5698336362838745, 0.7462067604064941, 0.3377799689769745, 0.32686224579811096, 0.2507631182670593, 0.21169783174991608, 0.25078386068344116, 0.3234027028083801, 0.3071206510066986, 0.17596334218978882, 0.1135774776339531, 0.0981975868344307, 0.12577375769615173, 0.18406064808368683, 0.3934594392776489, 0.17297209799289703, 0.1662599742412567, 0.3730878531932831, 0.3513781428337097, 0.3008056581020355, 0.3743344843387604, 0.6629658937454224, 0.3876159191131592, 0.4074828624725342, 0.6949090361595154, 0.7675682902336121, 0.6780859231948853, 0.5259944200515747, 0.8031123280525208, 0.7514683604240417, 0.44793593883514404, 0.3690428137779236, 0.36808478832244873]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.8643820285797119</v>
+        <v>0.9717519879341125</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.8222769999993034</v>
+        <v>0.8239808000071207</v>
       </c>
       <c r="J146" t="n">
-        <v>0.005555925675670969</v>
+        <v>0.00556743783788595</v>
       </c>
     </row>
     <row r="147">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.9423288106918335, 0.948350727558136, 0.9520103931427002, 0.9506171345710754, 0.9500980973243713, 0.9496597051620483, 0.8260195255279541, 0.8289097547531128, 0.8154383897781372, 0.7515304088592529, 0.7437282800674438, 0.4732152819633484, 0.1895834058523178, 0.2519078850746155, 0.217477947473526, 0.36472365260124207, 0.2969455122947693, 0.5438293814659119, 0.4174269437789917, 0.45729246735572815, 0.3156515061855316, 0.2783937156200409, 0.577915370464325, 0.24856729805469513, 0.1775943487882614, 0.16040533781051636, 0.2606518268585205, 0.12651564180850983, 0.25394192337989807, 0.22298239171504974, 0.18671093881130219, 0.33133068680763245, 0.29129329323768616, 0.19459351897239685, 0.33540773391723633, 0.5198490023612976, 0.6182218194007874, 0.1993531733751297, 0.16502204537391663, 0.18335111439228058, 0.1529107689857483, 0.17566432058811188, 0.13466371595859528, 0.18999536335468292, 0.1638186126947403, 0.08802074939012527, 0.0749543085694313, 0.1427101194858551, 0.05346992611885071, 0.061129141598939896, 0.13768939673900604, 0.4873955547809601, 0.9439519047737122, 0.961777925491333, 0.9699437618255615, 0.9763477444648743, 0.9750536680221558, 0.9407772421836853, 0.8938575387001038, 0.9729816317558289, 0.9735324382781982, 0.977972149848938, 0.9732411503791809, 0.972923219203949, 0.9530425667762756, 0.9052455425262451, 0.8575966954231262, 0.83588707447052, 0.8749634623527527, 0.9038800597190857, 0.9476755857467651, 0.9404350519180298, 0.9180476665496826, 0.9245964288711548, 0.9359365105628967, 0.9770104885101318, 0.9824302196502686, 0.9811432361602783, 0.9669027924537659, 0.657075047492981, 0.31864839792251587, 0.10116881132125854, 0.12250203639268875, 0.20596492290496826, 0.1275310516357422, 0.31014224886894226, 0.1904478818178177, 0.35523730516433716, 0.2812710702419281, 0.2081649899482727, 0.3979969918727875, 0.19301415979862213, 0.14469929039478302, 0.3486429452896118, 0.28375446796417236, 0.18527409434318542, 0.16925805807113647, 0.43738487362861633, 0.421122282743454, 0.5650009512901306, 0.27634674310684204, 0.2466992884874344, 0.3182995319366455, 0.2500021457672119, 0.09184607863426208, 0.10697884112596512, 0.18722862005233765, 0.19292496144771576, 0.07358061522245407, 0.06866279244422913, 0.1130807176232338, 0.17499539256095886, 0.2722272574901581, 0.22881339490413666, 0.39634037017822266, 0.8370630145072937, 0.9583997130393982, 0.9281586408615112, 0.8499933481216431, 0.8604249358177185, 0.9219983816146851, 0.8945339322090149, 0.9008733034133911, 0.9182044863700867, 0.9274802207946777, 0.9509394764900208, 0.9353043437004089, 0.9606385231018066, 0.9467390775680542, 0.9064350128173828, 0.8870145082473755, 0.8791564106941223, 0.9045749306678772, 0.965544581413269, 0.942162275314331, 0.9260794520378113, 0.954105794429779, 0.7949840426445007, 0.7157148718833923, 0.34969934821128845, 0.47481265664100647, 0.32871508598327637, 0.21901926398277283, 0.149580717086792, 0.2473897784948349, 0.2660503089427948, 0.8915800452232361, 0.8928328156471252]</t>
+          <t>[0.9958386421203613, 0.9963743090629578, 0.9972414970397949, 0.9969600439071655, 0.9959650039672852, 0.9978320002555847, 0.9831687211990356, 0.9931451082229614, 0.9943243265151978, 0.9788309931755066, 0.9853270053863525, 0.8324726819992065, 0.6131525635719299, 0.528114914894104, 0.30928489565849304, 0.4305543601512909, 0.48077821731567383, 0.7453288435935974, 0.7635131478309631, 0.5506207346916199, 0.4432314932346344, 0.4262857735157013, 0.8992230296134949, 0.5688502192497253, 0.2189618945121765, 0.24566805362701416, 0.3929708003997803, 0.14305293560028076, 0.3597150146961212, 0.3075188100337982, 0.2296721339225769, 0.35851114988327026, 0.3522374927997589, 0.27177610993385315, 0.361344575881958, 0.6830021739006042, 0.830776035785675, 0.2186659872531891, 0.21657980978488922, 0.32073405385017395, 0.25169578194618225, 0.28168603777885437, 0.32959607243537903, 0.57054603099823, 0.4687347412109375, 0.11012854427099228, 0.12459555268287659, 0.2700953781604767, 0.08946947753429413, 0.13424992561340332, 0.4249093234539032, 0.9691751003265381, 0.9974446296691895, 0.9972902536392212, 0.9977953433990479, 0.9985014200210571, 0.9988093376159668, 0.9961978793144226, 0.9893715381622314, 0.9967269897460938, 0.9973464012145996, 0.9979043006896973, 0.9971358776092529, 0.9973648190498352, 0.9949955940246582, 0.9918053150177002, 0.9849715828895569, 0.9818591475486755, 0.9756002426147461, 0.9915340542793274, 0.9968401193618774, 0.9968047142028809, 0.9942142367362976, 0.99425208568573, 0.995446503162384, 0.9975392818450928, 0.9980543851852417, 0.997895359992981, 0.9975445866584778, 0.9623593091964722, 0.7472290992736816, 0.17816486954689026, 0.11414524912834167, 0.2766466736793518, 0.1160098984837532, 0.35974645614624023, 0.3378658890724182, 0.5799313187599182, 0.378089040517807, 0.3269549608230591, 0.568748950958252, 0.19465862214565277, 0.12112033367156982, 0.42299842834472656, 0.2981405258178711, 0.1325414925813675, 0.13616736233234406, 0.5751636028289795, 0.4348938465118408, 0.5747510194778442, 0.37791532278060913, 0.3569420874118805, 0.4545552432537079, 0.24675126373767853, 0.10462009906768799, 0.16952450573444366, 0.23765558004379272, 0.23862342536449432, 0.0999087393283844, 0.11098288744688034, 0.2338685691356659, 0.3120236098766327, 0.4257066547870636, 0.4316723644733429, 0.7615184187889099, 0.9830300211906433, 0.9966649413108826, 0.9958105087280273, 0.9879266619682312, 0.9769930839538574, 0.9912887811660767, 0.9843485951423645, 0.9685268998146057, 0.9845593571662903, 0.9851642847061157, 0.9907779693603516, 0.9925602674484253, 0.9983696341514587, 0.9958833456039429, 0.9944329857826233, 0.9917923212051392, 0.9908225536346436, 0.9938427209854126, 0.9977341890335083, 0.9944977164268494, 0.9915245175361633, 0.9974180459976196, 0.9908604621887207, 0.9879609942436218, 0.8906550407409668, 0.9166991710662842, 0.6583747863769531, 0.525989830493927, 0.5012897849082947, 0.503985583782196, 0.7114396691322327, 0.9887109398841858, 0.9888505339622498]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.9824302196502686</v>
+        <v>0.9988093376159668</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.8164978999993764</v>
+        <v>0.8287001000135206</v>
       </c>
       <c r="J147" t="n">
-        <v>0.005516877702698489</v>
+        <v>0.005599325000091355</v>
       </c>
     </row>
     <row r="148">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.23610959947109222, 0.21292026340961456, 0.14898070693016052, 0.15207836031913757, 0.12029013782739639, 0.2652030885219574, 0.4179023802280426, 0.24325451254844666, 0.12347950786352158, 0.12100972980260849, 0.21292544901371002, 0.15692929923534393, 0.1416471302509308, 0.17265059053897858, 0.1904159039258957, 0.5706641674041748, 0.29645562171936035, 0.228818878531456, 0.26658207178115845, 0.161723330616951, 0.4157325327396393, 0.18082323670387268, 0.1297750025987625, 0.29414254426956177, 0.4224696755409241, 0.5550729036331177, 0.2850133180618286, 0.23387756943702698, 0.35954993963241577, 0.08804792910814285, 0.03512835130095482, 0.13537928462028503, 0.4272805452346802, 0.11586073786020279, 0.07056422531604767, 0.1322435438632965, 0.0798255056142807, 0.09773966670036316, 0.1387729048728943, 0.15038491785526276, 0.16064998507499695, 0.19634704291820526, 0.12324666231870651, 0.1083976998925209, 0.1283349245786667, 0.16520819067955017, 0.2712121307849884, 0.171440988779068, 0.09305310249328613, 0.10935607552528381, 0.06297783553600311, 0.09083323925733566, 0.5816107392311096, 0.448079377412796, 0.10665483772754669, 0.1046694740653038, 0.12309112399816513, 0.0795685350894928, 0.1028687134385109, 0.10439162701368332, 0.28792673349380493, 0.22097398340702057, 0.12847651541233063, 0.20240511000156403, 0.2047399878501892, 0.44283702969551086, 0.7961719632148743, 0.793784499168396, 0.680873692035675, 0.6373674869537354, 0.22833563387393951, 0.2565097510814667, 0.08894598484039307, 0.20871424674987793, 0.12014138698577881, 0.19001297652721405, 0.4238594174385071, 0.6902667880058289, 0.24708294868469238, 0.18108753859996796, 0.17843787372112274, 0.15262171626091003, 0.1547280102968216, 0.305253803730011, 0.18141460418701172, 0.22566384077072144, 0.236704021692276, 0.24172772467136383, 0.21410979330539703, 0.3441264033317566, 0.35635441541671753, 0.4880044758319855, 0.3662172257900238, 0.22582975029945374, 0.3647330403327942, 0.41863012313842773, 0.38035309314727783, 0.27533653378486633, 0.11576772481203079, 0.1378670036792755, 0.10166765749454498, 0.0828181654214859, 0.06906349211931229, 0.08202851563692093, 0.11135417222976685, 0.17138691246509552, 0.1822621077299118, 0.12612880766391754, 0.2884388566017151, 0.2990761995315552, 0.3403708040714264, 0.2584460377693176, 0.33779752254486084, 0.4791400134563446, 0.4757063388824463, 0.3547089099884033, 0.4022922217845917, 0.3540218770503998, 0.4605555236339569, 0.34794989228248596, 0.3637896776199341, 0.3652886152267456, 0.14021903276443481, 0.21028317511081696, 0.2520830035209656, 0.3589862287044525, 0.5408234596252441, 0.26552191376686096, 0.4866854250431061, 0.28889673948287964, 0.35735616087913513, 0.43184414505958557, 0.36472752690315247, 0.4396989643573761, 0.25605419278144836, 0.3986412286758423, 0.21864764392375946, 0.14403840899467468, 0.19714079797267914, 0.2218872457742691, 0.5251636505126953, 0.3832609951496124, 0.5067134499549866, 0.41875678300857544, 0.4191781282424927, 0.3556774854660034, 0.3669372498989105, 0.73406982421875, 0.7314938306808472]</t>
+          <t>[0.3316594362258911, 0.49179160594940186, 0.24198535084724426, 0.2579709589481354, 0.12347180396318436, 0.4457343816757202, 0.7738221287727356, 0.35015228390693665, 0.07258927822113037, 0.06570376455783844, 0.13772015273571014, 0.16140146553516388, 0.18358325958251953, 0.12791241705417633, 0.17110897600650787, 0.7066065073013306, 0.48077449202537537, 0.2771075367927551, 0.51398766040802, 0.29394057393074036, 0.7290279269218445, 0.37971365451812744, 0.15319009125232697, 0.4300995469093323, 0.6015947461128235, 0.634274423122406, 0.6731675863265991, 0.6679962873458862, 0.8897707462310791, 0.08904248476028442, 0.04055970907211304, 0.18535853922367096, 0.7994271516799927, 0.131212517619133, 0.07800169289112091, 0.17303743958473206, 0.07276542484760284, 0.11036642640829086, 0.1933695524930954, 0.1952713131904602, 0.16784943640232086, 0.16504238545894623, 0.13783839344978333, 0.11486642807722092, 0.19495689868927002, 0.21095459163188934, 0.5589077472686768, 0.11619752645492554, 0.06760023534297943, 0.1012512668967247, 0.04940390959382057, 0.13383370637893677, 0.9552059173583984, 0.8638505339622498, 0.1022653877735138, 0.0854259580373764, 0.08326955884695053, 0.06268413364887238, 0.06902282685041428, 0.09171605110168457, 0.2852284014225006, 0.21405771374702454, 0.08980607986450195, 0.17418310046195984, 0.2610548138618469, 0.6785328388214111, 0.9755285382270813, 0.9791551232337952, 0.9373180866241455, 0.7803481221199036, 0.42153438925743103, 0.5123840570449829, 0.1150641143321991, 0.541096568107605, 0.13420121371746063, 0.16527843475341797, 0.7639741897583008, 0.9528443217277527, 0.5116710662841797, 0.36052200198173523, 0.27673518657684326, 0.23723696172237396, 0.13878735899925232, 0.26894819736480713, 0.09710508584976196, 0.21202842891216278, 0.22147013247013092, 0.20591311156749725, 0.20830954611301422, 0.4579879641532898, 0.3363477289676666, 0.6976131200790405, 0.5332651138305664, 0.2962460219860077, 0.6390306949615479, 0.5960047245025635, 0.4038458466529846, 0.40414509177207947, 0.15140433609485626, 0.19776573777198792, 0.11006132513284683, 0.1282910704612732, 0.07460018992424011, 0.14012715220451355, 0.2514779567718506, 0.24325218796730042, 0.3091050684452057, 0.1412656307220459, 0.3999820649623871, 0.34989795088768005, 0.3768482208251953, 0.3855381906032562, 0.3453804850578308, 0.6267408728599548, 0.6302518844604492, 0.37089115381240845, 0.5012215375900269, 0.4444483816623688, 0.4472287595272064, 0.3621717393398285, 0.37276244163513184, 0.43661826848983765, 0.14689964056015015, 0.20876094698905945, 0.2171642929315567, 0.3318347930908203, 0.6520291566848755, 0.31930050253868103, 0.4948890805244446, 0.1735227108001709, 0.23682045936584473, 0.47101518511772156, 0.3689225912094116, 0.42673951387405396, 0.3144918382167816, 0.4059450328350067, 0.21493923664093018, 0.09640862792730331, 0.15302333235740662, 0.17541329562664032, 0.464092493057251, 0.326993465423584, 0.41891592741012573, 0.5438240766525269, 0.618666410446167, 0.4425477385520935, 0.4924178123474121, 0.8696234822273254, 0.8673285841941833]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.7961719632148743</v>
+        <v>0.9791551232337952</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.816402399999788</v>
+        <v>0.834880800000974</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005479210738253611</v>
+        <v>0.005603226845644121</v>
       </c>
     </row>
     <row r="149">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.9714102149009705, 0.9909293055534363, 0.9863728880882263, 0.9870556592941284, 0.9837294220924377, 0.97773277759552, 0.98826003074646, 0.9850311279296875, 0.9842974543571472, 0.982671320438385, 0.9770129919052124, 0.9910539984703064, 0.9898173213005066, 0.986530601978302, 0.964203953742981, 0.9741189479827881, 0.9411805868148804, 0.8825652599334717, 0.679582953453064, 0.7565097212791443, 0.8316817879676819, 0.8101993203163147, 0.8497278094291687, 0.9080420732498169, 0.8682103753089905, 0.7726468443870544, 0.8598275184631348, 0.8267577290534973, 0.9234073162078857, 0.9685356020927429, 0.9669431447982788, 0.9653114676475525, 0.9139066338539124, 0.9750188589096069, 0.9868581295013428, 0.9969996809959412, 0.9913845062255859, 0.9927207827568054, 0.9934612512588501, 0.9925104379653931, 0.9944995641708374, 0.9892728924751282, 0.9780831336975098, 0.9092648029327393, 0.8266616463661194, 0.757056474685669, 0.7866880893707275, 0.860733151435852, 0.8027007579803467, 0.9291930198669434, 0.8743245601654053, 0.643400251865387, 0.5106784105300903, 0.33708274364471436, 0.5718564391136169, 0.6473824381828308, 0.9239031076431274, 0.8176563382148743, 0.61540287733078, 0.799083411693573, 0.9443758130073547, 0.8412265181541443, 0.8375933766365051, 0.8844411969184875, 0.9122830033302307, 0.9057543873786926, 0.8387947082519531, 0.9686577320098877, 0.9551891684532166, 0.9394783973693848, 0.7125290036201477, 0.8292424082756042, 0.8439655900001526, 0.9730790257453918, 0.9766407608985901, 0.9830070734024048, 0.9757868051528931, 0.9367436766624451, 0.9275603294372559, 0.7751306295394897, 0.9133428931236267, 0.9363469481468201, 0.9788984060287476, 0.9736477136611938, 0.9840813875198364, 0.9862651228904724, 0.9846606850624084, 0.9694314002990723, 0.9761607646942139, 0.9824616312980652, 0.971345067024231, 0.9373599886894226, 0.9672778844833374, 0.9021251201629639, 0.9732949137687683, 0.9318241477012634, 0.915054976940155, 0.9338832497596741, 0.9409145712852478, 0.9526654481887817, 0.9863780736923218, 0.984887421131134, 0.9853019118309021, 0.9938077330589294, 0.9856269359588623, 0.9830120205879211, 0.9783687591552734, 0.9295626878738403, 0.9322064518928528, 0.8686840534210205, 0.8212019205093384, 0.9050243496894836, 0.9255069494247437, 0.9706683158874512, 0.965174674987793, 0.9818868637084961, 0.9884257316589355, 0.9319638013839722, 0.9774261116981506, 0.9790741205215454, 0.9612473845481873, 0.9895339608192444, 0.9919963479042053, 0.9878727197647095, 0.9907870888710022, 0.9945248365402222, 0.9800255298614502, 0.9862132668495178, 0.9831302762031555, 0.9633870720863342, 0.9269884824752808, 0.9420880079269409, 0.988843560218811, 0.9871788024902344, 0.9860028028488159, 0.9897980690002441, 0.984569251537323, 0.9586756229400635, 0.9835202097892761, 0.9769807457923889, 0.9791242480278015, 0.941417396068573, 0.9591490030288696, 0.9772810339927673, 0.9901784658432007, 0.9879343509674072, 0.9660412073135376, 0.9655373692512512]</t>
+          <t>[0.9946377873420715, 0.9986143112182617, 0.9972960352897644, 0.9982256293296814, 0.9956654906272888, 0.9937926530838013, 0.9970065951347351, 0.9935817718505859, 0.9964369535446167, 0.9965443015098572, 0.9941235184669495, 0.9975283741950989, 0.9969401359558105, 0.9967132806777954, 0.9869891405105591, 0.9883617758750916, 0.9827273488044739, 0.9630813598632812, 0.6195986866950989, 0.7922805547714233, 0.865624189376831, 0.8803011775016785, 0.9149858951568604, 0.9634050726890564, 0.887976348400116, 0.7669124007225037, 0.9164490103721619, 0.8853399157524109, 0.9722575545310974, 0.9877602458000183, 0.992662787437439, 0.9873207807540894, 0.926844596862793, 0.9922858476638794, 0.9972988963127136, 0.9991114735603333, 0.9973605275154114, 0.9976806640625, 0.997882068157196, 0.9949396848678589, 0.9962097406387329, 0.9916291236877441, 0.993118405342102, 0.9553712010383606, 0.8419890999794006, 0.9043485522270203, 0.9265939593315125, 0.9353054761886597, 0.9571694135665894, 0.9889816641807556, 0.9539917707443237, 0.7233694791793823, 0.46256861090660095, 0.36654502153396606, 0.8401132225990295, 0.9319918751716614, 0.9966367483139038, 0.9779526591300964, 0.8753758668899536, 0.9592587947845459, 0.9934024214744568, 0.9241385459899902, 0.9802455306053162, 0.9907544851303101, 0.988986611366272, 0.9851367473602295, 0.9755511283874512, 0.9972962737083435, 0.9940505623817444, 0.984751284122467, 0.8366026282310486, 0.9340535402297974, 0.8484006524085999, 0.9946721196174622, 0.9972449541091919, 0.9928678274154663, 0.9723523259162903, 0.7431278824806213, 0.8626740574836731, 0.6699066162109375, 0.7175163626670837, 0.9423002004623413, 0.9879361391067505, 0.9776535630226135, 0.993606686592102, 0.9948810338973999, 0.9948937892913818, 0.9889867305755615, 0.9949938654899597, 0.995349109172821, 0.9920834302902222, 0.9845286011695862, 0.9920559525489807, 0.9752802848815918, 0.9948227405548096, 0.9749031662940979, 0.9594593644142151, 0.9685541987419128, 0.9845104813575745, 0.9759082794189453, 0.9929392337799072, 0.994785726070404, 0.9949206709861755, 0.9978793859481812, 0.9959867596626282, 0.9924250841140747, 0.9926774501800537, 0.9819540977478027, 0.9789724349975586, 0.9614964127540588, 0.9350617527961731, 0.9652179479598999, 0.9830352067947388, 0.996559202671051, 0.9900997281074524, 0.9977352619171143, 0.9979567527770996, 0.9477101564407349, 0.9821235537528992, 0.9787970781326294, 0.9494580626487732, 0.9956134557723999, 0.9935764670372009, 0.9933105707168579, 0.9944603443145752, 0.9973152279853821, 0.9734055995941162, 0.9846405982971191, 0.9911335110664368, 0.9716722965240479, 0.8806819915771484, 0.8920242190361023, 0.9967238306999207, 0.9952270984649658, 0.993312418460846, 0.9945099353790283, 0.987949013710022, 0.9716840982437134, 0.9945316314697266, 0.9888736009597778, 0.9843750596046448, 0.8400315642356873, 0.954352080821991, 0.9877819418907166, 0.995201587677002, 0.9950786828994751, 0.9842550754547119, 0.9838858842849731]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9969996809959412</v>
+        <v>0.9991114735603333</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.8292762000055518</v>
+        <v>0.8198241000063717</v>
       </c>
       <c r="J149" t="n">
-        <v>0.00560321756760508</v>
+        <v>0.00553935202707008</v>
       </c>
     </row>
     <row r="150">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[0.6992357969284058, 0.768231987953186, 0.6533263921737671, 0.5688181519508362, 0.7093316912651062, 0.7988638281822205, 0.9278355836868286, 0.9710238575935364, 0.9572592377662659, 0.9198338389396667, 0.930595874786377, 0.8938149809837341, 0.9138467907905579, 0.9680943489074707, 0.9657363295555115, 0.9502003192901611, 0.8213240504264832, 0.6869919300079346, 0.6914225220680237, 0.5901892781257629, 0.5738219022750854, 0.6081438660621643, 0.505011796951294, 0.7852151989936829, 0.7391764521598816, 0.7844308614730835, 0.5389334559440613, 0.6667510271072388, 0.6622613668441772, 0.684097945690155, 0.8245208859443665, 0.9098180532455444, 0.9018905162811279, 0.9809864163398743, 0.9638708233833313, 0.8945634961128235, 0.9002571702003479, 0.7402560114860535, 0.8553532361984253, 0.9401791095733643, 0.9673423171043396, 0.9480042457580566, 0.9203359484672546, 0.9692911505699158, 0.978270411491394, 0.9669326543807983, 0.9581279158592224, 0.9246513247489929, 0.871379017829895, 0.895471453666687, 0.9495126605033875, 0.8119056224822998, 0.4739903509616852, 0.7525007724761963, 0.9527435898780823, 0.9459622502326965, 0.8994284868240356, 0.819068968296051, 0.9129551649093628, 0.9614929556846619, 0.9751381278038025, 0.9621999263763428, 0.9695497155189514, 0.9730450510978699, 0.9601295590400696, 0.9587007164955139, 0.9759533405303955, 0.9665532112121582, 0.9516406059265137, 0.9122493267059326, 0.9035053253173828, 0.9216340184211731, 0.8474131226539612, 0.9052731990814209, 0.916977047920227, 0.9381517767906189, 0.9432494640350342, 0.9827027320861816, 0.9816638231277466, 0.980398952960968, 0.9628379344940186, 0.9648677110671997, 0.9408342242240906, 0.9655730724334717, 0.8334543704986572, 0.6827098727226257, 0.6996384859085083, 0.3580928146839142, 0.398779958486557, 0.24264639616012573, 0.2417081594467163, 0.4665928781032562, 0.7983362078666687, 0.9319961071014404, 0.9612904787063599, 0.9597128033638, 0.9674622416496277, 0.9416499733924866, 0.9493469595909119, 0.9381088614463806, 0.656551718711853, 0.8662935495376587, 0.9323824644088745, 0.9175740480422974, 0.8499606847763062, 0.8293370008468628, 0.7642448544502258, 0.878086507320404, 0.8416205644607544, 0.956977128982544, 0.953608512878418, 0.9293057918548584, 0.9617886543273926, 0.9439937472343445, 0.7902831435203552, 0.36118990182876587, 0.6018698811531067, 0.7098892331123352, 0.5455604791641235, 0.8524278998374939, 0.6610966920852661, 0.3334619104862213, 0.26229381561279297, 0.29184460639953613, 0.25066351890563965, 0.7540061473846436, 0.8861548900604248, 0.8925599455833435, 0.9201990365982056, 0.8895140886306763, 0.8392041921615601, 0.8597007989883423, 0.6878997087478638, 0.49631160497665405, 0.7158428430557251, 0.8901851177215576, 0.9468973278999329, 0.9638649225234985, 0.9776867628097534, 0.9616838693618774, 0.946516215801239, 0.8019077181816101, 0.23730599880218506, 0.5050303339958191, 0.790008544921875, 0.7309841513633728, 0.9487593770027161, 0.9847529530525208, 0.9822465777397156, 0.9870637655258179, 0.9824268817901611, 0.9193985462188721, 0.9364951848983765, 0.8929052948951721, 0.9100626707077026, 0.9114546775817871, 0.8384219408035278, 0.8385420441627502]</t>
+          <t>[0.2777697443962097, 0.26515936851501465, 0.267961323261261, 0.3411327302455902, 0.6416929364204407, 0.7098473906517029, 0.9728560447692871, 0.9911012053489685, 0.9844224452972412, 0.9672835469245911, 0.9738006591796875, 0.9446151852607727, 0.9578112959861755, 0.9899317026138306, 0.9843186736106873, 0.9809212684631348, 0.7124773859977722, 0.4990907907485962, 0.447313129901886, 0.3541565537452698, 0.33368998765945435, 0.3433751165866852, 0.3688492178916931, 0.5940420627593994, 0.2820795774459839, 0.4462849199771881, 0.20742455124855042, 0.25032395124435425, 0.20604009926319122, 0.1712130457162857, 0.7567583322525024, 0.9264379143714905, 0.9282805919647217, 0.9924680590629578, 0.9837158918380737, 0.9415580630302429, 0.9207116961479187, 0.8529559969902039, 0.9307043552398682, 0.9847375750541687, 0.9902179837226868, 0.9888604283332825, 0.9766762852668762, 0.9950397610664368, 0.99613356590271, 0.9916925430297852, 0.9892807602882385, 0.9671754837036133, 0.9486340880393982, 0.9569883942604065, 0.9749398827552795, 0.8765957951545715, 0.3722129464149475, 0.8656758069992065, 0.9911137223243713, 0.9872090816497803, 0.9556074738502502, 0.8767465949058533, 0.959571897983551, 0.9927061200141907, 0.9963556528091431, 0.9926549196243286, 0.995358407497406, 0.9958512783050537, 0.9913710355758667, 0.9929065704345703, 0.9954662322998047, 0.9948871731758118, 0.9914458990097046, 0.980941116809845, 0.9822512269020081, 0.986221969127655, 0.9722541570663452, 0.9776389002799988, 0.9659241437911987, 0.9813706278800964, 0.9881160259246826, 0.9974685907363892, 0.996595561504364, 0.9958592057228088, 0.9910752773284912, 0.9931231141090393, 0.9857997894287109, 0.9927817583084106, 0.872183084487915, 0.5478724241256714, 0.5181148648262024, 0.24510915577411652, 0.4487585425376892, 0.13423776626586914, 0.18282237648963928, 0.36210909485816956, 0.8244225978851318, 0.9777474999427795, 0.9910966157913208, 0.9902904629707336, 0.9926506876945496, 0.9855269193649292, 0.9868648648262024, 0.9915517568588257, 0.8489019274711609, 0.9589285254478455, 0.9779497981071472, 0.9349885582923889, 0.8757768273353577, 0.894657552242279, 0.9133767485618591, 0.9589528441429138, 0.9224541187286377, 0.98434978723526, 0.9885225296020508, 0.970058023929596, 0.9907670021057129, 0.9855951070785522, 0.8807793855667114, 0.4433895945549011, 0.6521833539009094, 0.8497825264930725, 0.687791109085083, 0.9034057259559631, 0.6679171919822693, 0.3099893629550934, 0.4860866963863373, 0.37220364809036255, 0.2536003887653351, 0.8767085075378418, 0.9331992268562317, 0.9555078744888306, 0.9444934129714966, 0.8797167539596558, 0.7816521525382996, 0.867660641670227, 0.5925005674362183, 0.21999619901180267, 0.5720108151435852, 0.9094509482383728, 0.9744476675987244, 0.9854884743690491, 0.9915475249290466, 0.9841070175170898, 0.9787369966506958, 0.9124143719673157, 0.2999797761440277, 0.498129665851593, 0.9399387240409851, 0.8497105240821838, 0.9804060459136963, 0.9959686994552612, 0.994931161403656, 0.9965420365333557, 0.996764063835144, 0.9685267806053162, 0.9894681572914124, 0.9755350947380066, 0.9769395589828491, 0.978222131729126, 0.9215542674064636, 0.921528160572052]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9870637655258179</v>
+        <v>0.9974685907363892</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.9007714999897871</v>
+        <v>0.9303717000002507</v>
       </c>
       <c r="J150" t="n">
-        <v>0.005701085442973336</v>
+        <v>0.005888428481014245</v>
       </c>
     </row>
     <row r="151">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[0.6550329923629761, 0.8071020841598511, 0.9732934832572937, 0.9668717980384827, 0.8988185524940491, 0.8589332103729248, 0.8652986288070679, 0.8064443469047546, 0.8726188540458679, 0.8602389693260193, 0.6052044630050659, 0.637731671333313, 0.4117284119129181, 0.5885286927223206, 0.4988548755645752, 0.431910902261734, 0.6557397842407227, 0.6310673356056213, 0.7562647461891174, 0.7713024020195007, 0.6795207262039185, 0.47371241450309753, 0.7133805751800537, 0.5836916565895081, 0.4916636347770691, 0.45456498861312866, 0.7425098419189453, 0.9584588408470154, 0.9680545330047607, 0.9669052362442017, 0.9876272678375244, 0.9793924689292908, 0.9386166930198669, 0.9039891362190247, 0.965515673160553, 0.9718170166015625, 0.9574511647224426, 0.9818692803382874, 0.9825374484062195, 0.9865478873252869, 0.9906396865844727, 0.946076512336731, 0.8861697912216187, 0.9668165445327759, 0.9110729694366455, 0.8556304574012756, 0.7291035652160645, 0.5960869789123535, 0.8129212856292725, 0.9233221411705017, 0.9493564963340759, 0.983219563961029, 0.9422593712806702, 0.928433895111084, 0.9719233512878418, 0.9197629690170288, 0.9207184910774231, 0.8422143459320068, 0.7927114963531494, 0.7680249810218811, 0.3251078128814697, 0.6385011672973633, 0.6049351692199707, 0.7356718182563782, 0.8563234806060791, 0.8103546500205994, 0.6917715072631836, 0.7892006635665894, 0.822083055973053, 0.853763997554779, 0.7430581450462341, 0.8368163704872131, 0.6595578789710999, 0.8355727195739746, 0.7111815810203552, 0.7551937699317932, 0.42091456055641174, 0.36713990569114685, 0.3859506845474243, 0.25753122568130493, 0.43865400552749634, 0.39408591389656067, 0.3370699882507324, 0.6800068616867065, 0.6760863065719604, 0.8031701445579529, 0.9232692122459412, 0.9207420945167542, 0.9222956299781799, 0.9188179969787598, 0.9670346975326538, 0.9456822276115417, 0.8589586019515991, 0.5348616242408752, 0.4820387363433838, 0.42737051844596863, 0.4992736577987671, 0.3749920725822449, 0.27782613039016724, 0.2568090856075287, 0.4180000424385071, 0.30828195810317993, 0.733837902545929, 0.5923476815223694, 0.5906562209129333, 0.6509465575218201, 0.7330235242843628, 0.7614210844039917, 0.41569751501083374, 0.6895655393600464, 0.820529580116272, 0.7484748363494873, 0.8989490866661072, 0.8041273951530457, 0.8836952447891235, 0.6323251128196716, 0.7390499114990234, 0.554151713848114, 0.475422739982605, 0.5518608093261719, 0.7410613894462585, 0.6906049251556396, 0.839409351348877, 0.8447121977806091, 0.7161878347396851, 0.6048009991645813, 0.8902992606163025, 0.7525562644004822, 0.8582692742347717, 0.6462908983230591, 0.5087495446205139, 0.5052799582481384, 0.23535138368606567, 0.6146701574325562, 0.6526408195495605, 0.5841690897941589, 0.628836452960968, 0.6888648271560669, 0.7425855994224548, 0.6638935208320618, 0.7906746864318848, 0.523618221282959, 0.6843826174736023, 0.3882439136505127, 0.5346342325210571, 0.6452026963233948, 0.8774189949035645, 0.5073751211166382, 0.8171916604042053, 0.789118766784668, 0.8809722661972046, 0.9140306711196899, 0.8513822555541992, 0.5016958117485046, 0.6981231570243835, 0.45827996730804443, 0.4611480236053467]</t>
+          <t>[0.5113006830215454, 0.5999378561973572, 0.9604575037956238, 0.9700270891189575, 0.7999577522277832, 0.7312557697296143, 0.7602181434631348, 0.674109160900116, 0.9163743257522583, 0.6097577214241028, 0.3011626601219177, 0.21385440230369568, 0.14910946786403656, 0.20570151507854462, 0.13240502774715424, 0.16082540154457092, 0.27815064787864685, 0.21105177700519562, 0.23653538525104523, 0.339496374130249, 0.3313046395778656, 0.18792060017585754, 0.25843346118927, 0.1010235995054245, 0.15208393335342407, 0.1168680191040039, 0.385358601808548, 0.9372119307518005, 0.906560480594635, 0.9567580819129944, 0.99052494764328, 0.9825164079666138, 0.8774086833000183, 0.8383379578590393, 0.9665597677230835, 0.9657593369483948, 0.9375274777412415, 0.9792661070823669, 0.9763925075531006, 0.9874950051307678, 0.9922871589660645, 0.7798123359680176, 0.8032088279724121, 0.9469640254974365, 0.621115505695343, 0.4102829396724701, 0.3517552316188812, 0.1938328742980957, 0.3895849287509918, 0.8957164883613586, 0.8839859962463379, 0.9908370971679688, 0.9212621450424194, 0.8428627848625183, 0.9514798521995544, 0.7169938683509827, 0.7375335693359375, 0.7232990264892578, 0.6685657501220703, 0.598172128200531, 0.15666785836219788, 0.494518518447876, 0.624725341796875, 0.8311118483543396, 0.8948194980621338, 0.7510331869125366, 0.3738314211368561, 0.5506547093391418, 0.7999936938285828, 0.7273575067520142, 0.3800373077392578, 0.5000380873680115, 0.19528725743293762, 0.5795093178749084, 0.46335628628730774, 0.5647535920143127, 0.12793485820293427, 0.20636972784996033, 0.16860845685005188, 0.12999704480171204, 0.17743384838104248, 0.16545367240905762, 0.19062885642051697, 0.519303023815155, 0.4511219561100006, 0.6174436807632446, 0.883698046207428, 0.8820981383323669, 0.8644322752952576, 0.8765255212783813, 0.9841982126235962, 0.8985323309898376, 0.7619333863258362, 0.43746310472488403, 0.21428976953029633, 0.16574768722057343, 0.2143925428390503, 0.15570738911628723, 0.10836673527956009, 0.11207371205091476, 0.17446660995483398, 0.10432152450084686, 0.3392026126384735, 0.2985593378543854, 0.3581119179725647, 0.27250808477401733, 0.510923445224762, 0.41736936569213867, 0.19032074511051178, 0.3018602430820465, 0.4156753718852997, 0.2971164584159851, 0.6487613916397095, 0.6469009518623352, 0.8598591685295105, 0.5285298228263855, 0.8410414457321167, 0.6152175068855286, 0.2609798312187195, 0.2707589268684387, 0.21505968272686005, 0.18132060766220093, 0.41916167736053467, 0.2698698341846466, 0.21824203431606293, 0.18254588544368744, 0.517167866230011, 0.2701188921928406, 0.3731386363506317, 0.1495325118303299, 0.0960947722196579, 0.1527501940727234, 0.09050635248422623, 0.27779364585876465, 0.24736158549785614, 0.26709818840026855, 0.21383121609687805, 0.5265404582023621, 0.5261203050613403, 0.4945388734340668, 0.668768584728241, 0.20349109172821045, 0.7484250664710999, 0.2950463593006134, 0.5840614438056946, 0.5193639397621155, 0.8547265529632568, 0.2645670473575592, 0.6062958240509033, 0.6506233811378479, 0.7708486914634705, 0.9121140241622925, 0.7468814253807068, 0.2914741635322571, 0.4113757312297821, 0.20699238777160645, 0.20613723993301392]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.9906396865844727</v>
+        <v>0.9922871589660645</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.8969290000095498</v>
+        <v>0.9160682999936398</v>
       </c>
       <c r="J151" t="n">
-        <v>0.005712923566939808</v>
+        <v>0.005834829936265221</v>
       </c>
     </row>
     <row r="152">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[0.9933146834373474, 0.9945724606513977, 0.9893279671669006, 0.9768761992454529, 0.9693428874015808, 0.9706921577453613, 0.9918421506881714, 0.9875639081001282, 0.9855340719223022, 0.9897943139076233, 0.992275059223175, 0.9834756851196289, 0.9802826642990112, 0.9884915351867676, 0.9884024262428284, 0.9877382516860962, 0.9719774723052979, 0.9630093574523926, 0.9503827095031738, 0.9577003121376038, 0.9790219664573669, 0.9709569811820984, 0.9702418446540833, 0.9746560454368591, 0.9710034728050232, 0.9739064574241638, 0.989779531955719, 0.9934521913528442, 0.993707001209259, 0.989772617816925, 0.9886132478713989, 0.9854714870452881, 0.9868648648262024, 0.9875848293304443, 0.9822496175765991, 0.9787928462028503, 0.9863309860229492, 0.9864317774772644, 0.9852312803268433, 0.9834633469581604, 0.983660101890564, 0.9914349913597107, 0.991134524345398, 0.9900968074798584, 0.9847245216369629, 0.9820709824562073, 0.9534217715263367, 0.9849439263343811, 0.9796237349510193, 0.9712187647819519, 0.9576437473297119, 0.9731760025024414, 0.954931914806366, 0.9659627676010132, 0.9822849035263062, 0.9898179173469543, 0.985466718673706, 0.9875049591064453, 0.9849438071250916, 0.9864016175270081, 0.9641767740249634, 0.9228140115737915, 0.8133271336555481, 0.7969675660133362, 0.7675576210021973, 0.8550992012023926, 0.9259037375450134, 0.8666688203811646, 0.8859480619430542, 0.8265097141265869, 0.7704140543937683, 0.6180108189582825, 0.8389236330986023, 0.7380630970001221, 0.6403256058692932, 0.7457127571105957, 0.5176517367362976, 0.7877978682518005, 0.8989989757537842, 0.8743173480033875, 0.9033525586128235, 0.91888028383255, 0.7975257635116577, 0.6616156101226807, 0.6852602362632751, 0.8496288061141968, 0.85491544008255, 0.891184389591217, 0.86726313829422, 0.9585135579109192, 0.9452828168869019, 0.9559379816055298, 0.9784076809883118, 0.9420577883720398, 0.9791417717933655, 0.9816814064979553, 0.9872004985809326, 0.9840391278266907, 0.989247739315033, 0.9887087941169739, 0.9854437708854675, 0.9849306344985962, 0.9897677302360535, 0.989288330078125, 0.9867000579833984, 0.9842479825019836, 0.9640280604362488, 0.9704318642616272, 0.9609711170196533, 0.9733230471611023, 0.9799139499664307, 0.9771533012390137, 0.9628527164459229, 0.9820260405540466, 0.9838230013847351, 0.9786518216133118, 0.9919260144233704, 0.9918666481971741, 0.9763216972351074, 0.9643064737319946, 0.9697905778884888, 0.9820215702056885, 0.9802467823028564, 0.9591770768165588, 0.9790013432502747, 0.9643217325210571, 0.9857860207557678, 0.9895839095115662, 0.9887728095054626, 0.9806433916091919, 0.988402783870697, 0.991884708404541, 0.9895903468132019, 0.9906923174858093, 0.9940682649612427, 0.9933584332466125, 0.9909840822219849, 0.9853854775428772, 0.971991240978241, 0.9778517484664917, 0.9878901839256287, 0.9847269058227539, 0.9731040000915527, 0.9878140687942505, 0.975848913192749, 0.9845153093338013, 0.9796097874641418, 0.9813433289527893, 0.9866672158241272, 0.9871249794960022, 0.9821130633354187, 0.9829539060592651, 0.9774547815322876, 0.9847630858421326, 0.9824867248535156, 0.9740158319473267, 0.9739663004875183]</t>
+          <t>[0.9956235289573669, 0.9961032867431641, 0.9949323534965515, 0.9855676889419556, 0.9654667973518372, 0.9772428870201111, 0.9935269355773926, 0.9881277680397034, 0.9827467203140259, 0.9821560978889465, 0.9886158108711243, 0.9781349897384644, 0.9732953906059265, 0.9838742017745972, 0.9891184568405151, 0.9884483218193054, 0.9733459949493408, 0.9323486089706421, 0.9314653873443604, 0.9287742376327515, 0.9708132743835449, 0.9646634459495544, 0.9633170366287231, 0.9569594264030457, 0.9366878271102905, 0.9570420980453491, 0.9859490990638733, 0.9955068826675415, 0.995935320854187, 0.9883775115013123, 0.9860873818397522, 0.9839901924133301, 0.9870758652687073, 0.9881010055541992, 0.9849686622619629, 0.9768020510673523, 0.9857300519943237, 0.9860216975212097, 0.9827972650527954, 0.9820159673690796, 0.98430335521698, 0.9899847507476807, 0.986851155757904, 0.9849128127098083, 0.971464216709137, 0.9641600251197815, 0.8740773797035217, 0.9785271286964417, 0.9431523084640503, 0.9441009759902954, 0.924204409122467, 0.9655981659889221, 0.9367713928222656, 0.9669414758682251, 0.9823856949806213, 0.9918034076690674, 0.9853838086128235, 0.9923785924911499, 0.9862790107727051, 0.9879044890403748, 0.929156482219696, 0.7634646892547607, 0.4355998933315277, 0.5575311183929443, 0.5423400402069092, 0.5521290898323059, 0.8798900842666626, 0.7158213257789612, 0.8116804361343384, 0.4991031587123871, 0.46814242005348206, 0.22697344422340393, 0.34052690863609314, 0.34342557191848755, 0.29987382888793945, 0.449483722448349, 0.319078266620636, 0.6967165470123291, 0.8113376498222351, 0.8446744680404663, 0.9014394283294678, 0.7799943089485168, 0.690988302230835, 0.3634064197540283, 0.46209245920181274, 0.8101576566696167, 0.8499059081077576, 0.837424635887146, 0.830004870891571, 0.9108200669288635, 0.8777801394462585, 0.9066543579101562, 0.9726489782333374, 0.8775509595870972, 0.9601149559020996, 0.9732321500778198, 0.9880246520042419, 0.9763386845588684, 0.9902589321136475, 0.9889113903045654, 0.9742145538330078, 0.9824406504631042, 0.9928100109100342, 0.9932785630226135, 0.9912785887718201, 0.9876056909561157, 0.9325653314590454, 0.9121835827827454, 0.8806619644165039, 0.9591686725616455, 0.9658507704734802, 0.9637995958328247, 0.935306966304779, 0.9755190014839172, 0.9765657782554626, 0.9717074036598206, 0.9853675365447998, 0.9808624982833862, 0.9714949131011963, 0.9315498471260071, 0.9495410919189453, 0.9753368496894836, 0.9683161377906799, 0.9073721170425415, 0.9609872102737427, 0.8961361646652222, 0.9860089421272278, 0.9934770464897156, 0.9908629655838013, 0.9759790301322937, 0.9852906465530396, 0.9892237186431885, 0.9814488291740417, 0.9909762740135193, 0.9959881901741028, 0.9933915138244629, 0.9930307269096375, 0.990333616733551, 0.9777482748031616, 0.9677010774612427, 0.99146568775177, 0.9822853803634644, 0.9692873358726501, 0.9911447167396545, 0.9792989492416382, 0.9767827391624451, 0.9705963730812073, 0.9736800193786621, 0.9883387088775635, 0.9841648936271667, 0.9619361162185669, 0.9753490090370178, 0.9689679145812988, 0.9727096557617188, 0.9757333397865295, 0.9689884781837463, 0.9688398838043213]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.9945724606513977</v>
+        <v>0.9961032867431641</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.9175749999994878</v>
+        <v>0.903647600003751</v>
       </c>
       <c r="J152" t="n">
-        <v>0.005844426751589094</v>
+        <v>0.005755717197476121</v>
       </c>
     </row>
     <row r="153">
@@ -6645,11 +6645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[0.9848704934120178, 0.9296761155128479, 0.9763535261154175, 0.9688602089881897, 0.9866796135902405, 0.9853959679603577, 0.9935994148254395, 0.9928286671638489, 0.9933953881263733, 0.9907498955726624, 0.9898171424865723, 0.9739036560058594, 0.9930992126464844, 0.9884689450263977, 0.985258936882019, 0.9885472059249878, 0.9831175804138184, 0.9884295463562012, 0.9476598501205444, 0.9920831918716431, 0.9928492307662964, 0.9657202363014221, 0.9646055102348328, 0.9766453504562378, 0.9903861284255981, 0.993707537651062, 0.9935031533241272, 0.9947370886802673, 0.99053955078125, 0.9847561717033386, 0.9828335046768188, 0.9880069494247437, 0.9904248118400574, 0.9940751791000366, 0.9932765960693359, 0.9886184930801392, 0.9930639863014221, 0.9847396612167358, 0.9815813302993774, 0.9922084808349609, 0.9899185299873352, 0.9934536218643188, 0.99247145652771, 0.9937791228294373, 0.9939180612564087, 0.9924718141555786, 0.9889700412750244, 0.9883018136024475, 0.9923022985458374, 0.991574227809906, 0.9935761094093323, 0.9867501854896545, 0.978619396686554, 0.9854368567466736, 0.9827466011047363, 0.9890643954277039, 0.9912323355674744, 0.9926198124885559, 0.9945040941238403, 0.9760611057281494, 0.9822534918785095, 0.9480970501899719, 0.9705317616462708, 0.9674181938171387, 0.9694310426712036, 0.9848602414131165, 0.9876993894577026, 0.9795477390289307, 0.9842851758003235, 0.9879244565963745, 0.9874651432037354, 0.9850184321403503, 0.9726967811584473, 0.9725603461265564, 0.9895099401473999, 0.993631899356842, 0.9874387383460999, 0.9892230033874512, 0.9830014705657959, 0.9875519275665283, 0.9908938407897949, 0.992675244808197, 0.9919188618659973, 0.9908122420310974, 0.988602340221405, 0.9791334271430969, 0.9738421440124512, 0.9748172163963318, 0.9758313298225403, 0.9874199032783508, 0.9822536110877991, 0.972266674041748, 0.964611291885376, 0.9656322002410889, 0.9749812483787537, 0.9902713894844055, 0.9930527806282043, 0.9872825145721436, 0.9938780665397644, 0.9878437519073486, 0.9865031242370605, 0.9912248253822327, 0.9908455014228821, 0.9888290762901306, 0.982894241809845, 0.9841789603233337, 0.9350541234016418, 0.9776826500892639, 0.993569016456604, 0.9920191168785095, 0.9852094054222107, 0.9901884198188782, 0.9926449060440063, 0.9868892431259155, 0.9897835850715637, 0.9879323840141296, 0.9905415177345276, 0.9925165772438049, 0.9896238446235657, 0.9880270957946777, 0.9625047445297241, 0.9801493287086487, 0.9797930717468262, 0.9690037369728088, 0.9529820084571838, 0.9284072518348694, 0.9812598824501038, 0.9708918929100037, 0.9710959196090698, 0.9715193510055542, 0.9864745736122131, 0.9938807487487793, 0.9924765229225159, 0.9935545921325684, 0.9932851791381836, 0.9907079935073853, 0.9793044328689575, 0.9895853400230408, 0.9858158826828003, 0.9874606728553772, 0.9849495887756348, 0.9849527478218079, 0.9651831984519958, 0.9795615077018738, 0.9818174242973328, 0.9746400713920593, 0.971379816532135, 0.9644020199775696, 0.9419301748275757, 0.9775089025497437, 0.9861218333244324, 0.9891162514686584, 0.9845970273017883, 0.9789912700653076, 0.9672439694404602, 0.9358094334602356, 0.9581970572471619, 0.9581724405288696]</t>
+          <t>[0.9703603386878967, 0.7434581518173218, 0.960746705532074, 0.9417648315429688, 0.9800737500190735, 0.9826272130012512, 0.9931243062019348, 0.9935963153839111, 0.9942869544029236, 0.9899181723594666, 0.9876299500465393, 0.9546866416931152, 0.9976760745048523, 0.9892968535423279, 0.9902719855308533, 0.9904796481132507, 0.9684867262840271, 0.9866275191307068, 0.9023916125297546, 0.9936720132827759, 0.9927155375480652, 0.8927386403083801, 0.9306442737579346, 0.9736982583999634, 0.9925177097320557, 0.9946994781494141, 0.9949713945388794, 0.9958015084266663, 0.9906796813011169, 0.9763796925544739, 0.9678497314453125, 0.9796341061592102, 0.9814324975013733, 0.9930188059806824, 0.9880593419075012, 0.9758874177932739, 0.9964092373847961, 0.9838160872459412, 0.9658610820770264, 0.991748571395874, 0.9908193945884705, 0.993860125541687, 0.9933429956436157, 0.9933069348335266, 0.9952672719955444, 0.9887595176696777, 0.9867278933525085, 0.9850812554359436, 0.990342378616333, 0.9830359816551208, 0.9917700290679932, 0.9860532879829407, 0.9613421559333801, 0.971238374710083, 0.9766160249710083, 0.985996663570404, 0.9832707047462463, 0.9877272844314575, 0.9942126870155334, 0.9677221179008484, 0.9451184868812561, 0.770326554775238, 0.9072510004043579, 0.8911300301551819, 0.9612824320793152, 0.9846575856208801, 0.9913809895515442, 0.9881560802459717, 0.9894959330558777, 0.9910865426063538, 0.978175163269043, 0.9600536823272705, 0.8900831937789917, 0.933234691619873, 0.9881350994110107, 0.9951274394989014, 0.9780814051628113, 0.9804447889328003, 0.9680885076522827, 0.9769036173820496, 0.9838031530380249, 0.9919683337211609, 0.992793083190918, 0.9937015771865845, 0.9842758178710938, 0.9648096561431885, 0.9718165993690491, 0.9690443277359009, 0.9701601266860962, 0.9912250638008118, 0.9762337803840637, 0.9217777252197266, 0.8724045753479004, 0.8933839201927185, 0.9535082578659058, 0.975531280040741, 0.9843969941139221, 0.962988018989563, 0.9940939545631409, 0.982123076915741, 0.9795453548431396, 0.9926040768623352, 0.9917599558830261, 0.9883430600166321, 0.962558388710022, 0.9694867134094238, 0.840944766998291, 0.9816685318946838, 0.9935033917427063, 0.9903464913368225, 0.9727154970169067, 0.98235023021698, 0.9889668822288513, 0.9634812474250793, 0.9811990261077881, 0.9743700623512268, 0.9908808469772339, 0.9943482279777527, 0.991468071937561, 0.987239420413971, 0.9338942766189575, 0.9733448624610901, 0.9647599458694458, 0.9513377547264099, 0.9620410203933716, 0.9181505441665649, 0.9640474915504456, 0.9481745958328247, 0.9560718536376953, 0.9486746191978455, 0.9663604497909546, 0.9921892881393433, 0.9888184666633606, 0.9907275438308716, 0.9950619339942932, 0.9916214942932129, 0.9713732004165649, 0.9893073439598083, 0.9866697788238525, 0.9919360876083374, 0.9844873547554016, 0.9835445284843445, 0.9393845200538635, 0.9626853466033936, 0.9564532041549683, 0.9651020169258118, 0.9674901366233826, 0.946245551109314, 0.9111117720603943, 0.9696407914161682, 0.9738353490829468, 0.9850324392318726, 0.9758623242378235, 0.9645888805389404, 0.9395774006843567, 0.8853254914283752, 0.9465086460113525, 0.9462589025497437]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9947370886802673</v>
+        <v>0.9976760745048523</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.9021951000031549</v>
+        <v>0.9104804999951739</v>
       </c>
       <c r="J153" t="n">
-        <v>0.005710095569640221</v>
+        <v>0.005762534810096037</v>
       </c>
     </row>
     <row r="154">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.08607177436351776, 0.0837816521525383, 0.09222172200679779, 0.09921081364154816, 0.11229566484689713, 0.10289247334003448, 0.0839613750576973, 0.06710825860500336, 0.0684085339307785, 0.05723591893911362, 0.09474485367536545, 0.10705040395259857, 0.10279089957475662, 0.10390014201402664, 0.08814430236816406, 0.07868903875350952, 0.06200961023569107, 0.047123465687036514, 0.05569950118660927, 0.06449967622756958, 0.0744810700416565, 0.05864053592085838, 0.07446946203708649, 0.059847861528396606, 0.09107759594917297, 0.10315196961164474, 0.08027208596467972, 0.059132009744644165, 0.06388027966022491, 0.05689794942736626, 0.04590485244989395, 0.04896831139922142, 0.04882815107703209, 0.04765688627958298, 0.053677838295698166, 0.0689130499958992, 0.09984517842531204, 0.11152402311563492, 0.07817539572715759, 0.08747804164886475, 0.0959906280040741, 0.09320919215679169, 0.09237540513277054, 0.05699225515127182, 0.06563694030046463, 0.08177504688501358, 0.052048858255147934, 0.06346436589956284, 0.07515273243188858, 0.10707403719425201, 0.08840489387512207, 0.0759894847869873, 0.0584501214325428, 0.05884241685271263, 0.04748508334159851, 0.06604442000389099, 0.09109553694725037, 0.09581305831670761, 0.07274766266345978, 0.11742687970399857, 0.07699346542358398, 0.10106334090232849, 0.09594650566577911, 0.09730909019708633, 0.07006637752056122, 0.097171351313591, 0.11272367835044861, 0.10181523114442825, 0.10264191776514053, 0.10328887403011322, 0.0883830264210701, 0.11549368500709534, 0.12000670284032822, 0.1871112883090973, 0.23108002543449402, 0.14848287403583527, 0.18597635626792908, 0.11241155862808228, 0.08646374940872192, 0.07899852097034454, 0.12206913530826569, 0.09546061605215073, 0.09569721668958664, 0.10631100088357925, 0.18979579210281372, 0.1068512424826622, 0.06991109251976013, 0.05328784137964249, 0.04392692819237709, 0.04594719782471657, 0.05618869885802269, 0.049573495984077454, 0.07378055900335312, 0.11408079415559769, 0.08102342486381531, 0.094151571393013, 0.10105132311582565, 0.1230640858411789, 0.09768921136856079, 0.056675542145967484, 0.0404919758439064, 0.06999272853136063, 0.09565664827823639, 0.043883729726076126, 0.06070585548877716, 0.07789329439401627, 0.06709863245487213, 0.04595449939370155, 0.03393079340457916, 0.03858555480837822, 0.04334607720375061, 0.05318593978881836, 0.04372476413846016, 0.042847890406847, 0.03332395479083061, 0.04118388518691063, 0.05636347830295563, 0.06149888038635254, 0.06752152740955353, 0.03384235128760338, 0.05867859348654747, 0.2269609272480011, 0.23755986988544464, 0.24834050238132477, 0.3397451639175415, 0.2602386772632599, 0.16418220102787018, 0.3106880784034729, 0.3383587896823883, 0.41893476247787476, 0.39673614501953125, 0.40005046129226685, 0.5882288217544556, 0.6003290414810181, 0.42725205421447754, 0.5200809240341187, 0.41173291206359863, 0.5211793184280396, 0.3637373745441437, 0.32938525080680847, 0.21402840316295624, 0.1781727522611618, 0.21573951840400696, 0.2988823354244232, 0.3081788122653961, 0.32005149126052856, 0.2675075829029083, 0.42811381816864014, 0.38393715023994446, 0.25491344928741455, 0.3669561445713043, 0.41161391139030457, 0.41002312302589417, 0.337663471698761, 0.32178062200546265, 0.44570115208625793, 0.4146828055381775, 0.41376861929893494]</t>
+          <t>[0.04002225399017334, 0.04147734120488167, 0.0433138944208622, 0.04198858514428139, 0.051473114639520645, 0.04992891848087311, 0.042473744601011276, 0.035299867391586304, 0.031181737780570984, 0.03242835775017738, 0.06951721757650375, 0.055473897606134415, 0.04765818268060684, 0.051874998956918716, 0.05280517041683197, 0.04453614726662636, 0.030851734802126884, 0.026128463447093964, 0.030385766178369522, 0.046318527311086655, 0.04377037659287453, 0.031880177557468414, 0.02971509099006653, 0.018719743937253952, 0.03441774845123291, 0.03611007332801819, 0.030010120943188667, 0.01986638270318508, 0.02099647745490074, 0.02037421427667141, 0.014823046512901783, 0.01892305538058281, 0.024635056033730507, 0.027552902698516846, 0.023368697613477707, 0.037681106477975845, 0.05035947263240814, 0.053761761635541916, 0.04489188641309738, 0.04976889491081238, 0.04630090668797493, 0.05890331789851189, 0.06056080386042595, 0.034704919904470444, 0.043398499488830566, 0.04029617831110954, 0.030985649675130844, 0.0383816622197628, 0.0375496968626976, 0.04316893592476845, 0.03559218719601631, 0.034923456609249115, 0.037347156554460526, 0.03341352939605713, 0.018088817596435547, 0.0358736552298069, 0.04699229821562767, 0.04260488972067833, 0.04428424686193466, 0.07205156981945038, 0.06587979942560196, 0.07267715781927109, 0.05554945394396782, 0.03788682818412781, 0.034797750413417816, 0.06627350300550461, 0.06990106403827667, 0.061637282371520996, 0.056434888392686844, 0.052935533225536346, 0.04966464266180992, 0.05689537525177002, 0.051869913935661316, 0.16039079427719116, 0.17502634227275848, 0.10238472372293472, 0.09717356413602829, 0.041392479091882706, 0.04550234600901604, 0.04825117066502571, 0.07944739609956741, 0.0531509630382061, 0.05435165390372276, 0.05588814616203308, 0.0748569592833519, 0.0370212085545063, 0.0230647474527359, 0.025220904499292374, 0.021912559866905212, 0.02179022692143917, 0.02224799245595932, 0.018795693293213844, 0.020424770191311836, 0.0392606146633625, 0.04223968833684921, 0.06641034036874771, 0.06786243617534637, 0.0695175752043724, 0.04512052237987518, 0.02256256900727749, 0.019515136256814003, 0.02614670619368553, 0.03664201870560646, 0.019731076434254646, 0.02360948547720909, 0.0442618690431118, 0.036384906619787216, 0.02948828972876072, 0.02399378828704357, 0.02590137906372547, 0.026630567386746407, 0.03568854555487633, 0.029194271191954613, 0.0454898439347744, 0.030138565227389336, 0.03637544438242912, 0.044203612953424454, 0.04552959278225899, 0.04490133002400398, 0.03513889014720917, 0.05310780927538872, 0.3063512444496155, 0.24315856397151947, 0.2334924340248108, 0.3491211533546448, 0.16777697205543518, 0.09406798332929611, 0.2886463403701782, 0.3800673484802246, 0.31151580810546875, 0.2564510703086853, 0.24055641889572144, 0.6068281531333923, 0.5616716742515564, 0.32397177815437317, 0.48131877183914185, 0.48046281933784485, 0.6685813665390015, 0.4727465808391571, 0.36217638850212097, 0.2598934471607208, 0.14440995454788208, 0.17920269072055817, 0.25763747096061707, 0.25183242559432983, 0.305722177028656, 0.23180606961250305, 0.383555144071579, 0.35453763604164124, 0.16516375541687012, 0.3196025788784027, 0.5300923585891724, 0.5416113138198853, 0.37508276104927063, 0.28446272015571594, 0.4484826624393463, 0.3231427073478699, 0.3207332491874695]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.6003290414810181</v>
+        <v>0.6685813665390015</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.8899061999982223</v>
+        <v>0.8944307999918237</v>
       </c>
       <c r="J154" t="n">
-        <v>0.005632317721507736</v>
+        <v>0.005660954430327998</v>
       </c>
     </row>
     <row r="155">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[0.4262959659099579, 0.43198078870773315, 0.3070001006126404, 0.33370766043663025, 0.3904094398021698, 0.2715756297111511, 0.19282963871955872, 0.17742863297462463, 0.18080446124076843, 0.2917783260345459, 0.49420952796936035, 0.49456214904785156, 0.5459462404251099, 0.5166280269622803, 0.32892534136772156, 0.07953385263681412, 0.1735062301158905, 0.286271333694458, 0.4450736939907074, 0.7287383079528809, 0.5536421537399292, 0.5065150260925293, 0.3855155408382416, 0.21190588176250458, 0.23465372622013092, 0.21149833500385284, 0.07031414657831192, 0.08054854720830917, 0.07578033208847046, 0.11495412886142731, 0.09488221257925034, 0.05137624591588974, 0.04640655964612961, 0.03645404055714607, 0.038185492157936096, 0.042243655771017075, 0.04132915660738945, 0.04052712023258209, 0.06096377223730087, 0.04997231066226959, 0.061967264860868454, 0.06231868639588356, 0.06159985437989235, 0.04879889264702797, 0.06551343202590942, 0.04577336460351944, 0.06870619207620621, 0.08383677154779434, 0.07016361504793167, 0.08903760462999344, 0.08781692385673523, 0.08203377574682236, 0.08121182024478912, 0.06236469745635986, 0.07474052906036377, 0.07748625427484512, 0.08821935951709747, 0.13830281794071198, 0.08636464923620224, 0.06202583387494087, 0.06296882778406143, 0.03380950167775154, 0.030209209769964218, 0.030755650252103806, 0.026284439489245415, 0.026594797149300575, 0.022077681496739388, 0.027215704321861267, 0.032459814101457596, 0.029141589999198914, 0.030844951048493385, 0.02852075919508934, 0.024899538606405258, 0.01951279118657112, 0.024078523740172386, 0.01860550418496132, 0.024400904774665833, 0.017809277400374413, 0.022050801664590836, 0.021386316046118736, 0.02621656283736229, 0.03119669482111931, 0.023224132135510445, 0.02283691242337227, 0.022482264786958694, 0.018520355224609375, 0.019838297739624977, 0.01960788667201996, 0.020513566210865974, 0.0195604357868433, 0.024634094908833504, 0.026887856423854828, 0.025972992181777954, 0.03664998337626457, 0.050017669796943665, 0.03887227922677994, 0.04544639587402344, 0.06807898730039597, 0.05558089166879654, 0.07757079601287842, 0.06422581523656845, 0.03706194460391998, 0.031901586800813675, 0.035159096121788025, 0.027882760390639305, 0.06528079509735107, 0.05444174259901047, 0.05358538031578064, 0.04351215437054634, 0.04211924597620964, 0.046997252851724625, 0.036922045052051544, 0.039845239371061325, 0.05464579910039902, 0.03713103011250496, 0.06721305847167969, 0.05818609148263931, 0.07145750522613525, 0.03610102832317352, 0.03548290580511093, 0.03957038000226021, 0.04727115482091904, 0.037215329706668854, 0.039365217089653015, 0.026859300211071968, 0.027863837778568268, 0.02112596109509468, 0.018846360966563225, 0.02462448924779892, 0.028066035360097885, 0.04157816991209984, 0.05081086605787277, 0.12107101082801819, 0.11252786219120026, 0.07389334589242935, 0.06669566035270691, 0.06975823640823364, 0.07191960513591766, 0.04533277079463005, 0.05201571062207222, 0.04402533546090126, 0.04578758403658867, 0.04672319442033768, 0.035441458225250244, 0.04040713980793953, 0.04204224422574043, 0.05121254175901413, 0.048328954726457596, 0.04855417087674141, 0.04445073753595352, 0.03340501710772514, 0.03432396799325943, 0.055196769535541534, 0.06113724038004875, 0.07473587244749069, 0.05231078341603279, 0.046069640666246414, 0.04613792896270752]</t>
+          <t>[0.3668927848339081, 0.38463738560676575, 0.23124301433563232, 0.2985859513282776, 0.27077898383140564, 0.18727563321590424, 0.14596840739250183, 0.14550231397151947, 0.16752327978610992, 0.3390573561191559, 0.44800084829330444, 0.5321468710899353, 0.5471470355987549, 0.5253894329071045, 0.33820849657058716, 0.049283239990472794, 0.11295788735151291, 0.21172215044498444, 0.6091834306716919, 0.9128446578979492, 0.8640502691268921, 0.7326731085777283, 0.4773746132850647, 0.24196024239063263, 0.23614643514156342, 0.2158394604921341, 0.05289697274565697, 0.0925467237830162, 0.05342577397823334, 0.06072307750582695, 0.05187181010842323, 0.03147824481129646, 0.02538437210023403, 0.01754779927432537, 0.01814073696732521, 0.017642546445131302, 0.01773352548480034, 0.01840483769774437, 0.027434485033154488, 0.024761270731687546, 0.03843477740883827, 0.023669565096497536, 0.020825220271945, 0.017871089279651642, 0.022839870303869247, 0.015911759808659554, 0.020146848633885384, 0.021942468360066414, 0.02551458775997162, 0.027190648019313812, 0.02345070242881775, 0.02186676487326622, 0.021684857085347176, 0.016634561121463776, 0.019325613975524902, 0.027837105095386505, 0.03288789838552475, 0.060391929000616074, 0.032448530197143555, 0.02730940282344818, 0.03312058374285698, 0.013875249773263931, 0.011077351868152618, 0.011658690869808197, 0.009985276497900486, 0.010911344550549984, 0.012503381818532944, 0.015508320182561874, 0.0191095769405365, 0.019961290061473846, 0.02090529166162014, 0.021083654835820198, 0.015131709165871143, 0.013207413256168365, 0.01858559437096119, 0.016961514949798584, 0.017842788249254227, 0.012233766727149487, 0.011779270134866238, 0.014774833805859089, 0.023962903767824173, 0.019431810826063156, 0.014397985301911831, 0.011957542039453983, 0.012495546601712704, 0.01093644555658102, 0.011444506235420704, 0.011561348102986813, 0.01356369350105524, 0.009529810398817062, 0.014975967817008495, 0.01305260881781578, 0.01289682649075985, 0.013665380887687206, 0.019489925354719162, 0.016163235530257225, 0.020054224878549576, 0.030334964394569397, 0.022636940702795982, 0.029753465205430984, 0.021661147475242615, 0.013155695982277393, 0.013775923289358616, 0.011646488681435585, 0.010799369774758816, 0.023454999551177025, 0.023279529064893723, 0.02308160811662674, 0.022048350423574448, 0.01722227968275547, 0.02181917242705822, 0.020392943173646927, 0.021689238026738167, 0.022240040823817253, 0.016479207202792168, 0.022004012018442154, 0.017588043585419655, 0.02210240811109543, 0.01134617067873478, 0.013114753179252148, 0.015373696573078632, 0.01772361807525158, 0.014098904095590115, 0.016445985063910484, 0.013928250409662724, 0.013062465004622936, 0.014821458607912064, 0.012368282303214073, 0.013246566988527775, 0.014429171569645405, 0.016896061599254608, 0.015640102326869965, 0.032052744179964066, 0.03404613584280014, 0.03287074342370033, 0.03585871681571007, 0.04368378967046738, 0.036831993609666824, 0.01868407242000103, 0.021746408194303513, 0.016349613666534424, 0.021252116188406944, 0.020121870562434196, 0.018832556903362274, 0.024133512750267982, 0.022687330842018127, 0.027482911944389343, 0.021423056721687317, 0.0177549347281456, 0.01750403828918934, 0.015123014338314533, 0.01605662889778614, 0.027288878336548805, 0.03786051273345947, 0.04569771885871887, 0.01719823107123375, 0.0187970157712698, 0.018781056627631187]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.7287383079528809</v>
+        <v>0.9128446578979492</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.8904420999751892</v>
+        <v>0.8938346999930218</v>
       </c>
       <c r="J155" t="n">
-        <v>0.005635709493513856</v>
+        <v>0.005657181645525454</v>
       </c>
     </row>
     <row r="156">
@@ -6765,11 +6765,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.10333570092916489, 0.18097622692584991, 0.10545916855335236, 0.31332752108573914, 0.4563557803630829, 0.22469544410705566, 0.16088895499706268, 0.06967129558324814, 0.12361591309309006, 0.19287343323230743, 0.38870513439178467, 0.23667295277118683, 0.5666294097900391, 0.4223523437976837, 0.31570741534233093, 0.3508361279964447, 0.33992475271224976, 0.6323295831680298, 0.3396821916103363, 0.16490615904331207, 0.24675171077251434, 0.12381439656019211, 0.13187706470489502, 0.10309235006570816, 0.1043679341673851, 0.21026340126991272, 0.08148770034313202, 0.10845986753702164, 0.12570692598819733, 0.30576908588409424, 0.21256192028522491, 0.16551198065280914, 0.16064217686653137, 0.16705627739429474, 0.3763887882232666, 0.6184356808662415, 0.7496799826622009, 0.5994418263435364, 0.7167028188705444, 0.8322299122810364, 0.8627738952636719, 0.8311234712600708, 0.791431725025177, 0.7400208711624146, 0.7106878757476807, 0.5561292767524719, 0.6785634160041809, 0.6899250745773315, 0.7932635545730591, 0.6373975276947021, 0.7792303562164307, 0.7389062643051147, 0.8474511504173279, 0.718000590801239, 0.5381205677986145, 0.7294046878814697, 0.5428828597068787, 0.6101049184799194, 0.5381020903587341, 0.5430935621261597, 0.5000137090682983, 0.4838978052139282, 0.5701205730438232, 0.7931025624275208, 0.5074412226676941, 0.4789346158504486, 0.6313756108283997, 0.7345825433731079, 0.8670181035995483, 0.8654749393463135, 0.9220456480979919, 0.8879917860031128, 0.7419141530990601, 0.8236995935440063, 0.6014652252197266, 0.40617144107818604, 0.42774149775505066, 0.5299817323684692, 0.32123687863349915, 0.4744417071342468, 0.23328401148319244, 0.19472281634807587, 0.17119283974170685, 0.23620273172855377, 0.12465082108974457, 0.16281084716320038, 0.2327163815498352, 0.3350677490234375, 0.10727535933256149, 0.20337767899036407, 0.20236732065677643, 0.18004801869392395, 0.39310356974601746, 0.7319933176040649, 0.8837350010871887, 0.8133978843688965, 0.6871174573898315, 0.5116887092590332, 0.6292886734008789, 0.5386273860931396, 0.5068359971046448, 0.6250826120376587, 0.7605651617050171, 0.6988091468811035, 0.8775939345359802, 0.9402173757553101, 0.9013813138008118, 0.8775222301483154, 0.9186540842056274, 0.7797145843505859, 0.1999269425868988, 0.5061414241790771, 0.603993833065033, 0.3989652693271637, 0.6016944646835327, 0.8316729068756104, 0.8529478907585144, 0.819521427154541, 0.8339340090751648, 0.8135820627212524, 0.703851044178009, 0.6692841649055481, 0.5948349237442017, 0.6706865429878235, 0.7554253935813904, 0.604771077632904, 0.7660924196243286, 0.6660346388816833, 0.7201598882675171, 0.6524710655212402, 0.6996115446090698, 0.730768620967865, 0.6291648745536804, 0.4658859372138977, 0.7508938908576965, 0.7937545776367188, 0.7940912842750549, 0.7335599064826965, 0.8543194532394409, 0.9422746896743774, 0.8997697234153748, 0.9244109392166138, 0.7901973128318787, 0.9200655817985535, 0.9670529365539551, 0.9677984714508057, 0.9638780951499939, 0.8955472111701965, 0.7836909890174866, 0.5765429139137268, 0.32038557529449463, 0.20439067482948303, 0.23027403652668, 0.20608928799629211, 0.1143055111169815, 0.22639167308807373, 0.5271782279014587, 0.5310870409011841]</t>
+          <t>[0.03534574806690216, 0.05540841072797775, 0.04490496590733528, 0.19834643602371216, 0.6695172190666199, 0.34467390179634094, 0.08365274965763092, 0.01780061237514019, 0.039270542562007904, 0.09588940441608429, 0.3005732297897339, 0.11073648929595947, 0.43592211604118347, 0.2596879303455353, 0.1098085269331932, 0.15352441370487213, 0.1473069190979004, 0.48045387864112854, 0.17574235796928406, 0.06928825378417969, 0.1828000545501709, 0.07650293409824371, 0.07392944395542145, 0.03977265581488609, 0.031031610444188118, 0.07931815832853317, 0.020712552592158318, 0.020985666662454605, 0.03536626324057579, 0.1858624666929245, 0.12183604389429092, 0.0929458886384964, 0.11819791793823242, 0.09375912696123123, 0.25137439370155334, 0.4590418338775635, 0.5956674218177795, 0.31352242827415466, 0.41681551933288574, 0.665108323097229, 0.780792772769928, 0.7763003706932068, 0.5996154546737671, 0.37677666544914246, 0.3671073615550995, 0.31657522916793823, 0.4080485999584198, 0.454924076795578, 0.6879667043685913, 0.44656065106391907, 0.5130155086517334, 0.5333386659622192, 0.6119406819343567, 0.44470542669296265, 0.25193914771080017, 0.5035789608955383, 0.26713892817497253, 0.40489324927330017, 0.31806865334510803, 0.3737605810165405, 0.27099084854125977, 0.36586514115333557, 0.3558686077594757, 0.6230501532554626, 0.2592082619667053, 0.22927437722682953, 0.39497309923171997, 0.5575757622718811, 0.8990108966827393, 0.8608590960502625, 0.9232046008110046, 0.8275117874145508, 0.4788808226585388, 0.6563135981559753, 0.3295368254184723, 0.2567019462585449, 0.2744232416152954, 0.3295515179634094, 0.130512535572052, 0.23957248032093048, 0.09331759065389633, 0.08566127717494965, 0.08783799409866333, 0.14785392582416534, 0.0811072364449501, 0.07106146961450577, 0.08715277165174484, 0.2094048261642456, 0.05958062782883644, 0.08496007323265076, 0.09257109463214874, 0.0818691998720169, 0.41635164618492126, 0.9396946430206299, 0.9542362689971924, 0.8740932941436768, 0.8357698917388916, 0.712779700756073, 0.7259079813957214, 0.6702044010162354, 0.7698239088058472, 0.8815066814422607, 0.8966949582099915, 0.8688811659812927, 0.9526724815368652, 0.9714024662971497, 0.9367232918739319, 0.9102736115455627, 0.8936439156532288, 0.9121636152267456, 0.17453719675540924, 0.31977590918540955, 0.41687095165252686, 0.30519741773605347, 0.4324794411659241, 0.7277858257293701, 0.8115014433860779, 0.7928941249847412, 0.7281115055084229, 0.6930533051490784, 0.5346976518630981, 0.47621119022369385, 0.3470008373260498, 0.43592333793640137, 0.46298566460609436, 0.43381211161613464, 0.45030343532562256, 0.35316115617752075, 0.4177718162536621, 0.41656988859176636, 0.3948479890823364, 0.3854847550392151, 0.3561475872993469, 0.24509093165397644, 0.6399403214454651, 0.722598135471344, 0.7098039984703064, 0.6227095723152161, 0.8855205774307251, 0.9757266640663147, 0.9636196494102478, 0.9517610669136047, 0.8012681007385254, 0.9589923024177551, 0.9740890264511108, 0.9901595711708069, 0.9854922890663147, 0.932574987411499, 0.9139183759689331, 0.5025778412818909, 0.20182448625564575, 0.1532886028289795, 0.09875009208917618, 0.1034882441163063, 0.050555236637592316, 0.2003311812877655, 0.8690784573554993, 0.8704806566238403]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.9677984714508057</v>
+        <v>0.9901595711708069</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.886173900013091</v>
+        <v>0.9003503999992972</v>
       </c>
       <c r="J156" t="n">
-        <v>0.005608695569703108</v>
+        <v>0.005698420253160109</v>
       </c>
     </row>
     <row r="157">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.9183937907218933, 0.8679478764533997, 0.7371634840965271, 0.7637373805046082, 0.7266026735305786, 0.5512341856956482, 0.7447169423103333, 0.920642614364624, 0.7523519992828369, 0.5734792947769165, 0.5551873445510864, 0.5644633173942566, 0.5952931642532349, 0.8178882002830505, 0.8295515775680542, 0.737984299659729, 0.823011577129364, 0.8322660326957703, 0.6175599098205566, 0.8202365040779114, 0.7694554328918457, 0.6867209672927856, 0.8103389739990234, 0.9226753115653992, 0.8981682062149048, 0.9315372109413147, 0.884945273399353, 0.9415147304534912, 0.9301717877388, 0.929511308670044, 0.961080014705658, 0.97654789686203, 0.9586553573608398, 0.9535976648330688, 0.9273923635482788, 0.9060219526290894, 0.9259827136993408, 0.8837854862213135, 0.6671972870826721, 0.493560791015625, 0.42836976051330566, 0.7173258066177368, 0.6659213900566101, 0.7494409084320068, 0.6902028322219849, 0.804843544960022, 0.6447620987892151, 0.8070469498634338, 0.6897310614585876, 0.6730564832687378, 0.7196547985076904, 0.830064058303833, 0.8578187823295593, 0.859380304813385, 0.8709896206855774, 0.6704162955284119, 0.47244274616241455, 0.46502771973609924, 0.7461891770362854, 0.8273457288742065, 0.957084596157074, 0.7901546955108643, 0.6838435530662537, 0.642367422580719, 0.6647208333015442, 0.8277419209480286, 0.9297239184379578, 0.9380104541778564, 0.9618663787841797, 0.9629527926445007, 0.8784077763557434, 0.6035484075546265, 0.9918199777603149, 0.9801884889602661, 0.8299447894096375, 0.6082216501235962, 0.7393338680267334, 0.8379589319229126, 0.9368122220039368, 0.980682373046875, 0.9674344658851624, 0.9200845956802368, 0.9083946943283081, 0.9035847783088684, 0.9453970193862915, 0.9494398832321167, 0.9419853091239929, 0.9400472044944763, 0.9303843975067139, 0.9432541131973267, 0.8580667972564697, 0.7965416312217712, 0.7963533401489258, 0.8749628067016602, 0.9034623503684998, 0.7774110436439514, 0.8783078789710999, 0.8979786038398743, 0.8753600120544434, 0.9513874053955078, 0.959162175655365, 0.9670119285583496, 0.9566776752471924, 0.9281044602394104, 0.6168772578239441, 0.47086095809936523, 0.420661985874176, 0.586188793182373, 0.5075111985206604, 0.5174893736839294, 0.3867432773113251, 0.4998483955860138, 0.563573956489563, 0.6783863306045532, 0.8335058689117432, 0.9560447335243225, 0.9725713729858398, 0.9476000666618347, 0.9700985550880432, 0.9241185784339905, 0.9468226432800293, 0.9680690765380859, 0.9590650200843811, 0.9543439745903015, 0.917269229888916, 0.8804237842559814, 0.7520807981491089, 0.7844163179397583, 0.7845638990402222, 0.820559024810791, 0.9347580075263977, 0.9756450653076172, 0.9797136187553406, 0.978293240070343, 0.9839228987693787, 0.9667419195175171, 0.9819721579551697, 0.9692276120185852, 0.9395882487297058, 0.8869848847389221, 0.6573967933654785, 0.8753000497817993, 0.6614540815353394, 0.42137661576271057, 0.3578104078769684, 0.39266878366470337, 0.5323577523231506, 0.31892475485801697, 0.31820550560951233, 0.7871721386909485, 0.7063925266265869, 0.8170837163925171, 0.8800660371780396, 0.9398356080055237, 0.9696924686431885, 0.9509099125862122, 0.9233803153038025, 0.923545777797699]</t>
+          <t>[0.9374686479568481, 0.9111396670341492, 0.8648521900177002, 0.8721759915351868, 0.8168106079101562, 0.46460890769958496, 0.8625459671020508, 0.9633898138999939, 0.8622050881385803, 0.6995865106582642, 0.6991682052612305, 0.4642174243927002, 0.5130810737609863, 0.7816384434700012, 0.865692675113678, 0.7357456088066101, 0.8147976398468018, 0.8812981247901917, 0.7731752395629883, 0.8508740067481995, 0.7678540945053101, 0.6870560646057129, 0.6958547234535217, 0.9589163661003113, 0.8964535593986511, 0.962124764919281, 0.9309667348861694, 0.9707835912704468, 0.965592622756958, 0.9168271422386169, 0.9890299439430237, 0.9919669032096863, 0.9837198257446289, 0.9715368747711182, 0.9419604539871216, 0.8925651907920837, 0.9638241529464722, 0.9492694735527039, 0.764144241809845, 0.5242670774459839, 0.30122968554496765, 0.7619754672050476, 0.5946359634399414, 0.790461540222168, 0.7888321876525879, 0.9394716620445251, 0.8341397643089294, 0.9414167404174805, 0.7920161485671997, 0.6709619760513306, 0.8268890976905823, 0.9471107125282288, 0.9273568987846375, 0.9542068243026733, 0.9469135999679565, 0.8426563739776611, 0.43735307455062866, 0.506805419921875, 0.8042998909950256, 0.9016508460044861, 0.9960797429084778, 0.9586372375488281, 0.6903983354568481, 0.7288510203361511, 0.7070115208625793, 0.9264333248138428, 0.9852162599563599, 0.972271740436554, 0.9909030795097351, 0.9897016286849976, 0.8618259429931641, 0.6815299987792969, 0.9985784292221069, 0.9961915016174316, 0.9588533639907837, 0.8885694146156311, 0.9048752784729004, 0.9092586040496826, 0.9812800884246826, 0.9953241944313049, 0.9875739216804504, 0.9632595181465149, 0.9226438999176025, 0.9538643956184387, 0.9807897210121155, 0.9883289337158203, 0.9860273599624634, 0.9824591875076294, 0.9826556444168091, 0.9832379817962646, 0.9607080817222595, 0.9452468156814575, 0.958487868309021, 0.9736157655715942, 0.9885764718055725, 0.9535415172576904, 0.9593997001647949, 0.9657504558563232, 0.9660624265670776, 0.9909998774528503, 0.9879172444343567, 0.992946207523346, 0.9912410974502563, 0.9797478318214417, 0.6481459140777588, 0.25959670543670654, 0.2223702073097229, 0.3853057324886322, 0.42818590998649597, 0.40061208605766296, 0.3510274589061737, 0.5103588104248047, 0.45437657833099365, 0.7709105014801025, 0.9513877034187317, 0.9912602305412292, 0.9944052696228027, 0.9891019463539124, 0.9922199845314026, 0.9859600067138672, 0.9894689321517944, 0.9928358197212219, 0.9939085245132446, 0.9925669431686401, 0.9840443134307861, 0.973075807094574, 0.8990791440010071, 0.9274783730506897, 0.8835887908935547, 0.9466870427131653, 0.9851980805397034, 0.9963212013244629, 0.9971137046813965, 0.9972244501113892, 0.9976121187210083, 0.9955894947052002, 0.9974671602249146, 0.9947748184204102, 0.9843488335609436, 0.9785848259925842, 0.9187374711036682, 0.9745467305183411, 0.8999820947647095, 0.7789216637611389, 0.725034773349762, 0.43264201283454895, 0.7694252729415894, 0.15794499218463898, 0.22824279963970184, 0.945817768573761, 0.8359344601631165, 0.9292762279510498, 0.9796191453933716, 0.9899980425834656, 0.9940925240516663, 0.9919251799583435, 0.9890382289886475, 0.989082932472229]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9918199777603149</v>
+        <v>0.9985784292221069</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.8811528999940492</v>
+        <v>0.9053152999986196</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005576917088569932</v>
+        <v>0.005729843670877339</v>
       </c>
     </row>
     <row r="158">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[0.9779611825942993, 0.9831908345222473, 0.9741102457046509, 0.9645897746086121, 0.9724841117858887, 0.9673957824707031, 0.9741882085800171, 0.9758766293525696, 0.9675872325897217, 0.9825182557106018, 0.9882283806800842, 0.986263632774353, 0.9842425584793091, 0.988157331943512, 0.9861837029457092, 0.9738451838493347, 0.8912110924720764, 0.7201820015907288, 0.6541733145713806, 0.883678674697876, 0.9585704207420349, 0.9726834893226624, 0.9615852236747742, 0.9716740846633911, 0.89310222864151, 0.9635621309280396, 0.9287616610527039, 0.9190372228622437, 0.9429223537445068, 0.8800119161605835, 0.9291050434112549, 0.9558160901069641, 0.9557688236236572, 0.9447126388549805, 0.9749729633331299, 0.9793139100074768, 0.968353807926178, 0.9557636976242065, 0.9564688801765442, 0.9319292902946472, 0.9879912734031677, 0.986708402633667, 0.9854084849357605, 0.9886072278022766, 0.9884361028671265, 0.9818219542503357, 0.9875029921531677, 0.9652157425880432, 0.9768431186676025, 0.9604217410087585, 0.9621344804763794, 0.9590619802474976, 0.9739370942115784, 0.980127215385437, 0.9733988046646118, 0.986967146396637, 0.9909961223602295, 0.9833637475967407, 0.9805204272270203, 0.9902279376983643, 0.9913323521614075, 0.9930768013000488, 0.9924818873405457, 0.9888412356376648, 0.9730774760246277, 0.7379958033561707, 0.674203097820282, 0.5567799210548401, 0.45036837458610535, 0.7554593682289124, 0.8412830233573914, 0.969926118850708, 0.9543667435646057, 0.9859389066696167, 0.9854913949966431, 0.9811184406280518, 0.9821332097053528, 0.9842884540557861, 0.9724805951118469, 0.9836617112159729, 0.9756687879562378, 0.9784051775932312, 0.9769599437713623, 0.9657179713249207, 0.9240338206291199, 0.7138475179672241, 0.5795534253120422, 0.6062363982200623, 0.3658587634563446, 0.5114892721176147, 0.5616406798362732, 0.5552655458450317, 0.4133111238479614, 0.4862503409385681, 0.4709728956222534, 0.4584541916847229, 0.4163450300693512, 0.5394223928451538, 0.47090113162994385, 0.34423789381980896, 0.5153536796569824, 0.3667087256908417, 0.4687238335609436, 0.9251435995101929, 0.9728694558143616, 0.9848820567131042, 0.9909284710884094, 0.9908272624015808, 0.9880560636520386, 0.9876224398612976, 0.9875942468643188, 0.9881609678268433, 0.9785223603248596, 0.9714410305023193, 0.9789136648178101, 0.9776502847671509, 0.9763910174369812, 0.9783765077590942, 0.9809067845344543, 0.9718636274337769, 0.9689457416534424, 0.9834480285644531, 0.9778236150741577, 0.9830437302589417, 0.9740830063819885, 0.9823155999183655, 0.992987334728241, 0.9924601912498474, 0.993476927280426, 0.996450662612915, 0.9948613047599792, 0.9947711825370789, 0.9946148991584778, 0.9953468441963196, 0.9924489259719849, 0.9913387298583984, 0.9913609623908997, 0.9936062097549438, 0.9940396547317505, 0.9926645159721375, 0.9939315319061279, 0.9933798313140869, 0.9948688745498657, 0.9931093454360962, 0.9921848177909851, 0.9919596314430237, 0.985517680644989, 0.9878081679344177, 0.9932790398597717, 0.9920471906661987, 0.9880177974700928, 0.9867671132087708, 0.9918312430381775, 0.9910297393798828, 0.987575113773346, 0.9866949319839478, 0.9784209132194519, 0.9783096313476562]</t>
+          <t>[0.9841238856315613, 0.9895175099372864, 0.9715125560760498, 0.9576893448829651, 0.983569324016571, 0.9746472835540771, 0.9855445027351379, 0.9659929275512695, 0.938069760799408, 0.9826564788818359, 0.9894696474075317, 0.9821734428405762, 0.9800148010253906, 0.9906355738639832, 0.9904332160949707, 0.9763562679290771, 0.9271236062049866, 0.5219189524650574, 0.6359661817550659, 0.9045320153236389, 0.9707112312316895, 0.9814062118530273, 0.9723417162895203, 0.9808632135391235, 0.9279660582542419, 0.9749597311019897, 0.9129616022109985, 0.9601507782936096, 0.9749382734298706, 0.9094342589378357, 0.9466522932052612, 0.9793215394020081, 0.9759494066238403, 0.9733924865722656, 0.979476273059845, 0.9879534244537354, 0.9749862551689148, 0.9600302577018738, 0.9776602983474731, 0.9521490335464478, 0.9965152740478516, 0.9946008920669556, 0.9881286025047302, 0.9933499693870544, 0.9834483861923218, 0.9732071757316589, 0.9922856092453003, 0.96504807472229, 0.9764207005500793, 0.9440799355506897, 0.9672706127166748, 0.9436789751052856, 0.9771875739097595, 0.9778625965118408, 0.9556729793548584, 0.9885194897651672, 0.9927661418914795, 0.981664776802063, 0.9695753455162048, 0.993014931678772, 0.9964210987091064, 0.9930056929588318, 0.995543897151947, 0.9940404295921326, 0.9864089488983154, 0.7036904692649841, 0.5994394421577454, 0.49470213055610657, 0.33042284846305847, 0.738132655620575, 0.8239201903343201, 0.9827892184257507, 0.9725268483161926, 0.9920781254768372, 0.9912806153297424, 0.9812563061714172, 0.9817276000976562, 0.9893380403518677, 0.9577382206916809, 0.9847960472106934, 0.9764378666877747, 0.981692910194397, 0.9767528176307678, 0.9715712070465088, 0.8863958120346069, 0.5758894085884094, 0.5681409239768982, 0.533787727355957, 0.1833239644765854, 0.3483027517795563, 0.46978533267974854, 0.3743835389614105, 0.20468606054782867, 0.34655895829200745, 0.39812466502189636, 0.41777846217155457, 0.34262704849243164, 0.44109046459198, 0.3293735384941101, 0.21570885181427002, 0.402567982673645, 0.3222357928752899, 0.3990517556667328, 0.9626716375350952, 0.986588180065155, 0.99207603931427, 0.9968301653862, 0.9954493641853333, 0.9915266633033752, 0.9917656779289246, 0.9905130863189697, 0.9918798804283142, 0.9850203990936279, 0.9613676071166992, 0.9764223098754883, 0.963027834892273, 0.9650076627731323, 0.9780264496803284, 0.9884299039840698, 0.975737988948822, 0.9777737855911255, 0.9924742579460144, 0.9851399064064026, 0.9906299710273743, 0.9794126749038696, 0.9875866174697876, 0.9965704679489136, 0.9951971173286438, 0.9958093166351318, 0.9986099004745483, 0.9980986714363098, 0.9972809553146362, 0.9979007244110107, 0.9979211688041687, 0.9958353042602539, 0.9941430687904358, 0.9959063529968262, 0.9973593354225159, 0.9974380731582642, 0.9946908354759216, 0.99650639295578, 0.9970085024833679, 0.9976943135261536, 0.9962034821510315, 0.9953868985176086, 0.993277370929718, 0.9793339371681213, 0.9874747395515442, 0.9912850260734558, 0.9894858598709106, 0.9830448627471924, 0.9806735515594482, 0.9915242195129395, 0.993166983127594, 0.9913920164108276, 0.9921446442604065, 0.9866517782211304, 0.9865943193435669]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.996450662612915</v>
+        <v>0.9986099004745483</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.8870041000191122</v>
+        <v>0.9142511999962153</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005613950000120963</v>
+        <v>0.005786399999976046</v>
       </c>
     </row>
     <row r="159">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[0.06455761939287186, 0.07998110353946686, 0.04885292425751686, 0.06571260839700699, 0.04792589321732521, 0.058534663170576096, 0.05429593846201897, 0.07901186496019363, 0.05925844609737396, 0.06479679048061371, 0.046855926513671875, 0.033922940492630005, 0.041858065873384476, 0.02726745791733265, 0.023811819031834602, 0.01804322749376297, 0.018561122938990593, 0.022578978911042213, 0.024679020047187805, 0.03796181455254555, 0.045031122863292694, 0.06450285762548447, 0.10534292459487915, 0.08048821985721588, 0.055836062878370285, 0.07434884458780289, 0.04330645874142647, 0.08905021846294403, 0.06583677232265472, 0.06392974406480789, 0.07812260836362839, 0.07495729625225067, 0.05279719829559326, 0.04098447784781456, 0.06118597462773323, 0.08231938630342484, 0.0723196268081665, 0.08329081535339355, 0.12541629374027252, 0.09593497961759567, 0.12829869985580444, 0.1266491562128067, 0.161392942070961, 0.16112075746059418, 0.19342654943466187, 0.19802387058734894, 0.08798900246620178, 0.06953389197587967, 0.053655337542295456, 0.03856247290968895, 0.02741890773177147, 0.03352029249072075, 0.05145170912146568, 0.08871010690927505, 0.07298869639635086, 0.062243640422821045, 0.126974418759346, 0.1659330278635025, 0.13809995353221893, 0.0892024114727974, 0.10981415957212448, 0.09948137402534485, 0.15391509234905243, 0.08400785177946091, 0.057031258940696716, 0.04544093832373619, 0.05127455294132233, 0.07460103929042816, 0.10104833543300629, 0.11170858889818192, 0.230429008603096, 0.1697978675365448, 0.13396695256233215, 0.15676862001419067, 0.11829695850610733, 0.1322416365146637, 0.07791148126125336, 0.0688779279589653, 0.08359726518392563, 0.14471310377120972, 0.10647904127836227, 0.09747385233640671, 0.07045154273509979, 0.06741242110729218, 0.08396856486797333, 0.10571800917387009, 0.07229296863079071, 0.08861979097127914, 0.1193712130188942, 0.16480088233947754, 0.15000154078006744, 0.09160064905881882, 0.11378306150436401, 0.1524038016796112, 0.23125946521759033, 0.3051634132862091, 0.45971953868865967, 0.29690200090408325, 0.2651270627975464, 0.23142623901367188, 0.2200935184955597, 0.08829356729984283, 0.09809917211532593, 0.06907836347818375, 0.06480549275875092, 0.1100955381989479, 0.10730583965778351, 0.08059468865394592, 0.07679380476474762, 0.08342979103326797, 0.06914205104112625, 0.09796751290559769, 0.10032636672258377, 0.07346634566783905, 0.08368093520402908, 0.1147875264286995, 0.08445864170789719, 0.09213826805353165, 0.08414512127637863, 0.06567460298538208, 0.06463988125324249, 0.07915327697992325, 0.059049222618341446, 0.11725982278585434, 0.18726254999637604, 0.16824552416801453, 0.146637424826622, 0.11036866903305054, 0.11538473516702652, 0.06962078809738159, 0.11739540100097656, 0.10605289041996002, 0.09758617728948593, 0.07906334847211838, 0.06812649220228195, 0.10424941033124924, 0.06189967319369316, 0.07798650115728378, 0.06684252619743347, 0.04709465056657791, 0.04600387066602707, 0.0423174612224102, 0.0615837462246418, 0.09017100930213928, 0.11187440156936646, 0.1170099675655365, 0.13375946879386902, 0.16469745337963104, 0.11945082247257233, 0.07040619105100632, 0.0861022025346756, 0.0934654101729393, 0.13340313732624054, 0.134344682097435, 0.13996298611164093, 0.1281684935092926, 0.08238395303487778, 0.08155037462711334]</t>
+          <t>[0.03712836280465126, 0.034295644611120224, 0.026441767811775208, 0.03128347545862198, 0.029973886907100677, 0.02667783387005329, 0.022685902193188667, 0.02933431975543499, 0.022398538887500763, 0.03143707662820816, 0.02333354577422142, 0.015264718793332577, 0.02266238071024418, 0.01706676557660103, 0.011754018254578114, 0.008598056621849537, 0.0110282888635993, 0.015302230603992939, 0.022923214361071587, 0.03572210669517517, 0.016980638727545738, 0.024241503328084946, 0.037910979241132736, 0.0217390488833189, 0.011833677999675274, 0.019027315080165863, 0.012759080156683922, 0.04564842954277992, 0.024616561830043793, 0.020022762939333916, 0.02850494533777237, 0.030442440882325172, 0.02283645048737526, 0.0105314701795578, 0.015316088683903217, 0.023063959553837776, 0.02039034478366375, 0.024291757494211197, 0.027293719351291656, 0.016578324139118195, 0.021610097959637642, 0.025080010294914246, 0.041149698197841644, 0.029475152492523193, 0.06253120303153992, 0.046827394515275955, 0.020502161234617233, 0.014789151959121227, 0.014380889013409615, 0.00991104543209076, 0.006554808933287859, 0.007646326906979084, 0.013529316522181034, 0.021083582192659378, 0.017367832362651825, 0.013504055328667164, 0.032439567148685455, 0.0342305451631546, 0.040185123682022095, 0.020836103707551956, 0.02142980508506298, 0.02460593357682228, 0.05251878872513771, 0.025187624618411064, 0.018376097083091736, 0.014776026830077171, 0.014020208269357681, 0.020870603621006012, 0.025892719626426697, 0.024074707180261612, 0.07498928904533386, 0.054899051785469055, 0.039081037044525146, 0.0365709625184536, 0.027786940336227417, 0.05481143668293953, 0.02203688956797123, 0.01865096017718315, 0.01739698462188244, 0.04805106669664383, 0.03321366012096405, 0.027855029329657555, 0.019753606989979744, 0.026740439236164093, 0.03747076541185379, 0.031975582242012024, 0.023648040369153023, 0.03166139870882034, 0.04742835462093353, 0.06493288278579712, 0.06268302351236343, 0.03041638806462288, 0.07140078395605087, 0.0728740468621254, 0.12651227414608002, 0.18633592128753662, 0.2429172545671463, 0.09746764600276947, 0.12359786033630371, 0.1667761355638504, 0.11581248790025711, 0.03137332946062088, 0.04809427261352539, 0.026361417025327682, 0.03634006157517433, 0.053718045353889465, 0.045696672052145004, 0.029880942776799202, 0.02799324505031109, 0.0418567880988121, 0.03115346096456051, 0.03371552750468254, 0.038851480931043625, 0.044198647141456604, 0.03519793972373009, 0.042159419506788254, 0.03676728159189224, 0.04221483692526817, 0.04720980301499367, 0.022351665422320366, 0.02538452111184597, 0.020546622574329376, 0.013552998192608356, 0.032030727714300156, 0.05634034052491188, 0.0478518046438694, 0.04481925070285797, 0.029512379318475723, 0.025900788605213165, 0.01525940839201212, 0.026125648990273476, 0.02065517194569111, 0.024080537259578705, 0.027304109185934067, 0.025062359869480133, 0.03650789335370064, 0.023920495063066483, 0.020915266126394272, 0.01710808277130127, 0.01129524502903223, 0.008295147679746151, 0.011024457402527332, 0.012058550491929054, 0.02405119128525257, 0.033935390412807465, 0.03020254336297512, 0.037564102560281754, 0.06776736676692963, 0.034185875207185745, 0.021902291104197502, 0.029845355078577995, 0.02501658722758293, 0.02890840545296669, 0.033689726144075394, 0.039309341460466385, 0.03750241547822952, 0.03187215328216553, 0.031336694955825806]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.4597195386886597</v>
+        <v>0.2429172545671463</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.8836814000096638</v>
+        <v>0.8864796999987448</v>
       </c>
       <c r="J159" t="n">
-        <v>0.00559292025322572</v>
+        <v>0.005610631012650283</v>
       </c>
     </row>
     <row r="160">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[0.9905638694763184, 0.9930062294006348, 0.9884381890296936, 0.984833836555481, 0.9919747710227966, 0.9924148917198181, 0.9719406366348267, 0.9833127856254578, 0.9775627851486206, 0.9628334045410156, 0.9695963263511658, 0.97935551404953, 0.9868262410163879, 0.9844034910202026, 0.9820805788040161, 0.9755184650421143, 0.9834755659103394, 0.9822340607643127, 0.9876583218574524, 0.9869486093521118, 0.9894242882728577, 0.9878044128417969, 0.9648870229721069, 0.9744082093238831, 0.9836295247077942, 0.991415798664093, 0.9861706495285034, 0.9879721999168396, 0.994517982006073, 0.992953360080719, 0.988699734210968, 0.9782586693763733, 0.976353645324707, 0.992081880569458, 0.9893378019332886, 0.9887977242469788, 0.9890525937080383, 0.9731903672218323, 0.9807335138320923, 0.9801633954048157, 0.9851723909378052, 0.9799360036849976, 0.9763344526290894, 0.9679827094078064, 0.9865995645523071, 0.9822998642921448, 0.981037437915802, 0.9781557321548462, 0.9847618341445923, 0.987646222114563, 0.9841790795326233, 0.9867905974388123, 0.9822924733161926, 0.9763674139976501, 0.9911858439445496, 0.9915764927864075, 0.9914365410804749, 0.9939330220222473, 0.9926572442054749, 0.9888047575950623, 0.987565815448761, 0.9887554049491882, 0.9865829348564148, 0.9896765351295471, 0.989231288433075, 0.9900569319725037, 0.9891698956489563, 0.9883636236190796, 0.9898001551628113, 0.9889081120491028, 0.9865381717681885, 0.9914721846580505, 0.9840062260627747, 0.9793766736984253, 0.9755049347877502, 0.9707775115966797, 0.974105954170227, 0.9725539088249207, 0.9594255685806274, 0.9681510925292969, 0.9826712012290955, 0.9817697405815125, 0.9735723733901978, 0.9441767334938049, 0.9693717956542969, 0.968603253364563, 0.9808081388473511, 0.9828162789344788, 0.9911423921585083, 0.992592990398407, 0.9847590327262878, 0.9789860248565674, 0.9784648418426514, 0.9842639565467834, 0.9843587875366211, 0.9859528541564941, 0.9878367781639099, 0.9917073845863342, 0.9834781289100647, 0.9895771741867065, 0.9833569526672363, 0.9835360050201416, 0.9849950671195984, 0.9891611933708191, 0.9890144467353821, 0.9868408441543579, 0.9790343642234802, 0.9823020696640015, 0.985020637512207, 0.9840288758277893, 0.9747640490531921, 0.9789606332778931, 0.9711460471153259, 0.9880196452140808, 0.982053279876709, 0.9711458086967468, 0.9643660187721252, 0.9641664624214172]</t>
+          <t>[0.9954853057861328, 0.9976961016654968, 0.9964666366577148, 0.997140645980835, 0.9976702332496643, 0.9981672763824463, 0.9938176274299622, 0.9957351684570312, 0.9932148456573486, 0.9919745326042175, 0.9925379157066345, 0.9946933388710022, 0.9963287711143494, 0.9966210126876831, 0.9955150485038757, 0.992287278175354, 0.9962471127510071, 0.9947898387908936, 0.9970142841339111, 0.9972719550132751, 0.9973771572113037, 0.9978590607643127, 0.9901871681213379, 0.9929497241973877, 0.9957579970359802, 0.9984517097473145, 0.997002899646759, 0.9981781244277954, 0.9991361498832703, 0.9987321496009827, 0.9984632730484009, 0.9956022500991821, 0.9962361454963684, 0.9992523789405823, 0.9982492923736572, 0.9981200098991394, 0.9984766840934753, 0.9948634505271912, 0.9963759779930115, 0.9966239929199219, 0.9972858428955078, 0.9937381744384766, 0.9926097989082336, 0.9893606901168823, 0.9964711666107178, 0.9940955638885498, 0.9936574101448059, 0.9913794994354248, 0.9961961507797241, 0.9970965385437012, 0.9965452551841736, 0.9968247413635254, 0.9942705631256104, 0.993040919303894, 0.9978072047233582, 0.9983850717544556, 0.9981332421302795, 0.9989148378372192, 0.9986264705657959, 0.9978302121162415, 0.9976081848144531, 0.9971938133239746, 0.9965986609458923, 0.997765302658081, 0.9975639581680298, 0.9976522326469421, 0.9972100853919983, 0.9978475570678711, 0.9981163740158081, 0.9979568719863892, 0.9975864887237549, 0.9985703229904175, 0.9965351819992065, 0.9956836700439453, 0.9934119582176208, 0.9942254424095154, 0.9930921792984009, 0.9917819499969482, 0.9868669509887695, 0.9878389835357666, 0.9941603541374207, 0.9955796599388123, 0.9910422563552856, 0.9820501804351807, 0.9918980598449707, 0.9889882206916809, 0.9941083192825317, 0.994636595249176, 0.9978531002998352, 0.9979462027549744, 0.9945287108421326, 0.9891818165779114, 0.9921231865882874, 0.9959489107131958, 0.9966621398925781, 0.9967116117477417, 0.9972583055496216, 0.9985236525535583, 0.9962789416313171, 0.9979891777038574, 0.9972789883613586, 0.9972556233406067, 0.9970852732658386, 0.998298704624176, 0.9983853101730347, 0.9973347783088684, 0.9970929622650146, 0.9970013499259949, 0.9972047209739685, 0.9960577487945557, 0.9911714196205139, 0.9950666427612305, 0.9950240254402161, 0.9960986375808716, 0.9950994849205017, 0.9906972646713257, 0.9903796911239624, 0.9902942180633545]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.994517982006073</v>
+        <v>0.9992523789405823</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.6950770999828819</v>
+        <v>0.7034035999968182</v>
       </c>
       <c r="J160" t="n">
-        <v>0.005890483898160016</v>
+        <v>0.005961047457600155</v>
       </c>
     </row>
     <row r="161">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[0.9776201844215393, 0.9796436429023743, 0.9738655686378479, 0.9603464603424072, 0.9820871353149414, 0.9887810945510864, 0.9830819964408875, 0.9825032949447632, 0.9272235631942749, 0.8926481008529663, 0.9574392437934875, 0.9673784971237183, 0.9680473804473877, 0.9689725041389465, 0.9572029709815979, 0.9883855581283569, 0.9712368845939636, 0.9265673756599426, 0.9864311814308167, 0.9870468378067017, 0.9943106174468994, 0.9907569289207458, 0.9937315583229065, 0.993034839630127, 0.9875271916389465, 0.9669960737228394, 0.9666434526443481, 0.9718262553215027, 0.9333030581474304, 0.9294778108596802, 0.9901297688484192, 0.9801282286643982, 0.9891780614852905, 0.987166702747345, 0.9674495458602905, 0.9846360683441162, 0.9886018633842468, 0.9867970943450928, 0.9824089407920837, 0.9608755707740784, 0.9316009283065796, 0.9525203108787537, 0.9705487489700317, 0.9725861549377441, 0.980803370475769, 0.9831469655036926, 0.9844056963920593, 0.9864997863769531, 0.9824835062026978, 0.9878332614898682, 0.9919828772544861, 0.9900166392326355, 0.9906553626060486, 0.9947891235351562, 0.9944781064987183, 0.9966071844100952, 0.9946268200874329, 0.981940746307373, 0.9922772645950317, 0.9971387386322021, 0.9956270456314087, 0.9940469264984131, 0.9937991499900818, 0.9953376054763794, 0.9948564767837524, 0.996090829372406, 0.9936715364456177, 0.990373969078064, 0.9931032657623291, 0.9968595504760742, 0.9968048334121704, 0.9939122200012207, 0.9929195046424866, 0.9898722171783447, 0.9885346293449402, 0.9952468276023865, 0.9786965847015381, 0.969332218170166, 0.9932293891906738, 0.9910120964050293, 0.9778032302856445, 0.9887681603431702, 0.9842314720153809, 0.9829288721084595, 0.9965169429779053, 0.9922921061515808, 0.9956036806106567, 0.9961537718772888, 0.9908439517021179, 0.9956181049346924, 0.9970755577087402, 0.9974344372749329, 0.9945400357246399, 0.9949770569801331, 0.996005117893219, 0.9901943802833557, 0.9777902364730835, 0.9814429879188538, 0.9651004672050476, 0.9553776979446411, 0.9718325734138489, 0.9644120335578918, 0.9941961765289307, 0.9964302182197571, 0.9957289099693298, 0.9967560172080994, 0.9966375827789307, 0.9960294961929321, 0.9970455765724182, 0.9964860677719116, 0.9962055683135986, 0.9960528612136841, 0.9953395128250122, 0.9946021437644958, 0.9926164746284485, 0.9930617213249207, 0.9941272735595703, 0.9941354990005493]</t>
+          <t>[0.986274778842926, 0.9889189600944519, 0.9872052669525146, 0.9820663928985596, 0.993553876876831, 0.9954959154129028, 0.9911960363388062, 0.9914584755897522, 0.9539161324501038, 0.8513638377189636, 0.9719141125679016, 0.9903298616409302, 0.9862603545188904, 0.9897866249084473, 0.9822260141372681, 0.9968444108963013, 0.9929242134094238, 0.9071903824806213, 0.9953786134719849, 0.9948835968971252, 0.998337984085083, 0.9976625442504883, 0.9986982345581055, 0.9987192153930664, 0.9950202703475952, 0.9832574725151062, 0.9894350171089172, 0.9919326901435852, 0.9818845391273499, 0.9885743856430054, 0.998630940914154, 0.9952362179756165, 0.9974318146705627, 0.9966643452644348, 0.9902037382125854, 0.9928319454193115, 0.9966257810592651, 0.9944466352462769, 0.9893534183502197, 0.9853991270065308, 0.9195457696914673, 0.9591310620307922, 0.983014702796936, 0.9741210341453552, 0.9870866537094116, 0.986574113368988, 0.9845300912857056, 0.9908422231674194, 0.9878360629081726, 0.9904160499572754, 0.9957689046859741, 0.994261622428894, 0.9968072175979614, 0.9977606534957886, 0.9969915151596069, 0.9977970123291016, 0.9971230626106262, 0.9936090707778931, 0.997651994228363, 0.998741090297699, 0.9978469610214233, 0.9973630309104919, 0.9980806112289429, 0.9987120628356934, 0.9984076619148254, 0.9990302324295044, 0.9984068274497986, 0.9982414245605469, 0.9982871413230896, 0.9992343187332153, 0.9992139339447021, 0.9981513619422913, 0.9984844326972961, 0.9973098039627075, 0.9962553977966309, 0.9985955357551575, 0.990604817867279, 0.978635847568512, 0.9980620741844177, 0.9963755011558533, 0.9862141013145447, 0.9941589832305908, 0.9922950267791748, 0.9943477511405945, 0.9988201260566711, 0.9976189732551575, 0.9983853101730347, 0.9988322854042053, 0.9969815611839294, 0.9991418123245239, 0.9990319013595581, 0.9992678761482239, 0.9984295964241028, 0.9977521300315857, 0.9982064962387085, 0.9942875504493713, 0.9795280694961548, 0.9848527312278748, 0.9334750175476074, 0.9587571024894714, 0.9762551188468933, 0.9793279767036438, 0.9984320998191833, 0.9989708662033081, 0.9987006187438965, 0.9988970756530762, 0.9985066056251526, 0.9985646605491638, 0.9987630844116211, 0.9982935786247253, 0.9984775185585022, 0.9982800483703613, 0.9978267550468445, 0.9979138970375061, 0.9971606731414795, 0.9979141354560852, 0.9976974129676819, 0.9977037310600281]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.9974344372749329</v>
+        <v>0.9992678761482239</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.6661466999794357</v>
+        <v>0.6671609999903012</v>
       </c>
       <c r="J161" t="n">
-        <v>0.005645311016774878</v>
+        <v>0.005653906779578824</v>
       </c>
     </row>
     <row r="162">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[0.997789740562439, 0.9958581328392029, 0.9930559992790222, 0.9877261519432068, 0.9923904538154602, 0.9837226271629333, 0.9830082654953003, 0.8880320191383362, 0.9869675040245056, 0.9802902340888977, 0.9749703407287598, 0.9813662767410278, 0.9730778336524963, 0.9757493734359741, 0.9923225045204163, 0.9957945346832275, 0.9972418546676636, 0.9964068531990051, 0.9947388768196106, 0.9958375692367554, 0.812385082244873, 0.9039473533630371, 0.595595121383667, 0.8353137373924255, 0.974284827709198, 0.9629745483398438, 0.8608322739601135, 0.9557114243507385, 0.9535673260688782, 0.9747840166091919, 0.9869801998138428, 0.9746934175491333, 0.9594177603721619, 0.7163430452346802, 0.8685660362243652, 0.9088937044143677, 0.8578628897666931, 0.9365907907485962, 0.9255480170249939, 0.9555180668830872, 0.9425897002220154, 0.993020236492157, 0.996776282787323, 0.9973074197769165, 0.9982983469963074, 0.9972641468048096, 0.9954614043235779, 0.9953523874282837, 0.990073561668396, 0.9955614805221558, 0.9910741448402405, 0.994181215763092, 0.9955918192863464, 0.9975951313972473, 0.9923202395439148, 0.9917198419570923, 0.9981716871261597, 0.9979536533355713, 0.9978297352790833, 0.9978905320167542, 0.9964373111724854, 0.9873394966125488, 0.9874581694602966, 0.9698485732078552, 0.9872915744781494, 0.9675089120864868, 0.9074456095695496, 0.9387758374214172, 0.973486602306366, 0.9904753565788269, 0.9961681962013245, 0.998643696308136, 0.9978747367858887, 0.9968956708908081, 0.83256596326828, 0.8836015462875366, 0.758993923664093, 0.9904533624649048, 0.8819132447242737, 0.9380161166191101, 0.9570482969284058, 0.9849094748497009, 0.9912528395652771, 0.9963418841362, 0.996514618396759, 0.9972202777862549, 0.9960870742797852, 0.9798547625541687, 0.993458092212677, 0.9824548363685608, 0.9966534972190857, 0.9971566200256348, 0.9983229041099548, 0.997826874256134, 0.9956957101821899, 0.9949407577514648, 0.994890570640564, 0.9925594329833984, 0.9875274300575256, 0.9499490857124329, 0.9836227297782898, 0.9927283525466919, 0.994767427444458, 0.9819192886352539, 0.9384992718696594, 0.9101100564002991, 0.9834927320480347, 0.9875449538230896, 0.9870007038116455, 0.9484537839889526, 0.8960590958595276, 0.9477784633636475, 0.9258504509925842, 0.9875397682189941, 0.9696353077888489, 0.9606297612190247, 0.969325065612793, 0.9694042801856995]</t>
+          <t>[0.9993340373039246, 0.9979085922241211, 0.9979299306869507, 0.986354410648346, 0.9951232075691223, 0.9883812069892883, 0.9889588356018066, 0.9238672852516174, 0.9967936873435974, 0.9944922924041748, 0.9916144609451294, 0.9908297061920166, 0.988288402557373, 0.9677702188491821, 0.9965810179710388, 0.9990302324295044, 0.9994214773178101, 0.9992031455039978, 0.999082088470459, 0.9990399479866028, 0.8515245318412781, 0.9512394666671753, 0.40877652168273926, 0.898121178150177, 0.9956769347190857, 0.9722269177436829, 0.9551539421081543, 0.986404299736023, 0.9887548685073853, 0.9970543384552002, 0.9981959462165833, 0.9965404868125916, 0.9968462586402893, 0.5371432304382324, 0.8767542243003845, 0.8851635456085205, 0.7509565353393555, 0.966412365436554, 0.932535707950592, 0.9940491914749146, 0.9888732433319092, 0.9987863898277283, 0.9994246959686279, 0.999610960483551, 0.99974125623703, 0.9994785189628601, 0.9991835951805115, 0.9992608428001404, 0.9978300929069519, 0.999214768409729, 0.9986836314201355, 0.9991612434387207, 0.9992865920066833, 0.9995561242103577, 0.9988025426864624, 0.9990946054458618, 0.9996459484100342, 0.9996529817581177, 0.9996944665908813, 0.9997590184211731, 0.9996994733810425, 0.9982781410217285, 0.9978095889091492, 0.9910261034965515, 0.9979896545410156, 0.9941271543502808, 0.9642601013183594, 0.9606876373291016, 0.992660403251648, 0.9988117218017578, 0.9996702671051025, 0.9997711777687073, 0.9997350573539734, 0.9997159838676453, 0.8019769787788391, 0.8384710550308228, 0.6211134791374207, 0.9982688426971436, 0.9069352746009827, 0.9786669015884399, 0.9641170501708984, 0.9962878227233887, 0.9981899857521057, 0.9993162155151367, 0.999407172203064, 0.9994290471076965, 0.9993315935134888, 0.995612621307373, 0.9985492825508118, 0.9951070547103882, 0.999411940574646, 0.9995589852333069, 0.9997302889823914, 0.9996339082717896, 0.9993736147880554, 0.9994791150093079, 0.9992009997367859, 0.9988595247268677, 0.9987248778343201, 0.9863773584365845, 0.9988687634468079, 0.9993475079536438, 0.9995611310005188, 0.9989822506904602, 0.9938033819198608, 0.9621152877807617, 0.9971465468406677, 0.9986059069633484, 0.9972565770149231, 0.9644449353218079, 0.8934469223022461, 0.9819168448448181, 0.9571973085403442, 0.9985425472259521, 0.9956099390983582, 0.9944932460784912, 0.9898953437805176, 0.9898860454559326]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.998643696308136</v>
+        <v>0.9997711777687073</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.6776348999992479</v>
+        <v>0.691389400002663</v>
       </c>
       <c r="J162" t="n">
-        <v>0.005742668644061423</v>
+        <v>0.005859232203412399</v>
       </c>
     </row>
     <row r="163">
@@ -7045,11 +7045,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[0.8362085223197937, 0.8322301506996155, 0.8821650743484497, 0.6363764405250549, 0.6211040019989014, 0.7286186218261719, 0.9646658897399902, 0.9563323855400085, 0.9387252330780029, 0.9234137535095215, 0.9178967475891113, 0.8836945295333862, 0.9680442810058594, 0.9497478604316711, 0.9704962968826294, 0.9276041388511658, 0.9648386240005493, 0.9467923045158386, 0.9855103492736816, 0.9819482564926147, 0.9800505042076111, 0.9766521453857422, 0.9785028696060181, 0.967752993106842, 0.9636163711547852, 0.958041787147522, 0.9578165411949158, 0.9725562334060669, 0.9761304259300232, 0.9632694721221924, 0.9394475221633911, 0.8178468942642212, 0.6001141667366028, 0.706882119178772, 0.8818776607513428, 0.9098561406135559, 0.960542619228363, 0.9840885400772095, 0.9122466444969177, 0.9758607149124146, 0.9653212428092957, 0.9923610091209412, 0.9843376278877258, 0.9862593412399292, 0.9850836396217346, 0.9929859042167664, 0.985221803188324, 0.9872750043869019, 0.9834572672843933, 0.9869962930679321, 0.9879181981086731, 0.99156254529953, 0.9893542528152466, 0.9895907044410706, 0.967459499835968, 0.9149688482284546, 0.9717549085617065, 0.9431509375572205, 0.9120796322822571, 0.8488788604736328, 0.8655555844306946, 0.5105170011520386, 0.38605523109436035, 0.6917797923088074, 0.6288018822669983, 0.7176848649978638, 0.5220284461975098, 0.7326105237007141, 0.7981781363487244, 0.8024634718894958, 0.5161291360855103, 0.4109388589859009, 0.6604253053665161, 0.9095183610916138, 0.953423798084259, 0.9608229398727417, 0.9498965740203857, 0.9821666479110718, 0.9713606238365173, 0.9265495538711548, 0.9604277014732361, 0.9881770014762878, 0.9917128086090088, 0.9649891257286072, 0.9578830599784851, 0.9759024977684021, 0.9804896712303162, 0.9766015410423279, 0.9439746141433716, 0.9588037729263306, 0.9836386442184448, 0.9666799902915955, 0.9724279642105103, 0.9871279001235962, 0.9732820391654968, 0.9887800216674805, 0.9804368615150452, 0.9920897483825684, 0.9756261110305786, 0.9762460589408875, 0.9419126510620117, 0.9108209609985352, 0.8274660706520081, 0.659190833568573, 0.692626953125, 0.7385739684104919, 0.7323946952819824, 0.8342342376708984, 0.8983462452888489, 0.9718957543373108, 0.9809753894805908, 0.9389893412590027, 0.9571276903152466, 0.9637119174003601, 0.9884850978851318, 0.9594759345054626, 0.9687703847885132, 0.9686814546585083]</t>
+          <t>[0.8659495115280151, 0.8820513486862183, 0.9498562812805176, 0.6439548134803772, 0.6529578566551208, 0.7954584956169128, 0.9906342029571533, 0.9803020358085632, 0.9832584857940674, 0.9801512956619263, 0.9783415794372559, 0.9342371821403503, 0.9877989292144775, 0.9736339449882507, 0.9845942258834839, 0.9577199816703796, 0.9836059808731079, 0.9654206037521362, 0.9934158325195312, 0.9928418397903442, 0.9932823181152344, 0.991378664970398, 0.9918644428253174, 0.9879042506217957, 0.9868009090423584, 0.9921269416809082, 0.9890434741973877, 0.9939946532249451, 0.9915247559547424, 0.9854270219802856, 0.9801120162010193, 0.7186410427093506, 0.29552772641181946, 0.70075923204422, 0.8886579871177673, 0.9205483198165894, 0.9725250005722046, 0.9933822154998779, 0.8766368627548218, 0.9847418069839478, 0.9787321090698242, 0.9974179267883301, 0.9939063191413879, 0.9934297204017639, 0.984811544418335, 0.9954437017440796, 0.9827744364738464, 0.9820127487182617, 0.9791046977043152, 0.9923129677772522, 0.9946154952049255, 0.9973456263542175, 0.9959462285041809, 0.9973095655441284, 0.986026406288147, 0.9419719576835632, 0.9857146143913269, 0.9784988760948181, 0.9622162580490112, 0.9213395714759827, 0.8729101419448853, 0.4637101888656616, 0.30873361229896545, 0.7076212763786316, 0.5386622548103333, 0.7470893263816833, 0.3268878161907196, 0.7111632227897644, 0.7836402058601379, 0.830687403678894, 0.3144129514694214, 0.29127851128578186, 0.8684069514274597, 0.9675822257995605, 0.9900189638137817, 0.9906553626060486, 0.9874908328056335, 0.9969437718391418, 0.9941021800041199, 0.9605363607406616, 0.933318018913269, 0.9921889305114746, 0.9947408437728882, 0.9739381074905396, 0.9764883518218994, 0.9874714016914368, 0.9755640625953674, 0.9802907705307007, 0.9715506434440613, 0.9837051033973694, 0.9955863952636719, 0.9943550825119019, 0.9899132251739502, 0.9966756105422974, 0.9957608580589294, 0.9988300204277039, 0.998948872089386, 0.9994168281555176, 0.9985400438308716, 0.9984773993492126, 0.991679847240448, 0.9927700161933899, 0.9447511434555054, 0.8113141059875488, 0.8867216110229492, 0.9364768862724304, 0.9153028726577759, 0.914315402507782, 0.9839312434196472, 0.9963545799255371, 0.997899055480957, 0.9862971305847168, 0.9876666069030762, 0.9874705672264099, 0.9943885207176208, 0.9490601420402527, 0.980591356754303, 0.9805028438568115]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.9929859042167664</v>
+        <v>0.9994168281555176</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.6698651999759022</v>
+        <v>0.675566500009154</v>
       </c>
       <c r="J163" t="n">
-        <v>0.005676823728609341</v>
+        <v>0.00572513983058605</v>
       </c>
     </row>
     <row r="164">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[0.7373983263969421, 0.7186504006385803, 0.7979593276977539, 0.40221676230430603, 0.8924990892410278, 0.45976361632347107, 0.4602206349372864, 0.843388020992279, 0.9129745364189148, 0.9531133770942688, 0.9928106665611267, 0.991828978061676, 0.9697400331497192, 0.8163251876831055, 0.5577129125595093, 0.6252694129943848, 0.7981432676315308, 0.7450801134109497, 0.7497456669807434, 0.8365395069122314, 0.966562032699585, 0.9807557463645935, 0.9870083928108215, 0.9681411385536194, 0.9433262348175049, 0.9371218681335449, 0.9477481245994568, 0.9841828942298889, 0.9654768109321594, 0.963577389717102, 0.969210147857666, 0.9898577332496643, 0.9934635162353516, 0.9952378273010254, 0.9799498915672302, 0.9921751618385315, 0.993442177772522, 0.993300199508667, 0.9947555065155029, 0.9836734533309937, 0.9879855513572693, 0.9948621392250061, 0.9853578805923462, 0.9633157253265381, 0.8781273365020752, 0.8807623386383057, 0.8138514757156372, 0.8734070062637329, 0.7352699637413025, 0.8550606369972229, 0.65338134765625, 0.8386383652687073, 0.9616276621818542, 0.8547327518463135, 0.5154154896736145, 0.45663344860076904, 0.654705822467804, 0.7607479095458984, 0.8920329213142395, 0.6744666695594788, 0.48462042212486267, 0.6755989193916321, 0.9226515889167786, 0.7250913977622986, 0.7929105162620544, 0.9039973616600037, 0.9603747129440308, 0.9450603723526001, 0.9468919038772583, 0.9346016645431519, 0.9404400587081909, 0.9591598510742188, 0.9616085886955261, 0.9763866066932678, 0.9788291454315186, 0.9855738282203674, 0.986331582069397, 0.9729212522506714, 0.9716134071350098, 0.9723014831542969, 0.9706868529319763, 0.9806407690048218, 0.9657873511314392, 0.9654175639152527, 0.9679259657859802, 0.9650261998176575, 0.9778665900230408, 0.9697298407554626, 0.987654983997345, 0.9899651408195496, 0.9680134654045105, 0.9754645824432373, 0.9348859190940857, 0.6994379162788391, 0.9366260170936584, 0.9861089587211609, 0.9753865599632263, 0.9543613195419312, 0.9236071109771729, 0.9590165615081787, 0.8518012166023254, 0.9598342776298523, 0.9319942593574524, 0.8923580050468445, 0.38321661949157715, 0.41722163558006287, 0.44833698868751526, 0.5219303369522095, 0.33645302057266235, 0.42038100957870483, 0.5631269216537476, 0.6971171498298645, 0.7933217287063599, 0.7451372146606445, 0.7485227584838867, 0.5243955850601196, 0.33092713356018066, 0.6483141779899597, 0.6511282920837402]</t>
+          <t>[0.8560999035835266, 0.7460379600524902, 0.8657485246658325, 0.34529006481170654, 0.9778148531913757, 0.4847809076309204, 0.2281317114830017, 0.9196193814277649, 0.9661412239074707, 0.9820883870124817, 0.9989011287689209, 0.9986030459403992, 0.9917293190956116, 0.9183424115180969, 0.6093345284461975, 0.6095954775810242, 0.8576268553733826, 0.7616301774978638, 0.7107710838317871, 0.7824957370758057, 0.9738993644714355, 0.9939993619918823, 0.9947996139526367, 0.985724687576294, 0.9743781685829163, 0.9404195547103882, 0.9721192121505737, 0.9937750101089478, 0.9830222725868225, 0.9807964563369751, 0.9833053946495056, 0.9960348010063171, 0.99722820520401, 0.9979128241539001, 0.9913622736930847, 0.9970344305038452, 0.9985438585281372, 0.9981878399848938, 0.9988235831260681, 0.9944302439689636, 0.9964841604232788, 0.9982510209083557, 0.993392288684845, 0.9808245897293091, 0.9197847247123718, 0.9407841563224792, 0.830416202545166, 0.9218616485595703, 0.5847583413124084, 0.8687252998352051, 0.49438178539276123, 0.8874911665916443, 0.9706972241401672, 0.8556290864944458, 0.30894941091537476, 0.1799602061510086, 0.588869035243988, 0.7530045509338379, 0.9570401310920715, 0.32889068126678467, 0.3134681284427643, 0.787558376789093, 0.9437557458877563, 0.6831088662147522, 0.766325056552887, 0.9389193654060364, 0.9847081899642944, 0.9798057675361633, 0.9875935912132263, 0.9672992825508118, 0.9793347120285034, 0.9892929792404175, 0.9892826080322266, 0.9936967492103577, 0.9919841885566711, 0.9956028461456299, 0.9967040419578552, 0.9931401610374451, 0.9935145378112793, 0.9891263246536255, 0.9924129843711853, 0.9943511486053467, 0.9872443079948425, 0.9862567782402039, 0.9900376796722412, 0.9874710440635681, 0.9920563101768494, 0.9921982884407043, 0.9975460171699524, 0.9982847571372986, 0.9866227507591248, 0.9927667379379272, 0.9775325059890747, 0.7129487991333008, 0.9782477021217346, 0.9972381591796875, 0.9945271611213684, 0.9826610684394836, 0.9260620474815369, 0.9776583909988403, 0.8547019958496094, 0.9848253130912781, 0.9739630222320557, 0.9516072273254395, 0.16714079678058624, 0.21011434495449066, 0.2178518921136856, 0.23671726882457733, 0.20062458515167236, 0.26749318838119507, 0.3600647747516632, 0.8081019520759583, 0.9372890591621399, 0.8325059413909912, 0.7414535284042358, 0.8345624804496765, 0.23689089715480804, 0.7577750086784363, 0.7607602477073669]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9952378273010254</v>
+        <v>0.9989011287689209</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.7807822999893688</v>
+        <v>0.8163304000045173</v>
       </c>
       <c r="J164" t="n">
-        <v>0.00656119579822999</v>
+        <v>0.006859919327769053</v>
       </c>
     </row>
     <row r="165">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.23053301870822906, 0.32720693945884705, 0.1017644852399826, 0.11665309220552444, 0.6045271158218384, 0.7229675054550171, 0.3979276716709137, 0.21988442540168762, 0.3379310369491577, 0.3776237666606903, 0.30212992429733276, 0.38184472918510437, 0.18558908998966217, 0.26918578147888184, 0.815634548664093, 0.9471548795700073, 0.41274064779281616, 0.09076442569494247, 0.22565461695194244, 0.36023616790771484, 0.30994996428489685, 0.27405524253845215, 0.8856146931648254, 0.35472360253334045, 0.7732146382331848, 0.8468126058578491, 0.960057258605957, 0.9448501467704773, 0.9559882879257202, 0.9211492538452148, 0.9433397054672241, 0.42421433329582214, 0.5862805247306824, 0.6757984161376953, 0.7219952940940857, 0.809922456741333, 0.7589252591133118, 0.47912248969078064, 0.8417943120002747, 0.9023512005805969, 0.8279100060462952, 0.4267140328884125, 0.46349143981933594, 0.33779940009117126, 0.39949706196784973, 0.3882615268230438, 0.8836562633514404, 0.8726259469985962, 0.919719934463501, 0.8371149897575378, 0.1956140249967575, 0.2869475781917572, 0.21426045894622803, 0.5272150635719299, 0.45962145924568176, 0.4894019365310669, 0.7686022520065308, 0.8357414603233337, 0.9348991513252258, 0.965432345867157, 0.9565564393997192, 0.9299312829971313, 0.9210292100906372, 0.9189972877502441, 0.922214686870575, 0.9460944533348083, 0.9505940079689026, 0.9126520752906799, 0.9201459288597107, 0.5520868897438049, 0.6608884334564209, 0.7539880871772766, 0.7533209323883057, 0.8494652509689331, 0.8293692469596863, 0.8697149157524109, 0.6624740362167358, 0.29296237230300903, 0.31109869480133057, 0.4396500885486603, 0.5499737858772278, 0.49680018424987793, 0.8396996855735779, 0.954783022403717, 0.8917160034179688, 0.5182098746299744, 0.9237861037254333, 0.9140897393226624, 0.8583731651306152, 0.751591682434082, 0.5659472346305847, 0.6979519724845886, 0.16391396522521973, 0.3228912055492401, 0.33151495456695557, 0.4997299313545227, 0.695903480052948, 0.8794981241226196, 0.9648635983467102, 0.9215432405471802, 0.9374302625656128, 0.9266838431358337, 0.8491758108139038, 0.7870599627494812, 0.8821305632591248, 0.6864320039749146, 0.7011217474937439, 0.40478619933128357, 0.24309498071670532, 0.20447471737861633, 0.18966268002986908, 0.2278577983379364, 0.16613367199897766, 0.21581415832042694, 0.26964452862739563, 0.20204143226146698, 0.21946009993553162, 0.21953047811985016]</t>
+          <t>[0.14588133990764618, 0.30425721406936646, 0.08995339274406433, 0.20164580643177032, 0.9082547426223755, 0.9669758081436157, 0.6359586119651794, 0.3649117648601532, 0.305882066488266, 0.5508018136024475, 0.38500404357910156, 0.7412463426589966, 0.22457611560821533, 0.3826647400856018, 0.9748290777206421, 0.9910407662391663, 0.7715977430343628, 0.09152273088693619, 0.49798324704170227, 0.5956421494483948, 0.7812644839286804, 0.43224790692329407, 0.9906070232391357, 0.5413727760314941, 0.941909909248352, 0.941215455532074, 0.9947503209114075, 0.9873084425926208, 0.9927375912666321, 0.9876959323883057, 0.9804947376251221, 0.3767050504684448, 0.7938543558120728, 0.9353241324424744, 0.9407082796096802, 0.9843292236328125, 0.8478290438652039, 0.6637218594551086, 0.9820168614387512, 0.9788472056388855, 0.9684205651283264, 0.3729707598686218, 0.6546053290367126, 0.39477697014808655, 0.5729225873947144, 0.6919792890548706, 0.9926584362983704, 0.985901951789856, 0.9840530157089233, 0.9758034944534302, 0.12200389057397842, 0.16771560907363892, 0.2833794057369232, 0.8387737274169922, 0.7037463188171387, 0.8628474473953247, 0.961142897605896, 0.9753746390342712, 0.9945738911628723, 0.9954274892807007, 0.991025447845459, 0.9913861751556396, 0.9834475517272949, 0.9848983883857727, 0.9870281219482422, 0.9882110357284546, 0.9816715121269226, 0.9477725625038147, 0.972929060459137, 0.6114408373832703, 0.7305240035057068, 0.7906116843223572, 0.7882105708122253, 0.8977937698364258, 0.9756563901901245, 0.9887308478355408, 0.8641669154167175, 0.43047618865966797, 0.5308445692062378, 0.6621244549751282, 0.714596688747406, 0.6132781505584717, 0.9691437482833862, 0.9956041574478149, 0.9911044836044312, 0.907788872718811, 0.9930419921875, 0.9906783103942871, 0.9830118417739868, 0.8185474872589111, 0.5988277792930603, 0.8554816842079163, 0.1364978402853012, 0.5191196203231812, 0.8269675970077515, 0.7729823589324951, 0.9042809009552002, 0.9666369557380676, 0.9951921701431274, 0.9939289093017578, 0.9918234944343567, 0.9897505640983582, 0.9581249356269836, 0.9128082394599915, 0.9817425012588501, 0.7440885901451111, 0.8636263012886047, 0.48121190071105957, 0.24105046689510345, 0.1284668743610382, 0.16160708665847778, 0.24791239202022552, 0.20686554908752441, 0.2578965425491333, 0.5452308654785156, 0.20098277926445007, 0.3892049789428711, 0.3894033432006836]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.965432345867157</v>
+        <v>0.9956041574478149</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.6993796000024304</v>
+        <v>0.683478599996306</v>
       </c>
       <c r="J165" t="n">
-        <v>0.005926945762732461</v>
+        <v>0.005792191525392423</v>
       </c>
     </row>
     <row r="166">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[0.2400909662246704, 0.2799523174762726, 0.2896038293838501, 0.24116836488246918, 0.344611793756485, 0.6759328246116638, 0.5546258091926575, 0.9833844900131226, 0.9807248115539551, 0.9885091185569763, 0.9812211990356445, 0.9565995335578918, 0.9302985668182373, 0.9137190580368042, 0.662142276763916, 0.9793061017990112, 0.9282763600349426, 0.641227662563324, 0.6408372521400452, 0.8865870237350464, 0.9942796230316162, 0.9885975122451782, 0.7954195141792297, 0.3376266658306122, 0.7832352519035339, 0.9305546879768372, 0.9199886918067932, 0.7025724649429321, 0.9939415454864502, 0.9608299136161804, 0.9149551391601562, 0.3545464873313904, 0.8965883851051331, 0.9546290636062622, 0.3746366798877716, 0.2857433557510376, 0.36084380745887756, 0.16505499184131622, 0.8701826930046082, 0.9919867515563965, 0.9915518760681152, 0.9188562631607056, 0.7496539354324341, 0.6123141050338745, 0.9305670857429504, 0.9950249791145325, 0.9538151621818542, 0.9937304258346558, 0.9580005407333374, 0.9432861804962158, 0.9128690958023071, 0.958825409412384, 0.9750953912734985, 0.992664098739624, 0.9736965298652649, 0.7328251004219055, 0.8032105565071106, 0.6568377614021301, 0.5478081703186035, 0.9948201179504395, 0.9923022985458374, 0.9921002984046936, 0.995459258556366, 0.9719448089599609, 0.8651249408721924, 0.545149028301239, 0.39004385471343994, 0.7770158052444458, 0.547407329082489, 0.7698268294334412, 0.8648332357406616, 0.9212793707847595, 0.7350749373435974, 0.48666128516197205, 0.6593673825263977, 0.7511141896247864, 0.8512750267982483, 0.647884726524353, 0.948419451713562, 0.9461492896080017, 0.9646481275558472, 0.8804334402084351, 0.868484377861023, 0.9185836911201477, 0.7113380432128906, 0.5923963189125061, 0.9765987396240234, 0.9761124849319458, 0.9491962194442749, 0.9943556785583496, 0.9788269996643066, 0.9714168310165405, 0.9555840492248535, 0.9923233985900879, 0.9293361306190491, 0.9034345149993896, 0.6617509722709656, 0.8894113898277283, 0.599239706993103, 0.5945842862129211, 0.7341722249984741, 0.7994652390480042, 0.9370139241218567, 0.34762856364250183, 0.15742827951908112, 0.5155325531959534, 0.18545588850975037, 0.05110727623105049, 0.03933114930987358, 0.049189917743206024, 0.22381609678268433, 0.24864280223846436, 0.14721404016017914, 0.13509154319763184, 0.1601916253566742, 0.1395016312599182, 0.16142752766609192, 0.16143284738063812]</t>
+          <t>[0.20475786924362183, 0.3270340859889984, 0.48797160387039185, 0.34374770522117615, 0.4343293607234955, 0.8702449798583984, 0.7953421473503113, 0.9989424347877502, 0.9986193180084229, 0.9993317723274231, 0.9984092116355896, 0.9949445128440857, 0.9905153512954712, 0.9919637441635132, 0.9390818476676941, 0.9984951019287109, 0.9961995482444763, 0.9251578450202942, 0.9552080035209656, 0.9961190223693848, 0.9995495676994324, 0.999083399772644, 0.9893849492073059, 0.3877452313899994, 0.9865943193435669, 0.9973313808441162, 0.9952977299690247, 0.9325494766235352, 0.9996809959411621, 0.9988604784011841, 0.9950373768806458, 0.30417242646217346, 0.9926881790161133, 0.9974449872970581, 0.6167493462562561, 0.25153058767318726, 0.41627204418182373, 0.20845456421375275, 0.9966739416122437, 0.9995841383934021, 0.9995508790016174, 0.9976724982261658, 0.9723106026649475, 0.6171663403511047, 0.9977039694786072, 0.9996082186698914, 0.9988535642623901, 0.9994397759437561, 0.9967631101608276, 0.9909699559211731, 0.9825477004051208, 0.9973148703575134, 0.9982598423957825, 0.999354898929596, 0.9976769089698792, 0.9623628258705139, 0.9665138721466064, 0.9527873992919922, 0.8852479457855225, 0.999559223651886, 0.9992994070053101, 0.9992339611053467, 0.9994282126426697, 0.9981206059455872, 0.9968187808990479, 0.9615197777748108, 0.7935500741004944, 0.9799719452857971, 0.9287103414535522, 0.9415620565414429, 0.9879469275474548, 0.9940766096115112, 0.9709269404411316, 0.8497681617736816, 0.977923572063446, 0.9735268354415894, 0.9756616353988647, 0.9657184481620789, 0.9941294193267822, 0.9946480393409729, 0.9936677813529968, 0.978375256061554, 0.989267885684967, 0.9918546676635742, 0.9033812880516052, 0.6843641996383667, 0.9989297986030579, 0.9974274039268494, 0.9940779209136963, 0.9996852874755859, 0.9989515542984009, 0.9984619617462158, 0.996911883354187, 0.9994053840637207, 0.986903190612793, 0.9918436408042908, 0.9339292049407959, 0.995296061038971, 0.8450872898101807, 0.9301719665527344, 0.9155681729316711, 0.8574751019477844, 0.9957637786865234, 0.5403566360473633, 0.06366150081157684, 0.8198432922363281, 0.31007760763168335, 0.01906699128448963, 0.035068441182374954, 0.021451640874147415, 0.12550485134124756, 0.06583328545093536, 0.030656099319458008, 0.02838011272251606, 0.027782006189227104, 0.029329223558306694, 0.03156369552016258, 0.03156871348619461]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.995459258556366</v>
+        <v>0.9996852874755859</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.6937378000002354</v>
+        <v>0.7126114999991842</v>
       </c>
       <c r="J166" t="n">
-        <v>0.00587913389830708</v>
+        <v>0.006039080508467663</v>
       </c>
     </row>
     <row r="167">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[0.9944191575050354, 0.9955970644950867, 0.9910674691200256, 0.992229163646698, 0.9945734143257141, 0.9965856075286865, 0.9955405592918396, 0.9962097406387329, 0.9895602464675903, 0.9902774095535278, 0.9388459324836731, 0.9330489039421082, 0.8501462340354919, 0.6395987868309021, 0.41565194725990295, 0.9336003065109253, 0.9865784049034119, 0.5986340641975403, 0.977978527545929, 0.9526299834251404, 0.9934027791023254, 0.9958497285842896, 0.9962930083274841, 0.989819347858429, 0.9896742701530457, 0.9957782030105591, 0.9857300519943237, 0.9938517808914185, 0.996058464050293, 0.9974108338356018, 0.9969454407691956, 0.9954687356948853, 0.995413601398468, 0.9951404333114624, 0.9962989687919617, 0.9898229837417603, 0.9946788549423218, 0.9960145950317383, 0.9971628785133362, 0.9968949556350708, 0.9983046054840088, 0.9976339340209961, 0.9976410865783691, 0.996012806892395, 0.9965848922729492, 0.9972527623176575, 0.9978961944580078, 0.9969536066055298, 0.9972656965255737, 0.9963809847831726, 0.9930130839347839, 0.9936038851737976, 0.9816282391548157, 0.9308559894561768, 0.9955087900161743, 0.9921464323997498, 0.987929105758667, 0.9883959293365479, 0.9877545237541199, 0.9931640028953552, 0.9962260723114014, 0.9972162246704102, 0.9954314231872559, 0.9942768216133118, 0.9962789416313171, 0.9960278272628784, 0.9915661811828613, 0.9810576438903809, 0.9792519211769104, 0.9949581027030945, 0.996707558631897, 0.9972826242446899, 0.9967526793479919, 0.995807409286499, 0.9981180429458618, 0.9981294274330139, 0.9979908466339111, 0.9981800317764282, 0.9971455931663513, 0.9951217770576477, 0.9955102205276489, 0.9932861924171448, 0.987944483757019, 0.9966267347335815, 0.9941388368606567, 0.9921382069587708, 0.994729220867157, 0.9962425231933594, 0.9959398508071899, 0.9930278658866882, 0.9913619160652161, 0.9950933456420898, 0.9964104294776917, 0.9963053464889526, 0.9949033260345459, 0.9874677658081055, 0.9798752069473267, 0.9586831331253052, 0.9840242266654968, 0.9851757287979126, 0.9761524200439453, 0.942737340927124, 0.9873496890068054, 0.9964972138404846, 0.9950775504112244, 0.9971132278442383, 0.99720698595047, 0.9709135890007019, 0.9641305804252625, 0.9893097877502441, 0.992591142654419, 0.9887047410011292, 0.9876991510391235, 0.9935778379440308, 0.9967259168624878, 0.9963822364807129, 0.9971650242805481, 0.9971780776977539]</t>
+          <t>[0.998967170715332, 0.9993818998336792, 0.9982855916023254, 0.9982374906539917, 0.9985718727111816, 0.9994083642959595, 0.9990291595458984, 0.9993441700935364, 0.9984062314033508, 0.9985164999961853, 0.9918679594993591, 0.9820773601531982, 0.9706050157546997, 0.7162537574768066, 0.35309669375419617, 0.9930550456047058, 0.999321460723877, 0.7902264595031738, 0.9917054176330566, 0.9425361752510071, 0.9986125230789185, 0.9988983869552612, 0.998620867729187, 0.9963853359222412, 0.9974905252456665, 0.9988570213317871, 0.9968966245651245, 0.9984667301177979, 0.9987373948097229, 0.9990962743759155, 0.9986316561698914, 0.9979538917541504, 0.9970310926437378, 0.9983144998550415, 0.9991604089736938, 0.9967091083526611, 0.9978060126304626, 0.9987280964851379, 0.9990566372871399, 0.998724639415741, 0.9995962977409363, 0.9992918968200684, 0.9993035793304443, 0.9989150762557983, 0.9991911053657532, 0.9993649125099182, 0.9994577765464783, 0.9991138577461243, 0.9994761347770691, 0.9992413520812988, 0.9983310103416443, 0.9980303645133972, 0.9955951571464539, 0.9507458806037903, 0.9988746047019958, 0.9985265731811523, 0.9969214797019958, 0.9978992938995361, 0.9977105855941772, 0.9982187151908875, 0.9992783665657043, 0.9996446371078491, 0.9991596937179565, 0.9987188577651978, 0.9995342493057251, 0.9996601343154907, 0.9993137121200562, 0.9975002408027649, 0.9974387884140015, 0.9993444085121155, 0.999636173248291, 0.9996422529220581, 0.9995032548904419, 0.9994183778762817, 0.9996452331542969, 0.9993808269500732, 0.9995710253715515, 0.9995713829994202, 0.9992807507514954, 0.9989230036735535, 0.9987823367118835, 0.996032178401947, 0.9880475997924805, 0.9989867806434631, 0.9980353713035583, 0.9979590177536011, 0.9988777041435242, 0.999126136302948, 0.9994427561759949, 0.9992005228996277, 0.9991641044616699, 0.9990965127944946, 0.9991706609725952, 0.9989957213401794, 0.9988803267478943, 0.9975239634513855, 0.997397780418396, 0.9909177422523499, 0.9986534118652344, 0.9990725517272949, 0.9958468079566956, 0.9933680891990662, 0.9990704655647278, 0.9996579885482788, 0.9993337988853455, 0.9995747208595276, 0.9995859265327454, 0.9903715252876282, 0.9906635284423828, 0.9984989166259766, 0.9991753697395325, 0.9990693926811218, 0.9935922026634216, 0.9963558912277222, 0.9993430972099304, 0.9992002844810486, 0.9992809891700745, 0.9992857575416565]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.9983046054840088</v>
+        <v>0.9996601343154907</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.6781825000070967</v>
+        <v>0.6856969999935245</v>
       </c>
       <c r="J167" t="n">
-        <v>0.00574730932209404</v>
+        <v>0.005810991525368851</v>
       </c>
     </row>
     <row r="168">
@@ -7245,11 +7245,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[0.9377140402793884, 0.9460999965667725, 0.9602734446525574, 0.9245778322219849, 0.9029192924499512, 0.9197868704795837, 0.9566267132759094, 0.9649257659912109, 0.978137731552124, 0.9603340029716492, 0.9271989464759827, 0.9275850653648376, 0.8588697910308838, 0.8658462166786194, 0.9405241012573242, 0.9551810026168823, 0.9429152607917786, 0.9329810738563538, 0.9290885925292969, 0.9254432320594788, 0.9508299827575684, 0.8986267447471619, 0.8730520606040955, 0.8912339806556702, 0.9487372040748596, 0.9739258289337158, 0.9629673361778259, 0.9749744534492493, 0.9557232856750488, 0.949432373046875, 0.9867804646492004, 0.9908143877983093, 0.9807127714157104, 0.9260768890380859, 0.9090451598167419, 0.9571914672851562, 0.9658284187316895, 0.9806244969367981, 0.9726493954658508, 0.8657121658325195, 0.7254328727722168, 0.8775858283042908, 0.9361912608146667, 0.9500070810317993, 0.9494360089302063, 0.9398990869522095, 0.9627127051353455, 0.9415220022201538, 0.9240509271621704, 0.9124566316604614, 0.9044445157051086, 0.904177188873291, 0.9272873997688293, 0.8923863768577576, 0.8449865579605103, 0.6983452439308167, 0.5933739542961121, 0.34635668992996216, 0.36509865522384644, 0.6890186667442322, 0.8884178400039673, 0.9275126457214355, 0.8682484030723572, 0.8983509540557861, 0.9598294496536255, 0.9098095893859863, 0.9622340202331543, 0.8647879958152771, 0.9079483151435852, 0.9659486413002014, 0.9386637806892395, 0.9320052266120911, 0.8052195310592651, 0.6232758164405823, 0.858335554599762, 0.9183246493339539, 0.7497541904449463, 0.8508169651031494, 0.9534267783164978, 0.969126284122467, 0.9787701368331909, 0.9676361680030823, 0.8994961977005005, 0.9264954328536987, 0.919501543045044, 0.9505460858345032, 0.8996842503547668, 0.8916295766830444, 0.9258414506912231, 0.9279261231422424, 0.9745334982872009, 0.9120821952819824, 0.9364888072013855, 0.9154790043830872, 0.9160277247428894, 0.9414299726486206, 0.9351431131362915, 0.9361693263053894, 0.9159907102584839, 0.9441151022911072, 0.967896044254303, 0.9459642171859741, 0.8937710523605347, 0.9379385113716125, 0.9193158149719238, 0.8945301175117493, 0.9119060039520264, 0.9206281304359436, 0.9486091136932373, 0.8318682909011841, 0.8757378458976746, 0.9532583951950073, 0.9413633346557617, 0.9165832996368408, 0.9420478343963623, 0.9544382095336914, 0.9592861533164978, 0.9594781398773193]</t>
+          <t>[0.9407359957695007, 0.9538012146949768, 0.9754231572151184, 0.9666147828102112, 0.9247641563415527, 0.9466013312339783, 0.9745409488677979, 0.9772469997406006, 0.9864903688430786, 0.9890103936195374, 0.967969536781311, 0.9476766586303711, 0.8896987438201904, 0.9058263897895813, 0.9528692364692688, 0.9787101745605469, 0.9713749885559082, 0.9643793106079102, 0.9563435912132263, 0.9525097012519836, 0.9728033542633057, 0.9403303265571594, 0.8943060636520386, 0.9123027324676514, 0.9736764430999756, 0.9879968762397766, 0.9873474836349487, 0.9946534633636475, 0.9876253008842468, 0.9912324547767639, 0.9972622394561768, 0.9981827735900879, 0.9968306422233582, 0.9831081032752991, 0.976344108581543, 0.9898995757102966, 0.9855310916900635, 0.9923669695854187, 0.9887344241142273, 0.872786283493042, 0.6684233546257019, 0.861577033996582, 0.9665921926498413, 0.9712851643562317, 0.9797805547714233, 0.973768413066864, 0.989391028881073, 0.9799239039421082, 0.9596646428108215, 0.9492365121841431, 0.9547709226608276, 0.916744589805603, 0.9641562700271606, 0.8878958225250244, 0.8563242554664612, 0.5701534152030945, 0.41616106033325195, 0.09958626329898834, 0.15583868324756622, 0.5615829229354858, 0.8948900699615479, 0.918360710144043, 0.9114041924476624, 0.9460639357566833, 0.9925112724304199, 0.9707648158073425, 0.9891985058784485, 0.8995513916015625, 0.9695651531219482, 0.993922233581543, 0.9878321290016174, 0.9810563921928406, 0.9322806596755981, 0.5625813603401184, 0.8990551233291626, 0.9669874310493469, 0.7673073410987854, 0.8922610878944397, 0.9883521199226379, 0.9947212934494019, 0.9962261915206909, 0.9947252869606018, 0.9803481698036194, 0.9919717311859131, 0.9872482419013977, 0.9889723658561707, 0.971447229385376, 0.9691616892814636, 0.9707749485969543, 0.982366681098938, 0.994330644607544, 0.9739072322845459, 0.9819436073303223, 0.9758074879646301, 0.9782533049583435, 0.9756490588188171, 0.9823402166366577, 0.9842678904533386, 0.9711200594902039, 0.9806399345397949, 0.9872036576271057, 0.9727105498313904, 0.9592055082321167, 0.9872704744338989, 0.9706193804740906, 0.9717605113983154, 0.9708080887794495, 0.9536839723587036, 0.9835505485534668, 0.8596550822257996, 0.9106769561767578, 0.9805477857589722, 0.9800746440887451, 0.9396953582763672, 0.9568539261817932, 0.9771068692207336, 0.9855115413665771, 0.9855632781982422]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.9908143877983093</v>
+        <v>0.9981827735900879</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.670085600024322</v>
+        <v>0.6611297999916133</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005678691525629848</v>
+        <v>0.005602794915183163</v>
       </c>
     </row>
     <row r="169">
@@ -7285,11 +7285,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[0.7312122583389282, 0.774271547794342, 0.7963566780090332, 0.7241390943527222, 0.669082760810852, 0.6407838463783264, 0.8052310347557068, 0.8705460429191589, 0.6936222910881042, 0.7863836884498596, 0.6081110835075378, 0.9621263146400452, 0.8944724798202515, 0.7555851340293884, 0.84609055519104, 0.7573727965354919, 0.5932849645614624, 0.8275442123413086, 0.7194613814353943, 0.72657310962677, 0.5464310050010681, 0.2346511334180832, 0.573380172252655, 0.9572335481643677, 0.9844441413879395, 0.9243592023849487, 0.9175800085067749, 0.9028643369674683, 0.924800455570221, 0.5310803651809692, 0.5814412236213684, 0.6408335566520691, 0.8788924813270569, 0.9463778138160706, 0.8700194358825684, 0.9121189117431641, 0.7617791891098022, 0.6599279642105103, 0.6052365303039551, 0.6520657539367676, 0.8371846675872803, 0.539692223072052, 0.772097647190094, 0.6217158436775208, 0.7981961369514465, 0.9200103282928467, 0.9671404957771301, 0.761644184589386, 0.7637365460395813, 0.7704401612281799, 0.5515570640563965, 0.7993744015693665, 0.9525766372680664, 0.9473364949226379, 0.9495713114738464, 0.28905653953552246, 0.40590187907218933, 0.3728863298892975, 0.4173870086669922, 0.6121594905853271, 0.8583718538284302, 0.885574996471405, 0.8925635814666748, 0.9315760135650635, 0.9513379335403442, 0.9485509395599365, 0.8691917657852173, 0.8912257552146912, 0.4973669946193695, 0.6401558518409729, 0.7957345247268677, 0.8622899055480957, 0.8263568878173828, 0.7562510967254639, 0.8139331340789795, 0.847924530506134, 0.856959879398346, 0.8979044556617737, 0.9131760001182556, 0.8290914297103882, 0.7716251015663147, 0.7081006765365601, 0.9123327136039734, 0.9324472546577454, 0.9518561959266663, 0.9098902940750122, 0.9657331109046936, 0.8470280170440674, 0.33522462844848633, 0.48946812748908997, 0.5436713099479675, 0.49815478920936584, 0.45624443888664246, 0.5254164338111877, 0.6204223036766052, 0.442014217376709, 0.7485751509666443, 0.6587498784065247, 0.7346388101577759, 0.9426713585853577, 0.8962181210517883, 0.8836081027984619, 0.9491561651229858, 0.7435406446456909, 0.15929114818572998, 0.19428402185440063, 0.4788055121898651, 0.3216516375541687, 0.4788975417613983, 0.2637612521648407, 0.19473257660865784, 0.2018718719482422, 0.13128067553043365, 0.09920250624418259, 0.10337985306978226, 0.30511924624443054, 0.4136110246181488, 0.41367512941360474]</t>
+          <t>[0.5578327775001526, 0.6736117005348206, 0.7440182566642761, 0.5410387516021729, 0.43970733880996704, 0.39999037981033325, 0.8791191577911377, 0.8898776769638062, 0.6977041959762573, 0.7886384725570679, 0.8623014092445374, 0.9950225353240967, 0.9722785353660583, 0.8934503197669983, 0.9151735305786133, 0.5895498394966125, 0.19683842360973358, 0.822163462638855, 0.4180251359939575, 0.3089487850666046, 0.17981316149234772, 0.06142505258321762, 0.20308056473731995, 0.9577130079269409, 0.9925934672355652, 0.9049717783927917, 0.9363621473312378, 0.8261629343032837, 0.9446021318435669, 0.318050742149353, 0.3372175097465515, 0.4629402458667755, 0.8500617146492004, 0.9660062789916992, 0.7765218615531921, 0.9124457240104675, 0.672545850276947, 0.5292168855667114, 0.5535920262336731, 0.4154006838798523, 0.6394427418708801, 0.19182229042053223, 0.42137572169303894, 0.31873905658721924, 0.5207061171531677, 0.6977480053901672, 0.9732005000114441, 0.469341903924942, 0.6535295844078064, 0.3918544352054596, 0.30127784609794617, 0.6243124604225159, 0.9863685965538025, 0.9819570779800415, 0.9857614040374756, 0.06633035838603973, 0.42131507396698, 0.304840087890625, 0.3983290195465088, 0.3724600672721863, 0.876939594745636, 0.8215713500976562, 0.9406034350395203, 0.9658222794532776, 0.9496927857398987, 0.9521535634994507, 0.9463383555412292, 0.9335219860076904, 0.15106326341629028, 0.524143397808075, 0.8728845119476318, 0.9176121950149536, 0.8409069776535034, 0.7520582675933838, 0.8638024926185608, 0.9177145957946777, 0.8137389421463013, 0.9381222128868103, 0.9741465449333191, 0.9322958588600159, 0.7716224193572998, 0.629356861114502, 0.9661855101585388, 0.9702698588371277, 0.9778720736503601, 0.888700544834137, 0.9937653541564941, 0.8808080554008484, 0.10943552106618881, 0.22967839241027832, 0.2858276665210724, 0.25315573811531067, 0.22010350227355957, 0.17454488575458527, 0.4937526285648346, 0.3234522342681885, 0.6847541928291321, 0.5436153411865234, 0.5393543243408203, 0.9376093745231628, 0.734066367149353, 0.6950568556785583, 0.9185708165168762, 0.2964954674243927, 0.034715548157691956, 0.03959663212299347, 0.43815165758132935, 0.23658931255340576, 0.5367789268493652, 0.12953639030456543, 0.08281655609607697, 0.07716198265552521, 0.021446671336889267, 0.01944320648908615, 0.019731681793928146, 0.07844425737857819, 0.15741166472434998, 0.15749481320381165]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9844441413879395</v>
+        <v>0.9950225353240967</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7303,10 +7303,10 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.6495732000039425</v>
+        <v>0.6646578999934718</v>
       </c>
       <c r="J169" t="n">
-        <v>0.005504857627152055</v>
+        <v>0.005632694067741286</v>
       </c>
     </row>
     <row r="170">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[0.7276449203491211, 0.6012681126594543, 0.8899182677268982, 0.631463348865509, 0.512100338935852, 0.2701130509376526, 0.7160806059837341, 0.7288313508033752, 0.3462863862514496, 0.3275584578514099, 0.5984206199645996, 0.4613519310951233, 0.9228343963623047, 0.8800141215324402, 0.7517865300178528, 0.9084781408309937, 0.9746506810188293, 0.991349458694458, 0.9819648861885071, 0.9457761645317078, 0.9405531287193298, 0.9825631380081177, 0.9893725514411926, 0.9837659001350403, 0.9666765332221985, 0.9794122576713562, 0.9890732169151306, 0.9855937361717224, 0.9839508533477783, 0.9026873707771301, 0.8407239317893982, 0.703201413154602, 0.7885701060295105, 0.6722508072853088, 0.6250823736190796, 0.8202797174453735, 0.6480684280395508, 0.6840421557426453, 0.44488343596458435, 0.5040227770805359, 0.7378158569335938, 0.49413159489631653, 0.6152450442314148, 0.5646878480911255, 0.8069038391113281, 0.4576417803764343, 0.48808249831199646, 0.8925137519836426, 0.9193937182426453, 0.9355178475379944, 0.8975762724876404, 0.8871281743049622, 0.9182685017585754, 0.9623193740844727, 0.959186315536499, 0.9618756771087646, 0.8870736956596375, 0.9065654873847961, 0.9710437655448914, 0.9895238280296326, 0.9786091446876526, 0.8845462799072266, 0.9007495641708374, 0.9385157823562622, 0.8013509511947632, 0.9160574078559875, 0.9534763693809509, 0.8631793856620789, 0.6747538447380066, 0.6672071218490601, 0.7303791642189026, 0.5650085806846619, 0.5482109785079956, 0.19893157482147217, 0.364111065864563, 0.9125634431838989, 0.9328396320343018, 0.9610816240310669, 0.944443941116333, 0.9573691487312317, 0.9619067311286926, 0.9625921249389648, 0.9661239385604858, 0.941490113735199, 0.9472888112068176, 0.9550514817237854, 0.9338735342025757, 0.952385425567627, 0.9671264290809631, 0.9532577395439148, 0.9627631306648254, 0.982181966304779, 0.9777565002441406, 0.9732523560523987, 0.9479358792304993, 0.9609687924385071, 0.822219729423523, 0.8408401608467102, 0.6981723308563232, 0.8279240727424622, 0.8768628239631653, 0.847038984298706, 0.9338210821151733, 0.6886646747589111, 0.7580568194389343, 0.907249927520752, 0.6804776191711426, 0.6692690849304199, 0.7744448781013489, 0.8038830161094666, 0.9095714092254639, 0.8289758563041687, 0.9258474111557007, 0.9267056584358215, 0.9061762690544128, 0.9360412359237671, 0.9555050134658813, 0.9555238485336304]</t>
+          <t>[0.42334622144699097, 0.5212081074714661, 0.9297344088554382, 0.7234512567520142, 0.5090844631195068, 0.26181143522262573, 0.7653578519821167, 0.8847700953483582, 0.20776121318340302, 0.2303575575351715, 0.48110756278038025, 0.371534526348114, 0.9394463896751404, 0.8863828778266907, 0.5500994920730591, 0.866592288017273, 0.988307774066925, 0.9965678453445435, 0.9940114617347717, 0.9547017216682434, 0.9686718583106995, 0.9944137334823608, 0.9965201616287231, 0.9957728981971741, 0.9890340566635132, 0.9932437539100647, 0.9960643649101257, 0.9954183101654053, 0.993114173412323, 0.9359859228134155, 0.9172371625900269, 0.6665691137313843, 0.7919379472732544, 0.6294991970062256, 0.44521692395210266, 0.6208834052085876, 0.37643903493881226, 0.6569446325302124, 0.3630816340446472, 0.37015166878700256, 0.7295324802398682, 0.30704572796821594, 0.5185659527778625, 0.31289345026016235, 0.6869286298751831, 0.3703511655330658, 0.4456006586551666, 0.9361079931259155, 0.9748408794403076, 0.9897881746292114, 0.9245061278343201, 0.8486495614051819, 0.9189735054969788, 0.9716083407402039, 0.9490612149238586, 0.9535374045372009, 0.8694581389427185, 0.8890889883041382, 0.9873825907707214, 0.9967010617256165, 0.9853627681732178, 0.9138298630714417, 0.925028920173645, 0.9772496223449707, 0.8350193500518799, 0.9734348654747009, 0.9869788885116577, 0.944909393787384, 0.8142131567001343, 0.7650344371795654, 0.7848581671714783, 0.4806097447872162, 0.4322272837162018, 0.10727052390575409, 0.25172287225723267, 0.9221512675285339, 0.9568617343902588, 0.970687210559845, 0.980317234992981, 0.9847044944763184, 0.9880697131156921, 0.9838647842407227, 0.9889388084411621, 0.950839102268219, 0.9646251797676086, 0.9604097604751587, 0.959793210029602, 0.9779226779937744, 0.984775960445404, 0.9681271910667419, 0.9774462580680847, 0.988223671913147, 0.9924349188804626, 0.9885204434394836, 0.9439904689788818, 0.96861332654953, 0.4565041661262512, 0.6699744462966919, 0.5559351444244385, 0.720323383808136, 0.7171409726142883, 0.8774430155754089, 0.9489445090293884, 0.6293246150016785, 0.7456238865852356, 0.8320353627204895, 0.50099778175354, 0.43278881907463074, 0.6956154108047485, 0.6651363372802734, 0.8712367415428162, 0.8647188544273376, 0.9195594191551208, 0.8962563276290894, 0.8775263428688049, 0.8871018290519714, 0.9517773985862732, 0.951772928237915]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.991349458694458</v>
+        <v>0.9967010617256165</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6512766999949235</v>
+        <v>0.6739706000080332</v>
       </c>
       <c r="J170" t="n">
-        <v>0.005519294067753589</v>
+        <v>0.005711615254305366</v>
       </c>
     </row>
     <row r="171">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[0.9855359196662903, 0.989284336566925, 0.9877997636795044, 0.9874359369277954, 0.9886464476585388, 0.859649121761322, 0.9204229712486267, 0.9536986351013184, 0.8886675238609314, 0.9029830694198608, 0.6395117044448853, 0.2032940685749054, 0.30041375756263733, 0.20340831577777863, 0.3189032971858978, 0.45271173119544983, 0.4399329423904419, 0.45114076137542725, 0.2842535078525543, 0.2699968218803406, 0.26117733120918274, 0.4536842107772827, 0.5216147899627686, 0.8280007243156433, 0.9288788437843323, 0.8107829093933105, 0.7459589242935181, 0.8509923815727234, 0.923024594783783, 0.9531800746917725, 0.9156164526939392, 0.9155418276786804, 0.899712860584259, 0.9444867372512817, 0.9417116045951843, 0.9317111372947693, 0.934999406337738, 0.9291213154792786, 0.8999738693237305, 0.8927096724510193, 0.9614913463592529, 0.8879196047782898, 0.9596390724182129, 0.8653634190559387, 0.8962905406951904, 0.7874817252159119, 0.7868163585662842, 0.43274393677711487, 0.7087767124176025, 0.5958587527275085, 0.7494117021560669, 0.8607129454612732, 0.9688831567764282, 0.966256856918335, 0.9475697875022888, 0.9602482914924622, 0.9206714034080505, 0.9626684188842773, 0.95977783203125, 0.9698087573051453, 0.970678448677063, 0.9626876711845398, 0.9416266083717346, 0.9552282094955444, 0.9282320737838745, 0.9690306782722473, 0.9342561960220337, 0.970786988735199, 0.9308229684829712, 0.8942986130714417, 0.9110045433044434, 0.9022784233093262, 0.830461323261261, 0.8359779119491577, 0.80491042137146, 0.7179746627807617, 0.6277655363082886, 0.6871821880340576, 0.7582234740257263, 0.8580871820449829, 0.8179651498794556, 0.8637648820877075, 0.9424216151237488, 0.9321841597557068, 0.9466464519500732, 0.9612500667572021, 0.9625900983810425, 0.9590674638748169, 0.909373939037323, 0.9094770550727844, 0.9685473442077637, 0.9570990800857544, 0.9681371450424194, 0.9162386059761047, 0.8872976899147034, 0.7725971937179565, 0.8373307585716248, 0.8208817839622498, 0.7785307168960571, 0.9245700240135193, 0.8539203405380249, 0.5925469994544983, 0.6096878051757812, 0.7010213136672974, 0.6939280033111572, 0.7146626114845276, 0.3347069025039673, 0.5413388609886169, 0.6128649711608887, 0.5262201428413391, 0.5822557806968689, 0.7642463445663452, 0.853023111820221, 0.9416356086730957, 0.927354097366333, 0.9390650391578674, 0.9447370171546936, 0.9448325634002686]</t>
+          <t>[0.9931557774543762, 0.9960110187530518, 0.9964963793754578, 0.9957504272460938, 0.9983117580413818, 0.9023705124855042, 0.9760845303535461, 0.9837698936462402, 0.919885516166687, 0.9523765444755554, 0.6199422478675842, 0.10561950504779816, 0.2014334797859192, 0.1018480509519577, 0.22884376347064972, 0.23234522342681885, 0.3195790946483612, 0.28816890716552734, 0.08576134592294693, 0.08867375552654266, 0.10319265723228455, 0.1713775247335434, 0.4399169981479645, 0.88393634557724, 0.9714870452880859, 0.8806653022766113, 0.8940032720565796, 0.9666363000869751, 0.9787640571594238, 0.9790000319480896, 0.9483085870742798, 0.9518430233001709, 0.945370614528656, 0.9819949269294739, 0.9775637984275818, 0.9759837985038757, 0.9809526801109314, 0.9736136794090271, 0.9397212862968445, 0.9562686085700989, 0.9830341339111328, 0.9461938142776489, 0.989517867565155, 0.8472256064414978, 0.9202894568443298, 0.7315767407417297, 0.7403314113616943, 0.1823064386844635, 0.8317930698394775, 0.6643455624580383, 0.6040179133415222, 0.9088860154151917, 0.9903567433357239, 0.9892210364341736, 0.9731786251068115, 0.9846218824386597, 0.9662115573883057, 0.9911320805549622, 0.9930123686790466, 0.9963690042495728, 0.9940604567527771, 0.9903851747512817, 0.9757971167564392, 0.9828369617462158, 0.9762345552444458, 0.9853294491767883, 0.9755145907402039, 0.9914394617080688, 0.9717803597450256, 0.954447865486145, 0.9672091603279114, 0.9638988971710205, 0.896848201751709, 0.8699548244476318, 0.840630054473877, 0.7385409474372864, 0.5374837517738342, 0.6873953342437744, 0.8095607757568359, 0.89142906665802, 0.9066810011863708, 0.9849156141281128, 0.9906359314918518, 0.9907263517379761, 0.9919703006744385, 0.9940550327301025, 0.9942071437835693, 0.9901624917984009, 0.9650561809539795, 0.9785315990447998, 0.9957526922225952, 0.9929133057594299, 0.994412362575531, 0.9876388311386108, 0.9777646660804749, 0.9536876678466797, 0.9621375799179077, 0.9279174208641052, 0.9134852290153503, 0.9901250600814819, 0.9766729474067688, 0.811774730682373, 0.7454105615615845, 0.7203542590141296, 0.7794097065925598, 0.848707914352417, 0.3246326148509979, 0.596302330493927, 0.7671530246734619, 0.4636523127555847, 0.7339152097702026, 0.8647732138633728, 0.9340807199478149, 0.9921627640724182, 0.9876905679702759, 0.9899142980575562, 0.9890933036804199, 0.9891218543052673]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.989284336566925</v>
+        <v>0.9983117580413818</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.6767892999923788</v>
+        <v>0.6843774000008125</v>
       </c>
       <c r="J171" t="n">
-        <v>0.005735502542308295</v>
+        <v>0.005799808474583157</v>
       </c>
     </row>
     <row r="172">
@@ -7405,11 +7405,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[0.990312933921814, 0.993062436580658, 0.996298611164093, 0.9964004755020142, 0.994038462638855, 0.991432785987854, 0.990134060382843, 0.9870386123657227, 0.9911075234413147, 0.9910370111465454, 0.9901089668273926, 0.9766697883605957, 0.9861832857131958, 0.9865076541900635, 0.9935077428817749, 0.9881237149238586, 0.9828121066093445, 0.9816579818725586, 0.974428117275238, 0.9847694635391235, 0.985818088054657, 0.9871013164520264, 0.9798892140388489, 0.984041690826416, 0.990082323551178, 0.9851968288421631, 0.9320531487464905, 0.9646475911140442, 0.9515693187713623, 0.9134895205497742, 0.7788072824478149, 0.48834410309791565, 0.43536922335624695, 0.6414605975151062, 0.8563649654388428, 0.7284284234046936, 0.9428670406341553, 0.9807472825050354, 0.9815481901168823, 0.9917259216308594, 0.9953191876411438, 0.9931691884994507, 0.9970447421073914, 0.9945390820503235, 0.9929607510566711, 0.9962967038154602, 0.9886954426765442, 0.9840812683105469, 0.9914660453796387, 0.9919400811195374, 0.9927690029144287, 0.9842004179954529, 0.9734143018722534, 0.9654300212860107, 0.9846851825714111, 0.9931848645210266, 0.9923904538154602, 0.989000678062439, 0.9896432161331177, 0.992764413356781, 0.9962565898895264, 0.9950281977653503, 0.9962109327316284, 0.9951072931289673, 0.9972707629203796, 0.9894277453422546, 0.9820905327796936, 0.9826382994651794, 0.9852089881896973, 0.9769819378852844, 0.9730520844459534, 0.9684232473373413, 0.8332902789115906, 0.9089062809944153, 0.7009769082069397, 0.7570895552635193, 0.8617376685142517, 0.9008278250694275, 0.8627510070800781, 0.9520101547241211, 0.9838452339172363, 0.9773878455162048, 0.9897764921188354, 0.9827105402946472, 0.9871652126312256, 0.9833239912986755, 0.9868034720420837, 0.9956830739974976, 0.9862022995948792, 0.9723653197288513, 0.8924646377563477, 0.9199598431587219, 0.844901442527771, 0.7151904106140137, 0.4573040008544922, 0.5594050884246826, 0.23970486223697662, 0.1472509354352951, 0.060488395392894745, 0.1252090185880661, 0.1110081821680069, 0.1005617007613182, 0.09156157821416855, 0.12688536942005157, 0.11102835834026337, 0.1239539235830307, 0.13991719484329224, 0.1187327578663826, 0.13898275792598724, 0.11979479342699051, 0.12972953915596008, 0.11571492999792099, 0.11305613815784454, 0.12761151790618896, 0.12763595581054688, 0.12822607159614563, 0.14346875250339508, 0.14220018684864044]</t>
+          <t>[0.9939166903495789, 0.9955446124076843, 0.9986139535903931, 0.9985313415527344, 0.9976218342781067, 0.9982503056526184, 0.9972373247146606, 0.9955442547798157, 0.9964117407798767, 0.9972344040870667, 0.9972780346870422, 0.9909419417381287, 0.995525062084198, 0.9950404763221741, 0.9985141158103943, 0.994862973690033, 0.9895346760749817, 0.9913496971130371, 0.9835469722747803, 0.9929799437522888, 0.9933122992515564, 0.9956914782524109, 0.9905676245689392, 0.9925845265388489, 0.9963138699531555, 0.9931307435035706, 0.9616250395774841, 0.98325115442276, 0.9236939549446106, 0.8975409269332886, 0.5961900949478149, 0.2097800374031067, 0.10660222917795181, 0.25306376814842224, 0.7696608901023865, 0.6331586241722107, 0.9602916836738586, 0.9918164610862732, 0.993644118309021, 0.9976097345352173, 0.9989473223686218, 0.9984951019287109, 0.9990957975387573, 0.9975389242172241, 0.996507465839386, 0.9988439083099365, 0.9943903088569641, 0.9912938475608826, 0.9957696199417114, 0.9972814321517944, 0.9976068735122681, 0.993010938167572, 0.9867947697639465, 0.9828090071678162, 0.9926102757453918, 0.9980977177619934, 0.9987230896949768, 0.9972533583641052, 0.9970600008964539, 0.9971104860305786, 0.9992334842681885, 0.9988117218017578, 0.9976826906204224, 0.9962348341941833, 0.9992241859436035, 0.9941786527633667, 0.9831545352935791, 0.9896388053894043, 0.9925093650817871, 0.9879311323165894, 0.9776989221572876, 0.9619196653366089, 0.8568892478942871, 0.9582309722900391, 0.6219785213470459, 0.7225111126899719, 0.928633451461792, 0.9648499488830566, 0.9346640706062317, 0.9644939303398132, 0.988667905330658, 0.9885889291763306, 0.995853066444397, 0.9876751899719238, 0.9921247363090515, 0.9907699227333069, 0.9940902590751648, 0.9983953833580017, 0.994157075881958, 0.9872006177902222, 0.8851456642150879, 0.9273264408111572, 0.7429556250572205, 0.6339839100837708, 0.17762643098831177, 0.10942097753286362, 0.07516897469758987, 0.0453961007297039, 0.00787793193012476, 0.015980852767825127, 0.016244126483798027, 0.01831667870283127, 0.014267783612012863, 0.018324045464396477, 0.02163613773882389, 0.0209764763712883, 0.022419974207878113, 0.020458422601222992, 0.0240327101200819, 0.01907177083194256, 0.016462545841932297, 0.016023892909288406, 0.016533726826310158, 0.019289802759885788, 0.023721707984805107, 0.020615525543689728, 0.023429324850440025, 0.023239145055413246]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9972707629203796</v>
+        <v>0.9992334842681885</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.6484485000255518</v>
+        <v>0.6716968999971868</v>
       </c>
       <c r="J172" t="n">
-        <v>0.005495326271402981</v>
+        <v>0.005692346610145651</v>
       </c>
     </row>
     <row r="173">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[0.6634693741798401, 0.7788323760032654, 0.6710516810417175, 0.691380500793457, 0.7682415843009949, 0.38675037026405334, 0.24660883843898773, 0.5780870318412781, 0.850622296333313, 0.5651013255119324, 0.4965333938598633, 0.4416399598121643, 0.3303999900817871, 0.4819040596485138, 0.3194986879825592, 0.27589863538742065, 0.42909005284309387, 0.5740341544151306, 0.7854714393615723, 0.7036750912666321, 0.8117532730102539, 0.8246875405311584, 0.7590882182121277, 0.5417410135269165, 0.41749292612075806, 0.3230554461479187, 0.29287654161453247, 0.5591418743133545, 0.3742205500602722, 0.6345617175102234, 0.5805856585502625, 0.46797218918800354, 0.5511950254440308, 0.5209074020385742, 0.43147173523902893, 0.3597938120365143, 0.46917855739593506, 0.38173314929008484, 0.3408062160015106, 0.2850024402141571, 0.3969593346118927, 0.2554893493652344, 0.23747044801712036, 0.28029587864875793, 0.2977196276187897, 0.2859828472137451, 0.478098601102829, 0.6573154330253601, 0.3909532129764557, 0.30462485551834106, 0.4304243326187134, 0.7168951630592346, 0.7075554728507996, 0.5336412191390991, 0.4587146043777466, 0.2743625044822693, 0.24412840604782104, 0.21814419329166412, 0.27959519624710083, 0.28486016392707825, 0.18383589386940002, 0.26700934767723083, 0.45083844661712646, 0.3703313171863556, 0.5318775773048401, 0.7038121819496155, 0.8665603399276733, 0.7434444427490234, 0.876232922077179, 0.8363354802131653, 0.61045902967453, 0.630224883556366, 0.4946676194667816, 0.5002790093421936, 0.42318812012672424, 0.4444149136543274, 0.5649537444114685, 0.6138990521430969, 0.6562404036521912, 0.30805450677871704, 0.3568994402885437, 0.25519585609436035, 0.1160450205206871, 0.09327718615531921, 0.08952377736568451, 0.1295800656080246, 0.18692542612552643, 0.3885291516780853, 0.41911745071411133, 0.2652226984500885, 0.18417204916477203, 0.12797421216964722, 0.08955685794353485, 0.08673913031816483, 0.15712334215641022, 0.1583595722913742, 0.23745661973953247, 0.3167773187160492, 0.262753427028656, 0.29392436146736145, 0.21868114173412323, 0.2665097415447235, 0.19833965599536896, 0.2281436324119568, 0.18062326312065125, 0.15833796560764313, 0.20445916056632996, 0.15905961394309998, 0.12256532907485962, 0.09417229145765305, 0.1084909439086914, 0.0678735226392746, 0.06537113338708878, 0.08230020850896835, 0.09023319184780121, 0.11109041422605515, 0.15287724137306213, 0.13787345588207245, 0.1161753386259079, 0.08218663185834885, 0.08307461440563202, 0.3243899941444397, 0.3757137060165405, 0.16052274405956268, 0.1854872852563858, 0.20143336057662964, 0.24043363332748413, 0.4199889898300171, 0.44219687581062317, 0.5425236225128174, 0.6728528738021851, 0.7942621111869812, 0.7060204148292542, 0.833961546421051, 0.6085776686668396, 0.5631237030029297, 0.1691756397485733, 0.4292404353618622, 0.5930593609809875, 0.5805951952934265, 0.2808745205402374, 0.33446022868156433, 0.47367000579833984, 0.6791059970855713, 0.6219572424888611, 0.4015592038631439, 0.4254719614982605, 0.5604470372200012, 0.3122680187225342, 0.3809870481491089, 0.3915228247642517, 0.831679105758667, 0.9061294198036194, 0.8014761805534363, 0.7697476148605347, 0.5183094143867493, 0.40149033069610596, 0.4012333154678345]</t>
+          <t>[0.40744879841804504, 0.561948835849762, 0.39035388827323914, 0.32126787304878235, 0.5894473195075989, 0.1968177855014801, 0.09815845638513565, 0.33009958267211914, 0.7204877734184265, 0.305644690990448, 0.2629236876964569, 0.3216385245323181, 0.22156472504138947, 0.4842354953289032, 0.2292698472738266, 0.2132413685321808, 0.3187040090560913, 0.5140373706817627, 0.7560605406761169, 0.4507421553134918, 0.7826676368713379, 0.8560584187507629, 0.702521800994873, 0.29902905225753784, 0.1920725256204605, 0.13526704907417297, 0.10052421689033508, 0.2870427966117859, 0.1952904313802719, 0.6455315947532654, 0.5793980956077576, 0.5345104336738586, 0.4560069739818573, 0.3848000168800354, 0.3203217089176178, 0.15318606793880463, 0.18590889871120453, 0.17410822212696075, 0.1874319165945053, 0.11636224389076233, 0.15537066757678986, 0.10517291724681854, 0.09525155276060104, 0.08743441849946976, 0.12671184539794922, 0.13826318085193634, 0.18774715065956116, 0.37663373351097107, 0.14273659884929657, 0.08275800198316574, 0.18734979629516602, 0.3664616346359253, 0.3411816656589508, 0.17251057922840118, 0.1161266341805458, 0.05371050164103508, 0.07764804363250732, 0.06260281801223755, 0.08240813761949539, 0.08447407186031342, 0.05382689833641052, 0.11312475055456161, 0.23717202246189117, 0.17447976768016815, 0.30091458559036255, 0.486050546169281, 0.7491928935050964, 0.549412190914154, 0.8373507857322693, 0.6708346605300903, 0.2900278866291046, 0.3969857394695282, 0.34564873576164246, 0.28834500908851624, 0.23195841908454895, 0.33380281925201416, 0.4445626437664032, 0.3667934238910675, 0.4128744602203369, 0.16720706224441528, 0.19907957315444946, 0.23582901060581207, 0.04900847002863884, 0.043173063546419144, 0.043528538197278976, 0.0755452811717987, 0.09411577135324478, 0.1600724458694458, 0.19437235593795776, 0.1772376447916031, 0.07375632971525192, 0.057429976761341095, 0.0379355363547802, 0.038299623876810074, 0.08284979313611984, 0.08920107036828995, 0.09166762232780457, 0.12163066118955612, 0.09905904531478882, 0.12269590049982071, 0.07054122537374496, 0.07200843840837479, 0.053786903619766235, 0.05254899337887764, 0.045157432556152344, 0.04409618675708771, 0.04716048762202263, 0.042300328612327576, 0.028485886752605438, 0.030548198148608208, 0.03824404254555702, 0.02817048691213131, 0.030988842248916626, 0.033911965787410736, 0.03744523972272873, 0.04671026021242142, 0.0551958829164505, 0.04957656189799309, 0.042564596980810165, 0.028961235657334328, 0.031190020963549614, 0.11441674083471298, 0.15093620121479034, 0.049701839685440063, 0.06449826806783676, 0.07860004156827927, 0.08897370845079422, 0.16038227081298828, 0.25251153111457825, 0.4836074709892273, 0.6256932616233826, 0.8424013257026672, 0.6106805205345154, 0.7769388556480408, 0.4124945402145386, 0.2967420220375061, 0.0871039554476738, 0.20847953855991364, 0.4268229007720947, 0.3713555634021759, 0.10134349018335342, 0.09723080694675446, 0.33226245641708374, 0.5910629034042358, 0.5854406356811523, 0.2103910744190216, 0.19801729917526245, 0.32968682050704956, 0.09286008030176163, 0.1518593430519104, 0.23376783728599548, 0.8725531101226807, 0.9417824745178223, 0.8529878258705139, 0.7004343867301941, 0.3838363289833069, 0.32190677523612976, 0.3230435848236084]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9061294198036194</v>
+        <v>0.9417824745178223</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.9053410000051372</v>
+        <v>0.9348115000029793</v>
       </c>
       <c r="J173" t="n">
-        <v>0.005730006329146438</v>
+        <v>0.005916528481031515</v>
       </c>
     </row>
     <row r="174">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[0.9970779418945312, 0.9961662292480469, 0.9953585267066956, 0.9958246946334839, 0.9960905909538269, 0.994676947593689, 0.9954785704612732, 0.9960982799530029, 0.9935072660446167, 0.9908514618873596, 0.9906060099601746, 0.9931252002716064, 0.9910098314285278, 0.9929065704345703, 0.9938305020332336, 0.9942144751548767, 0.9932136535644531, 0.9933870434761047, 0.9913068413734436, 0.9918965697288513, 0.9796749949455261, 0.9856947064399719, 0.9653734564781189, 0.9346227049827576, 0.8723686337471008, 0.8296498656272888, 0.8522021770477295, 0.9032300114631653, 0.8522445559501648, 0.8904346227645874, 0.9564759731292725, 0.7917085289955139, 0.6958681344985962, 0.7361571788787842, 0.9062340259552002, 0.8411574959754944, 0.7965235114097595, 0.8509911894798279, 0.8820014595985413, 0.9099978804588318, 0.9433616995811462, 0.9487844109535217, 0.9842909574508667, 0.9925887584686279, 0.9926694631576538, 0.9934635162353516, 0.9905106425285339, 0.994325578212738, 0.9912720322608948, 0.9867990612983704, 0.9683720469474792, 0.9007101058959961, 0.8863241672515869, 0.9399300813674927, 0.9472103714942932, 0.9636802077293396, 0.9926971793174744, 0.994737446308136, 0.9944499731063843, 0.9791005253791809, 0.973491907119751, 0.9827951788902283, 0.9801821708679199, 0.9728365540504456, 0.9709385633468628, 0.9834075570106506, 0.9442230463027954, 0.9731013178825378, 0.9559326171875, 0.987418532371521, 0.9786145091056824, 0.9720274806022644, 0.9584146738052368, 0.9406251311302185, 0.8484808802604675, 0.9698071479797363, 0.8997223377227783, 0.9492583274841309, 0.9824088215827942, 0.9849269390106201, 0.9893795847892761, 0.994278073310852, 0.984927773475647, 0.9868064522743225, 0.9805260300636292, 0.9349130988121033, 0.9806904196739197, 0.9877369403839111, 0.9644972681999207, 0.9740967750549316, 0.9627828001976013, 0.9817532300949097, 0.9876105785369873, 0.9912059903144836, 0.9946596026420593, 0.9949086308479309, 0.9929105639457703, 0.992935836315155, 0.994249701499939, 0.9944267272949219, 0.994739830493927, 0.9939814209938049, 0.9849911332130432, 0.9553962349891663, 0.9912310242652893, 0.9955684542655945, 0.9954837560653687, 0.9931471943855286, 0.9913888573646545, 0.9888831973075867, 0.9910810589790344, 0.99082350730896, 0.9929646253585815, 0.9922875165939331, 0.9924240112304688, 0.9903131723403931, 0.9927506446838379, 0.9899343848228455, 0.9898019433021545, 0.9847832322120667, 0.9802852869033813, 0.991266667842865, 0.9873524904251099, 0.9867180585861206, 0.9799302816390991, 0.9872176051139832, 0.9822149872779846, 0.9933258295059204, 0.9911371469497681, 0.9916253685951233, 0.9898257851600647, 0.9895798563957214, 0.9907930493354797, 0.9914724826812744, 0.9932841062545776, 0.9933515191078186, 0.9842455983161926, 0.9846412539482117, 0.9865102171897888, 0.9901345372200012, 0.989657461643219, 0.9769381284713745, 0.9438138604164124, 0.9343412518501282, 0.9744166731834412, 0.970244288444519, 0.9605444073677063, 0.9534971117973328, 0.9528659582138062, 0.9709643721580505, 0.9877563714981079, 0.9834526181221008, 0.9780001044273376, 0.9598122239112854, 0.9615883231163025, 0.9492220878601074, 0.949442446231842]</t>
+          <t>[0.9990703463554382, 0.9985839128494263, 0.9988642930984497, 0.9987227320671082, 0.9989427924156189, 0.9987251162528992, 0.9988613128662109, 0.9991970658302307, 0.9984979629516602, 0.9977880716323853, 0.998377799987793, 0.9984135627746582, 0.997928261756897, 0.9981874823570251, 0.9987725615501404, 0.9986472725868225, 0.998259961605072, 0.9986075758934021, 0.9981642365455627, 0.9987117052078247, 0.9971545934677124, 0.9972100853919983, 0.9947023987770081, 0.9882643222808838, 0.9473063349723816, 0.9245038628578186, 0.9503782987594604, 0.9556394815444946, 0.9527161717414856, 0.9740162491798401, 0.9945480227470398, 0.8741366863250732, 0.7073860764503479, 0.752631425857544, 0.9391240477561951, 0.8804028034210205, 0.8381397724151611, 0.9191109538078308, 0.9238042235374451, 0.9688684940338135, 0.9858729839324951, 0.9863973259925842, 0.9965718984603882, 0.9979960918426514, 0.9984939098358154, 0.9986633062362671, 0.9969927072525024, 0.9984148740768433, 0.9974039196968079, 0.9955723285675049, 0.9827219843864441, 0.9276219010353088, 0.920708179473877, 0.98665851354599, 0.9918129444122314, 0.992297351360321, 0.9987388253211975, 0.9990196228027344, 0.9989827275276184, 0.9957165122032166, 0.9922900795936584, 0.9941502213478088, 0.9915919303894043, 0.9775646328926086, 0.9932819604873657, 0.9973651766777039, 0.9842608571052551, 0.9936752915382385, 0.9874438643455505, 0.9972611665725708, 0.9930227994918823, 0.9869076013565063, 0.9845970273017883, 0.9834418892860413, 0.953677773475647, 0.9937191009521484, 0.9748443961143494, 0.9906131029129028, 0.9940034747123718, 0.9927114248275757, 0.9939571619033813, 0.9972983002662659, 0.9895358681678772, 0.9902710914611816, 0.9832836389541626, 0.9282323122024536, 0.9878031611442566, 0.9939872026443481, 0.9781002402305603, 0.9881446361541748, 0.9762213826179504, 0.9821693301200867, 0.9938655495643616, 0.9958195686340332, 0.9982307553291321, 0.9982424974441528, 0.9973651766777039, 0.9987373948097229, 0.9984582662582397, 0.999056875705719, 0.9989192485809326, 0.9984596967697144, 0.9930920600891113, 0.9662132263183594, 0.9966524243354797, 0.9984208345413208, 0.9986068606376648, 0.9981253743171692, 0.9970820546150208, 0.9942920207977295, 0.9973439574241638, 0.9979504942893982, 0.9986615180969238, 0.9977439641952515, 0.997285008430481, 0.9955694079399109, 0.9957956075668335, 0.9939773082733154, 0.9923770427703857, 0.9925482869148254, 0.9932100176811218, 0.9961370825767517, 0.9954238533973694, 0.9935020804405212, 0.9902698993682861, 0.9955431818962097, 0.9968734383583069, 0.9989595413208008, 0.9984039664268494, 0.9983959794044495, 0.9981182813644409, 0.9967154264450073, 0.9974294304847717, 0.9974687099456787, 0.9983657002449036, 0.9985042810440063, 0.9933884143829346, 0.990921676158905, 0.9949190020561218, 0.9954291582107544, 0.9965789914131165, 0.9904313683509827, 0.9620398283004761, 0.9521320462226868, 0.9863146543502808, 0.98310387134552, 0.9720417857170105, 0.9704134464263916, 0.9759949445724487, 0.9855068922042847, 0.9948168396949768, 0.9871167540550232, 0.9841343760490417, 0.9866134524345398, 0.977120041847229, 0.9843990802764893, 0.984387993812561]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9970779418945312</v>
+        <v>0.9991970658302307</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.8749302999931388</v>
+        <v>0.8860885000030976</v>
       </c>
       <c r="J174" t="n">
-        <v>0.005572804458555024</v>
+        <v>0.005643875796198074</v>
       </c>
     </row>
     <row r="175">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[0.8281733989715576, 0.9006483554840088, 0.8787022233009338, 0.9355221390724182, 0.8371857404708862, 0.7545098662376404, 0.9000163674354553, 0.9287360906600952, 0.9186355471611023, 0.9603362083435059, 0.9198830127716064, 0.8517776727676392, 0.6012395024299622, 0.5488012433052063, 0.7718695402145386, 0.7920547127723694, 0.7405282258987427, 0.7118778824806213, 0.7154228091239929, 0.6518372297286987, 0.6928395628929138, 0.7814313769340515, 0.7018603682518005, 0.6426856517791748, 0.7242180705070496, 0.8139808773994446, 0.8075380325317383, 0.748037576675415, 0.7996928095817566, 0.6700717806816101, 0.5573126077651978, 0.7053646445274353, 0.6287022233009338, 0.7766358256340027, 0.8582905530929565, 0.845745861530304, 0.8339091539382935, 0.8806504011154175, 0.8528583645820618, 0.7934058904647827, 0.6751295328140259, 0.8791732788085938, 0.9109731912612915, 0.8042606711387634, 0.7407774329185486, 0.7955788969993591, 0.8781810998916626, 0.9088150262832642, 0.9000040888786316, 0.8293737769126892, 0.8799331784248352, 0.9526423811912537, 0.9419667720794678, 0.8783146142959595, 0.8971090316772461, 0.9442647099494934, 0.9418308734893799, 0.9538737535476685, 0.9489561319351196, 0.9555696845054626, 0.8832347989082336, 0.9000767469406128, 0.8395395874977112, 0.8773312568664551, 0.7654054760932922, 0.7642552256584167, 0.7448190450668335, 0.8050106167793274, 0.8650853633880615, 0.9488943219184875, 0.9157296419143677, 0.9253641366958618, 0.9036015868186951, 0.8586085438728333, 0.8229378461837769, 0.7874792218208313, 0.8472607731819153, 0.8527836203575134, 0.7944554090499878, 0.7846387624740601, 0.6559460759162903, 0.8138747811317444, 0.8206360936164856, 0.8157485127449036, 0.8222056031227112, 0.9033442139625549, 0.9035165309906006, 0.8675862550735474, 0.8716628551483154, 0.7879111766815186, 0.8500543236732483, 0.9292070269584656, 0.8646426200866699, 0.8082931041717529, 0.8283119797706604, 0.7124255299568176, 0.5341910123825073, 0.6539660692214966, 0.7190188765525818, 0.6746253967285156, 0.4146636426448822, 0.5990381836891174, 0.6164435148239136, 0.7172686457633972, 0.8445594906806946, 0.6862121224403381, 0.830716609954834, 0.8695260882377625, 0.9450674057006836, 0.9423941969871521, 0.9140713214874268, 0.9283893704414368, 0.9052296280860901, 0.8500277996063232, 0.8313760161399841, 0.846998929977417, 0.9553303718566895, 0.8547412157058716, 0.8240043520927429, 0.6296566128730774, 0.5097126364707947, 0.76291823387146, 0.6160545349121094, 0.7062612175941467, 0.7137015461921692, 0.66403728723526, 0.5992136597633362, 0.6062736511230469, 0.7085097432136536, 0.576917290687561, 0.47624775767326355, 0.7897130250930786, 0.8781463503837585, 0.9519824981689453, 0.9399768114089966, 0.9030498266220093, 0.878261387348175, 0.9113709330558777, 0.8049662709236145, 0.8434925675392151, 0.667952299118042, 0.8356627821922302, 0.8826267123222351, 0.8170884847640991, 0.7357054948806763, 0.8478807210922241, 0.8065171241760254, 0.9416879415512085, 0.962378740310669, 0.9061695337295532, 0.9400202035903931, 0.9465562701225281, 0.8951523900032043, 0.8246095776557922, 0.9088811874389648, 0.9457895755767822, 0.9457446932792664]</t>
+          <t>[0.7996086478233337, 0.9290320873260498, 0.8833647966384888, 0.9395383596420288, 0.75571209192276, 0.6505464315414429, 0.9369251132011414, 0.9509755969047546, 0.9471942186355591, 0.9865666031837463, 0.9582662582397461, 0.849915623664856, 0.5549023151397705, 0.545851469039917, 0.7856720089912415, 0.7423234581947327, 0.6359198093414307, 0.6648918986320496, 0.6445354223251343, 0.632696807384491, 0.6516045928001404, 0.7803058624267578, 0.7060626745223999, 0.6147907376289368, 0.8204203844070435, 0.9116930365562439, 0.9343703389167786, 0.9150320887565613, 0.9288526773452759, 0.8156413435935974, 0.7752054333686829, 0.8265761137008667, 0.7644504308700562, 0.8534399271011353, 0.9211702942848206, 0.909060537815094, 0.8759634494781494, 0.8894410133361816, 0.8613559007644653, 0.8471519351005554, 0.7341321706771851, 0.8803282976150513, 0.904056191444397, 0.7450918555259705, 0.6818075180053711, 0.7249227166175842, 0.907985270023346, 0.9415946006774902, 0.9073081016540527, 0.7666452527046204, 0.8489180207252502, 0.9774301052093506, 0.9673119783401489, 0.8411981463432312, 0.9263655543327332, 0.9661942720413208, 0.942110002040863, 0.9826833009719849, 0.9860559701919556, 0.9794164896011353, 0.8553054332733154, 0.9241489171981812, 0.9026319980621338, 0.8753581643104553, 0.7295199036598206, 0.7284322381019592, 0.7674072980880737, 0.835089921951294, 0.842293381690979, 0.9621206521987915, 0.9386682510375977, 0.9646017551422119, 0.9294450879096985, 0.8697954416275024, 0.7990692257881165, 0.7354016304016113, 0.8595946431159973, 0.8681589961051941, 0.6889423727989197, 0.5955027341842651, 0.494936466217041, 0.732011616230011, 0.7037140727043152, 0.6340404748916626, 0.6684156060218811, 0.8077443242073059, 0.7960346937179565, 0.6721190810203552, 0.7419002056121826, 0.7003309726715088, 0.8104208707809448, 0.9681639075279236, 0.9419935345649719, 0.8696160912513733, 0.9103818535804749, 0.7976142764091492, 0.5134322643280029, 0.6141616106033325, 0.7886487245559692, 0.5824892520904541, 0.29771512746810913, 0.4795433580875397, 0.548019528388977, 0.8087506294250488, 0.9274253845214844, 0.7208885550498962, 0.8871340155601501, 0.9118390083312988, 0.9841513633728027, 0.9568992853164673, 0.8774210214614868, 0.8978554010391235, 0.871330738067627, 0.7821597456932068, 0.8401640057563782, 0.8336736559867859, 0.9836363196372986, 0.8622485399246216, 0.844974160194397, 0.5810381174087524, 0.42844197154045105, 0.7132323384284973, 0.5556498765945435, 0.5370850563049316, 0.6399812698364258, 0.6931396126747131, 0.7100088596343994, 0.48296689987182617, 0.5780297517776489, 0.41869160532951355, 0.4299166798591614, 0.8991154432296753, 0.976742684841156, 0.9872389435768127, 0.9691882133483887, 0.9218884706497192, 0.8534575700759888, 0.8997940421104431, 0.7863115668296814, 0.7304283976554871, 0.4685768187046051, 0.7750581502914429, 0.8775340914726257, 0.6471792459487915, 0.5877891182899475, 0.8052647709846497, 0.7581160664558411, 0.9523121118545532, 0.9758662581443787, 0.9089207649230957, 0.9486618638038635, 0.9696957468986511, 0.916719913482666, 0.865902304649353, 0.9095664024353027, 0.9386059641838074, 0.9385659694671631]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9623787403106689</v>
+        <v>0.9872389435768127</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.8834157999954186</v>
+        <v>0.894740500007174</v>
       </c>
       <c r="J175" t="n">
-        <v>0.005626852229270183</v>
+        <v>0.005698984076478815</v>
       </c>
     </row>
     <row r="176">
@@ -7565,11 +7565,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[0.7853017449378967, 0.7308996915817261, 0.44621559977531433, 0.590554416179657, 0.5792618989944458, 0.8184036612510681, 0.7164553999900818, 0.6798160076141357, 0.4696548879146576, 0.5697324872016907, 0.8829362988471985, 0.8979745507240295, 0.5941684246063232, 0.5711101293563843, 0.43174055218696594, 0.6187998652458191, 0.6763508915901184, 0.7172664403915405, 0.5581613183021545, 0.6721910834312439, 0.6660736799240112, 0.5198594927787781, 0.6919333338737488, 0.6127272248268127, 0.3936561346054077, 0.4286579489707947, 0.3975065350532532, 0.4142763614654541, 0.27486807107925415, 0.3735446035861969, 0.5419217944145203, 0.771328866481781, 0.7736614942550659, 0.659304678440094, 0.6631951332092285, 0.645391583442688, 0.5212819576263428, 0.37904611229896545, 0.359424889087677, 0.26224425435066223, 0.3531360626220703, 0.8037782907485962, 0.8219683766365051, 0.8541455864906311, 0.8406148552894592, 0.6888657808303833, 0.7239673733711243, 0.8535417914390564, 0.7713319063186646, 0.8243618607521057, 0.742987871170044, 0.6084910035133362, 0.6800674796104431, 0.6719173789024353, 0.8559322953224182, 0.7922479510307312, 0.6333164572715759, 0.6834390759468079, 0.735024631023407, 0.7677506804466248, 0.6717535257339478, 0.7403613924980164, 0.7174859046936035, 0.7366713881492615, 0.6846552491188049, 0.5559489727020264, 0.5574697852134705, 0.4662255644798279, 0.7990284562110901, 0.6874729990959167, 0.8144454956054688, 0.6403639316558838, 0.49474552273750305, 0.5007269978523254, 0.803593099117279, 0.79561847448349, 0.742286741733551, 0.6842225193977356, 0.5413123965263367, 0.5597026944160461, 0.6527726650238037, 0.5938999652862549, 0.7202057242393494, 0.8251730799674988, 0.4699152410030365, 0.25159844756126404, 0.3047367334365845, 0.390544056892395, 0.43769019842147827, 0.620979905128479, 0.5145542621612549, 0.43790361285209656, 0.3869788348674774, 0.4228365123271942, 0.45713773369789124, 0.45134904980659485, 0.6511000990867615, 0.8419474363327026, 0.8458298444747925, 0.7762223482131958, 0.8385159969329834, 0.6191357970237732, 0.5143808126449585, 0.597233235836029, 0.6954966187477112, 0.6625291705131531, 0.8068286776542664, 0.6511809229850769, 0.6521033048629761, 0.7283220887184143, 0.6354456543922424, 0.49736836552619934, 0.630662202835083, 0.6748672127723694, 0.7030389904975891, 0.5095889568328857, 0.5690163373947144, 0.8023994565010071, 0.7708752751350403, 0.8166230916976929, 0.8782585859298706, 0.9415520429611206, 0.8813392519950867, 0.8591600656509399, 0.5815553665161133, 0.600571870803833, 0.6978862285614014, 0.5851870775222778, 0.7584380507469177, 0.6369690895080566, 0.7160581350326538, 0.823045015335083, 0.8599970936775208, 0.800463080406189, 0.7485178112983704, 0.6234470009803772, 0.8050360083580017, 0.5420940518379211, 0.3971180021762848, 0.4169708788394928, 0.5623970627784729, 0.6666385531425476, 0.6930815577507019, 0.5411322116851807, 0.490421324968338, 0.6537755131721497, 0.7651439309120178, 0.7974973917007446, 0.906458854675293, 0.8462709784507751, 0.765937089920044, 0.7433342337608337, 0.8195019364356995, 0.7866065502166748, 0.8810355067253113, 0.8381316065788269, 0.6860511302947998, 0.6860594153404236]</t>
+          <t>[0.8791331052780151, 0.8169436454772949, 0.5299547910690308, 0.6839559078216553, 0.7528010606765747, 0.9734184741973877, 0.8863413333892822, 0.7835693359375, 0.4925457835197449, 0.7448588609695435, 0.9277684688568115, 0.9497995972633362, 0.744375467300415, 0.7587442398071289, 0.49478739500045776, 0.7094981074333191, 0.7815590500831604, 0.8193126320838928, 0.7694951295852661, 0.8456721901893616, 0.8202016949653625, 0.7235552072525024, 0.845655620098114, 0.8698534369468689, 0.5986011624336243, 0.603530764579773, 0.5652233362197876, 0.6537432670593262, 0.36548805236816406, 0.6422953009605408, 0.823376476764679, 0.9444023966789246, 0.8933799266815186, 0.8466818332672119, 0.8820403814315796, 0.8314708471298218, 0.7425861954689026, 0.6259952187538147, 0.5920622944831848, 0.4377998411655426, 0.4420125186443329, 0.8851698040962219, 0.8880359530448914, 0.9293051362037659, 0.9150902628898621, 0.7959926128387451, 0.8456459045410156, 0.9253416657447815, 0.8836401700973511, 0.9588684439659119, 0.9382252097129822, 0.9130491614341736, 0.872433602809906, 0.8314938545227051, 0.957902193069458, 0.9250357151031494, 0.8726882934570312, 0.9275304079055786, 0.9330596923828125, 0.8827968835830688, 0.7988442182540894, 0.8710814714431763, 0.8968807458877563, 0.9181686043739319, 0.9236148595809937, 0.8484031558036804, 0.8013071417808533, 0.659483015537262, 0.9440784454345703, 0.8875186443328857, 0.9417808651924133, 0.8218270540237427, 0.6327809691429138, 0.5024107098579407, 0.8179104924201965, 0.8705577850341797, 0.8232210874557495, 0.8397200703620911, 0.6243629455566406, 0.6020402312278748, 0.7822163701057434, 0.6793091893196106, 0.8028247952461243, 0.8782082796096802, 0.4932593107223511, 0.23698344826698303, 0.2631048262119293, 0.333732545375824, 0.4254372715950012, 0.6641456484794617, 0.4384952783584595, 0.5096883773803711, 0.2977982759475708, 0.30391308665275574, 0.43722110986709595, 0.47185200452804565, 0.6758867502212524, 0.87406325340271, 0.8886628746986389, 0.8972369432449341, 0.8938744068145752, 0.7436793446540833, 0.629339873790741, 0.7565956711769104, 0.8303298354148865, 0.7625960111618042, 0.8935636878013611, 0.7775197625160217, 0.8235316872596741, 0.8975188732147217, 0.8069859147071838, 0.7780871987342834, 0.8501750826835632, 0.8920606970787048, 0.8860945105552673, 0.8640717267990112, 0.8823190927505493, 0.9785842299461365, 0.9652230739593506, 0.9608228206634521, 0.9722709655761719, 0.9847474098205566, 0.9732397198677063, 0.9701961278915405, 0.7957977652549744, 0.7956916093826294, 0.8928118348121643, 0.7914760112762451, 0.9302368760108948, 0.909464955329895, 0.9477007389068604, 0.9718798398971558, 0.9846499562263489, 0.9747259020805359, 0.9624186158180237, 0.8929560780525208, 0.9405827522277832, 0.7952104806900024, 0.6372070908546448, 0.64201420545578, 0.798751950263977, 0.8476248979568481, 0.9062480330467224, 0.7693390250205994, 0.6057211756706238, 0.8841448426246643, 0.897864043712616, 0.8746264576911926, 0.9429897665977478, 0.9135041236877441, 0.8915439248085022, 0.8541274666786194, 0.9191941618919373, 0.8797205686569214, 0.9392088651657104, 0.913547933101654, 0.8829767107963562, 0.8829434514045715]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.9415520429611206</v>
+        <v>0.9847474098205566</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.8743934000085574</v>
+        <v>0.8939900999976089</v>
       </c>
       <c r="J176" t="n">
-        <v>0.005534135443092135</v>
+        <v>0.005658165189858284</v>
       </c>
     </row>
     <row r="177">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[0.9841079711914062, 0.9776366353034973, 0.9848994016647339, 0.9893817901611328, 0.9932328462600708, 0.9922726154327393, 0.9942479133605957, 0.989933431148529, 0.9875805377960205, 0.9794024229049683, 0.9755472540855408, 0.986911416053772, 0.9893819093704224, 0.9900640845298767, 0.9805893898010254, 0.9878631830215454, 0.977486789226532, 0.9060388803482056, 0.7984314560890198, 0.86202073097229, 0.8986024856567383, 0.9537279009819031, 0.992010235786438, 0.9910355806350708, 0.9926713705062866, 0.9940568208694458, 0.9841485023498535, 0.9847478270530701, 0.982255220413208, 0.9862047433853149, 0.9847071766853333, 0.979973316192627, 0.986484706401825, 0.9916813969612122, 0.9939795732498169, 0.9844728112220764, 0.9926090836524963, 0.9561803936958313, 0.8814885020256042, 0.794902503490448, 0.6041147708892822, 0.7693324685096741, 0.7685248255729675, 0.56415855884552, 0.7177590727806091, 0.830400824546814, 0.9094773530960083, 0.8842481970787048, 0.9778056144714355, 0.9641467332839966, 0.761432945728302, 0.657072126865387, 0.49624893069267273, 0.4925439953804016, 0.5504772067070007, 0.8353776931762695, 0.8238433003425598, 0.7279422283172607, 0.8477284908294678, 0.8192606568336487, 0.7653555274009705, 0.6972967386245728, 0.6633651852607727, 0.833526074886322, 0.9694799780845642, 0.9780954122543335, 0.9702574014663696, 0.8449879884719849, 0.5368232131004333, 0.4259258210659027, 0.5878509879112244, 0.610193133354187, 0.5921775102615356, 0.6751550436019897, 0.4395315647125244, 0.5173654556274414, 0.7991846203804016, 0.6748008131980896, 0.8375260233879089, 0.96442711353302, 0.9865249395370483, 0.9741308689117432, 0.9808297157287598, 0.97995924949646, 0.9459854960441589, 0.9693760275840759, 0.9555982947349548, 0.9794532656669617, 0.9419465661048889, 0.9194554090499878, 0.7422443628311157, 0.869228720664978, 0.5639342069625854, 0.7127251625061035, 0.8567126989364624, 0.8246654272079468, 0.9754056930541992, 0.9672123789787292, 0.9754661321640015, 0.9536876678466797, 0.8739542365074158, 0.8482885360717773, 0.613003671169281, 0.5463048219680786, 0.3859294652938843, 0.387940913438797, 0.895696222782135, 0.991483747959137, 0.9885110855102539, 0.9805048108100891, 0.987206757068634, 0.9783343076705933, 0.9786447286605835, 0.9925897121429443, 0.9831075668334961, 0.3360750079154968, 0.3204677402973175, 0.5487303137779236, 0.4821367859840393, 0.690766453742981, 0.5881727337837219, 0.47217077016830444, 0.42592376470565796, 0.4361727237701416, 0.5707830786705017, 0.48160889744758606, 0.6290759444236755, 0.6921984553337097, 0.6465017199516296, 0.8197253942489624, 0.7278333902359009, 0.5611176490783691, 0.4637118875980377, 0.4753037691116333, 0.26421836018562317, 0.24401991069316864, 0.26828792691230774, 0.5161285996437073, 0.7295264005661011, 0.8831408619880676, 0.9032533764839172, 0.7995896935462952, 0.8798134922981262, 0.6523073315620422, 0.9148586392402649, 0.9501228332519531, 0.9386041760444641, 0.7911052107810974, 0.6688508987426758, 0.7951929569244385, 0.645179808139801, 0.984329104423523, 0.9943718910217285, 0.9966861605644226, 0.9956402778625488, 0.9959726929664612, 0.9954943656921387, 0.9955052137374878]</t>
+          <t>[0.9937792420387268, 0.989416778087616, 0.9885870814323425, 0.996298611164093, 0.9978677034378052, 0.9984747767448425, 0.9986012578010559, 0.9976927042007446, 0.9952477812767029, 0.9915614724159241, 0.9915068745613098, 0.9941797256469727, 0.997978150844574, 0.9971185922622681, 0.9958945512771606, 0.9972047209739685, 0.9965739250183105, 0.9544159770011902, 0.9027666449546814, 0.9163311719894409, 0.927422821521759, 0.9813187718391418, 0.9979541301727295, 0.9977626800537109, 0.99835604429245, 0.9984563589096069, 0.9967789053916931, 0.9963777661323547, 0.990066647529602, 0.989371657371521, 0.9912902116775513, 0.9912928938865662, 0.9940343499183655, 0.9969968795776367, 0.9982956051826477, 0.9913365840911865, 0.9973305463790894, 0.9858330488204956, 0.8520532250404358, 0.3475179076194763, 0.2202080935239792, 0.3732960820198059, 0.4633253812789917, 0.15524038672447205, 0.32640066742897034, 0.7319991588592529, 0.8700296878814697, 0.8646771311759949, 0.9893207550048828, 0.9875450730323792, 0.6803917288780212, 0.3656536638736725, 0.23447012901306152, 0.3291199505329132, 0.25992774963378906, 0.6774595975875854, 0.7794491052627563, 0.70691978931427, 0.8120036721229553, 0.8631296157836914, 0.8238676190376282, 0.7880533933639526, 0.5525509715080261, 0.6363182663917542, 0.9705487489700317, 0.983253538608551, 0.9413443207740784, 0.6265174746513367, 0.21132931113243103, 0.09775177389383316, 0.16664065420627594, 0.29677343368530273, 0.27081215381622314, 0.29041653871536255, 0.17081978917121887, 0.1673944890499115, 0.3571666479110718, 0.23686276376247406, 0.5586630702018738, 0.9668602347373962, 0.9922885298728943, 0.9717246294021606, 0.9854987859725952, 0.9824733734130859, 0.9225319623947144, 0.9839143753051758, 0.9574548006057739, 0.9858714938163757, 0.954861581325531, 0.9237176775932312, 0.5777766108512878, 0.8460285067558289, 0.2909224331378937, 0.31136927008628845, 0.5705231428146362, 0.5030381679534912, 0.964590311050415, 0.9864615797996521, 0.9858786463737488, 0.9571389555931091, 0.790702760219574, 0.6975894570350647, 0.23529468476772308, 0.23160181939601898, 0.17109104990959167, 0.2763552665710449, 0.9469199180603027, 0.9951360821723938, 0.9916790127754211, 0.9703443050384521, 0.984711766242981, 0.9846265912055969, 0.9812706708908081, 0.9951642751693726, 0.993899941444397, 0.31519371271133423, 0.14186996221542358, 0.34100839495658875, 0.35147953033447266, 0.6870006918907166, 0.5180315971374512, 0.3770736753940582, 0.41364479064941406, 0.4712037742137909, 0.3284454345703125, 0.45853695273399353, 0.4227449297904968, 0.5828094482421875, 0.4384620487689972, 0.6421430706977844, 0.2966378927230835, 0.12308389693498611, 0.13923604786396027, 0.13313715159893036, 0.0494677759706974, 0.05805953964591026, 0.08945544064044952, 0.1421951949596405, 0.210052952170372, 0.4674190282821655, 0.8355714082717896, 0.691604733467102, 0.869107723236084, 0.41154059767723083, 0.7939221262931824, 0.9015317559242249, 0.630361020565033, 0.2039509117603302, 0.2792052924633026, 0.8273886442184448, 0.7089771628379822, 0.9932435154914856, 0.9986265897750854, 0.999021053314209, 0.9981504082679749, 0.9984037280082703, 0.9978650212287903, 0.9978762865066528]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9966861605644226</v>
+        <v>0.999021053314209</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.8643802999868058</v>
+        <v>0.876143300003605</v>
       </c>
       <c r="J177" t="n">
-        <v>0.005470761392321556</v>
+        <v>0.005545210759516487</v>
       </c>
     </row>
     <row r="178">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[0.6777468323707581, 0.6185014247894287, 0.6378137469291687, 0.8150302767753601, 0.5905224084854126, 0.6910519003868103, 0.5243117809295654, 0.5764679908752441, 0.34711164236068726, 0.4095194637775421, 0.15913400053977966, 0.16956652700901031, 0.3478151261806488, 0.5600194931030273, 0.6855078935623169, 0.6802191138267517, 0.6882259249687195, 0.747669517993927, 0.7200760841369629, 0.5824721455574036, 0.6488261222839355, 0.5908897519111633, 0.7246091365814209, 0.809727132320404, 0.7715708613395691, 0.8155819177627563, 0.8894146680831909, 0.8996646404266357, 0.8824257254600525, 0.9060152769088745, 0.9336706399917603, 0.8599319458007812, 0.770732581615448, 0.5792223811149597, 0.42136144638061523, 0.18894162774085999, 0.19107535481452942, 0.1824927181005478, 0.26581504940986633, 0.4908543527126312, 0.6559531688690186, 0.7566355466842651, 0.6934478282928467, 0.47101524472236633, 0.828721821308136, 0.7580888867378235, 0.7075106501579285, 0.6181492805480957, 0.42201778292655945, 0.2939763069152832, 0.36043158173561096, 0.3460403382778168, 0.718470573425293, 0.36154842376708984, 0.2741875946521759, 0.6032333970069885, 0.6057750582695007, 0.6995581388473511, 0.9248823523521423, 0.7927002906799316, 0.6872808933258057, 0.609251081943512, 0.5333659052848816, 0.5783218145370483, 0.10456372797489166, 0.06761492788791656, 0.28556641936302185, 0.13882113993167877, 0.09560882300138474, 0.061672717332839966, 0.09258444607257843, 0.2998802959918976, 0.3223866820335388, 0.40241000056266785, 0.5458669662475586, 0.3630523085594177, 0.2364799529314041, 0.37072762846946716, 0.39973658323287964, 0.48571139574050903, 0.3889915347099304, 0.17677880823612213, 0.2799373269081116, 0.12815025448799133, 0.2135510891675949, 0.4965949058532715, 0.7782783508300781, 0.7991013526916504, 0.845677375793457, 0.6100823283195496, 0.6902907490730286, 0.6533479690551758, 0.5281311273574829, 0.3583650588989258, 0.32946503162384033, 0.33337846398353577, 0.8172950744628906, 0.7206791639328003, 0.894814133644104, 0.9157801270484924, 0.8533576130867004, 0.8359411954879761, 0.4670664072036743, 0.6421937346458435, 0.47660011053085327, 0.5277007818222046, 0.5819675922393799, 0.6803293228149414, 0.7092917561531067, 0.8171831369400024, 0.6600496768951416, 0.7239634990692139, 0.8708754181861877, 0.8678027391433716, 0.742917001247406, 0.6308128833770752, 0.38278359174728394, 0.24676144123077393, 0.40251395106315613, 0.48682570457458496, 0.4067344665527344, 0.3751143515110016, 0.47106486558914185, 0.294242799282074, 0.3641525208950043, 0.20336103439331055, 0.2281111180782318, 0.25237977504730225, 0.2634480893611908, 0.3926692008972168, 0.461160808801651, 0.44362667202949524, 0.3244958519935608, 0.2465599626302719, 0.29055532813072205, 0.6862665414810181, 0.8464186191558838, 0.7000850439071655, 0.7558069229125977, 0.7876297831535339, 0.7971294522285461, 0.6788334846496582, 0.5557610988616943, 0.7520835995674133, 0.535102903842926, 0.6128994822502136, 0.47575482726097107, 0.6274285316467285, 0.5933164954185486, 0.6910983920097351, 0.7520051002502441, 0.6685517430305481, 0.62754887342453, 0.833519458770752, 0.7992414236068726, 0.7088428139686584, 0.7385786771774292, 0.7395813465118408]</t>
+          <t>[0.7573469877243042, 0.7416906356811523, 0.6373016238212585, 0.8563100695610046, 0.6824197769165039, 0.7623345851898193, 0.6570380926132202, 0.6748448610305786, 0.3675098121166229, 0.4209594130516052, 0.10414285212755203, 0.13159789144992828, 0.3166274428367615, 0.4264165461063385, 0.7116173505783081, 0.7425792217254639, 0.7268929481506348, 0.738938570022583, 0.7360959649085999, 0.7062204480171204, 0.7279588580131531, 0.6175037622451782, 0.8788655996322632, 0.8803803324699402, 0.8074944019317627, 0.8337751030921936, 0.8352395296096802, 0.8918688297271729, 0.8846068382263184, 0.8871722221374512, 0.9079657196998596, 0.7927143573760986, 0.803773045539856, 0.5706362128257751, 0.4429381489753723, 0.13506479561328888, 0.17312225699424744, 0.22494101524353027, 0.42696595191955566, 0.6076503992080688, 0.7715708017349243, 0.6363847255706787, 0.6674999594688416, 0.3394521176815033, 0.8134638071060181, 0.7944859862327576, 0.739447295665741, 0.8005520105361938, 0.5597959160804749, 0.40508145093917847, 0.28571945428848267, 0.2873081564903259, 0.760682225227356, 0.2713412940502167, 0.2110823392868042, 0.7291725277900696, 0.7274730801582336, 0.7665132880210876, 0.9645078182220459, 0.7418910264968872, 0.7138341665267944, 0.7207862734794617, 0.6356263160705566, 0.516390323638916, 0.09901928156614304, 0.08137336373329163, 0.21562401950359344, 0.09422367811203003, 0.053370099514722824, 0.030636152252554893, 0.03233877569437027, 0.11604838818311691, 0.15322883427143097, 0.22234474122524261, 0.47437214851379395, 0.16338767111301422, 0.09325676411390305, 0.14516200125217438, 0.2035154402256012, 0.2257055938243866, 0.265485942363739, 0.08469527959823608, 0.11084719747304916, 0.05323177948594093, 0.11523802578449249, 0.33709096908569336, 0.7511482834815979, 0.82161945104599, 0.8136278986930847, 0.5044988989830017, 0.5489427447319031, 0.6848935484886169, 0.36490532755851746, 0.2645540237426758, 0.18321071565151215, 0.1580500453710556, 0.7277666330337524, 0.5304158329963684, 0.9045136570930481, 0.9800884127616882, 0.88669753074646, 0.8587551712989807, 0.23165176808834076, 0.6161782145500183, 0.26699236035346985, 0.3568952977657318, 0.4825342893600464, 0.5218854546546936, 0.6158148050308228, 0.806045413017273, 0.6800950765609741, 0.7246254682540894, 0.8675156831741333, 0.8774062395095825, 0.740010678768158, 0.5870380401611328, 0.37258726358413696, 0.3282187879085541, 0.4161249101161957, 0.4628545939922333, 0.3633155822753906, 0.39345988631248474, 0.5511716604232788, 0.3982861638069153, 0.48921504616737366, 0.28780025243759155, 0.27924489974975586, 0.2962471544742584, 0.36877331137657166, 0.5965134501457214, 0.6722521185874939, 0.502611517906189, 0.4158053696155548, 0.46700581908226013, 0.41003960371017456, 0.772638738155365, 0.8658380508422852, 0.6660060286521912, 0.8051331043243408, 0.7004792094230652, 0.6579323410987854, 0.46053341031074524, 0.48880666494369507, 0.7905049920082092, 0.6406290531158447, 0.7464444041252136, 0.5391556024551392, 0.6458160281181335, 0.6255095601081848, 0.7408162951469421, 0.7964325547218323, 0.7081090807914734, 0.6768643856048584, 0.7454676032066345, 0.6707807183265686, 0.612144947052002, 0.5466411709785461, 0.5475416779518127]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9336706399917603</v>
+        <v>0.9800884127616882</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.8911434999899939</v>
+        <v>0.9453907999995863</v>
       </c>
       <c r="J178" t="n">
-        <v>0.005640148734113885</v>
+        <v>0.005983486075946749</v>
       </c>
     </row>
     <row r="179">
@@ -7685,11 +7685,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[0.566701352596283, 0.4933059811592102, 0.42462530732154846, 0.4415428042411804, 0.5383962988853455, 0.5662479400634766, 0.5514029860496521, 0.5463549494743347, 0.5520188212394714, 0.46730178594589233, 0.49751630425453186, 0.7203746438026428, 0.6516823768615723, 0.6661545038223267, 0.6825193762779236, 0.636315643787384, 0.36458224058151245, 0.644666314125061, 0.7545544505119324, 0.8416147232055664, 0.6640450954437256, 0.6176181435585022, 0.5729647278785706, 0.5854377746582031, 0.7699847221374512, 0.7169650197029114, 0.76751309633255, 0.735580325126648, 0.5613528490066528, 0.6377243995666504, 0.8817421197891235, 0.7280470728874207, 0.5476918816566467, 0.8022849559783936, 0.4026477038860321, 0.6305656433105469, 0.8399772047996521, 0.7504151463508606, 0.7085224986076355, 0.7594477534294128, 0.8450027108192444, 0.6823667883872986, 0.6957218647003174, 0.7461683750152588, 0.856171727180481, 0.658885657787323, 0.7792616486549377, 0.8034133315086365, 0.9065836071968079, 0.7997403144836426, 0.849384605884552, 0.8261932134628296, 0.8899410963058472, 0.7114139795303345, 0.8073826432228088, 0.8592264652252197, 0.8782797455787659, 0.8566702604293823, 0.7427371740341187, 0.8601954579353333, 0.9068465232849121, 0.9403234720230103, 0.9674460887908936, 0.9220139980316162, 0.8702051639556885, 0.6784554123878479, 0.710082471370697, 0.871245265007019, 0.5657168626785278, 0.7708650231361389, 0.9194296002388, 0.908367931842804, 0.9001765251159668, 0.8450168371200562, 0.6413024663925171, 0.7578420042991638, 0.860668957233429, 0.6420180797576904, 0.8936449885368347, 0.8395532369613647, 0.6086969971656799, 0.7810911536216736, 0.6804858446121216, 0.7875304818153381, 0.6855078935623169, 0.6828345656394958, 0.7708278894424438, 0.5850182175636292, 0.8238980174064636, 0.7921647429466248, 0.920010507106781, 0.8797942996025085, 0.8207671642303467, 0.83160400390625, 0.74783855676651, 0.6991989016532898, 0.6829414367675781, 0.6727001070976257, 0.6985250115394592, 0.6282435655593872, 0.6114673018455505, 0.5621172785758972, 0.6316523551940918, 0.6125282049179077, 0.5894249081611633, 0.8586297035217285, 0.8266376256942749, 0.7886901497840881, 0.7465208172798157, 0.7358092069625854, 0.5990096926689148, 0.3943401277065277, 0.5324129462242126, 0.43700098991394043, 0.5325327515602112, 0.32137399911880493, 0.5205087065696716, 0.4197740852832794, 0.7372987866401672, 0.769041895866394, 0.7475055456161499, 0.5399624109268188, 0.551785945892334, 0.5191890001296997, 0.4015153646469116, 0.7514085173606873, 0.6165982484817505, 0.5971696376800537, 0.44834375381469727, 0.48185163736343384, 0.7462517023086548, 0.7879586815834045, 0.7761473059654236, 0.8008090853691101, 0.7622279524803162, 0.7010515332221985, 0.757445752620697, 0.7144514918327332, 0.6397140026092529, 0.7791162729263306, 0.8872861266136169, 0.8713435530662537, 0.8798540830612183, 0.8426164984703064, 0.853059709072113, 0.865863025188446, 0.7735350131988525, 0.7846905589103699, 0.7670539617538452, 0.7832621335983276, 0.8913757801055908, 0.913434624671936, 0.9013076424598694, 0.8286153078079224, 0.7927959561347961, 0.738727331161499, 0.7525365948677063, 0.7526378631591797]</t>
+          <t>[0.3892908990383148, 0.32147860527038574, 0.37484675645828247, 0.2968682646751404, 0.3227369487285614, 0.4108109772205353, 0.352241188287735, 0.5069942474365234, 0.47622251510620117, 0.367305189371109, 0.3413375914096832, 0.7094690799713135, 0.7202954888343811, 0.45673248171806335, 0.5564872622489929, 0.6517106294631958, 0.40983179211616516, 0.5985546112060547, 0.7028433084487915, 0.8232290148735046, 0.7190425992012024, 0.6698200702667236, 0.6717816591262817, 0.6640820503234863, 0.7738850712776184, 0.7164501547813416, 0.7726026773452759, 0.6828138828277588, 0.44461125135421753, 0.4944266676902771, 0.8351460695266724, 0.48475024104118347, 0.34689387679100037, 0.8028144240379333, 0.3265990614891052, 0.4514685869216919, 0.8680119514465332, 0.7602952122688293, 0.6892826557159424, 0.7848252654075623, 0.915634036064148, 0.6893951296806335, 0.7323691248893738, 0.7916117310523987, 0.949621856212616, 0.7688645720481873, 0.8673669099807739, 0.831886351108551, 0.9088308811187744, 0.7227581143379211, 0.8210030794143677, 0.8447782397270203, 0.956437349319458, 0.556765079498291, 0.7152557969093323, 0.7521535754203796, 0.8445121645927429, 0.8734884858131409, 0.6645508408546448, 0.8419742584228516, 0.9329814910888672, 0.9737229943275452, 0.9903014898300171, 0.9543808698654175, 0.9449985027313232, 0.7953466176986694, 0.7614250779151917, 0.9557381272315979, 0.7275329828262329, 0.8835654258728027, 0.9658092856407166, 0.9657790660858154, 0.9484323263168335, 0.9193829298019409, 0.5243043899536133, 0.5410909056663513, 0.7656309604644775, 0.3396436870098114, 0.8819761276245117, 0.8190436363220215, 0.37180376052856445, 0.6836346387863159, 0.43410924077033997, 0.8749251961708069, 0.7889345288276672, 0.7533165812492371, 0.7690994143486023, 0.5773868560791016, 0.9050117135047913, 0.8696728944778442, 0.9704070687294006, 0.9342384934425354, 0.8387076258659363, 0.8468385934829712, 0.802120566368103, 0.827248215675354, 0.5656806826591492, 0.47505518794059753, 0.5578123927116394, 0.5071699619293213, 0.5083640813827515, 0.4051135778427124, 0.6142608523368835, 0.49559861421585083, 0.47360992431640625, 0.8919764757156372, 0.8104181289672852, 0.8072999119758606, 0.6614973545074463, 0.8382976055145264, 0.5805724263191223, 0.34409862756729126, 0.5500136017799377, 0.39249444007873535, 0.5469343662261963, 0.28091326355934143, 0.4995424747467041, 0.39099714159965515, 0.6966599822044373, 0.6209444403648376, 0.6067527532577515, 0.3487950563430786, 0.5688455104827881, 0.46348416805267334, 0.26268717646598816, 0.7761298418045044, 0.6025057435035706, 0.5562614798545837, 0.31918007135391235, 0.5988534092903137, 0.8873904347419739, 0.859915554523468, 0.8123797178268433, 0.7961698770523071, 0.7250267267227173, 0.49464404582977295, 0.6008400321006775, 0.4837189018726349, 0.5058290362358093, 0.6956738829612732, 0.8573364615440369, 0.9591668844223022, 0.9641256928443909, 0.9627055525779724, 0.969856858253479, 0.96468186378479, 0.8678306341171265, 0.8809821605682373, 0.9151113629341125, 0.8778271079063416, 0.9386461973190308, 0.9569541215896606, 0.9669897556304932, 0.9366856217384338, 0.8655034899711609, 0.6975422501564026, 0.8199864625930786, 0.8192784190177917]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.9674460887908936</v>
+        <v>0.9903014898300171</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.8883660999999847</v>
+        <v>1.019018800012418</v>
       </c>
       <c r="J179" t="n">
-        <v>0.00562257025316446</v>
+        <v>0.006449486076027963</v>
       </c>
     </row>
     <row r="180">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[0.851469099521637, 0.7488056421279907, 0.7785803079605103, 0.8293697237968445, 0.7878598570823669, 0.7509597539901733, 0.7660019993782043, 0.8039340376853943, 0.9021843075752258, 0.937677800655365, 0.910235583782196, 0.8874783515930176, 0.9265022873878479, 0.9189764261245728, 0.7500218152999878, 0.9092806577682495, 0.7197303771972656, 0.8626710176467896, 0.7614170908927917, 0.7673166394233704, 0.6206848621368408, 0.7226595878601074, 0.8088729381561279, 0.778456449508667, 0.8233606815338135, 0.7415165901184082, 0.6029711365699768, 0.6308050751686096, 0.7329676747322083, 0.7389099597930908, 0.767315685749054, 0.779195249080658, 0.8219202756881714, 0.8146317601203918, 0.7028588056564331, 0.6925173401832581, 0.6194435358047485, 0.22285519540309906, 0.582999050617218, 0.4661615192890167, 0.5748075246810913, 0.7930203676223755, 0.7214822173118591, 0.7462311387062073, 0.7358952164649963, 0.6801660656929016, 0.5208607316017151, 0.729306161403656, 0.7463454008102417, 0.6186485886573792, 0.508416473865509, 0.47560277581214905, 0.5894728899002075, 0.6274837851524353, 0.7812379598617554, 0.7555495500564575, 0.6469489336013794, 0.7849346995353699, 0.5590308904647827, 0.48716309666633606, 0.6439931392669678, 0.8894045948982239, 0.8254407048225403, 0.8756951689720154, 0.8988944292068481, 0.8602455854415894, 0.835379421710968, 0.8450743556022644, 0.8324986696243286, 0.7659082412719727, 0.8629276752471924, 0.9063005447387695, 0.8842461705207825, 0.9406790733337402, 0.843032956123352, 0.8022322654724121, 0.8389545679092407, 0.9343044757843018, 0.8969536423683167, 0.7740002274513245, 0.8399850130081177, 0.8026201128959656, 0.48383620381355286, 0.444947749376297, 0.4813622236251831, 0.19698017835617065, 0.423470139503479, 0.4002472162246704, 0.5044624209403992, 0.3271654546260834, 0.2809232175350189, 0.5028076171875, 0.7571088671684265, 0.7786152362823486, 0.41217318177223206, 0.32379457354545593, 0.45790138840675354, 0.4639003574848175, 0.6654714345932007, 0.7627350091934204, 0.8554481267929077, 0.7916206121444702, 0.7671950459480286, 0.8684840798377991, 0.8996010422706604, 0.9774448871612549, 0.9366486072540283, 0.9319092631340027, 0.8554656505584717, 0.8996275663375854, 0.6173786520957947, 0.7084067463874817, 0.8653016686439514, 0.7672402858734131, 0.841376543045044, 0.7282297611236572, 0.8546159267425537, 0.9069955945014954, 0.8824999928474426, 0.9685054421424866, 0.9688106775283813, 0.8901015520095825, 0.7404181957244873, 0.9078654646873474, 0.8969903588294983, 0.8401346206665039, 0.8777286410331726, 0.7975488305091858, 0.8550729155540466, 0.9006216526031494, 0.7501468062400818, 0.6040930151939392, 0.7506669163703918, 0.8341394662857056, 0.8635757565498352, 0.8449711203575134, 0.7992027401924133, 0.8485376834869385, 0.8294598460197449, 0.8854318857192993, 0.9388295412063599, 0.8663703799247742, 0.8197928071022034, 0.8708075284957886, 0.8998215794563293, 0.8718169927597046, 0.8701386451721191, 0.8961843252182007, 0.8320731520652771, 0.9238154292106628, 0.9154500961303711, 0.9425809979438782, 0.9317492842674255, 0.9746994972229004, 0.9497588276863098, 0.9269282817840576, 0.9289080500602722, 0.9287817478179932]</t>
+          <t>[0.7993921637535095, 0.5341505408287048, 0.7330257892608643, 0.8255040049552917, 0.7613300681114197, 0.7204862833023071, 0.6461049318313599, 0.7903978824615479, 0.9325408935546875, 0.9722165465354919, 0.9401981830596924, 0.8381441235542297, 0.96736741065979, 0.9316341280937195, 0.7201763391494751, 0.9597748517990112, 0.7503486275672913, 0.9358659982681274, 0.8111280202865601, 0.7808484435081482, 0.5626493096351624, 0.7802167534828186, 0.8191115260124207, 0.7125255465507507, 0.836338996887207, 0.6623223423957825, 0.6078776121139526, 0.7394058108329773, 0.8408941626548767, 0.8451092839241028, 0.8534643650054932, 0.8311133980751038, 0.8883910775184631, 0.7813480496406555, 0.7153311371803284, 0.73305743932724, 0.6702404618263245, 0.24278593063354492, 0.5724048614501953, 0.4728708863258362, 0.6091938018798828, 0.9172499179840088, 0.8329117894172668, 0.8656036257743835, 0.8728809952735901, 0.8204238414764404, 0.625153660774231, 0.839229166507721, 0.839393138885498, 0.6385937929153442, 0.4218250513076782, 0.39947929978370667, 0.4786183834075928, 0.4681377708911896, 0.8081909418106079, 0.7509993314743042, 0.555022120475769, 0.7495479583740234, 0.48088303208351135, 0.554827868938446, 0.5470366477966309, 0.9036118388175964, 0.7405613660812378, 0.8937044739723206, 0.9026140570640564, 0.7882543206214905, 0.7601518034934998, 0.7514031529426575, 0.8115084171295166, 0.7537853717803955, 0.9332801103591919, 0.9284864068031311, 0.9248232245445251, 0.9534339308738708, 0.7772634625434875, 0.6590549349784851, 0.7799578905105591, 0.9579168558120728, 0.9359720945358276, 0.8745505809783936, 0.9533874988555908, 0.8756633400917053, 0.43675756454467773, 0.442676842212677, 0.5812236666679382, 0.2255493551492691, 0.5335982441902161, 0.5281961560249329, 0.8210846185684204, 0.595118522644043, 0.2591736316680908, 0.7401564121246338, 0.9232943058013916, 0.8874876499176025, 0.6829085350036621, 0.6035244464874268, 0.7415474057197571, 0.6952642202377319, 0.8719373345375061, 0.9166378974914551, 0.9502578377723694, 0.9421818852424622, 0.8695657849311829, 0.9478363990783691, 0.9561375975608826, 0.9925187826156616, 0.9634310007095337, 0.9265093207359314, 0.8039173483848572, 0.8819621205329895, 0.4788030683994293, 0.5770289301872253, 0.9148517847061157, 0.8497142195701599, 0.880281388759613, 0.8053869605064392, 0.8709166049957275, 0.9309747219085693, 0.9130813479423523, 0.9710963368415833, 0.9699390530586243, 0.8998101353645325, 0.7272157073020935, 0.8858881592750549, 0.9073691964149475, 0.8073908686637878, 0.8006458282470703, 0.7315273284912109, 0.7721244096755981, 0.829878032207489, 0.5915805697441101, 0.3707466721534729, 0.5986894369125366, 0.8665196895599365, 0.876758337020874, 0.8207299709320068, 0.7592058181762695, 0.8029798269271851, 0.8173385858535767, 0.8486417531967163, 0.9152463674545288, 0.8066427111625671, 0.7905508875846863, 0.8350575566291809, 0.8902643322944641, 0.8511961698532104, 0.8696156144142151, 0.8859775066375732, 0.7667511105537415, 0.868815541267395, 0.8572969436645508, 0.8869357109069824, 0.9191315770149231, 0.9886515140533447, 0.9529237747192383, 0.9195138216018677, 0.9351796507835388, 0.9347251057624817]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.9774448871612549</v>
+        <v>0.9925187826156616</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.9037202000035904</v>
+        <v>0.8857111999968765</v>
       </c>
       <c r="J180" t="n">
-        <v>0.005719748101288547</v>
+        <v>0.005605767088587827</v>
       </c>
     </row>
     <row r="181">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[0.09198374301195145, 0.08929646015167236, 0.07713329046964645, 0.10756928473711014, 0.11606810986995697, 0.06885850429534912, 0.14125585556030273, 0.2283191680908203, 0.28653326630592346, 0.21144303679466248, 0.15307268500328064, 0.12337347865104675, 0.15544015169143677, 0.2537418007850647, 0.1785345822572708, 0.30131229758262634, 0.2445344775915146, 0.19800446927547455, 0.31496500968933105, 0.2880488634109497, 0.2792752683162689, 0.2160736471414566, 0.14672201871871948, 0.267809122800827, 0.20241661369800568, 0.16500596702098846, 0.1532781422138214, 0.40717813372612, 0.4722813665866852, 0.29945108294487, 0.37619489431381226, 0.4740297496318817, 0.5443425178527832, 0.4857470691204071, 0.19089911878108978, 0.31646913290023804, 0.22107216715812683, 0.22827021777629852, 0.12310809642076492, 0.15908943116664886, 0.14661306142807007, 0.30149486660957336, 0.2309904843568802, 0.4058564305305481, 0.17869842052459717, 0.090113066136837, 0.10482103377580643, 0.0752275213599205, 0.12367428839206696, 0.22104687988758087, 0.23220951855182648, 0.12038485705852509, 0.057868342846632004, 0.06330709904432297, 0.0639171227812767, 0.08334894478321075, 0.0477687306702137, 0.06821201741695404, 0.0612465925514698, 0.13132086396217346, 0.26554355025291443, 0.3553701341152191, 0.3425724506378174, 0.16628579795360565, 0.1019960343837738, 0.11711647361516953, 0.10455024242401123, 0.14605268836021423, 0.098638154566288, 0.11284779012203217, 0.28826844692230225, 0.304869681596756, 0.1402856707572937, 0.12231437861919403, 0.17298123240470886, 0.2742343544960022, 0.4601333737373352, 0.3857790231704712, 0.4672071635723114, 0.2969520092010498, 0.2294931262731552, 0.467797189950943, 0.5797491073608398, 0.5671528577804565, 0.3242494761943817, 0.3423536419868469, 0.3353824317455292, 0.1957048624753952, 0.16197079420089722, 0.19845151901245117, 0.25418034195899963, 0.2377624660730362, 0.1403467208147049, 0.24411757290363312, 0.17140193283557892, 0.1418234407901764, 0.24228490889072418, 0.23402106761932373, 0.14819490909576416, 0.13717524707317352, 0.09990061074495316, 0.1330457478761673, 0.13221484422683716, 0.06383661180734634, 0.045193590223789215, 0.07075073570013046, 0.08602945506572723, 0.08267770707607269, 0.10469695925712585, 0.09056243300437927, 0.09123203903436661, 0.09674137085676193, 0.10776066035032272, 0.17578469216823578, 0.17510369420051575, 0.2201971560716629, 0.15917974710464478, 0.15294049680233002, 0.12735073268413544, 0.09623594582080841, 0.0727149173617363, 0.046133846044540405, 0.06555943936109543, 0.0843522772192955, 0.07350385934114456, 0.1854751706123352, 0.1691330224275589, 0.14675427973270416, 0.17784921824932098, 0.33411523699760437, 0.28304505348205566, 0.14060580730438232, 0.09931490570306778, 0.11347395181655884, 0.10809598863124847, 0.2348935306072235, 0.46407464146614075, 0.45197078585624695, 0.49362143874168396, 0.40072208642959595, 0.19511330127716064, 0.20417030155658722, 0.1154261976480484, 0.12835194170475006, 0.13046494126319885, 0.15561649203300476, 0.15424542129039764, 0.07294297963380814, 0.03530747443437576, 0.03940356522798538, 0.05953873693943024, 0.10423234105110168, 0.053227394819259644, 0.0476049967110157, 0.057642098516225815, 0.08092021197080612, 0.06330825388431549, 0.06335361301898956]</t>
+          <t>[0.13457649946212769, 0.13186205923557281, 0.12539681792259216, 0.12223594635725021, 0.09044401347637177, 0.06304777413606644, 0.14227136969566345, 0.2176002413034439, 0.25605615973472595, 0.17950256168842316, 0.14035800099372864, 0.11191090941429138, 0.1422911286354065, 0.23735541105270386, 0.08800779283046722, 0.23908177018165588, 0.27232596278190613, 0.2509091794490814, 0.26743096113204956, 0.22266510128974915, 0.21336022019386292, 0.24502919614315033, 0.14973501861095428, 0.22960393130779266, 0.18764635920524597, 0.13467562198638916, 0.13593581318855286, 0.5552740097045898, 0.6205141544342041, 0.3793933391571045, 0.4932287633419037, 0.7317179441452026, 0.7388651371002197, 0.42129144072532654, 0.11092284321784973, 0.19527503848075867, 0.18055091798305511, 0.1637997329235077, 0.11066632717847824, 0.10658417642116547, 0.13333478569984436, 0.27837127447128296, 0.14472517371177673, 0.32677993178367615, 0.16512033343315125, 0.039931975305080414, 0.04790676012635231, 0.0622708797454834, 0.05314607918262482, 0.1104726567864418, 0.15604174137115479, 0.05931792035698891, 0.0405941978096962, 0.03637610375881195, 0.036416735500097275, 0.04892028123140335, 0.031129438430070877, 0.05159742385149002, 0.02513764798641205, 0.06201549991965294, 0.07659437507390976, 0.2753511369228363, 0.27587875723838806, 0.1355953961610794, 0.06776488572359085, 0.06991463899612427, 0.04083512723445892, 0.07832712680101395, 0.05997783690690994, 0.04226909950375557, 0.2593550980091095, 0.2481909692287445, 0.08990366756916046, 0.07339964807033539, 0.09940893948078156, 0.21718402206897736, 0.3724087178707123, 0.2075173705816269, 0.3667707145214081, 0.32638034224510193, 0.16842755675315857, 0.44621071219444275, 0.4173612594604492, 0.42600908875465393, 0.2083844542503357, 0.26336920261383057, 0.30506789684295654, 0.1497262716293335, 0.06688482314348221, 0.12780670821666718, 0.17640317976474762, 0.2528163194656372, 0.13005882501602173, 0.29430779814720154, 0.19839102029800415, 0.26729658246040344, 0.22543662786483765, 0.4792814254760742, 0.2022484838962555, 0.17265471816062927, 0.11090162396430969, 0.06892391294240952, 0.08705196529626846, 0.057689424604177475, 0.028232544660568237, 0.07349587231874466, 0.07478655874729156, 0.06891282647848129, 0.06963614374399185, 0.07171454280614853, 0.07167014479637146, 0.09351508319377899, 0.14480231702327728, 0.22534383833408356, 0.18942774832248688, 0.30497947335243225, 0.17946641147136688, 0.15594668686389923, 0.1319052278995514, 0.1178722083568573, 0.047341395169496536, 0.04161627218127251, 0.06782233715057373, 0.06046203896403313, 0.07138776779174805, 0.30117496848106384, 0.19321583211421967, 0.16499502956867218, 0.20771430432796478, 0.5717690587043762, 0.46006011962890625, 0.21821770071983337, 0.10395300388336182, 0.18803657591342926, 0.14579489827156067, 0.3487061858177185, 0.653059720993042, 0.7857109308242798, 0.7667521834373474, 0.6689785122871399, 0.2504965662956238, 0.24480557441711426, 0.06497502326965332, 0.06645603477954865, 0.1189255341887474, 0.1349116563796997, 0.12687596678733826, 0.05922625958919525, 0.045199427753686905, 0.03985551372170448, 0.061646729707717896, 0.05956191197037697, 0.03184052184224129, 0.026212306693196297, 0.03797879070043564, 0.04486611858010292, 0.029093153774738312, 0.029256358742713928]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.5797491073608398</v>
+        <v>0.7857109308242798</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.8977248000155669</v>
+        <v>0.9670374999986961</v>
       </c>
       <c r="J181" t="n">
-        <v>0.005681802531744094</v>
+        <v>0.006120490506320862</v>
       </c>
     </row>
     <row r="182">
@@ -7805,11 +7805,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[0.4888724088668823, 0.6331605911254883, 0.48191824555397034, 0.6355300545692444, 0.661369800567627, 0.5783862471580505, 0.3485080301761627, 0.29733744263648987, 0.15236639976501465, 0.18638277053833008, 0.20926444232463837, 0.1234835758805275, 0.20767807960510254, 0.21855023503303528, 0.23841315507888794, 0.11979782581329346, 0.13455043733119965, 0.13523359596729279, 0.13580647110939026, 0.12759608030319214, 0.19478584825992584, 0.09889040142297745, 0.09733545780181885, 0.14026975631713867, 0.11991775780916214, 0.13794304430484772, 0.09179100394248962, 0.08175449073314667, 0.05609837919473648, 0.09289653599262238, 0.11811906844377518, 0.07262090593576431, 0.0788104236125946, 0.059206776320934296, 0.07050590962171555, 0.06675269454717636, 0.058661364018917084, 0.07821784913539886, 0.1259068250656128, 0.20435895025730133, 0.28823474049568176, 0.2866804599761963, 0.1183018609881401, 0.20039111375808716, 0.2782534956932068, 0.13796988129615784, 0.13283658027648926, 0.1317182332277298, 0.16693265736103058, 0.24773864448070526, 0.5592313408851624, 0.4557892978191376, 0.1817467212677002, 0.3368547260761261, 0.1547430157661438, 0.14383631944656372, 0.2749650776386261, 0.14550644159317017, 0.15438106656074524, 0.10600823163986206, 0.08528672903776169, 0.09164277464151382, 0.10061769932508469, 0.08270519971847534, 0.08269218355417252, 0.10896267741918564, 0.11645378917455673, 0.21046330034732819, 0.2933541536331177, 0.16541549563407898, 0.11841220408678055, 0.18981897830963135, 0.20829178392887115, 0.22703135013580322, 0.24627915024757385, 0.2858000695705414, 0.34429508447647095, 0.2467116117477417, 0.24335210025310516, 0.5424866676330566, 0.39492228627204895, 0.35554662346839905, 0.1887347251176834, 0.10104629397392273, 0.06303714960813522, 0.09082083404064178, 0.10379130393266678, 0.22300276160240173, 0.29851266741752625, 0.20195697247982025, 0.09533243626356125, 0.06649544835090637, 0.057038888335227966, 0.19787509739398956, 0.1635572910308838, 0.16325576603412628, 0.1104179099202156, 0.09745638072490692, 0.10082251578569412, 0.17637380957603455, 0.3631451427936554, 0.3318280875682831, 0.3607504367828369, 0.5500025153160095, 0.369504451751709, 0.49632978439331055, 0.33512330055236816, 0.36755290627479553, 0.3544676899909973, 0.35288071632385254, 0.334360271692276, 0.5594015717506409, 0.259446918964386, 0.15304626524448395, 0.44992759823799133, 0.658094048500061, 0.6545187830924988, 0.4848468601703644, 0.620468258857727, 0.4549161195755005, 0.2803819179534912, 0.27726995944976807, 0.24858227372169495, 0.43220433592796326, 0.43245822191238403, 0.2167842835187912, 0.285686194896698, 0.47092267870903015, 0.7408034801483154, 0.7953710556030273, 0.6655220985412598, 0.24157898128032684, 0.4666089117527008, 0.46721407771110535]</t>
+          <t>[0.5361048579216003, 0.7187341451644897, 0.366881400346756, 0.6833217144012451, 0.8030858635902405, 0.7662219405174255, 0.49989354610443115, 0.4296388328075409, 0.24984928965568542, 0.3060307204723358, 0.27932044863700867, 0.16754812002182007, 0.21806462109088898, 0.23780597746372223, 0.3860776722431183, 0.1406121402978897, 0.1264660656452179, 0.15827828645706177, 0.12549452483654022, 0.18302394449710846, 0.2183050662279129, 0.08553971350193024, 0.05821820721030235, 0.10608325898647308, 0.09475842118263245, 0.0935778096318245, 0.072218157351017, 0.0489649698138237, 0.03001880645751953, 0.0724688172340393, 0.08179576694965363, 0.052281077951192856, 0.060390401631593704, 0.047218870371580124, 0.057862669229507446, 0.04972302168607712, 0.048092734068632126, 0.06924280524253845, 0.09093764424324036, 0.1435268521308899, 0.18197482824325562, 0.21890808641910553, 0.07757504284381866, 0.13301926851272583, 0.2593996226787567, 0.11316575855016708, 0.09593857824802399, 0.07715829461812973, 0.07234197109937668, 0.11807132512331009, 0.4730338752269745, 0.3257039785385132, 0.1125064566731453, 0.2554578185081482, 0.12263975292444229, 0.14825710654258728, 0.2308996468782425, 0.13133838772773743, 0.18138442933559418, 0.09081869572401047, 0.06635580211877823, 0.07747047394514084, 0.07271260768175125, 0.043755896389484406, 0.04425688087940216, 0.07718506455421448, 0.1450003832578659, 0.2126428782939911, 0.2980813682079315, 0.14955773949623108, 0.11013960093259811, 0.14480604231357574, 0.19856472313404083, 0.31567949056625366, 0.35205841064453125, 0.3127296566963196, 0.32501962780952454, 0.16907095909118652, 0.19307367503643036, 0.6250017285346985, 0.46083444356918335, 0.3137069344520569, 0.16996602714061737, 0.091486357152462, 0.06342591345310211, 0.07610105723142624, 0.0978582426905632, 0.2534768879413605, 0.2202788144350052, 0.14075717329978943, 0.06856707483530045, 0.043261680752038956, 0.035323046147823334, 0.17616009712219238, 0.09233406186103821, 0.09171324223279953, 0.0677468553185463, 0.07365752756595612, 0.07556433230638504, 0.1687374860048294, 0.39164048433303833, 0.33863162994384766, 0.3455052077770233, 0.6634965538978577, 0.37813642621040344, 0.4334165155887604, 0.29411953687667847, 0.44378650188446045, 0.383370041847229, 0.28933316469192505, 0.4889104664325714, 0.6749733090400696, 0.33064112067222595, 0.1521327793598175, 0.556954026222229, 0.717687726020813, 0.8325232863426208, 0.6782301068305969, 0.8460096716880798, 0.6932472586631775, 0.4562312364578247, 0.30696555972099304, 0.34763702750205994, 0.6794024109840393, 0.6283981204032898, 0.27218422293663025, 0.4666561186313629, 0.5657821297645569, 0.7801634669303894, 0.863059937953949, 0.8257891535758972, 0.3962332308292389, 0.7757968306541443, 0.7763153910636902]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.7953710556030273</v>
+        <v>0.863059937953949</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.7571353999956045</v>
+        <v>0.7720984000043245</v>
       </c>
       <c r="J182" t="n">
-        <v>0.005650264179071675</v>
+        <v>0.005761928358241228</v>
       </c>
     </row>
     <row r="183">
@@ -7845,11 +7845,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.32702329754829407, 0.3503561019897461, 0.35161975026130676, 0.4739951491355896, 0.412019819021225, 0.3390544354915619, 0.1791749745607376, 0.13987718522548676, 0.18023861944675446, 0.3080037534236908, 0.3193652629852295, 0.21051697432994843, 0.19497762620449066, 0.23728160560131073, 0.2663179636001587, 0.26337477564811707, 0.19439758360385895, 0.21917830407619476, 0.22929665446281433, 0.22177554666996002, 0.31692227721214294, 0.3339596688747406, 0.5454890131950378, 0.4304462671279907, 0.18796783685684204, 0.2688310146331787, 0.20875918865203857, 0.17108428478240967, 0.17579594254493713, 0.20173127949237823, 0.1613878756761551, 0.19189423322677612, 0.2043972909450531, 0.2216310352087021, 0.2512975037097931, 0.1883232593536377, 0.24583260715007782, 0.28730595111846924, 0.17395052313804626, 0.1981176882982254, 0.20625805854797363, 0.23747491836547852, 0.19763384759426117, 0.2069643884897232, 0.2783656418323517, 0.30531129240989685, 0.18877926468849182, 0.16741500794887543, 0.22272838652133942, 0.23842774331569672, 0.2320508509874344, 0.25497937202453613, 0.3717662990093231, 0.346945583820343, 0.3737296164035797, 0.23453475534915924, 0.2936418056488037, 0.3357766568660736, 0.3774036169052124, 0.3530517816543579, 0.38338854908943176, 0.31932705640792847, 0.28844329714775085, 0.29150813817977905, 0.1871401071548462, 0.118244968354702, 0.17883847653865814, 0.13153734803199768, 0.14541968703269958, 0.1087087094783783, 0.12392425537109375, 0.17836064100265503, 0.16841043531894684, 0.13077539205551147, 0.12701934576034546, 0.1093996986746788, 0.0958184227347374, 0.07616659998893738, 0.11710324883460999, 0.15071547031402588, 0.1344563215970993, 0.18824471533298492, 0.18256892263889313, 0.11993908882141113, 0.1601010411977768, 0.11654455214738846, 0.10409286618232727, 0.14777278900146484, 0.2011677473783493, 0.12472090125083923, 0.09102791547775269, 0.0879889652132988, 0.07959040999412537, 0.14923818409442902, 0.09951785206794739, 0.1170467734336853, 0.0903778001666069, 0.10279858857393265, 0.11652680486440659, 0.13495689630508423, 0.10394547134637833, 0.10324551165103912, 0.16355229914188385, 0.1728401482105255, 0.14332832396030426, 0.1311715692281723, 0.16753160953521729, 0.12502701580524445, 0.09205541759729385, 0.13775183260440826, 0.13256050646305084, 0.0993373915553093, 0.08273801952600479, 0.08589569479227066, 0.17258717119693756, 0.12572310864925385, 0.15155327320098877, 0.1046590581536293, 0.08796067535877228, 0.08261843770742416, 0.0722341313958168, 0.09362049400806427, 0.13548356294631958, 0.1136205643415451, 0.0969330444931984, 0.050215985625982285, 0.0692688450217247, 0.05599040910601616, 0.07867369055747986, 0.11931955814361572, 0.09152521193027496, 0.07554100453853607, 0.06461380422115326, 0.04714534804224968, 0.0465734601020813, 0.0569501593708992, 0.05980385094881058, 0.07264445722103119, 0.06570300459861755, 0.05125083029270172, 0.047435879707336426, 0.04425269365310669, 0.04692912474274635, 0.08131936192512512, 0.050417449325323105, 0.047157756984233856, 0.03427911922335625, 0.04958770424127579, 0.050331804901361465, 0.06289753317832947, 0.054290395230054855, 0.061087269335985184, 0.0676252543926239, 0.07296018302440643, 0.07495752722024918, 0.06322520226240158, 0.07004507631063461, 0.0697249174118042]</t>
+          <t>[0.37347662448883057, 0.39623451232910156, 0.26626384258270264, 0.5525587797164917, 0.5031524896621704, 0.35056009888648987, 0.11650759726762772, 0.0968041718006134, 0.12456339597702026, 0.22486644983291626, 0.33629825711250305, 0.18711088597774506, 0.16232845187187195, 0.19557954370975494, 0.3538837432861328, 0.35831207036972046, 0.20793192088603973, 0.290429025888443, 0.2666035294532776, 0.33146917819976807, 0.38355183601379395, 0.36030542850494385, 0.6831690073013306, 0.5742387175559998, 0.20253825187683105, 0.271671861410141, 0.19447515904903412, 0.1550331711769104, 0.12524650990962982, 0.20098844170570374, 0.17134201526641846, 0.1957947462797165, 0.22556449472904205, 0.23136429488658905, 0.2713940739631653, 0.1484450101852417, 0.19756844639778137, 0.31469810009002686, 0.1677170842885971, 0.1766839474439621, 0.21764840185642242, 0.22986860573291779, 0.1933070570230484, 0.1899280697107315, 0.21951282024383545, 0.25084444880485535, 0.14577488601207733, 0.13236702978610992, 0.20353448390960693, 0.23861762881278992, 0.3027263581752777, 0.27879858016967773, 0.49637243151664734, 0.48307183384895325, 0.41163986921310425, 0.33453190326690674, 0.3468666076660156, 0.5214351415634155, 0.6821025609970093, 0.5413599014282227, 0.6512545347213745, 0.4384411573410034, 0.39387622475624084, 0.44676029682159424, 0.3404437303543091, 0.17869031429290771, 0.22694696485996246, 0.13448140025138855, 0.15934798121452332, 0.1374465376138687, 0.13773106038570404, 0.2721945345401764, 0.26260650157928467, 0.15076212584972382, 0.12381771206855774, 0.13143521547317505, 0.11794647574424744, 0.0615498423576355, 0.15101785957813263, 0.20143496990203857, 0.18577581644058228, 0.2746451497077942, 0.2739814817905426, 0.13920940458774567, 0.2233896702528, 0.12873709201812744, 0.07668229937553406, 0.09393397718667984, 0.1537792980670929, 0.0775085911154747, 0.03881549835205078, 0.04111777991056442, 0.049292322248220444, 0.11200187355279922, 0.0719107985496521, 0.0849713534116745, 0.05526332929730415, 0.0780617743730545, 0.10670725256204605, 0.12364884465932846, 0.07720207422971725, 0.07628359645605087, 0.1315530240535736, 0.12819227576255798, 0.10084978491067886, 0.10564777255058289, 0.14338871836662292, 0.09012024104595184, 0.06757931411266327, 0.15536846220493317, 0.13219581544399261, 0.09238926321268082, 0.05591361224651337, 0.06419502943754196, 0.1341353952884674, 0.08316152542829514, 0.10257501900196075, 0.07200246304273605, 0.06697055697441101, 0.07478302717208862, 0.08673754334449768, 0.09147096425294876, 0.15231406688690186, 0.13893049955368042, 0.09063826501369476, 0.045679546892642975, 0.06378166377544403, 0.05747520551085472, 0.06711006164550781, 0.09877942502498627, 0.07846454530954361, 0.058915846049785614, 0.05887007340788841, 0.0351913720369339, 0.03478449210524559, 0.051500104367733, 0.057034097611904144, 0.05385332182049751, 0.04558544233441353, 0.0383487269282341, 0.03623964637517929, 0.04051980376243591, 0.036972641944885254, 0.06447109580039978, 0.0419275164604187, 0.04142807051539421, 0.025842752307653427, 0.03961809724569321, 0.0395878367125988, 0.04823995754122734, 0.028903089463710785, 0.04848984628915787, 0.06670114398002625, 0.0603739470243454, 0.053269002586603165, 0.0398491807281971, 0.04568522050976753, 0.045517124235630035]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.5454890131950378</v>
+        <v>0.6831690073013306</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.8969126000010874</v>
+        <v>0.8887995999975828</v>
       </c>
       <c r="J183" t="n">
-        <v>0.005676662025323338</v>
+        <v>0.005625313924035334</v>
       </c>
     </row>
     <row r="184">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[0.23137356340885162, 0.1252272129058838, 0.19022372364997864, 0.3125822842121124, 0.4862799048423767, 0.3312087059020996, 0.17301882803440094, 0.29426589608192444, 0.618169903755188, 0.42878782749176025, 0.15453703701496124, 0.08971530944108963, 0.2055051475763321, 0.06686954200267792, 0.06690655648708344, 0.04780503362417221, 0.05539808049798012, 0.054826028645038605, 0.06738623976707458, 0.0930858626961708, 0.10264134407043457, 0.140701562166214, 0.19525234401226044, 0.35874828696250916, 0.09857558459043503, 0.17041712999343872, 0.18586575984954834, 0.1348293423652649, 0.1481957733631134, 0.2363698035478592, 0.2005978524684906, 0.2656797766685486, 0.25205063819885254, 0.2941310405731201, 0.29278260469436646, 0.37180793285369873, 0.4571712911128998, 0.29897093772888184, 0.4656643569469452, 0.5023637413978577, 0.5089792013168335, 0.33103734254837036, 0.18258510529994965, 0.15824778378009796, 0.34892740845680237, 0.2264687418937683, 0.4211892783641815, 0.3762401342391968, 0.539067268371582, 0.661867082118988, 0.31049978733062744, 0.40166646242141724, 0.17537708580493927, 0.2632054090499878, 0.16767895221710205, 0.26516345143318176, 0.2725295424461365, 0.2516702115535736, 0.2832231819629669, 0.6006461977958679, 0.557583212852478, 0.38181814551353455, 0.20149675011634827, 0.1240164041519165, 0.0657285749912262, 0.08758848160505295, 0.10755551606416702, 0.1435067057609558, 0.09655939787626266, 0.10967861860990524, 0.11006048321723938, 0.15103095769882202, 0.1707068681716919, 0.1829545944929123, 0.14894504845142365, 0.16555926203727722, 0.3149269223213196, 0.5308598875999451, 0.2756342887878418, 0.33259186148643494, 0.4334263801574707, 0.5957632064819336, 0.2001384198665619, 0.08204780519008636, 0.11203193664550781, 0.07490280270576477, 0.05901933088898659, 0.056315016001462936, 0.05693627521395683, 0.07774685323238373, 0.08919886499643326, 0.0828094333410263, 0.16069407761096954, 0.4331584572792053, 0.430389404296875, 0.331301748752594, 0.1406392902135849, 0.0983373299241066, 0.10854759812355042, 0.10001587867736816, 0.23178914189338684, 0.22316037118434906, 0.1089286357164383, 0.23735247552394867, 0.26431483030319214, 0.34454211592674255, 0.232464998960495, 0.2566326856613159, 0.1461179554462433, 0.16178090870380402, 0.22905346751213074, 0.2748517096042633, 0.16336067020893097, 0.17183223366737366, 0.18935491144657135, 0.257018506526947, 0.11749137938022614, 0.11946510523557663, 0.08347947150468826, 0.06793657690286636, 0.07025781273841858, 0.07700405269861221, 0.08383765071630478, 0.16374462842941284, 0.20081409811973572, 0.2533479332923889, 0.16672740876674652, 0.09585098177194595, 0.10255809873342514, 0.13840149343013763, 0.10596337169408798, 0.07742271572351456, 0.1586485058069229, 0.21213474869728088, 0.249867781996727, 0.29371097683906555, 0.39881008863449097, 0.28700581192970276, 0.19985626637935638, 0.1263505220413208, 0.1389683037996292, 0.1137089803814888, 0.06968698650598526, 0.05703141540288925, 0.08912218362092972, 0.05473065376281738, 0.07782536745071411, 0.07430236041545868, 0.06494712084531784, 0.07405061274766922, 0.06303749978542328, 0.08070825785398483, 0.0441221222281456, 0.05148855224251747, 0.06205395609140396, 0.0786142647266388, 0.07946763187646866]</t>
+          <t>[0.3624250590801239, 0.2728791832923889, 0.39218249917030334, 0.5179579854011536, 0.6716417670249939, 0.41636306047439575, 0.20595139265060425, 0.3331858217716217, 0.8894445896148682, 0.5513189435005188, 0.14338858425617218, 0.10257379710674286, 0.49883395433425903, 0.0503951832652092, 0.05524425208568573, 0.04651138558983803, 0.07431162148714066, 0.06090007349848747, 0.07088509202003479, 0.13382574915885925, 0.16698868572711945, 0.2430059164762497, 0.33884793519973755, 0.7420893311500549, 0.12734337151050568, 0.2352658212184906, 0.2660450339317322, 0.18778574466705322, 0.21650566160678864, 0.3556123375892639, 0.2627319395542145, 0.2789866328239441, 0.4223592281341553, 0.42806464433670044, 0.42780524492263794, 0.47762757539749146, 0.6636104583740234, 0.3959754705429077, 0.6258099675178528, 0.7923679947853088, 0.767116367816925, 0.561843991279602, 0.3878593444824219, 0.4837440848350525, 0.8530377149581909, 0.5620090961456299, 0.9346855282783508, 0.9018368124961853, 0.933623194694519, 0.9699472188949585, 0.7351780533790588, 0.8336402177810669, 0.37436240911483765, 0.5671114921569824, 0.2825302481651306, 0.5936332941055298, 0.4893096685409546, 0.5179253220558167, 0.5338987112045288, 0.9185763001441956, 0.8288936614990234, 0.6471980214118958, 0.35049766302108765, 0.15804357826709747, 0.07685727626085281, 0.11483264714479446, 0.11570174247026443, 0.15349037945270538, 0.1355542689561844, 0.14144863188266754, 0.160302072763443, 0.22561994194984436, 0.31588467955589294, 0.33776241540908813, 0.37023308873176575, 0.3656720817089081, 0.6709595918655396, 0.7746383547782898, 0.48611825704574585, 0.6514407992362976, 0.6822020411491394, 0.8085445165634155, 0.35865917801856995, 0.19034293293952942, 0.21347308158874512, 0.09483067691326141, 0.07194922864437103, 0.08507302403450012, 0.06396853178739548, 0.13747483491897583, 0.14054365456104279, 0.09042051434516907, 0.3839488625526428, 0.9120757579803467, 0.7323096990585327, 0.5697234272956848, 0.18742942810058594, 0.15529745817184448, 0.1822594553232193, 0.2278943508863449, 0.6604902744293213, 0.6182799339294434, 0.160308375954628, 0.26456987857818604, 0.4553329050540924, 0.5436627268791199, 0.25873255729675293, 0.4132605195045471, 0.2467382550239563, 0.2518225908279419, 0.2527860701084137, 0.27471163868904114, 0.1985839307308197, 0.17743298411369324, 0.20550499856472015, 0.3221573829650879, 0.1745479851961136, 0.15527355670928955, 0.1043027862906456, 0.07147008925676346, 0.11411730945110321, 0.14926588535308838, 0.1044456735253334, 0.1727629154920578, 0.2832436263561249, 0.31497615575790405, 0.24223951995372772, 0.15277200937271118, 0.20897652208805084, 0.277381956577301, 0.22107023000717163, 0.12014465034008026, 0.20257550477981567, 0.31116142868995667, 0.39464622735977173, 0.5372528433799744, 0.5321406126022339, 0.3607613444328308, 0.28068822622299194, 0.20738478004932404, 0.26179057359695435, 0.1612119823694229, 0.06214635446667671, 0.07242843508720398, 0.13735508918762207, 0.07888484001159668, 0.10869241505861282, 0.07859770208597183, 0.07537266612052917, 0.08702730387449265, 0.07915432006120682, 0.08987419307231903, 0.05177709832787514, 0.07949031889438629, 0.0640505999326706, 0.07824360579252243, 0.07953229546546936]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.661867082118988</v>
+        <v>0.9699472188949585</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.8803057999757584</v>
+        <v>0.8673127000074601</v>
       </c>
       <c r="J184" t="n">
-        <v>0.005607043311947506</v>
+        <v>0.005524284713423313</v>
       </c>
     </row>
     <row r="185">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[0.9959338307380676, 0.9958695769309998, 0.9954370856285095, 0.9943371415138245, 0.9930387139320374, 0.9887441396713257, 0.9961562752723694, 0.9969742298126221, 0.9950371384620667, 0.9889224767684937, 0.9839443564414978, 0.9884046316146851, 0.9941887855529785, 0.9950799942016602, 0.9905369877815247, 0.9918959736824036, 0.9907872080802917, 0.9909793138504028, 0.9903954863548279, 0.9918036460876465, 0.9923630952835083, 0.9921129941940308, 0.9896807074546814, 0.9905134439468384, 0.9909178614616394, 0.988326370716095, 0.9833605289459229, 0.9876604080200195, 0.9839612245559692, 0.9906947612762451, 0.9908005595207214, 0.9875698685646057, 0.9893256425857544, 0.9887025356292725, 0.9898350834846497, 0.9911566972732544, 0.994455873966217, 0.9932194352149963, 0.9936273097991943, 0.9947347640991211, 0.992405354976654, 0.9944004416465759, 0.9925737380981445, 0.9931935667991638, 0.992385745048523, 0.9935144186019897, 0.9898605942726135, 0.9895804524421692, 0.9837769269943237, 0.9873578548431396, 0.9771754741668701, 0.9820218086242676, 0.9741623997688293, 0.9816561341285706, 0.9828169345855713, 0.9824731349945068, 0.9845263957977295, 0.9882006645202637, 0.9848123788833618, 0.9791685938835144, 0.9754973649978638, 0.9779987335205078, 0.9754503965377808, 0.9838085770606995, 0.9638586044311523, 0.9692134261131287, 0.9874365329742432, 0.9856598377227783, 0.9835430383682251, 0.9830403923988342, 0.9836876392364502, 0.9849803447723389, 0.9869235157966614, 0.986042320728302, 0.9873959422111511, 0.9777547717094421, 0.978327214717865, 0.984021008014679, 0.9798968434333801, 0.9796400666236877, 0.9687164425849915, 0.9742372035980225, 0.9646180272102356, 0.9620295166969299, 0.9341326951980591, 0.9743855595588684, 0.9581153988838196, 0.9505571722984314, 0.8886883854866028, 0.5679162740707397, 0.5894801020622253, 0.7016757726669312, 0.7972046136856079, 0.7485960125923157, 0.9035056233406067, 0.9503892660140991, 0.9814630746841431, 0.9808785915374756, 0.9860157370567322, 0.9818689227104187, 0.9813288450241089, 0.9889559149742126, 0.9902655482292175, 0.9909592866897583, 0.9860018491744995, 0.9891833066940308, 0.9911848902702332, 0.9921283721923828, 0.9916765689849854, 0.9901385307312012, 0.9929019808769226, 0.9928820133209229]</t>
+          <t>[0.9990177154541016, 0.9990311861038208, 0.9989689588546753, 0.9992303848266602, 0.9988852143287659, 0.9984708428382874, 0.9994687438011169, 0.9994921684265137, 0.9991969466209412, 0.9982752799987793, 0.996221661567688, 0.9971129894256592, 0.9990841150283813, 0.999128520488739, 0.9981359243392944, 0.9986528158187866, 0.9982811212539673, 0.9975301623344421, 0.9979997277259827, 0.9984858632087708, 0.9983789920806885, 0.9986769556999207, 0.9977526068687439, 0.9979714751243591, 0.9983149766921997, 0.9980170726776123, 0.9965981841087341, 0.9972550272941589, 0.9968198537826538, 0.9985670447349548, 0.9986470341682434, 0.9978011250495911, 0.9982265830039978, 0.9980650544166565, 0.9983892440795898, 0.9984512329101562, 0.9987701773643494, 0.9986152648925781, 0.998751163482666, 0.9990062117576599, 0.998458743095398, 0.9990676045417786, 0.9988240599632263, 0.9986520409584045, 0.9987550973892212, 0.9990946054458618, 0.9983148574829102, 0.9983341097831726, 0.997780978679657, 0.9981175661087036, 0.9967208504676819, 0.9973955154418945, 0.9964932799339294, 0.9964246153831482, 0.9957103729248047, 0.9965362548828125, 0.9967448711395264, 0.9977014660835266, 0.9972231388092041, 0.9953101277351379, 0.9927030801773071, 0.9959003329277039, 0.9936732053756714, 0.9975095987319946, 0.9938424825668335, 0.9941995143890381, 0.9977205395698547, 0.997565507888794, 0.9970043301582336, 0.9981922507286072, 0.9977994561195374, 0.997798502445221, 0.9968438148498535, 0.9969990253448486, 0.9980877041816711, 0.9960105419158936, 0.9948264956474304, 0.997014045715332, 0.9968187808990479, 0.9971740245819092, 0.9929632544517517, 0.9959685802459717, 0.994625985622406, 0.9968430995941162, 0.9866341352462769, 0.996605396270752, 0.9913197159767151, 0.9917631149291992, 0.9315601587295532, 0.4969996213912964, 0.46311622858047485, 0.6322557330131531, 0.788492739200592, 0.8300862312316895, 0.980211615562439, 0.9829201102256775, 0.9952614903450012, 0.9905874133110046, 0.9968695044517517, 0.9956402778625488, 0.9936568140983582, 0.9976981282234192, 0.9971873164176941, 0.9978271126747131, 0.9958721995353699, 0.9973419308662415, 0.996431827545166, 0.996207594871521, 0.9952261447906494, 0.996039628982544, 0.9965872764587402, 0.9965567588806152]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9969742298126221</v>
+        <v>0.9994921684265137</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.6436323999951128</v>
+        <v>0.6764541000011377</v>
       </c>
       <c r="J185" t="n">
-        <v>0.005746717857099222</v>
+        <v>0.006039768750010158</v>
       </c>
     </row>
     <row r="186">
@@ -7965,11 +7965,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[0.22170883417129517, 0.211634561419487, 0.17565590143203735, 0.23357351124286652, 0.3004291355609894, 0.45312896370887756, 0.3809351623058319, 0.548097550868988, 0.4554174840450287, 0.4321623742580414, 0.5252721905708313, 0.5734227895736694, 0.3739825487136841, 0.44838520884513855, 0.3814532458782196, 0.376565545797348, 0.2884557247161865, 0.4226681590080261, 0.4618556797504425, 0.41132092475891113, 0.44113558530807495, 0.36639323830604553, 0.39916980266571045, 0.6073909401893616, 0.5549003481864929, 0.5427305698394775, 0.3667696714401245, 0.5249980688095093, 0.49058306217193604, 0.3883354663848877, 0.30436423420906067, 0.2747915983200073, 0.4061274826526642, 0.30547019839286804, 0.6047385334968567, 0.4774002134799957, 0.2671428918838501, 0.2000686079263687, 0.28362375497817993, 0.3525713384151459, 0.5999392867088318, 0.5342799425125122, 0.6175216436386108, 0.5160365104675293, 0.46004003286361694, 0.3855303227901459, 0.3395548164844513, 0.3629987835884094, 0.31108981370925903, 0.24796749651432037, 0.1624010056257248, 0.1767880916595459, 0.17346765100955963, 0.26756712794303894, 0.32725510001182556, 0.4996383488178253, 0.4411117434501648, 0.5806878209114075, 0.6124043464660645, 0.596718966960907, 0.45247215032577515, 0.563856840133667, 0.2930123805999756, 0.3565611243247986, 0.5201460719108582, 0.4342082440853119, 0.42221033573150635, 0.6363473534584045, 0.5012141466140747, 0.6659277677536011, 0.6120057106018066, 0.7480850219726562, 0.5564554333686829, 0.6426980495452881, 0.5308824777603149, 0.5632869005203247, 0.4881698489189148, 0.4603370428085327, 0.3802427649497986, 0.401037335395813, 0.3783584535121918, 0.8706318736076355, 0.8881307244300842, 0.9300928711891174, 0.8452811241149902, 0.8475947380065918, 0.8987444043159485, 0.912966787815094, 0.79613196849823, 0.9453211426734924, 0.9121991395950317, 0.9435310363769531, 0.6757664084434509, 0.8610818982124329, 0.9233037829399109, 0.9567275047302246, 0.6855902075767517, 0.46005985140800476, 0.3483658730983734, 0.42767345905303955, 0.6024599671363831, 0.738053023815155, 0.7212634086608887, 0.47111839056015015, 0.7035292387008667, 0.5050534009933472, 0.49392563104629517, 0.5984116196632385, 0.3896256983280182, 0.32968321442604065, 0.3277398347854614]</t>
+          <t>[0.11625093221664429, 0.12604199349880219, 0.10098455101251602, 0.17043069005012512, 0.23556680977344513, 0.4709733724594116, 0.30795013904571533, 0.6161644458770752, 0.47640904784202576, 0.38261011242866516, 0.47647517919540405, 0.5905141830444336, 0.3224092423915863, 0.4217914044857025, 0.37039926648139954, 0.39862534403800964, 0.2439698874950409, 0.33496999740600586, 0.3921054005622864, 0.5049962997436523, 0.47382667660713196, 0.2523114085197449, 0.29514187574386597, 0.6033370494842529, 0.6407497525215149, 0.6238055229187012, 0.2310030609369278, 0.5407993793487549, 0.5957640409469604, 0.46228206157684326, 0.24762995541095734, 0.24644030630588531, 0.35970568656921387, 0.3096412718296051, 0.5211043357849121, 0.41230231523513794, 0.14999431371688843, 0.12327183037996292, 0.26028555631637573, 0.38053229451179504, 0.7334899306297302, 0.7138548493385315, 0.7737418413162231, 0.5052536725997925, 0.3562774658203125, 0.3172758221626282, 0.17984679341316223, 0.21980974078178406, 0.17922177910804749, 0.11961434036493301, 0.06973184645175934, 0.09838251769542694, 0.08593037724494934, 0.1399543732404709, 0.22700069844722748, 0.3289026916027069, 0.2946699261665344, 0.4086569547653198, 0.37450918555259705, 0.5306172966957092, 0.2669889032840729, 0.528718888759613, 0.1926116943359375, 0.3014211058616638, 0.5846261978149414, 0.35888510942459106, 0.31853315234184265, 0.5676660537719727, 0.6281886100769043, 0.8275906443595886, 0.6811760067939758, 0.8688617944717407, 0.5457635521888733, 0.6376655697822571, 0.5355356931686401, 0.5761395692825317, 0.36220812797546387, 0.3391138017177582, 0.2879450023174286, 0.40127819776535034, 0.25529494881629944, 0.9222204089164734, 0.9363490343093872, 0.9787046909332275, 0.8521143198013306, 0.8828157782554626, 0.9271131753921509, 0.9635879993438721, 0.8615868091583252, 0.987122654914856, 0.9350712299346924, 0.9760673642158508, 0.6851767897605896, 0.937784731388092, 0.9507913589477539, 0.9942532181739807, 0.5727838277816772, 0.2650713324546814, 0.15231303870677948, 0.22946538031101227, 0.4897812604904175, 0.6736076474189758, 0.6328312754631042, 0.1752179116010666, 0.5138242244720459, 0.25070562958717346, 0.23022803664207458, 0.3863135874271393, 0.22133168578147888, 0.15684135258197784, 0.15670819580554962]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.9567275047302246</v>
+        <v>0.9942532181739807</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.6374010000145063</v>
+        <v>0.6210600000049453</v>
       </c>
       <c r="J186" t="n">
-        <v>0.005742351351482038</v>
+        <v>0.005595135135179688</v>
       </c>
     </row>
     <row r="187">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.5810290575027466, 0.576129138469696, 0.7410630583763123, 0.8271951675415039, 0.5964857339859009, 0.7253409624099731, 0.6378906965255737, 0.7909625768661499, 0.8297766447067261, 0.874221920967102, 0.9462912678718567, 0.971042275428772, 0.8711435794830322, 0.9211039543151855, 0.8679752349853516, 0.8891682624816895, 0.9704161286354065, 0.9823916554450989, 0.973770797252655, 0.9340381622314453, 0.9322235584259033, 0.9317732453346252, 0.9211028218269348, 0.9387820363044739, 0.8928884267807007, 0.9402616024017334, 0.9181707501411438, 0.9384388327598572, 0.9654008150100708, 0.9700872302055359, 0.9636957049369812, 0.9744216799736023, 0.965306282043457, 0.9827430248260498, 0.9748365879058838, 0.8798365592956543, 0.8591983914375305, 0.9672699570655823, 0.9630581140518188, 0.9706733822822571, 0.9600608944892883, 0.9695708751678467, 0.9639751315116882, 0.7427747249603271, 0.7018275260925293, 0.6671973466873169, 0.527194619178772, 0.7135193347930908, 0.5412195920944214, 0.7615987658500671, 0.510270893573761, 0.5011574029922485, 0.3134590983390808, 0.8424199223518372, 0.9616897106170654, 0.9762572050094604, 0.9392846822738647, 0.9346041679382324, 0.9784862995147705, 0.9702000617980957, 0.8854267001152039, 0.8199713826179504, 0.9078357219696045, 0.9542748928070068, 0.9603672027587891, 0.9622552394866943, 0.9663476943969727, 0.963962972164154, 0.9539107084274292, 0.968377947807312, 0.9187241196632385, 0.9042845368385315, 0.7394439578056335, 0.7405531406402588, 0.6312718391418457, 0.3025021553039551, 0.5220003724098206, 0.6133111715316772, 0.3591592013835907, 0.5946916341781616, 0.7083948850631714, 0.8525078296661377, 0.9070026278495789, 0.936400830745697, 0.9718272686004639, 0.9852834939956665, 0.9859632849693298, 0.9841576814651489, 0.9825190305709839, 0.9595043659210205, 0.9359327554702759, 0.9297405481338501, 0.9494577050209045, 0.9426050186157227, 0.9446547627449036, 0.9274404644966125, 0.8825376033782959, 0.893027663230896, 0.9169477820396423, 0.9621127247810364, 0.9356603622436523, 0.9554310441017151, 0.8815882205963135, 0.9448068141937256, 0.8958032727241516, 0.8934592008590698, 0.7735112309455872, 0.7404599189758301, 0.9228198528289795, 0.9569737315177917, 0.957025945186615]</t>
+          <t>[0.7898438572883606, 0.8264404535293579, 0.9067225456237793, 0.9379940032958984, 0.7954327464103699, 0.8846451044082642, 0.8275260329246521, 0.9224777817726135, 0.9132312536239624, 0.9458215832710266, 0.9761305451393127, 0.989436149597168, 0.9259597063064575, 0.9644731283187866, 0.9595051407814026, 0.9389397501945496, 0.9859347343444824, 0.9933151602745056, 0.9888357520103455, 0.9728775024414062, 0.9776366949081421, 0.9783585071563721, 0.9719905853271484, 0.9845321774482727, 0.9456120729446411, 0.972044050693512, 0.9616661667823792, 0.9599019289016724, 0.9767351746559143, 0.986660361289978, 0.9841734170913696, 0.984188437461853, 0.9762355089187622, 0.9943180680274963, 0.9884119629859924, 0.9395137429237366, 0.8664501309394836, 0.9813984036445618, 0.9812875390052795, 0.9889453053474426, 0.9830524921417236, 0.9903862476348877, 0.9934476017951965, 0.9101153016090393, 0.9278032779693604, 0.9371368288993835, 0.8296271562576294, 0.9191341400146484, 0.7971727848052979, 0.9215893745422363, 0.6762319803237915, 0.7952485680580139, 0.6390072703361511, 0.9732677936553955, 0.9932613968849182, 0.9952552914619446, 0.9826432466506958, 0.9752208590507507, 0.9957220554351807, 0.990730345249176, 0.9481379389762878, 0.935063898563385, 0.9624015092849731, 0.987680196762085, 0.9870029091835022, 0.9893150329589844, 0.9914641976356506, 0.9922561645507812, 0.9873847961425781, 0.9894826412200928, 0.955784261226654, 0.9776982665061951, 0.9112741947174072, 0.8846614956855774, 0.8154228329658508, 0.581407368183136, 0.7903385162353516, 0.846204936504364, 0.6382274031639099, 0.8594368100166321, 0.914238691329956, 0.9487558603286743, 0.9554288387298584, 0.9758756756782532, 0.9950965046882629, 0.9971843361854553, 0.9978311657905579, 0.9969086050987244, 0.9967175126075745, 0.9898432493209839, 0.9840191602706909, 0.9820210933685303, 0.9906598925590515, 0.9854509830474854, 0.9817991852760315, 0.9715569019317627, 0.9355795979499817, 0.9584625363349915, 0.9841399192810059, 0.9928327798843384, 0.9891317486763, 0.9929980039596558, 0.9684094786643982, 0.9881030917167664, 0.9561609029769897, 0.9701818227767944, 0.9309678673744202, 0.9090701937675476, 0.9831453561782837, 0.9930793642997742, 0.993133008480072]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.9859632849693298</v>
+        <v>0.9978311657905579</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.6325226000044495</v>
+        <v>0.6296983999927761</v>
       </c>
       <c r="J187" t="n">
-        <v>0.005698401801841888</v>
+        <v>0.005672958558493479</v>
       </c>
     </row>
     <row r="188">
@@ -8045,11 +8045,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.2785094082355499, 0.354280948638916, 0.35632723569869995, 0.3315249979496002, 0.5783785581588745, 0.500160276889801, 0.3718187212944031, 0.5240073204040527, 0.2597491443157196, 0.3894534707069397, 0.38053980469703674, 0.5615901947021484, 0.44314101338386536, 0.31623148918151855, 0.2557239532470703, 0.3182029128074646, 0.2614560127258301, 0.2609913647174835, 0.602130115032196, 0.484430193901062, 0.37461546063423157, 0.3410213887691498, 0.3820512890815735, 0.495742529630661, 0.44164037704467773, 0.604680597782135, 0.3594541847705841, 0.5577077865600586, 0.6151808500289917, 0.6663665175437927, 0.5959674715995789, 0.673168420791626, 0.590076208114624, 0.5366515517234802, 0.7292321920394897, 0.49818891286849976, 0.2855892777442932, 0.4276268184185028, 0.4044100046157837, 0.46376726031303406, 0.43820324540138245, 0.20769943296909332, 0.1888176053762436, 0.31443125009536743, 0.443344384431839, 0.25565433502197266, 0.33312326669692993, 0.5475034713745117, 0.34631747007369995, 0.29804688692092896, 0.4184347689151764, 0.36181384325027466, 0.2549813985824585, 0.3575708866119385, 0.23953889310359955, 0.2701813578605652, 0.2223711460828781, 0.245184987783432, 0.3741723895072937, 0.33289018273353577, 0.24766436219215393, 0.18105444312095642, 0.19252431392669678, 0.2088138908147812, 0.2509264051914215, 0.2372753620147705, 0.19182179868221283, 0.13721853494644165, 0.13770261406898499, 0.20775039494037628, 0.23154185712337494, 0.22860775887966156, 0.21242675185203552, 0.24170880019664764, 0.15108555555343628, 0.17452892661094666, 0.23257039487361908, 0.1848527491092682, 0.30748292803764343, 0.33777549862861633, 0.32994696497917175, 0.34672147035598755, 0.45344945788383484, 0.3472927510738373, 0.4961548447608948, 0.39709025621414185, 0.2545055150985718, 0.2998417615890503, 0.3764621913433075, 0.2246677726507187, 0.23451010882854462, 0.24407333135604858, 0.3149825930595398, 0.49730685353279114, 0.2590421438217163, 0.33947235345840454, 0.16218386590480804, 0.30464208126068115, 0.2604602873325348, 0.10502856224775314, 0.12832824885845184, 0.1647404283285141, 0.2625438868999481, 0.2201419621706009, 0.2760973870754242, 0.5716456770896912, 0.16645008325576782, 0.25792959332466125, 0.26995548605918884, 0.27524688839912415, 0.27819088101387024]</t>
+          <t>[0.22067072987556458, 0.3920235335826874, 0.3599325120449066, 0.3735020160675049, 0.5538840889930725, 0.47726234793663025, 0.23754233121871948, 0.6109791398048401, 0.2568836808204651, 0.36438271403312683, 0.3747924566268921, 0.7055927515029907, 0.48919668793678284, 0.39419227838516235, 0.23121577501296997, 0.3690582811832428, 0.2739098072052002, 0.27476027607917786, 0.881844162940979, 0.7918083071708679, 0.6776920557022095, 0.6830477118492126, 0.61030113697052, 0.7844706177711487, 0.7456938028335571, 0.8352253437042236, 0.4614535868167877, 0.6521817445755005, 0.8367722034454346, 0.8749024271965027, 0.8241482973098755, 0.869375467300415, 0.8128277063369751, 0.7943772673606873, 0.9507514238357544, 0.8692541122436523, 0.47092029452323914, 0.6866855025291443, 0.6770428419113159, 0.6732168793678284, 0.46957632899284363, 0.15720370411872864, 0.17591866850852966, 0.3652472198009491, 0.4462805986404419, 0.21862941980361938, 0.26707255840301514, 0.6994038820266724, 0.4252067506313324, 0.22151821851730347, 0.4448981285095215, 0.3847789466381073, 0.3088361620903015, 0.3724183738231659, 0.23739206790924072, 0.22656932473182678, 0.21591366827487946, 0.23641586303710938, 0.3375864326953888, 0.27427712082862854, 0.24166691303253174, 0.21109241247177124, 0.31160974502563477, 0.3160775899887085, 0.3497167229652405, 0.3605969548225403, 0.33954617381095886, 0.21833090484142303, 0.18870580196380615, 0.2810882329940796, 0.28327569365501404, 0.3868190050125122, 0.3424302041530609, 0.4775695204734802, 0.19524642825126648, 0.3737943768501282, 0.38494598865509033, 0.36116817593574524, 0.40426307916641235, 0.5188280344009399, 0.4248802661895752, 0.561168372631073, 0.6502692103385925, 0.45666608214378357, 0.5721398591995239, 0.4571755826473236, 0.2619324028491974, 0.2879636585712433, 0.412689745426178, 0.1577519029378891, 0.17597618699073792, 0.3537638783454895, 0.3493773937225342, 0.5827274918556213, 0.31021755933761597, 0.4628780782222748, 0.1324700266122818, 0.3945648968219757, 0.2405000627040863, 0.09787967056035995, 0.10425205528736115, 0.14425665140151978, 0.21662719547748566, 0.2420775443315506, 0.3172268271446228, 0.7739609479904175, 0.09993870556354523, 0.21690493822097778, 0.4297313392162323, 0.2572694420814514, 0.2624526917934418]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.7292321920394897</v>
+        <v>0.9507514238357544</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.7255755999940448</v>
+        <v>0.8124593999964418</v>
       </c>
       <c r="J188" t="n">
-        <v>0.006536717117063467</v>
+        <v>0.007319454054021998</v>
       </c>
     </row>
     <row r="189">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[0.5038430094718933, 0.6264532208442688, 0.6648721098899841, 0.7654322981834412, 0.6932232975959778, 0.7651975154876709, 0.6377140283584595, 0.8148922324180603, 0.9006437659263611, 0.7966799139976501, 0.6916435360908508, 0.8406752347946167, 0.8419237732887268, 0.47134077548980713, 0.45832306146621704, 0.37983348965644836, 0.6557914614677429, 0.888274073600769, 0.9051375985145569, 0.9320780038833618, 0.8754611015319824, 0.7736456990242004, 0.7092482447624207, 0.6361912488937378, 0.3269253373146057, 0.4912063181400299, 0.6250894665718079, 0.33487364649772644, 0.30150943994522095, 0.4539142847061157, 0.2021070420742035, 0.2562577724456787, 0.14034850895404816, 0.3286478817462921, 0.2848850190639496, 0.7234159111976624, 0.6096739172935486, 0.40171682834625244, 0.2070634961128235, 0.3835265636444092, 0.507483720779419, 0.4856191873550415, 0.27492624521255493, 0.25825661420822144, 0.49389520287513733, 0.4139500856399536, 0.3650079369544983, 0.4370832145214081, 0.49359339475631714, 0.4320482313632965, 0.6168586015701294, 0.31050312519073486, 0.552530825138092, 0.6535380482673645, 0.5736432075500488, 0.7100363373756409, 0.8719255924224854, 0.8634057641029358, 0.8923004865646362, 0.6221098899841309, 0.5756270885467529, 0.580163300037384, 0.5108399987220764, 0.7925221920013428, 0.6597500443458557, 0.7881000638008118, 0.7858571410179138, 0.5003044009208679, 0.3481786847114563, 0.48034223914146423, 0.7339071035385132, 0.6649657487869263, 0.6619976758956909, 0.6799963712692261, 0.37440040707588196, 0.6874036192893982, 0.8704686760902405, 0.8617980480194092, 0.8767837285995483, 0.847493052482605, 0.605595052242279, 0.757835865020752, 0.8338979482650757, 0.9260560274124146, 0.66384357213974, 0.5412479639053345, 0.4958606958389282, 0.41547414660453796, 0.5364312529563904, 0.6034732460975647, 0.6292731761932373, 0.7383579611778259, 0.676414966583252, 0.4461227357387543, 0.5332483053207397, 0.5064205527305603, 0.3087131679058075, 0.7006581425666809, 0.6278743743896484, 0.3707275390625, 0.40071573853492737, 0.3187541961669922, 0.3639376759529114, 0.5962573885917664, 0.4434714913368225, 0.2579469382762909, 0.21715421974658966, 0.27060666680336, 0.1910349577665329, 0.24526874721050262, 0.161133274435997, 0.16154791414737701]</t>
+          <t>[0.7769697904586792, 0.8907594680786133, 0.8999351859092712, 0.9495766162872314, 0.9369067549705505, 0.9729859232902527, 0.9352297782897949, 0.9735819697380066, 0.9780836701393127, 0.9595633149147034, 0.9126761555671692, 0.9805634021759033, 0.9755426049232483, 0.8220787048339844, 0.836385190486908, 0.7844528555870056, 0.8830175995826721, 0.9860960841178894, 0.986993670463562, 0.9903852939605713, 0.9788389801979065, 0.9672303795814514, 0.9143568873405457, 0.9072385430335999, 0.6396617293357849, 0.8564866781234741, 0.8608154058456421, 0.6776450276374817, 0.4795222282409668, 0.7388108372688293, 0.4417163133621216, 0.539432942867279, 0.23555968701839447, 0.6209602355957031, 0.5036225914955139, 0.9236566424369812, 0.7990164160728455, 0.5749324560165405, 0.30750206112861633, 0.6932477355003357, 0.8095728754997253, 0.8063521981239319, 0.46054115891456604, 0.5431444644927979, 0.7658940553665161, 0.7427139282226562, 0.580595076084137, 0.7633235454559326, 0.7915267944335938, 0.746121346950531, 0.8547605276107788, 0.7101057171821594, 0.8428203463554382, 0.8927224278450012, 0.8404043912887573, 0.9367356300354004, 0.9685095548629761, 0.985450029373169, 0.9851904511451721, 0.816016674041748, 0.7290140986442566, 0.7838269472122192, 0.6216635704040527, 0.9213793277740479, 0.738513708114624, 0.9548444151878357, 0.9483378529548645, 0.6710115671157837, 0.4893653988838196, 0.6878370046615601, 0.8762271404266357, 0.7619310021400452, 0.8440670967102051, 0.8967551589012146, 0.38318556547164917, 0.840219259262085, 0.9758235812187195, 0.9696505665779114, 0.9518057703971863, 0.9562802314758301, 0.7737787961959839, 0.9001249074935913, 0.9488450288772583, 0.9817646145820618, 0.8616419434547424, 0.6860361695289612, 0.6798956394195557, 0.6412503719329834, 0.7311228513717651, 0.8461926579475403, 0.8736045956611633, 0.9343385100364685, 0.9294241666793823, 0.7526004314422607, 0.8840187788009644, 0.8798021078109741, 0.6920430064201355, 0.9131737947463989, 0.859935998916626, 0.6346821188926697, 0.6387225389480591, 0.5898956656455994, 0.6432314515113831, 0.8373056650161743, 0.6353892087936401, 0.5431085228919983, 0.38514190912246704, 0.513708233833313, 0.31770533323287964, 0.4393294155597687, 0.2599671185016632, 0.2594678997993469]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.9320780038833618</v>
+        <v>0.9903852939605713</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.6301263999775983</v>
+        <v>0.6232319999980973</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005626128571228557</v>
+        <v>0.00556457142855444</v>
       </c>
     </row>
     <row r="190">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[0.3004017770290375, 0.1730622500181198, 0.07525646686553955, 0.24861885607242584, 0.07992208003997803, 0.08132980018854141, 0.059817127883434296, 0.066909059882164, 0.10790566354990005, 0.09949090331792831, 0.07595954090356827, 0.16008801758289337, 0.17781858146190643, 0.23715396225452423, 0.23381534218788147, 0.22799962759017944, 0.22337530553340912, 0.2849976122379303, 0.24442335963249207, 0.4754912257194519, 0.38065305352211, 0.5223408937454224, 0.4778289794921875, 0.6589332818984985, 0.7802391052246094, 0.541804850101471, 0.6155236959457397, 0.35963675379753113, 0.3398206830024719, 0.24169518053531647, 0.2586227357387543, 0.5226216316223145, 0.5776867866516113, 0.7115852236747742, 0.35677656531333923, 0.6225168704986572, 0.7267465591430664, 0.6897739171981812, 0.5737153887748718, 0.6174651384353638, 0.5482662320137024, 0.8368315696716309, 0.7577199935913086, 0.6678959131240845, 0.4482128322124481, 0.3210528492927551, 0.3122457265853882, 0.2618827521800995, 0.17251655459403992, 0.08814489841461182, 0.2452244609594345, 0.11672466993331909, 0.1429290473461151, 0.21827130019664764, 0.14395494759082794, 0.27602288126945496, 0.2879209816455841, 0.24107614159584045, 0.42091917991638184, 0.4838901162147522, 0.4737377464771271, 0.8061564564704895, 0.7054370045661926, 0.5551464557647705, 0.5004029870033264, 0.6189229488372803, 0.6947444081306458, 0.7645289301872253, 0.506964921951294, 0.8316459655761719, 0.7269780039787292, 0.7219699621200562, 0.7281336784362793, 0.78904789686203, 0.8378806710243225, 0.587162435054779, 0.6221911311149597, 0.6030866503715515, 0.5536091923713684, 0.7287310361862183, 0.7107108235359192, 0.6712068915367126, 0.7252244353294373, 0.5042144060134888, 0.7768346071243286, 0.8432655930519104, 0.8102544546127319, 0.732496976852417, 0.689900279045105, 0.7015776038169861, 0.4426635205745697, 0.6019162535667419, 0.3496454358100891, 0.5819591879844666, 0.49921929836273193, 0.44910281896591187, 0.5344222784042358, 0.40034249424934387, 0.19429215788841248, 0.35869795083999634, 0.35646915435791016, 0.7543702721595764, 0.42445555329322815, 0.4526650309562683, 0.6293825507164001, 0.34509050846099854, 0.4605885446071625, 0.5353990793228149, 0.5003103017807007, 0.4145476520061493, 0.4217979609966278]</t>
+          <t>[0.3649059534072876, 0.24264656007289886, 0.15729987621307373, 0.46563470363616943, 0.16316716372966766, 0.12142474949359894, 0.08800102770328522, 0.09331861883401871, 0.11526685953140259, 0.09799501299858093, 0.06636331975460052, 0.15978536009788513, 0.22470992803573608, 0.3265680968761444, 0.28707876801490784, 0.24550005793571472, 0.2823464870452881, 0.31629249453544617, 0.24153079092502594, 0.536151647567749, 0.3736450672149658, 0.5260292887687683, 0.4129161536693573, 0.6733048558235168, 0.8908295035362244, 0.4998355805873871, 0.5663037896156311, 0.4092254936695099, 0.23066982626914978, 0.14882588386535645, 0.17073485255241394, 0.4903045892715454, 0.5152990818023682, 0.6861070394515991, 0.28893375396728516, 0.5967124104499817, 0.7294695377349854, 0.7048595547676086, 0.7076180577278137, 0.6064156889915466, 0.5836988091468811, 0.8810778260231018, 0.7510029673576355, 0.7702553272247314, 0.29099154472351074, 0.3241081237792969, 0.2420443892478943, 0.45236262679100037, 0.2260764241218567, 0.17546916007995605, 0.5003783106803894, 0.233140230178833, 0.2596699595451355, 0.4408704340457916, 0.2581527531147003, 0.37992703914642334, 0.47629687190055847, 0.2993175685405731, 0.5913118124008179, 0.6379446983337402, 0.6215936541557312, 0.8683299422264099, 0.716575562953949, 0.568030595779419, 0.4681088924407959, 0.6159865260124207, 0.5922497510910034, 0.6603059768676758, 0.3990819454193115, 0.763279914855957, 0.5836374163627625, 0.6487413048744202, 0.4557693898677826, 0.6737828254699707, 0.7373024225234985, 0.5588114261627197, 0.6206624507904053, 0.697555661201477, 0.6937890648841858, 0.83705735206604, 0.733469545841217, 0.7744665145874023, 0.7824293375015259, 0.5248292684555054, 0.8015525937080383, 0.8924596309661865, 0.8413205742835999, 0.7700371146202087, 0.7139649391174316, 0.7669469714164734, 0.49928417801856995, 0.6078460812568665, 0.43338093161582947, 0.678310751914978, 0.6425318717956543, 0.5522193312644958, 0.6402283310890198, 0.48522692918777466, 0.1786956638097763, 0.45198604464530945, 0.40847718715667725, 0.7598398923873901, 0.5735843777656555, 0.5277745723724365, 0.5350343585014343, 0.3115616738796234, 0.3288942873477936, 0.5090212225914001, 0.5835709571838379, 0.3735845386981964, 0.37864768505096436]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.8432655930519104</v>
+        <v>0.8924596309661865</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.6382748000032734</v>
+        <v>0.6377493000036338</v>
       </c>
       <c r="J190" t="n">
-        <v>0.005750223423452914</v>
+        <v>0.005745489189221927</v>
       </c>
     </row>
     <row r="191">
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[0.9263576865196228, 0.8954117894172668, 0.9887447357177734, 0.9944304823875427, 0.9798632264137268, 0.9750015139579773, 0.9646685123443604, 0.9040405750274658, 0.8646286129951477, 0.7790951132774353, 0.8154379725456238, 0.9044370055198669, 0.8900718688964844, 0.8963919281959534, 0.9072874188423157, 0.8401086926460266, 0.8866962194442749, 0.7968367338180542, 0.8919559121131897, 0.9089414477348328, 0.9189091920852661, 0.9559862017631531, 0.9203668236732483, 0.9383612275123596, 0.8483079075813293, 0.9340554475784302, 0.8600702285766602, 0.6891016364097595, 0.95667964220047, 0.98301100730896, 0.9722198247909546, 0.9578521847724915, 0.979949414730072, 0.9921554923057556, 0.9828639030456543, 0.9860960841178894, 0.9267234206199646, 0.9794594645500183, 0.9198655486106873, 0.9262622594833374, 0.9686236381530762, 0.9510039687156677, 0.9607823491096497, 0.9689708352088928, 0.9721106290817261, 0.9569945931434631, 0.9446333050727844, 0.9613059759140015, 0.9824631214141846, 0.9656094908714294, 0.9654828906059265, 0.9751089811325073, 0.9451903700828552, 0.953620970249176, 0.7801775336265564, 0.8239564299583435, 0.9411701560020447, 0.9751142859458923, 0.9720070958137512, 0.9677180647850037, 0.9735757112503052, 0.9568454027175903, 0.9528738856315613, 0.9669349193572998, 0.9068851470947266, 0.8648374080657959, 0.8812598586082458, 0.8186268210411072, 0.9434062242507935, 0.853052020072937, 0.7624271512031555, 0.6219375729560852, 0.3828011155128479, 0.7747104167938232, 0.8759148120880127, 0.8750591278076172, 0.6842625737190247, 0.5721892714500427, 0.7041016221046448, 0.709082305431366, 0.7760787010192871, 0.8364720940589905, 0.7458962202072144, 0.7039788365364075, 0.5818161368370056, 0.49918466806411743, 0.4427720606327057, 0.4859839975833893, 0.4208078980445862, 0.5081276297569275, 0.3560620844364166, 0.2988243103027344, 0.3096983730792999, 0.2110080122947693, 0.24730928242206573, 0.3387283682823181, 0.35902139544487, 0.2638285756111145, 0.460517942905426, 0.42579060792922974, 0.33335989713668823, 0.26579171419143677, 0.27729877829551697, 0.46937456727027893, 0.6488282084465027, 0.6390395164489746, 0.6455506086349487, 0.3466942310333252, 0.4101085066795349, 0.39515894651412964, 0.5328762531280518, 0.5271748900413513]</t>
+          <t>[0.9803413152694702, 0.968675434589386, 0.9987855553627014, 0.9993467926979065, 0.9950475692749023, 0.995433509349823, 0.9935985803604126, 0.9637081027030945, 0.9664728045463562, 0.9025405645370483, 0.9173780679702759, 0.9884578585624695, 0.9794720411300659, 0.9846583604812622, 0.9849138855934143, 0.9682402610778809, 0.9726012349128723, 0.9008447527885437, 0.9376484155654907, 0.9515445232391357, 0.9758201837539673, 0.9918709993362427, 0.9759465456008911, 0.9862666130065918, 0.9568772315979004, 0.9852526783943176, 0.9729909300804138, 0.7533723711967468, 0.9909073114395142, 0.9954875111579895, 0.9812383651733398, 0.9834827184677124, 0.9909098744392395, 0.9984614849090576, 0.9952074885368347, 0.9963899254798889, 0.9810901284217834, 0.9959219694137573, 0.9694139957427979, 0.9522614479064941, 0.9880743622779846, 0.9773882031440735, 0.9786984920501709, 0.9867504239082336, 0.9930546879768372, 0.9843721985816956, 0.9836134910583496, 0.9941698312759399, 0.9972853660583496, 0.9929563999176025, 0.9895680546760559, 0.9930649399757385, 0.9844473600387573, 0.9911359548568726, 0.8550904393196106, 0.908920407295227, 0.9641810059547424, 0.9933904409408569, 0.9935380816459656, 0.9917178153991699, 0.9966138005256653, 0.9933979511260986, 0.9775456786155701, 0.9932934045791626, 0.9804264307022095, 0.9569931030273438, 0.9747143387794495, 0.9519602656364441, 0.9879482388496399, 0.9678423404693604, 0.9136143922805786, 0.8134589791297913, 0.561298131942749, 0.9630274772644043, 0.9877117276191711, 0.9677597284317017, 0.9015825390815735, 0.6526999473571777, 0.9542996883392334, 0.957746684551239, 0.9827609658241272, 0.9865508079528809, 0.9406794905662537, 0.8934503197669983, 0.8344085812568665, 0.8409702181816101, 0.7194094657897949, 0.748313844203949, 0.7091145515441895, 0.6046334505081177, 0.2978130578994751, 0.3424021601676941, 0.30626729130744934, 0.20345965027809143, 0.14792148768901825, 0.30385276675224304, 0.3700578212738037, 0.23958371579647064, 0.5210488438606262, 0.47243088483810425, 0.34895193576812744, 0.260051429271698, 0.34078529477119446, 0.5846731066703796, 0.8618452548980713, 0.8579518795013428, 0.8150730729103088, 0.3754177987575531, 0.3487565815448761, 0.34584277868270874, 0.5282793045043945, 0.5287038087844849]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.9944304823875427</v>
+        <v>0.9993467926979065</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.657388899999205</v>
+        <v>0.6411889000009978</v>
       </c>
       <c r="J191" t="n">
-        <v>0.005869543749992902</v>
+        <v>0.005724900892866052</v>
       </c>
     </row>
     <row r="192">
@@ -8205,11 +8205,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[0.9231117367744446, 0.8615092039108276, 0.7170510292053223, 0.6952208280563354, 0.7535068392753601, 0.7995373010635376, 0.5782022476196289, 0.5977844595909119, 0.5469328761100769, 0.6711611151695251, 0.5986511707305908, 0.5709994435310364, 0.8482368588447571, 0.769555926322937, 0.6207996010780334, 0.3798922598361969, 0.1968516707420349, 0.581395149230957, 0.26312747597694397, 0.3077126145362854, 0.6038885712623596, 0.8229124546051025, 0.6932363510131836, 0.7562496066093445, 0.6800454258918762, 0.23219965398311615, 0.27371329069137573, 0.9135078191757202, 0.35444074869155884, 0.37171170115470886, 0.41470324993133545, 0.14717671275138855, 0.11083240061998367, 0.16624626517295837, 0.31388846039772034, 0.29382529854774475, 0.44471219182014465, 0.3261146545410156, 0.3320825397968292, 0.49064794182777405, 0.40087443590164185, 0.3643539249897003, 0.3001311421394348, 0.46421220898628235, 0.2681851089000702, 0.6799860000610352, 0.3166356086730957, 0.23946481943130493, 0.23748396337032318, 0.4655308723449707, 0.19432510435581207, 0.25664564967155457, 0.1802428513765335, 0.2094026356935501, 0.20852531492710114, 0.21898618340492249, 0.17712880671024323, 0.1961687058210373, 0.18642911314964294, 0.27834734320640564, 0.2982947528362274, 0.26879042387008667, 0.3048912584781647, 0.27935031056404114, 0.417574942111969, 0.28672659397125244, 0.29610171914100647, 0.15922926366329193, 0.1540910303592682, 0.317564994096756, 0.29994338750839233, 0.17475569248199463, 0.18078027665615082, 0.18273764848709106, 0.13619863986968994, 0.11126294732093811, 0.11406426131725311, 0.1401795595884323, 0.5412577986717224, 0.7930288910865784, 0.7251502871513367, 0.7061957120895386, 0.7464693188667297, 0.89145827293396, 0.7035110592842102, 0.889863133430481, 0.7152979969978333, 0.5962976217269897, 0.7116045355796814, 0.6072736382484436, 0.7827133536338806, 0.8902077078819275, 0.836992621421814, 0.8563587069511414, 0.584814727306366, 0.7185786366462708, 0.6125125885009766, 0.6762840151786804, 0.36059144139289856, 0.7092036604881287, 0.7926375865936279, 0.7962766885757446, 0.636904776096344, 0.8000797629356384, 0.7951613068580627, 0.8213100433349609, 0.6639900207519531, 0.759954571723938, 0.6619424819946289, 0.6362451910972595, 0.6385113000869751]</t>
+          <t>[0.9141894578933716, 0.8710479140281677, 0.6644046306610107, 0.8029241561889648, 0.8520641922950745, 0.8393566012382507, 0.47459712624549866, 0.6210642457008362, 0.622488796710968, 0.7468639612197876, 0.5078338980674744, 0.4739310145378113, 0.8236902356147766, 0.8589561581611633, 0.5057970881462097, 0.2888830900192261, 0.18744853138923645, 0.5443368554115295, 0.1749827265739441, 0.25801315903663635, 0.564790666103363, 0.8662160038948059, 0.5208607316017151, 0.6149191856384277, 0.543495774269104, 0.19086340069770813, 0.24785888195037842, 0.9095679521560669, 0.18075208365917206, 0.18272046744823456, 0.39735329151153564, 0.1578664481639862, 0.09792385250329971, 0.14875341951847076, 0.2593224048614502, 0.4490138590335846, 0.5056660771369934, 0.20855464041233063, 0.2658337652683258, 0.3633430302143097, 0.17201587557792664, 0.20235607028007507, 0.1710485965013504, 0.32253071665763855, 0.17476342618465424, 0.5842157006263733, 0.19588610529899597, 0.1046590730547905, 0.15594246983528137, 0.29684868454933167, 0.07313671708106995, 0.13342110812664032, 0.08908119797706604, 0.12421121448278427, 0.14184121787548065, 0.11136835068464279, 0.07071716338396072, 0.08884655684232712, 0.09639710932970047, 0.13806505501270294, 0.16030828654766083, 0.2175092101097107, 0.2951039969921112, 0.2718590795993805, 0.42806583642959595, 0.2659384608268738, 0.14522485435009003, 0.12175650149583817, 0.10421779751777649, 0.16671358048915863, 0.18066030740737915, 0.08350075036287308, 0.09690544009208679, 0.09836414456367493, 0.0703284740447998, 0.033184755593538284, 0.0385836623609066, 0.05069604516029358, 0.5987755060195923, 0.9008511900901794, 0.8157854676246643, 0.7825207114219666, 0.7177389860153198, 0.9101619720458984, 0.7140628099441528, 0.9528536200523376, 0.7542804479598999, 0.5900225043296814, 0.6791020035743713, 0.6863340139389038, 0.8629149198532104, 0.9641202688217163, 0.9250898957252502, 0.9538995623588562, 0.6422872543334961, 0.8246810436248779, 0.667205274105072, 0.7966978549957275, 0.4991156756877899, 0.840326189994812, 0.9185685515403748, 0.9093061089515686, 0.7534037232398987, 0.9445925354957581, 0.8924762010574341, 0.9129590392112732, 0.8502565622329712, 0.8943122029304504, 0.7903969883918762, 0.8337677121162415, 0.8342463970184326]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.9231117367744446</v>
+        <v>0.9641202688217163</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.6488666000077501</v>
+        <v>0.6274603999918327</v>
       </c>
       <c r="J192" t="n">
-        <v>0.005845645045114866</v>
+        <v>0.005652796396322817</v>
       </c>
     </row>
     <row r="193">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.747748076915741, 0.1897146850824356, 0.12752288579940796, 0.3016655445098877, 0.47415801882743835, 0.3668655455112457, 0.15201838314533234, 0.4131615459918976, 0.4453255832195282, 0.47804558277130127, 0.7138998508453369, 0.6098235249519348, 0.8036672472953796, 0.4450220763683319, 0.278411865234375, 0.41952839493751526, 0.3609282672405243, 0.5523098111152649, 0.6555503010749817, 0.41718485951423645, 0.4116100072860718, 0.2001316100358963, 0.1990094929933548, 0.22477470338344574, 0.20002196729183197, 0.15635143220424652, 0.2243076115846634, 0.36832472681999207, 0.4035966694355011, 0.16583921015262604, 0.2558872699737549, 0.4502300024032593, 0.4017728865146637, 0.492624431848526, 0.39527881145477295, 0.827382504940033, 0.7178279161453247, 0.5773619413375854, 0.35765790939331055, 0.47222527861595154, 0.5038628578186035, 0.5144256353378296, 0.7115774154663086, 0.6730841398239136, 0.810538113117218, 0.7938782572746277, 0.5805402398109436, 0.8222547173500061, 0.6158777475357056, 0.7768760323524475, 0.678344190120697, 0.7547222971916199, 0.3678487539291382, 0.6060795187950134, 0.6080418825149536, 0.716213047504425, 0.7102722525596619, 0.7448443174362183, 0.6835290193557739, 0.765227735042572, 0.5974267721176147, 0.6897445321083069, 0.6621642708778381, 0.45642369985580444, 0.5909988284111023, 0.42690083384513855, 0.6030270457267761, 0.40919849276542664, 0.6103357076644897, 0.4325833320617676, 0.46827903389930725, 0.33903443813323975, 0.33352982997894287, 0.3523780107498169, 0.3289748728275299, 0.4571956992149353, 0.47249510884284973, 0.5182392001152039, 0.3000953793525696, 0.34853529930114746, 0.360624223947525, 0.3519493043422699, 0.6219919323921204, 0.6548798680305481, 0.5730010867118835, 0.45667120814323425, 0.5289406180381775, 0.4884680509567261, 0.39205995202064514, 0.4312494695186615, 0.4337126314640045, 0.4767723083496094, 0.3395025134086609, 0.29034623503685, 0.2802274525165558, 0.36560386419296265, 0.49985450506210327, 0.8056409358978271, 0.9371143579483032, 0.3928050398826599, 0.8922489881515503, 0.9305317401885986, 0.8098877668380737, 0.5043314099311829, 0.7969468235969543, 0.6555863618850708, 0.8536556959152222, 0.662792980670929, 0.32183000445365906, 0.30401939153671265, 0.5383020639419556, 0.5256200432777405]</t>
+          <t>[0.7673256993293762, 0.22034002840518951, 0.0901774987578392, 0.31830623745918274, 0.5241451263427734, 0.27119550108909607, 0.0902891606092453, 0.7070937752723694, 0.6508466601371765, 0.6696786880493164, 0.9313295483589172, 0.915765106678009, 0.9759976267814636, 0.8330878615379333, 0.2846716046333313, 0.5941938757896423, 0.49906420707702637, 0.7094616293907166, 0.9061431288719177, 0.5455138683319092, 0.6159091591835022, 0.23989012837409973, 0.2746453285217285, 0.385849267244339, 0.23808155953884125, 0.2525404393672943, 0.3065835237503052, 0.5612609386444092, 0.6917731165885925, 0.3191870152950287, 0.35338082909584045, 0.5851125121116638, 0.4330552816390991, 0.6053240299224854, 0.336215615272522, 0.8539366126060486, 0.8188879489898682, 0.5816949605941772, 0.2470926195383072, 0.4432489275932312, 0.4555111825466156, 0.5293280482292175, 0.7194033861160278, 0.8309942483901978, 0.9552619457244873, 0.9089210033416748, 0.6643261313438416, 0.9556974768638611, 0.8030946850776672, 0.8813484311103821, 0.8477509021759033, 0.8959726095199585, 0.5647347569465637, 0.6291693449020386, 0.6944724917411804, 0.8586617708206177, 0.8639515042304993, 0.8649317622184753, 0.857702374458313, 0.9097500443458557, 0.628501832485199, 0.8810198903083801, 0.8868817090988159, 0.5881626009941101, 0.8034060001373291, 0.6666788458824158, 0.7199785113334656, 0.45276057720184326, 0.6382319927215576, 0.5614618062973022, 0.6891125440597534, 0.4626496732234955, 0.4154514670372009, 0.46116873621940613, 0.3157849907875061, 0.6199303269386292, 0.5385004878044128, 0.6277307271957397, 0.3921126425266266, 0.5349940657615662, 0.6677271127700806, 0.5822654962539673, 0.8532325625419617, 0.8378152847290039, 0.7652342915534973, 0.731724739074707, 0.7843291163444519, 0.7378114461898804, 0.6057383418083191, 0.6350300908088684, 0.6064571738243103, 0.7130882740020752, 0.4793335497379303, 0.3808342516422272, 0.3269568681716919, 0.4228401482105255, 0.37092992663383484, 0.8082313537597656, 0.9510819911956787, 0.2708186209201813, 0.9101811647415161, 0.9171155095100403, 0.6667966842651367, 0.4012460708618164, 0.8798531293869019, 0.6977389454841614, 0.8409528136253357, 0.48010092973709106, 0.10044699162244797, 0.2750248312950134, 0.7357670068740845, 0.7183627486228943]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9371143579483032</v>
+        <v>0.9759976267814636</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.6702741000044625</v>
+        <v>0.6384260000049835</v>
       </c>
       <c r="J193" t="n">
-        <v>0.005984590178611272</v>
+        <v>0.005700232142901639</v>
       </c>
     </row>
     <row r="194">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[0.8963027000427246, 0.9225368499755859, 0.9495771527290344, 0.9592282176017761, 0.9390235543251038, 0.9613122940063477, 0.9563403129577637, 0.960075855255127, 0.9445814490318298, 0.929710328578949, 0.9130582809448242, 0.9654068350791931, 0.9332451224327087, 0.955812394618988, 0.9577671885490417, 0.9654737114906311, 0.9622841477394104, 0.9377267360687256, 0.9253975749015808, 0.9443093538284302, 0.9647676944732666, 0.9568463563919067, 0.956136167049408, 0.970319926738739, 0.9774706363677979, 0.9756647944450378, 0.9880083799362183, 0.9735000133514404, 0.9818861484527588, 0.9754635691642761, 0.9745819568634033, 0.9680155515670776, 0.9396686553955078, 0.9736382365226746, 0.9736238718032837, 0.9881481528282166, 0.9893010258674622, 0.9940673112869263, 0.9935804605484009, 0.9946777820587158, 0.9922286868095398, 0.9951252341270447, 0.995968222618103, 0.9940206408500671, 0.9944995641708374, 0.9958930015563965, 0.9914953708648682, 0.9965952038764954, 0.9967171549797058, 0.9974318146705627, 0.9964304566383362, 0.995779275894165, 0.9910076260566711, 0.9905890226364136, 0.9943682551383972, 0.993556797504425, 0.9944260120391846, 0.9957375526428223, 0.9926626682281494, 0.9919822812080383, 0.9825606942176819, 0.9906520843505859, 0.9792428016662598, 0.9802002906799316, 0.9716174602508545, 0.9668346047401428, 0.9136283993721008, 0.9795858263969421, 0.9875108003616333, 0.954597532749176, 0.8966432809829712, 0.9075964093208313, 0.8220887780189514, 0.9106237888336182, 0.8556002974510193, 0.897460401058197, 0.9652541875839233, 0.9643348455429077, 0.8931669592857361, 0.9378798007965088, 0.9511992335319519, 0.9522484540939331, 0.9496633410453796, 0.952559769153595, 0.9500284790992737, 0.8918152451515198, 0.8990702629089355, 0.9522390365600586, 0.9457034468650818, 0.918123722076416, 0.9272324442863464, 0.9554128646850586, 0.9692078232765198, 0.9684607982635498, 0.9570165276527405, 0.9684605002403259, 0.9812992215156555, 0.9897328019142151, 0.9952989220619202, 0.9924548864364624, 0.993569016456604, 0.9950291514396667, 0.9891635179519653, 0.9928517937660217, 0.9919334053993225, 0.9914385080337524, 0.9910507202148438, 0.9940677881240845, 0.9925315976142883, 0.9937456846237183, 0.9956320524215698, 0.9965866804122925, 0.9962645173072815, 0.9966986775398254, 0.9924544095993042, 0.9935064315795898, 0.9868658185005188, 0.9926659464836121, 0.9906055331230164, 0.996981680393219, 0.9955580830574036, 0.995573878288269, 0.9926171898841858, 0.9930837154388428, 0.9939563870429993, 0.9881288409233093, 0.9866892695426941, 0.9834112524986267, 0.9891830086708069, 0.988778293132782, 0.9834328889846802, 0.9889321327209473, 0.9765534996986389, 0.9786491990089417, 0.9804468154907227, 0.9800905585289001, 0.9755406975746155, 0.9828145503997803, 0.9625244140625, 0.9667502641677856, 0.9776589274406433, 0.9662116765975952, 0.9926483035087585, 0.9945241212844849, 0.9957530498504639, 0.9960628151893616, 0.9936949610710144, 0.9939237236976624, 0.9954439401626587, 0.995598554611206, 0.9963400363922119, 0.9950182437896729]</t>
+          <t>[0.9124799370765686, 0.9478803277015686, 0.9719546437263489, 0.9795594215393066, 0.9629955291748047, 0.9771785736083984, 0.968144953250885, 0.9766220450401306, 0.9647039175033569, 0.9382908344268799, 0.8841772079467773, 0.9793095588684082, 0.9649158716201782, 0.9748117327690125, 0.9628950953483582, 0.9664314985275269, 0.9654375910758972, 0.9393517971038818, 0.9329116344451904, 0.9556666016578674, 0.9748867750167847, 0.9507918953895569, 0.9839035272598267, 0.9888148903846741, 0.989841639995575, 0.9882844686508179, 0.9950467348098755, 0.9903226494789124, 0.993558943271637, 0.9898359179496765, 0.9917261600494385, 0.9912113547325134, 0.9746713042259216, 0.9923723936080933, 0.9918298125267029, 0.9969635605812073, 0.9959123730659485, 0.998306393623352, 0.9979546070098877, 0.9988529682159424, 0.9978588223457336, 0.9983478784561157, 0.9987995624542236, 0.9981794357299805, 0.9978798627853394, 0.9985889792442322, 0.9967091083526611, 0.9988484382629395, 0.9988073110580444, 0.9992654919624329, 0.998934805393219, 0.9982553124427795, 0.9951375126838684, 0.9953912496566772, 0.9975587129592896, 0.997870922088623, 0.9981714487075806, 0.9988248944282532, 0.9972379207611084, 0.9973598122596741, 0.9943244457244873, 0.9963465332984924, 0.9908994436264038, 0.9912061095237732, 0.9874274730682373, 0.9806733131408691, 0.9285721182823181, 0.9923601746559143, 0.9942797422409058, 0.9847774505615234, 0.9321092963218689, 0.9519034028053284, 0.8755293488502502, 0.9593914747238159, 0.8974138498306274, 0.935343325138092, 0.984691321849823, 0.9858444929122925, 0.9061616063117981, 0.9413841962814331, 0.9588981866836548, 0.9511356949806213, 0.9461263418197632, 0.9568069577217102, 0.9445171356201172, 0.8525477647781372, 0.8938551545143127, 0.969598650932312, 0.9653307199478149, 0.911855161190033, 0.9206596612930298, 0.9769834876060486, 0.9833208322525024, 0.9792976379394531, 0.9673676490783691, 0.9867558479309082, 0.9896917939186096, 0.9964465498924255, 0.9986332058906555, 0.9977586269378662, 0.9979420304298401, 0.9985591769218445, 0.996640682220459, 0.9981691837310791, 0.9975287318229675, 0.9969764947891235, 0.9971359968185425, 0.9984937906265259, 0.9981460571289062, 0.9982465505599976, 0.9990562796592712, 0.9991410970687866, 0.9991649389266968, 0.9991933703422546, 0.9977545142173767, 0.9979013204574585, 0.9955753087997437, 0.9979872703552246, 0.997036337852478, 0.9992127418518066, 0.9987908005714417, 0.9990496039390564, 0.9982497096061707, 0.9981279969215393, 0.9983046054840088, 0.9954008460044861, 0.9953328967094421, 0.9936018586158752, 0.9950108528137207, 0.9961662292480469, 0.9941441416740417, 0.9958500862121582, 0.9913510084152222, 0.9896165132522583, 0.9916099905967712, 0.9912443161010742, 0.98988276720047, 0.9915830492973328, 0.9777308702468872, 0.9814625978469849, 0.9774560332298279, 0.9753133654594421, 0.9979164004325867, 0.9987673759460449, 0.9988927245140076, 0.9990993738174438, 0.9986951947212219, 0.9987086057662964, 0.998469889163971, 0.9988139867782593, 0.9989960789680481, 0.9987683892250061]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.9974318146705627</v>
+        <v>0.9992654919624329</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.9017575000179932</v>
+        <v>0.8587475999956951</v>
       </c>
       <c r="J194" t="n">
-        <v>0.005932615131697324</v>
+        <v>0.005649655263129573</v>
       </c>
     </row>
     <row r="195">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.8566563725471497, 0.9490215182304382, 0.8751345276832581, 0.9681800007820129, 0.9768221974372864, 0.8435767292976379, 0.9053834676742554, 0.8874984383583069, 0.8505279421806335, 0.8968757390975952, 0.8955512642860413, 0.9485841989517212, 0.96375972032547, 0.9639611840248108, 0.9675899147987366, 0.9612666964530945, 0.9796836376190186, 0.97708660364151, 0.9817735552787781, 0.9429188966751099, 0.8542038202285767, 0.8168711066246033, 0.886814296245575, 0.9173454642295837, 0.9410454630851746, 0.9128802418708801, 0.934019148349762, 0.9311137795448303, 0.969639778137207, 0.9272600412368774, 0.9495920538902283, 0.9711692929267883, 0.9258831739425659, 0.9620315432548523, 0.9666765332221985, 0.9722803235054016, 0.9734396934509277, 0.9854491353034973, 0.9766849279403687, 0.9865164756774902, 0.9808699488639832, 0.989875853061676, 0.9897135496139526, 0.9716209769248962, 0.9861728549003601, 0.9862990975379944, 0.9904012084007263, 0.9843270182609558, 0.9783576726913452, 0.9745808243751526, 0.9658081531524658, 0.9807385802268982, 0.9752936363220215, 0.9867146611213684, 0.973220705986023, 0.9413630962371826, 0.9598207473754883, 0.9469916224479675, 0.9401652812957764, 0.9852922558784485, 0.9909362196922302, 0.9920638203620911, 0.964441180229187, 0.9711649417877197, 0.9866238236427307, 0.9837244749069214, 0.9921196699142456, 0.9893473386764526, 0.987335741519928, 0.9867498278617859, 0.9921221137046814, 0.9813724756240845, 0.9813073873519897, 0.9835773706436157, 0.9763726592063904, 0.9878379106521606, 0.9751004576683044, 0.9794350862503052, 0.9710434079170227, 0.9498517513275146, 0.9172765612602234, 0.9620962738990784, 0.9673097729682922, 0.9608994722366333, 0.9815531969070435, 0.9526447057723999, 0.8647503852844238, 0.8725490570068359, 0.8651019334793091, 0.8816928267478943, 0.8594887256622314, 0.9011397361755371, 0.9413736462593079, 0.9288787245750427, 0.9395654797554016, 0.9635533690452576, 0.9443082809448242, 0.9713085293769836, 0.9444265365600586, 0.8788337707519531, 0.9090695977210999, 0.913236141204834, 0.8445339798927307, 0.8815327286720276, 0.8847562074661255, 0.9555107951164246, 0.9187371730804443, 0.880244791507721, 0.7751505374908447, 0.8555161356925964, 0.852188229560852, 0.9479494094848633, 0.9676411747932434, 0.9707173109054565, 0.9609353542327881, 0.9539442658424377, 0.9252808094024658, 0.93175208568573, 0.9041940569877625, 0.9199129343032837, 0.9056398868560791, 0.9116695523262024, 0.960224986076355, 0.9452309608459473, 0.9137309193611145, 0.9292669296264648, 0.9095356464385986, 0.9740930795669556, 0.9797179698944092, 0.9733052849769592, 0.9435477256774902, 0.9481798410415649, 0.9656002521514893, 0.968762218952179, 0.9719685912132263, 0.9504724144935608, 0.9427372217178345, 0.9590499997138977, 0.9694271087646484, 0.9821743965148926, 0.9770334362983704, 0.9785580635070801, 0.9828353524208069, 0.9855296015739441, 0.9762995839118958, 0.9798613786697388, 0.9815218448638916, 0.9075821042060852, 0.8825739026069641, 0.8791555762290955, 0.9074586629867554, 0.9699140191078186]</t>
+          <t>[0.9289801120758057, 0.9813718795776367, 0.9682775735855103, 0.9918553829193115, 0.9897069931030273, 0.8664320707321167, 0.899955153465271, 0.9436613917350769, 0.876413881778717, 0.9419779777526855, 0.9340775012969971, 0.9757595658302307, 0.984548032283783, 0.9884567260742188, 0.9901808500289917, 0.9822928309440613, 0.9906641244888306, 0.9919787645339966, 0.995622456073761, 0.982190728187561, 0.9242100119590759, 0.8572357296943665, 0.9286174178123474, 0.967765212059021, 0.9754058122634888, 0.9703900814056396, 0.9758382439613342, 0.9543858766555786, 0.9883529543876648, 0.9660006761550903, 0.9828504323959351, 0.9919255375862122, 0.9659084677696228, 0.9880017638206482, 0.9881442785263062, 0.9940144419670105, 0.9909302592277527, 0.9954160451889038, 0.9928873181343079, 0.9964044094085693, 0.9944019913673401, 0.9975390434265137, 0.9972746968269348, 0.9920995235443115, 0.9959293007850647, 0.9970813393592834, 0.9979598522186279, 0.9972350001335144, 0.9952450394630432, 0.9932112097740173, 0.9866472482681274, 0.9948087930679321, 0.9944592714309692, 0.9973810315132141, 0.9948433637619019, 0.9827462434768677, 0.9875022172927856, 0.982727587223053, 0.9751690626144409, 0.9970888495445251, 0.9972923398017883, 0.9982403516769409, 0.9911248087882996, 0.9958303570747375, 0.9968404769897461, 0.9969266057014465, 0.9983896017074585, 0.9978339076042175, 0.9977627992630005, 0.9973791837692261, 0.9985596537590027, 0.9964938759803772, 0.9966632723808289, 0.9973399043083191, 0.9952749013900757, 0.9981487989425659, 0.9934853911399841, 0.9935480952262878, 0.9890375733375549, 0.981833279132843, 0.9619148373603821, 0.9921582937240601, 0.9947435855865479, 0.9927145838737488, 0.9971383810043335, 0.9912151098251343, 0.9703624844551086, 0.964597761631012, 0.948513925075531, 0.9452010989189148, 0.8758595585823059, 0.9569335579872131, 0.9723911881446838, 0.9707497954368591, 0.9846832156181335, 0.9900023937225342, 0.9897083640098572, 0.996968686580658, 0.9847745299339294, 0.9502816200256348, 0.9715011119842529, 0.9889386892318726, 0.9655026793479919, 0.9770534634590149, 0.9570733308792114, 0.9885085225105286, 0.9835910201072693, 0.9657183289527893, 0.9177383184432983, 0.9630601406097412, 0.9597455263137817, 0.9890916347503662, 0.9931765794754028, 0.994881272315979, 0.9935913681983948, 0.9887418150901794, 0.973775327205658, 0.9797017574310303, 0.9678329825401306, 0.9749286770820618, 0.9634659290313721, 0.9828313589096069, 0.9933292865753174, 0.9904126524925232, 0.9751344919204712, 0.9878666400909424, 0.9810964465141296, 0.9926947355270386, 0.9951378703117371, 0.996320366859436, 0.9875682592391968, 0.991157054901123, 0.9952560067176819, 0.9955848455429077, 0.993929386138916, 0.990932822227478, 0.9873735308647156, 0.9903588891029358, 0.9936009049415588, 0.9964436888694763, 0.9941605925559998, 0.995497465133667, 0.9974628686904907, 0.9977376461029053, 0.9967606663703918, 0.9965434670448303, 0.9965702295303345, 0.9858805537223816, 0.9780575633049011, 0.9516184329986572, 0.9653707146644592, 0.993848979473114]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.9921221137046814</v>
+        <v>0.9985596537590027</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.8928423000033945</v>
+        <v>0.8477029000059702</v>
       </c>
       <c r="J195" t="n">
-        <v>0.005873962500022333</v>
+        <v>0.005576992763197172</v>
       </c>
     </row>
     <row r="196">
@@ -8365,11 +8365,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.6120648384094238, 0.8512611985206604, 0.8967000246047974, 0.925886332988739, 0.9020611643791199, 0.9752748608589172, 0.940822958946228, 0.95346999168396, 0.9234342575073242, 0.9444192051887512, 0.9413689970970154, 0.9677581787109375, 0.9677097201347351, 0.9239806532859802, 0.9514098167419434, 0.9544286727905273, 0.9386160969734192, 0.946641206741333, 0.9571346044540405, 0.9331177473068237, 0.926511287689209, 0.9670249819755554, 0.9498099088668823, 0.9604244232177734, 0.9444456696510315, 0.9156965017318726, 0.941493809223175, 0.9677671790122986, 0.9611947536468506, 0.9627342820167542, 0.9735446572303772, 0.9724269509315491, 0.9758795499801636, 0.9739562273025513, 0.9669519662857056, 0.9697914719581604, 0.9623997211456299, 0.9278870224952698, 0.9406205415725708, 0.9653186798095703, 0.9642643332481384, 0.9592503905296326, 0.9635988473892212, 0.9611684083938599, 0.946965217590332, 0.9267979860305786, 0.9426239132881165, 0.9562123417854309, 0.9525699019432068, 0.9735555052757263, 0.9536864757537842, 0.9593395590782166, 0.9484879970550537, 0.9631032347679138, 0.9805116057395935, 0.9641544222831726, 0.9662011861801147, 0.9847570657730103, 0.9786672592163086, 0.9817111492156982, 0.971143901348114, 0.9529390335083008, 0.9609174728393555, 0.9658495187759399, 0.9775537848472595, 0.9647653698921204, 0.9686585068702698, 0.973158061504364, 0.953192949295044, 0.9674851298332214, 0.9755861759185791, 0.9769222736358643, 0.9736847877502441, 0.9862738251686096, 0.9668137431144714, 0.9666468501091003, 0.9637828469276428, 0.9632501006126404, 0.9794486165046692, 0.9560964703559875, 0.9545398354530334, 0.9278071522712708, 0.5669437050819397, 0.7433091998100281, 0.6981650590896606, 0.7210789322853088, 0.46048107743263245, 0.3358083665370941, 0.20924894511699677, 0.15956130623817444, 0.1304198056459427, 0.09683312475681305, 0.12906312942504883, 0.26400163769721985, 0.260163277387619, 0.21877186000347137, 0.4067153334617615, 0.37288954854011536, 0.2664760649204254, 0.18508127331733704, 0.2171788066625595, 0.07327891141176224, 0.08866742253303528, 0.18499374389648438, 0.22963379323482513, 0.5791667103767395, 0.4874456226825714, 0.560598611831665, 0.3636680543422699, 0.2945501208305359, 0.20847125351428986, 0.3059241473674774, 0.30744123458862305, 0.6219638586044312, 0.5666141510009766, 0.46406611800193787, 0.32432207465171814, 0.34717079997062683, 0.332453191280365, 0.25205403566360474, 0.2224213182926178, 0.4160403311252594, 0.5149518847465515, 0.5369959473609924, 0.48776596784591675, 0.40739262104034424, 0.32076460123062134, 0.40231990814208984, 0.18363822996616364, 0.3055054843425751, 0.2207948863506317, 0.3553248345851898, 0.18201369047164917, 0.20073860883712769, 0.1323922872543335, 0.13077574968338013, 0.15773311257362366, 0.2924087345600128, 0.2635508179664612, 0.41290292143821716, 0.27729326486587524, 0.18722039461135864, 0.08412646502256393, 0.14027176797389984, 0.13119038939476013, 0.2588837146759033, 0.342319518327713, 0.4580301344394684, 0.3029761016368866, 0.16493412852287292, 0.12661944329738617, 0.217433899641037]</t>
+          <t>[0.8982547521591187, 0.9886689782142639, 0.992310643196106, 0.9936536550521851, 0.987128734588623, 0.996855616569519, 0.9915448427200317, 0.9941861629486084, 0.9861828088760376, 0.992780864238739, 0.9877430200576782, 0.9952867031097412, 0.9937794804573059, 0.9891468286514282, 0.991293728351593, 0.9908734560012817, 0.9836793541908264, 0.9815230369567871, 0.9859215617179871, 0.9750868678092957, 0.9719308614730835, 0.9875713586807251, 0.9812461733818054, 0.9838030338287354, 0.9723361134529114, 0.9650107622146606, 0.9832293391227722, 0.9915353059768677, 0.9917834997177124, 0.9939656853675842, 0.9911392331123352, 0.992918074131012, 0.9920897483825684, 0.9940641522407532, 0.9924180507659912, 0.9898253083229065, 0.9897435307502747, 0.9824260473251343, 0.9831341505050659, 0.9899700284004211, 0.9843011498451233, 0.983183741569519, 0.9847428798675537, 0.9910978674888611, 0.9813973903656006, 0.9758066534996033, 0.9889823794364929, 0.9930463433265686, 0.9926279187202454, 0.9961638450622559, 0.9916914701461792, 0.9928968548774719, 0.9921476244926453, 0.9953151941299438, 0.9961532950401306, 0.9908624887466431, 0.9878261685371399, 0.996452808380127, 0.9950266480445862, 0.9959226846694946, 0.9931687116622925, 0.9899291396141052, 0.9904488921165466, 0.9938806295394897, 0.995964765548706, 0.9952915906906128, 0.995298445224762, 0.9951443076133728, 0.986205518245697, 0.9909355044364929, 0.9893093109130859, 0.9900228381156921, 0.9880908727645874, 0.9965184926986694, 0.9919869899749756, 0.9938428401947021, 0.9879410862922668, 0.9913042783737183, 0.9969093203544617, 0.9966512322425842, 0.993024468421936, 0.9868489503860474, 0.911921501159668, 0.9647821187973022, 0.8905134201049805, 0.863762617111206, 0.66153883934021, 0.5239969491958618, 0.3968997597694397, 0.3261561095714569, 0.23993313312530518, 0.24949431419372559, 0.2707754671573639, 0.42692819237709045, 0.3363562226295471, 0.2512943744659424, 0.5702607035636902, 0.5922829508781433, 0.37271183729171753, 0.27293604612350464, 0.39419329166412354, 0.13030987977981567, 0.1296619474887848, 0.3895861506462097, 0.40083497762680054, 0.7258657217025757, 0.6035283207893372, 0.6431697607040405, 0.3891200125217438, 0.32511425018310547, 0.23866042494773865, 0.33455416560173035, 0.3579782545566559, 0.6885420083999634, 0.6825684309005737, 0.5726057291030884, 0.43370354175567627, 0.44806063175201416, 0.4207198917865753, 0.2951039969921112, 0.2699331045150757, 0.5744516253471375, 0.62640380859375, 0.6997417211532593, 0.5821744799613953, 0.6232206225395203, 0.4113171100616455, 0.6735571622848511, 0.4108346700668335, 0.632716715335846, 0.6193919777870178, 0.7367685437202454, 0.4631401598453522, 0.4776735007762909, 0.31103187799453735, 0.2526776194572449, 0.23854279518127441, 0.4062296152114868, 0.37286558747291565, 0.51854008436203, 0.3333415687084198, 0.17457371950149536, 0.07547293603420258, 0.14666210114955902, 0.15974506735801697, 0.43019548058509827, 0.5786253213882446, 0.6607046723365784, 0.4008382260799408, 0.1613919585943222, 0.1387198567390442, 0.182484969496727]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.9862738251686096</v>
+        <v>0.9969093203544617</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.874736199999461</v>
+        <v>0.8491395000019111</v>
       </c>
       <c r="J196" t="n">
-        <v>0.005754843421049085</v>
+        <v>0.005586444078959941</v>
       </c>
     </row>
     <row r="197">
@@ -8405,11 +8405,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[0.07499933242797852, 0.08298174291849136, 0.07025425136089325, 0.0761047974228859, 0.11347439140081406, 0.07405491173267365, 0.05577656999230385, 0.033556051552295685, 0.03881610184907913, 0.026987159624695778, 0.027410412207245827, 0.036150600761175156, 0.0276379082351923, 0.02580166980624199, 0.024519655853509903, 0.04049094393849373, 0.012710237875580788, 0.026326052844524384, 0.029738008975982666, 0.0190837811678648, 0.02828194573521614, 0.035658467561006546, 0.03755322843790054, 0.03318265080451965, 0.02941226400434971, 0.020089732483029366, 0.03520970791578293, 0.03983693569898605, 0.04154455289244652, 0.035797446966171265, 0.029117939993739128, 0.06420188397169113, 0.05224226787686348, 0.03822443634271622, 0.05534558370709419, 0.06715662777423859, 0.10199560225009918, 0.11853834986686707, 0.12740017473697662, 0.056013334542512894, 0.06125606968998909, 0.03892679139971733, 0.048629723489284515, 0.10184866935014725, 0.10238474607467651, 0.08633581548929214, 0.08505789935588837, 0.07421030849218369, 0.08230055123567581, 0.053606875240802765, 0.058973778039216995, 0.045501139014959335, 0.0684952363371849, 0.10185430943965912, 0.15089857578277588, 0.10377883166074753, 0.11307445168495178, 0.14470918476581573, 0.15201501548290253, 0.05598817393183708, 0.029162336140871048, 0.03058438003063202, 0.11733920127153397, 0.15756897628307343, 0.2824784517288208, 0.2080722153186798, 0.22908172011375427, 0.13496235013008118, 0.09342293441295624, 0.12928256392478943, 0.06791090965270996, 0.0795590877532959, 0.14523062109947205, 0.16054154932498932, 0.08196336030960083, 0.17321576178073883, 0.30261242389678955, 0.525928795337677, 0.38688015937805176, 0.6134657263755798, 0.3699892461299896, 0.5664311647415161, 0.4363850951194763, 0.4011824429035187, 0.40931081771850586, 0.1999746412038803, 0.18823139369487762, 0.06353284418582916, 0.052282679826021194, 0.08640815317630768, 0.10096582025289536, 0.10024802386760712, 0.08384130895137787, 0.10406534373760223, 0.08117159456014633, 0.10958787798881531, 0.09353210031986237, 0.10483705997467041, 0.09806716442108154, 0.13062193989753723, 0.08501745760440826, 0.05798481032252312, 0.055418677628040314, 0.05374108627438545, 0.09384968131780624, 0.06901934742927551, 0.05930159240961075, 0.09003403037786484, 0.09309370815753937, 0.1824217587709427, 0.12878814339637756, 0.1793486624956131, 0.32298457622528076, 0.1714831441640854, 0.160110741853714, 0.19212481379508972, 0.2150942087173462, 0.14679376780986786, 0.13352519273757935, 0.1222875565290451, 0.15155620872974396, 0.11376345157623291, 0.10609120875597, 0.146053284406662, 0.16107790172100067, 0.1033255085349083, 0.08855763077735901, 0.10602609068155289, 0.13061591982841492, 0.11388327926397324, 0.18146005272865295, 0.14933985471725464, 0.1257249265909195, 0.07225195318460464, 0.2909553050994873, 0.25898343324661255, 0.21701470017433167, 0.0874771997332573, 0.0992230772972107, 0.09369420260190964, 0.07860076427459717, 0.09597229957580566, 0.12986920773983002, 0.08360327035188675, 0.08551061153411865, 0.031095843762159348, 0.029558595269918442, 0.03178289905190468, 0.043885089457035065, 0.046756625175476074, 0.06127151846885681, 0.05219953507184982]</t>
+          <t>[0.04053618013858795, 0.04641449823975563, 0.043067555874586105, 0.045856229960918427, 0.06325173377990723, 0.05542602017521858, 0.040956899523735046, 0.02901826985180378, 0.026908263564109802, 0.020769421011209488, 0.01712850108742714, 0.019934460520744324, 0.02875308319926262, 0.025647055357694626, 0.025852544233202934, 0.027191082015633583, 0.0064130001701414585, 0.0209113210439682, 0.027620837092399597, 0.009995123371481895, 0.013499769382178783, 0.024203356355428696, 0.018063398078083992, 0.018370097503066063, 0.019262325018644333, 0.01508162822574377, 0.022627249360084534, 0.026949919760227203, 0.02477165311574936, 0.014504950493574142, 0.011647526174783707, 0.023190606385469437, 0.014074189588427544, 0.015318484045565128, 0.04104560241103172, 0.05368554964661598, 0.05556809902191162, 0.06987643986940384, 0.10017722845077515, 0.039996061474084854, 0.023984495550394058, 0.017359323799610138, 0.020040461793541908, 0.040653686970472336, 0.057717464864254, 0.044402483850717545, 0.04896915331482887, 0.03960521146655083, 0.043661195784807205, 0.02536051906645298, 0.03538919612765312, 0.019386207684874535, 0.02779669314622879, 0.058665335178375244, 0.08733205497264862, 0.07224544137716293, 0.08001042157411575, 0.14026667177677155, 0.09075512737035751, 0.05802825838327408, 0.02975519746541977, 0.023443490266799927, 0.061847299337387085, 0.11725462228059769, 0.27420249581336975, 0.17320717871189117, 0.20461046695709229, 0.09036777168512344, 0.058598075062036514, 0.06209190934896469, 0.036491475999355316, 0.051297906786203384, 0.1016753688454628, 0.14325609803199768, 0.05236400291323662, 0.147938534617424, 0.3128070831298828, 0.5329368114471436, 0.3224658668041229, 0.6202846765518188, 0.27493253350257874, 0.5321130156517029, 0.31217825412750244, 0.2615842819213867, 0.29775673151016235, 0.17529109120368958, 0.06336327642202377, 0.02702314779162407, 0.027724627405405045, 0.02935107983648777, 0.04658586159348488, 0.03867252171039581, 0.050056230276823044, 0.03996583819389343, 0.021265288814902306, 0.027848312631249428, 0.04896290600299835, 0.05114632472395897, 0.034060508012771606, 0.046341922134160995, 0.02442147769033909, 0.02180314250290394, 0.02702425606548786, 0.019694209098815918, 0.03341696038842201, 0.025114769116044044, 0.02849089354276657, 0.036541897803545, 0.040647853165864944, 0.08358988165855408, 0.04614648595452309, 0.09510679543018341, 0.2851546108722687, 0.15320058166980743, 0.11656862497329712, 0.19112178683280945, 0.20450115203857422, 0.10372379422187805, 0.07658225297927856, 0.08182777464389801, 0.10038937628269196, 0.07848292589187622, 0.07339075952768326, 0.07154150307178497, 0.058876655995845795, 0.02392495423555374, 0.02628830447793007, 0.02995813637971878, 0.051818713545799255, 0.045155663043260574, 0.07413313537836075, 0.0732056200504303, 0.04711100459098816, 0.0453791506588459, 0.23891063034534454, 0.21973200142383575, 0.1750773787498474, 0.05378715321421623, 0.09131184965372086, 0.06356290727853775, 0.053572800010442734, 0.05220508947968483, 0.07025033980607986, 0.026787221431732178, 0.03184093162417412, 0.019706523045897484, 0.01794152520596981, 0.011355787515640259, 0.018512215465307236, 0.025821974501013756, 0.02562262862920761, 0.02675086073577404]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.6134657263755798</v>
+        <v>0.6202846765518188</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.8611192000098526</v>
+        <v>0.8625308000046061</v>
       </c>
       <c r="J197" t="n">
-        <v>0.005665257894801662</v>
+        <v>0.005674544736872409</v>
       </c>
     </row>
     <row r="198">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[0.9985841512680054, 0.9986423850059509, 0.9982123374938965, 0.9984219074249268, 0.9984883069992065, 0.998252809047699, 0.998213529586792, 0.9980218410491943, 0.9978551268577576, 0.9976754784584045, 0.9953739047050476, 0.996692419052124, 0.9952700734138489, 0.9971010088920593, 0.9980965256690979, 0.9974442720413208, 0.997524082660675, 0.9977495074272156, 0.9976529479026794, 0.9979727864265442, 0.998272180557251, 0.9974445104598999, 0.9968005418777466, 0.996866762638092, 0.9972150325775146, 0.9968915581703186, 0.9977889060974121, 0.9988664388656616, 0.9987592697143555, 0.998572587966919, 0.998521625995636, 0.9982650876045227, 0.9979355335235596, 0.9975559711456299, 0.997441291809082, 0.995836615562439, 0.9960756897926331, 0.9975361824035645, 0.9968075752258301, 0.9974384307861328, 0.9949048757553101, 0.9966469407081604, 0.9956163167953491, 0.9944455623626709, 0.9926526546478271, 0.9963263869285583, 0.99801105260849, 0.9986873269081116, 0.9975209832191467, 0.9967813491821289, 0.9963988065719604, 0.9983530044555664, 0.9985735416412354, 0.9988877177238464, 0.9987861514091492, 0.9989929795265198, 0.9987627267837524, 0.9987008571624756, 0.9985488057136536, 0.9985998272895813, 0.9984142780303955, 0.9981138706207275, 0.9981548190116882, 0.9982771873474121, 0.9983546137809753, 0.9982777833938599, 0.9983224272727966, 0.9979733824729919, 0.9986335635185242, 0.9986581802368164, 0.9983559250831604, 0.9982499480247498, 0.9984958171844482, 0.9983189702033997, 0.9983103275299072, 0.9977917671203613, 0.9976319074630737, 0.9974715709686279, 0.9977885484695435, 0.9975069165229797, 0.9976741671562195, 0.997565746307373, 0.9977705478668213, 0.9983841180801392, 0.9974850416183472, 0.9969964027404785, 0.9971081614494324, 0.9962687492370605, 0.9974960684776306, 0.997774064540863, 0.9974234104156494, 0.9965554475784302, 0.9968003034591675, 0.9972443580627441, 0.9969838261604309, 0.9969362020492554, 0.9976550340652466, 0.9949348568916321, 0.9923292994499207, 0.993130624294281, 0.9930431842803955, 0.9954437017440796, 0.9968839287757874, 0.9977130889892578, 0.996597945690155, 0.9970665574073792, 0.9987415671348572, 0.9984990358352661, 0.9983863830566406, 0.9986745119094849, 0.9988355040550232, 0.9986338019371033, 0.9984676241874695, 0.9982465505599976, 0.9971333742141724, 0.9939292669296265, 0.9907509684562683, 0.9908109903335571, 0.9947899580001831, 0.9970332384109497, 0.9983592629432678, 0.9989179372787476, 0.9989533424377441, 0.9984063506126404, 0.9978302121162415, 0.9981635212898254, 0.9980766773223877, 0.9977224469184875, 0.9980576634407043, 0.9981381893157959, 0.9980571866035461, 0.9976671934127808, 0.9980162382125854, 0.9968478083610535, 0.9972385168075562, 0.9971346855163574, 0.9977130889892578, 0.9975847005844116, 0.9964854717254639, 0.9965004920959473]</t>
+          <t>[0.9997205138206482, 0.999742329120636, 0.9996418952941895, 0.9997125267982483, 0.9997232556343079, 0.9996764659881592, 0.9996691942214966, 0.9996364116668701, 0.9997157454490662, 0.9995817542076111, 0.9992558360099792, 0.9992801547050476, 0.9993211030960083, 0.9995301961898804, 0.9996155500411987, 0.9995338916778564, 0.9995504021644592, 0.9996138215065002, 0.9995841383934021, 0.9996845722198486, 0.9997819066047668, 0.9996829032897949, 0.9995489716529846, 0.9996128678321838, 0.9995751976966858, 0.9994590878486633, 0.9996373653411865, 0.9998266100883484, 0.9997789263725281, 0.9997058510780334, 0.9996980428695679, 0.9996817111968994, 0.9996188879013062, 0.9996117949485779, 0.9995961785316467, 0.9994914531707764, 0.9992089867591858, 0.9995222091674805, 0.9991832375526428, 0.999451220035553, 0.998794436454773, 0.9993359446525574, 0.9992076754570007, 0.9988020658493042, 0.9982917904853821, 0.9994375109672546, 0.9996733665466309, 0.9998018145561218, 0.9996422529220581, 0.9993932247161865, 0.9994816184043884, 0.9997974038124084, 0.999803364276886, 0.9998376369476318, 0.999824583530426, 0.9998382329940796, 0.9997854828834534, 0.9997261166572571, 0.9997624754905701, 0.999786913394928, 0.9997462630271912, 0.9997372031211853, 0.999718964099884, 0.9997072815895081, 0.9996945858001709, 0.9996021389961243, 0.9995710253715515, 0.9993613362312317, 0.9995744824409485, 0.9996198415756226, 0.9996321201324463, 0.9996960163116455, 0.9997244477272034, 0.9996435642242432, 0.9996708631515503, 0.9996089339256287, 0.9995597004890442, 0.9995630383491516, 0.9995765089988708, 0.999548614025116, 0.9995410442352295, 0.9995492100715637, 0.999581515789032, 0.9996886253356934, 0.9996351003646851, 0.9994986057281494, 0.9993574023246765, 0.9991403818130493, 0.9995716214179993, 0.999567449092865, 0.9994010925292969, 0.9991949200630188, 0.9992561936378479, 0.9993409514427185, 0.9992678761482239, 0.9991963505744934, 0.9994801878929138, 0.9990230798721313, 0.9983552098274231, 0.9986483454704285, 0.9983300566673279, 0.9992885589599609, 0.9994875192642212, 0.9994645714759827, 0.9993476271629333, 0.9993245601654053, 0.9996243715286255, 0.9996145963668823, 0.9996169805526733, 0.9997206330299377, 0.9997686743736267, 0.9997509121894836, 0.9997045397758484, 0.9996770620346069, 0.9994121789932251, 0.9986222982406616, 0.9985357522964478, 0.9985223412513733, 0.998964786529541, 0.9993738532066345, 0.9995608925819397, 0.9997653365135193, 0.999743640422821, 0.9996906518936157, 0.9996243715286255, 0.9996805191040039, 0.9995966553688049, 0.9995026588439941, 0.9995928406715393, 0.9996904134750366, 0.9996852874755859, 0.9996384382247925, 0.999652624130249, 0.9993999004364014, 0.9994588494300842, 0.9993816614151001, 0.9994316697120667, 0.9995810389518738, 0.9994257688522339, 0.9994279742240906]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.9989929795265198</v>
+        <v>0.9998382329940796</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.8010745000210591</v>
+        <v>0.8124129999923753</v>
       </c>
       <c r="J198" t="n">
-        <v>0.005721960714436136</v>
+        <v>0.005802949999945538</v>
       </c>
     </row>
     <row r="199">
@@ -8485,11 +8485,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[0.9745498895645142, 0.9514070153236389, 0.9270452260971069, 0.9660506248474121, 0.9795740842819214, 0.9912236928939819, 0.9936667084693909, 0.9919930696487427, 0.9927492141723633, 0.9945967197418213, 0.9935526847839355, 0.9946203231811523, 0.9926978945732117, 0.9942347407341003, 0.9917504191398621, 0.9939425587654114, 0.9933122992515564, 0.9890957474708557, 0.9902385473251343, 0.9869847297668457, 0.9716639518737793, 0.9886271357536316, 0.9805580973625183, 0.9859867691993713, 0.9898046255111694, 0.992213785648346, 0.9904792904853821, 0.9914754629135132, 0.9795528054237366, 0.9799497723579407, 0.9805303812026978, 0.9854989051818848, 0.9828802943229675, 0.9875999689102173, 0.9917258024215698, 0.9886993765830994, 0.9912726283073425, 0.9902698993682861, 0.9821999073028564, 0.9242807030677795, 0.8019867539405823, 0.9138427972793579, 0.7983859777450562, 0.6556071043014526, 0.5813004970550537, 0.6739107370376587, 0.4526965618133545, 0.6413334012031555, 0.5300127863883972, 0.8231790661811829, 0.5536671876907349, 0.7723124623298645, 0.9739130139350891, 0.8045581579208374, 0.9769854545593262, 0.9804838299751282, 0.9865213632583618, 0.9857673645019531, 0.989946186542511, 0.9866275191307068, 0.9567700028419495, 0.869108259677887, 0.9873392581939697, 0.9701130390167236, 0.9842721223831177, 0.9466886520385742, 0.45202335715293884, 0.6567597389221191, 0.9510582089424133, 0.8856918215751648, 0.3699624240398407, 0.8800854086875916, 0.953485369682312, 0.9494439363479614, 0.9359392523765564, 0.9709689021110535, 0.991544246673584, 0.9909750819206238, 0.9843710064888, 0.9829463958740234, 0.9624100923538208, 0.9633504152297974, 0.9796656966209412, 0.9705579280853271, 0.9656529426574707, 0.9846324920654297, 0.8790162205696106, 0.9754483699798584, 0.7332906126976013, 0.5779486298561096, 0.4225914478302002, 0.22723139822483063, 0.4240787923336029, 0.720822274684906, 0.8015081286430359, 0.9390640258789062, 0.9755816459655762, 0.9890750050544739, 0.9819154739379883, 0.9772018790245056, 0.9542070627212524, 0.909660816192627, 0.5880074501037598, 0.8234822154045105, 0.8233439922332764, 0.8845991492271423, 0.8756232261657715, 0.8977805376052856, 0.9631818532943726, 0.943271815776825, 0.9366892576217651, 0.9896509647369385, 0.9850682616233826, 0.9749066829681396, 0.9748575091362, 0.98933345079422, 0.9774518609046936, 0.9322466254234314, 0.20536231994628906, 0.07824450731277466, 0.04917996749281883, 0.13073378801345825, 0.9429286122322083, 0.33878740668296814, 0.04518160596489906, 0.13875266909599304, 0.34094226360321045, 0.6905841827392578, 0.7578381896018982, 0.4767598807811737, 0.9102839827537537, 0.9643236398696899, 0.976769745349884, 0.9508000016212463, 0.5315560698509216, 0.6882144808769226, 0.46458202600479126, 0.8712599873542786, 0.9901912212371826, 0.9901404976844788]</t>
+          <t>[0.995941698551178, 0.9836254715919495, 0.9584516882896423, 0.992598295211792, 0.9976252913475037, 0.9988452196121216, 0.9990435242652893, 0.9986585378646851, 0.9990203380584717, 0.9991123080253601, 0.9983829259872437, 0.9987840056419373, 0.998047947883606, 0.9989821314811707, 0.9983363747596741, 0.9988085031509399, 0.9988142251968384, 0.9987276196479797, 0.9985271692276001, 0.9979771971702576, 0.9879043698310852, 0.9968574047088623, 0.996467113494873, 0.9975582361221313, 0.9984545707702637, 0.9990689158439636, 0.9985254406929016, 0.9989284873008728, 0.9966171383857727, 0.9956282377243042, 0.9970313310623169, 0.9986485838890076, 0.9976073503494263, 0.9986720085144043, 0.9991625547409058, 0.9981986880302429, 0.9985047578811646, 0.9988560676574707, 0.9962167143821716, 0.9840477108955383, 0.8690444231033325, 0.9655100107192993, 0.8225224614143372, 0.8476563096046448, 0.8009658455848694, 0.8764805793762207, 0.6811323165893555, 0.8730356693267822, 0.63055020570755, 0.9545726776123047, 0.7832088470458984, 0.9596736431121826, 0.998719334602356, 0.9635598063468933, 0.9980646967887878, 0.9977847933769226, 0.9977110624313354, 0.9986990690231323, 0.9988941550254822, 0.998746395111084, 0.9928667545318604, 0.9194326400756836, 0.9973714351654053, 0.9960197806358337, 0.9977782368659973, 0.9941046833992004, 0.3935922086238861, 0.9473055005073547, 0.9975747466087341, 0.994158148765564, 0.48648425936698914, 0.9684082865715027, 0.9962109327316284, 0.9954417943954468, 0.9812398552894592, 0.9975976347923279, 0.9994940757751465, 0.9990899562835693, 0.9981312155723572, 0.9983925223350525, 0.9946330785751343, 0.9954698085784912, 0.9977430105209351, 0.9974700212478638, 0.9951720833778381, 0.998247504234314, 0.9589573740959167, 0.9984044432640076, 0.8115490674972534, 0.7046578526496887, 0.35439231991767883, 0.4233153462409973, 0.531807541847229, 0.8989170789718628, 0.9445679783821106, 0.990172266960144, 0.9965478777885437, 0.9983047246932983, 0.9969051480293274, 0.9965799450874329, 0.990149736404419, 0.9571307897567749, 0.47908613085746765, 0.9129959940910339, 0.8897965550422668, 0.9705427885055542, 0.932735800743103, 0.9797244071960449, 0.9961561560630798, 0.995368242263794, 0.9869027137756348, 0.99853515625, 0.9985151886940002, 0.9978461265563965, 0.9963046312332153, 0.9987813830375671, 0.9983258843421936, 0.9920057654380798, 0.6361746191978455, 0.1685432493686676, 0.02694740705192089, 0.06845031678676605, 0.9923865795135498, 0.3611161708831787, 0.020506601780653, 0.08796962350606918, 0.565482497215271, 0.8978922963142395, 0.8481305837631226, 0.4003085494041443, 0.9951736330986023, 0.9955910444259644, 0.9979063272476196, 0.9863161444664001, 0.6279593706130981, 0.7749712467193604, 0.5495122075080872, 0.9899487495422363, 0.9992096424102783, 0.9992058873176575]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.9946203231811523</v>
+        <v>0.9994940757751465</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8503,10 +8503,10 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.7970821000053547</v>
+        <v>0.7910486000037054</v>
       </c>
       <c r="J199" t="n">
-        <v>0.005693443571466819</v>
+        <v>0.005650347142883609</v>
       </c>
     </row>
     <row r="200">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[0.9735479354858398, 0.9845766425132751, 0.9803985953330994, 0.9922710657119751, 0.9907630085945129, 0.9327268600463867, 0.8093867897987366, 0.29418498277664185, 0.604896068572998, 0.8547982573509216, 0.9633656144142151, 0.9874175786972046, 0.9745862483978271, 0.8825837969779968, 0.6621890664100647, 0.369517982006073, 0.8747603297233582, 0.7446348071098328, 0.866760790348053, 0.9084894061088562, 0.9470632672309875, 0.9842858910560608, 0.9590077996253967, 0.9053651094436646, 0.46495863795280457, 0.42254638671875, 0.3103991150856018, 0.3632917106151581, 0.13235872983932495, 0.2705993056297302, 0.4530646502971649, 0.4149033725261688, 0.3289127051830292, 0.3701344430446625, 0.8523346781730652, 0.9818013310432434, 0.989072859287262, 0.991176962852478, 0.9926568865776062, 0.826774001121521, 0.5782195329666138, 0.40138953924179077, 0.23577415943145752, 0.3592381179332733, 0.45458829402923584, 0.3162934482097626, 0.34594544768333435, 0.2601466178894043, 0.3412172496318817, 0.5720372200012207, 0.7262048125267029, 0.8853355050086975, 0.912266194820404, 0.9029455780982971, 0.7477109432220459, 0.746765673160553, 0.5676417350769043, 0.5145822763442993, 0.31949687004089355, 0.2093399465084076, 0.3923174738883972, 0.6758452653884888, 0.9734034538269043, 0.9696985483169556, 0.9169036746025085, 0.9828078746795654, 0.9886444807052612, 0.992388129234314, 0.9945283532142639, 0.9968170523643494, 0.9958558678627014, 0.9959713816642761, 0.9950739741325378, 0.9948297142982483, 0.9766836762428284, 0.7338266968727112, 0.6485803127288818, 0.6772409677505493, 0.6692964434623718, 0.5586851835250854, 0.7339988350868225, 0.3808368146419525, 0.39651787281036377, 0.4594913423061371, 0.3267236351966858, 0.38736894726753235, 0.4574996829032898, 0.3814605474472046, 0.6406850218772888, 0.7479777336120605, 0.927830159664154, 0.9306766986846924, 0.9108611941337585, 0.6557496786117554, 0.30196934938430786, 0.37397897243499756, 0.41624024510383606, 0.48305028676986694, 0.7997034788131714, 0.9790855050086975, 0.9903475046157837, 0.9894793629646301, 0.9907423853874207, 0.9870985150337219, 0.9857751131057739, 0.9843904376029968, 0.9801021218299866, 0.9846694469451904, 0.9944267272949219, 0.9936287999153137, 0.9917442202568054, 0.9928007125854492, 0.9935114979743958, 0.9908077120780945, 0.9625704288482666, 0.8984413743019104, 0.9544536471366882, 0.8948746919631958, 0.8569318056106567, 0.7786357998847961, 0.5237624645233154, 0.7851158380508423, 0.7417691349983215, 0.6547447443008423, 0.47492605447769165, 0.5289410352706909, 0.8810963034629822, 0.6115249395370483, 0.6878265738487244, 0.6599977016448975, 0.7251188158988953, 0.638980507850647, 0.34416836500167847, 0.26156559586524963, 0.54517662525177, 0.7464581727981567, 0.8003199696540833, 0.9796403050422668, 0.9896758198738098, 0.9897111058235168]</t>
+          <t>[0.9967676401138306, 0.9978063702583313, 0.9974507689476013, 0.9991672039031982, 0.9992152452468872, 0.9907804131507874, 0.9455121159553528, 0.45107850432395935, 0.9217773675918579, 0.9799010753631592, 0.9904316067695618, 0.9978963136672974, 0.9969738721847534, 0.9661831855773926, 0.8175075054168701, 0.751232922077179, 0.9896060228347778, 0.9217878580093384, 0.9760096669197083, 0.9848467111587524, 0.9887359738349915, 0.9971049427986145, 0.9842979907989502, 0.941826343536377, 0.44427740573883057, 0.5299263000488281, 0.3106652498245239, 0.44666820764541626, 0.14387910068035126, 0.3060702979564667, 0.4166664183139801, 0.39123597741127014, 0.38154923915863037, 0.5251032114028931, 0.9701435565948486, 0.9986085295677185, 0.997963547706604, 0.9979719519615173, 0.9988875985145569, 0.9793164134025574, 0.846015214920044, 0.5608847737312317, 0.23831437528133392, 0.36668533086776733, 0.5927663445472717, 0.37766626477241516, 0.44095689058303833, 0.2870149612426758, 0.49372708797454834, 0.9377859830856323, 0.9625891447067261, 0.9891340136528015, 0.9956159591674805, 0.996921718120575, 0.9819620251655579, 0.9302657246589661, 0.5265622735023499, 0.445610910654068, 0.33407726883888245, 0.17553876340389252, 0.4347972273826599, 0.9416716694831848, 0.9986043572425842, 0.9983716607093811, 0.9967834949493408, 0.9991875290870667, 0.9989523887634277, 0.9993487000465393, 0.999072790145874, 0.9995850920677185, 0.9993745684623718, 0.9993880987167358, 0.9992375373840332, 0.9991965889930725, 0.9967807531356812, 0.8965715169906616, 0.8328444957733154, 0.8561928868293762, 0.8651376366615295, 0.7416609525680542, 0.9028894901275635, 0.5332927703857422, 0.5192285180091858, 0.5629509091377258, 0.35152143239974976, 0.4282931685447693, 0.5755389332771301, 0.4613914489746094, 0.6657227873802185, 0.8964183926582336, 0.9718351364135742, 0.9907481074333191, 0.9791967272758484, 0.790743350982666, 0.24297241866588593, 0.3215460777282715, 0.3086530268192291, 0.3967810571193695, 0.9428403377532959, 0.9979483485221863, 0.9979046583175659, 0.9982678890228271, 0.998897910118103, 0.998267412185669, 0.9976972937583923, 0.9976956248283386, 0.995245635509491, 0.9977219700813293, 0.9989709854125977, 0.9984845519065857, 0.9980497360229492, 0.9978582262992859, 0.9979718327522278, 0.9979774355888367, 0.9851295948028564, 0.9667316675186157, 0.9801766872406006, 0.940924882888794, 0.8899930119514465, 0.8289249539375305, 0.6273680925369263, 0.9074425101280212, 0.845462441444397, 0.7445031404495239, 0.4222116470336914, 0.49656033515930176, 0.9597762823104858, 0.8046262264251709, 0.8612334132194519, 0.7743164300918579, 0.8913474082946777, 0.7325361967086792, 0.44302690029144287, 0.2603035569190979, 0.6769014596939087, 0.9369724988937378, 0.9755833148956299, 0.9988988637924194, 0.999204695224762, 0.9992201328277588]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9968170523643494</v>
+        <v>0.9995850920677185</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.7846160999906715</v>
+        <v>0.7850915000017267</v>
       </c>
       <c r="J200" t="n">
-        <v>0.005604400714219082</v>
+        <v>0.005607796428583762</v>
       </c>
     </row>
     <row r="201">
@@ -8565,11 +8565,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[0.2588341236114502, 0.2265011966228485, 0.18125885725021362, 0.1992236077785492, 0.11377223581075668, 0.144158273935318, 0.12704899907112122, 0.13631735742092133, 0.09924913942813873, 0.08810345083475113, 0.14802582561969757, 0.22560326755046844, 0.23633752763271332, 0.6572311520576477, 0.391702800989151, 0.23334786295890808, 0.5773091316223145, 0.3091033697128296, 0.23555105924606323, 0.1897577941417694, 0.12940022349357605, 0.16216671466827393, 0.10927136987447739, 0.13197818398475647, 0.167616069316864, 0.197831392288208, 0.2570449411869049, 0.28192922472953796, 0.2393251210451126, 0.27103373408317566, 0.28991004824638367, 0.25721031427383423, 0.2964901328086853, 0.21609267592430115, 0.2579526901245117, 0.16485875844955444, 0.16897282004356384, 0.1627918779850006, 0.19689366221427917, 0.8850352168083191, 0.9692546129226685, 0.9373089075088501, 0.8125232458114624, 0.9323506951332092, 0.9729909896850586, 0.9704470038414001, 0.9831463694572449, 0.8901619911193848, 0.6272863149642944, 0.40029075741767883, 0.45836374163627625, 0.39063894748687744, 0.3509248197078705, 0.18348918855190277, 0.23254480957984924, 0.2511462867259979, 0.2002873718738556, 0.26428738236427307, 0.26549404859542847, 0.27080896496772766, 0.2699892222881317, 0.2931806147098541, 0.25517308712005615, 0.1794479787349701, 0.17184756696224213, 0.27364540100097656, 0.19015894830226898, 0.23447124660015106, 0.2571183145046234, 0.40989962220191956, 0.3197269141674042, 0.26755568385124207, 0.1392330676317215, 0.13382083177566528, 0.2310338169336319, 0.22513842582702637, 0.12017946690320969, 0.13793765008449554, 0.1094624325633049, 0.27878814935684204, 0.2677935063838959, 0.18827316164970398, 0.15486553311347961, 0.8040828704833984, 0.6713209748268127, 0.22539548575878143, 0.18788249790668488, 0.14325249195098877, 0.13552974164485931, 0.2336348444223404, 0.2649061679840088, 0.28122982382774353, 0.1574760228395462, 0.19259674847126007, 0.23452480137348175, 0.17321321368217468, 0.16827669739723206, 0.1738845705986023, 0.22424253821372986, 0.3347492218017578, 0.27818524837493896, 0.2661258578300476, 0.21104346215724945, 0.3448435962200165, 0.33198124170303345, 0.3554348051548004, 0.3849393129348755, 0.4191994071006775, 0.4743601381778717, 0.472415030002594, 0.23720458149909973, 0.206889808177948, 0.26342707872390747, 0.23314200341701508, 0.15020599961280823, 0.12350618839263916, 0.09050709754228592, 0.1353817582130432, 0.18188250064849854, 0.3821232318878174, 0.423630028963089, 0.23688213527202606, 0.17896169424057007, 0.16008363664150238, 0.19126589596271515, 0.18844160437583923, 0.27102959156036377, 0.22035592794418335, 0.23487599194049835, 0.27636557817459106, 0.2765577435493469, 0.23637337982654572, 0.20700672268867493, 0.1663161814212799, 0.16460315883159637, 0.29075750708580017, 0.35474327206611633, 0.33465445041656494, 0.276155024766922, 0.28016072511672974]</t>
+          <t>[0.34671086072921753, 0.37577083706855774, 0.3173653781414032, 0.3132522404193878, 0.1755453199148178, 0.19434070587158203, 0.18789242208003998, 0.19525209069252014, 0.11758822202682495, 0.08829518407583237, 0.5854343771934509, 0.5815884470939636, 0.5004371404647827, 0.9532228708267212, 0.8389063477516174, 0.6954793930053711, 0.9284305572509766, 0.4994163513183594, 0.23135121166706085, 0.2673583924770355, 0.08581167459487915, 0.06407330930233002, 0.05557619780302048, 0.07404379546642303, 0.0999317541718483, 0.16063730418682098, 0.21794547140598297, 0.17557640373706818, 0.12671706080436707, 0.13095736503601074, 0.18353460729122162, 0.2215752899646759, 0.34523648023605347, 0.27387064695358276, 0.17213298380374908, 0.10169681161642075, 0.07022970914840698, 0.1332777440547943, 0.23803889751434326, 0.9922727346420288, 0.9963653087615967, 0.9941149353981018, 0.9620378017425537, 0.9920706152915955, 0.9976924657821655, 0.9978162050247192, 0.9992111921310425, 0.9897456169128418, 0.7987088561058044, 0.5737977623939514, 0.5296157598495483, 0.3954274356365204, 0.3704381585121155, 0.21328844130039215, 0.24008357524871826, 0.217135950922966, 0.17696881294250488, 0.25842607021331787, 0.23215611279010773, 0.22998830676078796, 0.16613677144050598, 0.1986527144908905, 0.12805728614330292, 0.09450491517782211, 0.09872528910636902, 0.1708936095237732, 0.09141534566879272, 0.1469624787569046, 0.1484229564666748, 0.3886633515357971, 0.24154779314994812, 0.19059905409812927, 0.08791252225637436, 0.06193380430340767, 0.060174982994794846, 0.07645328342914581, 0.09309732913970947, 0.10114962607622147, 0.07757677137851715, 0.451968789100647, 0.29247355461120605, 0.1611883044242859, 0.11703936755657196, 0.9884345531463623, 0.9123023152351379, 0.2755016088485718, 0.17054079473018646, 0.13623875379562378, 0.11810607463121414, 0.17506957054138184, 0.16651761531829834, 0.2301059067249298, 0.09164801239967346, 0.17892183363437653, 0.26696711778640747, 0.24948714673519135, 0.16887114942073822, 0.17629577219486237, 0.32234254479408264, 0.5608775615692139, 0.35641157627105713, 0.45737582445144653, 0.15011745691299438, 0.20003190636634827, 0.23373627662658691, 0.24129830300807953, 0.28983721137046814, 0.3919314444065094, 0.5047651529312134, 0.6743625998497009, 0.23569054901599884, 0.11943332105875015, 0.1994851976633072, 0.1513727456331253, 0.12049128860235214, 0.09644611924886703, 0.06663332134485245, 0.11114844679832458, 0.16463564336299896, 0.6289476156234741, 0.5661229491233826, 0.2697030007839203, 0.18926197290420532, 0.16538482904434204, 0.18278947472572327, 0.20434695482254028, 0.24364297091960907, 0.15928755700588226, 0.29595911502838135, 0.21475060284137726, 0.2209896594285965, 0.17447659373283386, 0.1417710781097412, 0.11341280490159988, 0.13352596759796143, 0.18151135742664337, 0.24114011228084564, 0.21333366632461548, 0.24472473561763763, 0.24898988008499146]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.9831463694572449</v>
+        <v>0.9992111921310425</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.7723757000057958</v>
+        <v>0.7727868999936618</v>
       </c>
       <c r="J201" t="n">
-        <v>0.005516969285755684</v>
+        <v>0.005519906428526155</v>
       </c>
     </row>
     <row r="202">
@@ -8605,11 +8605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[0.8525397777557373, 0.7843756079673767, 0.6680142879486084, 0.27764609456062317, 0.25032222270965576, 0.5547438263893127, 0.5975013971328735, 0.5667387843132019, 0.6982221007347107, 0.4765595495700836, 0.8911531567573547, 0.986890435218811, 0.9872623085975647, 0.9652804732322693, 0.8600649237632751, 0.8917587995529175, 0.7642697691917419, 0.8825232982635498, 0.7702797651290894, 0.9492283463478088, 0.8495215177536011, 0.7457405924797058, 0.5419582724571228, 0.7746785283088684, 0.7337307929992676, 0.8258095383644104, 0.9483747482299805, 0.9365191459655762, 0.943918764591217, 0.9149011373519897, 0.7995411157608032, 0.7805641293525696, 0.6769668459892273, 0.5945442318916321, 0.6606810092926025, 0.7553327083587646, 0.7987765073776245, 0.7572841644287109, 0.7474393844604492, 0.560989260673523, 0.7635893225669861, 0.9344540238380432, 0.9346645474433899, 0.9099399447441101, 0.9373000860214233, 0.9644685387611389, 0.9552098512649536, 0.940030038356781, 0.837104082107544, 0.8276834487915039, 0.6379759311676025, 0.8352159857749939, 0.6784020066261292, 0.6980504393577576, 0.7278490662574768, 0.7520644664764404, 0.7476924061775208, 0.8846240639686584, 0.8026817440986633, 0.8246379494667053, 0.49251773953437805, 0.7800790071487427, 0.8261310458183289, 0.9061972498893738, 0.8795691132545471, 0.9236236810684204, 0.8978667855262756, 0.8846551775932312, 0.9064001441001892, 0.9332675337791443, 0.7997209429740906, 0.8593156337738037, 0.6920934319496155, 0.8459418416023254, 0.6644013524055481, 0.7099379301071167, 0.7991977334022522, 0.8969830870628357, 0.9434006214141846, 0.9698410034179688, 0.9390926957130432, 0.7498571276664734, 0.8159571290016174, 0.8869073390960693, 0.9511719346046448, 0.9526090025901794, 0.9498164653778076, 0.9748697280883789, 0.968152642250061, 0.9391596913337708, 0.8992244601249695, 0.8738027811050415, 0.8808040022850037, 0.9193450212478638, 0.8987392783164978, 0.8741400241851807, 0.7203201651573181, 0.9032647609710693, 0.8629592061042786, 0.8642387986183167, 0.9256626963615417, 0.9307962656021118, 0.958616316318512, 0.9528766870498657, 0.9239117503166199, 0.9324268698692322, 0.9001559019088745, 0.9190781116485596, 0.8104521036148071, 0.8904179334640503, 0.8511152267456055, 0.8735206127166748, 0.8685877919197083, 0.8836531639099121, 0.8342840671539307, 0.9338629841804504, 0.9445990324020386, 0.9174341559410095, 0.9319101572036743, 0.9195800423622131, 0.9418389201164246, 0.9199988842010498, 0.9410127997398376, 0.9474748373031616, 0.9004731774330139, 0.8682841658592224, 0.8858439326286316, 0.9171673655509949, 0.887730062007904, 0.8859707713127136, 0.872624397277832, 0.8133143782615662, 0.79170823097229, 0.7862150073051453, 0.8307748436927795, 0.9070123434066772, 0.9509292244911194, 0.9272268414497375, 0.9003953337669373, 0.9043747782707214]</t>
+          <t>[0.9639454483985901, 0.8844170570373535, 0.7780591249465942, 0.44535690546035767, 0.3928721845149994, 0.7334814071655273, 0.7348365187644958, 0.6047797799110413, 0.7971081137657166, 0.7139503359794617, 0.972905695438385, 0.9963920712471008, 0.9954665899276733, 0.9834299087524414, 0.9605677127838135, 0.964891791343689, 0.905221700668335, 0.9810068011283875, 0.9022976756095886, 0.9898374676704407, 0.9190136790275574, 0.8339317440986633, 0.49875736236572266, 0.8335809111595154, 0.8424659371376038, 0.8483110666275024, 0.9696709513664246, 0.9600275158882141, 0.9729363918304443, 0.9534479975700378, 0.7893788814544678, 0.8329674601554871, 0.6839994788169861, 0.6724141240119934, 0.7488008141517639, 0.7981075644493103, 0.9243291020393372, 0.8883497714996338, 0.8303706049919128, 0.5668538212776184, 0.7108978629112244, 0.9753066897392273, 0.9704104065895081, 0.971004068851471, 0.9798275232315063, 0.9916559457778931, 0.9870010614395142, 0.9809219241142273, 0.928972601890564, 0.9319748878479004, 0.7979832291603088, 0.9334208369255066, 0.8113134503364563, 0.8418445587158203, 0.8936980962753296, 0.87562495470047, 0.8875582814216614, 0.9643763899803162, 0.9462791085243225, 0.9284213185310364, 0.6981998085975647, 0.876920759677887, 0.8826117515563965, 0.9297162890434265, 0.8733334541320801, 0.9581486582756042, 0.9065620303153992, 0.9168220162391663, 0.9558390378952026, 0.9685683846473694, 0.8472636342048645, 0.8717034459114075, 0.7205730676651001, 0.8206753730773926, 0.5616716742515564, 0.6635452508926392, 0.7855702042579651, 0.9341111779212952, 0.9777355194091797, 0.9824678301811218, 0.9508106708526611, 0.8851450085639954, 0.9371390342712402, 0.9306420087814331, 0.9774096012115479, 0.9691011309623718, 0.9701744914054871, 0.9912227392196655, 0.9850372672080994, 0.9510400891304016, 0.858913242816925, 0.8576555252075195, 0.8858453035354614, 0.9533303380012512, 0.9192185997962952, 0.901161253452301, 0.6744638681411743, 0.9209681749343872, 0.9187031984329224, 0.8909629583358765, 0.9440434575080872, 0.9495500326156616, 0.9776298999786377, 0.9684885144233704, 0.8997090458869934, 0.9278139472007751, 0.8851943612098694, 0.9023287892341614, 0.8125675916671753, 0.9115176796913147, 0.9321075081825256, 0.9189280271530151, 0.8879690170288086, 0.8912512063980103, 0.7605462670326233, 0.9461156725883484, 0.9741272330284119, 0.9479241967201233, 0.9667150378227234, 0.9593734741210938, 0.9655665159225464, 0.9594761729240417, 0.9672791957855225, 0.9740877747535706, 0.9148549437522888, 0.911437451839447, 0.9226135611534119, 0.9471101760864258, 0.9341175556182861, 0.9106607437133789, 0.8993285894393921, 0.8577815890312195, 0.8519552946090698, 0.8063953518867493, 0.8636730909347534, 0.9053283929824829, 0.9345677495002747, 0.9153920412063599, 0.8807175159454346, 0.8844508528709412]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9872623085975647</v>
+        <v>0.9963920712471008</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8623,10 +8623,10 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.7820332000264898</v>
+        <v>0.7828697000077227</v>
       </c>
       <c r="J202" t="n">
-        <v>0.005585951428760641</v>
+        <v>0.00559192642862659</v>
       </c>
     </row>
     <row r="203">
@@ -8645,11 +8645,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[0.7109529376029968, 0.5969041585922241, 0.34396883845329285, 0.1437600553035736, 0.39478275179862976, 0.6542547941207886, 0.6061912775039673, 0.7625312209129333, 0.5372462272644043, 0.5395084023475647, 0.5291740894317627, 0.5710685849189758, 0.5265942811965942, 0.6738241314888, 0.6384013295173645, 0.7832411527633667, 0.5558142066001892, 0.3852638304233551, 0.24676163494586945, 0.6377207636833191, 0.8743623495101929, 0.890666127204895, 0.8627080321311951, 0.7990607023239136, 0.7794487476348877, 0.8976810574531555, 0.8586428761482239, 0.4283871352672577, 0.22793720662593842, 0.15931643545627594, 0.10712448507547379, 0.16680245101451874, 0.12145575881004333, 0.1865767389535904, 0.28043362498283386, 0.418096661567688, 0.306795597076416, 0.22879496216773987, 0.18101298809051514, 0.28392961621284485, 0.2826198637485504, 0.4171309769153595, 0.9118756651878357, 0.6993401646614075, 0.7250080704689026, 0.6856054067611694, 0.7384987473487854, 0.3252294361591339, 0.23391684889793396, 0.1765926629304886, 0.39854031801223755, 0.7218722701072693, 0.9449123740196228, 0.8465908765792847, 0.7068629264831543, 0.7141932249069214, 0.6414961814880371, 0.7337684035301208, 0.6045914888381958, 0.8064879775047302, 0.8927629590034485, 0.8620105385780334, 0.4988301694393158, 0.2149716317653656, 0.32477134466171265, 0.8157662749290466, 0.6649383306503296, 0.7215844392776489, 0.6278141736984253, 0.4273582100868225, 0.22726701200008392, 0.44435256719589233, 0.6209731698036194, 0.5214099884033203, 0.4847627580165863, 0.386953741312027, 0.28329455852508545, 0.40992802381515503, 0.5316464900970459, 0.7140382528305054, 0.4441051781177521, 0.26505059003829956, 0.29604780673980713, 0.27270159125328064, 0.402863472700119, 0.33250364661216736, 0.3597349226474762, 0.6119033694267273, 0.6264927983283997, 0.6386498808860779, 0.6346094608306885, 0.5200151205062866, 0.29909607768058777, 0.2175733596086502, 0.3895067572593689, 0.6001031398773193, 0.3333958387374878, 0.2823452353477478, 0.2466030865907669, 0.5723196268081665, 0.20633868873119354, 0.12757989764213562, 0.17754244804382324, 0.10448751598596573, 0.17293904721736908, 0.45495325326919556, 0.7101000547409058, 0.5630099177360535, 0.26856157183647156, 0.49960681796073914, 0.2997480630874634, 0.3808627724647522, 0.47222089767456055, 0.6244382858276367, 0.4083995521068573, 0.6018003225326538, 0.6895318031311035, 0.6008222103118896, 0.2904493510723114, 0.33842673897743225, 0.18203839659690857, 0.1956658512353897, 0.11121852695941925, 0.1333739310503006, 0.24028435349464417, 0.2505791187286377, 0.4879874289035797, 0.45527830719947815, 0.32196223735809326, 0.38230007886886597, 0.3977106809616089, 0.4129936397075653, 0.4780481457710266, 0.5477597713470459, 0.4987884759902954, 0.7402313947677612, 0.8080182671546936, 0.8937387466430664, 0.893592357635498]</t>
+          <t>[0.48504403233528137, 0.38941866159439087, 0.18080328404903412, 0.09862589836120605, 0.2906055748462677, 0.5091864466667175, 0.483199805021286, 0.7439696788787842, 0.2654925584793091, 0.26338744163513184, 0.4776924252510071, 0.474072128534317, 0.5042799115180969, 0.6792356371879578, 0.4298821985721588, 0.6781030893325806, 0.3776165544986725, 0.15053819119930267, 0.11039694398641586, 0.4942798614501953, 0.8543773889541626, 0.9528424739837646, 0.8368145227432251, 0.7926154732704163, 0.7245042324066162, 0.9738886952400208, 0.9449869990348816, 0.5015864968299866, 0.2969929575920105, 0.19241732358932495, 0.09122835099697113, 0.209664985537529, 0.11636607348918915, 0.18774718046188354, 0.3486889898777008, 0.5289663076400757, 0.5383113622665405, 0.35500985383987427, 0.26858144998550415, 0.3548543155193329, 0.329039067029953, 0.5264827013015747, 0.9813947677612305, 0.7338396906852722, 0.7189927697181702, 0.6845310926437378, 0.4202505648136139, 0.23484914004802704, 0.09083443880081177, 0.07096174359321594, 0.3709436357021332, 0.896573007106781, 0.9920939803123474, 0.9577409625053406, 0.8081493973731995, 0.8314214944839478, 0.694216787815094, 0.8414246439933777, 0.7105661630630493, 0.894982099533081, 0.9395772814750671, 0.9774101376533508, 0.8398427367210388, 0.4889691174030304, 0.4266107976436615, 0.9539164900779724, 0.8451415300369263, 0.949181854724884, 0.856877326965332, 0.5890827775001526, 0.23975960910320282, 0.4038711190223694, 0.7511665225028992, 0.5555235743522644, 0.4704974293708801, 0.35804852843284607, 0.2882389426231384, 0.5333795547485352, 0.6070742011070251, 0.8280524611473083, 0.5415745377540588, 0.38268575072288513, 0.3723343014717102, 0.37087905406951904, 0.42596501111984253, 0.4978712201118469, 0.5768923759460449, 0.7586275935173035, 0.6622710227966309, 0.6407761573791504, 0.776503324508667, 0.5965594053268433, 0.36922284960746765, 0.4475603997707367, 0.7157422304153442, 0.809264063835144, 0.5892577171325684, 0.5451221466064453, 0.43596845865249634, 0.7558811902999878, 0.3251442015171051, 0.18273557722568512, 0.20855000615119934, 0.20781001448631287, 0.29772570729255676, 0.5641506910324097, 0.8451525568962097, 0.6805515885353088, 0.32788005471229553, 0.6406510472297668, 0.3810124397277832, 0.4841044843196869, 0.5243180990219116, 0.7410829663276672, 0.6025053262710571, 0.8828778266906738, 0.9190413951873779, 0.7458186149597168, 0.38866856694221497, 0.4436396658420563, 0.25188323855400085, 0.27938705682754517, 0.20731285214424133, 0.19735835492610931, 0.3041597008705139, 0.4480833411216736, 0.9028353691101074, 0.7891789078712463, 0.48762476444244385, 0.6242391467094421, 0.39275506138801575, 0.6915280222892761, 0.7568753361701965, 0.7771638035774231, 0.4748522937297821, 0.752244770526886, 0.8499113321304321, 0.9773859977722168, 0.9767271876335144]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.9449123740196228</v>
+        <v>0.9920939803123474</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
@@ -8663,10 +8663,10 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0.7836355999752413</v>
+        <v>0.7736248000001069</v>
       </c>
       <c r="J203" t="n">
-        <v>0.00563766618687224</v>
+        <v>0.005565646043166237</v>
       </c>
     </row>
     <row r="204">
@@ -8685,11 +8685,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[0.995797872543335, 0.9968660473823547, 0.99752277135849, 0.9964544773101807, 0.9944948554039001, 0.9958244562149048, 0.9965755343437195, 0.9962474703788757, 0.9963042736053467, 0.997485876083374, 0.9964423775672913, 0.9972053170204163, 0.9980066418647766, 0.9984090924263, 0.9960002303123474, 0.996183454990387, 0.9954198598861694, 0.992929995059967, 0.9683006405830383, 0.9228343963623047, 0.6414530873298645, 0.863611102104187, 0.7104277610778809, 0.7867016792297363, 0.6254240870475769, 0.8510076403617859, 0.7973946332931519, 0.6260887980461121, 0.5150856971740723, 0.43836089968681335, 0.3479079306125641, 0.3036211133003235, 0.3547118902206421, 0.4364677667617798, 0.5135294198989868, 0.5551363825798035, 0.5675190687179565, 0.48700693249702454, 0.5695796012878418, 0.5330796241760254, 0.42229557037353516, 0.40079817175865173, 0.4876469075679779, 0.385183185338974, 0.34526941180229187, 0.4916808009147644, 0.6322472095489502, 0.9355074167251587, 0.8699862360954285, 0.9961561560630798, 0.9983944296836853, 0.9983025789260864, 0.9967615008354187, 0.9971376657485962, 0.9972645044326782, 0.9969998002052307, 0.997416615486145, 0.996657133102417, 0.9979941844940186, 0.9979673027992249, 0.9968189001083374, 0.9964771866798401, 0.9957137107849121, 0.9943338632583618, 0.9945756196975708, 0.9846493601799011, 0.9301599860191345, 0.8855338096618652, 0.8820965886116028, 0.8715901374816895, 0.898459792137146, 0.8616786599159241, 0.9824752807617188, 0.9883643388748169, 0.9804354906082153, 0.8987360596656799, 0.8738395571708679, 0.6790767312049866, 0.6943886280059814, 0.8616058826446533, 0.8594090938568115, 0.9621530175209045, 0.9682562351226807, 0.9922918677330017, 0.9950652718544006, 0.9953579306602478, 0.9940112233161926, 0.998416543006897, 0.9988718628883362, 0.9977849125862122, 0.9974651336669922, 0.9968515038490295, 0.9921668767929077, 0.9909056425094604, 0.984958291053772, 0.992895781993866, 0.9974637031555176, 0.9980071187019348, 0.9975911378860474, 0.9975088834762573, 0.9976141452789307, 0.9975175857543945, 0.9966722726821899, 0.9955477714538574, 0.9940268993377686, 0.9922462105751038, 0.9936283230781555, 0.9878219962120056, 0.9572271108627319, 0.9787686467170715, 0.990371584892273, 0.9956220984458923, 0.9941127896308899, 0.9968065023422241, 0.9954160451889038, 0.9973100423812866, 0.9971531629562378, 0.9976294636726379, 0.9977155923843384, 0.9971330165863037, 0.9961607456207275, 0.9969795942306519, 0.9963653087615967, 0.9982420206069946, 0.9977179765701294, 0.9982869029045105, 0.9972533583641052, 0.9964562058448792, 0.997972309589386, 0.9967404007911682, 0.9963154196739197, 0.9963635802268982, 0.9875301122665405, 0.9863410592079163, 0.9880318641662598, 0.9807132482528687, 0.9804820418357849, 0.9750595688819885, 0.9883522391319275, 0.9882879853248596]</t>
+          <t>[0.9992066025733948, 0.9994358420372009, 0.9994378685951233, 0.9991412162780762, 0.9986473917961121, 0.9989346861839294, 0.9987737536430359, 0.9988598823547363, 0.9990580677986145, 0.9996359348297119, 0.9996719360351562, 0.999739944934845, 0.9997562766075134, 0.9997629523277283, 0.9995622038841248, 0.9994328618049622, 0.9993817806243896, 0.9991536140441895, 0.9940628409385681, 0.977064311504364, 0.6790981292724609, 0.8375381827354431, 0.6601913571357727, 0.7651181221008301, 0.7274627089500427, 0.8694559931755066, 0.8493391871452332, 0.6444087624549866, 0.5320982336997986, 0.4788512885570526, 0.47868087887763977, 0.3020658493041992, 0.36116814613342285, 0.606632649898529, 0.7542834281921387, 0.8238059878349304, 0.8226439952850342, 0.7969846725463867, 0.7461149096488953, 0.7262088060379028, 0.5697256326675415, 0.5446082353591919, 0.6062529683113098, 0.516633927822113, 0.40181100368499756, 0.6008104085922241, 0.7974295020103455, 0.9935675263404846, 0.9435076117515564, 0.999664306640625, 0.999764621257782, 0.9997352957725525, 0.9993832111358643, 0.9993522763252258, 0.9992578625679016, 0.9991700649261475, 0.9993922710418701, 0.9992146492004395, 0.9996230602264404, 0.9995224475860596, 0.9992573857307434, 0.9993589520454407, 0.9992327690124512, 0.9991593360900879, 0.9993264675140381, 0.9981867671012878, 0.967311441898346, 0.9637205004692078, 0.9121126532554626, 0.9209052920341492, 0.9477070569992065, 0.9370716214179993, 0.9978736639022827, 0.9986662864685059, 0.998115062713623, 0.9873586297035217, 0.9691889882087708, 0.8196564316749573, 0.8239156007766724, 0.9774839878082275, 0.9660515189170837, 0.9947203397750854, 0.9941039681434631, 0.998860239982605, 0.9994006156921387, 0.9993922710418701, 0.9987103939056396, 0.9997733235359192, 0.9997088313102722, 0.9992996454238892, 0.9993197917938232, 0.9993409514427185, 0.9978770017623901, 0.9970993995666504, 0.9948834776878357, 0.998434841632843, 0.999421238899231, 0.9993765950202942, 0.9988094568252563, 0.9991185069084167, 0.9990492463111877, 0.9989225268363953, 0.9985705614089966, 0.9983412027359009, 0.9977462887763977, 0.9975486397743225, 0.9990893602371216, 0.9983657002449036, 0.9959456324577332, 0.9979456067085266, 0.9989312291145325, 0.9994869232177734, 0.9992468357086182, 0.9995239973068237, 0.9988086223602295, 0.999197781085968, 0.999245285987854, 0.9994788765907288, 0.9993465542793274, 0.9991884827613831, 0.9983745813369751, 0.9988036155700684, 0.9981689453125, 0.9990543723106384, 0.9988886713981628, 0.9995386600494385, 0.9993835687637329, 0.9995437264442444, 0.9996659755706787, 0.9995595812797546, 0.999427080154419, 0.9994975328445435, 0.9955358505249023, 0.9970613121986389, 0.9980953335762024, 0.9943958520889282, 0.995165228843689, 0.9965408444404602, 0.998497724533081, 0.9985373020172119]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.9988718628883362</v>
+        <v>0.9997733235359192</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.8012155999895185</v>
+        <v>0.7801069999986794</v>
       </c>
       <c r="J204" t="n">
-        <v>0.005722968571353704</v>
+        <v>0.005572192857133424</v>
       </c>
     </row>
     <row r="205">
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.40266937017440796, 0.37156566977500916, 0.37774237990379333, 0.4289308488368988, 0.6107038855552673, 0.6910274028778076, 0.6411974430084229, 0.503333330154419, 0.543523907661438, 0.47952237725257874, 0.4570092260837555, 0.5174213647842407, 0.3916047513484955, 0.33835694193840027, 0.36923348903656006, 0.5196664333343506, 0.5333195328712463, 0.4376464784145355, 0.30855199694633484, 0.17322663962841034, 0.12415631115436554, 0.10025069117546082, 0.1241241991519928, 0.11742563545703888, 0.10146214812994003, 0.6389175653457642, 0.8522126078605652, 0.7653002142906189, 0.5391685366630554, 0.5396754741668701, 0.5559388995170593, 0.4655909240245819, 0.674503743648529, 0.9921072125434875, 0.9959608912467957, 0.9940610527992249, 0.9901275634765625, 0.9759395122528076, 0.9761369824409485, 0.9894717335700989, 0.9957796335220337, 0.9938985109329224, 0.9918791651725769, 0.9948630928993225, 0.9531782269477844, 0.4604414701461792, 0.5513313412666321, 0.7931443452835083, 0.7633349299430847, 0.8059015870094299, 0.789098858833313, 0.7232558727264404, 0.5730124711990356, 0.6032593846321106, 0.4898567795753479, 0.5195462703704834, 0.6121479868888855, 0.6565226912498474, 0.6121583580970764, 0.5475679039955139, 0.5280190110206604, 0.4688046872615814, 0.4837852418422699, 0.6344282627105713, 0.6956915259361267, 0.7334955930709839, 0.527690589427948, 0.6329002976417542, 0.5025107264518738, 0.7487773299217224, 0.8286553025245667, 0.7652841210365295, 0.7320733070373535, 0.6716644167900085, 0.6980229020118713, 0.6001126766204834, 0.6678352952003479, 0.850601315498352, 0.9217377305030823, 0.855619490146637, 0.6862039566040039, 0.6217173933982849, 0.515568196773529, 0.5389938950538635, 0.4688194990158081, 0.423152893781662, 0.3556753993034363, 0.26340150833129883, 0.37981536984443665, 0.33421939611434937, 0.350176066160202, 0.49099770188331604, 0.5478429794311523, 0.686079740524292, 0.45904457569122314, 0.4556522071361542, 0.5052655935287476, 0.4586629569530487, 0.4499606192111969, 0.595577597618103, 0.5955410003662109, 0.5532138347625732, 0.379977285861969, 0.44073057174682617, 0.8973763585090637, 0.966877281665802, 0.9612361788749695, 0.9516845345497131, 0.8991972804069519, 0.7638970613479614, 0.5192410945892334, 0.3413928151130676, 0.4837462902069092, 0.3143714964389801, 0.32333824038505554, 0.41260331869125366, 0.484824538230896, 0.438137024641037, 0.46318355202674866, 0.502886176109314, 0.7342142462730408, 0.7756322026252747, 0.7596585154533386, 0.7102363109588623, 0.7528907656669617, 0.6588049530982971, 0.48397305607795715, 0.7875601649284363, 0.8141582608222961, 0.9030458927154541, 0.8950034976005554, 0.900111198425293, 0.9761717319488525, 0.9784563779830933, 0.9498298764228821, 0.961395800113678, 0.9575960040092468, 0.9806726574897766, 0.9801837801933289]</t>
+          <t>[0.41371995210647583, 0.47778695821762085, 0.5685800313949585, 0.6180234551429749, 0.7434142231941223, 0.8161982893943787, 0.7289451360702515, 0.5702664852142334, 0.6441092491149902, 0.7041820287704468, 0.7287602424621582, 0.6320951581001282, 0.48669514060020447, 0.4114341735839844, 0.4884490370750427, 0.7040089964866638, 0.7893304228782654, 0.6488699913024902, 0.529752790927887, 0.1641070395708084, 0.15366230905056, 0.15850785374641418, 0.21797966957092285, 0.18410442769527435, 0.17786742746829987, 0.9770927429199219, 0.9921013712882996, 0.9508301615715027, 0.6075649261474609, 0.6759760975837708, 0.7306065559387207, 0.5957537889480591, 0.809579610824585, 0.9997164607048035, 0.9997729659080505, 0.9997475743293762, 0.9995787739753723, 0.9988425374031067, 0.9988316893577576, 0.9995803236961365, 0.9996447563171387, 0.9994816184043884, 0.9994620680809021, 0.9996101260185242, 0.9975014328956604, 0.6411758661270142, 0.6870467662811279, 0.8960859179496765, 0.9229282140731812, 0.9497977495193481, 0.9387876987457275, 0.8825632929801941, 0.7313594222068787, 0.7831528186798096, 0.7237362265586853, 0.696514904499054, 0.7965763211250305, 0.8605750203132629, 0.7373876571655273, 0.6760054230690002, 0.6520789265632629, 0.6286861896514893, 0.5696040987968445, 0.6872513890266418, 0.6331169009208679, 0.7939956188201904, 0.5920054316520691, 0.6184407472610474, 0.5879033207893372, 0.8770338892936707, 0.9712485671043396, 0.9251019358634949, 0.9236397743225098, 0.8485013246536255, 0.9114778637886047, 0.8451321125030518, 0.910422682762146, 0.9783039093017578, 0.9906531572341919, 0.9923765063285828, 0.9734262824058533, 0.9173417687416077, 0.785476803779602, 0.718953013420105, 0.6946660280227661, 0.565307080745697, 0.37327733635902405, 0.3113836646080017, 0.4509316086769104, 0.435273677110672, 0.5477153658866882, 0.7980993390083313, 0.7582018375396729, 0.8808273673057556, 0.6687218546867371, 0.6712260842323303, 0.6143913269042969, 0.6190062761306763, 0.6547095775604248, 0.6952495574951172, 0.6268062591552734, 0.588373064994812, 0.44013580679893494, 0.6220220327377319, 0.9561338424682617, 0.9975186586380005, 0.9957749247550964, 0.9941416382789612, 0.9871271848678589, 0.9829798936843872, 0.6981053948402405, 0.3923546373844147, 0.49899935722351074, 0.3136136531829834, 0.40769439935684204, 0.5808695554733276, 0.5986859798431396, 0.483612060546875, 0.6296308040618896, 0.6471099257469177, 0.8583850264549255, 0.8631724119186401, 0.8417329788208008, 0.8365345597267151, 0.8805433511734009, 0.8597683310508728, 0.8202915191650391, 0.9615652561187744, 0.9353994727134705, 0.9747056365013123, 0.973155677318573, 0.9742101430892944, 0.997907280921936, 0.9960327744483948, 0.9861181378364563, 0.9933587908744812, 0.9907636046409607, 0.9979773163795471, 0.997905969619751]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.9959608912467957</v>
+        <v>0.9997729659080505</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8743,10 +8743,10 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.7873929000052158</v>
+        <v>0.7833819999941625</v>
       </c>
       <c r="J205" t="n">
-        <v>0.005664697122339682</v>
+        <v>0.005635841726576708</v>
       </c>
     </row>
     <row r="206">
@@ -8765,11 +8765,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[0.04304350167512894, 0.08604506403207779, 0.09195543080568314, 0.10598564147949219, 0.07744873315095901, 0.08497323840856552, 0.11533831804990768, 0.16576310992240906, 0.057878278195858, 0.10361947119235992, 0.16541974246501923, 0.25509732961654663, 0.41722217202186584, 0.9207164645195007, 0.9658710956573486, 0.9635742902755737, 0.9713932275772095, 0.9454118609428406, 0.8058261275291443, 0.17000286281108856, 0.20133242011070251, 0.2443614900112152, 0.2263808697462082, 0.27014389634132385, 0.15048742294311523, 0.2053864300251007, 0.21922527253627777, 0.5237236618995667, 0.23242342472076416, 0.8090181946754456, 0.9616085886955261, 0.9687448740005493, 0.981855034828186, 0.9768284559249878, 0.984758734703064, 0.9528623819351196, 0.8603428602218628, 0.8580490350723267, 0.7108538150787354, 0.9198790788650513, 0.9811457991600037, 0.9791243672370911, 0.9775420427322388, 0.9856095910072327, 0.967444658279419, 0.8749363422393799, 0.9324671626091003, 0.969022274017334, 0.973024308681488, 0.8591580390930176, 0.5749179124832153, 0.7256435751914978, 0.6633378863334656, 0.28165939450263977, 0.3298632502555847, 0.2798999845981598, 0.5474456548690796, 0.7313185334205627, 0.9241371154785156, 0.9554387331008911, 0.9758356213569641, 0.9852787256240845, 0.9803881645202637, 0.9725320339202881, 0.9469669461250305, 0.9097813367843628, 0.9691199064254761, 0.955655038356781, 0.9414492845535278, 0.962652325630188, 0.9532433152198792, 0.9844788908958435, 0.9562999606132507, 0.5951585173606873, 0.794926643371582, 0.971939742565155, 0.9599359631538391, 0.6894553899765015, 0.5588105320930481, 0.4675716757774353, 0.5907408595085144, 0.7449660301208496, 0.8454481959342957, 0.8857163190841675, 0.9494855403900146, 0.9801490902900696, 0.9849885702133179, 0.9702611565589905, 0.9719380736351013, 0.9818210005760193, 0.9660679697990417, 0.9649170637130737, 0.9661931991577148, 0.9711082577705383, 0.9683965444564819, 0.9634203314781189, 0.9403820037841797, 0.9584649801254272, 0.9608897566795349, 0.920911431312561, 0.9452297687530518, 0.9700934886932373, 0.9588165283203125, 0.8898857831954956, 0.6855698227882385, 0.7073543071746826, 0.5189527273178101, 0.7075522541999817, 0.490515798330307, 0.5378937721252441, 0.5157638192176819, 0.6844713687896729, 0.43170419335365295, 0.5247353911399841, 0.376087486743927, 0.3743777275085449, 0.7042479515075684, 0.9507285356521606, 0.837624192237854, 0.7030753493309021, 0.8679476380348206, 0.7549862861633301, 0.76975417137146, 0.9286548495292664, 0.8871426582336426, 0.615156888961792, 0.28011929988861084, 0.37644004821777344, 0.282207190990448, 0.4436699151992798, 0.34117239713668823, 0.2173633724451065, 0.5990763902664185, 0.635817289352417, 0.7184535264968872, 0.3764900863170624, 0.2902534604072571, 0.1977650374174118, 0.18247787654399872, 0.18189774453639984]</t>
+          <t>[0.01065127458423376, 0.044131021946668625, 0.06619375199079514, 0.0723867118358612, 0.04687376320362091, 0.0355798676609993, 0.04044013470411301, 0.07860226184129715, 0.03570930287241936, 0.11188475042581558, 0.13205428421497345, 0.16747090220451355, 0.43432995676994324, 0.983368456363678, 0.9955631494522095, 0.994737446308136, 0.9971490502357483, 0.9936879277229309, 0.8802064061164856, 0.08748117089271545, 0.11367692798376083, 0.10511569678783417, 0.12078163027763367, 0.14920124411582947, 0.0864599421620369, 0.12884613871574402, 0.26636144518852234, 0.5821623802185059, 0.36572349071502686, 0.9691941738128662, 0.9939820170402527, 0.9953715205192566, 0.9972585439682007, 0.9966819882392883, 0.9968497157096863, 0.9909091591835022, 0.9768298268318176, 0.9588668346405029, 0.8129078149795532, 0.9855070114135742, 0.9976847171783447, 0.9975770115852356, 0.9969411492347717, 0.9983042478561401, 0.9938313961029053, 0.9367349147796631, 0.9883939027786255, 0.9970186948776245, 0.997936487197876, 0.9719579219818115, 0.5729737281799316, 0.8274726867675781, 0.8862577676773071, 0.3808339238166809, 0.4322982430458069, 0.31174570322036743, 0.6717106103897095, 0.8403179049491882, 0.9832127690315247, 0.9939833283424377, 0.9968470931053162, 0.998225748538971, 0.9967256784439087, 0.9940245747566223, 0.9850888848304749, 0.9549211263656616, 0.9883697032928467, 0.9859899282455444, 0.9796289801597595, 0.9897187948226929, 0.9891455173492432, 0.9974449872970581, 0.9885508418083191, 0.6258826851844788, 0.9618980288505554, 0.9974851608276367, 0.9965305924415588, 0.8917574286460876, 0.7730088829994202, 0.7242122888565063, 0.7530944347381592, 0.917352020740509, 0.9686062932014465, 0.9801958203315735, 0.9923456311225891, 0.9977415800094604, 0.9986793398857117, 0.9979782700538635, 0.9971261620521545, 0.9979872703552246, 0.9974852800369263, 0.9973672032356262, 0.9965870380401611, 0.9967319965362549, 0.997826874256134, 0.9952114224433899, 0.9909680485725403, 0.9961866736412048, 0.9961697459220886, 0.985453724861145, 0.9896619319915771, 0.9958029389381409, 0.9952861666679382, 0.9887711405754089, 0.8735458254814148, 0.8324138522148132, 0.6059296727180481, 0.6862862706184387, 0.4673983156681061, 0.6327812075614929, 0.5353252291679382, 0.7025341987609863, 0.4243227541446686, 0.5442594885826111, 0.4276251494884491, 0.4784371852874756, 0.8485310673713684, 0.9963300824165344, 0.9824231863021851, 0.8346090316772461, 0.9467365145683289, 0.8485069870948792, 0.9090610146522522, 0.966156542301178, 0.9233412742614746, 0.6809529066085815, 0.24271593987941742, 0.2790989577770233, 0.1893284022808075, 0.3516731858253479, 0.2291397601366043, 0.16613464057445526, 0.7979922890663147, 0.8933133482933044, 0.9031856656074524, 0.5146024227142334, 0.2937331199645996, 0.17150700092315674, 0.11515673995018005, 0.11368373781442642]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.9856095910072327</v>
+        <v>0.9986793398857117</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -8783,10 +8783,10 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.7903002999955788</v>
+        <v>0.7704190000076778</v>
       </c>
       <c r="J206" t="n">
-        <v>0.005645002142825563</v>
+        <v>0.005502992857197699</v>
       </c>
     </row>
     <row r="207">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[0.2288670539855957, 0.2261955291032791, 0.16814032196998596, 0.4474523663520813, 0.19402000308036804, 0.4664762616157532, 0.7223248481750488, 0.33825257420539856, 0.07891707122325897, 0.24619528651237488, 0.3375353217124939, 0.17652669548988342, 0.37907490134239197, 0.42867642641067505, 0.5321835279464722, 0.8498390913009644, 0.8777571320533752, 0.9204877018928528, 0.8101306557655334, 0.7936293482780457, 0.5451905131340027, 0.4317242205142975, 0.14744922518730164, 0.08037887513637543, 0.11411281675100327, 0.03010932356119156, 0.06376751512289047, 0.1432977020740509, 0.5471909046173096, 0.5881999135017395, 0.692639172077179, 0.5805420875549316, 0.43052536249160767, 0.3715762197971344, 0.3364294171333313, 0.17341937124729156, 0.08396246284246445, 0.09925665706396103, 0.14437933266162872, 0.3037435710430145, 0.4609532356262207, 0.3108136057853699, 0.3196201026439667, 0.4085786044597626, 0.35025113821029663, 0.2344365119934082, 0.3102378845214844, 0.0891929641366005, 0.12737257778644562, 0.4411211311817169, 0.4214905798435211, 0.6632620692253113, 0.5110487341880798, 0.5184972882270813, 0.6704376339912415, 0.6038714647293091, 0.6035977005958557, 0.5661829113960266, 0.5407385230064392, 0.6069638729095459, 0.5576617121696472, 0.6789994835853577, 0.4984438717365265, 0.7901036739349365, 0.4533325135707855, 0.6361908912658691, 0.45561641454696655, 0.5615008473396301, 0.6011143922805786, 0.5422637462615967, 0.3875386714935303, 0.4690857231616974, 0.39707544445991516, 0.463440865278244, 0.44754868745803833, 0.5454908013343811, 0.6389498710632324, 0.622198224067688, 0.6210640072822571, 0.6856067180633545, 0.16981369256973267, 0.5834418535232544, 0.6468079090118408, 0.67723548412323, 0.5948153138160706, 0.6934270262718201, 0.4899906516075134, 0.7895693778991699, 0.6385050415992737, 0.4432377815246582, 0.5956991314888, 0.7253352403640747, 0.8682552576065063, 0.9792183041572571, 0.9834945797920227, 0.9497860074043274, 0.5974361300468445, 0.9035496115684509, 0.7014686465263367, 0.8601105213165283, 0.9416359663009644, 0.7852856516838074, 0.7416447401046753, 0.4565018117427826, 0.27485883235931396, 0.31370967626571655, 0.3128422498703003, 0.36114388704299927, 0.274082750082016, 0.4498770236968994, 0.6743519902229309, 0.7866466641426086, 0.5986111760139465, 0.5526924729347229, 0.4493151605129242, 0.6464462876319885, 0.43715518712997437, 0.4044361114501953, 0.335073322057724, 0.3113943636417389, 0.13963088393211365, 0.2204437404870987, 0.4315696358680725, 0.5584788918495178, 0.6349439024925232, 0.5057168006896973, 0.38128727674484253, 0.32585516571998596, 0.2188721001148224, 0.1465623676776886, 0.2136608362197876, 0.18128184974193573, 0.2192339152097702, 0.37804514169692993, 0.4036911725997925, 0.3919198215007782, 0.4486531615257263, 0.7518071532249451, 0.7502829432487488]</t>
+          <t>[0.12294313311576843, 0.11248824000358582, 0.09403743594884872, 0.48119792342185974, 0.22451210021972656, 0.613196074962616, 0.8630208373069763, 0.4381653368473053, 0.22742204368114471, 0.3261711299419403, 0.3750552833080292, 0.14028987288475037, 0.21793891489505768, 0.36882010102272034, 0.5406482815742493, 0.9391964673995972, 0.950595498085022, 0.9728202819824219, 0.9637248516082764, 0.9846757054328918, 0.8398357629776001, 0.5861450433731079, 0.20359593629837036, 0.08956760913133621, 0.2082221955060959, 0.03897653520107269, 0.14762015640735626, 0.3495982587337494, 0.7862849831581116, 0.8196483850479126, 0.8142897486686707, 0.6366263031959534, 0.4972720146179199, 0.5055877566337585, 0.28684088587760925, 0.11778014898300171, 0.03583788126707077, 0.05328092351555824, 0.16769415140151978, 0.37321653962135315, 0.35382339358329773, 0.22386550903320312, 0.28401878476142883, 0.359910786151886, 0.23497681319713593, 0.11056389659643173, 0.18679921329021454, 0.08139412850141525, 0.13303741812705994, 0.6426012516021729, 0.5748167634010315, 0.6846228241920471, 0.5926494598388672, 0.669370174407959, 0.6285786032676697, 0.6672119498252869, 0.6740540266036987, 0.5532889366149902, 0.5298497080802917, 0.45962685346603394, 0.43023231625556946, 0.8350207209587097, 0.7996758818626404, 0.8317468762397766, 0.36792075634002686, 0.4283682107925415, 0.35028624534606934, 0.6599474549293518, 0.8190958499908447, 0.7921023368835449, 0.3919633626937866, 0.49650928378105164, 0.2849152684211731, 0.6445754766464233, 0.5982847213745117, 0.6451355218887329, 0.5671365261077881, 0.670676589012146, 0.7244054675102234, 0.8361266851425171, 0.18610987067222595, 0.7952444553375244, 0.7773995995521545, 0.8186023831367493, 0.6400259733200073, 0.6426709890365601, 0.42510226368904114, 0.7486715316772461, 0.5292782783508301, 0.39776045083999634, 0.4752042889595032, 0.7175630331039429, 0.8149774074554443, 0.9977129697799683, 0.9982763528823853, 0.9946051239967346, 0.6728399991989136, 0.9526998400688171, 0.6784246563911438, 0.931672215461731, 0.9609501957893372, 0.7973394989967346, 0.7687258124351501, 0.4983701705932617, 0.3183320462703705, 0.26130396127700806, 0.31571269035339355, 0.3353295922279358, 0.24594640731811523, 0.33522793650627136, 0.6127802133560181, 0.7843250036239624, 0.3714495897293091, 0.4983813166618347, 0.35149726271629333, 0.6731672286987305, 0.39910459518432617, 0.4237458109855652, 0.35299769043922424, 0.4166600704193115, 0.16695739328861237, 0.2732371985912323, 0.583889365196228, 0.7160046696662903, 0.6786832809448242, 0.5531793236732483, 0.35500994324684143, 0.36769431829452515, 0.28863707184791565, 0.1659032702445984, 0.2175864577293396, 0.3121434450149536, 0.2476152926683426, 0.45638078451156616, 0.6633749008178711, 0.554384171962738, 0.6494913697242737, 0.9652149677276611, 0.9640414714813232]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.9834945797920227</v>
+        <v>0.9982763528823853</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -8823,10 +8823,10 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.772597000002861</v>
+        <v>0.7617208000010578</v>
       </c>
       <c r="J207" t="n">
-        <v>0.005558251798581734</v>
+        <v>0.005480005755403293</v>
       </c>
     </row>
     <row r="208">
@@ -8845,11 +8845,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[0.07838460803031921, 0.06974435597658157, 0.09196283668279648, 0.14845013618469238, 0.10226458311080933, 0.18441686034202576, 0.08784078061580658, 0.21627579629421234, 0.15310892462730408, 0.23069550096988678, 0.13353775441646576, 0.17821520566940308, 0.1482393890619278, 0.20690391957759857, 0.10846997052431107, 0.12964169681072235, 0.0717642530798912, 0.13071860373020172, 0.181187704205513, 0.09760408103466034, 0.11484122276306152, 0.09547196328639984, 0.0961502343416214, 0.13991864025592804, 0.07406822592020035, 0.05208413675427437, 0.08230192214250565, 0.09836339950561523, 0.04466193541884422, 0.0697547048330307, 0.09340862184762955, 0.05799807608127594, 0.09971292316913605, 0.1856956034898758, 0.31424540281295776, 0.5864289999008179, 0.5571690797805786, 0.3826371133327484, 0.16520185768604279, 0.7409554123878479, 0.40100282430648804, 0.2517533302307129, 0.09941038489341736, 0.038003671914339066, 0.019520631060004234, 0.04393751919269562, 0.046186260879039764, 0.05073070898652077, 0.14357925951480865, 0.10253085941076279, 0.23721042275428772, 0.19120986759662628, 0.1848333477973938, 0.08844651281833649, 0.02920609712600708, 0.03148017078638077, 0.026840154081583023, 0.07312667369842529, 0.06580445915460587, 0.06535627692937851, 0.045600563287734985, 0.08443918079137802, 0.06829032301902771, 0.09606378525495529, 0.09650444984436035, 0.07515657693147659, 0.0560934878885746, 0.04932654649019241, 0.0717468112707138, 0.05669206380844116, 0.03805108368396759, 0.0489199161529541, 0.05783167853951454, 0.08121483772993088, 0.05068562179803848, 0.10460039228200912, 0.08784418553113937, 0.17888587713241577, 0.10199157148599625, 0.05159054324030876, 0.047954995185136795, 0.05469880253076553, 0.06107489764690399, 0.03785242140293121, 0.02638755366206169, 0.053727973252534866, 0.062146492302417755, 0.059122078120708466, 0.08475225418806076, 0.03886907175183296, 0.07633798569440842, 0.10219346731901169, 0.0707213506102562, 0.11588829010725021, 0.14038176834583282, 0.13189697265625, 0.04406227543950081, 0.055281803011894226, 0.04797164350748062, 0.0646231546998024, 0.04589378461241722, 0.09022925794124603, 0.24772879481315613, 0.2237493246793747, 0.07873602956533432, 0.07409552484750748, 0.08698292076587677, 0.05787799134850502, 0.03570188209414482, 0.02813980169594288, 0.019837956875562668, 0.025935586541891098, 0.028014477342367172, 0.03551387041807175, 0.21049651503562927, 0.1273338347673416, 0.047112904489040375, 0.06603723019361496, 0.290769100189209, 0.0960509404540062, 0.05041861534118652, 0.08309890329837799, 0.02732039988040924, 0.06283804029226303, 0.03726344183087349, 0.040087323635816574, 0.03066529519855976, 0.03357921168208122, 0.02638782002031803, 0.03529743105173111, 0.02422771416604519, 0.021971210837364197, 0.017209509387612343, 0.016263112425804138, 0.016818461939692497, 0.034881141036748886, 0.04342366009950638, 0.05853601545095444, 0.07547008991241455, 0.07530641555786133]</t>
+          <t>[0.0398995503783226, 0.044110801070928574, 0.07947507500648499, 0.13128197193145752, 0.10079041123390198, 0.15425559878349304, 0.06792494654655457, 0.15225349366664886, 0.08798038214445114, 0.23344820737838745, 0.08009641617536545, 0.11224156618118286, 0.09617315232753754, 0.15677329897880554, 0.05442807078361511, 0.06918476521968842, 0.03576499596238136, 0.058289553970098495, 0.0753924548625946, 0.06250927597284317, 0.10028183460235596, 0.1727750599384308, 0.09132048487663269, 0.25507232546806335, 0.08754333853721619, 0.07152943313121796, 0.07617402821779251, 0.13045239448547363, 0.027733856812119484, 0.05320041999220848, 0.0678761750459671, 0.04417523741722107, 0.13567231595516205, 0.16832444071769714, 0.3602997958660126, 0.8390998840332031, 0.8280264139175415, 0.7334136366844177, 0.31900593638420105, 0.9208567142486572, 0.6781932711601257, 0.5119447112083435, 0.1309759020805359, 0.05548160523176193, 0.020913975313305855, 0.059513770043849945, 0.07654345035552979, 0.08253249526023865, 0.22411879897117615, 0.3076707422733307, 0.6565308570861816, 0.638742983341217, 0.545102596282959, 0.22241026163101196, 0.030729996040463448, 0.028182558715343475, 0.023380275815725327, 0.05758106708526611, 0.08519341051578522, 0.0863729938864708, 0.07727284729480743, 0.16954374313354492, 0.1384269744157791, 0.1976224035024643, 0.18314076960086823, 0.11061417311429977, 0.05061541125178337, 0.056500427424907684, 0.06902588158845901, 0.0695442482829094, 0.05554008483886719, 0.07970026880502701, 0.09964454919099808, 0.12576188147068024, 0.060044314712285995, 0.06560900062322617, 0.06406907737255096, 0.19908499717712402, 0.07727694511413574, 0.03357789292931557, 0.04081268981099129, 0.04722854495048523, 0.062261857092380524, 0.029848428443074226, 0.017065126448869705, 0.04185730218887329, 0.07881136238574982, 0.050990279763936996, 0.06760109961032867, 0.039549220353364944, 0.0582740493118763, 0.09443306177854538, 0.07959473133087158, 0.1421494334936142, 0.20187920331954956, 0.13770228624343872, 0.03532959148287773, 0.055772408843040466, 0.03550981357693672, 0.0606527179479599, 0.033106498420238495, 0.07115840166807175, 0.24344953894615173, 0.22222886979579926, 0.058971911668777466, 0.07531477510929108, 0.08009550720453262, 0.05833107605576515, 0.03315677121281624, 0.023099005222320557, 0.01622220315039158, 0.023515712469816208, 0.0219124723225832, 0.02643885277211666, 0.41131791472435, 0.18644888699054718, 0.06678152829408646, 0.07443157583475113, 0.31986692547798157, 0.08160655200481415, 0.025293773040175438, 0.060577377676963806, 0.019212516024708748, 0.04323510825634003, 0.02645617164671421, 0.030665233731269836, 0.02391907386481762, 0.02664371207356453, 0.019394757226109505, 0.025506174191832542, 0.015630079433321953, 0.011685166507959366, 0.00925455428659916, 0.010257776826620102, 0.011317509226500988, 0.031656309962272644, 0.052054695785045624, 0.06569455564022064, 0.10620768368244171, 0.10634852945804596]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.7409554123878479</v>
+        <v>0.9208567142486572</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -8863,10 +8863,10 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.7874059999885503</v>
+        <v>0.7757429999910528</v>
       </c>
       <c r="J208" t="n">
-        <v>0.005624328571346788</v>
+        <v>0.00554102142850752</v>
       </c>
     </row>
     <row r="209">
@@ -8885,11 +8885,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.20809534192085266, 0.292062908411026, 0.11562760174274445, 0.25854194164276123, 0.12046799063682556, 0.19540619850158691, 0.08970619738101959, 0.06760501861572266, 0.04172530025243759, 0.0411488339304924, 0.03831095993518829, 0.0730091854929924, 0.04158039018511772, 0.04344133660197258, 0.6435014009475708, 0.7683821320533752, 0.6055656671524048, 0.6963743567466736, 0.9076136946678162, 0.9614713788032532, 0.9410920143127441, 0.9455563426017761, 0.9672430753707886, 0.973311185836792, 0.9755354523658752, 0.8673980832099915, 0.6988991498947144, 0.6999622583389282, 0.6519795656204224, 0.49275556206703186, 0.822304904460907, 0.8896809816360474, 0.9329690337181091, 0.879791796207428, 0.8515546917915344, 0.6507443189620972, 0.5222119688987732, 0.4173803925514221, 0.5505399107933044, 0.5634850859642029, 0.32984817028045654, 0.6903951168060303, 0.7364139556884766, 0.7141150236129761, 0.8500633835792542, 0.8648090362548828, 0.9192588925361633, 0.9497041702270508, 0.965000331401825, 0.980667233467102, 0.9873821139335632, 0.9756836295127869, 0.9415221214294434, 0.5905001759529114, 0.09305811673402786, 0.10843603312969208, 0.16318252682685852, 0.19917668402194977, 0.2839638888835907, 0.8578485250473022, 0.8807156682014465, 0.9069411754608154, 0.41182589530944824, 0.1769961714744568, 0.08414091169834137, 0.12900294363498688, 0.06906609982252121, 0.028483450412750244, 0.026162762194871902, 0.01836690679192543, 0.022425439208745956, 0.0194716639816761, 0.07154259830713272, 0.1781531274318695, 0.08511140942573547, 0.06574641168117523, 0.16907931864261627, 0.041002627462148666, 0.05396270006895065, 0.1984746903181076, 0.5303850173950195, 0.8803758025169373, 0.7645394802093506, 0.9349680542945862, 0.9601587057113647, 0.6236107349395752, 0.20987451076507568, 0.23259738087654114, 0.4847256541252136, 0.4288255572319031, 0.42213669419288635, 0.21586057543754578, 0.10623385012149811, 0.12235257774591446, 0.04794564098119736, 0.051876991987228394, 0.14064067602157593, 0.08828423917293549, 0.11557339876890182, 0.3476070165634155, 0.36969003081321716, 0.562736988067627, 0.5993885397911072, 0.5167675614356995, 0.8187583088874817, 0.8520325422286987, 0.6288816332817078, 0.789736270904541, 0.24495390057563782, 0.7001339197158813, 0.23430629074573517, 0.24768440425395966, 0.37931933999061584, 0.25097915530204773, 0.2541724443435669, 0.32336723804473877, 0.24220331013202667, 0.32201874256134033, 0.41111382842063904, 0.2845422029495239, 0.10071352869272232, 0.053350143134593964, 0.06555967777967453, 0.052887801080942154, 0.05596214905381203, 0.12968675792217255, 0.17335012555122375, 0.38953426480293274, 0.09030527621507645, 0.1349068582057953, 0.07565972208976746, 0.17428147792816162, 0.10609930008649826, 0.2111760824918747, 0.07424356043338776, 0.11491092294454575, 0.20094038546085358, 0.23916657269001007, 0.22901389002799988]</t>
+          <t>[0.33969229459762573, 0.4936631917953491, 0.09853025525808334, 0.20310738682746887, 0.04883280396461487, 0.11445880681276321, 0.06043398380279541, 0.02597976103425026, 0.023677650839090347, 0.0252503864467144, 0.023231644183397293, 0.037067946046590805, 0.0198872871696949, 0.01676189713180065, 0.610969603061676, 0.7987197041511536, 0.6048364043235779, 0.7797717452049255, 0.9201616644859314, 0.9800185561180115, 0.9826961755752563, 0.9776570200920105, 0.9911742210388184, 0.9880515336990356, 0.9823622107505798, 0.8649670481681824, 0.5963782072067261, 0.6186549663543701, 0.6324338912963867, 0.400932639837265, 0.8059260845184326, 0.8953268527984619, 0.9592026472091675, 0.9662560820579529, 0.9663819670677185, 0.8831755518913269, 0.6261131763458252, 0.4736758768558502, 0.8442783951759338, 0.805203914642334, 0.5490187406539917, 0.8426215648651123, 0.8479056358337402, 0.8760455250740051, 0.9433178901672363, 0.8939602375030518, 0.9803972244262695, 0.9868294596672058, 0.9878387451171875, 0.9954732060432434, 0.9969539642333984, 0.9938998222351074, 0.947882890701294, 0.5239306092262268, 0.061760641634464264, 0.04247017577290535, 0.058224767446517944, 0.0697026178240776, 0.20552019774913788, 0.9585230946540833, 0.9248849153518677, 0.9863358736038208, 0.47968876361846924, 0.07588750869035721, 0.01757838949561119, 0.06113099306821823, 0.06788874417543411, 0.014654508791863918, 0.012683388777077198, 0.0049224174581468105, 0.006847272161394358, 0.021129224449396133, 0.12281639873981476, 0.24449332058429718, 0.15323621034622192, 0.07793865352869034, 0.20705489814281464, 0.06856748461723328, 0.05435105413198471, 0.5377343893051147, 0.9448428750038147, 0.9947677850723267, 0.9911425113677979, 0.9937551021575928, 0.9949289560317993, 0.9184622764587402, 0.1559673249721527, 0.1627669483423233, 0.22194789350032806, 0.12649883329868317, 0.21595355868339539, 0.07328393310308456, 0.04753987863659859, 0.06899063289165497, 0.020040037110447884, 0.038490377366542816, 0.18308666348457336, 0.08905864506959915, 0.22382907569408417, 0.6529508233070374, 0.7104511260986328, 0.8898128271102905, 0.8587723970413208, 0.7432697415351868, 0.9569190740585327, 0.9735605120658875, 0.7697329521179199, 0.8409521579742432, 0.19883160293102264, 0.8268318772315979, 0.32512903213500977, 0.23943905532360077, 0.38546422123908997, 0.4979141652584076, 0.46057912707328796, 0.5993056297302246, 0.45214444398880005, 0.7434846758842468, 0.7079294323921204, 0.3442382514476776, 0.11556622385978699, 0.04780495911836624, 0.06659215688705444, 0.04865841940045357, 0.04423772543668747, 0.13559602200984955, 0.16723477840423584, 0.4999781548976898, 0.052167825400829315, 0.11151715368032455, 0.04537339136004448, 0.18985110521316528, 0.11293931305408478, 0.5769601464271545, 0.07850070297718048, 0.13368342816829681, 0.2700677216053009, 0.11542241275310516, 0.1113215908408165]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.9873821139335632</v>
+        <v>0.9969539642333984</v>
       </c>
       <c r="F209" t="n">
         <v>1</v>
@@ -8903,10 +8903,10 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.7881336999998894</v>
+        <v>0.7746711999934632</v>
       </c>
       <c r="J209" t="n">
-        <v>0.00567002661870424</v>
+        <v>0.005573174100672398</v>
       </c>
     </row>
     <row r="210">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[0.18740877509117126, 0.7126992344856262, 0.7173638343811035, 0.6982808709144592, 0.8651139736175537, 0.7641597390174866, 0.47211575508117676, 0.6927945017814636, 0.2527971863746643, 0.18615978956222534, 0.4065796732902527, 0.3687382638454437, 0.4608648717403412, 0.45390766859054565, 0.1824813187122345, 0.20191697776317596, 0.07219443470239639, 0.11842168122529984, 0.08120470494031906, 0.14650706946849823, 0.231217160820961, 0.16227169334888458, 0.3557031750679016, 0.24896202981472015, 0.2192540317773819, 0.3577885329723358, 0.3728383183479309, 0.5763900876045227, 0.7946515679359436, 0.9076438546180725, 0.8678827881813049, 0.768436849117279, 0.6180496215820312, 0.49354442954063416, 0.3274478018283844, 0.2962982952594757, 0.2010655254125595, 0.08062874525785446, 0.03424716740846634, 0.06843563169240952, 0.06019081920385361, 0.16970664262771606, 0.07944724708795547, 0.14103463292121887, 0.15760964155197144, 0.18515782058238983, 0.06034975126385689, 0.12569047510623932, 0.08396539837121964, 0.13823385536670685, 0.077886201441288, 0.20512960851192474, 0.18909212946891785, 0.1815088987350464, 0.07783330976963043, 0.049999795854091644, 0.16191548109054565, 0.7656317949295044, 0.960046648979187, 0.9607516527175903, 0.27689412236213684, 0.22654607892036438, 0.21571072936058044, 0.4930693805217743, 0.33618906140327454, 0.6360079646110535, 0.77435702085495, 0.6968454122543335, 0.684542715549469, 0.7593296766281128, 0.5891199707984924, 0.5927655696868896, 0.5608999133110046, 0.24880586564540863, 0.3459639847278595, 0.3811608552932739, 0.7705195546150208, 0.4444311559200287, 0.4920424818992615, 0.7527894377708435, 0.9406540393829346, 0.9113412499427795, 0.45943403244018555, 0.4284455478191376, 0.2429109513759613, 0.11934313923120499, 0.13309447467327118, 0.0662665143609047, 0.06552525609731674, 0.060692381113767624, 0.03361973538994789, 0.03252441808581352, 0.03109288029372692, 0.0489283949136734, 0.02409876137971878, 0.030207935720682144, 0.032425351440906525, 0.058206334710121155, 0.0948178842663765, 0.3603523075580597, 0.23010919988155365, 0.2649401128292084, 0.41534513235092163, 0.21061861515045166, 0.24993430078029633, 0.45225444436073303, 0.22977955639362335, 0.42523249983787537, 0.32205072045326233, 0.621117889881134, 0.634811520576477, 0.6216479539871216, 0.47269174456596375, 0.9546360969543457, 0.8918516635894775, 0.818514347076416, 0.6193242073059082, 0.7359904050827026, 0.7958264946937561, 0.33536744117736816, 0.5258313417434692, 0.3117682635784149, 0.3469737768173218, 0.3447958827018738, 0.32188189029693604, 0.3183150589466095, 0.3151121437549591, 0.3221086263656616, 0.3188648521900177, 0.3177492022514343, 0.3029678761959076, 0.3339483141899109, 0.32236745953559875, 0.3305351436138153, 0.32476189732551575, 0.3218913674354553, 0.32793256640434265, 0.311053067445755, 0.31119516491889954]</t>
+          <t>[0.19538825750350952, 0.8015417456626892, 0.8803272843360901, 0.7811189889907837, 0.921992301940918, 0.8027483820915222, 0.49415841698646545, 0.5822046399116516, 0.12659358978271484, 0.10734999179840088, 0.10862920433282852, 0.12579885125160217, 0.10195396840572357, 0.33028826117515564, 0.13337139785289764, 0.09569890797138214, 0.029365230351686478, 0.07110326737165451, 0.04617047309875488, 0.08124971389770508, 0.13408002257347107, 0.15545661747455597, 0.37923890352249146, 0.3970438539981842, 0.4724981486797333, 0.8036015033721924, 0.858518660068512, 0.9256401062011719, 0.9782739281654358, 0.9941918253898621, 0.9928118586540222, 0.9422698020935059, 0.8204221129417419, 0.7398360371589661, 0.5305030345916748, 0.40883177518844604, 0.311747670173645, 0.11350688338279724, 0.03494947403669357, 0.043835923075675964, 0.04197349771857262, 0.14457112550735474, 0.07820773124694824, 0.3225867748260498, 0.4446997046470642, 0.4880238175392151, 0.05646093189716339, 0.06103179231286049, 0.031695179641246796, 0.04169746860861778, 0.02091909945011139, 0.0820189118385315, 0.08114288747310638, 0.18026550114154816, 0.10357782989740372, 0.09120877087116241, 0.4461451470851898, 0.9573488831520081, 0.9942492246627808, 0.9978662133216858, 0.6237195134162903, 0.6519047021865845, 0.4830523133277893, 0.8111159205436707, 0.6584017276763916, 0.9141228199005127, 0.9601683616638184, 0.9301022291183472, 0.9384719133377075, 0.9700430035591125, 0.9156895279884338, 0.8417698740959167, 0.8935493230819702, 0.5148451328277588, 0.4280509054660797, 0.5468763113021851, 0.9540675282478333, 0.754898726940155, 0.468094140291214, 0.8558435440063477, 0.9913079142570496, 0.9807739853858948, 0.5295097231864929, 0.5399884581565857, 0.28852972388267517, 0.16380898654460907, 0.19491396844387054, 0.090626060962677, 0.05734335258603096, 0.03614311292767525, 0.02055582031607628, 0.015484961681067944, 0.014531024731695652, 0.036553554236888885, 0.016984935849905014, 0.016158003360033035, 0.029393751174211502, 0.08339616656303406, 0.09691160917282104, 0.42988690733909607, 0.5191689729690552, 0.7285798788070679, 0.8506314158439636, 0.41222548484802246, 0.35539597272872925, 0.7934814095497131, 0.5644425749778748, 0.8012248873710632, 0.537474513053894, 0.8457717895507812, 0.8760033249855042, 0.8483979105949402, 0.8122597932815552, 0.9915464520454407, 0.9797348976135254, 0.9543680548667908, 0.8017348647117615, 0.7480128407478333, 0.8924073576927185, 0.12996907532215118, 0.30409035086631775, 0.122740738093853, 0.16392971575260162, 0.15905973315238953, 0.14370447397232056, 0.14276833832263947, 0.13859574496746063, 0.14648734033107758, 0.1403106451034546, 0.1418246179819107, 0.12825946509838104, 0.14025455713272095, 0.13060349225997925, 0.1497851461172104, 0.14719989895820618, 0.14661574363708496, 0.16649219393730164, 0.14868268370628357, 0.14871369302272797]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.9607516527175903</v>
+        <v>0.9978662133216858</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0.7808805999811739</v>
+        <v>0.7655988000042271</v>
       </c>
       <c r="J210" t="n">
-        <v>0.005617846043030028</v>
+        <v>0.005507905036001634</v>
       </c>
     </row>
     <row r="211">
@@ -8965,11 +8965,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[0.5569115877151489, 0.48342862725257874, 0.47278693318367004, 0.5245161056518555, 0.5519037842750549, 0.6897119283676147, 0.7459242939949036, 0.7856370806694031, 0.8140351176261902, 0.7498910427093506, 0.8035027384757996, 0.8035412430763245, 0.8364948630332947, 0.8877859711647034, 0.8385043740272522, 0.8177458643913269, 0.75661700963974, 0.6701551675796509, 0.5217913389205933, 0.5069892406463623, 0.39363884925842285, 0.3358767330646515, 0.46032869815826416, 0.6515380144119263, 0.6300944089889526, 0.7316871881484985, 0.6943400502204895, 0.6625738739967346, 0.5648675560951233, 0.36949092149734497, 0.38216108083724976, 0.4056513011455536, 0.48052382469177246, 0.5636845231056213, 0.5839824676513672, 0.5775572061538696, 0.5938377380371094, 0.5149810910224915, 0.5598723888397217, 0.5724485516548157, 0.6645492911338806, 0.6559893488883972, 0.6550718545913696, 0.5630776286125183, 0.44273659586906433, 0.469256728887558, 0.528569757938385, 0.5079137086868286, 0.6270829439163208, 0.6498444676399231, 0.6463548541069031, 0.5785102844238281, 0.35925954580307007, 0.3259400427341461, 0.30422142148017883, 0.4521527588367462, 0.668135941028595, 0.7027379870414734, 0.5218935608863831, 0.4695375859737396, 0.28997209668159485, 0.35548773407936096, 0.48827123641967773, 0.4639275372028351, 0.4649142622947693, 0.45967504382133484, 0.3235543668270111, 0.4510733187198639, 0.4215657711029053, 0.4024129807949066, 0.525954008102417, 0.6246280670166016, 0.7637314796447754, 0.5739197731018066, 0.6946753859519958, 0.5152827501296997, 0.3756990134716034, 0.39036956429481506, 0.367156058549881, 0.4105572998523712, 0.41703468561172485, 0.5024473667144775, 0.5121893882751465, 0.5550313591957092, 0.5334733724594116, 0.4305107891559601, 0.3351125121116638, 0.3787829875946045, 0.5053988099098206, 0.5811046361923218, 0.4963584542274475, 0.5473265647888184, 0.30897748470306396, 0.4135710299015045, 0.4113534688949585, 0.42114415764808655, 0.4197338819503784, 0.4282098114490509, 0.4260880649089813, 0.4147947132587433, 0.4319869577884674, 0.4809854030609131, 0.41707277297973633, 0.39810556173324585, 0.5229241251945496, 0.5431669354438782, 0.5127442479133606, 0.5235409736633301, 0.582584798336029, 0.47228971123695374, 0.529154896736145, 0.5440489053726196, 0.5604971647262573, 0.6549373269081116, 0.6869621872901917, 0.7284612059593201, 0.6664122343063354, 0.6642166972160339, 0.579818606376648, 0.6533441543579102, 0.7448521256446838, 0.709126353263855, 0.624101459980011, 0.5652418732643127, 0.4874384105205536, 0.3643229007720947, 0.3647780120372772, 0.3010379374027252, 0.3783136010169983, 0.3253585994243622, 0.3654464781284332, 0.4572758972644806, 0.5743867754936218, 0.5472295880317688, 0.5901145339012146, 0.4831101894378662, 0.38848501443862915, 0.30529049038887024, 0.3085271716117859, 0.35899817943573, 0.34111127257347107, 0.39509281516075134, 0.3944116532802582, 0.44052109122276306, 0.5698519945144653, 0.5277742743492126, 0.5232881903648376, 0.6388286352157593, 0.637639582157135, 0.523692786693573, 0.461595743894577, 0.4374580979347229]</t>
+          <t>[0.4886897802352905, 0.487752228975296, 0.4959569275379181, 0.579777717590332, 0.5585505366325378, 0.7325947880744934, 0.6998655796051025, 0.7752266526222229, 0.8196037411689758, 0.8070316910743713, 0.8886005878448486, 0.8854144811630249, 0.9098682999610901, 0.9478651881217957, 0.8769099116325378, 0.882236659526825, 0.8154590725898743, 0.6644013524055481, 0.4152306616306305, 0.4779086112976074, 0.3636116683483124, 0.3819062113761902, 0.4833107590675354, 0.7968015670776367, 0.7657374739646912, 0.9073850512504578, 0.8258026242256165, 0.842694878578186, 0.6433170437812805, 0.33545878529548645, 0.3399587869644165, 0.4128202497959137, 0.48638081550598145, 0.539249837398529, 0.4357471466064453, 0.4304623305797577, 0.4619907736778259, 0.3592758774757385, 0.4737183451652527, 0.5370586514472961, 0.7121105790138245, 0.7575516700744629, 0.7329385280609131, 0.55511873960495, 0.3510214388370514, 0.4281778931617737, 0.3812085688114166, 0.3447985351085663, 0.530845582485199, 0.6298168897628784, 0.5819092988967896, 0.4298001825809479, 0.2647971510887146, 0.26083165407180786, 0.2773613929748535, 0.5229921340942383, 0.7651609778404236, 0.8159017562866211, 0.6427196264266968, 0.5838093161582947, 0.2987201511859894, 0.5297595262527466, 0.7534638047218323, 0.5742571949958801, 0.5100004076957703, 0.5315279364585876, 0.3139827847480774, 0.564070463180542, 0.4639105498790741, 0.41206860542297363, 0.5319128632545471, 0.6410552263259888, 0.8039639592170715, 0.6633514761924744, 0.713037371635437, 0.5700415372848511, 0.41197267174720764, 0.3469691872596741, 0.25431448221206665, 0.33703306317329407, 0.3287131190299988, 0.5066590309143066, 0.5259249210357666, 0.5705610513687134, 0.4978463351726532, 0.40875715017318726, 0.2545294165611267, 0.3057330548763275, 0.35289904475212097, 0.44324538111686707, 0.36573663353919983, 0.5876851677894592, 0.2676648795604706, 0.3627220094203949, 0.3453613817691803, 0.3812459707260132, 0.3378446698188782, 0.31098899245262146, 0.34276053309440613, 0.3292624354362488, 0.2723671793937683, 0.32436347007751465, 0.24856805801391602, 0.2211313545703888, 0.2912483215332031, 0.32010453939437866, 0.29228514432907104, 0.3491901457309723, 0.5076563358306885, 0.4448302984237671, 0.4941961169242859, 0.4869399666786194, 0.49970027804374695, 0.5939854383468628, 0.5758866667747498, 0.6436313390731812, 0.5658968091011047, 0.6746609807014465, 0.5369985103607178, 0.625821590423584, 0.764945924282074, 0.7108553647994995, 0.5690187215805054, 0.445394366979599, 0.32120370864868164, 0.20523323118686676, 0.188676655292511, 0.18301880359649658, 0.3189339339733124, 0.2930861711502075, 0.30070430040359497, 0.37100619077682495, 0.5757333040237427, 0.4161677062511444, 0.41592469811439514, 0.3228348195552826, 0.21591545641422272, 0.1572815179824829, 0.1596195101737976, 0.25744864344596863, 0.23794570565223694, 0.2820108234882355, 0.2514705955982208, 0.2486265003681183, 0.3948359489440918, 0.33084869384765625, 0.27370283007621765, 0.35562682151794434, 0.34048864245414734, 0.2214309424161911, 0.17656266689300537, 0.18768587708473206]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.8877859711647034</v>
+        <v>0.9478651881217957</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.9768570000014734</v>
+        <v>1.028939800002263</v>
       </c>
       <c r="J211" t="n">
-        <v>0.006426690789483378</v>
+        <v>0.006769340789488572</v>
       </c>
     </row>
     <row r="212">
@@ -9005,11 +9005,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[0.1260826587677002, 0.12931808829307556, 0.13255776464939117, 0.11746874451637268, 0.1032165139913559, 0.10328268259763718, 0.13183726370334625, 0.15425176918506622, 0.17152802646160126, 0.20855601131916046, 0.18373960256576538, 0.16384755074977875, 0.1540193259716034, 0.16095107793807983, 0.13152199983596802, 0.11737821996212006, 0.10338222980499268, 0.10419407486915588, 0.140254944562912, 0.12891952693462372, 0.12999968230724335, 0.09758813679218292, 0.08205514401197433, 0.0718444213271141, 0.06710708886384964, 0.06886815279722214, 0.06245671957731247, 0.11475253850221634, 0.15775275230407715, 0.16724556684494019, 0.18835420906543732, 0.32914942502975464, 0.2296425700187683, 0.31028133630752563, 0.2410745918750763, 0.34411361813545227, 0.2951962649822235, 0.1798977553844452, 0.12290842086076736, 0.13710282742977142, 0.22148655354976654, 0.20240147411823273, 0.09204529225826263, 0.09842661023139954, 0.05808822065591812, 0.06656387448310852, 0.06715521961450577, 0.06276752054691315, 0.056241266429424286, 0.07774240523576736, 0.10300435870885849, 0.0858306884765625, 0.06991885602474213, 0.095584936439991, 0.12172172218561172, 0.16645096242427826, 0.1442328542470932, 0.17236222326755524, 0.1483236700296402, 0.14443343877792358, 0.11190759390592575, 0.12173029780387878, 0.10023891925811768, 0.1255732923746109, 0.09383086860179901, 0.0880526751279831, 0.08688179403543472, 0.14936859905719757, 0.1175885945558548, 0.18915829062461853, 0.20746538043022156, 0.15527567267417908, 0.1500943899154663, 0.15164317190647125, 0.159652978181839, 0.14304786920547485, 0.20713602006435394, 0.34851130843162537, 0.874850332736969, 0.2914741337299347, 0.11300180852413177, 0.14936308562755585, 0.11578061431646347, 0.10613325238227844, 0.09924089908599854, 0.1221463605761528, 0.1015559583902359, 0.04105372354388237, 0.05633615329861641, 0.05519291013479233, 0.07476848363876343, 0.06965384632349014, 0.13387414813041687, 0.09331030398607254, 0.087891586124897, 0.24572977423667908, 0.09517700970172882, 0.07817062735557556, 0.06766287237405777, 0.04183303192257881, 0.04153774306178093, 0.026859348639845848, 0.016511892899870872, 0.026594726368784904, 0.023528432473540306, 0.028566990047693253, 0.01982896216213703, 0.017362823709845543, 0.050724808126688004, 0.12678876519203186, 0.11226864904165268, 0.06468632817268372, 0.07187015563249588, 0.13797318935394287, 0.326803058385849, 0.42146211862564087, 0.6065947413444519, 0.5914069414138794, 0.5421234369277954, 0.46713265776634216, 0.9016432166099548, 0.8239480257034302, 0.6801121234893799, 0.9529263973236084, 0.7957038879394531, 0.31218937039375305, 0.3167819380760193, 0.28100132942199707, 0.2408895045518875, 0.6703971028327942, 0.42348068952560425, 0.5094671249389648, 0.46939289569854736, 0.729430079460144, 0.7848240733146667, 0.6288048028945923, 0.49662071466445923, 0.23187880218029022, 0.17974574863910675, 0.27526116371154785, 0.2571336627006531, 0.23059000074863434, 0.16590747237205505, 0.1569187045097351, 0.12389387935400009, 0.18215477466583252, 0.30314967036247253, 0.4314233064651489, 0.3864048719406128, 0.20048557221889496, 0.22502608597278595, 0.24779455363750458]</t>
+          <t>[0.04714494198560715, 0.05275220423936844, 0.06013614311814308, 0.056407541036605835, 0.056436117738485336, 0.05674038454890251, 0.0705423355102539, 0.07792142778635025, 0.07000734657049179, 0.10167864710092545, 0.08480265736579895, 0.058126650750637054, 0.054483119398355484, 0.05237557366490364, 0.043991509824991226, 0.04174810275435448, 0.041227199137210846, 0.04583427309989929, 0.07984377443790436, 0.06434798240661621, 0.06011321395635605, 0.04779265448451042, 0.037962861359119415, 0.030043162405490875, 0.027572009712457657, 0.03145353123545647, 0.02897605486214161, 0.08139706403017044, 0.1231059655547142, 0.12259035557508469, 0.13177184760570526, 0.28914010524749756, 0.20220814645290375, 0.24050304293632507, 0.1650402545928955, 0.19681347906589508, 0.16001273691654205, 0.08851693570613861, 0.08295971900224686, 0.09427419304847717, 0.12835155427455902, 0.12526342272758484, 0.054703906178474426, 0.051413536071777344, 0.03693867474794388, 0.04222285374999046, 0.02785002440214157, 0.02748153544962406, 0.02388942986726761, 0.032255034893751144, 0.037587136030197144, 0.03615333139896393, 0.028016971424221992, 0.03933757171034813, 0.057284820824861526, 0.06813287734985352, 0.049735959619283676, 0.0601755790412426, 0.06422830373048782, 0.06473099440336227, 0.040100596845149994, 0.054051391780376434, 0.041999492794275284, 0.04892908036708832, 0.043276991695165634, 0.042683541774749756, 0.03712854161858559, 0.08357129245996475, 0.057709984481334686, 0.08854379504919052, 0.07344955950975418, 0.04330287501215935, 0.05246264487504959, 0.06542723625898361, 0.10212770104408264, 0.12656216323375702, 0.16923034191131592, 0.32752299308776855, 0.9291344881057739, 0.28926950693130493, 0.07707839459180832, 0.11805908381938934, 0.027288487181067467, 0.07971811294555664, 0.11899340897798538, 0.13613063097000122, 0.07439204305410385, 0.0248572938144207, 0.027868909761309624, 0.025347646325826645, 0.047633323818445206, 0.08101252466440201, 0.14370231330394745, 0.040440384298563004, 0.032926056534051895, 0.24697962403297424, 0.0875757485628128, 0.059922005981206894, 0.04675956442952156, 0.01360220555216074, 0.015397694893181324, 0.012890343554317951, 0.024760792031884193, 0.03147308900952339, 0.029204601421952248, 0.031446103006601334, 0.021983424201607704, 0.011324746534228325, 0.041826456785202026, 0.08224558085203171, 0.07518535107374191, 0.02905883453786373, 0.022026732563972473, 0.03863345459103584, 0.2770535945892334, 0.3008962869644165, 0.6068205237388611, 0.5111212134361267, 0.4300268292427063, 0.5111072659492493, 0.9582274556159973, 0.9122329950332642, 0.8099769949913025, 0.9871912002563477, 0.9444966912269592, 0.43623510003089905, 0.562449038028717, 0.37803998589515686, 0.4397096633911133, 0.7870478630065918, 0.377921462059021, 0.6345736980438232, 0.5907405614852905, 0.9299564361572266, 0.9586888551712036, 0.797875702381134, 0.5477087497711182, 0.30728012323379517, 0.11855274438858032, 0.22196216881275177, 0.2691139578819275, 0.2557796537876129, 0.11889954656362534, 0.12860088050365448, 0.09296520799398422, 0.18642888963222504, 0.26468342542648315, 0.5315860509872437, 0.31046608090400696, 0.1140662357211113, 0.0814327746629715, 0.11855954676866531]</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9529263973236084</v>
+        <v>0.9871912002563477</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -9023,10 +9023,10 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.8628387000062503</v>
+        <v>0.866735499992501</v>
       </c>
       <c r="J212" t="n">
-        <v>0.005676570394777963</v>
+        <v>0.005702207236792769</v>
       </c>
     </row>
     <row r="213">
@@ -9045,11 +9045,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[0.0786346048116684, 0.07722637057304382, 0.07796907424926758, 0.09857721626758575, 0.10474664717912674, 0.10249467939138412, 0.09374427050352097, 0.07394331693649292, 0.0836448222398758, 0.07767932116985321, 0.06909973919391632, 0.05906723439693451, 0.05468371510505676, 0.08568821102380753, 0.0875243991613388, 0.0819428563117981, 0.09039086848497391, 0.09963764250278473, 0.09870123118162155, 0.08484391868114471, 0.06599743664264679, 0.07048044353723526, 0.07848114520311356, 0.10131385922431946, 0.12981833517551422, 0.12353452295064926, 0.1114346832036972, 0.10190572589635849, 0.108165442943573, 0.09017020463943481, 0.06747663021087646, 0.06656355410814285, 0.06776881217956543, 0.07692666351795197, 0.1009170189499855, 0.09544786810874939, 0.08383398503065109, 0.07287588715553284, 0.08647395670413971, 0.07213333249092102, 0.09044966846704483, 0.10662483423948288, 0.09182143211364746, 0.08962112665176392, 0.08462070673704147, 0.09530837088823318, 0.15458998084068298, 0.17525839805603027, 0.15910395979881287, 0.14173758029937744, 0.15852168202400208, 0.13204628229141235, 0.11393123865127563, 0.12147784233093262, 0.10369237512350082, 0.08284453302621841, 0.0648413896560669, 0.07432105392217636, 0.07456201314926147, 0.06839311122894287, 0.09344685077667236, 0.09413351118564606, 0.08598563820123672, 0.08743318170309067, 0.1553441435098648, 0.10195764154195786, 0.08213315904140472, 0.08714266121387482, 0.12688347697257996, 0.13495314121246338, 0.11760744452476501, 0.0959991067647934, 0.1465688943862915, 0.13321919739246368, 0.13466709852218628, 0.2887991964817047, 0.4205157160758972, 0.4369943141937256, 0.1911063939332962, 0.2441219538450241, 0.3362243175506592, 0.43922650814056396, 0.525606632232666, 0.39087092876434326, 0.38438934087753296, 0.2619481384754181, 0.23013423383235931, 0.1903684139251709, 0.18288545310497284, 0.15819990634918213, 0.12741397321224213, 0.09766317903995514, 0.1289738267660141, 0.14746351540088654, 0.12809206545352936, 0.13650964200496674, 0.15093423426151276, 0.17188823223114014, 0.19690252840518951, 0.22135862708091736, 0.26463955640792847, 0.20491594076156616, 0.17266963422298431, 0.20153450965881348, 0.21544142067432404, 0.28565216064453125, 0.2996183931827545, 0.3849320113658905, 0.343858540058136, 0.437871515750885, 0.4640452563762665, 0.28326013684272766, 0.23151341080665588, 0.15484115481376648, 0.13169331848621368, 0.17356693744659424, 0.251945436000824, 0.2836155295372009, 0.30732178688049316, 0.35596421360969543, 0.353853315114975, 0.3413715064525604, 0.3151335120201111, 0.5081309676170349, 0.6294087171554565, 0.6220828294754028, 0.4554978013038635, 0.4635809361934662, 0.42846983671188354, 0.2380838394165039, 0.27045050263404846, 0.24477462470531464, 0.2721933126449585, 0.467688649892807, 0.5753604173660278, 0.525635838508606, 0.4597236216068268, 0.4973859190940857, 0.34996160864830017, 0.35055768489837646, 0.33389365673065186, 0.32034832239151, 0.2872278690338135, 0.3010140359401703, 0.1891263872385025, 0.2480510175228119, 0.24988988041877747, 0.25284212827682495, 0.21696627140045166, 0.2810065746307373, 0.21354477107524872, 0.2532939612865448]</t>
+          <t>[0.04626412317156792, 0.04501432552933693, 0.04719007387757301, 0.0674266591668129, 0.06815163791179657, 0.07640952616930008, 0.08387942612171173, 0.07141900807619095, 0.0649891048669815, 0.06411376595497131, 0.05563986301422119, 0.04675234481692314, 0.03838938847184181, 0.05807961896061897, 0.03821976110339165, 0.03899196535348892, 0.04611387476325035, 0.05226365476846695, 0.05276893079280853, 0.04418473690748215, 0.032863643020391464, 0.03354685381054878, 0.04060244560241699, 0.04780986160039902, 0.06771806627511978, 0.06412409991025925, 0.05168936401605606, 0.05065570026636124, 0.05636872351169586, 0.04302631691098213, 0.04045028239488602, 0.03757232055068016, 0.04068366438150406, 0.05139711871743202, 0.08397507667541504, 0.07634596526622772, 0.06600154936313629, 0.05243397131562233, 0.055811382830142975, 0.047305285930633545, 0.05715860426425934, 0.0625055804848671, 0.05779781937599182, 0.05258932709693909, 0.0455411933362484, 0.050189241766929626, 0.10939386487007141, 0.12987451255321503, 0.12834952771663666, 0.08862132579088211, 0.08669394254684448, 0.06887631863355637, 0.06970521807670593, 0.07738392800092697, 0.07220982015132904, 0.053559042513370514, 0.039596933871507645, 0.047138191759586334, 0.05373203754425049, 0.049556732177734375, 0.05530614033341408, 0.06172431260347366, 0.0557313896715641, 0.06444744765758514, 0.12156499922275543, 0.07422412931919098, 0.06620635092258453, 0.0553576834499836, 0.09011515974998474, 0.10934261977672577, 0.05700410157442093, 0.05858549103140831, 0.0866846963763237, 0.08022529631853104, 0.08400233834981918, 0.25176993012428284, 0.3727846145629883, 0.37823158502578735, 0.1418132781982422, 0.1441873461008072, 0.22371898591518402, 0.3198873698711395, 0.4472329318523407, 0.22748933732509613, 0.3064364492893219, 0.1958179920911789, 0.13941499590873718, 0.12746772170066833, 0.09782901406288147, 0.08598997443914413, 0.07089602947235107, 0.054275792092084885, 0.06289644539356232, 0.07290997356176376, 0.05642601475119591, 0.05972087010741234, 0.0658431276679039, 0.08464954048395157, 0.09806675463914871, 0.12330133467912674, 0.1276317834854126, 0.07869161665439606, 0.06486718356609344, 0.08228141814470291, 0.08986124396324158, 0.1309259682893753, 0.12725673615932465, 0.18601876497268677, 0.14652615785598755, 0.2354249507188797, 0.26173004508018494, 0.0995987057685852, 0.07121976464986801, 0.04932412877678871, 0.048972178250551224, 0.07400377094745636, 0.0982682853937149, 0.21458369493484497, 0.2282906174659729, 0.25686490535736084, 0.1739567667245865, 0.1283881664276123, 0.12237109988927841, 0.2735331952571869, 0.4733571410179138, 0.5730382800102234, 0.383365660905838, 0.36634302139282227, 0.41593068838119507, 0.24494415521621704, 0.2962903678417206, 0.24860769510269165, 0.2523019313812256, 0.5170426368713379, 0.6665762662887573, 0.5835862159729004, 0.4383610785007477, 0.5218957662582397, 0.2637588083744049, 0.2570571005344391, 0.2513706386089325, 0.21735933423042297, 0.1337958127260208, 0.09239313751459122, 0.06021426245570183, 0.10516000539064407, 0.094571053981781, 0.09102803468704224, 0.07485730946063995, 0.10460502654314041, 0.11835481226444244, 0.1319647878408432]</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.6294087171554565</v>
+        <v>0.6665762662887573</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -9063,10 +9063,10 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.8634211999888066</v>
+        <v>0.8648117999982787</v>
       </c>
       <c r="J213" t="n">
-        <v>0.005680402631505307</v>
+        <v>0.005689551315778149</v>
       </c>
     </row>
     <row r="214">
@@ -9085,11 +9085,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[0.6378285884857178, 0.6300449967384338, 0.6978700757026672, 0.7514159679412842, 0.702532947063446, 0.5978078246116638, 0.5626309514045715, 0.6449412703514099, 0.5645581483840942, 0.48245948553085327, 0.3724149763584137, 0.43615514039993286, 0.4911801517009735, 0.5621576905250549, 0.6204321980476379, 0.4979119598865509, 0.37890711426734924, 0.3723818361759186, 0.4244765639305115, 0.3677939474582672, 0.32069000601768494, 0.39906045794487, 0.49522608518600464, 0.5534480810165405, 0.6077132225036621, 0.5429663062095642, 0.43259570002555847, 0.3501778542995453, 0.3603144884109497, 0.32074058055877686, 0.3452364504337311, 0.3430353105068207, 0.37168216705322266, 0.4995058476924896, 0.5837023258209229, 0.5211595296859741, 0.38623046875, 0.3442707061767578, 0.4643379747867584, 0.4500352144241333, 0.4313696324825287, 0.4826771318912506, 0.43426385521888733, 0.38179439306259155, 0.3922281861305237, 0.44456946849823, 0.4133962094783783, 0.4416184425354004, 0.38500767946243286, 0.4315681755542755, 0.5414974093437195, 0.5890745520591736, 0.5296267867088318, 0.5678008198738098, 0.5074665546417236, 0.42826932668685913, 0.40967637300491333, 0.523988664150238, 0.5100972652435303, 0.6359958052635193, 0.622512936592102, 0.631089448928833, 0.6592537760734558, 0.6256493330001831, 0.533161461353302, 0.6033663153648376, 0.5151088833808899, 0.49344366788864136, 0.39300236105918884, 0.34899452328681946, 0.3373216986656189, 0.3233200013637543, 0.3144368529319763, 0.317640483379364, 0.3833909332752228, 0.3104322850704193, 0.3237946629524231, 0.3024570047855377, 0.29074957966804504, 0.2779781222343445, 0.27502959966659546, 0.26035934686660767, 0.24146942794322968, 0.19872260093688965, 0.2304001748561859, 0.1931057721376419, 0.1734616905450821, 0.18419748544692993, 0.16792020201683044, 0.17195038497447968, 0.18396495282649994, 0.1907411813735962, 0.18492746353149414, 0.23298722505569458, 0.2907908260822296, 0.2838558554649353, 0.2423030436038971, 0.2931753695011139, 0.40142354369163513, 0.40883657336235046, 0.48463502526283264, 0.6877077221870422, 0.5052161812782288, 0.4696597754955292, 0.4097464978694916, 0.5023938417434692, 0.4255141317844391, 0.33828186988830566, 0.35091668367385864, 0.43623191118240356, 0.4850925803184509, 0.4954579770565033, 0.4658731520175934, 0.4903508126735687, 0.42838332056999207, 0.4544837474822998, 0.4448844790458679, 0.39305368065834045, 0.3694812059402466, 0.3811013996601105, 0.4574652910232544, 0.5163742303848267, 0.6050549745559692, 0.7544386386871338, 0.6639087796211243, 0.6920379400253296, 0.5589396953582764, 0.5211327075958252, 0.4730377793312073, 0.4622174799442291, 0.442758709192276, 0.34020307660102844, 0.3047981262207031, 0.4085977077484131, 0.46035462617874146, 0.6472742557525635, 0.5874578952789307, 0.5682874917984009, 0.42162907123565674, 0.4117954969406128, 0.34179574251174927, 0.34994420409202576, 0.3011017441749573, 0.3580860495567322, 0.3991786241531372, 0.3842994272708893, 0.38789206743240356, 0.5287324786186218, 0.4431026577949524, 0.4322029948234558, 0.45307090878486633, 0.44072967767715454]</t>
+          <t>[0.3134872615337372, 0.38897621631622314, 0.5684424638748169, 0.6730616092681885, 0.4731808602809906, 0.3448237478733063, 0.2690412998199463, 0.36700791120529175, 0.28768038749694824, 0.2267029881477356, 0.12691611051559448, 0.1666700541973114, 0.1827372908592224, 0.23408734798431396, 0.25510889291763306, 0.14665809273719788, 0.09965997189283371, 0.09952156990766525, 0.16415539383888245, 0.13852223753929138, 0.0948665514588356, 0.10269114375114441, 0.12301367521286011, 0.15311996638774872, 0.20449280738830566, 0.20598766207695007, 0.15771880745887756, 0.1169256642460823, 0.11664166301488876, 0.1095869243144989, 0.10784409940242767, 0.12204436212778091, 0.11949776113033295, 0.18069903552532196, 0.20883750915527344, 0.18177573382854462, 0.1143028661608696, 0.10148882865905762, 0.15898935496807098, 0.18564455211162567, 0.1593327522277832, 0.19666942954063416, 0.13222500681877136, 0.15346811711788177, 0.16644035279750824, 0.20490185916423798, 0.17806847393512726, 0.20863918960094452, 0.18232622742652893, 0.18991203606128693, 0.22950850427150726, 0.2564287781715393, 0.23949262499809265, 0.30162370204925537, 0.25150683522224426, 0.20083005726337433, 0.1679689586162567, 0.22431764006614685, 0.1691104918718338, 0.24075962603092194, 0.24304594099521637, 0.25917890667915344, 0.273539662361145, 0.2726147174835205, 0.24003539979457855, 0.29635655879974365, 0.2263965606689453, 0.22021730244159698, 0.1707877665758133, 0.12981073558330536, 0.11049303412437439, 0.11104369163513184, 0.12416957318782806, 0.12988340854644775, 0.16182692348957062, 0.14426729083061218, 0.14123348891735077, 0.11927508562803268, 0.11583390086889267, 0.1195831447839737, 0.1507256180047989, 0.14715032279491425, 0.1383572518825531, 0.07174237072467804, 0.07886000722646713, 0.06829102337360382, 0.06038343161344528, 0.05821928009390831, 0.06535381078720093, 0.06293337792158127, 0.062048912048339844, 0.06912218034267426, 0.06812858581542969, 0.07749976962804794, 0.07677087932825089, 0.0711703896522522, 0.05779657140374184, 0.07911690324544907, 0.11269405484199524, 0.12516732513904572, 0.16478967666625977, 0.3859432339668274, 0.257129043340683, 0.19605961441993713, 0.18988823890686035, 0.2648637294769287, 0.15358389914035797, 0.09625613689422607, 0.10353324562311172, 0.12813527882099152, 0.13472142815589905, 0.16201551258563995, 0.15402241051197052, 0.15298320353031158, 0.10822730511426926, 0.1138429343700409, 0.0974724292755127, 0.10356874763965607, 0.09588062018156052, 0.1052422970533371, 0.11924504488706589, 0.14786633849143982, 0.20353326201438904, 0.37614914774894714, 0.2832582890987396, 0.36992761492729187, 0.20818036794662476, 0.1546667069196701, 0.11520539224147797, 0.09701892733573914, 0.10296680778265, 0.06587318331003189, 0.07408361881971359, 0.1175079494714737, 0.14028216898441315, 0.27615323662757874, 0.22939634323120117, 0.2464209347963333, 0.1937015801668167, 0.21748818457126617, 0.18199369311332703, 0.15745747089385986, 0.12836922705173492, 0.16757820546627045, 0.15710598230361938, 0.13845722377300262, 0.1626143753528595, 0.3281680643558502, 0.27514004707336426, 0.22855937480926514, 0.20549267530441284, 0.17928403615951538]</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.7544386386871338</v>
+        <v>0.6730616092681885</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -9103,10 +9103,10 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.8708571000024676</v>
+        <v>0.8724725999927614</v>
       </c>
       <c r="J214" t="n">
-        <v>0.005729323026332024</v>
+        <v>0.005739951315741851</v>
       </c>
     </row>
     <row r="215">
@@ -9125,11 +9125,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[0.6061796545982361, 0.4630528390407562, 0.42284175753593445, 0.3973938822746277, 0.5587426424026489, 0.5617677569389343, 0.604365885257721, 0.6629627346992493, 0.6516187787055969, 0.6329734921455383, 0.6052542328834534, 0.4677070677280426, 0.3688577711582184, 0.3917655646800995, 0.4628462493419647, 0.5495665073394775, 0.6821793913841248, 0.6927561163902283, 0.6535565257072449, 0.5300243496894836, 0.4016614854335785, 0.3309970498085022, 0.3256359398365021, 0.3441731929779053, 0.33363544940948486, 0.35504209995269775, 0.40770164132118225, 0.3849351704120636, 0.329728901386261, 0.33720672130584717, 0.3526659607887268, 0.36018985509872437, 0.3545365631580353, 0.3267500698566437, 0.34619536995887756, 0.3580203354358673, 0.4209671914577484, 0.631793200969696, 0.5636420249938965, 0.5937343835830688, 0.5250937938690186, 0.46752503514289856, 0.4030170440673828, 0.5376150608062744, 0.703234076499939, 0.6837061643600464, 0.6283999681472778, 0.7138069868087769, 0.7473745942115784, 0.7173669338226318, 0.5960360765457153, 0.6462917923927307, 0.6294899582862854, 0.5633975863456726, 0.4926583766937256, 0.4296344220638275, 0.4641188383102417, 0.5387926697731018, 0.5326952934265137, 0.5689345598220825, 0.38236692547798157, 0.2639683187007904, 0.23268109560012817, 0.29871827363967896, 0.49876782298088074, 0.6665915846824646, 0.6173320412635803, 0.6964151859283447, 0.7170733213424683, 0.709841787815094, 0.5551819205284119, 0.512937605381012, 0.4772942066192627, 0.5486658811569214, 0.5123666524887085, 0.4386213719844818, 0.41834160685539246, 0.39809203147888184, 0.3866357207298279, 0.35645490884780884, 0.36642587184906006, 0.4018327295780182, 0.4132215082645416, 0.39537209272384644, 0.4099677801132202, 0.24552389979362488, 0.2320401966571808, 0.2879672944545746, 0.43678250908851624, 0.44283950328826904, 0.34550291299819946, 0.3241771161556244, 0.36106351017951965, 0.37957295775413513, 0.39732882380485535, 0.3912057876586914, 0.30621853470802307, 0.3771513104438782, 0.4542801082134247, 0.47263601422309875, 0.45810893177986145, 0.4295029640197754, 0.3626844584941864, 0.4829561412334442, 0.5019934177398682, 0.4992058575153351, 0.5074649453163147, 0.49752432107925415, 0.5098862051963806, 0.5332366228103638, 0.48194801807403564, 0.5429657101631165, 0.46688026189804077, 0.5532903671264648, 0.5859405398368835, 0.3570226728916168, 0.31165555119514465, 0.38577553629875183, 0.44341421127319336, 0.48014941811561584, 0.5779337882995605, 0.6437669396400452, 0.7453963756561279, 0.8098403215408325, 0.7642625570297241, 0.7656816244125366, 0.6328985095024109, 0.5116837620735168, 0.42363715171813965, 0.396614670753479, 0.48153039813041687, 0.5781506896018982, 0.6748211979866028, 0.633432924747467, 0.7207543849945068, 0.6654611229896545, 0.7577717900276184, 0.6699243187904358, 0.6092256307601929, 0.7472152709960938, 0.708672046661377, 0.6688456535339355, 0.4316076934337616, 0.5559555292129517, 0.45487844944000244, 0.40498894453048706, 0.3877318203449249, 0.35794833302497864, 0.49743542075157166, 0.5888658761978149, 0.7125682234764099, 0.7461603879928589]</t>
+          <t>[0.35947632789611816, 0.2571874260902405, 0.2312191128730774, 0.2378886640071869, 0.31146731972694397, 0.31404805183410645, 0.36854088306427, 0.4119362235069275, 0.39065828919410706, 0.33633872866630554, 0.28088194131851196, 0.21625888347625732, 0.15179844200611115, 0.1677386462688446, 0.23864826560020447, 0.25190234184265137, 0.44286561012268066, 0.487392395734787, 0.45016196370124817, 0.30449047684669495, 0.18368928134441376, 0.14370372891426086, 0.13061287999153137, 0.11677271127700806, 0.09539735317230225, 0.09789196401834488, 0.12009795755147934, 0.10606656968593597, 0.08132664859294891, 0.09968298673629761, 0.12719929218292236, 0.11592313647270203, 0.10520860552787781, 0.09557491540908813, 0.10436232388019562, 0.13018840551376343, 0.16678056120872498, 0.34382590651512146, 0.2809014320373535, 0.29705414175987244, 0.23748081922531128, 0.16587510704994202, 0.12788371741771698, 0.18077754974365234, 0.29988884925842285, 0.3514247536659241, 0.3131203353404999, 0.4147002398967743, 0.44018661975860596, 0.38697725534439087, 0.26627877354621887, 0.37284645438194275, 0.3326321840286255, 0.33360791206359863, 0.23924477398395538, 0.21825939416885376, 0.2671855092048645, 0.2915829122066498, 0.2689392864704132, 0.2663123905658722, 0.1519247591495514, 0.09107083082199097, 0.08021429181098938, 0.13924573361873627, 0.2510332465171814, 0.368363618850708, 0.3059307038784027, 0.3596154451370239, 0.42551830410957336, 0.3923057019710541, 0.26429253816604614, 0.25263795256614685, 0.26154935359954834, 0.3230578601360321, 0.2658931314945221, 0.24209246039390564, 0.2253364771604538, 0.21826258301734924, 0.21262593567371368, 0.20582042634487152, 0.2149268090724945, 0.20809422433376312, 0.20880679786205292, 0.1798361986875534, 0.18020786345005035, 0.08286374807357788, 0.07449789345264435, 0.09207817167043686, 0.1669158935546875, 0.15936049818992615, 0.14037811756134033, 0.13996154069900513, 0.16632884740829468, 0.16449379920959473, 0.1956309676170349, 0.1817283034324646, 0.13936731219291687, 0.2059541493654251, 0.2678700387477875, 0.27151912450790405, 0.22881348431110382, 0.21020393073558807, 0.16811220347881317, 0.26548483967781067, 0.28675124049186707, 0.3479529619216919, 0.3146046996116638, 0.2856409251689911, 0.22771519422531128, 0.22935806214809418, 0.21974651515483856, 0.26892146468162537, 0.22961273789405823, 0.29447659850120544, 0.31003811955451965, 0.14852149784564972, 0.14219145476818085, 0.2216976135969162, 0.30529284477233887, 0.4166138470172882, 0.4634246230125427, 0.5686876773834229, 0.5425836443901062, 0.7446252107620239, 0.6995670795440674, 0.6155450940132141, 0.462571382522583, 0.30129274725914, 0.23202142119407654, 0.20172129571437836, 0.29019731283187866, 0.4794820547103882, 0.5899508595466614, 0.5390069484710693, 0.7451797723770142, 0.6500614881515503, 0.7346535921096802, 0.5095505118370056, 0.4166111648082733, 0.51734459400177, 0.46472081542015076, 0.45035120844841003, 0.221432164311409, 0.30815839767456055, 0.1904664933681488, 0.16765837371349335, 0.1609949916601181, 0.13280944526195526, 0.231405571103096, 0.42936670780181885, 0.5462911128997803, 0.5545108318328857]</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.8098403215408325</v>
+        <v>0.7451797723770142</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0.8726257999951486</v>
+        <v>0.865195100006531</v>
       </c>
       <c r="J215" t="n">
-        <v>0.005740959210494398</v>
+        <v>0.005692073026358757</v>
       </c>
     </row>
     <row r="216">
@@ -9165,11 +9165,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[0.1136384904384613, 0.11669885367155075, 0.10772531479597092, 0.11027301102876663, 0.1389971226453781, 0.14113865792751312, 0.13776452839374542, 0.12287651747465134, 0.11750489473342896, 0.08627869933843613, 0.10458970069885254, 0.1280040591955185, 0.17301540076732635, 0.17803603410720825, 0.16525554656982422, 0.18945910036563873, 0.2139214426279068, 0.2397904098033905, 0.22451546788215637, 0.23305241763591766, 0.29322484135627747, 0.2910868525505066, 0.3167034089565277, 0.29521819949150085, 0.34617066383361816, 0.24225154519081116, 0.2575792670249939, 0.2642002999782562, 0.28712108731269836, 0.2029007375240326, 0.17632396519184113, 0.1919860690832138, 0.26734426617622375, 0.22130340337753296, 0.30028849840164185, 0.35379794239997864, 0.4053712487220764, 0.4576456546783447, 0.6251887679100037, 0.599001944065094, 0.591407060623169, 0.4164413809776306, 0.33512642979621887, 0.28489741683006287, 0.2988457679748535, 0.18025588989257812, 0.13442279398441315, 0.12359489500522614, 0.16033391654491425, 0.15962256491184235, 0.21722419559955597, 0.22150906920433044, 0.25667697191238403, 0.21986079216003418, 0.10842565447092056, 0.11126259714365005, 0.14417698979377747, 0.18823643028736115, 0.20161254703998566, 0.19093869626522064, 0.1385638564825058, 0.14211657643318176, 0.2343551069498062, 0.24401094019412994, 0.28799059987068176, 0.24432608485221863, 0.17418739199638367, 0.18981829285621643, 0.30729249119758606, 0.1641661524772644, 0.11894120275974274, 0.10866984724998474, 0.12051846086978912, 0.2214014083147049, 0.25925180315971375, 0.21357139945030212, 0.1733800321817398, 0.16561304032802582, 0.15593107044696808, 0.12305524200201035, 0.16592302918434143, 0.12707553803920746, 0.15399356186389923, 0.2010144144296646, 0.1493709832429886, 0.2796315848827362, 0.3597971498966217, 0.2916558086872101, 0.25698018074035645, 0.15668509900569916, 0.12563689053058624, 0.14980700612068176, 0.1374961882829666, 0.12286365032196045, 0.16077882051467896, 0.1705678403377533, 0.25821155309677124, 0.2299014925956726, 0.2211148589849472, 0.29098325967788696, 0.29946497082710266, 0.19856177270412445, 0.14507311582565308, 0.13080142438411713, 0.19157768785953522, 0.2044782191514969, 0.2009747177362442, 0.1601049154996872, 0.22248241305351257, 0.23710930347442627, 0.16528025269508362, 0.20548871159553528, 0.224253311753273, 0.18632541596889496, 0.18174779415130615, 0.18006616830825806, 0.1829233318567276, 0.2240295112133026, 0.1679147332906723, 0.1255141645669937, 0.12640173733234406, 0.0911693200469017, 0.07409351319074631, 0.09130573272705078, 0.12280117720365524, 0.11392229795455933, 0.0945654883980751, 0.12899824976921082, 0.1684320569038391, 0.17704570293426514, 0.1783396303653717, 0.16852565109729767, 0.17948785424232483, 0.14913512766361237, 0.17600667476654053, 0.15319475531578064, 0.12368523329496384, 0.11968845129013062, 0.09599211066961288, 0.0978078693151474]</t>
+          <t>[0.07296387851238251, 0.0796273797750473, 0.08438601344823837, 0.0930188000202179, 0.11442016065120697, 0.11541465669870377, 0.11436766386032104, 0.09291020035743713, 0.07139415293931961, 0.04523301497101784, 0.06080929562449455, 0.0695301815867424, 0.11685016751289368, 0.11244650930166245, 0.09644799679517746, 0.08504542708396912, 0.0882265716791153, 0.07866909354925156, 0.08524993062019348, 0.11872990429401398, 0.1444246768951416, 0.16614730656147003, 0.181487038731575, 0.16823670268058777, 0.21386145055294037, 0.15361295640468597, 0.181478351354599, 0.20119892060756683, 0.1802518367767334, 0.12808693945407867, 0.122837133705616, 0.14662869274616241, 0.2070876955986023, 0.17155271768569946, 0.2220611423254013, 0.2766227126121521, 0.3181123435497284, 0.39764049649238586, 0.5884999632835388, 0.583465576171875, 0.5813547372817993, 0.3900969922542572, 0.28674525022506714, 0.20846621692180634, 0.20491109788417816, 0.10068991035223007, 0.06841085851192474, 0.07551455497741699, 0.10607974976301193, 0.11143067479133606, 0.1638004630804062, 0.13472454249858856, 0.19051934778690338, 0.18238146603107452, 0.06352499127388, 0.048216551542282104, 0.05472574755549431, 0.08844644576311111, 0.10351906716823578, 0.10338706523180008, 0.08374971896409988, 0.09072757512331009, 0.1574629247188568, 0.15695928037166595, 0.1920327991247177, 0.15628674626350403, 0.1063932254910469, 0.128946915268898, 0.20289592444896698, 0.11940622329711914, 0.09140902757644653, 0.08246348053216934, 0.09344656765460968, 0.19400082528591156, 0.23180896043777466, 0.18170224130153656, 0.1244204193353653, 0.12076138705015182, 0.10189060866832733, 0.08136535435914993, 0.12713707983493805, 0.10466397553682327, 0.14055591821670532, 0.16839028894901276, 0.09717310965061188, 0.24467112123966217, 0.25130507349967957, 0.22962456941604614, 0.14306695759296417, 0.09250600636005402, 0.06171382963657379, 0.07369112968444824, 0.05423969030380249, 0.04944226145744324, 0.06336040049791336, 0.0726364478468895, 0.11509134620428085, 0.11937104165554047, 0.12108395993709564, 0.15767188370227814, 0.20833559334278107, 0.12482656538486481, 0.08346860110759735, 0.09835686534643173, 0.15744580328464508, 0.1519075334072113, 0.1401536911725998, 0.1245311051607132, 0.1524267941713333, 0.16055138409137726, 0.0885051041841507, 0.14818468689918518, 0.2367255538702011, 0.1958843618631363, 0.2038363367319107, 0.1686670035123825, 0.14660662412643433, 0.205488383769989, 0.15909762680530548, 0.13372164964675903, 0.12026923149824142, 0.08014161884784698, 0.06458696722984314, 0.07931510359048843, 0.09074904024600983, 0.0758032575249672, 0.06849146634340286, 0.10953792184591293, 0.13857926428318024, 0.1652664989233017, 0.16027680039405823, 0.1626777946949005, 0.17624834179878235, 0.1328825056552887, 0.17298661172389984, 0.16402119398117065, 0.1264222115278244, 0.11801952868700027, 0.09897448122501373, 0.10157424211502075]</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.6251887679100037</v>
+        <v>0.5884999632835388</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -9183,10 +9183,10 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.7966806000040378</v>
+        <v>0.7929589000123087</v>
       </c>
       <c r="J216" t="n">
-        <v>0.005690575714314556</v>
+        <v>0.005663992142945063</v>
       </c>
     </row>
     <row r="217">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[0.7343618273735046, 0.6709989309310913, 0.6769450306892395, 0.8059141635894775, 0.6794025301933289, 0.6330811977386475, 0.7230311632156372, 0.786899745464325, 0.5714039206504822, 0.6734544038772583, 0.7646491527557373, 0.7928498387336731, 0.6620362401008606, 0.7968611121177673, 0.913979709148407, 0.9291512370109558, 0.9651919603347778, 0.9741801619529724, 0.9710363149642944, 0.9574874639511108, 0.967889130115509, 0.9840919971466064, 0.971498429775238, 0.9840618968009949, 0.9818074703216553, 0.9653806686401367, 0.9144503474235535, 0.9342049956321716, 0.7763661742210388, 0.8989711403846741, 0.8234348297119141, 0.8812668323516846, 0.8867759704589844, 0.8586787581443787, 0.7520005106925964, 0.8626639246940613, 0.9182544350624084, 0.9285523891448975, 0.8661679625511169, 0.7140569686889648, 0.6087439060211182, 0.7333000302314758, 0.7809267640113831, 0.8005127310752869, 0.7143653631210327, 0.5784183144569397, 0.5431222319602966, 0.4744245409965515, 0.6739800572395325, 0.7752082943916321, 0.9418796300888062, 0.9324734807014465, 0.9503504037857056, 0.918935239315033, 0.7796340584754944, 0.8928461074829102, 0.8476742506027222, 0.9117097854614258, 0.9360285997390747, 0.9267004132270813, 0.8987787961959839, 0.9119871258735657, 0.9590514302253723, 0.8854460716247559, 0.7201035022735596, 0.5822332501411438, 0.4625709652900696, 0.5685641765594482, 0.6079479455947876, 0.7870206832885742, 0.8309758305549622, 0.8788070678710938, 0.8477734327316284, 0.8364397883415222, 0.7845338582992554, 0.7430420517921448, 0.8935689330101013, 0.9165205359458923, 0.8748857975006104, 0.8267914652824402, 0.7088361978530884, 0.8737742900848389, 0.8725002408027649, 0.9225751757621765, 0.9318032264709473, 0.9285038709640503, 0.9195190072059631, 0.941947877407074, 0.9450419545173645, 0.9153286218643188, 0.8843663334846497, 0.7954410314559937, 0.6803709864616394, 0.6061418652534485, 0.8316679000854492, 0.7422002553939819, 0.785609245300293, 0.8319001197814941, 0.7895826101303101, 0.7685263156890869, 0.5710099339485168, 0.5845157504081726, 0.7043747901916504, 0.8190225958824158, 0.738396406173706, 0.5832369923591614, 0.5279644727706909, 0.4863184690475464, 0.37817010283470154, 0.29868802428245544, 0.5220323801040649, 0.34536129236221313, 0.3565880060195923, 0.5166270732879639, 0.5968931913375854, 0.8079293966293335, 0.8564771413803101, 0.8327457904815674, 0.7274287343025208, 0.6755028367042542, 0.7340967059135437, 0.7323057651519775, 0.8038316369056702, 0.8345192670822144, 0.8517815470695496, 0.777797520160675, 0.8274845480918884, 0.8981873393058777, 0.8845946788787842, 0.9403316974639893, 0.9565010666847229, 0.9495840072631836, 0.9674726724624634, 0.9573878049850464, 0.9391851425170898, 0.9478678703308105, 0.9009687304496765, 0.927031934261322, 0.9283102750778198]</t>
+          <t>[0.8023273944854736, 0.6264927983283997, 0.5026441812515259, 0.7178094983100891, 0.5938210487365723, 0.5108279585838318, 0.6656547784805298, 0.848664402961731, 0.6981717348098755, 0.8915918469429016, 0.9278214573860168, 0.9475271105766296, 0.8747379779815674, 0.9728614687919617, 0.9894742369651794, 0.9897986650466919, 0.9957436919212341, 0.9974625110626221, 0.995070219039917, 0.9942012429237366, 0.9964426159858704, 0.9984028935432434, 0.9973307847976685, 0.9985866546630859, 0.9983805418014526, 0.9952775239944458, 0.9887827038764954, 0.9897993803024292, 0.9532668590545654, 0.9880971908569336, 0.9733251929283142, 0.9816392660140991, 0.978118896484375, 0.9823396801948547, 0.9773703217506409, 0.9858960509300232, 0.9875454306602478, 0.9918912649154663, 0.9684014320373535, 0.8775782585144043, 0.6894644498825073, 0.8185569047927856, 0.8433041572570801, 0.8653756380081177, 0.760539710521698, 0.5254244208335876, 0.7084019184112549, 0.5046566128730774, 0.7922617197036743, 0.9320410490036011, 0.9904424548149109, 0.9878804087638855, 0.9876434803009033, 0.9821575880050659, 0.8993195295333862, 0.9813883304595947, 0.9701446294784546, 0.9790847301483154, 0.9860883355140686, 0.9821695685386658, 0.9678268432617188, 0.9791816473007202, 0.991378903388977, 0.9859254956245422, 0.9395837187767029, 0.8490729331970215, 0.5399346947669983, 0.5962633490562439, 0.4700267016887665, 0.7108736038208008, 0.8180111646652222, 0.8937082290649414, 0.8326048851013184, 0.8584002256393433, 0.8324605822563171, 0.7001060247421265, 0.918278694152832, 0.9278228878974915, 0.8489851355552673, 0.8485985398292542, 0.7356173396110535, 0.9511330127716064, 0.8996027112007141, 0.9661330580711365, 0.9750036597251892, 0.9737107753753662, 0.9707862734794617, 0.9869861006736755, 0.9852826595306396, 0.965328574180603, 0.9047279953956604, 0.8001179099082947, 0.7448739409446716, 0.7174915671348572, 0.9382550120353699, 0.9169071316719055, 0.9196826815605164, 0.950718343257904, 0.91774982213974, 0.8768499493598938, 0.6821044683456421, 0.7434438467025757, 0.856499195098877, 0.9282989501953125, 0.8625165224075317, 0.47086790204048157, 0.2848455607891083, 0.35207489132881165, 0.30833202600479126, 0.1768544614315033, 0.3977147340774536, 0.18300028145313263, 0.22277821600437164, 0.3715740740299225, 0.4351263642311096, 0.8293541073799133, 0.9390692710876465, 0.9429628849029541, 0.8663024306297302, 0.7784295082092285, 0.8678240776062012, 0.8849408030509949, 0.9343580603599548, 0.9363319277763367, 0.9422829747200012, 0.8745283484458923, 0.9387553334236145, 0.9805123805999756, 0.9834645986557007, 0.9919068813323975, 0.9937106370925903, 0.992111086845398, 0.9961360096931458, 0.9957178235054016, 0.9937294721603394, 0.9939894676208496, 0.9870641231536865, 0.9917911291122437, 0.9918261766433716]</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.9840919971466064</v>
+        <v>0.9985866546630859</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.7957165999978315</v>
+        <v>0.7920765000017127</v>
       </c>
       <c r="J217" t="n">
-        <v>0.005724579856099507</v>
+        <v>0.005698392086343257</v>
       </c>
     </row>
     <row r="218">
@@ -9245,11 +9245,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[0.13068963587284088, 0.1798299103975296, 0.2634742558002472, 0.15891233086585999, 0.13502143323421478, 0.19027535617351532, 0.18323621153831482, 0.32801273465156555, 0.42405274510383606, 0.21721147000789642, 0.3145238757133484, 0.37821903824806213, 0.2393573522567749, 0.2859022915363312, 0.24344858527183533, 0.21997541189193726, 0.3270234763622284, 0.13568677008152008, 0.11093565821647644, 0.12270358949899673, 0.09687639027833939, 0.09233587980270386, 0.1659284085035324, 0.16905245184898376, 0.12926051020622253, 0.11638440191745758, 0.13556860387325287, 0.12623387575149536, 0.08152636140584946, 0.1300927847623825, 0.08850520104169846, 0.10711639374494553, 0.16111424565315247, 0.3190501034259796, 0.49054741859436035, 0.36210617423057556, 0.1981460005044937, 0.14119888842105865, 0.14524507522583008, 0.09042344987392426, 0.07727725058794022, 0.05470378324389458, 0.12438135594129562, 0.13225756585597992, 0.056320592761039734, 0.06149352714419365, 0.045551933348178864, 0.06519265472888947, 0.06951523572206497, 0.0820213034749031, 0.09823377430438995, 0.13063697516918182, 0.1729298233985901, 0.1173880398273468, 0.18333974480628967, 0.4688611328601837, 0.48090052604675293, 0.20344416797161102, 0.4194281995296478, 0.22483853995800018, 0.15399204194545746, 0.3783842623233795, 0.33996233344078064, 0.35022300481796265, 0.3202606439590454, 0.36351966857910156, 0.3904716372489929, 0.37163642048835754, 0.28167060017585754, 0.09852620214223862, 0.04841527342796326, 0.03951546177268028, 0.06894351541996002, 0.07622526586055756, 0.28410619497299194, 0.43173331022262573, 0.36590656638145447, 0.4193495213985443, 0.22913923859596252, 0.2328326553106308, 0.30642133951187134, 0.163255512714386, 0.5485566854476929, 0.5491637587547302, 0.2963971197605133, 0.26530635356903076, 0.2609492838382721, 0.2561609745025635, 0.26156648993492126, 0.2499030977487564, 0.24278777837753296, 0.24193713068962097, 0.23910166323184967, 0.23322144150733948, 0.22896619141101837, 0.21764951944351196, 0.2172064185142517, 0.20460009574890137, 0.19845809042453766, 0.19872768223285675, 0.1966647058725357, 0.2008368819952011, 0.2039242386817932, 0.19987070560455322, 0.20098204910755157, 0.19606074690818787, 0.2084188461303711, 0.21160225570201874, 0.21456047892570496, 0.21308736503124237, 0.21659083664417267, 0.21408703923225403, 0.2145874947309494, 0.21030829846858978, 0.21093375980854034, 0.21584415435791016, 0.2141922563314438, 0.2137770801782608, 0.21252363920211792, 0.21038426458835602, 0.21074257791042328, 0.20771856606006622, 0.20816466212272644, 0.2138533741235733, 0.22117719054222107, 0.2199317216873169, 0.22252970933914185, 0.22439999878406525, 0.22133995592594147, 0.2198810875415802, 0.21814483404159546, 0.21891699731349945, 0.22183965146541595, 0.2247437983751297, 0.2221972793340683, 0.22175376117229462, 0.22647973895072937, 0.2294096052646637, 0.22810232639312744]</t>
+          <t>[0.09064486622810364, 0.1349659115076065, 0.2576969563961029, 0.17811797559261322, 0.1108800396323204, 0.1599043309688568, 0.09389064460992813, 0.2147378921508789, 0.20518141984939575, 0.11649170517921448, 0.17035913467407227, 0.26163968443870544, 0.11738039553165436, 0.1904391199350357, 0.13126400113105774, 0.12329509109258652, 0.2136380821466446, 0.07928390055894852, 0.0603649877011776, 0.07598593831062317, 0.05390071123838425, 0.04392468184232712, 0.07667899131774902, 0.0924619808793068, 0.06442223489284515, 0.058392949402332306, 0.06398358941078186, 0.08323944360017776, 0.03347738832235336, 0.05468258261680603, 0.030179405584931374, 0.04490751400589943, 0.06561920791864395, 0.2132914811372757, 0.45162758231163025, 0.4240649938583374, 0.14784009754657745, 0.09801417589187622, 0.09742279350757599, 0.06407385319471359, 0.06440375745296478, 0.05870874598622322, 0.16254879534244537, 0.26449054479599, 0.06707596778869629, 0.0691385343670845, 0.041517917066812515, 0.13510601222515106, 0.09486091881990433, 0.5475502014160156, 0.3381860852241516, 0.5544191598892212, 0.2984260320663452, 0.13791625201702118, 0.2447395622730255, 0.38852640986442566, 0.17911867797374725, 0.06789365410804749, 0.3428891599178314, 0.09922250360250473, 0.06959997862577438, 0.344422847032547, 0.1260373741388321, 0.25048837065696716, 0.3011184334754944, 0.3870878517627716, 0.3329700231552124, 0.22939597070217133, 0.13059894740581512, 0.025709806010127068, 0.014177250675857067, 0.015524979680776596, 0.03617439419031143, 0.08450572192668915, 0.5082446336746216, 0.36873871088027954, 0.4931848645210266, 0.59562087059021, 0.17670568823814392, 0.21870531141757965, 0.23826579749584198, 0.10731136798858643, 0.70662522315979, 0.7824694514274597, 0.5576874017715454, 0.39343446493148804, 0.2868834137916565, 0.2721065878868103, 0.29724523425102234, 0.235503688454628, 0.22588828206062317, 0.22473181784152985, 0.21573039889335632, 0.20990385115146637, 0.20248320698738098, 0.1888323724269867, 0.18674656748771667, 0.16771358251571655, 0.15041455626487732, 0.15489619970321655, 0.14932847023010254, 0.15392568707466125, 0.15960447490215302, 0.15483224391937256, 0.15522903203964233, 0.15131697058677673, 0.16266611218452454, 0.16422468423843384, 0.17016682028770447, 0.16480028629302979, 0.1665421426296234, 0.1647404134273529, 0.16615420579910278, 0.1636825054883957, 0.16465948522090912, 0.17009253799915314, 0.17025412619113922, 0.16716687381267548, 0.16723915934562683, 0.1634930670261383, 0.16605418920516968, 0.16266392171382904, 0.1652994453907013, 0.17104984819889069, 0.1787472516298294, 0.1773388683795929, 0.17913520336151123, 0.17755316197872162, 0.17857886850833893, 0.17606738209724426, 0.1781926453113556, 0.17985518276691437, 0.1829773485660553, 0.18092486262321472, 0.17982633411884308, 0.17932304739952087, 0.18218626081943512, 0.18782563507556915, 0.18723954260349274]</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.5491637587547302</v>
+        <v>0.7824694514274597</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
@@ -9263,10 +9263,10 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.7534966000239365</v>
+        <v>0.7521242999937385</v>
       </c>
       <c r="J218" t="n">
-        <v>0.005420838849093068</v>
+        <v>0.005410966187005313</v>
       </c>
     </row>
     <row r="219">
@@ -9285,11 +9285,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.8805319666862488, 0.9389200806617737, 0.9389954805374146, 0.8931883573532104, 0.7903881669044495, 0.9045290946960449, 0.852772057056427, 0.7436086535453796, 0.566002368927002, 0.7842302918434143, 0.78633052110672, 0.6833882331848145, 0.8264391422271729, 0.7872865796089172, 0.802116870880127, 0.8067155480384827, 0.8970460891723633, 0.7234787940979004, 0.4072471559047699, 0.35086876153945923, 0.29508429765701294, 0.30425316095352173, 0.5050253868103027, 0.41072237491607666, 0.6151918172836304, 0.4496259391307831, 0.24346604943275452, 0.24804681539535522, 0.2558022737503052, 0.24895203113555908, 0.26581427454948425, 0.18303664028644562, 0.17274639010429382, 0.15586775541305542, 0.110984668135643, 0.15214556455612183, 0.10971350967884064, 0.14011409878730774, 0.12457181513309479, 0.12544937431812286, 0.17548653483390808, 0.20997263491153717, 0.16156674921512604, 0.17287498712539673, 0.14808668196201324, 0.3714972138404846, 0.776783287525177, 0.8142995834350586, 0.6156420707702637, 0.3645316958427429, 0.6350902318954468, 0.4070432782173157, 0.3744911849498749, 0.18516631424427032, 0.13020643591880798, 0.1664642095565796, 0.15703730285167694, 0.2867513597011566, 0.22730354964733124, 0.25395384430885315, 0.23139725625514984, 0.4226401150226593, 0.38090524077415466, 0.5729128122329712, 0.5991234183311462, 0.3775886595249176, 0.3891962766647339, 0.5065221190452576, 0.6193519234657288, 0.8099912405014038, 0.7899091243743896, 0.5059646368026733, 0.2735982835292816, 0.23087717592716217, 0.19188667833805084, 0.17184481024742126, 0.2328893095254898, 0.2800338864326477, 0.24140460789203644, 0.4179820418357849, 0.4524843990802765, 0.5332822799682617, 0.6547103524208069, 0.8119366765022278, 0.757203221321106, 0.8609461188316345, 0.9020227789878845, 0.7923799753189087, 0.6242782473564148, 0.7802708745002747, 0.43033865094184875, 0.5277449488639832, 0.4818470776081085, 0.47302326560020447, 0.7153705358505249, 0.6128661632537842, 0.5575329065322876, 0.890275239944458, 0.8792547583580017, 0.778182327747345, 0.8276380300521851, 0.883529007434845, 0.9398912191390991, 0.9625343084335327, 0.9774612784385681, 0.9746645092964172, 0.9683696031570435, 0.963934600353241, 0.945214033126831, 0.913130521774292, 0.9247691631317139, 0.8722934722900391, 0.7414374351501465, 0.7327535152435303, 0.5132070183753967, 0.6931700706481934, 0.6617555618286133, 0.6754294633865356, 0.6785846948623657, 0.7659670114517212, 0.7399412989616394, 0.4841202199459076, 0.511142909526825, 0.30004727840423584, 0.23587960004806519, 0.28132444620132446, 0.20317168533802032, 0.13129834830760956, 0.22149769961833954, 0.13819146156311035, 0.13700923323631287, 0.38242393732070923, 0.5206924676895142, 0.4667968153953552, 0.3752176761627197, 0.569810152053833, 0.7701287865638733, 0.7978405952453613, 0.6232490539550781, 0.6755495071411133]</t>
+          <t>[0.9538899064064026, 0.9857218265533447, 0.9830083847045898, 0.9589319229125977, 0.8832735419273376, 0.9833167195320129, 0.9719312191009521, 0.8728341460227966, 0.7099514007568359, 0.9875845313072205, 0.9927440881729126, 0.9562312960624695, 0.9790863394737244, 0.928765058517456, 0.9108697175979614, 0.8389580249786377, 0.975233793258667, 0.899970531463623, 0.38348764181137085, 0.2989889979362488, 0.1406814008951187, 0.16881458461284637, 0.4689079225063324, 0.39543434977531433, 0.4138484299182892, 0.2860645055770874, 0.15276558697223663, 0.16904446482658386, 0.14486610889434814, 0.16546380519866943, 0.2706718444824219, 0.12352284044027328, 0.07530519366264343, 0.06981232762336731, 0.052735086530447006, 0.06781873106956482, 0.06388092041015625, 0.060344357043504715, 0.055587731301784515, 0.09360384196043015, 0.23833484947681427, 0.30946293473243713, 0.12400224804878235, 0.15113531053066254, 0.235900416970253, 0.897182047367096, 0.979074239730835, 0.9858781099319458, 0.9604361653327942, 0.7844229936599731, 0.935986340045929, 0.8264374732971191, 0.7820323705673218, 0.43269678950309753, 0.17612293362617493, 0.2793121933937073, 0.23116101324558258, 0.38816770911216736, 0.21639133989810944, 0.19209623336791992, 0.1870305985212326, 0.40338006615638733, 0.41721126437187195, 0.7326730489730835, 0.8349652886390686, 0.4414469599723816, 0.4110994040966034, 0.560723602771759, 0.7657048106193542, 0.9231798052787781, 0.8879770040512085, 0.7311289310455322, 0.23083089292049408, 0.17456944286823273, 0.1168827936053276, 0.13571350276470184, 0.20615063607692719, 0.2369990199804306, 0.2554358243942261, 0.5020045042037964, 0.6022895574569702, 0.5852218270301819, 0.5734211206436157, 0.8376590013504028, 0.8793575167655945, 0.9482021927833557, 0.969308614730835, 0.9388926029205322, 0.7568097710609436, 0.9064745306968689, 0.5380802750587463, 0.43693551421165466, 0.3100992441177368, 0.2862965166568756, 0.6735512018203735, 0.4488399922847748, 0.339356929063797, 0.9037697315216064, 0.8724419474601746, 0.7344040274620056, 0.6776068210601807, 0.8190999031066895, 0.8841812610626221, 0.9717375636100769, 0.9930770397186279, 0.9900968074798584, 0.9865999817848206, 0.9740607142448425, 0.948997974395752, 0.8814302682876587, 0.8994718790054321, 0.7772431373596191, 0.5273572206497192, 0.45330870151519775, 0.1890658736228943, 0.307729035615921, 0.3647552728652954, 0.545544445514679, 0.5934315919876099, 0.6404539346694946, 0.6526949405670166, 0.30886656045913696, 0.3749583661556244, 0.16828441619873047, 0.2245447188615799, 0.3691255450248718, 0.3398028612136841, 0.16522715985774994, 0.2431752234697342, 0.0891345962882042, 0.056039415299892426, 0.30558469891548157, 0.5312886834144592, 0.17391611635684967, 0.10183761268854141, 0.18548785150051117, 0.3288123905658722, 0.6428621411323547, 0.3052389919757843, 0.37923306226730347]</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.9774612784385681</v>
+        <v>0.9930770397186279</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -9303,10 +9303,10 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.8016342000046279</v>
+        <v>0.8045649999985471</v>
       </c>
       <c r="J219" t="n">
-        <v>0.005725958571461628</v>
+        <v>0.00574689285713248</v>
       </c>
     </row>
     <row r="220">
@@ -9325,11 +9325,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.5007566809654236, 0.3123500645160675, 0.2470541000366211, 0.2785540819168091, 0.2582300305366516, 0.3240967392921448, 0.35040903091430664, 0.3636208176612854, 0.24185167253017426, 0.15288932621479034, 0.2300303876399994, 0.18698424100875854, 0.18848083913326263, 0.17141444981098175, 0.2904665470123291, 0.22941017150878906, 0.1762116700410843, 0.17110957205295563, 0.2011876106262207, 0.31309592723846436, 0.154945507645607, 0.16400554776191711, 0.18364323675632477, 0.2115103304386139, 0.0973021388053894, 0.09389173239469528, 0.1012650802731514, 0.11313126981258392, 0.15166257321834564, 0.15263544023036957, 0.12209843844175339, 0.1319209188222885, 0.10427561402320862, 0.12226763367652893, 0.11001820117235184, 0.087000273168087, 0.10862485319375992, 0.14071866869926453, 0.15159191191196442, 0.22943954169750214, 0.20590999722480774, 0.2532157003879547, 0.17900849878787994, 0.193586528301239, 0.1718355417251587, 0.191891610622406, 0.201224222779274, 0.2186339795589447, 0.20537585020065308, 0.20596474409103394, 0.2748715877532959, 0.2334097921848297, 0.2465110570192337, 0.23515154421329498, 0.27838125824928284, 0.28513237833976746, 0.25481411814689636, 0.21857492625713348, 0.2348940372467041, 0.24727563560009003, 0.27429187297821045, 0.30583539605140686, 0.39828604459762573, 0.31836822628974915, 0.22447913885116577, 0.14438530802726746, 0.1558331996202469, 0.22153712809085846, 0.18789584934711456, 0.1678406298160553, 0.253386914730072, 0.23540349304676056, 0.17208445072174072, 0.2839871048927307, 0.25570133328437805, 0.2538278102874756, 0.27627018094062805, 0.24521856009960175, 0.18535831570625305, 0.2536141872406006, 0.22025702893733978, 0.17156843841075897, 0.12332440167665482, 0.10358145833015442, 0.16201625764369965, 0.24187083542346954, 0.10945737361907959, 0.07312792539596558, 0.07742474228143692, 0.08263424038887024, 0.14595293998718262, 0.14835529029369354, 0.15163695812225342, 0.1530458927154541, 0.217466339468956, 0.2074248194694519, 0.1722845733165741, 0.16288988292217255, 0.1400175839662552, 0.16259890794754028, 0.12053161859512329, 0.09928923845291138, 0.10429828613996506, 0.0954994335770607, 0.13013185560703278, 0.1237526386976242, 0.2729879319667816, 0.39819470047950745, 0.41685181856155396, 0.2643665373325348, 0.41019460558891296, 0.3468930423259735, 0.5207194685935974, 0.5534750819206238, 0.47093701362609863, 0.3649007976055145, 0.2850536108016968, 0.17555910348892212, 0.21080529689788818, 0.2777099013328552, 0.3269529938697815, 0.18053650856018066, 0.1519310474395752, 0.25505417585372925, 0.3438342809677124, 0.4948613941669464, 0.5516362190246582, 0.31446224451065063, 0.16760626435279846, 0.1744338423013687, 0.26213324069976807, 0.19709427654743195, 0.16183003783226013, 0.1083626076579094, 0.08490220457315445, 0.11426518112421036, 0.1445395052433014, 0.16218997538089752, 0.16085058450698853]</t>
+          <t>[0.4441092610359192, 0.2016282081604004, 0.13884444534778595, 0.14888694882392883, 0.08702827990055084, 0.13072530925273895, 0.16739806532859802, 0.22035737335681915, 0.1128944605588913, 0.0553181990981102, 0.07502588629722595, 0.07963009923696518, 0.06974189728498459, 0.06339368969202042, 0.12282595783472061, 0.07224170863628387, 0.05068718641996384, 0.052250441163778305, 0.07746446132659912, 0.1957644820213318, 0.07702933996915817, 0.08805229514837265, 0.10281315445899963, 0.11422678083181381, 0.05479719862341881, 0.05070305988192558, 0.06846468150615692, 0.06482614576816559, 0.1006171926856041, 0.130709707736969, 0.09179127961397171, 0.08430586010217667, 0.058294665068387985, 0.043095797300338745, 0.03566044569015503, 0.03167521581053734, 0.04630621150135994, 0.06820575892925262, 0.0861988291144371, 0.09246697276830673, 0.08176801353693008, 0.10950952023267746, 0.06193740293383598, 0.07369992136955261, 0.06697525829076767, 0.05033288896083832, 0.05685229226946831, 0.06745133548974991, 0.07351195812225342, 0.11116509139537811, 0.1549803912639618, 0.13123983144760132, 0.06553561985492706, 0.09955932199954987, 0.11497140675783157, 0.13505394756793976, 0.11136119812726974, 0.11912409961223602, 0.12638825178146362, 0.11669978499412537, 0.14894160628318787, 0.20445020496845245, 0.3486517369747162, 0.19610673189163208, 0.11399275064468384, 0.06220127269625664, 0.0739319697022438, 0.08531882613897324, 0.09174150228500366, 0.13387538492679596, 0.18862713873386383, 0.19528032839298248, 0.09589800983667374, 0.17746880650520325, 0.14040307700634003, 0.13062560558319092, 0.12023056298494339, 0.09910714626312256, 0.08871014416217804, 0.13757959008216858, 0.19535885751247406, 0.1216258779168129, 0.06773629784584045, 0.07301374524831772, 0.19203642010688782, 0.3663625717163086, 0.08131612092256546, 0.04819111526012421, 0.04596475884318352, 0.03914085030555725, 0.09063329547643661, 0.13046739995479584, 0.08217964321374893, 0.06859152019023895, 0.08456817269325256, 0.11370579898357391, 0.05720294266939163, 0.05651835724711418, 0.05851589888334274, 0.06671931594610214, 0.04536612331867218, 0.03134794905781746, 0.033856891095638275, 0.0305529423058033, 0.06360413879156113, 0.047206029295921326, 0.16521409153938293, 0.1978537142276764, 0.270996630191803, 0.10307704657316208, 0.2122281789779663, 0.15443746745586395, 0.2983429729938507, 0.2814381718635559, 0.23333226144313812, 0.16535836458206177, 0.10207851976156235, 0.0561966635286808, 0.10141295194625854, 0.16337287425994873, 0.1593260020017624, 0.09846765547990799, 0.07750475406646729, 0.16474798321723938, 0.2723492980003357, 0.577225387096405, 0.7859055399894714, 0.5295675992965698, 0.23910294473171234, 0.21965442597866058, 0.36991676688194275, 0.34463828802108765, 0.2894250154495239, 0.15666411817073822, 0.07358888536691666, 0.12486394494771957, 0.19469770789146423, 0.16441847383975983, 0.1640714406967163]</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.5534750819206238</v>
+        <v>0.7859055399894714</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.7916301999939606</v>
+        <v>0.7832964999979595</v>
       </c>
       <c r="J220" t="n">
-        <v>0.00569518129492058</v>
+        <v>0.005635226618690356</v>
       </c>
     </row>
     <row r="221">
@@ -9365,11 +9365,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[0.47612687945365906, 0.3258526027202606, 0.30868467688560486, 0.25723347067832947, 0.25132936239242554, 0.2192291021347046, 0.21785219013690948, 0.21172606945037842, 0.19919954240322113, 0.3226974904537201, 0.3976859748363495, 0.2500225007534027, 0.33289799094200134, 0.22303186357021332, 0.2971832752227783, 0.17857804894447327, 0.4335590600967407, 0.3407565951347351, 0.18022066354751587, 0.24087944626808167, 0.16513535380363464, 0.17620086669921875, 0.2869134843349457, 0.09843513369560242, 0.10981132090091705, 0.13758763670921326, 0.12783019244670868, 0.1042298898100853, 0.1657172441482544, 0.3448350131511688, 0.4042888879776001, 0.1869642734527588, 0.13428014516830444, 0.09496652334928513, 0.04566875100135803, 0.035596441477537155, 0.030654245987534523, 0.023065995424985886, 0.01995694264769554, 0.025283068418502808, 0.03017403930425644, 0.028627537190914154, 0.02764413319528103, 0.037154536694288254, 0.02821599319577217, 0.02296411618590355, 0.023916082456707954, 0.029022935777902603, 0.06629478186368942, 0.08926264941692352, 0.1436566710472107, 0.07745750993490219, 0.06263598799705505, 0.0698348879814148, 0.13894899189472198, 0.14708387851715088, 0.14800892770290375, 0.10143104940652847, 0.0930633395910263, 0.07095099985599518, 0.10923121124505997, 0.09783606231212616, 0.10015120357275009, 0.04563184827566147, 0.0726572722196579, 0.07642977684736252, 0.12756256759166718, 0.0618312768638134, 0.05346516892313957, 0.04966629669070244, 0.053251300007104874, 0.09872645884752274, 0.09447924792766571, 0.07989557087421417, 0.05529583990573883, 0.06649584323167801, 0.08206553757190704, 0.07011803984642029, 0.11041854321956635, 0.19982047379016876, 0.15891262888908386, 0.0823175385594368, 0.2250494509935379, 0.436886191368103, 0.35382920503616333, 0.24060626327991486, 0.22645311057567596, 0.15378141403198242, 0.05564331263303757, 0.045177657157182693, 0.05128619819879532, 0.04380391538143158, 0.03387659788131714, 0.026415597647428513, 0.07432395219802856, 0.06422758847475052, 0.11041971296072006, 0.31638196110725403, 0.3436307907104492, 0.5656288862228394, 0.7818992733955383, 0.7289241552352905, 0.5921379923820496, 0.4332415759563446, 0.5656937956809998, 0.5374962091445923, 0.7653682827949524, 0.7008393406867981, 0.7145803570747375, 0.6579514145851135, 0.7222709059715271, 0.3706996738910675, 0.15901066362857819, 0.1293649822473526, 0.11236650496721268, 0.07170850038528442, 0.2372780293226242, 0.2679244875907898, 0.20424538850784302, 0.135173037648201, 0.0833543911576271, 0.07259491831064224, 0.08245030045509338, 0.0839821994304657]</t>
+          <t>[0.26569250226020813, 0.1750701367855072, 0.2108454704284668, 0.16991744935512543, 0.12811358273029327, 0.10528820008039474, 0.09970790147781372, 0.10876215994358063, 0.17301242053508759, 0.337801456451416, 0.3760177195072174, 0.26052379608154297, 0.2840692698955536, 0.1501288115978241, 0.21262404322624207, 0.13334247469902039, 0.3919953405857086, 0.2740994691848755, 0.1867188811302185, 0.21844975650310516, 0.171672984957695, 0.21168366074562073, 0.3578888475894928, 0.11400298029184341, 0.14234884083271027, 0.1583937555551529, 0.10783018916845322, 0.09447845816612244, 0.10288165509700775, 0.19300386309623718, 0.17459075152873993, 0.06833247095346451, 0.04178173840045929, 0.029900265857577324, 0.019207974895834923, 0.013013212010264397, 0.011386750265955925, 0.008409510366618633, 0.007516961079090834, 0.009050305932760239, 0.011746997945010662, 0.010709689930081367, 0.014525932259857655, 0.017656534910202026, 0.009102649986743927, 0.006481166463345289, 0.007880330085754395, 0.009712700732052326, 0.023040860891342163, 0.04182126373052597, 0.06826626509428024, 0.05336949601769447, 0.03439784422516823, 0.047222066670656204, 0.10120314359664917, 0.14630182087421417, 0.11017998307943344, 0.07043808698654175, 0.07755065709352493, 0.048974331468343735, 0.08986779302358627, 0.08682071417570114, 0.06837638467550278, 0.035839587450027466, 0.05363199859857559, 0.04995489865541458, 0.0812087431550026, 0.046218324452638626, 0.044653620570898056, 0.034453585743904114, 0.044131096452474594, 0.12277980148792267, 0.04760557785630226, 0.026383204385638237, 0.011131626553833485, 0.016453685238957405, 0.017674051225185394, 0.013560299761593342, 0.02208559401333332, 0.069116972386837, 0.041091423481702805, 0.023136986419558525, 0.07010357081890106, 0.1842097043991089, 0.10901255905628204, 0.09666725248098373, 0.06081648916006088, 0.05262782797217369, 0.019821476191282272, 0.021647142246365547, 0.016980238258838654, 0.021664077416062355, 0.01833931915462017, 0.010894760489463806, 0.021551858633756638, 0.0162800345569849, 0.03131159767508507, 0.09712980687618256, 0.13636687397956848, 0.33116137981414795, 0.6502529978752136, 0.7366025447845459, 0.4900768995285034, 0.34123915433883667, 0.40563881397247314, 0.4080905318260193, 0.79680997133255, 0.700164794921875, 0.5589694976806641, 0.6341556310653687, 0.7259845733642578, 0.31664201617240906, 0.10869096964597702, 0.07697413861751556, 0.09022575616836548, 0.0365038700401783, 0.19596311450004578, 0.26725560426712036, 0.1227443516254425, 0.08607280999422073, 0.037430327385663986, 0.02701154351234436, 0.039287321269512177, 0.041315384209156036]</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.7818992733955383</v>
+        <v>0.79680997133255</v>
       </c>
       <c r="F221" t="n">
         <v>1</v>
@@ -9383,10 +9383,10 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0.7104088999913074</v>
+        <v>0.7068755000072997</v>
       </c>
       <c r="J221" t="n">
-        <v>0.005729104032187963</v>
+        <v>0.00570060887102661</v>
       </c>
     </row>
     <row r="222">
@@ -9405,11 +9405,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[0.4428025186061859, 0.48777544498443604, 0.45524927973747253, 0.43230924010276794, 0.4129592180252075, 0.42909446358680725, 0.37602195143699646, 0.29175618290901184, 0.2487911432981491, 0.2346496731042862, 0.21550293266773224, 0.22539491951465607, 0.3833622932434082, 0.4554702341556549, 0.385345995426178, 0.25809207558631897, 0.22227227687835693, 0.3546738624572754, 0.49454131722450256, 0.5819343328475952, 0.5352473855018616, 0.6395313143730164, 0.6348845958709717, 0.42135435342788696, 0.4558066129684448, 0.47472456097602844, 0.43908536434173584, 0.41036227345466614, 0.35437169671058655, 0.26946789026260376, 0.23666734993457794, 0.2856835722923279, 0.2756619155406952, 0.25055065751075745, 0.18311342597007751, 0.2652674615383148, 0.38809558749198914, 0.239115372300148, 0.2827933132648468, 0.3723105490207672, 0.39959365129470825, 0.25053641200065613, 0.20428664982318878, 0.21311667561531067, 0.2607029974460602, 0.23998337984085083, 0.4155060052871704, 0.39509856700897217, 0.38340020179748535, 0.31186023354530334, 0.250070184469223, 0.27156996726989746, 0.38254138827323914, 0.22838640213012695, 0.12739752233028412, 0.07282977551221848, 0.12642379105091095, 0.12109518051147461, 0.17278392612934113, 0.10488483309745789, 0.19010032713413239, 0.27471473813056946, 0.3760230541229248, 0.27792370319366455, 0.2581978440284729, 0.3507370948791504, 0.36116501688957214, 0.35759660601615906, 0.26767826080322266, 0.16683949530124664, 0.12112253904342651, 0.12216054648160934, 0.13639377057552338, 0.08504096418619156, 0.07020904123783112, 0.09060616046190262, 0.16834023594856262, 0.09389014542102814, 0.11705106496810913, 0.12008164077997208, 0.09454797208309174, 0.06960855424404144, 0.0628739520907402, 0.06252165883779526, 0.09435946494340897, 0.09978635609149933, 0.19151033461093903, 0.17407210171222687, 0.18077696859836578, 0.1510620415210724, 0.17386478185653687, 0.15732190012931824, 0.1566728800535202, 0.12301274389028549, 0.09087778627872467, 0.10095883905887604, 0.15314193069934845, 0.1520884931087494, 0.1455705165863037, 0.087293341755867, 0.10231620073318481, 0.0823589488863945, 0.0889759436249733, 0.0682152584195137, 0.0657840296626091, 0.09035617858171463, 0.18557046353816986, 0.16689589619636536, 0.20561140775680542, 0.1288035362958908, 0.14678855240345, 0.1566677838563919, 0.17971676588058472, 0.34014520049095154, 0.4815745949745178, 0.4059460461139679, 0.32065102458000183, 0.21232500672340393, 0.17115411162376404, 0.15812242031097412, 0.19630898535251617, 0.20910458266735077, 0.2190195620059967, 0.22106929123401642]</t>
+          <t>[0.34456077218055725, 0.38117948174476624, 0.444987952709198, 0.4539739191532135, 0.5281320214271545, 0.6539657115936279, 0.552588164806366, 0.4078707695007324, 0.3031844198703766, 0.28466925024986267, 0.1886587142944336, 0.2538284361362457, 0.5029263496398926, 0.5074992179870605, 0.4733417332172394, 0.3261082172393799, 0.27914074063301086, 0.42038947343826294, 0.33473193645477295, 0.4162605404853821, 0.4180064797401428, 0.5437572002410889, 0.6484876275062561, 0.49664753675460815, 0.4799927771091461, 0.4728664457798004, 0.4170670211315155, 0.3635190725326538, 0.29237934947013855, 0.2119366079568863, 0.2591216564178467, 0.2845354676246643, 0.25403347611427307, 0.2425004541873932, 0.18291161954402924, 0.2551143169403076, 0.3362196087837219, 0.2573222219944, 0.28536543250083923, 0.2903742790222168, 0.3382408320903778, 0.24983368813991547, 0.17574268579483032, 0.15884798765182495, 0.21786081790924072, 0.14727023243904114, 0.20344024896621704, 0.19569344818592072, 0.17903856933116913, 0.13014020025730133, 0.11547761410474777, 0.10268349200487137, 0.14295129477977753, 0.06398652493953705, 0.04789498448371887, 0.025155257433652878, 0.04365863651037216, 0.06243659183382988, 0.09986498951911926, 0.059969957917928696, 0.11958172172307968, 0.14665135741233826, 0.22986647486686707, 0.14411534368991852, 0.15928053855895996, 0.2308557629585266, 0.2217555195093155, 0.2431926131248474, 0.16997846961021423, 0.08746122568845749, 0.08333369344472885, 0.08273756504058838, 0.12090884894132614, 0.0952039510011673, 0.07320743054151535, 0.1015336886048317, 0.138445645570755, 0.06073543801903725, 0.09051234275102615, 0.09119050204753876, 0.07345762103796005, 0.0503646656870842, 0.04829663038253784, 0.04408222436904907, 0.09581709653139114, 0.07477341592311859, 0.09951402246952057, 0.08990295976400375, 0.07758355885744095, 0.06982234120368958, 0.08288523554801941, 0.05450782552361488, 0.052860189229249954, 0.03701375424861908, 0.028746305033564568, 0.02613522857427597, 0.04289090260863304, 0.03803734481334686, 0.04151182994246483, 0.02398156002163887, 0.04343689978122711, 0.029721740633249283, 0.03277713060379028, 0.01965986005961895, 0.020062169060111046, 0.03801007196307182, 0.08966255187988281, 0.05943065881729126, 0.0633368268609047, 0.052541423588991165, 0.05514483153820038, 0.08377202600240707, 0.09913340210914612, 0.23706388473510742, 0.3513306677341461, 0.3410291075706482, 0.2749473452568054, 0.1864781379699707, 0.13943852484226227, 0.12888622283935547, 0.20226158201694489, 0.1761927306652069, 0.20687906444072723, 0.20719212293624878]</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.6395313143730164</v>
+        <v>0.6539657115936279</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -9423,10 +9423,10 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.7077577000018209</v>
+        <v>0.7081786000053398</v>
       </c>
       <c r="J222" t="n">
-        <v>0.005707723387111459</v>
+        <v>0.005711117741978547</v>
       </c>
     </row>
     <row r="223">
@@ -9445,11 +9445,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[0.12827159464359283, 0.20308780670166016, 0.3125986158847809, 0.33294054865837097, 0.5103071331977844, 0.33149728178977966, 0.28216490149497986, 0.2361951470375061, 0.4397899806499481, 0.5373700857162476, 0.41769421100616455, 0.3309956192970276, 0.3487217426300049, 0.1778600960969925, 0.09754946827888489, 0.08837665617465973, 0.2244725525379181, 0.18396449089050293, 0.1830025613307953, 0.16304762661457062, 0.23021729290485382, 0.20169052481651306, 0.29637324810028076, 0.4249690771102905, 0.44766315817832947, 0.459911048412323, 0.36239373683929443, 0.44625619053840637, 0.3540709316730499, 0.29200220108032227, 0.23849795758724213, 0.15741406381130219, 0.19182096421718597, 0.21289674937725067, 0.2813361585140228, 0.4270722568035126, 0.49096059799194336, 0.541732668876648, 0.523101806640625, 0.497581422328949, 0.36823850870132446, 0.3607695400714874, 0.31555554270744324, 0.35976070165634155, 0.6026046276092529, 0.5341840386390686, 0.48621177673339844, 0.5600244402885437, 0.5870471596717834, 0.39894774556159973, 0.3118734657764435, 0.287978857755661, 0.42303672432899475, 0.3844220042228699, 0.38912126421928406, 0.3668886721134186, 0.3999841511249542, 0.3361988961696625, 0.36873453855514526, 0.3004620373249054, 0.26775023341178894, 0.20776166021823883, 0.24289706349372864, 0.140290766954422, 0.1554839015007019, 0.19542714953422546, 0.17191988229751587, 0.13829922676086426, 0.1803353726863861, 0.3955380916595459, 0.31666889786720276, 0.2711373567581177, 0.3321376442909241, 0.39451178908348083, 0.40809303522109985, 0.37095195055007935, 0.2471354752779007, 0.2748729884624481, 0.13608203828334808, 0.07062128931283951, 0.06827846169471741, 0.0711582750082016, 0.07606032490730286, 0.06810193508863449, 0.09344549477100372, 0.07861350476741791, 0.07616104185581207, 0.1254652738571167, 0.09659901261329651, 0.11748794466257095, 0.10186975449323654, 0.17421552538871765, 0.16131192445755005, 0.09103231132030487, 0.09618906676769257, 0.17490988969802856, 0.2630561292171478, 0.32764148712158203, 0.2891979217529297, 0.23735101521015167, 0.2697279453277588, 0.2869504392147064, 0.28783831000328064, 0.2829556167125702, 0.2893417179584503, 0.29096898436546326, 0.2946357727050781, 0.2922157049179077, 0.2918994128704071, 0.2991912066936493, 0.30208805203437805, 0.30352479219436646, 0.30209779739379883, 0.29659613966941833, 0.2968573272228241, 0.3003912568092346, 0.2971651554107666, 0.2997109591960907, 0.300258994102478, 0.3007645905017853, 0.3015255033969879, 0.30143558979034424, 0.3015054166316986, 0.3015435039997101]</t>
+          <t>[0.18736468255519867, 0.29306015372276306, 0.44544968008995056, 0.47012147307395935, 0.6491284370422363, 0.48259493708610535, 0.3796781003475189, 0.36963433027267456, 0.565493106842041, 0.6009201407432556, 0.5239076018333435, 0.27861741185188293, 0.2468375414609909, 0.12143008410930634, 0.04988136142492294, 0.04066856577992439, 0.15787257254123688, 0.12230736762285233, 0.1060965284705162, 0.09528466314077377, 0.1444094181060791, 0.11520186066627502, 0.16095446050167084, 0.28361234068870544, 0.3970019519329071, 0.5156289339065552, 0.35030755400657654, 0.505962610244751, 0.42831194400787354, 0.3318314850330353, 0.25901538133621216, 0.15135228633880615, 0.1831926703453064, 0.22247202694416046, 0.25362497568130493, 0.39049798250198364, 0.40123316645622253, 0.5444607734680176, 0.5669581294059753, 0.5089885592460632, 0.41099199652671814, 0.44979625940322876, 0.37237048149108887, 0.41428977251052856, 0.628167450428009, 0.6824062466621399, 0.6099950671195984, 0.6719030737876892, 0.6316904425621033, 0.42446163296699524, 0.20724500715732574, 0.14737653732299805, 0.33590370416641235, 0.2624339759349823, 0.2636095881462097, 0.28294500708580017, 0.34629371762275696, 0.26180320978164673, 0.2843893766403198, 0.2991750240325928, 0.27500346302986145, 0.2079416662454605, 0.17451715469360352, 0.12604644894599915, 0.09102723002433777, 0.158951997756958, 0.20555929839611053, 0.03865260258316994, 0.022562379017472267, 0.1855434626340866, 0.22631937265396118, 0.320677250623703, 0.3403800427913666, 0.4207419753074646, 0.31990572810173035, 0.23627933859825134, 0.1003829836845398, 0.08819077163934708, 0.023890139535069466, 0.01644846238195896, 0.017202656716108322, 0.027284346520900726, 0.018149618059396744, 0.018304400146007538, 0.03516099229454994, 0.01852852664887905, 0.028534045442938805, 0.053734008222818375, 0.04254204034805298, 0.06497029960155487, 0.05210868641734123, 0.07801279425621033, 0.08937042951583862, 0.028081711381673813, 0.05250414088368416, 0.05752359330654144, 0.1035015732049942, 0.18781231343746185, 0.36091190576553345, 0.34867361187934875, 0.35988402366638184, 0.3746490776538849, 0.37912413477897644, 0.3723979890346527, 0.3813297152519226, 0.38238218426704407, 0.3857174217700958, 0.3816671669483185, 0.3797264099121094, 0.3922833800315857, 0.39415478706359863, 0.3941812515258789, 0.3965783417224884, 0.3860922157764435, 0.3894869387149811, 0.3973628282546997, 0.39312124252319336, 0.3968653082847595, 0.39603134989738464, 0.3960975408554077, 0.3981775939464569, 0.39787012338638306, 0.39865750074386597, 0.3987860679626465]</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.6026046276092529</v>
+        <v>0.6824062466621399</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -9463,10 +9463,10 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.6884564000065438</v>
+        <v>0.6950705000053858</v>
       </c>
       <c r="J223" t="n">
-        <v>0.005552067741988257</v>
+        <v>0.005605407258107951</v>
       </c>
     </row>
     <row r="224">
@@ -9485,11 +9485,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[0.12913967669010162, 0.10043294727802277, 0.100176602602005, 0.11829712986946106, 0.13413512706756592, 0.1344321221113205, 0.2299375832080841, 0.2084963321685791, 0.1993292272090912, 0.19936007261276245, 0.1511695832014084, 0.17653611302375793, 0.15271762013435364, 0.2552243173122406, 0.35156816244125366, 0.29607343673706055, 0.2509109079837799, 0.2021055966615677, 0.20740565657615662, 0.18505264818668365, 0.17136752605438232, 0.16881594061851501, 0.17189759016036987, 0.21770350635051727, 0.40040668845176697, 0.47978490591049194, 0.4524114429950714, 0.421783447265625, 0.43406087160110474, 0.38158756494522095, 0.31440678238868713, 0.2595873773097992, 0.21208257973194122, 0.20520082116127014, 0.31848224997520447, 0.3566349446773529, 0.3165830969810486, 0.339871346950531, 0.4806765913963318, 0.49515458941459656, 0.45864638686180115, 0.21679076552391052, 0.1703958809375763, 0.1988367885351181, 0.2701435685157776, 0.2416040003299713, 0.26305288076400757, 0.3356228768825531, 0.35531914234161377, 0.2931859493255615, 0.3796606659889221, 0.32866621017456055, 0.38158950209617615, 0.367683082818985, 0.3049372434616089, 0.23691418766975403, 0.18169337511062622, 0.22927449643611908, 0.2910633683204651, 0.3214092254638672, 0.2415338158607483, 0.245400071144104, 0.2514686584472656, 0.21114663779735565, 0.1868056058883667, 0.13835810124874115, 0.1208784356713295, 0.11653147637844086, 0.11783526837825775, 0.1867673695087433, 0.2536866068840027, 0.3476635217666626, 0.4591236710548401, 0.4142817556858063, 0.3891013264656067, 0.32793042063713074, 0.23496553301811218, 0.15332302451133728, 0.12620490789413452, 0.1026654839515686, 0.12274621427059174, 0.12280547618865967, 0.1329611837863922, 0.1316727101802826, 0.1776772439479828, 0.25054341554641724, 0.17154334485530853, 0.17411699891090393, 0.1998811662197113, 0.31014299392700195, 0.14451274275779724, 0.13827964663505554, 0.14235758781433105, 0.15751594305038452, 0.19613116979599, 0.2125956118106842, 0.18062706291675568, 0.16788923740386963, 0.20731361210346222, 0.4747680723667145, 0.323229044675827, 0.2455432265996933, 0.2387036681175232, 0.3152223825454712, 0.2582395672798157, 0.3650176227092743, 0.2821608781814575, 0.6248809099197388, 0.6068737506866455, 0.7142781019210815, 0.26537778973579407, 0.4942043721675873, 0.08837220072746277, 0.4181903302669525, 0.39598846435546875, 0.3976615369319916, 0.39276155829429626, 0.3867989480495453, 0.2747843265533447, 0.18689289689064026, 0.06452161073684692, 0.0357857272028923, 0.019002949818968773, 0.03804576024413109, 0.12217818200588226, 0.684630274772644, 0.6269500255584717, 0.768385112285614, 0.7457161545753479, 0.7069894671440125, 0.5981608033180237, 0.5510566234588623, 0.7480385303497314, 0.7503423094749451, 0.3367621898651123, 0.3886638879776001, 0.377933531999588, 0.3803898096084595, 0.38090085983276367, 0.38179129362106323, 0.3805285394191742, 0.37787577509880066, 0.3778354525566101, 0.3801860809326172, 0.38094857335090637, 0.3798510432243347, 0.38047072291374207, 0.381366103887558, 0.3860355615615845, 0.3752892315387726, 0.2987043857574463, 0.301521897315979]</t>
+          <t>[0.07074829190969467, 0.053175270557403564, 0.05516326054930687, 0.07082175463438034, 0.06808153539896011, 0.06830774247646332, 0.1151294857263565, 0.10986897349357605, 0.12116964161396027, 0.1243891641497612, 0.07518624514341354, 0.1064012423157692, 0.10006126016378403, 0.15165933966636658, 0.2281123250722885, 0.19444429874420166, 0.16974620521068573, 0.14143666625022888, 0.1645118147134781, 0.16180205345153809, 0.1621621698141098, 0.1532205492258072, 0.12699152529239655, 0.15035270154476166, 0.26218482851982117, 0.3473406136035919, 0.3203983008861542, 0.2990640103816986, 0.32946527004241943, 0.278399258852005, 0.17339609563350677, 0.11628923565149307, 0.09276401996612549, 0.09168849885463715, 0.1638806164264679, 0.17463430762290955, 0.15237459540367126, 0.13175924122333527, 0.20373275876045227, 0.23507128655910492, 0.22390399873256683, 0.09727757424116135, 0.08053788542747498, 0.09541113674640656, 0.16714216768741608, 0.16612555086612701, 0.1750456690788269, 0.17728878557682037, 0.1793673187494278, 0.152874156832695, 0.2871159613132477, 0.36054739356040955, 0.4423074424266815, 0.39311453700065613, 0.3626752495765686, 0.23147708177566528, 0.17466308176517487, 0.22537188231945038, 0.25980502367019653, 0.2745365798473358, 0.17980703711509705, 0.19102510809898376, 0.21009567379951477, 0.21908210217952728, 0.16970229148864746, 0.1469440758228302, 0.11837603896856308, 0.11067620664834976, 0.1168539822101593, 0.1804860532283783, 0.2627308666706085, 0.3530553877353668, 0.4142899513244629, 0.38505661487579346, 0.39827650785446167, 0.3376156985759735, 0.21206580102443695, 0.1489410251379013, 0.1223822757601738, 0.11235151439905167, 0.13615456223487854, 0.1577438861131668, 0.1384032666683197, 0.14051838219165802, 0.16702736914157867, 0.20828421413898468, 0.2219899594783783, 0.23647038638591766, 0.2295849472284317, 0.2693668305873871, 0.10818039625883102, 0.09228956699371338, 0.08651445060968399, 0.09928019344806671, 0.13066115975379944, 0.12851738929748535, 0.10798361897468567, 0.10215958207845688, 0.10583502054214478, 0.3845379948616028, 0.3291448950767517, 0.3207852244377136, 0.34012937545776367, 0.577508807182312, 0.3580017387866974, 0.4574395418167114, 0.41012468934059143, 0.6620357036590576, 0.6733128428459167, 0.7323907017707825, 0.0858936756849289, 0.4701322615146637, 0.01697448641061783, 0.315516859292984, 0.324910968542099, 0.33383142948150635, 0.30994048714637756, 0.2730800211429596, 0.12625938653945923, 0.05053317919373512, 0.013684295117855072, 0.007898771204054356, 0.007822021842002869, 0.02641673944890499, 0.09737382084131241, 0.6732633113861084, 0.6706377267837524, 0.8935815691947937, 0.8339657783508301, 0.8871610164642334, 0.8334965705871582, 0.35472777485847473, 0.5450525283813477, 0.638155996799469, 0.05592590942978859, 0.2313627004623413, 0.2457743138074875, 0.2615358531475067, 0.2627080976963043, 0.26837289333343506, 0.26288628578186035, 0.260895699262619, 0.2594926059246063, 0.2646087408065796, 0.2664090096950531, 0.26561465859413147, 0.2657916843891144, 0.2665300667285919, 0.27188411355018616, 0.2773689925670624, 0.08161086589097977, 0.08318652957677841]</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.768385112285614</v>
+        <v>0.8935815691947937</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0.8536253000202123</v>
+        <v>0.8621551000105683</v>
       </c>
       <c r="J224" t="n">
-        <v>0.005615955921185608</v>
+        <v>0.005672073026385317</v>
       </c>
     </row>
     <row r="225">
@@ -9525,11 +9525,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.49816638231277466, 0.6522416472434998, 0.7087746858596802, 0.8324184417724609, 0.8094131350517273, 0.8617739081382751, 0.6553745865821838, 0.6772230863571167, 0.5765809416770935, 0.6611185669898987, 0.6827268004417419, 0.6483879685401917, 0.5166375637054443, 0.5453745126724243, 0.28518304228782654, 0.1803838461637497, 0.2512112259864807, 0.25022488832473755, 0.35294309258461, 0.32452332973480225, 0.5381343364715576, 0.5969771146774292, 0.37054356932640076, 0.628271758556366, 0.5299208164215088, 0.4924626052379608, 0.3532993793487549, 0.5038025975227356, 0.5411221385002136, 0.5124040246009827, 0.37918123602867126, 0.8388757109642029, 0.7601382732391357, 0.7556840181350708, 0.8074495792388916, 0.7793008685112, 0.6500070095062256, 0.8106067776679993, 0.6197118759155273, 0.7271831035614014, 0.48961806297302246, 0.5574914216995239, 0.6282616853713989, 0.7034299969673157, 0.6394801139831543, 0.5454545021057129, 0.22706444561481476, 0.2420857548713684, 0.24151170253753662, 0.2952026128768921, 0.18531589210033417, 0.19702914357185364, 0.21104200184345245, 0.3375002145767212, 0.27347037196159363, 0.44892242550849915, 0.42886799573898315, 0.5206180810928345, 0.6338257789611816, 0.6098270416259766, 0.5931682586669922, 0.7164245247840881, 0.7366566061973572, 0.5073803663253784, 0.1653173714876175, 0.1213461309671402, 0.09148089587688446, 0.15805155038833618, 0.1351412534713745, 0.10026787221431732, 0.1346968412399292, 0.10532429069280624, 0.11360152065753937, 0.09387190639972687, 0.12018532305955887, 0.15645469725131989, 0.17902205884456635, 0.24655386805534363, 0.20907512307167053, 0.22688286006450653, 0.12471877038478851, 0.06598915904760361, 0.05491883307695389, 0.06944547593593597, 0.10505739599466324, 0.08678047358989716, 0.12734851241111755, 0.10015752166509628, 0.11067639291286469, 0.1017904207110405, 0.07662274688482285, 0.07141954451799393, 0.08140725642442703, 0.11522642523050308, 0.1856641322374344, 0.14310379326343536, 0.0954856276512146, 0.06982020288705826, 0.07354378700256348, 0.06832946091890335, 0.06452491879463196, 0.0558781661093235, 0.05225255340337753, 0.04531051218509674, 0.022496987134218216, 0.02590475231409073, 0.04272546246647835, 0.14715324342250824, 0.20622146129608154, 0.1180105060338974, 0.09392760694026947, 0.13125509023666382, 0.11303418129682541, 0.12334922701120377, 0.2375599890947342, 0.1509726494550705, 0.15973861515522003, 0.1395888328552246, 0.197149395942688, 0.1528143733739853, 0.12648987770080566, 0.10378158092498779, 0.09129577875137329, 0.2428000420331955, 0.277571439743042, 0.22250236570835114, 0.19574061036109924, 0.1778855174779892, 0.15963052213191986, 0.226292684674263, 0.2549898624420166, 0.17004480957984924, 0.17381784319877625, 0.47748807072639465, 0.48421773314476013, 0.3798818588256836, 0.05249357596039772, 0.11971783638000488, 0.20311422646045685, 0.0873236134648323, 0.08889180421829224, 0.11885225027799606, 0.13267216086387634, 0.14607244729995728, 0.21622192859649658, 0.19416925311088562, 0.16608791053295135, 0.09081675112247467, 0.06316213309764862, 0.05747636780142784, 0.19441770017147064, 0.20600111782550812]</t>
+          <t>[0.5574442744255066, 0.7056788802146912, 0.6928125619888306, 0.8577080965042114, 0.8578307032585144, 0.8962095379829407, 0.6356940269470215, 0.7728005647659302, 0.642841100692749, 0.7700563669204712, 0.7232624888420105, 0.6885776519775391, 0.45928752422332764, 0.4665887653827667, 0.2781742811203003, 0.16568462550640106, 0.21241044998168945, 0.24814270436763763, 0.3608178496360779, 0.30217066407203674, 0.5357843637466431, 0.6140246987342834, 0.367199569940567, 0.6570901870727539, 0.5300836563110352, 0.6023579835891724, 0.6118414998054504, 0.7072257399559021, 0.7274545431137085, 0.6648056507110596, 0.5254067778587341, 0.9074214100837708, 0.8500887751579285, 0.8630022406578064, 0.9179289937019348, 0.9152252674102783, 0.8056528568267822, 0.9191487431526184, 0.8163824677467346, 0.8466216921806335, 0.5745853781700134, 0.59843510389328, 0.6987965703010559, 0.7908846139907837, 0.5512584447860718, 0.4049215614795685, 0.11694890260696411, 0.1563558727502823, 0.18568310141563416, 0.23217536509037018, 0.13270661234855652, 0.18988804519176483, 0.13521750271320343, 0.3358652591705322, 0.27253416180610657, 0.5370893478393555, 0.5259700417518616, 0.6485741138458252, 0.7509433627128601, 0.7564430832862854, 0.6879736185073853, 0.8246827721595764, 0.8290437459945679, 0.6640950441360474, 0.2188750058412552, 0.14602957665920258, 0.06557321548461914, 0.09945274889469147, 0.08112415671348572, 0.06605568528175354, 0.06712493300437927, 0.06379779428243637, 0.056414831429719925, 0.07016901671886444, 0.08026471734046936, 0.11462729424238205, 0.14897355437278748, 0.15861265361309052, 0.08260677754878998, 0.09854893386363983, 0.05038902536034584, 0.03402412682771683, 0.025541825219988823, 0.030033262446522713, 0.03671795874834061, 0.03607986494898796, 0.05267951637506485, 0.02698439359664917, 0.02860132046043873, 0.027420509606599808, 0.028459932655096054, 0.027219226583838463, 0.03534815460443497, 0.0497211217880249, 0.09627991169691086, 0.0842859223484993, 0.060364045202732086, 0.039653755724430084, 0.043872784823179245, 0.03657634183764458, 0.030542956665158272, 0.02245613932609558, 0.025110092014074326, 0.027986928820610046, 0.014727910049259663, 0.017073670402169228, 0.03199881315231323, 0.1460167020559311, 0.23208275437355042, 0.10872725397348404, 0.0707283467054367, 0.09278687089681625, 0.05832357332110405, 0.10563064366579056, 0.2874903678894043, 0.1693359762430191, 0.2199164181947708, 0.16467009484767914, 0.2137366533279419, 0.1014937162399292, 0.07740569859743118, 0.06605128943920135, 0.05377449095249176, 0.19331268966197968, 0.1659054458141327, 0.12314894050359726, 0.11584527790546417, 0.12174888700246811, 0.11755234748125076, 0.17769303917884827, 0.2948611378669739, 0.2582140266895294, 0.15990771353244781, 0.3024052679538727, 0.1743321269750595, 0.3535063564777374, 0.03902648761868477, 0.04278872162103653, 0.10379847884178162, 0.02483326382935047, 0.023294413462281227, 0.04750126600265503, 0.0901203602552414, 0.0661134123802185, 0.08027592301368713, 0.10664171725511551, 0.06778085976839066, 0.04152020066976547, 0.027457159012556076, 0.025837166234850883, 0.1500086933374405, 0.19605861604213715]</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.8617739081382751</v>
+        <v>0.9191487431526184</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -9543,10 +9543,10 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>0.855887999990955</v>
+        <v>0.8908009000006132</v>
       </c>
       <c r="J225" t="n">
-        <v>0.005630842105203651</v>
+        <v>0.005860532236846139</v>
       </c>
     </row>
     <row r="226">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.033135704696178436, 0.044031985104084015, 0.053295932710170746, 0.055532049387693405, 0.05018255487084389, 0.14713874459266663, 0.15765692293643951, 0.11722494661808014, 0.04737100377678871, 0.03120097890496254, 0.022825097665190697, 0.020909691229462624, 0.01922181434929371, 0.024601826444268227, 0.03397644683718681, 0.06082412227988243, 0.05221203714609146, 0.18954449892044067, 0.11081649363040924, 0.07246492058038712, 0.04634963721036911, 0.056184083223342896, 0.06842628121376038, 0.24792470037937164, 0.27710801362991333, 0.15998542308807373, 0.0694374367594719, 0.08337036520242691, 0.1795724332332611, 0.22942796349525452, 0.2271893471479416, 0.16779930889606476, 0.1622706949710846, 0.07751059532165527, 0.04624195769429207, 0.031241659075021744, 0.04428238421678543, 0.03599389269948006, 0.019057346507906914, 0.03499118238687515, 0.04838642477989197, 0.052442461252212524, 0.03910769522190094, 0.05224268138408661, 0.10052178800106049, 0.09689249843358994, 0.06132059544324875, 0.06492871046066284, 0.052170272916555405, 0.055691126734018326, 0.07017837464809418, 0.0577077679336071, 0.04297281429171562, 0.03433625400066376, 0.046967845410108566, 0.051210593432188034, 0.04681069031357765, 0.13712933659553528, 0.10217073559761047, 0.10473398864269257, 0.2499702274799347, 0.19317594170570374, 0.09913916140794754, 0.10463631898164749, 0.091572605073452, 0.11369273066520691, 0.08999227732419968, 0.09143712371587753, 0.0997912585735321, 0.09500399231910706, 0.07571059465408325, 0.10867445915937424, 0.13452766835689545, 0.12278489768505096, 0.05581575632095337, 0.06426046043634415, 0.09303635358810425, 0.13766273856163025, 0.09587323665618896, 0.12117110192775726, 0.07214478403329849, 0.05602436512708664, 0.04388025403022766, 0.06884339451789856, 0.06911337375640869, 0.10681013017892838, 0.05732705071568489, 0.06289423257112503, 0.05456128343939781, 0.054065290838479996, 0.043951649218797684, 0.026632802560925484, 0.03180974721908569, 0.03214582800865173, 0.05015633627772331, 0.047612860798835754, 0.0533478781580925, 0.045441851019859314, 0.06796490401029587, 0.11048947274684906, 0.07041434198617935, 0.06879127770662308, 0.07851368933916092, 0.21368661522865295, 0.12303563952445984, 0.11463673412799835, 0.07407694309949875, 0.05776979774236679, 0.05827517434954643, 0.07107655704021454, 0.06670702248811722, 0.05822679027915001, 0.07122459262609482, 0.04025370255112648, 0.03617040440440178, 0.03401147946715355, 0.030972037464380264, 0.029070599004626274, 0.039972323924303055, 0.03148074075579643, 0.03322451189160347, 0.0377073772251606, 0.044341254979372025, 0.06080712750554085, 0.05755561962723732, 0.051481131464242935, 0.05541941151022911, 0.0518924742937088, 0.05285506695508957, 0.03391123190522194, 0.06616131961345673, 0.0950952097773552, 0.07252176105976105, 0.0562673956155777, 0.06266770511865616, 0.057697854936122894, 0.06414279341697693, 0.04954550042748451, 0.04169275984168053, 0.04150823503732681, 0.04083869233727455, 0.037324242293834686, 0.034605734050273895, 0.03342541679739952, 0.04276817664504051, 0.04056268557906151, 0.04984639957547188, 0.06815643608570099, 0.05398501455783844, 0.03488441929221153, 0.17537476122379303, 0.4226705729961395]</t>
+          <t>[0.023100608959794044, 0.02982700616121292, 0.04011502116918564, 0.03748147934675217, 0.023626072332262993, 0.07966478168964386, 0.20525850355625153, 0.19104182720184326, 0.08164126425981522, 0.03287998586893082, 0.014253661036491394, 0.012602162547409534, 0.00994065497070551, 0.011685814708471298, 0.016974834725260735, 0.03020658902823925, 0.02285614423453808, 0.20303690433502197, 0.1312471181154251, 0.07480800896883011, 0.03540291264653206, 0.04853875935077667, 0.07309135794639587, 0.4046810269355774, 0.3041991591453552, 0.09906908869743347, 0.025157006457448006, 0.03463103249669075, 0.055207766592502594, 0.09203704446554184, 0.12834468483924866, 0.15004703402519226, 0.12151895463466644, 0.045586153864860535, 0.01963004656136036, 0.02022484876215458, 0.03613295033574104, 0.028392942622303963, 0.009097050875425339, 0.022767027840018272, 0.030653588473796844, 0.021872691810131073, 0.018718933686614037, 0.032013945281505585, 0.06166538968682289, 0.0747867077589035, 0.06320067495107651, 0.06697724014520645, 0.058508072048425674, 0.08804553747177124, 0.11988434195518494, 0.07606993615627289, 0.04617572948336601, 0.03136792406439781, 0.04513200372457504, 0.05436249077320099, 0.036664027720689774, 0.08902651816606522, 0.04896733537316322, 0.06547679007053375, 0.2364533245563507, 0.17369188368320465, 0.09274197369813919, 0.12320678681135178, 0.10260093957185745, 0.13409698009490967, 0.09228599071502686, 0.07828260213136673, 0.08322447538375854, 0.07756517082452774, 0.06229148805141449, 0.10566209256649017, 0.1488807499408722, 0.11362586170434952, 0.029394924640655518, 0.022787662222981453, 0.0508442185819149, 0.14291536808013916, 0.0655570775270462, 0.09551374614238739, 0.03536273539066315, 0.02347833476960659, 0.022067898884415627, 0.052159085869789124, 0.06982193887233734, 0.11638511717319489, 0.036172036081552505, 0.0335569828748703, 0.0283907912671566, 0.02676401473581791, 0.022630194202065468, 0.011350296437740326, 0.015707939863204956, 0.023093780502676964, 0.0380820706486702, 0.04299210011959076, 0.05395481735467911, 0.04025648161768913, 0.10493574291467667, 0.15277227759361267, 0.0684010460972786, 0.05161997675895691, 0.05231887847185135, 0.18480424582958221, 0.12318351864814758, 0.11026999354362488, 0.06518612802028656, 0.04148918390274048, 0.035958632826805115, 0.035956524312496185, 0.03986024484038353, 0.03133208304643631, 0.039988964796066284, 0.021006396040320396, 0.02238251268863678, 0.020636262372136116, 0.02014973573386669, 0.016378095373511314, 0.02162548154592514, 0.02556178718805313, 0.029007142409682274, 0.02838400937616825, 0.028141919523477554, 0.04065300151705742, 0.05243102088570595, 0.058395519852638245, 0.06315725296735764, 0.057825010269880295, 0.059432823210954666, 0.03743554279208183, 0.051872339099645615, 0.06434419006109238, 0.04157254099845886, 0.04431075230240822, 0.03632597625255585, 0.028426403179764748, 0.024999449029564857, 0.02027343027293682, 0.01889994367957115, 0.020546244457364082, 0.020555218681693077, 0.01675250194966793, 0.012572353705763817, 0.011341540142893791, 0.012303943745791912, 0.01441536471247673, 0.01720278523862362, 0.034495096653699875, 0.020241843536496162, 0.01502686832100153, 0.017569877207279205, 0.1938505619764328]</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.4226705729961395</v>
+        <v>0.4046810269355774</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -9583,10 +9583,10 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.8513111000065692</v>
+        <v>0.851627300013206</v>
       </c>
       <c r="J226" t="n">
-        <v>0.00560073092109585</v>
+        <v>0.005602811184297407</v>
       </c>
     </row>
     <row r="227">
@@ -9605,11 +9605,11 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[0.13704510033130646, 0.25396475195884705, 0.377135306596756, 0.4855084717273712, 0.3686125576496124, 0.28337258100509644, 0.1729280650615692, 0.22807037830352783, 0.13155025243759155, 0.10575059801340103, 0.2083538919687271, 0.19800525903701782, 0.22091521322727203, 0.16378523409366608, 0.09752797335386276, 0.06075059622526169, 0.10835839807987213, 0.18459059298038483, 0.26603931188583374, 0.2833764851093292, 0.39073601365089417, 0.3916480243206024, 0.39687514305114746, 0.24774812161922455, 0.19101658463478088, 0.1746511310338974, 0.11231733858585358, 0.07985158264636993, 0.08640772104263306, 0.20535458624362946, 0.12618067860603333, 0.2546723484992981, 0.4358952045440674, 0.4778520166873932, 0.37996530532836914, 0.47469088435173035, 0.27538546919822693, 0.3772523105144501, 0.3417288362979889, 0.6279109716415405, 0.6225858926773071, 0.5158003568649292, 0.362705260515213, 0.3297463059425354, 0.2856462895870209, 0.31877338886260986, 0.4445456266403198, 0.558451235294342, 0.43438243865966797, 0.4256953299045563, 0.5791323184967041, 0.40793782472610474, 0.32721444964408875, 0.23141737282276154, 0.2651353180408478, 0.32810747623443604, 0.22772864997386932, 0.2775534987449646, 0.39576563239097595, 0.39495769143104553, 0.36557459831237793, 0.29835808277130127, 0.3571169078350067, 0.49221140146255493, 0.40747517347335815, 0.40178096294403076, 0.38338449597358704, 0.4890182614326477, 0.41823944449424744, 0.3800944983959198, 0.4336935877799988, 0.4461401402950287, 0.6154564619064331, 0.646595299243927, 0.45023006200790405, 0.45916280150413513, 0.4801996648311615, 0.5510682463645935, 0.4697098135948181, 0.5105637907981873, 0.34701788425445557, 0.30820849537849426, 0.4367983937263489, 0.5414888858795166, 0.47778555750846863, 0.5573470592498779, 0.40168604254722595, 0.44695886969566345, 0.23828235268592834, 0.3961426615715027, 0.5241625905036926, 0.4751591682434082, 0.38984915614128113, 0.4270896017551422, 0.4646409749984741, 0.6355460286140442, 0.5949681401252747, 0.7093679308891296, 0.5197442173957825, 0.4565601348876953, 0.4014326333999634, 0.6058117747306824, 0.5801902413368225, 0.4113013446331024, 0.33912670612335205, 0.4330040216445923, 0.3940315842628479, 0.4937461316585541, 0.47981855273246765, 0.516133725643158, 0.43022435903549194, 0.4469526708126068, 0.5935615301132202, 0.6058302521705627, 0.7003093957901001, 0.6155701875686646, 0.659626841545105, 0.6043519377708435, 0.4963283836841583, 0.6551899909973145, 0.5479642152786255, 0.5733627676963806, 0.5759576559066772, 0.5668884515762329, 0.5082195997238159, 0.6220158338546753, 0.6996981501579285, 0.6831419467926025, 0.7048709392547607, 0.7109809517860413, 0.3279222249984741, 0.5617850422859192, 0.5958253145217896, 0.5481797456741333, 0.4923148453235626, 0.5392340421676636, 0.39146673679351807, 0.42966341972351074, 0.5844215154647827, 0.4081816077232361, 0.5516529083251953, 0.7191497087478638, 0.6269674301147461, 0.6611364483833313, 0.6467736959457397, 0.6084505319595337, 0.35340750217437744, 0.6133955121040344, 0.4896169602870941, 0.5032141208648682, 0.5133677124977112]</t>
+          <t>[0.17629849910736084, 0.29083651304244995, 0.388952374458313, 0.5336933732032776, 0.5005559921264648, 0.3193089962005615, 0.1993110626935959, 0.39872056245803833, 0.15739943087100983, 0.15155957639217377, 0.3818867802619934, 0.34899038076400757, 0.3330221176147461, 0.24641092121601105, 0.09498227387666702, 0.04569161683320999, 0.12837910652160645, 0.2916123867034912, 0.5472862720489502, 0.5912773609161377, 0.7987117767333984, 0.8171662092208862, 0.8079306483268738, 0.6915015578269958, 0.5081644654273987, 0.37395644187927246, 0.29808181524276733, 0.18857569992542267, 0.12151893973350525, 0.4584442377090454, 0.14508414268493652, 0.41925835609436035, 0.7237435579299927, 0.7857469916343689, 0.6794081926345825, 0.7052926421165466, 0.42366379499435425, 0.5016544461250305, 0.4372604191303253, 0.7189186811447144, 0.6835024952888489, 0.4596764147281647, 0.4177807867527008, 0.3364841341972351, 0.2829480469226837, 0.1941235214471817, 0.3492623269557953, 0.47729912400245667, 0.3544844388961792, 0.34479406476020813, 0.48167088627815247, 0.3140295743942261, 0.35114163160324097, 0.16688428819179535, 0.19556479156017303, 0.2851922810077667, 0.22986505925655365, 0.3108828663825989, 0.3404163718223572, 0.36986875534057617, 0.25000816583633423, 0.26856866478919983, 0.22434726357460022, 0.3523487448692322, 0.25259533524513245, 0.28252285718917847, 0.21060743927955627, 0.27352482080459595, 0.22482819855213165, 0.2175341248512268, 0.26485565304756165, 0.4131162464618683, 0.6821324229240417, 0.5442140102386475, 0.26731076836586, 0.3873315453529358, 0.46567776799201965, 0.5319918990135193, 0.41430845856666565, 0.5074071884155273, 0.3819980025291443, 0.29834771156311035, 0.4532718360424042, 0.6083776950836182, 0.5336280465126038, 0.5963966846466064, 0.42680102586746216, 0.5030202865600586, 0.17453408241271973, 0.35491782426834106, 0.4642622768878937, 0.45260190963745117, 0.33493950963020325, 0.44061988592147827, 0.5559929609298706, 0.6710006594657898, 0.6111348271369934, 0.7469274997711182, 0.6891257166862488, 0.6657625436782837, 0.4933425188064575, 0.6671077609062195, 0.5798611640930176, 0.338673859834671, 0.268204927444458, 0.39529895782470703, 0.32636481523513794, 0.40355384349823, 0.36402082443237305, 0.4465937912464142, 0.3577515482902527, 0.35374128818511963, 0.5624611973762512, 0.5730662941932678, 0.6562187075614929, 0.6634349226951599, 0.6954038143157959, 0.6115756630897522, 0.5660690665245056, 0.7255063652992249, 0.6029784679412842, 0.5990733504295349, 0.6763604283332825, 0.6995669603347778, 0.6689863801002502, 0.6759703755378723, 0.7353022694587708, 0.7120159864425659, 0.7892804741859436, 0.7106434106826782, 0.26412835717201233, 0.6339023113250732, 0.6552226543426514, 0.5727335214614868, 0.4040960967540741, 0.5340659618377686, 0.3424573242664337, 0.38008710741996765, 0.5518681406974792, 0.48709505796432495, 0.5838815569877625, 0.7946987748146057, 0.7564513087272644, 0.8161040544509888, 0.8021355271339417, 0.59864342212677, 0.3015361428260803, 0.7348670959472656, 0.5557026267051697, 0.49475184082984924, 0.4217033088207245]</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.7191497087478638</v>
+        <v>0.8171662092208862</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -9623,10 +9623,10 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0.8555289000214543</v>
+        <v>0.8518608999875141</v>
       </c>
       <c r="J227" t="n">
-        <v>0.005665754304777843</v>
+        <v>0.005641462913824597</v>
       </c>
     </row>
     <row r="228">
@@ -9645,11 +9645,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[0.22701871395111084, 0.25576046109199524, 0.2055199146270752, 0.1810394525527954, 0.16428938508033752, 0.15398858487606049, 0.15587051212787628, 0.28942421078681946, 0.36678266525268555, 0.8022235631942749, 0.8216943144798279, 0.8198938965797424, 0.5424906015396118, 0.7476435303688049, 0.612638533115387, 0.43522921204566956, 0.4555554687976837, 0.3751400411128998, 0.45148351788520813, 0.7016259431838989, 0.808033287525177, 0.7737936973571777, 0.5139118432998657, 0.46051257848739624, 0.28928065299987793, 0.20237977802753448, 0.28284457325935364, 0.33647599816322327, 0.48966240882873535, 0.50562584400177, 0.47012078762054443, 0.3631683588027954, 0.30787551403045654, 0.3902070224285126, 0.46384677290916443, 0.455630362033844, 0.40725424885749817, 0.4105706512928009, 0.38973936438560486, 0.2218565195798874, 0.17148731648921967, 0.2485295534133911, 0.28005892038345337, 0.17824336886405945, 0.18929368257522583, 0.34821704030036926, 0.23610468208789825, 0.32752853631973267, 0.3001122772693634, 0.2683214247226715, 0.432270884513855, 0.3391678035259247, 0.37254783511161804, 0.37814027070999146, 0.33990177512168884, 0.24601750075817108, 0.2679373621940613, 0.5470747351646423, 0.8499447703361511, 0.9187643527984619, 0.9385481476783752, 0.9483435750007629, 0.6865910291671753, 0.4579346179962158, 0.45534151792526245, 0.6022735238075256, 0.6273821592330933, 0.5164461135864258, 0.33369338512420654, 0.42857590317726135, 0.3215174674987793, 0.2725341022014618, 0.31782177090644836, 0.2506856918334961, 0.22946885228157043, 0.3249981999397278, 0.2692187428474426, 0.20552846789360046, 0.24045178294181824, 0.25232428312301636, 0.29371848702430725, 0.3586193025112152, 0.3785635232925415, 0.7496609091758728, 0.8725641369819641, 0.9258228540420532, 0.9044064879417419, 0.6228727698326111, 0.518430233001709, 0.416520357131958, 0.3850153982639313, 0.44706839323043823, 0.4483281373977661, 0.582692563533783, 0.5868567824363708, 0.5811566710472107, 0.6370673775672913, 0.5964747071266174, 0.7204172015190125, 0.5782829523086548, 0.5497198104858398, 0.30211779475212097, 0.35554802417755127, 0.47382017970085144, 0.2522667646408081, 0.3703404664993286, 0.5874780416488647, 0.7692285180091858, 0.7079263925552368, 0.9151825308799744, 0.9493151307106018, 0.8663535118103027, 0.7796913981437683, 0.7469826340675354, 0.6436259746551514, 0.7296295762062073, 0.4994635581970215, 0.602486252784729, 0.3917618691921234, 0.6132437586784363, 0.559428334236145, 0.7991343140602112, 0.9028093218803406, 0.9041427969932556, 0.7892865538597107, 0.7127627730369568, 0.5114052295684814, 0.5284510850906372, 0.47195103764533997, 0.3594655692577362, 0.284646600484848, 0.4183575212955475, 0.4534582495689392, 0.49966961145401, 0.6551456451416016, 0.871595025062561, 0.9414310455322266, 0.9181467890739441, 0.8877477645874023, 0.8446366190910339, 0.8568614721298218, 0.7413501143455505, 0.6606860756874084, 0.519649863243103, 0.6747384071350098, 0.7239987254142761, 0.6055611968040466, 0.7409723401069641, 0.8122495412826538, 0.8002884984016418, 0.7467492818832397, 0.667380154132843]</t>
+          <t>[0.15751121938228607, 0.18304093182086945, 0.1222022995352745, 0.07140646874904633, 0.08095615357160568, 0.07108508050441742, 0.062502920627594, 0.13153277337551117, 0.1488770991563797, 0.6839940547943115, 0.5350667834281921, 0.3521396815776825, 0.1264723390340805, 0.2455090433359146, 0.18077310919761658, 0.06815619766712189, 0.09364555776119232, 0.06984486430883408, 0.1100219190120697, 0.2086930274963379, 0.32725223898887634, 0.40751469135284424, 0.20069816708564758, 0.20510123670101166, 0.09855618327856064, 0.05918429419398308, 0.10302746295928955, 0.18437519669532776, 0.3303118944168091, 0.3101974129676819, 0.28886935114860535, 0.22991737723350525, 0.16675327718257904, 0.19745509326457977, 0.2678884267807007, 0.22061631083488464, 0.24339064955711365, 0.20646153390407562, 0.1749393790960312, 0.06471821665763855, 0.03292527049779892, 0.09624991565942764, 0.2158803641796112, 0.11908362060785294, 0.07434549182653427, 0.16004127264022827, 0.12901988625526428, 0.08962008357048035, 0.08102410286664963, 0.11112335324287415, 0.32344934344291687, 0.2581058442592621, 0.3844378590583801, 0.420708566904068, 0.3892044425010681, 0.17450791597366333, 0.14607974886894226, 0.4854795038700104, 0.9340084195137024, 0.927831768989563, 0.847572386264801, 0.8914363980293274, 0.32554420828819275, 0.16582545638084412, 0.12960249185562134, 0.23953500390052795, 0.3629607856273651, 0.19099989533424377, 0.10851414501667023, 0.099668949842453, 0.0713445246219635, 0.06038258969783783, 0.08373621851205826, 0.07305167615413666, 0.06912887096405029, 0.0874023586511612, 0.07612521946430206, 0.0597645565867424, 0.08921511471271515, 0.10464239865541458, 0.09911774098873138, 0.09640168398618698, 0.13575324416160583, 0.22482705116271973, 0.4955316185951233, 0.8627759218215942, 0.8816430568695068, 0.30152034759521484, 0.2394089549779892, 0.11249077320098877, 0.16461510956287384, 0.24340173602104187, 0.24257272481918335, 0.5072833895683289, 0.5257231593132019, 0.5174531936645508, 0.5250397324562073, 0.42765524983406067, 0.450665682554245, 0.3992479741573334, 0.4419718384742737, 0.19722677767276764, 0.150551900267601, 0.17072930932044983, 0.08686574548482895, 0.10719969868659973, 0.2177249789237976, 0.4632832705974579, 0.3049676716327667, 0.4039418697357178, 0.48441073298454285, 0.32263824343681335, 0.3484751880168915, 0.39873820543289185, 0.28511300683021545, 0.3465343713760376, 0.15191394090652466, 0.20817269384860992, 0.18952812254428864, 0.16841880977153778, 0.13269266486167908, 0.37607717514038086, 0.6534739136695862, 0.6330106258392334, 0.4021565914154053, 0.32023587822914124, 0.30051955580711365, 0.2814393937587738, 0.22174209356307983, 0.2123587727546692, 0.11128848046064377, 0.20621594786643982, 0.20994874835014343, 0.20728139579296112, 0.16244767606258392, 0.3667786717414856, 0.5905138850212097, 0.6604856848716736, 0.6293620467185974, 0.6773953437805176, 0.769303023815155, 0.5206975340843201, 0.5713369846343994, 0.28964024782180786, 0.48238852620124817, 0.5330919623374939, 0.32357391715049744, 0.4086863696575165, 0.5484827160835266, 0.5411459803581238, 0.49187418818473816, 0.47591137886047363]</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.9493151307106018</v>
+        <v>0.9340084195137024</v>
       </c>
       <c r="F228" t="n">
         <v>1</v>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0.8665751999942586</v>
+        <v>0.8719005000020843</v>
       </c>
       <c r="J228" t="n">
-        <v>0.005701152631541175</v>
+        <v>0.005736187500013712</v>
       </c>
     </row>
   </sheetData>
